--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145D39B0-1527-4A30-A1A5-2E3D4DE08D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC48732F-AF43-4CD2-B00A-51B33390BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="5955" windowWidth="35040" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,9 +849,6 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1171,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1280,8 +1277,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="9">
-        <f>A2^6.45+A2^4+100*A2+50</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2" s="8">
         <f>A2^2+50+50*A2</f>
@@ -1338,15 +1334,13 @@
         <v>95</v>
       </c>
       <c r="E3" s="7">
-        <f>A3^3+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5">
         <v>1.05</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G7" si="0">A3^6.45+A3^4+100*A3+50</f>
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="H3" s="8">
         <f>A3^2+50+50*A3</f>
@@ -1403,22 +1397,20 @@
         <v>59</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" ref="E4:E6" si="1">A4^3+1</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" si="0"/>
-        <v>353.42657643228131</v>
+        <v>300</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H6" si="2">A4^2+50+50*A4</f>
+        <f t="shared" ref="H4:H6" si="0">A4^2+50+50*A4</f>
         <v>154</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I11" si="3">I2*J4</f>
+        <f t="shared" ref="I4:I11" si="1">I2*J4</f>
         <v>55.000000000000007</v>
       </c>
       <c r="J4" s="5">
@@ -1469,22 +1461,20 @@
         <v>59</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" ref="E5" si="4">A5^3+1</f>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
         <v>1.1499999999999999</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" si="0"/>
-        <v>1626.1766311172196</v>
+        <v>400</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" ref="H5" si="5">A5^2+50+50*A5</f>
+        <f t="shared" ref="H5" si="2">A5^2+50+50*A5</f>
         <v>209</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>55.000000000000007</v>
       </c>
       <c r="J5" s="5">
@@ -1535,22 +1525,20 @@
         <v>60</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5">
         <v>1.2</v>
       </c>
       <c r="G6" s="9">
+        <v>500</v>
+      </c>
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>8349.4062666695281</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="2"/>
         <v>266</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="J6" s="5">
@@ -1601,22 +1589,20 @@
         <v>60</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" ref="E7" si="6">A7^3+1</f>
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5">
         <v>1.25</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" si="0"/>
-        <v>33412.141682512403</v>
+        <v>600</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" ref="H7" si="7">A7^2+50+50*A7</f>
+        <f t="shared" ref="H7" si="3">A7^2+50+50*A7</f>
         <v>325</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="J7" s="5">
@@ -1666,23 +1652,21 @@
       <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="4">
-        <f>A8^3.1+1</f>
-        <v>259.3859389518841</v>
+      <c r="E8" s="7">
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1.3</v>
       </c>
-      <c r="G8" s="10">
-        <f>A8^6.45+A8^4+100*A8+100</f>
-        <v>106486.20109044592</v>
+      <c r="G8" s="9">
+        <v>700</v>
       </c>
       <c r="H8" s="3">
         <f>A8^2.1+50+50*A8</f>
         <v>393.06432315864737</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>85.8</v>
       </c>
       <c r="J8">
@@ -1732,23 +1716,21 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="4">
-        <f t="shared" ref="E9:E13" si="8">A9^3.1+1</f>
-        <v>417.68121710539998</v>
+      <c r="E9" s="7">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1.35</v>
       </c>
-      <c r="G9" s="10">
-        <f t="shared" ref="G9:G13" si="9">A9^6.45+A9^4+100*A9+100</f>
-        <v>285612.48736351961</v>
+      <c r="G9" s="9">
+        <v>800</v>
       </c>
       <c r="H9" s="3">
         <f>A9^2.1+50+50*A9</f>
         <v>459.52588815791427</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>85.8</v>
       </c>
       <c r="J9">
@@ -1798,23 +1780,21 @@
       <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="4">
-        <f t="shared" si="8"/>
-        <v>631.34593963259704</v>
+      <c r="E10" s="7">
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1.4</v>
       </c>
-      <c r="G10" s="10">
-        <f t="shared" si="9"/>
-        <v>673232.84217596101</v>
+      <c r="G10" s="9">
+        <v>900</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ref="H10:H12" si="10">A10^2.1+50+50*A10</f>
+        <f t="shared" ref="H10:H12" si="4">A10^2.1+50+50*A10</f>
         <v>528.79324245407463</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120.11999999999999</v>
       </c>
       <c r="J10">
@@ -1864,23 +1844,21 @@
       <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" si="8"/>
-        <v>909.13785497971276</v>
+      <c r="E11" s="7">
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1.45</v>
       </c>
-      <c r="G11" s="10">
-        <f t="shared" si="9"/>
-        <v>1436008.1795687063</v>
+      <c r="G11" s="9">
+        <v>1000</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11" si="11">A11^2.1+50+50*A11</f>
+        <f t="shared" ref="H11" si="5">A11^2.1+50+50*A11</f>
         <v>600.90420610885701</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120.11999999999999</v>
       </c>
       <c r="J11">
@@ -1930,23 +1908,21 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" si="8"/>
-        <v>1259.925411794168</v>
+      <c r="E12" s="7">
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1.5</v>
       </c>
-      <c r="G12" s="10">
-        <f t="shared" si="9"/>
-        <v>2829482.9312644606</v>
+      <c r="G12" s="9">
+        <v>1100</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>675.89254117941675</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12" si="12">I10*J12</f>
+        <f t="shared" ref="I12" si="6">I10*J12</f>
         <v>180.17999999999998</v>
       </c>
       <c r="J12">
@@ -1996,23 +1972,21 @@
       <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" si="8"/>
-        <v>1692.6765298446987</v>
+      <c r="E13" s="7">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1.55</v>
       </c>
-      <c r="G13" s="10">
-        <f t="shared" si="9"/>
-        <v>5227581.9300244208</v>
+      <c r="G13" s="9">
+        <v>1200</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" ref="H13" si="13">A13^2.1+50+50*A13</f>
+        <f t="shared" ref="H13" si="7">A13^2.1+50+50*A13</f>
         <v>753.78877544042712</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13" si="14">I11*J13</f>
+        <f t="shared" ref="I13" si="8">I11*J13</f>
         <v>180.17999999999998</v>
       </c>
       <c r="J13">
@@ -2063,22 +2037,20 @@
         <v>64</v>
       </c>
       <c r="E14" s="7">
-        <f>A14^3.2+1</f>
-        <v>2841.4031614057672</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5">
         <v>1.6</v>
       </c>
       <c r="G14" s="9">
-        <f>A14^6.65+A14^4+100*A14+100</f>
-        <v>15038071.495489266</v>
+        <v>1300</v>
       </c>
       <c r="H14" s="8">
         <f>A14^2.2+50+50*A14</f>
         <v>886.70026345048063</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" ref="I14:I37" si="15">I12*J14</f>
+        <f t="shared" ref="I14:I37" si="9">I12*J14</f>
         <v>288.28799999999995</v>
       </c>
       <c r="J14" s="5">
@@ -2129,22 +2101,20 @@
         <v>64</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" ref="E15:E19" si="16">A15^3.2+1</f>
-        <v>3670.6000021795785</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5">
         <v>1.65</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" ref="G15:G19" si="17">A15^6.65+A15^4+100*A15+100</f>
-        <v>25599523.241559103</v>
+        <v>1400</v>
       </c>
       <c r="H15" s="8">
         <f>A15^2.2+50+50*A15</f>
         <v>982.27692324458303</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>288.28799999999995</v>
       </c>
       <c r="J15" s="5">
@@ -2195,22 +2165,20 @@
         <v>65</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="16"/>
-        <v>4652.6787492307631</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
         <v>1.7</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="17"/>
-        <v>41895310.270313896</v>
+        <v>1500</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ref="H16:H18" si="18">A16^2.2+50+50*A16</f>
+        <f t="shared" ref="H16:H18" si="10">A16^2.2+50+50*A16</f>
         <v>1082.2627678021972</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>490.0895999999999</v>
       </c>
       <c r="J16" s="5">
@@ -2261,22 +2229,20 @@
         <v>65</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="16"/>
-        <v>5801.8552556077411</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5">
         <v>1.75</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="17"/>
-        <v>66274923.337626033</v>
+        <v>1600</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" ref="H17" si="19">A17^2.2+50+50*A17</f>
+        <f t="shared" ref="H17" si="11">A17^2.2+50+50*A17</f>
         <v>1186.7236837071828</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>490.0895999999999</v>
       </c>
       <c r="J17" s="5">
@@ -2327,22 +2293,20 @@
         <v>66</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="16"/>
-        <v>7132.5502145218443</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5">
         <v>1.8</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="17"/>
-        <v>101785252.92449331</v>
+        <v>1700</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>1295.7218884076156</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>882.16127999999981</v>
       </c>
       <c r="J18" s="5">
@@ -2393,22 +2357,20 @@
         <v>66</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="16"/>
-        <v>8659.3781289001781</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
         <v>1.85</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="17"/>
-        <v>152310091.21880817</v>
+        <v>1800</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" ref="H19" si="20">A19^2.2+50+50*A19</f>
+        <f t="shared" ref="H19" si="12">A19^2.2+50+50*A19</f>
         <v>1409.31636052354</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>882.16127999999981</v>
       </c>
       <c r="J19" s="5">
@@ -2458,16 +2420,14 @@
       <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="4">
-        <f>A20^3.3+1</f>
-        <v>13881.313233446435</v>
+      <c r="E20" s="7">
+        <v>1</v>
       </c>
       <c r="F20">
         <v>1.9</v>
       </c>
-      <c r="G20" s="10">
-        <f>A20^6.75+A20^4+100*A20+100</f>
-        <v>297334664.0103938</v>
+      <c r="G20" s="9">
+        <v>1900</v>
       </c>
       <c r="H20" s="3">
         <f>A20^2.3+50+50*A20</f>
@@ -2524,23 +2484,21 @@
       <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="4">
-        <f t="shared" ref="E21:E25" si="21">A21^3.3+1</f>
-        <v>16592.547057523356</v>
+      <c r="E21" s="7">
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1.95</v>
       </c>
-      <c r="G21" s="10">
-        <f t="shared" ref="G21:G25" si="22">A21^6.75+A21^4+100*A21+100</f>
-        <v>428273308.510382</v>
+      <c r="G21" s="9">
+        <v>2000</v>
       </c>
       <c r="H21" s="3">
         <f>A21^2.3+50+50*A21</f>
         <v>1873.2393188170181</v>
       </c>
       <c r="I21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1676.1064319999996</v>
       </c>
       <c r="J21">
@@ -2590,23 +2548,21 @@
       <c r="D22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="4">
-        <f t="shared" si="21"/>
-        <v>19652.648417852644</v>
+      <c r="E22" s="7">
+        <v>1</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="10">
-        <f t="shared" si="22"/>
-        <v>605436729.7620312</v>
+      <c r="G22" s="9">
+        <v>2100</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" ref="H22:H24" si="23">A22^2.3+50+50*A22</f>
+        <f t="shared" ref="H22:H24" si="13">A22^2.3+50+50*A22</f>
         <v>2032.5824208926319</v>
       </c>
       <c r="I22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>3352.2128639999992</v>
       </c>
       <c r="J22">
@@ -2656,23 +2612,21 @@
       <c r="D23" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="4">
-        <f t="shared" si="21"/>
-        <v>23085.670107231352</v>
+      <c r="E23" s="7">
+        <v>1</v>
       </c>
       <c r="F23">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G23" s="10">
-        <f t="shared" si="22"/>
-        <v>841553539.75217354</v>
+      <c r="G23" s="9">
+        <v>2200</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ref="H23" si="24">A23^2.3+50+50*A23</f>
+        <f t="shared" ref="H23" si="14">A23^2.3+50+50*A23</f>
         <v>2199.2700051062543</v>
       </c>
       <c r="I23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>3352.2128639999992</v>
       </c>
       <c r="J23">
@@ -2722,23 +2676,21 @@
       <c r="D24" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="4">
-        <f t="shared" si="21"/>
-        <v>26916.028666842216</v>
+      <c r="E24" s="7">
+        <v>1</v>
       </c>
       <c r="F24">
         <v>2.1</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" si="22"/>
-        <v>1151972963.5739701</v>
+      <c r="G24" s="9">
+        <v>2300</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>2373.4103939473744</v>
       </c>
       <c r="I24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>7039.6470143999986</v>
       </c>
       <c r="J24">
@@ -2788,23 +2740,21 @@
       <c r="D25" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="4">
-        <f t="shared" si="21"/>
-        <v>31168.492156608077</v>
+      <c r="E25" s="7">
+        <v>1</v>
       </c>
       <c r="F25">
         <v>2.15</v>
       </c>
-      <c r="G25" s="10">
-        <f t="shared" si="22"/>
-        <v>1555040573.8192072</v>
+      <c r="G25" s="9">
+        <v>2400</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" ref="H25" si="25">A25^2.3+50+50*A25</f>
+        <f t="shared" ref="H25" si="15">A25^2.3+50+50*A25</f>
         <v>2555.1083546351338</v>
       </c>
       <c r="I25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>7039.6470143999986</v>
       </c>
       <c r="J25">
@@ -2855,22 +2805,20 @@
         <v>70</v>
       </c>
       <c r="E26" s="7">
-        <f>A26^3.35+1</f>
-        <v>42045.351645813986</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="G26" s="9">
-        <f>A26^7.2+A26^4+100*A26+100</f>
-        <v>8660395060.6187077</v>
+        <v>2500</v>
       </c>
       <c r="H26" s="8">
         <f>A26^2.4+50+50*A26</f>
         <v>3303.5580315768352</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>15487.223431679999</v>
       </c>
       <c r="J26" s="5">
@@ -2921,22 +2869,20 @@
         <v>70</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" ref="E27:E31" si="26">A27^3.35+1</f>
-        <v>48206.770525000764</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5">
         <v>2.25</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" ref="G27:G31" si="27">A27^7.2+A27^4+100*A27+100</f>
-        <v>11619374784.545155</v>
+        <v>2600</v>
       </c>
       <c r="H27" s="8">
         <f>A27^2.4+50+50*A27</f>
         <v>3564.9364489927962</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>15487.223431679999</v>
       </c>
       <c r="J27" s="5">
@@ -2987,22 +2933,20 @@
         <v>71</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="26"/>
-        <v>54975.427545501989</v>
+        <v>1</v>
       </c>
       <c r="F28" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="27"/>
-        <v>15410653650.229643</v>
+        <v>2700</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" ref="H28:H30" si="28">A28^2.4+50+50*A28</f>
+        <f t="shared" ref="H28:H30" si="16">A28^2.4+50+50*A28</f>
         <v>3838.4907750305106</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>35620.613892863992</v>
       </c>
       <c r="J28" s="5">
@@ -3053,22 +2997,20 @@
         <v>71</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="26"/>
-        <v>62384.338102541675</v>
+        <v>1</v>
       </c>
       <c r="F29" s="5">
         <v>2.35</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="27"/>
-        <v>20222301236.684063</v>
+        <v>2800</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" ref="H29" si="29">A29^2.4+50+50*A29</f>
+        <f t="shared" ref="H29" si="17">A29^2.4+50+50*A29</f>
         <v>4124.4135649391374</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>35620.613892863992</v>
       </c>
       <c r="J29" s="5">
@@ -3119,22 +3061,20 @@
         <v>72</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="26"/>
-        <v>70466.965198222359</v>
+        <v>1</v>
       </c>
       <c r="F30" s="5">
         <v>2.4</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="27"/>
-        <v>26275321163.901581</v>
+        <v>2900</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>4422.8929781550978</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>85489.473342873578</v>
       </c>
       <c r="J30" s="5">
@@ -3185,22 +3125,20 @@
         <v>72</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="26"/>
-        <v>79257.20858635976</v>
+        <v>1</v>
       </c>
       <c r="F31" s="5">
         <v>2.4500000000000002</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="27"/>
-        <v>33827873962.919716</v>
+        <v>3000</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" ref="H31" si="30">A31^2.4+50+50*A31</f>
+        <f t="shared" ref="H31" si="18">A31^2.4+50+50*A31</f>
         <v>4734.1130361951909</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>85489.473342873578</v>
       </c>
       <c r="J31" s="5">
@@ -3250,23 +3188,21 @@
       <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="4">
-        <f>A32^3.37+1</f>
-        <v>95039.293249463779</v>
+      <c r="E32" s="7">
+        <v>1</v>
       </c>
       <c r="F32">
         <v>2.5</v>
       </c>
-      <c r="G32" s="10">
-        <f>A32^7.2+A32^4+100*A32+100</f>
-        <v>43179858225.207611</v>
+      <c r="G32" s="9">
+        <v>3100</v>
       </c>
       <c r="H32" s="3">
         <f>A32^2.5+50+50*A32</f>
         <v>6479.5030175464972</v>
       </c>
       <c r="I32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>213723.68335718394</v>
       </c>
       <c r="J32">
@@ -3316,23 +3252,21 @@
       <c r="D33" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" ref="E33:E37" si="31">A33^3.37+1</f>
-        <v>106143.40120404756</v>
+      <c r="E33" s="7">
+        <v>1</v>
       </c>
       <c r="F33">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G33" s="10">
-        <f t="shared" ref="G33:G37" si="32">A33^7.2+A33^4+100*A33+100</f>
-        <v>54677866011.146729</v>
+      <c r="G33" s="9">
+        <v>3200</v>
       </c>
       <c r="H33" s="3">
         <f>A33^2.5+50+50*A33</f>
         <v>6950.6215526796486</v>
       </c>
       <c r="I33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>213723.68335718394</v>
       </c>
       <c r="J33">
@@ -3382,23 +3316,21 @@
       <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="4">
-        <f t="shared" si="31"/>
-        <v>118129.70063532676</v>
+      <c r="E34" s="7">
+        <v>1</v>
       </c>
       <c r="F34">
         <v>2.6</v>
       </c>
-      <c r="G34" s="10">
-        <f t="shared" si="32"/>
-        <v>68720528611.999969</v>
+      <c r="G34" s="9">
+        <v>3300</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" ref="H34:H36" si="33">A34^2.5+50+50*A34</f>
+        <f t="shared" ref="H34:H36" si="19">A34^2.5+50+50*A34</f>
         <v>7442.6187514801986</v>
       </c>
       <c r="I34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>555681.57672867831</v>
       </c>
       <c r="J34">
@@ -3448,23 +3380,21 @@
       <c r="D35" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="4">
-        <f t="shared" si="31"/>
-        <v>131037.40733279596</v>
+      <c r="E35" s="7">
+        <v>1</v>
       </c>
       <c r="F35">
         <v>2.65</v>
       </c>
-      <c r="G35" s="10">
-        <f t="shared" si="32"/>
-        <v>85764268871.219742</v>
+      <c r="G35" s="9">
+        <v>3400</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" ref="H35" si="34">A35^2.5+50+50*A35</f>
+        <f t="shared" ref="H35" si="20">A35^2.5+50+50*A35</f>
         <v>7955.8287220799175</v>
       </c>
       <c r="I35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>555681.57672867831</v>
       </c>
       <c r="J35">
@@ -3514,23 +3444,21 @@
       <c r="D36" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="4">
-        <f t="shared" si="31"/>
-        <v>144906.19325801224</v>
+      <c r="E36" s="7">
+        <v>1</v>
       </c>
       <c r="F36">
         <v>2.7</v>
       </c>
-      <c r="G36" s="10">
-        <f t="shared" si="32"/>
-        <v>106329476379.41353</v>
+      <c r="G36" s="9">
+        <v>3500</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>8490.5803904411732</v>
       </c>
       <c r="I36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1500340.2571674315</v>
       </c>
       <c r="J36">
@@ -3580,23 +3508,21 @@
       <c r="D37" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="4">
-        <f t="shared" si="31"/>
-        <v>159776.17778187574</v>
+      <c r="E37" s="7">
+        <v>1</v>
       </c>
       <c r="F37">
         <v>2.75</v>
       </c>
-      <c r="G37" s="10">
-        <f t="shared" si="32"/>
-        <v>131007121962.93474</v>
+      <c r="G37" s="9">
+        <v>3600</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" ref="H37" si="35">A37^2.5+50+50*A37</f>
+        <f t="shared" ref="H37" si="21">A37^2.5+50+50*A37</f>
         <v>9047.197734297024</v>
       </c>
       <c r="I37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1500340.2571674315</v>
       </c>
       <c r="J37">
@@ -3647,22 +3573,20 @@
         <v>99</v>
       </c>
       <c r="E38" s="7">
-        <f>A38^3.4+1</f>
-        <v>195627.86832044073</v>
+        <v>1</v>
       </c>
       <c r="F38" s="5">
         <v>2.8</v>
       </c>
       <c r="G38" s="9">
-        <f>A38^7.45+A38^4+100*A38+100</f>
-        <v>393056959777.18671</v>
+        <v>3700</v>
       </c>
       <c r="H38" s="8">
         <f>A38^2.6+50+50*A38</f>
         <v>12977.215574674467</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" ref="I38:I42" si="36">I36*J38</f>
+        <f t="shared" ref="I38:I42" si="22">I36*J38</f>
         <v>4200952.7200688077</v>
       </c>
       <c r="J38" s="5">
@@ -3713,22 +3637,20 @@
         <v>99</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" ref="E39:E43" si="37">A39^3.4+1</f>
-        <v>214727.60708434237</v>
+        <v>1</v>
       </c>
       <c r="F39" s="5">
         <v>2.85</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" ref="G39:G42" si="38">A39^7.45+A39^4+100*A39+100</f>
-        <v>482063818074.09705</v>
+        <v>3800</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" ref="H39:H43" si="39">A39^2.6+50+50*A39</f>
+        <f t="shared" ref="H39:H43" si="23">A39^2.6+50+50*A39</f>
         <v>13848.805245137626</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>4200952.7200688077</v>
       </c>
       <c r="J39" s="5">
@@ -3779,18 +3701,16 @@
         <v>100</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="37"/>
-        <v>235107.27926197299</v>
+        <v>1</v>
       </c>
       <c r="F40" s="5">
         <v>2.9</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="38"/>
-        <v>588016263015.35449</v>
+        <v>3900</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>14756.703391554198</v>
       </c>
       <c r="I40" s="5">
@@ -3845,22 +3765,20 @@
         <v>100</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="37"/>
-        <v>256815.57279727521</v>
+        <v>1</v>
       </c>
       <c r="F41" s="5">
         <v>2.95</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="38"/>
-        <v>713563673803.10168</v>
+        <v>4000</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>15701.495684894915</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>12182762.888199542</v>
       </c>
       <c r="J41" s="5">
@@ -3911,22 +3829,20 @@
         <v>101</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="37"/>
-        <v>279901.6909294792</v>
+        <v>1</v>
       </c>
       <c r="F42" s="5">
         <v>3</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" si="38"/>
-        <v>861684394448.04492</v>
+        <v>4100</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>16683.761661674449</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>36548288.664598629</v>
       </c>
       <c r="J42" s="5">
@@ -3977,18 +3893,16 @@
         <v>101</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" si="37"/>
-        <v>304415.34422148415</v>
+        <v>1</v>
       </c>
       <c r="F43" s="5">
         <v>3.05</v>
       </c>
       <c r="G43" s="9">
-        <f>A43^7.45+A43^4+100*A43+100</f>
-        <v>1035716557640.1138</v>
+        <v>4200</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>17704.074943143773</v>
       </c>
       <c r="I43" s="5">
@@ -4042,16 +3956,14 @@
       <c r="D44" t="s">
         <v>108</v>
       </c>
-      <c r="E44">
-        <f>A44^3.37+1</f>
-        <v>295359.93177883304</v>
+      <c r="E44" s="7">
+        <v>1</v>
       </c>
       <c r="F44">
         <v>2.8</v>
       </c>
-      <c r="G44">
-        <f>A44^8+A44^4+100*A44+100</f>
-        <v>9682655112412</v>
+      <c r="G44" s="9">
+        <v>4300</v>
       </c>
       <c r="H44">
         <f>A44^2.65+50+50*A44</f>
@@ -4108,23 +4020,21 @@
       <c r="D45" t="s">
         <v>108</v>
       </c>
-      <c r="E45">
-        <f t="shared" ref="E45:E49" si="40">A45^3.37+1</f>
-        <v>319734.90753014456</v>
+      <c r="E45" s="7">
+        <v>1</v>
       </c>
       <c r="F45">
         <v>2.85</v>
       </c>
-      <c r="G45">
-        <f t="shared" ref="G45:G49" si="41">A45^8+A45^4+100*A45+100</f>
-        <v>11688203700802</v>
+      <c r="G45" s="9">
+        <v>4400</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:H49" si="42">A45^2.65+50+50*A45</f>
+        <f t="shared" ref="H45:H49" si="24">A45^2.65+50+50*A45</f>
         <v>23515.297930120767</v>
       </c>
       <c r="I45">
-        <f t="shared" ref="I45:I49" si="43">I43*J45</f>
+        <f t="shared" ref="I45:I49" si="25">I43*J45</f>
         <v>102335208.26087615</v>
       </c>
       <c r="J45">
@@ -4174,23 +4084,21 @@
       <c r="D46" t="s">
         <v>109</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="40"/>
-        <v>345491.03043546219</v>
+      <c r="E46" s="7">
+        <v>1</v>
       </c>
       <c r="F46">
         <v>2.9</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="41"/>
-        <v>14048227377812</v>
+      <c r="G46" s="9">
+        <v>4500</v>
       </c>
       <c r="H46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="24"/>
         <v>24904.244984461016</v>
       </c>
       <c r="I46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>296772103.95654082</v>
       </c>
       <c r="J46">
@@ -4240,23 +4148,21 @@
       <c r="D47" t="s">
         <v>109</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="40"/>
-        <v>372672.49142574513</v>
+      <c r="E47" s="7">
+        <v>1</v>
       </c>
       <c r="F47">
         <v>2.95</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="41"/>
-        <v>16815129495850</v>
+      <c r="G47" s="9">
+        <v>4600</v>
       </c>
       <c r="H47">
-        <f t="shared" si="42"/>
+        <f t="shared" si="24"/>
         <v>26344.356664904612</v>
       </c>
       <c r="I47">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>296772103.95654082</v>
       </c>
       <c r="J47">
@@ -4306,23 +4212,21 @@
       <c r="D48" t="s">
         <v>110</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="40"/>
-        <v>401323.85465096321</v>
+      <c r="E48" s="7">
+        <v>1</v>
       </c>
       <c r="F48">
         <v>3</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="41"/>
-        <v>20047616714092</v>
+      <c r="G48" s="9">
+        <v>4700</v>
       </c>
       <c r="H48">
-        <f t="shared" si="42"/>
+        <f t="shared" si="24"/>
         <v>27836.385859020873</v>
       </c>
       <c r="I48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>890316311.86962247</v>
       </c>
       <c r="J48">
@@ -4372,23 +4276,21 @@
       <c r="D49" t="s">
         <v>110</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="40"/>
-        <v>431490.05223189824</v>
+      <c r="E49" s="7">
+        <v>1</v>
       </c>
       <c r="F49">
         <v>3.05</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="41"/>
-        <v>23811291546242</v>
+      <c r="G49" s="9">
+        <v>4800</v>
       </c>
       <c r="H49">
-        <f t="shared" si="42"/>
+        <f t="shared" si="24"/>
         <v>29381.079620092358</v>
       </c>
       <c r="I49">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>890316311.86962247</v>
       </c>
       <c r="J49">

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC48732F-AF43-4CD2-B00A-51B33390BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB1D4EF-0765-44C5-99DA-E5BD18557555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5430" yWindow="3690" windowWidth="29130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="108">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,18 +631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>악마용새끼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,18 +652,6 @@
   </si>
   <si>
     <t>enemy20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1168,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1367,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>59</v>
@@ -1455,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>59</v>
@@ -1519,7 +1495,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>60</v>
@@ -1583,7 +1559,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>60</v>
@@ -1647,7 +1623,7 @@
         <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1711,7 +1687,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -1775,7 +1751,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>62</v>
@@ -1839,7 +1815,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>62</v>
@@ -1903,7 +1879,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
@@ -1967,7 +1943,7 @@
         <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>63</v>
@@ -2031,7 +2007,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>64</v>
@@ -2095,7 +2071,7 @@
         <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>64</v>
@@ -2159,7 +2135,7 @@
         <v>56</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>65</v>
@@ -2223,7 +2199,7 @@
         <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>65</v>
@@ -2287,7 +2263,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>66</v>
@@ -2351,7 +2327,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>66</v>
@@ -2415,7 +2391,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -2479,7 +2455,7 @@
         <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>67</v>
@@ -2543,7 +2519,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -2607,7 +2583,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
@@ -2671,7 +2647,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
@@ -2735,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>69</v>
@@ -2799,7 +2775,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>70</v>
@@ -2863,7 +2839,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>70</v>
@@ -2927,7 +2903,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>71</v>
@@ -2991,7 +2967,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>71</v>
@@ -3055,7 +3031,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>72</v>
@@ -3119,7 +3095,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>72</v>
@@ -3183,7 +3159,7 @@
         <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
         <v>75</v>
@@ -3247,7 +3223,7 @@
         <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>75</v>
@@ -3311,7 +3287,7 @@
         <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>74</v>
@@ -3375,7 +3351,7 @@
         <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>74</v>
@@ -3439,7 +3415,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
@@ -3503,7 +3479,7 @@
         <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
         <v>73</v>
@@ -3567,10 +3543,10 @@
         <v>56</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E38" s="7">
         <v>1</v>
@@ -3620,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3631,10 +3607,10 @@
         <v>58</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E39" s="7">
         <v>1</v>
@@ -3684,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3695,10 +3671,10 @@
         <v>56</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E40" s="7">
         <v>1</v>
@@ -3748,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3759,10 +3735,10 @@
         <v>58</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E41" s="7">
         <v>1</v>
@@ -3812,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3823,10 +3799,10 @@
         <v>56</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E42" s="7">
         <v>1</v>
@@ -3876,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3887,10 +3863,10 @@
         <v>58</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E43" s="7">
         <v>1</v>
@@ -3940,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="T43" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -3951,10 +3927,10 @@
         <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E44" s="7">
         <v>1</v>
@@ -4004,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -4015,10 +3991,10 @@
         <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E45" s="7">
         <v>1</v>
@@ -4068,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -4079,10 +4055,10 @@
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E46" s="7">
         <v>1</v>
@@ -4132,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -4143,10 +4119,10 @@
         <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E47" s="7">
         <v>1</v>
@@ -4196,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -4207,10 +4183,10 @@
         <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E48" s="7">
         <v>1</v>
@@ -4260,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -4271,10 +4247,10 @@
         <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E49" s="7">
         <v>1</v>
@@ -4324,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE40B60-8256-412C-A6E2-324DD8302B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEFAA01-282C-440B-A98F-815CCA6CA51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3090" windowWidth="34365" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -975,7 +975,7 @@
   <dimension ref="A1:W200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1093,8 +1093,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="9">
-        <f>100+A2^2</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H2" s="8">
         <f>A2^2+50+50*A2</f>
@@ -1166,8 +1165,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G66" si="0">100+A3^2</f>
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="H3" s="8">
         <f>A3^2+50+50*A3</f>
@@ -1239,11 +1237,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" si="0"/>
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H10" si="1">A4^2+50+50*A4</f>
+        <f t="shared" ref="H4:H10" si="0">A4^2+50+50*A4</f>
         <v>154</v>
       </c>
       <c r="I4" s="5">
@@ -1312,11 +1309,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="9">
+        <v>60</v>
+      </c>
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" si="1"/>
         <v>209</v>
       </c>
       <c r="I5" s="5">
@@ -1385,11 +1381,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="9">
+        <v>70</v>
+      </c>
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="1"/>
         <v>266</v>
       </c>
       <c r="I6" s="5">
@@ -1458,11 +1453,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="9">
+        <v>80</v>
+      </c>
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="I7" s="5">
@@ -1531,11 +1525,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="9">
+        <v>90</v>
+      </c>
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="1"/>
         <v>386</v>
       </c>
       <c r="I8" s="5">
@@ -1604,11 +1597,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>149</v>
-      </c>
-      <c r="H9" s="8">
-        <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="I9" s="5">
@@ -1677,11 +1669,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="9">
+        <v>110</v>
+      </c>
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="1"/>
         <v>514</v>
       </c>
       <c r="I10" s="5">
@@ -1750,11 +1741,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="0"/>
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" ref="H11:H74" si="2">A11^2+50+50*A11</f>
+        <f t="shared" ref="H11:H74" si="1">A11^2+50+50*A11</f>
         <v>581</v>
       </c>
       <c r="I11" s="5">
@@ -1823,11 +1813,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>650</v>
       </c>
       <c r="I12" s="5">
@@ -1896,11 +1885,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="0"/>
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>721</v>
       </c>
       <c r="I13" s="5">
@@ -1969,11 +1957,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="0"/>
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>794</v>
       </c>
       <c r="I14" s="5">
@@ -2042,11 +2029,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="0"/>
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>869</v>
       </c>
       <c r="I15" s="5">
@@ -2115,11 +2101,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="0"/>
-        <v>296</v>
+        <v>170</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>946</v>
       </c>
       <c r="I16" s="5">
@@ -2188,11 +2173,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="0"/>
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1025</v>
       </c>
       <c r="I17" s="5">
@@ -2261,11 +2245,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="0"/>
-        <v>356</v>
+        <v>190</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1106</v>
       </c>
       <c r="I18" s="5">
@@ -2334,11 +2317,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="0"/>
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1189</v>
       </c>
       <c r="I19" s="5">
@@ -2407,11 +2389,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="0"/>
-        <v>424</v>
+        <v>210</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1274</v>
       </c>
       <c r="I20" s="5">
@@ -2480,11 +2461,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="0"/>
-        <v>461</v>
+        <v>220</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1361</v>
       </c>
       <c r="I21" s="5">
@@ -2553,11 +2533,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1450</v>
       </c>
       <c r="I22" s="5">
@@ -2626,11 +2605,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="0"/>
-        <v>541</v>
+        <v>240</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1541</v>
       </c>
       <c r="I23" s="5">
@@ -2699,11 +2677,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="0"/>
-        <v>584</v>
+        <v>250</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1634</v>
       </c>
       <c r="I24" s="5">
@@ -2772,11 +2749,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="0"/>
-        <v>629</v>
+        <v>260</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1729</v>
       </c>
       <c r="I25" s="5">
@@ -2845,11 +2821,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="0"/>
-        <v>676</v>
+        <v>270</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1826</v>
       </c>
       <c r="I26" s="5">
@@ -2918,11 +2893,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="0"/>
-        <v>725</v>
+        <v>280</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1925</v>
       </c>
       <c r="I27" s="5">
@@ -2991,11 +2965,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="0"/>
-        <v>776</v>
+        <v>290</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2026</v>
       </c>
       <c r="I28" s="5">
@@ -3064,11 +3037,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="0"/>
-        <v>829</v>
+        <v>300</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2129</v>
       </c>
       <c r="I29" s="5">
@@ -3137,11 +3109,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="0"/>
-        <v>884</v>
+        <v>310</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2234</v>
       </c>
       <c r="I30" s="5">
@@ -3210,11 +3181,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="0"/>
-        <v>941</v>
+        <v>320</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2341</v>
       </c>
       <c r="I31" s="5">
@@ -3283,11 +3253,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2450</v>
       </c>
       <c r="I32" s="5">
@@ -3356,11 +3325,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="0"/>
-        <v>1061</v>
+        <v>340</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2561</v>
       </c>
       <c r="I33" s="5">
@@ -3429,11 +3397,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="0"/>
-        <v>1124</v>
+        <v>350</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2674</v>
       </c>
       <c r="I34" s="5">
@@ -3502,11 +3469,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" si="0"/>
-        <v>1189</v>
+        <v>360</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2789</v>
       </c>
       <c r="I35" s="5">
@@ -3575,11 +3541,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="0"/>
-        <v>1256</v>
+        <v>370</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2906</v>
       </c>
       <c r="I36" s="5">
@@ -3648,11 +3613,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="0"/>
-        <v>1325</v>
+        <v>380</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3025</v>
       </c>
       <c r="I37" s="5">
@@ -3721,11 +3685,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="0"/>
-        <v>1396</v>
+        <v>390</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3146</v>
       </c>
       <c r="I38" s="5">
@@ -3794,11 +3757,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" si="0"/>
-        <v>1469</v>
+        <v>400</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3269</v>
       </c>
       <c r="I39" s="5">
@@ -3867,11 +3829,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="0"/>
-        <v>1544</v>
+        <v>410</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3394</v>
       </c>
       <c r="I40" s="5">
@@ -3940,11 +3901,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="0"/>
-        <v>1621</v>
+        <v>420</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3521</v>
       </c>
       <c r="I41" s="5">
@@ -4013,11 +3973,10 @@
         <v>1</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>430</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3650</v>
       </c>
       <c r="I42" s="5">
@@ -4086,11 +4045,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" si="0"/>
-        <v>1781</v>
+        <v>440</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3781</v>
       </c>
       <c r="I43" s="5">
@@ -4159,11 +4117,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="0"/>
-        <v>1864</v>
+        <v>450</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3914</v>
       </c>
       <c r="I44" s="5">
@@ -4232,11 +4189,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="0"/>
-        <v>1949</v>
+        <v>460</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4049</v>
       </c>
       <c r="I45" s="5">
@@ -4305,11 +4261,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="9">
-        <f t="shared" si="0"/>
-        <v>2036</v>
+        <v>470</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4186</v>
       </c>
       <c r="I46" s="5">
@@ -4378,11 +4333,10 @@
         <v>1</v>
       </c>
       <c r="G47" s="9">
-        <f t="shared" si="0"/>
-        <v>2125</v>
+        <v>480</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4325</v>
       </c>
       <c r="I47" s="5">
@@ -4451,11 +4405,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="9">
-        <f t="shared" si="0"/>
-        <v>2216</v>
+        <v>490</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4466</v>
       </c>
       <c r="I48" s="5">
@@ -4524,11 +4477,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="9">
-        <f t="shared" si="0"/>
-        <v>2309</v>
+        <v>500</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4609</v>
       </c>
       <c r="I49" s="5">
@@ -4597,11 +4549,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="9">
-        <f t="shared" si="0"/>
-        <v>2404</v>
+        <v>510</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4754</v>
       </c>
       <c r="I50" s="5">
@@ -4670,11 +4621,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="9">
-        <f t="shared" si="0"/>
-        <v>2501</v>
+        <v>520</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4901</v>
       </c>
       <c r="I51" s="5">
@@ -4743,11 +4693,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="9">
-        <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>530</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5050</v>
       </c>
       <c r="I52" s="5">
@@ -4816,11 +4765,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="9">
-        <f t="shared" si="0"/>
-        <v>2701</v>
+        <v>540</v>
       </c>
       <c r="H53" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5201</v>
       </c>
       <c r="I53" s="5">
@@ -4889,11 +4837,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" si="0"/>
-        <v>2804</v>
+        <v>550</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5354</v>
       </c>
       <c r="I54" s="5">
@@ -4962,11 +4909,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="0"/>
-        <v>2909</v>
+        <v>560</v>
       </c>
       <c r="H55" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5509</v>
       </c>
       <c r="I55" s="5">
@@ -5035,11 +4981,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="0"/>
-        <v>3016</v>
+        <v>570</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5666</v>
       </c>
       <c r="I56" s="5">
@@ -5108,11 +5053,10 @@
         <v>1</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="0"/>
-        <v>3125</v>
+        <v>580</v>
       </c>
       <c r="H57" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5825</v>
       </c>
       <c r="I57" s="5">
@@ -5181,11 +5125,10 @@
         <v>1</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="0"/>
-        <v>3236</v>
+        <v>590</v>
       </c>
       <c r="H58" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5986</v>
       </c>
       <c r="I58" s="5">
@@ -5254,11 +5197,10 @@
         <v>1</v>
       </c>
       <c r="G59" s="9">
-        <f t="shared" si="0"/>
-        <v>3349</v>
+        <v>600</v>
       </c>
       <c r="H59" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6149</v>
       </c>
       <c r="I59" s="5">
@@ -5327,11 +5269,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="9">
-        <f t="shared" si="0"/>
-        <v>3464</v>
+        <v>610</v>
       </c>
       <c r="H60" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6314</v>
       </c>
       <c r="I60" s="5">
@@ -5400,11 +5341,10 @@
         <v>1</v>
       </c>
       <c r="G61" s="9">
-        <f t="shared" si="0"/>
-        <v>3581</v>
+        <v>620</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6481</v>
       </c>
       <c r="I61" s="5">
@@ -5473,11 +5413,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="9">
-        <f t="shared" si="0"/>
-        <v>3700</v>
+        <v>630</v>
       </c>
       <c r="H62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6650</v>
       </c>
       <c r="I62" s="5">
@@ -5546,11 +5485,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="9">
-        <f t="shared" si="0"/>
-        <v>3821</v>
+        <v>640</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6821</v>
       </c>
       <c r="I63" s="5">
@@ -5619,11 +5557,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="9">
-        <f t="shared" si="0"/>
-        <v>3944</v>
+        <v>650</v>
       </c>
       <c r="H64" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6994</v>
       </c>
       <c r="I64" s="5">
@@ -5692,11 +5629,10 @@
         <v>1</v>
       </c>
       <c r="G65" s="9">
-        <f t="shared" si="0"/>
-        <v>4069</v>
+        <v>660</v>
       </c>
       <c r="H65" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7169</v>
       </c>
       <c r="I65" s="5">
@@ -5765,11 +5701,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="0"/>
-        <v>4196</v>
+        <v>670</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7346</v>
       </c>
       <c r="I66" s="5">
@@ -5838,11 +5773,10 @@
         <v>1</v>
       </c>
       <c r="G67" s="9">
-        <f t="shared" ref="G67:G130" si="3">100+A67^2</f>
-        <v>4325</v>
+        <v>680</v>
       </c>
       <c r="H67" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7525</v>
       </c>
       <c r="I67" s="5">
@@ -5911,11 +5845,10 @@
         <v>1</v>
       </c>
       <c r="G68" s="9">
-        <f t="shared" si="3"/>
-        <v>4456</v>
+        <v>690</v>
       </c>
       <c r="H68" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7706</v>
       </c>
       <c r="I68" s="5">
@@ -5984,11 +5917,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="9">
-        <f t="shared" si="3"/>
-        <v>4589</v>
+        <v>700</v>
       </c>
       <c r="H69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7889</v>
       </c>
       <c r="I69" s="5">
@@ -6057,11 +5989,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="9">
-        <f t="shared" si="3"/>
-        <v>4724</v>
+        <v>710</v>
       </c>
       <c r="H70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8074</v>
       </c>
       <c r="I70" s="5">
@@ -6130,11 +6061,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="9">
-        <f t="shared" si="3"/>
-        <v>4861</v>
+        <v>720</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8261</v>
       </c>
       <c r="I71" s="5">
@@ -6203,11 +6133,10 @@
         <v>1</v>
       </c>
       <c r="G72" s="9">
-        <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>730</v>
       </c>
       <c r="H72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8450</v>
       </c>
       <c r="I72" s="5">
@@ -6276,11 +6205,10 @@
         <v>1</v>
       </c>
       <c r="G73" s="9">
-        <f t="shared" si="3"/>
-        <v>5141</v>
+        <v>740</v>
       </c>
       <c r="H73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8641</v>
       </c>
       <c r="I73" s="5">
@@ -6349,11 +6277,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="9">
-        <f t="shared" si="3"/>
-        <v>5284</v>
+        <v>750</v>
       </c>
       <c r="H74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8834</v>
       </c>
       <c r="I74" s="5">
@@ -6422,11 +6349,10 @@
         <v>1</v>
       </c>
       <c r="G75" s="9">
-        <f t="shared" si="3"/>
-        <v>5429</v>
+        <v>760</v>
       </c>
       <c r="H75" s="8">
-        <f t="shared" ref="H75:H138" si="4">A75^2+50+50*A75</f>
+        <f t="shared" ref="H75:H138" si="2">A75^2+50+50*A75</f>
         <v>9029</v>
       </c>
       <c r="I75" s="5">
@@ -6495,11 +6421,10 @@
         <v>1</v>
       </c>
       <c r="G76" s="9">
-        <f t="shared" si="3"/>
-        <v>5576</v>
+        <v>770</v>
       </c>
       <c r="H76" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9226</v>
       </c>
       <c r="I76" s="5">
@@ -6568,11 +6493,10 @@
         <v>1</v>
       </c>
       <c r="G77" s="9">
-        <f t="shared" si="3"/>
-        <v>5725</v>
+        <v>780</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9425</v>
       </c>
       <c r="I77" s="5">
@@ -6641,11 +6565,10 @@
         <v>1</v>
       </c>
       <c r="G78" s="9">
-        <f t="shared" si="3"/>
-        <v>5876</v>
+        <v>790</v>
       </c>
       <c r="H78" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9626</v>
       </c>
       <c r="I78" s="5">
@@ -6714,11 +6637,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="9">
-        <f t="shared" si="3"/>
-        <v>6029</v>
+        <v>800</v>
       </c>
       <c r="H79" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9829</v>
       </c>
       <c r="I79" s="5">
@@ -6787,11 +6709,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="9">
-        <f t="shared" si="3"/>
-        <v>6184</v>
+        <v>810</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10034</v>
       </c>
       <c r="I80" s="5">
@@ -6860,11 +6781,10 @@
         <v>1</v>
       </c>
       <c r="G81" s="9">
-        <f t="shared" si="3"/>
-        <v>6341</v>
+        <v>820</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10241</v>
       </c>
       <c r="I81" s="5">
@@ -6933,11 +6853,10 @@
         <v>1</v>
       </c>
       <c r="G82" s="9">
-        <f t="shared" si="3"/>
-        <v>6500</v>
+        <v>830</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10450</v>
       </c>
       <c r="I82" s="5">
@@ -7006,11 +6925,10 @@
         <v>1</v>
       </c>
       <c r="G83" s="9">
-        <f t="shared" si="3"/>
-        <v>6661</v>
+        <v>840</v>
       </c>
       <c r="H83" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10661</v>
       </c>
       <c r="I83" s="5">
@@ -7079,11 +6997,10 @@
         <v>1</v>
       </c>
       <c r="G84" s="9">
-        <f t="shared" si="3"/>
-        <v>6824</v>
+        <v>850</v>
       </c>
       <c r="H84" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10874</v>
       </c>
       <c r="I84" s="5">
@@ -7152,11 +7069,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="9">
-        <f t="shared" si="3"/>
-        <v>6989</v>
+        <v>860</v>
       </c>
       <c r="H85" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11089</v>
       </c>
       <c r="I85" s="5">
@@ -7225,11 +7141,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="9">
-        <f t="shared" si="3"/>
-        <v>7156</v>
+        <v>870</v>
       </c>
       <c r="H86" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11306</v>
       </c>
       <c r="I86" s="5">
@@ -7298,11 +7213,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="9">
-        <f t="shared" si="3"/>
-        <v>7325</v>
+        <v>880</v>
       </c>
       <c r="H87" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11525</v>
       </c>
       <c r="I87" s="5">
@@ -7371,11 +7285,10 @@
         <v>1</v>
       </c>
       <c r="G88" s="9">
-        <f t="shared" si="3"/>
-        <v>7496</v>
+        <v>890</v>
       </c>
       <c r="H88" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11746</v>
       </c>
       <c r="I88" s="5">
@@ -7444,11 +7357,10 @@
         <v>1</v>
       </c>
       <c r="G89" s="9">
-        <f t="shared" si="3"/>
-        <v>7669</v>
+        <v>900</v>
       </c>
       <c r="H89" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11969</v>
       </c>
       <c r="I89" s="5">
@@ -7517,11 +7429,10 @@
         <v>1</v>
       </c>
       <c r="G90" s="9">
-        <f t="shared" si="3"/>
-        <v>7844</v>
+        <v>910</v>
       </c>
       <c r="H90" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12194</v>
       </c>
       <c r="I90" s="5">
@@ -7590,11 +7501,10 @@
         <v>1</v>
       </c>
       <c r="G91" s="9">
-        <f t="shared" si="3"/>
-        <v>8021</v>
+        <v>920</v>
       </c>
       <c r="H91" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12421</v>
       </c>
       <c r="I91" s="5">
@@ -7663,11 +7573,10 @@
         <v>1</v>
       </c>
       <c r="G92" s="9">
-        <f t="shared" si="3"/>
-        <v>8200</v>
+        <v>930</v>
       </c>
       <c r="H92" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12650</v>
       </c>
       <c r="I92" s="5">
@@ -7736,11 +7645,10 @@
         <v>1</v>
       </c>
       <c r="G93" s="9">
-        <f t="shared" si="3"/>
-        <v>8381</v>
+        <v>940</v>
       </c>
       <c r="H93" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12881</v>
       </c>
       <c r="I93" s="5">
@@ -7809,11 +7717,10 @@
         <v>1</v>
       </c>
       <c r="G94" s="9">
-        <f t="shared" si="3"/>
-        <v>8564</v>
+        <v>950</v>
       </c>
       <c r="H94" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13114</v>
       </c>
       <c r="I94" s="5">
@@ -7882,11 +7789,10 @@
         <v>1</v>
       </c>
       <c r="G95" s="9">
-        <f t="shared" si="3"/>
-        <v>8749</v>
+        <v>960</v>
       </c>
       <c r="H95" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13349</v>
       </c>
       <c r="I95" s="5">
@@ -7955,11 +7861,10 @@
         <v>1</v>
       </c>
       <c r="G96" s="9">
-        <f t="shared" si="3"/>
-        <v>8936</v>
+        <v>970</v>
       </c>
       <c r="H96" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13586</v>
       </c>
       <c r="I96" s="5">
@@ -8028,11 +7933,10 @@
         <v>1</v>
       </c>
       <c r="G97" s="9">
-        <f t="shared" si="3"/>
-        <v>9125</v>
+        <v>980</v>
       </c>
       <c r="H97" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13825</v>
       </c>
       <c r="I97" s="5">
@@ -8101,11 +8005,10 @@
         <v>1</v>
       </c>
       <c r="G98" s="9">
-        <f t="shared" si="3"/>
-        <v>9316</v>
+        <v>990</v>
       </c>
       <c r="H98" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14066</v>
       </c>
       <c r="I98" s="5">
@@ -8174,11 +8077,10 @@
         <v>1</v>
       </c>
       <c r="G99" s="9">
-        <f t="shared" si="3"/>
-        <v>9509</v>
+        <v>1000</v>
       </c>
       <c r="H99" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14309</v>
       </c>
       <c r="I99" s="5">
@@ -8247,11 +8149,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="9">
-        <f t="shared" si="3"/>
-        <v>9704</v>
+        <v>1010</v>
       </c>
       <c r="H100" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14554</v>
       </c>
       <c r="I100" s="5">
@@ -8320,11 +8221,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="9">
-        <f t="shared" si="3"/>
-        <v>9901</v>
+        <v>1020</v>
       </c>
       <c r="H101" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14801</v>
       </c>
       <c r="I101" s="5">
@@ -8393,11 +8293,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="9">
-        <f t="shared" si="3"/>
-        <v>10100</v>
+        <v>1030</v>
       </c>
       <c r="H102" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15050</v>
       </c>
       <c r="I102" s="5">
@@ -8466,11 +8365,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="9">
-        <f t="shared" si="3"/>
-        <v>10301</v>
+        <v>1040</v>
       </c>
       <c r="H103" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15301</v>
       </c>
       <c r="I103" s="5">
@@ -8539,11 +8437,10 @@
         <v>1</v>
       </c>
       <c r="G104" s="9">
-        <f t="shared" si="3"/>
-        <v>10504</v>
+        <v>1050</v>
       </c>
       <c r="H104" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15554</v>
       </c>
       <c r="I104" s="5">
@@ -8612,11 +8509,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="9">
-        <f t="shared" si="3"/>
-        <v>10709</v>
+        <v>1060</v>
       </c>
       <c r="H105" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15809</v>
       </c>
       <c r="I105" s="5">
@@ -8685,11 +8581,10 @@
         <v>1</v>
       </c>
       <c r="G106" s="9">
-        <f t="shared" si="3"/>
-        <v>10916</v>
+        <v>1070</v>
       </c>
       <c r="H106" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16066</v>
       </c>
       <c r="I106" s="5">
@@ -8758,11 +8653,10 @@
         <v>1</v>
       </c>
       <c r="G107" s="9">
-        <f t="shared" si="3"/>
-        <v>11125</v>
+        <v>1080</v>
       </c>
       <c r="H107" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16325</v>
       </c>
       <c r="I107" s="5">
@@ -8831,11 +8725,10 @@
         <v>1</v>
       </c>
       <c r="G108" s="9">
-        <f t="shared" si="3"/>
-        <v>11336</v>
+        <v>1090</v>
       </c>
       <c r="H108" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16586</v>
       </c>
       <c r="I108" s="5">
@@ -8904,11 +8797,10 @@
         <v>1</v>
       </c>
       <c r="G109" s="9">
-        <f t="shared" si="3"/>
-        <v>11549</v>
+        <v>1100</v>
       </c>
       <c r="H109" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16849</v>
       </c>
       <c r="I109" s="5">
@@ -8977,11 +8869,10 @@
         <v>1</v>
       </c>
       <c r="G110" s="9">
-        <f t="shared" si="3"/>
-        <v>11764</v>
+        <v>1110</v>
       </c>
       <c r="H110" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17114</v>
       </c>
       <c r="I110" s="5">
@@ -9050,11 +8941,10 @@
         <v>1</v>
       </c>
       <c r="G111" s="9">
-        <f t="shared" si="3"/>
-        <v>11981</v>
+        <v>1120</v>
       </c>
       <c r="H111" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17381</v>
       </c>
       <c r="I111" s="5">
@@ -9123,11 +9013,10 @@
         <v>1</v>
       </c>
       <c r="G112" s="9">
-        <f t="shared" si="3"/>
-        <v>12200</v>
+        <v>1130</v>
       </c>
       <c r="H112" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17650</v>
       </c>
       <c r="I112" s="5">
@@ -9196,11 +9085,10 @@
         <v>1</v>
       </c>
       <c r="G113" s="9">
-        <f t="shared" si="3"/>
-        <v>12421</v>
+        <v>1140</v>
       </c>
       <c r="H113" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17921</v>
       </c>
       <c r="I113" s="5">
@@ -9269,11 +9157,10 @@
         <v>1</v>
       </c>
       <c r="G114" s="9">
-        <f t="shared" si="3"/>
-        <v>12644</v>
+        <v>1150</v>
       </c>
       <c r="H114" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18194</v>
       </c>
       <c r="I114" s="5">
@@ -9342,11 +9229,10 @@
         <v>1</v>
       </c>
       <c r="G115" s="9">
-        <f t="shared" si="3"/>
-        <v>12869</v>
+        <v>1160</v>
       </c>
       <c r="H115" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18469</v>
       </c>
       <c r="I115" s="5">
@@ -9415,11 +9301,10 @@
         <v>1</v>
       </c>
       <c r="G116" s="9">
-        <f t="shared" si="3"/>
-        <v>13096</v>
+        <v>1170</v>
       </c>
       <c r="H116" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18746</v>
       </c>
       <c r="I116" s="5">
@@ -9488,11 +9373,10 @@
         <v>1</v>
       </c>
       <c r="G117" s="9">
-        <f t="shared" si="3"/>
-        <v>13325</v>
+        <v>1180</v>
       </c>
       <c r="H117" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19025</v>
       </c>
       <c r="I117" s="5">
@@ -9561,11 +9445,10 @@
         <v>1</v>
       </c>
       <c r="G118" s="9">
-        <f t="shared" si="3"/>
-        <v>13556</v>
+        <v>1190</v>
       </c>
       <c r="H118" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19306</v>
       </c>
       <c r="I118" s="5">
@@ -9634,11 +9517,10 @@
         <v>1</v>
       </c>
       <c r="G119" s="9">
-        <f t="shared" si="3"/>
-        <v>13789</v>
+        <v>1200</v>
       </c>
       <c r="H119" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19589</v>
       </c>
       <c r="I119" s="5">
@@ -9707,11 +9589,10 @@
         <v>1</v>
       </c>
       <c r="G120" s="9">
-        <f t="shared" si="3"/>
-        <v>14024</v>
+        <v>1210</v>
       </c>
       <c r="H120" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19874</v>
       </c>
       <c r="I120" s="5">
@@ -9780,11 +9661,10 @@
         <v>1</v>
       </c>
       <c r="G121" s="9">
-        <f t="shared" si="3"/>
-        <v>14261</v>
+        <v>1220</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20161</v>
       </c>
       <c r="I121" s="5">
@@ -9853,11 +9733,10 @@
         <v>1</v>
       </c>
       <c r="G122" s="9">
-        <f t="shared" si="3"/>
-        <v>14500</v>
+        <v>1230</v>
       </c>
       <c r="H122" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20450</v>
       </c>
       <c r="I122" s="5">
@@ -9926,11 +9805,10 @@
         <v>1</v>
       </c>
       <c r="G123" s="9">
-        <f t="shared" si="3"/>
-        <v>14741</v>
+        <v>1240</v>
       </c>
       <c r="H123" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20741</v>
       </c>
       <c r="I123" s="5">
@@ -9999,11 +9877,10 @@
         <v>1</v>
       </c>
       <c r="G124" s="9">
-        <f t="shared" si="3"/>
-        <v>14984</v>
+        <v>1250</v>
       </c>
       <c r="H124" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>21034</v>
       </c>
       <c r="I124" s="5">
@@ -10072,11 +9949,10 @@
         <v>1</v>
       </c>
       <c r="G125" s="9">
-        <f t="shared" si="3"/>
-        <v>15229</v>
+        <v>1260</v>
       </c>
       <c r="H125" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>21329</v>
       </c>
       <c r="I125" s="5">
@@ -10145,11 +10021,10 @@
         <v>1</v>
       </c>
       <c r="G126" s="9">
-        <f t="shared" si="3"/>
-        <v>15476</v>
+        <v>1270</v>
       </c>
       <c r="H126" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>21626</v>
       </c>
       <c r="I126" s="5">
@@ -10218,11 +10093,10 @@
         <v>1</v>
       </c>
       <c r="G127" s="9">
-        <f t="shared" si="3"/>
-        <v>15725</v>
+        <v>1280</v>
       </c>
       <c r="H127" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>21925</v>
       </c>
       <c r="I127" s="5">
@@ -10291,11 +10165,10 @@
         <v>1</v>
       </c>
       <c r="G128" s="9">
-        <f t="shared" si="3"/>
-        <v>15976</v>
+        <v>1290</v>
       </c>
       <c r="H128" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>22226</v>
       </c>
       <c r="I128" s="5">
@@ -10364,11 +10237,10 @@
         <v>1</v>
       </c>
       <c r="G129" s="9">
-        <f t="shared" si="3"/>
-        <v>16229</v>
+        <v>1300</v>
       </c>
       <c r="H129" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>22529</v>
       </c>
       <c r="I129" s="5">
@@ -10437,11 +10309,10 @@
         <v>1</v>
       </c>
       <c r="G130" s="9">
-        <f t="shared" si="3"/>
-        <v>16484</v>
+        <v>1310</v>
       </c>
       <c r="H130" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>22834</v>
       </c>
       <c r="I130" s="5">
@@ -10510,11 +10381,10 @@
         <v>1</v>
       </c>
       <c r="G131" s="9">
-        <f t="shared" ref="G131:G194" si="5">100+A131^2</f>
-        <v>16741</v>
+        <v>1320</v>
       </c>
       <c r="H131" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>23141</v>
       </c>
       <c r="I131" s="5">
@@ -10583,11 +10453,10 @@
         <v>1</v>
       </c>
       <c r="G132" s="9">
-        <f t="shared" si="5"/>
-        <v>17000</v>
+        <v>1330</v>
       </c>
       <c r="H132" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>23450</v>
       </c>
       <c r="I132" s="5">
@@ -10656,11 +10525,10 @@
         <v>1</v>
       </c>
       <c r="G133" s="9">
-        <f t="shared" si="5"/>
-        <v>17261</v>
+        <v>1340</v>
       </c>
       <c r="H133" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>23761</v>
       </c>
       <c r="I133" s="5">
@@ -10729,11 +10597,10 @@
         <v>1</v>
       </c>
       <c r="G134" s="9">
-        <f t="shared" si="5"/>
-        <v>17524</v>
+        <v>1350</v>
       </c>
       <c r="H134" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>24074</v>
       </c>
       <c r="I134" s="5">
@@ -10802,11 +10669,10 @@
         <v>1</v>
       </c>
       <c r="G135" s="9">
-        <f t="shared" si="5"/>
-        <v>17789</v>
+        <v>1360</v>
       </c>
       <c r="H135" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>24389</v>
       </c>
       <c r="I135" s="5">
@@ -10875,11 +10741,10 @@
         <v>1</v>
       </c>
       <c r="G136" s="9">
-        <f t="shared" si="5"/>
-        <v>18056</v>
+        <v>1370</v>
       </c>
       <c r="H136" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>24706</v>
       </c>
       <c r="I136" s="5">
@@ -10948,11 +10813,10 @@
         <v>1</v>
       </c>
       <c r="G137" s="9">
-        <f t="shared" si="5"/>
-        <v>18325</v>
+        <v>1380</v>
       </c>
       <c r="H137" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>25025</v>
       </c>
       <c r="I137" s="5">
@@ -11021,11 +10885,10 @@
         <v>1</v>
       </c>
       <c r="G138" s="9">
-        <f t="shared" si="5"/>
-        <v>18596</v>
+        <v>1390</v>
       </c>
       <c r="H138" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>25346</v>
       </c>
       <c r="I138" s="5">
@@ -11094,11 +10957,10 @@
         <v>1</v>
       </c>
       <c r="G139" s="9">
-        <f t="shared" si="5"/>
-        <v>18869</v>
+        <v>1400</v>
       </c>
       <c r="H139" s="8">
-        <f t="shared" ref="H139:H200" si="6">A139^2+50+50*A139</f>
+        <f t="shared" ref="H139:H200" si="3">A139^2+50+50*A139</f>
         <v>25669</v>
       </c>
       <c r="I139" s="5">
@@ -11167,11 +11029,10 @@
         <v>1</v>
       </c>
       <c r="G140" s="9">
-        <f t="shared" si="5"/>
-        <v>19144</v>
+        <v>1410</v>
       </c>
       <c r="H140" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>25994</v>
       </c>
       <c r="I140" s="5">
@@ -11240,11 +11101,10 @@
         <v>1</v>
       </c>
       <c r="G141" s="9">
-        <f t="shared" si="5"/>
-        <v>19421</v>
+        <v>1420</v>
       </c>
       <c r="H141" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>26321</v>
       </c>
       <c r="I141" s="5">
@@ -11313,11 +11173,10 @@
         <v>1</v>
       </c>
       <c r="G142" s="9">
-        <f t="shared" si="5"/>
-        <v>19700</v>
+        <v>1430</v>
       </c>
       <c r="H142" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>26650</v>
       </c>
       <c r="I142" s="5">
@@ -11386,11 +11245,10 @@
         <v>1</v>
       </c>
       <c r="G143" s="9">
-        <f t="shared" si="5"/>
-        <v>19981</v>
+        <v>1440</v>
       </c>
       <c r="H143" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>26981</v>
       </c>
       <c r="I143" s="5">
@@ -11459,11 +11317,10 @@
         <v>1</v>
       </c>
       <c r="G144" s="9">
-        <f t="shared" si="5"/>
-        <v>20264</v>
+        <v>1450</v>
       </c>
       <c r="H144" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>27314</v>
       </c>
       <c r="I144" s="5">
@@ -11532,11 +11389,10 @@
         <v>1</v>
       </c>
       <c r="G145" s="9">
-        <f t="shared" si="5"/>
-        <v>20549</v>
+        <v>1460</v>
       </c>
       <c r="H145" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>27649</v>
       </c>
       <c r="I145" s="5">
@@ -11605,11 +11461,10 @@
         <v>1</v>
       </c>
       <c r="G146" s="9">
-        <f t="shared" si="5"/>
-        <v>20836</v>
+        <v>1470</v>
       </c>
       <c r="H146" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>27986</v>
       </c>
       <c r="I146" s="5">
@@ -11678,11 +11533,10 @@
         <v>1</v>
       </c>
       <c r="G147" s="9">
-        <f t="shared" si="5"/>
-        <v>21125</v>
+        <v>1480</v>
       </c>
       <c r="H147" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>28325</v>
       </c>
       <c r="I147" s="5">
@@ -11751,11 +11605,10 @@
         <v>1</v>
       </c>
       <c r="G148" s="9">
-        <f t="shared" si="5"/>
-        <v>21416</v>
+        <v>1490</v>
       </c>
       <c r="H148" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>28666</v>
       </c>
       <c r="I148" s="5">
@@ -11824,11 +11677,10 @@
         <v>1</v>
       </c>
       <c r="G149" s="9">
-        <f t="shared" si="5"/>
-        <v>21709</v>
+        <v>1500</v>
       </c>
       <c r="H149" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>29009</v>
       </c>
       <c r="I149" s="5">
@@ -11897,11 +11749,10 @@
         <v>1</v>
       </c>
       <c r="G150" s="9">
-        <f t="shared" si="5"/>
-        <v>22004</v>
+        <v>1510</v>
       </c>
       <c r="H150" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>29354</v>
       </c>
       <c r="I150" s="5">
@@ -11970,11 +11821,10 @@
         <v>1</v>
       </c>
       <c r="G151" s="9">
-        <f t="shared" si="5"/>
-        <v>22301</v>
+        <v>1520</v>
       </c>
       <c r="H151" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>29701</v>
       </c>
       <c r="I151" s="5">
@@ -12043,11 +11893,10 @@
         <v>1</v>
       </c>
       <c r="G152" s="9">
-        <f t="shared" si="5"/>
-        <v>22600</v>
+        <v>1530</v>
       </c>
       <c r="H152" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>30050</v>
       </c>
       <c r="I152" s="5">
@@ -12116,11 +11965,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="9">
-        <f t="shared" si="5"/>
-        <v>22901</v>
+        <v>1540</v>
       </c>
       <c r="H153" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>30401</v>
       </c>
       <c r="I153" s="5">
@@ -12189,11 +12037,10 @@
         <v>1</v>
       </c>
       <c r="G154" s="9">
-        <f t="shared" si="5"/>
-        <v>23204</v>
+        <v>1550</v>
       </c>
       <c r="H154" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>30754</v>
       </c>
       <c r="I154" s="5">
@@ -12262,11 +12109,10 @@
         <v>1</v>
       </c>
       <c r="G155" s="9">
-        <f t="shared" si="5"/>
-        <v>23509</v>
+        <v>1560</v>
       </c>
       <c r="H155" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>31109</v>
       </c>
       <c r="I155" s="5">
@@ -12335,11 +12181,10 @@
         <v>1</v>
       </c>
       <c r="G156" s="9">
-        <f t="shared" si="5"/>
-        <v>23816</v>
+        <v>1570</v>
       </c>
       <c r="H156" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>31466</v>
       </c>
       <c r="I156" s="5">
@@ -12408,11 +12253,10 @@
         <v>1</v>
       </c>
       <c r="G157" s="9">
-        <f t="shared" si="5"/>
-        <v>24125</v>
+        <v>1580</v>
       </c>
       <c r="H157" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>31825</v>
       </c>
       <c r="I157" s="5">
@@ -12481,11 +12325,10 @@
         <v>1</v>
       </c>
       <c r="G158" s="9">
-        <f t="shared" si="5"/>
-        <v>24436</v>
+        <v>1590</v>
       </c>
       <c r="H158" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>32186</v>
       </c>
       <c r="I158" s="5">
@@ -12554,11 +12397,10 @@
         <v>1</v>
       </c>
       <c r="G159" s="9">
-        <f t="shared" si="5"/>
-        <v>24749</v>
+        <v>1600</v>
       </c>
       <c r="H159" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>32549</v>
       </c>
       <c r="I159" s="5">
@@ -12627,11 +12469,10 @@
         <v>1</v>
       </c>
       <c r="G160" s="9">
-        <f t="shared" si="5"/>
-        <v>25064</v>
+        <v>1610</v>
       </c>
       <c r="H160" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>32914</v>
       </c>
       <c r="I160" s="5">
@@ -12700,11 +12541,10 @@
         <v>1</v>
       </c>
       <c r="G161" s="9">
-        <f t="shared" si="5"/>
-        <v>25381</v>
+        <v>1620</v>
       </c>
       <c r="H161" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>33281</v>
       </c>
       <c r="I161" s="5">
@@ -12773,11 +12613,10 @@
         <v>1</v>
       </c>
       <c r="G162" s="9">
-        <f t="shared" si="5"/>
-        <v>25700</v>
+        <v>1630</v>
       </c>
       <c r="H162" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>33650</v>
       </c>
       <c r="I162" s="5">
@@ -12846,11 +12685,10 @@
         <v>1</v>
       </c>
       <c r="G163" s="9">
-        <f t="shared" si="5"/>
-        <v>26021</v>
+        <v>1640</v>
       </c>
       <c r="H163" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>34021</v>
       </c>
       <c r="I163" s="5">
@@ -12919,11 +12757,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="9">
-        <f t="shared" si="5"/>
-        <v>26344</v>
+        <v>1650</v>
       </c>
       <c r="H164" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>34394</v>
       </c>
       <c r="I164" s="5">
@@ -12992,11 +12829,10 @@
         <v>1</v>
       </c>
       <c r="G165" s="9">
-        <f t="shared" si="5"/>
-        <v>26669</v>
+        <v>1660</v>
       </c>
       <c r="H165" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>34769</v>
       </c>
       <c r="I165" s="5">
@@ -13065,11 +12901,10 @@
         <v>1</v>
       </c>
       <c r="G166" s="9">
-        <f t="shared" si="5"/>
-        <v>26996</v>
+        <v>1670</v>
       </c>
       <c r="H166" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>35146</v>
       </c>
       <c r="I166" s="5">
@@ -13138,11 +12973,10 @@
         <v>1</v>
       </c>
       <c r="G167" s="9">
-        <f t="shared" si="5"/>
-        <v>27325</v>
+        <v>1680</v>
       </c>
       <c r="H167" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>35525</v>
       </c>
       <c r="I167" s="5">
@@ -13211,11 +13045,10 @@
         <v>1</v>
       </c>
       <c r="G168" s="9">
-        <f t="shared" si="5"/>
-        <v>27656</v>
+        <v>1690</v>
       </c>
       <c r="H168" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>35906</v>
       </c>
       <c r="I168" s="5">
@@ -13284,11 +13117,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="9">
-        <f t="shared" si="5"/>
-        <v>27989</v>
+        <v>1700</v>
       </c>
       <c r="H169" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>36289</v>
       </c>
       <c r="I169" s="5">
@@ -13357,11 +13189,10 @@
         <v>1</v>
       </c>
       <c r="G170" s="9">
-        <f t="shared" si="5"/>
-        <v>28324</v>
+        <v>1710</v>
       </c>
       <c r="H170" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>36674</v>
       </c>
       <c r="I170" s="5">
@@ -13430,11 +13261,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="9">
-        <f t="shared" si="5"/>
-        <v>28661</v>
+        <v>1720</v>
       </c>
       <c r="H171" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>37061</v>
       </c>
       <c r="I171" s="5">
@@ -13503,11 +13333,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="9">
-        <f t="shared" si="5"/>
-        <v>29000</v>
+        <v>1730</v>
       </c>
       <c r="H172" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>37450</v>
       </c>
       <c r="I172" s="5">
@@ -13576,11 +13405,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="9">
-        <f t="shared" si="5"/>
-        <v>29341</v>
+        <v>1740</v>
       </c>
       <c r="H173" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>37841</v>
       </c>
       <c r="I173" s="5">
@@ -13649,11 +13477,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="9">
-        <f t="shared" si="5"/>
-        <v>29684</v>
+        <v>1750</v>
       </c>
       <c r="H174" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>38234</v>
       </c>
       <c r="I174" s="5">
@@ -13722,11 +13549,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="9">
-        <f t="shared" si="5"/>
-        <v>30029</v>
+        <v>1760</v>
       </c>
       <c r="H175" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>38629</v>
       </c>
       <c r="I175" s="5">
@@ -13795,11 +13621,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="9">
-        <f t="shared" si="5"/>
-        <v>30376</v>
+        <v>1770</v>
       </c>
       <c r="H176" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>39026</v>
       </c>
       <c r="I176" s="5">
@@ -13868,11 +13693,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="9">
-        <f t="shared" si="5"/>
-        <v>30725</v>
+        <v>1780</v>
       </c>
       <c r="H177" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>39425</v>
       </c>
       <c r="I177" s="5">
@@ -13941,11 +13765,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="9">
-        <f t="shared" si="5"/>
-        <v>31076</v>
+        <v>1790</v>
       </c>
       <c r="H178" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>39826</v>
       </c>
       <c r="I178" s="5">
@@ -14014,11 +13837,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="9">
-        <f t="shared" si="5"/>
-        <v>31429</v>
+        <v>1800</v>
       </c>
       <c r="H179" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>40229</v>
       </c>
       <c r="I179" s="5">
@@ -14087,11 +13909,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="9">
-        <f t="shared" si="5"/>
-        <v>31784</v>
+        <v>1810</v>
       </c>
       <c r="H180" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>40634</v>
       </c>
       <c r="I180" s="5">
@@ -14160,11 +13981,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="9">
-        <f t="shared" si="5"/>
-        <v>32141</v>
+        <v>1820</v>
       </c>
       <c r="H181" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>41041</v>
       </c>
       <c r="I181" s="5">
@@ -14233,11 +14053,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="9">
-        <f t="shared" si="5"/>
-        <v>32500</v>
+        <v>1830</v>
       </c>
       <c r="H182" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>41450</v>
       </c>
       <c r="I182" s="5">
@@ -14306,11 +14125,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="9">
-        <f t="shared" si="5"/>
-        <v>32861</v>
+        <v>1840</v>
       </c>
       <c r="H183" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>41861</v>
       </c>
       <c r="I183" s="5">
@@ -14379,11 +14197,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="9">
-        <f t="shared" si="5"/>
-        <v>33224</v>
+        <v>1850</v>
       </c>
       <c r="H184" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>42274</v>
       </c>
       <c r="I184" s="5">
@@ -14452,11 +14269,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="9">
-        <f t="shared" si="5"/>
-        <v>33589</v>
+        <v>1860</v>
       </c>
       <c r="H185" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>42689</v>
       </c>
       <c r="I185" s="5">
@@ -14525,11 +14341,10 @@
         <v>1</v>
       </c>
       <c r="G186" s="9">
-        <f t="shared" si="5"/>
-        <v>33956</v>
+        <v>1870</v>
       </c>
       <c r="H186" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>43106</v>
       </c>
       <c r="I186" s="5">
@@ -14598,11 +14413,10 @@
         <v>1</v>
       </c>
       <c r="G187" s="9">
-        <f t="shared" si="5"/>
-        <v>34325</v>
+        <v>1880</v>
       </c>
       <c r="H187" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>43525</v>
       </c>
       <c r="I187" s="5">
@@ -14671,11 +14485,10 @@
         <v>1</v>
       </c>
       <c r="G188" s="9">
-        <f t="shared" si="5"/>
-        <v>34696</v>
+        <v>1890</v>
       </c>
       <c r="H188" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>43946</v>
       </c>
       <c r="I188" s="5">
@@ -14744,11 +14557,10 @@
         <v>1</v>
       </c>
       <c r="G189" s="9">
-        <f t="shared" si="5"/>
-        <v>35069</v>
+        <v>1900</v>
       </c>
       <c r="H189" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>44369</v>
       </c>
       <c r="I189" s="5">
@@ -14817,11 +14629,10 @@
         <v>1</v>
       </c>
       <c r="G190" s="9">
-        <f t="shared" si="5"/>
-        <v>35444</v>
+        <v>1910</v>
       </c>
       <c r="H190" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>44794</v>
       </c>
       <c r="I190" s="5">
@@ -14890,11 +14701,10 @@
         <v>1</v>
       </c>
       <c r="G191" s="9">
-        <f t="shared" si="5"/>
-        <v>35821</v>
+        <v>1920</v>
       </c>
       <c r="H191" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45221</v>
       </c>
       <c r="I191" s="5">
@@ -14963,11 +14773,10 @@
         <v>1</v>
       </c>
       <c r="G192" s="9">
-        <f t="shared" si="5"/>
-        <v>36200</v>
+        <v>1930</v>
       </c>
       <c r="H192" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45650</v>
       </c>
       <c r="I192" s="5">
@@ -15036,11 +14845,10 @@
         <v>1</v>
       </c>
       <c r="G193" s="9">
-        <f t="shared" si="5"/>
-        <v>36581</v>
+        <v>1940</v>
       </c>
       <c r="H193" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>46081</v>
       </c>
       <c r="I193" s="5">
@@ -15109,11 +14917,10 @@
         <v>1</v>
       </c>
       <c r="G194" s="9">
-        <f t="shared" si="5"/>
-        <v>36964</v>
+        <v>1950</v>
       </c>
       <c r="H194" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>46514</v>
       </c>
       <c r="I194" s="5">
@@ -15182,11 +14989,10 @@
         <v>1</v>
       </c>
       <c r="G195" s="9">
-        <f t="shared" ref="G195:G200" si="7">100+A195^2</f>
-        <v>37349</v>
+        <v>1960</v>
       </c>
       <c r="H195" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>46949</v>
       </c>
       <c r="I195" s="5">
@@ -15255,11 +15061,10 @@
         <v>1</v>
       </c>
       <c r="G196" s="9">
-        <f t="shared" si="7"/>
-        <v>37736</v>
+        <v>1970</v>
       </c>
       <c r="H196" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>47386</v>
       </c>
       <c r="I196" s="5">
@@ -15328,11 +15133,10 @@
         <v>1</v>
       </c>
       <c r="G197" s="9">
-        <f t="shared" si="7"/>
-        <v>38125</v>
+        <v>1980</v>
       </c>
       <c r="H197" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>47825</v>
       </c>
       <c r="I197" s="5">
@@ -15401,11 +15205,10 @@
         <v>1</v>
       </c>
       <c r="G198" s="9">
-        <f t="shared" si="7"/>
-        <v>38516</v>
+        <v>1990</v>
       </c>
       <c r="H198" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>48266</v>
       </c>
       <c r="I198" s="5">
@@ -15474,11 +15277,10 @@
         <v>1</v>
       </c>
       <c r="G199" s="9">
-        <f t="shared" si="7"/>
-        <v>38909</v>
+        <v>2000</v>
       </c>
       <c r="H199" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>48709</v>
       </c>
       <c r="I199" s="5">
@@ -15547,11 +15349,10 @@
         <v>1</v>
       </c>
       <c r="G200" s="9">
-        <f t="shared" si="7"/>
-        <v>39304</v>
+        <v>2010</v>
       </c>
       <c r="H200" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>49154</v>
       </c>
       <c r="I200" s="5">

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90905C79-0204-4331-93CF-B7ECB8593B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8349AA21-1278-452C-BD00-8F18A462E4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4170" yWindow="5190" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" s="9">
         <v>100</v>
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78" s="9">
         <v>100</v>
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G79" s="9">
         <v>100</v>
@@ -6461,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" s="9">
         <v>100</v>
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" s="9">
         <v>100</v>
@@ -6599,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G82" s="9">
         <v>100</v>
@@ -6668,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" s="9">
         <v>100</v>
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G84" s="9">
         <v>100</v>
@@ -6806,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G85" s="9">
         <v>100</v>
@@ -6875,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G86" s="9">
         <v>100</v>
@@ -6944,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G87" s="9">
         <v>100</v>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G88" s="9">
         <v>100</v>
@@ -7082,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89" s="9">
         <v>100</v>
@@ -7151,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G90" s="9">
         <v>100</v>
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G91" s="9">
         <v>100</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8349AA21-1278-452C-BD00-8F18A462E4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DD698F-00B3-48A2-8E0D-6E500FB23D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="5190" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-5070" yWindow="2070" windowWidth="38880" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -980,8 +980,8 @@
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
+    <col min="9" max="9" width="43.25" customWidth="1"/>
     <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
@@ -993,6 +993,7 @@
     <col min="18" max="18" width="12.25" customWidth="1"/>
     <col min="19" max="19" width="16.5" customWidth="1"/>
     <col min="20" max="20" width="14.625" customWidth="1"/>
+    <col min="22" max="22" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -1083,12 +1084,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="9">
-        <v>100</v>
+        <f>A2^6.45+A2^4+100*A2+50</f>
+        <v>50</v>
       </c>
       <c r="H2" s="8">
+        <f>A2^2.15+50+50*A2</f>
         <v>50</v>
       </c>
       <c r="I2" s="5">
+        <f>A2^6+A2^4+100*A2+50</f>
         <v>50</v>
       </c>
       <c r="J2" s="5">
@@ -1125,13 +1129,14 @@
         <v>57</v>
       </c>
       <c r="U2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="5">
-        <v>1</v>
+        <f>10+A2</f>
+        <v>10</v>
       </c>
       <c r="W2" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1151,13 +1156,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="9">
-        <v>100</v>
+        <f t="shared" ref="G3:G66" si="0">A3^6.45+A3^4+100*A3+50</f>
+        <v>152</v>
       </c>
       <c r="H3" s="8">
-        <v>50</v>
+        <f t="shared" ref="H3:H66" si="1">A3^2.15+50+50*A3</f>
+        <v>101</v>
       </c>
       <c r="I3" s="5">
-        <v>50</v>
+        <f t="shared" ref="I3:I66" si="2">A3^6+A3^4+100*A3+50</f>
+        <v>152</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
@@ -1193,13 +1201,14 @@
         <v>57</v>
       </c>
       <c r="U3" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" s="5">
-        <v>1</v>
+        <f t="shared" ref="V3:V66" si="3">10+A3</f>
+        <v>11</v>
       </c>
       <c r="W3" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1220,13 +1229,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>353.42657643228131</v>
       </c>
       <c r="H4" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>154.43827788827139</v>
       </c>
       <c r="I4" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>330</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
@@ -1262,13 +1274,14 @@
         <v>59</v>
       </c>
       <c r="U4" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V4" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="W4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1289,13 +1302,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>1626.1766311172196</v>
       </c>
       <c r="H5" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>210.6123288111323</v>
       </c>
       <c r="I5" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>1160</v>
       </c>
       <c r="J5" s="5">
         <v>1</v>
@@ -1331,13 +1347,14 @@
         <v>59</v>
       </c>
       <c r="U5" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="W5" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1358,13 +1375,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>8349.4062666695281</v>
       </c>
       <c r="H6" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>269.69831061351863</v>
       </c>
       <c r="I6" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>4802</v>
       </c>
       <c r="J6" s="5">
         <v>1</v>
@@ -1400,13 +1420,14 @@
         <v>59</v>
       </c>
       <c r="U6" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V6" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="W6" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1427,13 +1448,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>33412.141682512403</v>
       </c>
       <c r="H7" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>331.82625288866058</v>
       </c>
       <c r="I7" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>16800</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
@@ -1469,13 +1493,14 @@
         <v>59</v>
       </c>
       <c r="U7" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V7" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="W7" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1496,13 +1521,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>106436.20109044592</v>
       </c>
       <c r="H8" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>397.10046430551381</v>
       </c>
       <c r="I8" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>48602</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
@@ -1538,13 +1566,14 @@
         <v>59</v>
       </c>
       <c r="U8" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V8" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="W8" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1565,13 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>285562.48736351961</v>
       </c>
       <c r="H9" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>465.60860233241453</v>
       </c>
       <c r="I9" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>120800</v>
       </c>
       <c r="J9" s="5">
         <v>1</v>
@@ -1607,13 +1639,14 @@
         <v>59</v>
       </c>
       <c r="U9" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V9" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="W9" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1634,13 +1667,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>673182.84217596101</v>
       </c>
       <c r="H10" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>537.42657643228131</v>
       </c>
       <c r="I10" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>267090</v>
       </c>
       <c r="J10" s="5">
         <v>1</v>
@@ -1676,13 +1712,14 @@
         <v>59</v>
       </c>
       <c r="U10" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V10" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="W10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1703,13 +1740,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>1435958.1795687063</v>
       </c>
       <c r="H11" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>612.6215227955887</v>
       </c>
       <c r="I11" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>538952</v>
       </c>
       <c r="J11" s="5">
         <v>1</v>
@@ -1745,13 +1785,14 @@
         <v>59</v>
       </c>
       <c r="U11" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V11" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="W11" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1772,13 +1813,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>2829432.9312644606</v>
       </c>
       <c r="H12" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>691.25375446227542</v>
       </c>
       <c r="I12" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>1011050</v>
       </c>
       <c r="J12" s="5">
         <v>1</v>
@@ -1814,13 +1858,14 @@
         <v>59</v>
       </c>
       <c r="U12" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V12" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="W12" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1841,13 +1886,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>5227531.9300244208</v>
       </c>
       <c r="H13" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>773.37811347566094</v>
       </c>
       <c r="I13" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>1787352</v>
       </c>
       <c r="J13" s="5">
         <v>1</v>
@@ -1883,13 +1931,14 @@
         <v>59</v>
       </c>
       <c r="U13" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V13" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="W13" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1910,13 +1959,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>9157206.5520583224</v>
       </c>
       <c r="H14" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>859.04494925447727</v>
       </c>
       <c r="I14" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>3007970</v>
       </c>
       <c r="J14" s="5">
         <v>1</v>
@@ -1952,13 +2004,14 @@
         <v>59</v>
       </c>
       <c r="U14" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V14" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="W14" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1979,13 +2032,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>15338480.928967474</v>
       </c>
       <c r="H15" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>948.30085068425512</v>
       </c>
       <c r="I15" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>4856720</v>
       </c>
       <c r="J15" s="5">
         <v>1</v>
@@ -2021,13 +2077,14 @@
         <v>59</v>
       </c>
       <c r="U15" s="5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V15" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="W15" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2048,13 +2105,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>24730135.485340979</v>
       </c>
       <c r="H16" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>1041.1892090123454</v>
       </c>
       <c r="I16" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>7569402</v>
       </c>
       <c r="J16" s="5">
         <v>1</v>
@@ -2090,13 +2150,14 @@
         <v>59</v>
       </c>
       <c r="U16" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V16" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="W16" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2117,13 +2178,16 @@
         <v>1.5</v>
       </c>
       <c r="G17" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>38581253.392953709</v>
       </c>
       <c r="H17" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>1137.7506604807154</v>
       </c>
       <c r="I17" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>11442800</v>
       </c>
       <c r="J17" s="5">
         <v>1</v>
@@ -2159,13 +2223,14 @@
         <v>59</v>
       </c>
       <c r="U17" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V17" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="W17" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2186,13 +2251,16 @@
         <v>1.5</v>
       </c>
       <c r="G18" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>58488845.357363015</v>
       </c>
       <c r="H18" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>1238.0234410266619</v>
       </c>
       <c r="I18" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>16844402</v>
       </c>
       <c r="J18" s="5">
         <v>1</v>
@@ -2228,13 +2296,14 @@
         <v>59</v>
       </c>
       <c r="U18" s="5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V18" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="W18" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2255,13 +2324,16 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>86461759.177238211</v>
       </c>
       <c r="H19" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>1342.0436751359628</v>
       </c>
       <c r="I19" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>24222840</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -2297,13 +2369,14 @@
         <v>59</v>
       </c>
       <c r="U19" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V19" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="W19" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -2324,13 +2397,16 @@
         <v>1.5</v>
       </c>
       <c r="G20" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>124991072.52403986</v>
       </c>
       <c r="H20" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>1449.8456143671119</v>
       </c>
       <c r="I20" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>34119050</v>
       </c>
       <c r="J20" s="5">
         <v>1</v>
@@ -2366,13 +2442,14 @@
         <v>59</v>
       </c>
       <c r="U20" s="5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="V20" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="W20" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2393,13 +2470,16 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>177127160.21390957</v>
       </c>
       <c r="H21" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>1561.4618367199535</v>
       </c>
       <c r="I21" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>47178152</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
@@ -2435,13 +2515,14 @@
         <v>59</v>
       </c>
       <c r="U21" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V21" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="W21" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2462,13 +2543,16 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>246563620.75562835</v>
       </c>
       <c r="H22" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>1676.9234150652314</v>
       </c>
       <c r="I22" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>64162050</v>
       </c>
       <c r="J22" s="5">
         <v>1</v>
@@ -2504,13 +2588,14 @@
         <v>59</v>
       </c>
       <c r="U22" s="5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V22" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="W22" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2531,13 +2616,16 @@
         <v>1.5</v>
       </c>
       <c r="G23" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>337728241.05593371</v>
       </c>
       <c r="H23" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>1796.2600607904049</v>
       </c>
       <c r="I23" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>85962752</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
@@ -2573,13 +2661,14 @@
         <v>59</v>
       </c>
       <c r="U23" s="5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V23" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="W23" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2600,13 +2689,16 @@
         <v>1.5</v>
       </c>
       <c r="G24" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>455881172.76403016</v>
       </c>
       <c r="H24" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>1919.5002473492318</v>
       </c>
       <c r="I24" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>113616410</v>
       </c>
       <c r="J24" s="5">
         <v>1</v>
@@ -2642,13 +2734,14 @@
         <v>59</v>
       </c>
       <c r="U24" s="5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V24" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="W24" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2669,13 +2762,16 @@
         <v>1.5</v>
       </c>
       <c r="G25" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>607220488.77384245</v>
       </c>
       <c r="H25" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>2046.6713173374812</v>
       </c>
       <c r="I25" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>148318080</v>
       </c>
       <c r="J25" s="5">
         <v>1</v>
@@ -2711,13 +2807,14 @@
         <v>59</v>
       </c>
       <c r="U25" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V25" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="W25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -2738,13 +2835,16 @@
         <v>1.5</v>
       </c>
       <c r="G26" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>798995283.82027626</v>
       </c>
       <c r="H26" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>2177.7995759309588</v>
       </c>
       <c r="I26" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>191437202</v>
       </c>
       <c r="J26" s="5">
         <v>1</v>
@@ -2780,13 +2880,14 @@
         <v>59</v>
       </c>
       <c r="U26" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V26" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="W26" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2807,13 +2908,16 @@
         <v>1.5</v>
       </c>
       <c r="G27" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>1039626478.8583786</v>
       </c>
       <c r="H27" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>2312.9103729329759</v>
       </c>
       <c r="I27" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>244533800</v>
       </c>
       <c r="J27" s="5">
         <v>1</v>
@@ -2849,13 +2953,14 @@
         <v>59</v>
       </c>
       <c r="U27" s="5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V27" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="W27" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -2876,13 +2981,16 @@
         <v>1.5</v>
       </c>
       <c r="G28" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>1338835484.9637971</v>
       </c>
       <c r="H28" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>2452.0281752309029</v>
       </c>
       <c r="I28" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>309375402</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
@@ -2918,13 +3026,14 @@
         <v>59</v>
       </c>
       <c r="U28" s="5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V28" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="W28" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -2945,13 +3054,16 @@
         <v>1.5</v>
       </c>
       <c r="G29" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>1707780878.805819</v>
       </c>
       <c r="H29" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>2595.1766311172187</v>
       </c>
       <c r="I29" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>387954680</v>
       </c>
       <c r="J29" s="5">
         <v>1</v>
@@ -2987,13 +3099,14 @@
         <v>59</v>
       </c>
       <c r="U29" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V29" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="W29" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -3014,13 +3127,16 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>2159203238.2937846</v>
       </c>
       <c r="H30" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>2742.378627662727</v>
       </c>
       <c r="I30" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>482507810</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -3056,13 +3172,14 @@
         <v>59</v>
       </c>
       <c r="U30" s="5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V30" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="W30" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -3083,13 +3200,16 @@
         <v>1.5</v>
       </c>
       <c r="G31" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>2707578283.7589922</v>
       </c>
       <c r="H31" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>2893.6563421190704</v>
       </c>
       <c r="I31" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>595533552</v>
       </c>
       <c r="J31" s="5">
         <v>1</v>
@@ -3125,13 +3245,14 @@
         <v>59</v>
       </c>
       <c r="U31" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V31" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="W31" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -3152,13 +3273,16 @@
         <v>2</v>
       </c>
       <c r="G32" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>3369278466.9869232</v>
       </c>
       <c r="H32" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>3049.0312881606123</v>
       </c>
       <c r="I32" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>729813050</v>
       </c>
       <c r="J32" s="5">
         <v>1</v>
@@ -3194,13 +3318,14 @@
         <v>59</v>
       </c>
       <c r="U32" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V32" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="W32" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -3221,13 +3346,16 @@
         <v>2</v>
       </c>
       <c r="G33" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>4162743147.541553</v>
       </c>
       <c r="H33" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>3208.5243576419898</v>
       </c>
       <c r="I33" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>888430352</v>
       </c>
       <c r="J33" s="5">
         <v>1</v>
@@ -3263,13 +3391,14 @@
         <v>59</v>
       </c>
       <c r="U33" s="5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="V33" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>41</v>
       </c>
       <c r="W33" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -3290,13 +3419,16 @@
         <v>2</v>
       </c>
       <c r="G34" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>5108657493.1071968</v>
       </c>
       <c r="H34" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>3372.1558584396066</v>
       </c>
       <c r="I34" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>1074793650</v>
       </c>
       <c r="J34" s="5">
         <v>1</v>
@@ -3332,13 +3464,14 @@
         <v>59</v>
       </c>
       <c r="U34" s="5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V34" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>42</v>
       </c>
       <c r="W34" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -3359,13 +3492,16 @@
         <v>2</v>
       </c>
       <c r="G35" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>6230140238.0022955</v>
       </c>
       <c r="H35" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>3539.9455488575204</v>
       </c>
       <c r="I35" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>1292657240</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
@@ -3401,13 +3537,14 @@
         <v>59</v>
       </c>
       <c r="U35" s="5">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="V35" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>43</v>
       </c>
       <c r="W35" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -3428,13 +3565,16 @@
         <v>2</v>
       </c>
       <c r="G36" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>7552940431.57938</v>
       </c>
       <c r="H36" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>3711.9126690061603</v>
       </c>
       <c r="I36" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>1546144202</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
@@ -3470,13 +3610,14 @@
         <v>59</v>
       </c>
       <c r="U36" s="5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V36" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
       <c r="W36" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -3497,13 +3638,16 @@
         <v>2</v>
       </c>
       <c r="G37" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>9105643305.9068451</v>
       </c>
       <c r="H37" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>3888.0759695029919</v>
       </c>
       <c r="I37" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>1839769800</v>
       </c>
       <c r="J37" s="5">
         <v>1</v>
@@ -3539,13 +3683,14 @@
         <v>59</v>
       </c>
       <c r="U37" s="5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V37" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="W37" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -3566,13 +3711,16 @@
         <v>2</v>
       </c>
       <c r="G38" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>10919885389.921824</v>
       </c>
       <c r="H38" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>4068.4537377949773</v>
       </c>
       <c r="I38" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>2178465602</v>
       </c>
       <c r="J38" s="5">
         <v>1</v>
@@ -3608,13 +3756,14 @@
         <v>59</v>
       </c>
       <c r="U38" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="V38" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>46</v>
       </c>
       <c r="W38" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
@@ -3635,13 +3784,16 @@
         <v>2</v>
       </c>
       <c r="G39" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>13030578995.137789</v>
       </c>
       <c r="H39" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>4253.0638223615515</v>
       </c>
       <c r="I39" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>2567604320</v>
       </c>
       <c r="J39" s="5">
         <v>1</v>
@@ -3677,13 +3829,14 @@
         <v>59</v>
       </c>
       <c r="U39" s="5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="V39" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>47</v>
       </c>
       <c r="W39" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
@@ -3704,13 +3857,16 @@
         <v>2</v>
       </c>
       <c r="G40" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>15476146195.983017</v>
       </c>
       <c r="H40" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>4441.923655022405</v>
       </c>
       <c r="I40" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>3013025370</v>
       </c>
       <c r="J40" s="5">
         <v>1</v>
@@ -3746,13 +3902,14 @@
         <v>59</v>
       </c>
       <c r="U40" s="5">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="V40" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
       <c r="W40" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -3773,13 +3930,16 @@
         <v>2</v>
       </c>
       <c r="G41" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>18298762425.925671</v>
       </c>
       <c r="H41" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>4635.0502715451767</v>
       </c>
       <c r="I41" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>3521061152</v>
       </c>
       <c r="J41" s="5">
         <v>1</v>
@@ -3815,13 +3975,14 @@
         <v>59</v>
       </c>
       <c r="U41" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V41" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="W41" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
@@ -3842,13 +4003,16 @@
         <v>2</v>
       </c>
       <c r="G42" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>21544609808.701172</v>
       </c>
       <c r="H42" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>4832.4603307235975</v>
       </c>
       <c r="I42" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>4098564050</v>
       </c>
       <c r="J42" s="5">
         <v>1</v>
@@ -3884,13 +4048,14 @@
         <v>59</v>
       </c>
       <c r="U42" s="5">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="V42" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="W42" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
@@ -3911,13 +4076,16 @@
         <v>2</v>
       </c>
       <c r="G43" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>25264140342.19796</v>
       </c>
       <c r="H43" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>5034.1701320755374</v>
       </c>
       <c r="I43" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>4752934152</v>
       </c>
       <c r="J43" s="5">
         <v>1</v>
@@ -3953,13 +4121,14 @@
         <v>59</v>
       </c>
       <c r="U43" s="5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V43" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="W43" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
@@ -3980,13 +4149,16 @@
         <v>2</v>
       </c>
       <c r="G44" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>29512349050.866146</v>
       </c>
       <c r="H44" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>5240.1956322925425</v>
       </c>
       <c r="I44" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>5492147690</v>
       </c>
       <c r="J44" s="5">
         <v>1</v>
@@ -4022,13 +4194,14 @@
         <v>59</v>
       </c>
       <c r="U44" s="5">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="V44" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="W44" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
@@ -4049,13 +4222,16 @@
         <v>2</v>
       </c>
       <c r="G45" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>34349057220.890388</v>
       </c>
       <c r="H45" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>5450.5524605569453</v>
       </c>
       <c r="I45" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>6324786200</v>
       </c>
       <c r="J45" s="5">
         <v>1</v>
@@ -4091,13 +4267,14 @@
         <v>59</v>
       </c>
       <c r="U45" s="5">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="V45" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="W45" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -4118,13 +4295,16 @@
         <v>2</v>
       </c>
       <c r="G46" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>39839205830.806664</v>
       </c>
       <c r="H46" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>5665.2559328294519</v>
       </c>
       <c r="I46" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>7260066402</v>
       </c>
       <c r="J46" s="5">
         <v>1</v>
@@ -4160,13 +4340,14 @@
         <v>59</v>
       </c>
       <c r="U46" s="5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V46" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="W46" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
@@ -4187,13 +4368,16 @@
         <v>2.5</v>
       </c>
       <c r="G47" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>46053159288.741547</v>
       </c>
       <c r="H47" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>5884.3210651984537</v>
       </c>
       <c r="I47" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>8307870800</v>
       </c>
       <c r="J47" s="5">
         <v>1</v>
@@ -4229,13 +4413,14 @@
         <v>59</v>
       </c>
       <c r="U47" s="5">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="V47" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="W47" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
@@ -4256,13 +4441,16 @@
         <v>2.5</v>
       </c>
       <c r="G48" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>53067019586.0037</v>
       </c>
       <c r="H48" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>6107.7625863725425</v>
       </c>
       <c r="I48" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>9478779002</v>
       </c>
       <c r="J48" s="5">
         <v>1</v>
@@ -4298,13 +4486,14 @@
         <v>59</v>
       </c>
       <c r="U48" s="5">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="V48" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>56</v>
       </c>
       <c r="W48" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -4325,13 +4514,16 @@
         <v>2.5</v>
       </c>
       <c r="G49" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>60962950975.363617</v>
       </c>
       <c r="H49" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>6335.5949493887865</v>
       </c>
       <c r="I49" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>10784099760</v>
       </c>
       <c r="J49" s="5">
         <v>1</v>
@@ -4367,13 +4559,14 @@
         <v>59</v>
       </c>
       <c r="U49" s="5">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V49" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
       <c r="W49" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
@@ -4394,13 +4587,16 @@
         <v>2.5</v>
       </c>
       <c r="G50" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>69829515281.010971</v>
       </c>
       <c r="H50" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>6567.8323426019369</v>
       </c>
       <c r="I50" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>12235903730</v>
       </c>
       <c r="J50" s="5">
         <v>1</v>
@@ -4436,13 +4632,14 @@
         <v>59</v>
       </c>
       <c r="U50" s="5">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="V50" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>58</v>
       </c>
       <c r="W50" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -4463,55 +4660,59 @@
         <v>2.5</v>
       </c>
       <c r="G51" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>79762017945.875412</v>
       </c>
       <c r="H51" s="8">
+        <f t="shared" si="1"/>
+        <v>6804.4887000129083</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="2"/>
+        <v>13847056952</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5">
+        <v>11</v>
+      </c>
+      <c r="L51" s="5">
+        <v>5</v>
+      </c>
+      <c r="M51" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N51" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O51" s="5">
+        <v>30</v>
+      </c>
+      <c r="P51" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R51" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51" s="5">
+        <v>1</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U51" s="5">
         <v>50</v>
       </c>
-      <c r="I51" s="5">
-        <v>50</v>
-      </c>
-      <c r="J51" s="5">
-        <v>1</v>
-      </c>
-      <c r="K51" s="5">
-        <v>11</v>
-      </c>
-      <c r="L51" s="5">
-        <v>5</v>
-      </c>
-      <c r="M51" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N51" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O51" s="5">
-        <v>30</v>
-      </c>
-      <c r="P51" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R51" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S51" s="5">
-        <v>1</v>
-      </c>
-      <c r="T51" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U51" s="5">
-        <v>0</v>
-      </c>
       <c r="V51" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>59</v>
       </c>
       <c r="W51" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
@@ -4532,13 +4733,16 @@
         <v>2.5</v>
       </c>
       <c r="G52" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>90862864920.746704</v>
       </c>
       <c r="H52" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>7045.5777109891469</v>
       </c>
       <c r="I52" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>15631255050</v>
       </c>
       <c r="J52" s="5">
         <v>1</v>
@@ -4574,13 +4778,14 @@
         <v>59</v>
       </c>
       <c r="U52" s="5">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="V52" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="W52" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
@@ -4601,13 +4806,16 @@
         <v>2.5</v>
       </c>
       <c r="G53" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>103241930498.40762</v>
       </c>
       <c r="H53" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>7291.112829424178</v>
       </c>
       <c r="I53" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>17603058152</v>
       </c>
       <c r="J53" s="5">
         <v>1</v>
@@ -4643,13 +4851,14 @@
         <v>59</v>
       </c>
       <c r="U53" s="5">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="V53" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>61</v>
       </c>
       <c r="W53" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
@@ -4670,13 +4879,16 @@
         <v>2.5</v>
       </c>
       <c r="G54" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>117016936194.81889</v>
       </c>
       <c r="H54" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>7541.107282379372</v>
       </c>
       <c r="I54" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>19777926530</v>
       </c>
       <c r="J54" s="5">
         <v>1</v>
@@ -4712,13 +4924,14 @@
         <v>59</v>
       </c>
       <c r="U54" s="5">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="V54" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="W54" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
@@ -4739,13 +4952,16 @@
         <v>2.5</v>
       </c>
       <c r="G55" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>132313840778.2588</v>
       </c>
       <c r="H55" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>7795.5740782464591</v>
       </c>
       <c r="I55" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>22172256960</v>
       </c>
       <c r="J55" s="5">
         <v>1</v>
@@ -4781,13 +4997,14 @@
         <v>59</v>
       </c>
       <c r="U55" s="5">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="V55" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>63</v>
       </c>
       <c r="W55" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
@@ -4808,13 +5025,16 @@
         <v>2.5</v>
       </c>
       <c r="G56" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>149267241546.21442</v>
       </c>
       <c r="H56" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>8054.5260144662298</v>
       </c>
       <c r="I56" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>24803419802</v>
       </c>
       <c r="J56" s="5">
         <v>1</v>
@@ -4850,13 +5070,14 @@
         <v>59</v>
       </c>
       <c r="U56" s="5">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="V56" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="W56" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -4877,13 +5098,16 @@
         <v>2.5</v>
       </c>
       <c r="G57" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>168020786948.7468</v>
       </c>
       <c r="H57" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>8317.9756848352717</v>
       </c>
       <c r="I57" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>27689796800</v>
       </c>
       <c r="J57" s="5">
         <v>1</v>
@@ -4919,13 +5143,14 @@
         <v>59</v>
       </c>
       <c r="U57" s="5">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="V57" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="W57" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
@@ -4946,13 +5171,16 @@
         <v>2.5</v>
       </c>
       <c r="G58" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>188727600656.01501</v>
       </c>
       <c r="H58" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>8585.9354864300003</v>
       </c>
       <c r="I58" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>30850819602</v>
       </c>
       <c r="J58" s="5">
         <v>1</v>
@@ -4988,13 +5216,14 @@
         <v>59</v>
       </c>
       <c r="U58" s="5">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="V58" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>66</v>
       </c>
       <c r="W58" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -5015,13 +5244,16 @@
         <v>2.5</v>
       </c>
       <c r="G59" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>211550717166.64612</v>
       </c>
       <c r="H59" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>8858.4176261744178</v>
       </c>
       <c r="I59" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>34307009000</v>
       </c>
       <c r="J59" s="5">
         <v>1</v>
@@ -5057,13 +5289,14 @@
         <v>59</v>
       </c>
       <c r="U59" s="5">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="V59" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>67</v>
       </c>
       <c r="W59" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
@@ -5084,13 +5317,16 @@
         <v>2.5</v>
       </c>
       <c r="G60" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>236663529052.63351</v>
       </c>
       <c r="H60" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>9135.4341270762434</v>
       </c>
       <c r="I60" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>38080014890</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>
@@ -5126,13 +5362,14 @@
         <v>59</v>
       </c>
       <c r="U60" s="5">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="V60" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>68</v>
       </c>
       <c r="W60" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
@@ -5153,13 +5390,16 @@
         <v>2.5</v>
       </c>
       <c r="G61" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>264250245935.52618</v>
       </c>
       <c r="H61" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>9416.9968341531803</v>
       </c>
       <c r="I61" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>42192656952</v>
       </c>
       <c r="J61" s="5">
         <v>1</v>
@@ -5195,13 +5435,14 @@
         <v>59</v>
       </c>
       <c r="U61" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V61" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>69</v>
       </c>
       <c r="W61" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
@@ -5222,13 +5463,16 @@
         <v>3</v>
       </c>
       <c r="G62" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>294506365287.70337</v>
       </c>
       <c r="H62" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>9703.117420070208</v>
       </c>
       <c r="I62" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>46668966050</v>
       </c>
       <c r="J62" s="5">
         <v>1</v>
@@ -5264,13 +5508,14 @@
         <v>59</v>
       </c>
       <c r="U62" s="5">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="V62" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="W62" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
@@ -5291,13 +5536,16 @@
         <v>3</v>
       </c>
       <c r="G63" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>327639155151.68616</v>
       </c>
       <c r="H63" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>9993.8073905063829</v>
       </c>
       <c r="I63" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>51534226352</v>
       </c>
       <c r="J63" s="5">
         <v>1</v>
@@ -5333,13 +5581,14 @@
         <v>59</v>
       </c>
       <c r="U63" s="5">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="V63" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="W63" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
@@ -5360,13 +5609,16 @@
         <v>3</v>
       </c>
       <c r="G64" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>363868148869.48749</v>
       </c>
       <c r="H64" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>10289.078089268367</v>
       </c>
       <c r="I64" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>56815018170</v>
       </c>
       <c r="J64" s="5">
         <v>1</v>
@@ -5402,13 +5654,14 @@
         <v>59</v>
       </c>
       <c r="U64" s="5">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="V64" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="W64" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
@@ -5429,13 +5682,16 @@
         <v>3</v>
       </c>
       <c r="G65" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>403425651913.22229</v>
       </c>
       <c r="H65" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>10588.940703166736</v>
       </c>
       <c r="I65" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>62539261520</v>
       </c>
       <c r="J65" s="5">
         <v>1</v>
@@ -5471,13 +5727,14 @@
         <v>59</v>
       </c>
       <c r="U65" s="5">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="V65" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>73</v>
       </c>
       <c r="W65" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
@@ -5498,13 +5755,16 @@
         <v>3</v>
       </c>
       <c r="G66" s="9">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>446557260907.30017</v>
       </c>
       <c r="H66" s="8">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>10893.406266669514</v>
       </c>
       <c r="I66" s="5">
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>68736260402</v>
       </c>
       <c r="J66" s="5">
         <v>1</v>
@@ -5540,13 +5800,14 @@
         <v>59</v>
       </c>
       <c r="U66" s="5">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="V66" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="W66" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
@@ -5567,13 +5828,16 @@
         <v>3</v>
       </c>
       <c r="G67" s="9">
-        <v>100</v>
+        <f t="shared" ref="G67:G91" si="4">A67^6.45+A67^4+100*A67+50</f>
+        <v>493522394931.77332</v>
       </c>
       <c r="H67" s="8">
-        <v>50</v>
+        <f t="shared" ref="H67:H91" si="5">A67^2.15+50+50*A67</f>
+        <v>11202.485666346649</v>
       </c>
       <c r="I67" s="5">
-        <v>50</v>
+        <f t="shared" ref="I67:I91" si="6">A67^6+A67^4+100*A67+50</f>
+        <v>75436747800</v>
       </c>
       <c r="J67" s="5">
         <v>1</v>
@@ -5609,13 +5873,14 @@
         <v>59</v>
       </c>
       <c r="U67" s="5">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="V67" s="5">
-        <v>1</v>
+        <f t="shared" ref="V67:V91" si="7">10+A67</f>
+        <v>75</v>
       </c>
       <c r="W67" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
@@ -5636,13 +5901,16 @@
         <v>3</v>
       </c>
       <c r="G68" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>544594839195.55835</v>
       </c>
       <c r="H68" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>11516.189645117673</v>
       </c>
       <c r="I68" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>82672931402</v>
       </c>
       <c r="J68" s="5">
         <v>1</v>
@@ -5678,13 +5946,14 @@
         <v>59</v>
       </c>
       <c r="U68" s="5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="V68" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>76</v>
       </c>
       <c r="W68" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
@@ -5705,13 +5974,16 @@
         <v>3</v>
       </c>
       <c r="G69" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>600063301167.54822</v>
       </c>
       <c r="H69" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>11834.528806314473</v>
       </c>
       <c r="I69" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>90478540040</v>
       </c>
       <c r="J69" s="5">
         <v>1</v>
@@ -5747,13 +6019,14 @@
         <v>59</v>
       </c>
       <c r="U69" s="5">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="V69" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>77</v>
       </c>
       <c r="W69" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
@@ -5774,13 +6047,16 @@
         <v>3</v>
       </c>
       <c r="G70" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>660231979252.81006</v>
       </c>
       <c r="H70" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>12157.513617569526</v>
       </c>
       <c r="I70" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>98888870850</v>
       </c>
       <c r="J70" s="5">
         <v>1</v>
@@ -5816,13 +6092,14 @@
         <v>59</v>
       </c>
       <c r="U70" s="5">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="V70" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>78</v>
       </c>
       <c r="W70" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -5843,13 +6120,16 @@
         <v>3</v>
       </c>
       <c r="G71" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>725421144100.36401</v>
       </c>
       <c r="H71" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>12485.154414539895</v>
       </c>
       <c r="I71" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>107940837152</v>
       </c>
       <c r="J71" s="5">
         <v>1</v>
@@ -5885,13 +6165,14 @@
         <v>59</v>
       </c>
       <c r="U71" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="V71" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>79</v>
       </c>
       <c r="W71" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
@@ -5912,13 +6193,16 @@
         <v>3</v>
       </c>
       <c r="G72" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>795967732628.35266</v>
       </c>
       <c r="H72" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>12817.461404475967</v>
       </c>
       <c r="I72" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>117673017050</v>
       </c>
       <c r="J72" s="5">
         <v>1</v>
@@ -5954,13 +6238,14 @@
         <v>59</v>
       </c>
       <c r="U72" s="5">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="V72" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
       <c r="W72" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
@@ -5981,13 +6266,16 @@
         <v>3</v>
       </c>
       <c r="G73" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>872225954851.62646</v>
       </c>
       <c r="H73" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>13154.444669643712</v>
       </c>
       <c r="I73" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>128125702752</v>
       </c>
       <c r="J73" s="5">
         <v>1</v>
@@ -6023,13 +6311,14 @@
         <v>59</v>
       </c>
       <c r="U73" s="5">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="V73" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>81</v>
       </c>
       <c r="W73" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -6050,13 +6339,16 @@
         <v>3</v>
       </c>
       <c r="G74" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>954567913596.15015</v>
       </c>
       <c r="H74" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>13496.114170608449</v>
       </c>
       <c r="I74" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>139340950610</v>
       </c>
       <c r="J74" s="5">
         <v>1</v>
@@ -6092,13 +6384,14 @@
         <v>59</v>
       </c>
       <c r="U74" s="5">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="V74" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>82</v>
       </c>
       <c r="W74" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
@@ -6119,13 +6412,16 @@
         <v>3</v>
       </c>
       <c r="G75" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1043384237183.9595</v>
       </c>
       <c r="H75" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>13842.479749387447</v>
       </c>
       <c r="I75" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>151362631880</v>
       </c>
       <c r="J75" s="5">
         <v>1</v>
@@ -6161,13 +6457,14 @@
         <v>59</v>
       </c>
       <c r="U75" s="5">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="V75" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>83</v>
       </c>
       <c r="W75" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -6188,13 +6485,16 @@
         <v>3</v>
       </c>
       <c r="G76" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1139084725171.7219</v>
       </c>
       <c r="H76" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>14193.551132478618</v>
       </c>
       <c r="I76" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>164236484202</v>
       </c>
       <c r="J76" s="5">
         <v>1</v>
@@ -6230,13 +6530,14 @@
         <v>59</v>
       </c>
       <c r="U76" s="5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="V76" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>84</v>
       </c>
       <c r="W76" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
@@ -6257,13 +6558,16 @@
         <v>4</v>
       </c>
       <c r="G77" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1242099007225.2715</v>
       </c>
       <c r="H77" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>14549.337933771378</v>
       </c>
       <c r="I77" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>178010163800</v>
       </c>
       <c r="J77" s="5">
         <v>1</v>
@@ -6299,13 +6603,14 @@
         <v>59</v>
       </c>
       <c r="U77" s="5">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="V77" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>85</v>
       </c>
       <c r="W77" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
@@ -6326,13 +6631,16 @@
         <v>4</v>
       </c>
       <c r="G78" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1352877215212.0776</v>
       </c>
       <c r="H78" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>14909.849657346345</v>
       </c>
       <c r="I78" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>192733298402</v>
       </c>
       <c r="J78" s="5">
         <v>1</v>
@@ -6368,13 +6676,14 @@
         <v>59</v>
       </c>
       <c r="U78" s="5">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="V78" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>86</v>
       </c>
       <c r="W78" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
@@ -6395,13 +6704,16 @@
         <v>4</v>
       </c>
       <c r="G79" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1471890668592.5298</v>
       </c>
       <c r="H79" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>15275.095700168886</v>
       </c>
       <c r="I79" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>208457540880</v>
       </c>
       <c r="J79" s="5">
         <v>1</v>
@@ -6437,13 +6749,14 @@
         <v>59</v>
       </c>
       <c r="U79" s="5">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="V79" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>87</v>
       </c>
       <c r="W79" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
@@ -6464,13 +6777,16 @@
         <v>4</v>
       </c>
       <c r="G80" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1599632573190.9675</v>
       </c>
       <c r="H80" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>15645.085354682449</v>
       </c>
       <c r="I80" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>225236623610</v>
       </c>
       <c r="J80" s="5">
         <v>1</v>
@@ -6506,13 +6822,14 @@
         <v>59</v>
       </c>
       <c r="U80" s="5">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="V80" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>88</v>
       </c>
       <c r="W80" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -6533,13 +6850,16 @@
         <v>4</v>
       </c>
       <c r="G81" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1736618733426.156</v>
       </c>
       <c r="H81" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>16019.827811306393</v>
       </c>
       <c r="I81" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>243126413552</v>
       </c>
       <c r="J81" s="5">
         <v>1</v>
@@ -6575,13 +6895,14 @@
         <v>59</v>
       </c>
       <c r="U81" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V81" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>89</v>
       </c>
       <c r="W81" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
@@ -6602,13 +6923,16 @@
         <v>4</v>
       </c>
       <c r="G82" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1883388278080.7815</v>
       </c>
       <c r="H82" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>16399.332160842801</v>
       </c>
       <c r="I82" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>262184968050</v>
       </c>
       <c r="J82" s="5">
         <v>1</v>
@@ -6644,13 +6968,14 @@
         <v>59</v>
       </c>
       <c r="U82" s="5">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="V82" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="W82" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
@@ -6671,13 +6996,16 @@
         <v>4</v>
       </c>
       <c r="G83" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>2040504399688.792</v>
       </c>
       <c r="H83" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>16783.607396797306</v>
       </c>
       <c r="I83" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>282472591352</v>
       </c>
       <c r="J83" s="5">
         <v>1</v>
@@ -6713,13 +7041,14 @@
         <v>59</v>
       </c>
       <c r="U83" s="5">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="V83" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>91</v>
       </c>
       <c r="W83" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
@@ -6740,13 +7069,16 @@
         <v>4</v>
       </c>
       <c r="G84" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>2208555107618.7119</v>
       </c>
       <c r="H84" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>17172.662417617168</v>
       </c>
       <c r="I84" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>304051891850</v>
       </c>
       <c r="J84" s="5">
         <v>1</v>
@@ -6782,13 +7114,14 @@
         <v>59</v>
       </c>
       <c r="U84" s="5">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="V84" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>92</v>
       </c>
       <c r="W84" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -6809,13 +7142,16 @@
         <v>4</v>
       </c>
       <c r="G85" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>2388153994931.0562</v>
       </c>
       <c r="H85" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>17566.506028851596</v>
       </c>
       <c r="I85" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>326987840040</v>
       </c>
       <c r="J85" s="5">
         <v>1</v>
@@ -6851,13 +7187,14 @@
         <v>59</v>
       </c>
       <c r="U85" s="5">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="V85" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>93</v>
       </c>
       <c r="W85" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
@@ -6878,13 +7215,16 @@
         <v>4</v>
       </c>
       <c r="G86" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>2579941019086.5747</v>
       </c>
       <c r="H86" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>17965.14694523676</v>
       </c>
       <c r="I86" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>351347827202</v>
       </c>
       <c r="J86" s="5">
         <v>1</v>
@@ -6920,13 +7260,14 @@
         <v>59</v>
       </c>
       <c r="U86" s="5">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="V86" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>94</v>
       </c>
       <c r="W86" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -6947,13 +7288,16 @@
         <v>4</v>
       </c>
       <c r="G87" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>2784583296582.4956</v>
       </c>
       <c r="H87" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>18368.593792710068</v>
       </c>
       <c r="I87" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>377201724800</v>
       </c>
       <c r="J87" s="5">
         <v>1</v>
@@ -6989,13 +7333,14 @@
         <v>59</v>
       </c>
       <c r="U87" s="5">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="V87" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>95</v>
       </c>
       <c r="W87" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
@@ -7016,13 +7361,16 @@
         <v>4</v>
       </c>
       <c r="G88" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>3002775911592.4243</v>
       </c>
       <c r="H88" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>18776.855110356017</v>
       </c>
       <c r="I88" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>404621944602</v>
       </c>
       <c r="J88" s="5">
         <v>1</v>
@@ -7058,13 +7406,14 @@
         <v>59</v>
       </c>
       <c r="U88" s="5">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="V88" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>96</v>
       </c>
       <c r="W88" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
@@ -7085,13 +7434,16 @@
         <v>4</v>
       </c>
       <c r="G89" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>3235242738686.312</v>
       </c>
       <c r="H89" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>19189.939352287445</v>
       </c>
       <c r="I89" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>433683499520</v>
       </c>
       <c r="J89" s="5">
         <v>1</v>
@@ -7127,13 +7479,14 @@
         <v>59</v>
       </c>
       <c r="U89" s="5">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="V89" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>97</v>
       </c>
       <c r="W89" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
@@ -7154,13 +7507,16 @@
         <v>4</v>
       </c>
       <c r="G90" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>3482737279704.731</v>
       </c>
       <c r="H90" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>19607.854889464626</v>
       </c>
       <c r="I90" s="5">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>464464065170</v>
       </c>
       <c r="J90" s="5">
         <v>1</v>
@@ -7196,13 +7552,14 @@
         <v>59</v>
       </c>
       <c r="U90" s="5">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="V90" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>98</v>
       </c>
       <c r="W90" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
@@ -7223,13 +7580,16 @@
         <v>4</v>
       </c>
       <c r="G91" s="9">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>3746043514863.064</v>
       </c>
       <c r="H91" s="8">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>20030.610011454803</v>
       </c>
       <c r="I91" s="5">
-        <v>50</v>
+        <f>A91^6+A91^4+100*A91+50</f>
+        <v>497044042152</v>
       </c>
       <c r="J91" s="5">
         <v>1</v>
@@ -7265,13 +7625,14 @@
         <v>59</v>
       </c>
       <c r="U91" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="V91" s="5">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>99</v>
       </c>
       <c r="W91" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DD698F-00B3-48A2-8E0D-6E500FB23D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B81E8-9BDB-4CE0-A150-7135291D8EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="2070" windowWidth="38880" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -968,35 +968,35 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="E2" sqref="E2:E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" customWidth="1"/>
     <col min="8" max="8" width="35.5" customWidth="1"/>
-    <col min="9" max="9" width="43.25" customWidth="1"/>
-    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.19921875" customWidth="1"/>
+    <col min="10" max="10" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
-    <col min="13" max="13" width="21.625" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
-    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.59765625" customWidth="1"/>
+    <col min="14" max="14" width="11.69921875" customWidth="1"/>
+    <col min="15" max="15" width="13.09765625" customWidth="1"/>
+    <col min="16" max="16" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="12.25" customWidth="1"/>
+    <col min="18" max="18" width="12.19921875" customWidth="1"/>
     <col min="19" max="19" width="16.5" customWidth="1"/>
-    <col min="20" max="20" width="14.625" customWidth="1"/>
-    <col min="22" max="22" width="12.875" customWidth="1"/>
+    <col min="20" max="20" width="14.59765625" customWidth="1"/>
+    <col min="22" max="22" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1078,7 +1078,8 @@
         <v>18</v>
       </c>
       <c r="E2" s="7">
-        <v>1</v>
+        <f>A2^3</f>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -1139,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1150,21 +1151,22 @@
         <v>19</v>
       </c>
       <c r="E3" s="7">
+        <f t="shared" ref="E3:E66" si="0">A3^3</f>
         <v>1</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G66" si="0">A3^6.45+A3^4+100*A3+50</f>
+        <f t="shared" ref="G3:G66" si="1">A3^6.45+A3^4+100*A3+50</f>
         <v>152</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H66" si="1">A3^2.15+50+50*A3</f>
+        <f t="shared" ref="H3:H66" si="2">A3^2.15+50+50*A3</f>
         <v>101</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I66" si="2">A3^6+A3^4+100*A3+50</f>
+        <f t="shared" ref="I3:I66" si="3">A3^6+A3^4+100*A3+50</f>
         <v>152</v>
       </c>
       <c r="J3" s="5">
@@ -1204,14 +1206,14 @@
         <v>2</v>
       </c>
       <c r="V3" s="5">
-        <f t="shared" ref="V3:V66" si="3">10+A3</f>
+        <f t="shared" ref="V3:V66" si="4">10+A3</f>
         <v>11</v>
       </c>
       <c r="W3" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1223,21 +1225,22 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>353.42657643228131</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>154.43827788827139</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="J4" s="5">
@@ -1277,14 +1280,14 @@
         <v>3</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="W4" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1296,21 +1299,22 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1626.1766311172196</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210.6123288111323</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1160</v>
       </c>
       <c r="J5" s="5">
@@ -1350,14 +1354,14 @@
         <v>4</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="W5" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1369,21 +1373,22 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8349.4062666695281</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>269.69831061351863</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4802</v>
       </c>
       <c r="J6" s="5">
@@ -1423,14 +1428,14 @@
         <v>5</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="W6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1442,21 +1447,22 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33412.141682512403</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>331.82625288866058</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16800</v>
       </c>
       <c r="J7" s="5">
@@ -1496,14 +1502,14 @@
         <v>6</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="W7" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1515,21 +1521,22 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>216</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106436.20109044592</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>397.10046430551381</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48602</v>
       </c>
       <c r="J8" s="5">
@@ -1569,14 +1576,14 @@
         <v>7</v>
       </c>
       <c r="V8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="W8" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1588,21 +1595,22 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>343</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>285562.48736351961</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>465.60860233241453</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120800</v>
       </c>
       <c r="J9" s="5">
@@ -1642,14 +1650,14 @@
         <v>8</v>
       </c>
       <c r="V9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="W9" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1661,21 +1669,22 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>512</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>673182.84217596101</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>537.42657643228131</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>267090</v>
       </c>
       <c r="J10" s="5">
@@ -1715,14 +1724,14 @@
         <v>9</v>
       </c>
       <c r="V10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="W10" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1734,21 +1743,22 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>729</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1435958.1795687063</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>612.6215227955887</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>538952</v>
       </c>
       <c r="J11" s="5">
@@ -1788,14 +1798,14 @@
         <v>10</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="W11" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1807,21 +1817,22 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2829432.9312644606</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>691.25375446227542</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1011050</v>
       </c>
       <c r="J12" s="5">
@@ -1861,14 +1872,14 @@
         <v>11</v>
       </c>
       <c r="V12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="W12" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1880,21 +1891,22 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1331</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5227531.9300244208</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>773.37811347566094</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1787352</v>
       </c>
       <c r="J13" s="5">
@@ -1934,14 +1946,14 @@
         <v>12</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="W13" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1953,21 +1965,22 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1728</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9157206.5520583224</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>859.04494925447727</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3007970</v>
       </c>
       <c r="J14" s="5">
@@ -2007,14 +2020,14 @@
         <v>13</v>
       </c>
       <c r="V14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="W14" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2026,21 +2039,22 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2197</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15338480.928967474</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>948.30085068425512</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4856720</v>
       </c>
       <c r="J15" s="5">
@@ -2080,14 +2094,14 @@
         <v>14</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="W15" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -2099,21 +2113,22 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2744</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24730135.485340979</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1041.1892090123454</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7569402</v>
       </c>
       <c r="J16" s="5">
@@ -2153,14 +2168,14 @@
         <v>15</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="W16" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2172,21 +2187,22 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3375</v>
       </c>
       <c r="F17" s="5">
         <v>1.5</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38581253.392953709</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1137.7506604807154</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11442800</v>
       </c>
       <c r="J17" s="5">
@@ -2226,14 +2242,14 @@
         <v>16</v>
       </c>
       <c r="V17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="W17" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2245,21 +2261,22 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="F18" s="5">
         <v>1.5</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58488845.357363015</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1238.0234410266619</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16844402</v>
       </c>
       <c r="J18" s="5">
@@ -2299,14 +2316,14 @@
         <v>17</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="W18" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2318,21 +2335,22 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4913</v>
       </c>
       <c r="F19" s="5">
         <v>1.5</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86461759.177238211</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1342.0436751359628</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24222840</v>
       </c>
       <c r="J19" s="5">
@@ -2372,14 +2390,14 @@
         <v>18</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="W19" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2391,21 +2409,22 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5832</v>
       </c>
       <c r="F20" s="5">
         <v>1.5</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>124991072.52403986</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1449.8456143671119</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34119050</v>
       </c>
       <c r="J20" s="5">
@@ -2445,14 +2464,14 @@
         <v>19</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="W20" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2464,21 +2483,22 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6859</v>
       </c>
       <c r="F21" s="5">
         <v>1.5</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>177127160.21390957</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1561.4618367199535</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47178152</v>
       </c>
       <c r="J21" s="5">
@@ -2518,14 +2538,14 @@
         <v>20</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="W21" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2537,21 +2557,22 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="F22" s="5">
         <v>1.5</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>246563620.75562835</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1676.9234150652314</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64162050</v>
       </c>
       <c r="J22" s="5">
@@ -2591,14 +2612,14 @@
         <v>21</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="W22" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2610,21 +2631,22 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9261</v>
       </c>
       <c r="F23" s="5">
         <v>1.5</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337728241.05593371</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1796.2600607904049</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85962752</v>
       </c>
       <c r="J23" s="5">
@@ -2664,14 +2686,14 @@
         <v>22</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="W23" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -2683,21 +2705,22 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>10648</v>
       </c>
       <c r="F24" s="5">
         <v>1.5</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>455881172.76403016</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1919.5002473492318</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>113616410</v>
       </c>
       <c r="J24" s="5">
@@ -2737,14 +2760,14 @@
         <v>23</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="W24" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -2756,21 +2779,22 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>12167</v>
       </c>
       <c r="F25" s="5">
         <v>1.5</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>607220488.77384245</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2046.6713173374812</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148318080</v>
       </c>
       <c r="J25" s="5">
@@ -2810,14 +2834,14 @@
         <v>24</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="W25" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -2829,21 +2853,22 @@
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>13824</v>
       </c>
       <c r="F26" s="5">
         <v>1.5</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>798995283.82027626</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2177.7995759309588</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>191437202</v>
       </c>
       <c r="J26" s="5">
@@ -2883,14 +2908,14 @@
         <v>25</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="W26" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -2902,21 +2927,22 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15625</v>
       </c>
       <c r="F27" s="5">
         <v>1.5</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1039626478.8583786</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2312.9103729329759</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>244533800</v>
       </c>
       <c r="J27" s="5">
@@ -2956,14 +2982,14 @@
         <v>26</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="W27" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -2975,21 +3001,22 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>17576</v>
       </c>
       <c r="F28" s="5">
         <v>1.5</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1338835484.9637971</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2452.0281752309029</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>309375402</v>
       </c>
       <c r="J28" s="5">
@@ -3029,14 +3056,14 @@
         <v>27</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="W28" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -3048,21 +3075,22 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>19683</v>
       </c>
       <c r="F29" s="5">
         <v>1.5</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1707780878.805819</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2595.1766311172187</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>387954680</v>
       </c>
       <c r="J29" s="5">
@@ -3102,14 +3130,14 @@
         <v>28</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="W29" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -3121,21 +3149,22 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>21952</v>
       </c>
       <c r="F30" s="5">
         <v>1.5</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2159203238.2937846</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2742.378627662727</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>482507810</v>
       </c>
       <c r="J30" s="5">
@@ -3175,14 +3204,14 @@
         <v>29</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="W30" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -3194,21 +3223,22 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>24389</v>
       </c>
       <c r="F31" s="5">
         <v>1.5</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2707578283.7589922</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2893.6563421190704</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>595533552</v>
       </c>
       <c r="J31" s="5">
@@ -3248,14 +3278,14 @@
         <v>30</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="W31" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -3267,21 +3297,22 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>27000</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3369278466.9869232</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3049.0312881606123</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>729813050</v>
       </c>
       <c r="J32" s="5">
@@ -3321,14 +3352,14 @@
         <v>31</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="W32" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -3340,21 +3371,22 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>29791</v>
       </c>
       <c r="F33" s="5">
         <v>2</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4162743147.541553</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3208.5243576419898</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>888430352</v>
       </c>
       <c r="J33" s="5">
@@ -3394,14 +3426,14 @@
         <v>32</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="W33" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -3413,21 +3445,22 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>32768</v>
       </c>
       <c r="F34" s="5">
         <v>2</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5108657493.1071968</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3372.1558584396066</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1074793650</v>
       </c>
       <c r="J34" s="5">
@@ -3467,14 +3500,14 @@
         <v>33</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="W34" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -3486,21 +3519,22 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>35937</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6230140238.0022955</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3539.9455488575204</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1292657240</v>
       </c>
       <c r="J35" s="5">
@@ -3540,14 +3574,14 @@
         <v>34</v>
       </c>
       <c r="V35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="W35" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -3559,21 +3593,22 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>39304</v>
       </c>
       <c r="F36" s="5">
         <v>2</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7552940431.57938</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3711.9126690061603</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1546144202</v>
       </c>
       <c r="J36" s="5">
@@ -3613,14 +3648,14 @@
         <v>35</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="W36" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -3632,21 +3667,22 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>42875</v>
       </c>
       <c r="F37" s="5">
         <v>2</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9105643305.9068451</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3888.0759695029919</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1839769800</v>
       </c>
       <c r="J37" s="5">
@@ -3686,14 +3722,14 @@
         <v>36</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="W37" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -3705,21 +3741,22 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>46656</v>
       </c>
       <c r="F38" s="5">
         <v>2</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10919885389.921824</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4068.4537377949773</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2178465602</v>
       </c>
       <c r="J38" s="5">
@@ -3759,14 +3796,14 @@
         <v>37</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="W38" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -3778,21 +3815,22 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>50653</v>
       </c>
       <c r="F39" s="5">
         <v>2</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13030578995.137789</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4253.0638223615515</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2567604320</v>
       </c>
       <c r="J39" s="5">
@@ -3832,14 +3870,14 @@
         <v>38</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="W39" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -3851,21 +3889,22 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>54872</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15476146195.983017</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4441.923655022405</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3013025370</v>
       </c>
       <c r="J40" s="5">
@@ -3905,14 +3944,14 @@
         <v>39</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="W40" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -3924,21 +3963,22 @@
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>59319</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18298762425.925671</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4635.0502715451767</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3521061152</v>
       </c>
       <c r="J41" s="5">
@@ -3978,14 +4018,14 @@
         <v>40</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="W41" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -3997,21 +4037,22 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>64000</v>
       </c>
       <c r="F42" s="5">
         <v>2</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21544609808.701172</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4832.4603307235975</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4098564050</v>
       </c>
       <c r="J42" s="5">
@@ -4051,14 +4092,14 @@
         <v>41</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="W42" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -4070,21 +4111,22 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>68921</v>
       </c>
       <c r="F43" s="5">
         <v>2</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25264140342.19796</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5034.1701320755374</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4752934152</v>
       </c>
       <c r="J43" s="5">
@@ -4124,14 +4166,14 @@
         <v>42</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="W43" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -4143,21 +4185,22 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>74088</v>
       </c>
       <c r="F44" s="5">
         <v>2</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29512349050.866146</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5240.1956322925425</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5492147690</v>
       </c>
       <c r="J44" s="5">
@@ -4197,14 +4240,14 @@
         <v>43</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="W44" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -4216,21 +4259,22 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>79507</v>
       </c>
       <c r="F45" s="5">
         <v>2</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34349057220.890388</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5450.5524605569453</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6324786200</v>
       </c>
       <c r="J45" s="5">
@@ -4270,14 +4314,14 @@
         <v>44</v>
       </c>
       <c r="V45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="W45" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -4289,21 +4333,22 @@
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>85184</v>
       </c>
       <c r="F46" s="5">
         <v>2</v>
       </c>
       <c r="G46" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39839205830.806664</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5665.2559328294519</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7260066402</v>
       </c>
       <c r="J46" s="5">
@@ -4343,14 +4388,14 @@
         <v>45</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="W46" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4362,21 +4407,22 @@
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>91125</v>
       </c>
       <c r="F47" s="5">
         <v>2.5</v>
       </c>
       <c r="G47" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46053159288.741547</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5884.3210651984537</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8307870800</v>
       </c>
       <c r="J47" s="5">
@@ -4416,14 +4462,14 @@
         <v>46</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="W47" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -4435,21 +4481,22 @@
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>97336</v>
       </c>
       <c r="F48" s="5">
         <v>2.5</v>
       </c>
       <c r="G48" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53067019586.0037</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6107.7625863725425</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9478779002</v>
       </c>
       <c r="J48" s="5">
@@ -4489,14 +4536,14 @@
         <v>47</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="W48" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -4508,21 +4555,22 @@
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>103823</v>
       </c>
       <c r="F49" s="5">
         <v>2.5</v>
       </c>
       <c r="G49" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60962950975.363617</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6335.5949493887865</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10784099760</v>
       </c>
       <c r="J49" s="5">
@@ -4562,14 +4610,14 @@
         <v>48</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="W49" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -4581,21 +4629,22 @@
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>110592</v>
       </c>
       <c r="F50" s="5">
         <v>2.5</v>
       </c>
       <c r="G50" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69829515281.010971</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6567.8323426019369</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12235903730</v>
       </c>
       <c r="J50" s="5">
@@ -4635,14 +4684,14 @@
         <v>49</v>
       </c>
       <c r="V50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="W50" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -4654,21 +4703,22 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>117649</v>
       </c>
       <c r="F51" s="5">
         <v>2.5</v>
       </c>
       <c r="G51" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79762017945.875412</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6804.4887000129083</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13847056952</v>
       </c>
       <c r="J51" s="5">
@@ -4708,14 +4758,14 @@
         <v>50</v>
       </c>
       <c r="V51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="W51" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -4727,21 +4777,22 @@
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>125000</v>
       </c>
       <c r="F52" s="5">
         <v>2.5</v>
       </c>
       <c r="G52" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90862864920.746704</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7045.5777109891469</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15631255050</v>
       </c>
       <c r="J52" s="5">
@@ -4781,14 +4832,14 @@
         <v>51</v>
       </c>
       <c r="V52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="W52" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -4800,21 +4851,22 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>132651</v>
       </c>
       <c r="F53" s="5">
         <v>2.5</v>
       </c>
       <c r="G53" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103241930498.40762</v>
       </c>
       <c r="H53" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7291.112829424178</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17603058152</v>
       </c>
       <c r="J53" s="5">
@@ -4854,14 +4906,14 @@
         <v>52</v>
       </c>
       <c r="V53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="W53" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -4873,21 +4925,22 @@
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>140608</v>
       </c>
       <c r="F54" s="5">
         <v>2.5</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117016936194.81889</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7541.107282379372</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19777926530</v>
       </c>
       <c r="J54" s="5">
@@ -4927,14 +4980,14 @@
         <v>53</v>
       </c>
       <c r="V54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="W54" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -4946,21 +4999,22 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>148877</v>
       </c>
       <c r="F55" s="5">
         <v>2.5</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132313840778.2588</v>
       </c>
       <c r="H55" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7795.5740782464591</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22172256960</v>
       </c>
       <c r="J55" s="5">
@@ -5000,14 +5054,14 @@
         <v>54</v>
       </c>
       <c r="V55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="W55" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -5019,21 +5073,22 @@
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>157464</v>
       </c>
       <c r="F56" s="5">
         <v>2.5</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149267241546.21442</v>
       </c>
       <c r="H56" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8054.5260144662298</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24803419802</v>
       </c>
       <c r="J56" s="5">
@@ -5073,14 +5128,14 @@
         <v>55</v>
       </c>
       <c r="V56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="W56" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -5092,21 +5147,22 @@
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>166375</v>
       </c>
       <c r="F57" s="5">
         <v>2.5</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>168020786948.7468</v>
       </c>
       <c r="H57" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8317.9756848352717</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27689796800</v>
       </c>
       <c r="J57" s="5">
@@ -5146,14 +5202,14 @@
         <v>56</v>
       </c>
       <c r="V57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="W57" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -5165,21 +5221,22 @@
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>175616</v>
       </c>
       <c r="F58" s="5">
         <v>2.5</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>188727600656.01501</v>
       </c>
       <c r="H58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8585.9354864300003</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30850819602</v>
       </c>
       <c r="J58" s="5">
@@ -5219,14 +5276,14 @@
         <v>57</v>
       </c>
       <c r="V58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="W58" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -5238,21 +5295,22 @@
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>185193</v>
       </c>
       <c r="F59" s="5">
         <v>2.5</v>
       </c>
       <c r="G59" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>211550717166.64612</v>
       </c>
       <c r="H59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8858.4176261744178</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34307009000</v>
       </c>
       <c r="J59" s="5">
@@ -5292,14 +5350,14 @@
         <v>58</v>
       </c>
       <c r="V59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="W59" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -5311,21 +5369,22 @@
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>195112</v>
       </c>
       <c r="F60" s="5">
         <v>2.5</v>
       </c>
       <c r="G60" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>236663529052.63351</v>
       </c>
       <c r="H60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9135.4341270762434</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38080014890</v>
       </c>
       <c r="J60" s="5">
@@ -5365,14 +5424,14 @@
         <v>59</v>
       </c>
       <c r="V60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="W60" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -5384,21 +5443,22 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>205379</v>
       </c>
       <c r="F61" s="5">
         <v>2.5</v>
       </c>
       <c r="G61" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>264250245935.52618</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9416.9968341531803</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42192656952</v>
       </c>
       <c r="J61" s="5">
@@ -5438,14 +5498,14 @@
         <v>60</v>
       </c>
       <c r="V61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="W61" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -5457,21 +5517,22 @@
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>216000</v>
       </c>
       <c r="F62" s="5">
         <v>3</v>
       </c>
       <c r="G62" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>294506365287.70337</v>
       </c>
       <c r="H62" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9703.117420070208</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46668966050</v>
       </c>
       <c r="J62" s="5">
@@ -5511,14 +5572,14 @@
         <v>61</v>
       </c>
       <c r="V62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="W62" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -5530,21 +5591,22 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>226981</v>
       </c>
       <c r="F63" s="5">
         <v>3</v>
       </c>
       <c r="G63" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>327639155151.68616</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9993.8073905063829</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51534226352</v>
       </c>
       <c r="J63" s="5">
@@ -5584,14 +5646,14 @@
         <v>62</v>
       </c>
       <c r="V63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="W63" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -5603,21 +5665,22 @@
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>238328</v>
       </c>
       <c r="F64" s="5">
         <v>3</v>
       </c>
       <c r="G64" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>363868148869.48749</v>
       </c>
       <c r="H64" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10289.078089268367</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56815018170</v>
       </c>
       <c r="J64" s="5">
@@ -5657,14 +5720,14 @@
         <v>63</v>
       </c>
       <c r="V64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="W64" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -5676,21 +5739,22 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>250047</v>
       </c>
       <c r="F65" s="5">
         <v>3</v>
       </c>
       <c r="G65" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>403425651913.22229</v>
       </c>
       <c r="H65" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10588.940703166736</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62539261520</v>
       </c>
       <c r="J65" s="5">
@@ -5730,14 +5794,14 @@
         <v>64</v>
       </c>
       <c r="V65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="W65" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -5749,21 +5813,22 @@
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>262144</v>
       </c>
       <c r="F66" s="5">
         <v>3</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>446557260907.30017</v>
       </c>
       <c r="H66" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10893.406266669514</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68736260402</v>
       </c>
       <c r="J66" s="5">
@@ -5803,14 +5868,14 @@
         <v>65</v>
       </c>
       <c r="V66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="W66" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -5822,21 +5887,22 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="7">
-        <v>1</v>
+        <f t="shared" ref="E67:E91" si="5">A67^3</f>
+        <v>274625</v>
       </c>
       <c r="F67" s="5">
         <v>3</v>
       </c>
       <c r="G67" s="9">
-        <f t="shared" ref="G67:G91" si="4">A67^6.45+A67^4+100*A67+50</f>
+        <f t="shared" ref="G67:G91" si="6">A67^6.45+A67^4+100*A67+50</f>
         <v>493522394931.77332</v>
       </c>
       <c r="H67" s="8">
-        <f t="shared" ref="H67:H91" si="5">A67^2.15+50+50*A67</f>
+        <f t="shared" ref="H67:H91" si="7">A67^2.15+50+50*A67</f>
         <v>11202.485666346649</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I91" si="6">A67^6+A67^4+100*A67+50</f>
+        <f t="shared" ref="I67:I90" si="8">A67^6+A67^4+100*A67+50</f>
         <v>75436747800</v>
       </c>
       <c r="J67" s="5">
@@ -5876,14 +5942,14 @@
         <v>66</v>
       </c>
       <c r="V67" s="5">
-        <f t="shared" ref="V67:V91" si="7">10+A67</f>
+        <f t="shared" ref="V67:V91" si="9">10+A67</f>
         <v>75</v>
       </c>
       <c r="W67" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -5895,21 +5961,22 @@
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>287496</v>
       </c>
       <c r="F68" s="5">
         <v>3</v>
       </c>
       <c r="G68" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>544594839195.55835</v>
       </c>
       <c r="H68" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11516.189645117673</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>82672931402</v>
       </c>
       <c r="J68" s="5">
@@ -5949,14 +6016,14 @@
         <v>67</v>
       </c>
       <c r="V68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="W68" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -5968,21 +6035,22 @@
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>300763</v>
       </c>
       <c r="F69" s="5">
         <v>3</v>
       </c>
       <c r="G69" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>600063301167.54822</v>
       </c>
       <c r="H69" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11834.528806314473</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90478540040</v>
       </c>
       <c r="J69" s="5">
@@ -6022,14 +6090,14 @@
         <v>68</v>
       </c>
       <c r="V69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="W69" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -6041,21 +6109,22 @@
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>314432</v>
       </c>
       <c r="F70" s="5">
         <v>3</v>
       </c>
       <c r="G70" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>660231979252.81006</v>
       </c>
       <c r="H70" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12157.513617569526</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>98888870850</v>
       </c>
       <c r="J70" s="5">
@@ -6095,14 +6164,14 @@
         <v>69</v>
       </c>
       <c r="V70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="W70" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -6114,21 +6183,22 @@
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>328509</v>
       </c>
       <c r="F71" s="5">
         <v>3</v>
       </c>
       <c r="G71" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>725421144100.36401</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12485.154414539895</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>107940837152</v>
       </c>
       <c r="J71" s="5">
@@ -6168,14 +6238,14 @@
         <v>70</v>
       </c>
       <c r="V71" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="W71" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -6187,21 +6257,22 @@
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>343000</v>
       </c>
       <c r="F72" s="5">
         <v>3</v>
       </c>
       <c r="G72" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>795967732628.35266</v>
       </c>
       <c r="H72" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12817.461404475967</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>117673017050</v>
       </c>
       <c r="J72" s="5">
@@ -6241,14 +6312,14 @@
         <v>71</v>
       </c>
       <c r="V72" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="W72" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -6260,21 +6331,22 @@
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>357911</v>
       </c>
       <c r="F73" s="5">
         <v>3</v>
       </c>
       <c r="G73" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>872225954851.62646</v>
       </c>
       <c r="H73" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13154.444669643712</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>128125702752</v>
       </c>
       <c r="J73" s="5">
@@ -6314,14 +6386,14 @@
         <v>72</v>
       </c>
       <c r="V73" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="W73" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -6333,21 +6405,22 @@
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>373248</v>
       </c>
       <c r="F74" s="5">
         <v>3</v>
       </c>
       <c r="G74" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>954567913596.15015</v>
       </c>
       <c r="H74" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13496.114170608449</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>139340950610</v>
       </c>
       <c r="J74" s="5">
@@ -6387,14 +6460,14 @@
         <v>73</v>
       </c>
       <c r="V74" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="W74" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -6406,21 +6479,22 @@
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>389017</v>
       </c>
       <c r="F75" s="5">
         <v>3</v>
       </c>
       <c r="G75" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1043384237183.9595</v>
       </c>
       <c r="H75" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13842.479749387447</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>151362631880</v>
       </c>
       <c r="J75" s="5">
@@ -6460,14 +6534,14 @@
         <v>74</v>
       </c>
       <c r="V75" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="W75" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -6479,21 +6553,22 @@
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>405224</v>
       </c>
       <c r="F76" s="5">
         <v>3</v>
       </c>
       <c r="G76" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1139084725171.7219</v>
       </c>
       <c r="H76" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14193.551132478618</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>164236484202</v>
       </c>
       <c r="J76" s="5">
@@ -6533,14 +6608,14 @@
         <v>75</v>
       </c>
       <c r="V76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="W76" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -6552,21 +6627,22 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>421875</v>
       </c>
       <c r="F77" s="5">
         <v>4</v>
       </c>
       <c r="G77" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1242099007225.2715</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14549.337933771378</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>178010163800</v>
       </c>
       <c r="J77" s="5">
@@ -6606,14 +6682,14 @@
         <v>76</v>
       </c>
       <c r="V77" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="W77" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -6625,21 +6701,22 @@
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>438976</v>
       </c>
       <c r="F78" s="5">
         <v>4</v>
       </c>
       <c r="G78" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1352877215212.0776</v>
       </c>
       <c r="H78" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14909.849657346345</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>192733298402</v>
       </c>
       <c r="J78" s="5">
@@ -6679,14 +6756,14 @@
         <v>77</v>
       </c>
       <c r="V78" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="W78" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -6698,21 +6775,22 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>456533</v>
       </c>
       <c r="F79" s="5">
         <v>4</v>
       </c>
       <c r="G79" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1471890668592.5298</v>
       </c>
       <c r="H79" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15275.095700168886</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>208457540880</v>
       </c>
       <c r="J79" s="5">
@@ -6752,14 +6830,14 @@
         <v>78</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="W79" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -6771,21 +6849,22 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>474552</v>
       </c>
       <c r="F80" s="5">
         <v>4</v>
       </c>
       <c r="G80" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1599632573190.9675</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15645.085354682449</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>225236623610</v>
       </c>
       <c r="J80" s="5">
@@ -6825,14 +6904,14 @@
         <v>79</v>
       </c>
       <c r="V80" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="W80" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -6844,21 +6923,22 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>493039</v>
       </c>
       <c r="F81" s="5">
         <v>4</v>
       </c>
       <c r="G81" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1736618733426.156</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16019.827811306393</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>243126413552</v>
       </c>
       <c r="J81" s="5">
@@ -6898,14 +6978,14 @@
         <v>80</v>
       </c>
       <c r="V81" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="W81" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -6917,21 +6997,22 @@
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>512000</v>
       </c>
       <c r="F82" s="5">
         <v>4</v>
       </c>
       <c r="G82" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1883388278080.7815</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16399.332160842801</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>262184968050</v>
       </c>
       <c r="J82" s="5">
@@ -6971,14 +7052,14 @@
         <v>81</v>
       </c>
       <c r="V82" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="W82" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -6990,21 +7071,22 @@
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>531441</v>
       </c>
       <c r="F83" s="5">
         <v>4</v>
       </c>
       <c r="G83" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2040504399688.792</v>
       </c>
       <c r="H83" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16783.607396797306</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>282472591352</v>
       </c>
       <c r="J83" s="5">
@@ -7044,14 +7126,14 @@
         <v>82</v>
       </c>
       <c r="V83" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="W83" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -7063,21 +7145,22 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>551368</v>
       </c>
       <c r="F84" s="5">
         <v>4</v>
       </c>
       <c r="G84" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2208555107618.7119</v>
       </c>
       <c r="H84" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17172.662417617168</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>304051891850</v>
       </c>
       <c r="J84" s="5">
@@ -7117,14 +7200,14 @@
         <v>83</v>
       </c>
       <c r="V84" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="W84" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -7136,21 +7219,22 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>571787</v>
       </c>
       <c r="F85" s="5">
         <v>4</v>
       </c>
       <c r="G85" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2388153994931.0562</v>
       </c>
       <c r="H85" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17566.506028851596</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326987840040</v>
       </c>
       <c r="J85" s="5">
@@ -7190,14 +7274,14 @@
         <v>84</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
       <c r="W85" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -7209,21 +7293,22 @@
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>592704</v>
       </c>
       <c r="F86" s="5">
         <v>4</v>
       </c>
       <c r="G86" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2579941019086.5747</v>
       </c>
       <c r="H86" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17965.14694523676</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>351347827202</v>
       </c>
       <c r="J86" s="5">
@@ -7263,14 +7348,14 @@
         <v>85</v>
       </c>
       <c r="V86" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
       <c r="W86" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -7282,21 +7367,22 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>614125</v>
       </c>
       <c r="F87" s="5">
         <v>4</v>
       </c>
       <c r="G87" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2784583296582.4956</v>
       </c>
       <c r="H87" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18368.593792710068</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>377201724800</v>
       </c>
       <c r="J87" s="5">
@@ -7336,14 +7422,14 @@
         <v>86</v>
       </c>
       <c r="V87" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="W87" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -7355,21 +7441,22 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>636056</v>
       </c>
       <c r="F88" s="5">
         <v>4</v>
       </c>
       <c r="G88" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3002775911592.4243</v>
       </c>
       <c r="H88" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18776.855110356017</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>404621944602</v>
       </c>
       <c r="J88" s="5">
@@ -7409,14 +7496,14 @@
         <v>87</v>
       </c>
       <c r="V88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="W88" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -7428,21 +7515,22 @@
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>658503</v>
       </c>
       <c r="F89" s="5">
         <v>4</v>
       </c>
       <c r="G89" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3235242738686.312</v>
       </c>
       <c r="H89" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19189.939352287445</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>433683499520</v>
       </c>
       <c r="J89" s="5">
@@ -7482,14 +7570,14 @@
         <v>88</v>
       </c>
       <c r="V89" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
       <c r="W89" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -7501,21 +7589,22 @@
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>681472</v>
       </c>
       <c r="F90" s="5">
         <v>4</v>
       </c>
       <c r="G90" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3482737279704.731</v>
       </c>
       <c r="H90" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19607.854889464626</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>464464065170</v>
       </c>
       <c r="J90" s="5">
@@ -7555,14 +7644,14 @@
         <v>89</v>
       </c>
       <c r="V90" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="W90" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -7574,17 +7663,18 @@
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="7">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>704969</v>
       </c>
       <c r="F91" s="5">
         <v>4</v>
       </c>
       <c r="G91" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3746043514863.064</v>
       </c>
       <c r="H91" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20030.610011454803</v>
       </c>
       <c r="I91" s="5">
@@ -7628,7 +7718,7 @@
         <v>90</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="W91" s="5">
@@ -7651,9 +7741,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7709,7 +7799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7768,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7828,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7888,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7948,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8008,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8068,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8128,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8188,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8248,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8308,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8368,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8428,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8488,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8548,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8608,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8668,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8728,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B81E8-9BDB-4CE0-A150-7135291D8EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954F2BD-78B8-414B-A17D-F0455571E52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -968,35 +968,35 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E91"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" customWidth="1"/>
-    <col min="4" max="4" width="11.09765625" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" customWidth="1"/>
-    <col min="7" max="7" width="23.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="35.5" customWidth="1"/>
-    <col min="9" max="9" width="43.19921875" customWidth="1"/>
-    <col min="10" max="10" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.25" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
-    <col min="13" max="13" width="21.59765625" customWidth="1"/>
-    <col min="14" max="14" width="11.69921875" customWidth="1"/>
-    <col min="15" max="15" width="13.09765625" customWidth="1"/>
-    <col min="16" max="16" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.625" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="12.19921875" customWidth="1"/>
+    <col min="18" max="18" width="12.25" customWidth="1"/>
     <col min="19" max="19" width="16.5" customWidth="1"/>
-    <col min="20" max="20" width="14.59765625" customWidth="1"/>
-    <col min="22" max="22" width="12.8984375" customWidth="1"/>
+    <col min="20" max="20" width="14.625" customWidth="1"/>
+    <col min="22" max="22" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1085,8 +1085,8 @@
         <v>1</v>
       </c>
       <c r="G2" s="9">
-        <f>A2^6.45+A2^4+100*A2+50</f>
-        <v>50</v>
+        <f>A2^6.45+A2^4+100*A2+20</f>
+        <v>20</v>
       </c>
       <c r="H2" s="8">
         <f>A2^2.15+50+50*A2</f>
@@ -1140,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1158,8 +1158,8 @@
         <v>1</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G66" si="1">A3^6.45+A3^4+100*A3+50</f>
-        <v>152</v>
+        <f t="shared" ref="G3:G66" si="1">A3^6.45+A3^4+100*A3+20</f>
+        <v>122</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" ref="H3:H66" si="2">A3^2.15+50+50*A3</f>
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="G4" s="9">
         <f t="shared" si="1"/>
-        <v>353.42657643228131</v>
+        <v>323.42657643228131</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="2"/>
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
-        <v>1626.1766311172196</v>
+        <v>1596.1766311172196</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="2"/>
@@ -1361,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>8349.4062666695281</v>
+        <v>8319.4062666695281</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="2"/>
@@ -1435,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>33412.141682512403</v>
+        <v>33382.141682512403</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="2"/>
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>106436.20109044592</v>
+        <v>106406.20109044592</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="2"/>
@@ -1583,7 +1583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="G9" s="9">
         <f t="shared" si="1"/>
-        <v>285562.48736351961</v>
+        <v>285532.48736351961</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="2"/>
@@ -1657,7 +1657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="G10" s="9">
         <f t="shared" si="1"/>
-        <v>673182.84217596101</v>
+        <v>673152.84217596101</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="2"/>
@@ -1731,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>1435958.1795687063</v>
+        <v>1435928.1795687063</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="2"/>
@@ -1805,7 +1805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="G12" s="9">
         <f t="shared" si="1"/>
-        <v>2829432.9312644606</v>
+        <v>2829402.9312644606</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="2"/>
@@ -1879,7 +1879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>5227531.9300244208</v>
+        <v>5227501.9300244208</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="2"/>
@@ -1953,7 +1953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="G14" s="9">
         <f t="shared" si="1"/>
-        <v>9157206.5520583224</v>
+        <v>9157176.5520583224</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="2"/>
@@ -2027,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G15" s="9">
         <f t="shared" si="1"/>
-        <v>15338480.928967474</v>
+        <v>15338450.928967474</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="2"/>
@@ -2101,7 +2101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>24730135.485340979</v>
+        <v>24730105.485340979</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="2"/>
@@ -2175,7 +2175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="G17" s="9">
         <f t="shared" si="1"/>
-        <v>38581253.392953709</v>
+        <v>38581223.392953709</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="2"/>
@@ -2249,7 +2249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="G18" s="9">
         <f t="shared" si="1"/>
-        <v>58488845.357363015</v>
+        <v>58488815.357363015</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="2"/>
@@ -2323,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="G19" s="9">
         <f t="shared" si="1"/>
-        <v>86461759.177238211</v>
+        <v>86461729.177238211</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="2"/>
@@ -2397,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>124991072.52403986</v>
+        <v>124991042.52403986</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="2"/>
@@ -2471,7 +2471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>177127160.21390957</v>
+        <v>177127130.21390957</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="2"/>
@@ -2545,7 +2545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="G22" s="9">
         <f t="shared" si="1"/>
-        <v>246563620.75562835</v>
+        <v>246563590.75562835</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="2"/>
@@ -2619,7 +2619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>337728241.05593371</v>
+        <v>337728211.05593371</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="2"/>
@@ -2693,7 +2693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="G24" s="9">
         <f t="shared" si="1"/>
-        <v>455881172.76403016</v>
+        <v>455881142.76403016</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="2"/>
@@ -2767,7 +2767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="G25" s="9">
         <f t="shared" si="1"/>
-        <v>607220488.77384245</v>
+        <v>607220458.77384245</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="2"/>
@@ -2841,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="G26" s="9">
         <f t="shared" si="1"/>
-        <v>798995283.82027626</v>
+        <v>798995253.82027626</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="2"/>
@@ -2915,7 +2915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G27" s="9">
         <f t="shared" si="1"/>
-        <v>1039626478.8583786</v>
+        <v>1039626448.8583786</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="2"/>
@@ -2989,7 +2989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="G28" s="9">
         <f t="shared" si="1"/>
-        <v>1338835484.9637971</v>
+        <v>1338835454.9637971</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="2"/>
@@ -3063,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>1707780878.805819</v>
+        <v>1707780848.805819</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="2"/>
@@ -3137,7 +3137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="G30" s="9">
         <f t="shared" si="1"/>
-        <v>2159203238.2937846</v>
+        <v>2159203208.2937846</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="2"/>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G31" s="9">
         <f t="shared" si="1"/>
-        <v>2707578283.7589922</v>
+        <v>2707578253.7589922</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="2"/>
@@ -3285,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>3369278466.9869232</v>
+        <v>3369278436.9869232</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="2"/>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>4162743147.541553</v>
+        <v>4162743117.541553</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="2"/>
@@ -3433,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="G34" s="9">
         <f t="shared" si="1"/>
-        <v>5108657493.1071968</v>
+        <v>5108657463.1071968</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="2"/>
@@ -3507,7 +3507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="G35" s="9">
         <f t="shared" si="1"/>
-        <v>6230140238.0022955</v>
+        <v>6230140208.0022955</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="2"/>
@@ -3581,7 +3581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>7552940431.57938</v>
+        <v>7552940401.57938</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="2"/>
@@ -3655,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="G37" s="9">
         <f t="shared" si="1"/>
-        <v>9105643305.9068451</v>
+        <v>9105643275.9068451</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="2"/>
@@ -3729,7 +3729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="G38" s="9">
         <f t="shared" si="1"/>
-        <v>10919885389.921824</v>
+        <v>10919885359.921824</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="2"/>
@@ -3803,7 +3803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="G39" s="9">
         <f t="shared" si="1"/>
-        <v>13030578995.137789</v>
+        <v>13030578965.137789</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="2"/>
@@ -3877,7 +3877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="G40" s="9">
         <f t="shared" si="1"/>
-        <v>15476146195.983017</v>
+        <v>15476146165.983017</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="2"/>
@@ -3951,7 +3951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="G41" s="9">
         <f t="shared" si="1"/>
-        <v>18298762425.925671</v>
+        <v>18298762395.925671</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="2"/>
@@ -4025,7 +4025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="G42" s="9">
         <f t="shared" si="1"/>
-        <v>21544609808.701172</v>
+        <v>21544609778.701172</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="2"/>
@@ -4099,7 +4099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="G43" s="9">
         <f t="shared" si="1"/>
-        <v>25264140342.19796</v>
+        <v>25264140312.19796</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="2"/>
@@ -4173,7 +4173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>29512349050.866146</v>
+        <v>29512349020.866146</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="2"/>
@@ -4247,7 +4247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="G45" s="9">
         <f t="shared" si="1"/>
-        <v>34349057220.890388</v>
+        <v>34349057190.890388</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="2"/>
@@ -4321,7 +4321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="G46" s="9">
         <f t="shared" si="1"/>
-        <v>39839205830.806664</v>
+        <v>39839205800.806664</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="2"/>
@@ -4395,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>46053159288.741547</v>
+        <v>46053159258.741547</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="2"/>
@@ -4469,7 +4469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="G48" s="9">
         <f t="shared" si="1"/>
-        <v>53067019586.0037</v>
+        <v>53067019556.0037</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="2"/>
@@ -4543,7 +4543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="G49" s="9">
         <f t="shared" si="1"/>
-        <v>60962950975.363617</v>
+        <v>60962950945.363617</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="2"/>
@@ -4617,7 +4617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="G50" s="9">
         <f t="shared" si="1"/>
-        <v>69829515281.010971</v>
+        <v>69829515251.010971</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="2"/>
@@ -4691,7 +4691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="G51" s="9">
         <f t="shared" si="1"/>
-        <v>79762017945.875412</v>
+        <v>79762017915.875412</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="2"/>
@@ -4765,7 +4765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="G52" s="9">
         <f t="shared" si="1"/>
-        <v>90862864920.746704</v>
+        <v>90862864890.746704</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="2"/>
@@ -4839,7 +4839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>103241930498.40762</v>
+        <v>103241930468.40762</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="2"/>
@@ -4913,7 +4913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="G54" s="9">
         <f t="shared" si="1"/>
-        <v>117016936194.81889</v>
+        <v>117016936164.81889</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="2"/>
@@ -4987,7 +4987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="G55" s="9">
         <f t="shared" si="1"/>
-        <v>132313840778.2588</v>
+        <v>132313840748.2588</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="2"/>
@@ -5061,7 +5061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="G56" s="9">
         <f t="shared" si="1"/>
-        <v>149267241546.21442</v>
+        <v>149267241516.21442</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="2"/>
@@ -5135,7 +5135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="G57" s="9">
         <f t="shared" si="1"/>
-        <v>168020786948.7468</v>
+        <v>168020786918.7468</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="2"/>
@@ -5209,7 +5209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="G58" s="9">
         <f t="shared" si="1"/>
-        <v>188727600656.01501</v>
+        <v>188727600626.01501</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="2"/>
@@ -5283,7 +5283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="G59" s="9">
         <f t="shared" si="1"/>
-        <v>211550717166.64612</v>
+        <v>211550717136.64612</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="2"/>
@@ -5357,7 +5357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="G60" s="9">
         <f t="shared" si="1"/>
-        <v>236663529052.63351</v>
+        <v>236663529022.63351</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="2"/>
@@ -5431,7 +5431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="G61" s="9">
         <f t="shared" si="1"/>
-        <v>264250245935.52618</v>
+        <v>264250245905.52618</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="2"/>
@@ -5505,7 +5505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>294506365287.70337</v>
+        <v>294506365257.70337</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="2"/>
@@ -5579,7 +5579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="G63" s="9">
         <f t="shared" si="1"/>
-        <v>327639155151.68616</v>
+        <v>327639155121.68616</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="2"/>
@@ -5653,7 +5653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="G64" s="9">
         <f t="shared" si="1"/>
-        <v>363868148869.48749</v>
+        <v>363868148839.48749</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="2"/>
@@ -5727,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="G65" s="9">
         <f t="shared" si="1"/>
-        <v>403425651913.22229</v>
+        <v>403425651883.22229</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="2"/>
@@ -5801,7 +5801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="G66" s="9">
         <f t="shared" si="1"/>
-        <v>446557260907.30017</v>
+        <v>446557260877.30017</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="2"/>
@@ -5875,7 +5875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>65</v>
       </c>
@@ -5894,8 +5894,8 @@
         <v>3</v>
       </c>
       <c r="G67" s="9">
-        <f t="shared" ref="G67:G91" si="6">A67^6.45+A67^4+100*A67+50</f>
-        <v>493522394931.77332</v>
+        <f t="shared" ref="G67:G91" si="6">A67^6.45+A67^4+100*A67+20</f>
+        <v>493522394901.77332</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" ref="H67:H91" si="7">A67^2.15+50+50*A67</f>
@@ -5949,7 +5949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="G68" s="9">
         <f t="shared" si="6"/>
-        <v>544594839195.55835</v>
+        <v>544594839165.55835</v>
       </c>
       <c r="H68" s="8">
         <f t="shared" si="7"/>
@@ -6023,7 +6023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>67</v>
       </c>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="G69" s="9">
         <f t="shared" si="6"/>
-        <v>600063301167.54822</v>
+        <v>600063301137.54822</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" si="7"/>
@@ -6097,7 +6097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="G70" s="9">
         <f t="shared" si="6"/>
-        <v>660231979252.81006</v>
+        <v>660231979222.81006</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" si="7"/>
@@ -6171,7 +6171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>69</v>
       </c>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="G71" s="9">
         <f t="shared" si="6"/>
-        <v>725421144100.36401</v>
+        <v>725421144070.36401</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" si="7"/>
@@ -6245,7 +6245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="G72" s="9">
         <f t="shared" si="6"/>
-        <v>795967732628.35266</v>
+        <v>795967732598.35266</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="7"/>
@@ -6319,7 +6319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="G73" s="9">
         <f t="shared" si="6"/>
-        <v>872225954851.62646</v>
+        <v>872225954821.62646</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="7"/>
@@ -6393,7 +6393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="G74" s="9">
         <f t="shared" si="6"/>
-        <v>954567913596.15015</v>
+        <v>954567913566.15015</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="7"/>
@@ -6467,7 +6467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="G75" s="9">
         <f t="shared" si="6"/>
-        <v>1043384237183.9595</v>
+        <v>1043384237153.9595</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="7"/>
@@ -6541,7 +6541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="G76" s="9">
         <f t="shared" si="6"/>
-        <v>1139084725171.7219</v>
+        <v>1139084725141.7219</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="7"/>
@@ -6615,7 +6615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="G77" s="9">
         <f t="shared" si="6"/>
-        <v>1242099007225.2715</v>
+        <v>1242099007195.2715</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="7"/>
@@ -6689,7 +6689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="G78" s="9">
         <f t="shared" si="6"/>
-        <v>1352877215212.0776</v>
+        <v>1352877215182.0776</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="7"/>
@@ -6763,7 +6763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="G79" s="9">
         <f t="shared" si="6"/>
-        <v>1471890668592.5298</v>
+        <v>1471890668562.5298</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="7"/>
@@ -6837,7 +6837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="G80" s="9">
         <f t="shared" si="6"/>
-        <v>1599632573190.9675</v>
+        <v>1599632573160.9675</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="7"/>
@@ -6911,7 +6911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="G81" s="9">
         <f t="shared" si="6"/>
-        <v>1736618733426.156</v>
+        <v>1736618733396.156</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="7"/>
@@ -6985,7 +6985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="G82" s="9">
         <f t="shared" si="6"/>
-        <v>1883388278080.7815</v>
+        <v>1883388278050.7815</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="7"/>
@@ -7059,7 +7059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="G83" s="9">
         <f t="shared" si="6"/>
-        <v>2040504399688.792</v>
+        <v>2040504399658.792</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="7"/>
@@ -7133,7 +7133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="G84" s="9">
         <f t="shared" si="6"/>
-        <v>2208555107618.7119</v>
+        <v>2208555107588.7119</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="7"/>
@@ -7207,7 +7207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="G85" s="9">
         <f t="shared" si="6"/>
-        <v>2388153994931.0562</v>
+        <v>2388153994901.0562</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="7"/>
@@ -7281,7 +7281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="G86" s="9">
         <f t="shared" si="6"/>
-        <v>2579941019086.5747</v>
+        <v>2579941019056.5747</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="7"/>
@@ -7355,7 +7355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="G87" s="9">
         <f t="shared" si="6"/>
-        <v>2784583296582.4956</v>
+        <v>2784583296552.4956</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="7"/>
@@ -7429,7 +7429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="G88" s="9">
         <f t="shared" si="6"/>
-        <v>3002775911592.4243</v>
+        <v>3002775911562.4243</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="7"/>
@@ -7503,7 +7503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="G89" s="9">
         <f t="shared" si="6"/>
-        <v>3235242738686.312</v>
+        <v>3235242738656.312</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="7"/>
@@ -7577,7 +7577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="G90" s="9">
         <f t="shared" si="6"/>
-        <v>3482737279704.731</v>
+        <v>3482737279674.731</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="7"/>
@@ -7651,7 +7651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="G91" s="9">
         <f t="shared" si="6"/>
-        <v>3746043514863.064</v>
+        <v>3746043514833.064</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="7"/>
@@ -7741,9 +7741,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954F2BD-78B8-414B-A17D-F0455571E52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A46A8E-93B7-44D6-A6C9-113E684971FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -968,7 +968,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I2" sqref="I2:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1093,8 +1093,8 @@
         <v>50</v>
       </c>
       <c r="I2" s="5">
-        <f>A2^6+A2^4+100*A2+50</f>
-        <v>50</v>
+        <f>A2^6+A2^4+1000*A2+100</f>
+        <v>100</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
@@ -1166,8 +1166,8 @@
         <v>101</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I66" si="3">A3^6+A3^4+100*A3+50</f>
-        <v>152</v>
+        <f t="shared" ref="I3:I66" si="3">A3^6+A3^4+1000*A3+100</f>
+        <v>1102</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I4" s="5">
         <f t="shared" si="3"/>
-        <v>330</v>
+        <v>2180</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>1160</v>
+        <v>3910</v>
       </c>
       <c r="J5" s="5">
         <v>1</v>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" si="3"/>
-        <v>4802</v>
+        <v>8452</v>
       </c>
       <c r="J6" s="5">
         <v>1</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>16800</v>
+        <v>21350</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I8" s="5">
         <f t="shared" si="3"/>
-        <v>48602</v>
+        <v>54052</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>120800</v>
+        <v>127150</v>
       </c>
       <c r="J9" s="5">
         <v>1</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I10" s="5">
         <f t="shared" si="3"/>
-        <v>267090</v>
+        <v>274340</v>
       </c>
       <c r="J10" s="5">
         <v>1</v>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>538952</v>
+        <v>547102</v>
       </c>
       <c r="J11" s="5">
         <v>1</v>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="I12" s="5">
         <f t="shared" si="3"/>
-        <v>1011050</v>
+        <v>1020100</v>
       </c>
       <c r="J12" s="5">
         <v>1</v>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>1787352</v>
+        <v>1797302</v>
       </c>
       <c r="J13" s="5">
         <v>1</v>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="I14" s="5">
         <f t="shared" si="3"/>
-        <v>3007970</v>
+        <v>3018820</v>
       </c>
       <c r="J14" s="5">
         <v>1</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I15" s="5">
         <f t="shared" si="3"/>
-        <v>4856720</v>
+        <v>4868470</v>
       </c>
       <c r="J15" s="5">
         <v>1</v>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="I16" s="5">
         <f t="shared" si="3"/>
-        <v>7569402</v>
+        <v>7582052</v>
       </c>
       <c r="J16" s="5">
         <v>1</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="I17" s="5">
         <f t="shared" si="3"/>
-        <v>11442800</v>
+        <v>11456350</v>
       </c>
       <c r="J17" s="5">
         <v>1</v>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="I18" s="5">
         <f t="shared" si="3"/>
-        <v>16844402</v>
+        <v>16858852</v>
       </c>
       <c r="J18" s="5">
         <v>1</v>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="I19" s="5">
         <f t="shared" si="3"/>
-        <v>24222840</v>
+        <v>24238190</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I20" s="5">
         <f t="shared" si="3"/>
-        <v>34119050</v>
+        <v>34135300</v>
       </c>
       <c r="J20" s="5">
         <v>1</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="I21" s="5">
         <f t="shared" si="3"/>
-        <v>47178152</v>
+        <v>47195302</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="I22" s="5">
         <f t="shared" si="3"/>
-        <v>64162050</v>
+        <v>64180100</v>
       </c>
       <c r="J22" s="5">
         <v>1</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="I23" s="5">
         <f t="shared" si="3"/>
-        <v>85962752</v>
+        <v>85981702</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I24" s="5">
         <f t="shared" si="3"/>
-        <v>113616410</v>
+        <v>113636260</v>
       </c>
       <c r="J24" s="5">
         <v>1</v>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" si="3"/>
-        <v>148318080</v>
+        <v>148338830</v>
       </c>
       <c r="J25" s="5">
         <v>1</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="3"/>
-        <v>191437202</v>
+        <v>191458852</v>
       </c>
       <c r="J26" s="5">
         <v>1</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" si="3"/>
-        <v>244533800</v>
+        <v>244556350</v>
       </c>
       <c r="J27" s="5">
         <v>1</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>309375402</v>
+        <v>309398852</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>387954680</v>
+        <v>387979030</v>
       </c>
       <c r="J29" s="5">
         <v>1</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="I30" s="5">
         <f t="shared" si="3"/>
-        <v>482507810</v>
+        <v>482533060</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" si="3"/>
-        <v>595533552</v>
+        <v>595559702</v>
       </c>
       <c r="J31" s="5">
         <v>1</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="3"/>
-        <v>729813050</v>
+        <v>729840100</v>
       </c>
       <c r="J32" s="5">
         <v>1</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I33" s="5">
         <f t="shared" si="3"/>
-        <v>888430352</v>
+        <v>888458302</v>
       </c>
       <c r="J33" s="5">
         <v>1</v>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="I34" s="5">
         <f t="shared" si="3"/>
-        <v>1074793650</v>
+        <v>1074822500</v>
       </c>
       <c r="J34" s="5">
         <v>1</v>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="I35" s="5">
         <f t="shared" si="3"/>
-        <v>1292657240</v>
+        <v>1292686990</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" si="3"/>
-        <v>1546144202</v>
+        <v>1546174852</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="3"/>
-        <v>1839769800</v>
+        <v>1839801350</v>
       </c>
       <c r="J37" s="5">
         <v>1</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="3"/>
-        <v>2178465602</v>
+        <v>2178498052</v>
       </c>
       <c r="J38" s="5">
         <v>1</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="I39" s="5">
         <f t="shared" si="3"/>
-        <v>2567604320</v>
+        <v>2567637670</v>
       </c>
       <c r="J39" s="5">
         <v>1</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="I40" s="5">
         <f t="shared" si="3"/>
-        <v>3013025370</v>
+        <v>3013059620</v>
       </c>
       <c r="J40" s="5">
         <v>1</v>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="I41" s="5">
         <f t="shared" si="3"/>
-        <v>3521061152</v>
+        <v>3521096302</v>
       </c>
       <c r="J41" s="5">
         <v>1</v>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I42" s="5">
         <f t="shared" si="3"/>
-        <v>4098564050</v>
+        <v>4098600100</v>
       </c>
       <c r="J42" s="5">
         <v>1</v>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="I43" s="5">
         <f t="shared" si="3"/>
-        <v>4752934152</v>
+        <v>4752971102</v>
       </c>
       <c r="J43" s="5">
         <v>1</v>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I44" s="5">
         <f t="shared" si="3"/>
-        <v>5492147690</v>
+        <v>5492185540</v>
       </c>
       <c r="J44" s="5">
         <v>1</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="I45" s="5">
         <f t="shared" si="3"/>
-        <v>6324786200</v>
+        <v>6324824950</v>
       </c>
       <c r="J45" s="5">
         <v>1</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="I46" s="5">
         <f t="shared" si="3"/>
-        <v>7260066402</v>
+        <v>7260106052</v>
       </c>
       <c r="J46" s="5">
         <v>1</v>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="I47" s="5">
         <f t="shared" si="3"/>
-        <v>8307870800</v>
+        <v>8307911350</v>
       </c>
       <c r="J47" s="5">
         <v>1</v>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="I48" s="5">
         <f t="shared" si="3"/>
-        <v>9478779002</v>
+        <v>9478820452</v>
       </c>
       <c r="J48" s="5">
         <v>1</v>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="I49" s="5">
         <f t="shared" si="3"/>
-        <v>10784099760</v>
+        <v>10784142110</v>
       </c>
       <c r="J49" s="5">
         <v>1</v>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="I50" s="5">
         <f t="shared" si="3"/>
-        <v>12235903730</v>
+        <v>12235946980</v>
       </c>
       <c r="J50" s="5">
         <v>1</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I51" s="5">
         <f t="shared" si="3"/>
-        <v>13847056952</v>
+        <v>13847101102</v>
       </c>
       <c r="J51" s="5">
         <v>1</v>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="I52" s="5">
         <f t="shared" si="3"/>
-        <v>15631255050</v>
+        <v>15631300100</v>
       </c>
       <c r="J52" s="5">
         <v>1</v>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="I53" s="5">
         <f t="shared" si="3"/>
-        <v>17603058152</v>
+        <v>17603104102</v>
       </c>
       <c r="J53" s="5">
         <v>1</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="I54" s="5">
         <f t="shared" si="3"/>
-        <v>19777926530</v>
+        <v>19777973380</v>
       </c>
       <c r="J54" s="5">
         <v>1</v>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="I55" s="5">
         <f t="shared" si="3"/>
-        <v>22172256960</v>
+        <v>22172304710</v>
       </c>
       <c r="J55" s="5">
         <v>1</v>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="I56" s="5">
         <f t="shared" si="3"/>
-        <v>24803419802</v>
+        <v>24803468452</v>
       </c>
       <c r="J56" s="5">
         <v>1</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="I57" s="5">
         <f t="shared" si="3"/>
-        <v>27689796800</v>
+        <v>27689846350</v>
       </c>
       <c r="J57" s="5">
         <v>1</v>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="I58" s="5">
         <f t="shared" si="3"/>
-        <v>30850819602</v>
+        <v>30850870052</v>
       </c>
       <c r="J58" s="5">
         <v>1</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="I59" s="5">
         <f t="shared" si="3"/>
-        <v>34307009000</v>
+        <v>34307060350</v>
       </c>
       <c r="J59" s="5">
         <v>1</v>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="I60" s="5">
         <f t="shared" si="3"/>
-        <v>38080014890</v>
+        <v>38080067140</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="I61" s="5">
         <f t="shared" si="3"/>
-        <v>42192656952</v>
+        <v>42192710102</v>
       </c>
       <c r="J61" s="5">
         <v>1</v>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="I62" s="5">
         <f t="shared" si="3"/>
-        <v>46668966050</v>
+        <v>46669020100</v>
       </c>
       <c r="J62" s="5">
         <v>1</v>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="I63" s="5">
         <f t="shared" si="3"/>
-        <v>51534226352</v>
+        <v>51534281302</v>
       </c>
       <c r="J63" s="5">
         <v>1</v>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="I64" s="5">
         <f t="shared" si="3"/>
-        <v>56815018170</v>
+        <v>56815074020</v>
       </c>
       <c r="J64" s="5">
         <v>1</v>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="I65" s="5">
         <f t="shared" si="3"/>
-        <v>62539261520</v>
+        <v>62539318270</v>
       </c>
       <c r="J65" s="5">
         <v>1</v>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I66" s="5">
         <f t="shared" si="3"/>
-        <v>68736260402</v>
+        <v>68736318052</v>
       </c>
       <c r="J66" s="5">
         <v>1</v>
@@ -5902,8 +5902,8 @@
         <v>11202.485666346649</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I90" si="8">A67^6+A67^4+100*A67+50</f>
-        <v>75436747800</v>
+        <f t="shared" ref="I67:I91" si="8">A67^6+A67^4+1000*A67+100</f>
+        <v>75436806350</v>
       </c>
       <c r="J67" s="5">
         <v>1</v>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I68" s="5">
         <f t="shared" si="8"/>
-        <v>82672931402</v>
+        <v>82672990852</v>
       </c>
       <c r="J68" s="5">
         <v>1</v>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I69" s="5">
         <f t="shared" si="8"/>
-        <v>90478540040</v>
+        <v>90478600390</v>
       </c>
       <c r="J69" s="5">
         <v>1</v>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="I70" s="5">
         <f t="shared" si="8"/>
-        <v>98888870850</v>
+        <v>98888932100</v>
       </c>
       <c r="J70" s="5">
         <v>1</v>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="I71" s="5">
         <f t="shared" si="8"/>
-        <v>107940837152</v>
+        <v>107940899302</v>
       </c>
       <c r="J71" s="5">
         <v>1</v>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I72" s="5">
         <f t="shared" si="8"/>
-        <v>117673017050</v>
+        <v>117673080100</v>
       </c>
       <c r="J72" s="5">
         <v>1</v>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="I73" s="5">
         <f t="shared" si="8"/>
-        <v>128125702752</v>
+        <v>128125766702</v>
       </c>
       <c r="J73" s="5">
         <v>1</v>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="I74" s="5">
         <f t="shared" si="8"/>
-        <v>139340950610</v>
+        <v>139341015460</v>
       </c>
       <c r="J74" s="5">
         <v>1</v>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="I75" s="5">
         <f t="shared" si="8"/>
-        <v>151362631880</v>
+        <v>151362697630</v>
       </c>
       <c r="J75" s="5">
         <v>1</v>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="I76" s="5">
         <f t="shared" si="8"/>
-        <v>164236484202</v>
+        <v>164236550852</v>
       </c>
       <c r="J76" s="5">
         <v>1</v>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="I77" s="5">
         <f t="shared" si="8"/>
-        <v>178010163800</v>
+        <v>178010231350</v>
       </c>
       <c r="J77" s="5">
         <v>1</v>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="I78" s="5">
         <f t="shared" si="8"/>
-        <v>192733298402</v>
+        <v>192733366852</v>
       </c>
       <c r="J78" s="5">
         <v>1</v>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="I79" s="5">
         <f t="shared" si="8"/>
-        <v>208457540880</v>
+        <v>208457610230</v>
       </c>
       <c r="J79" s="5">
         <v>1</v>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="I80" s="5">
         <f t="shared" si="8"/>
-        <v>225236623610</v>
+        <v>225236693860</v>
       </c>
       <c r="J80" s="5">
         <v>1</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="I81" s="5">
         <f t="shared" si="8"/>
-        <v>243126413552</v>
+        <v>243126484702</v>
       </c>
       <c r="J81" s="5">
         <v>1</v>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="I82" s="5">
         <f t="shared" si="8"/>
-        <v>262184968050</v>
+        <v>262185040100</v>
       </c>
       <c r="J82" s="5">
         <v>1</v>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="I83" s="5">
         <f t="shared" si="8"/>
-        <v>282472591352</v>
+        <v>282472664302</v>
       </c>
       <c r="J83" s="5">
         <v>1</v>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="I84" s="5">
         <f t="shared" si="8"/>
-        <v>304051891850</v>
+        <v>304051965700</v>
       </c>
       <c r="J84" s="5">
         <v>1</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="I85" s="5">
         <f t="shared" si="8"/>
-        <v>326987840040</v>
+        <v>326987914790</v>
       </c>
       <c r="J85" s="5">
         <v>1</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="I86" s="5">
         <f t="shared" si="8"/>
-        <v>351347827202</v>
+        <v>351347902852</v>
       </c>
       <c r="J86" s="5">
         <v>1</v>
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I87" s="5">
         <f t="shared" si="8"/>
-        <v>377201724800</v>
+        <v>377201801350</v>
       </c>
       <c r="J87" s="5">
         <v>1</v>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I88" s="5">
         <f t="shared" si="8"/>
-        <v>404621944602</v>
+        <v>404622022052</v>
       </c>
       <c r="J88" s="5">
         <v>1</v>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="I89" s="5">
         <f t="shared" si="8"/>
-        <v>433683499520</v>
+        <v>433683577870</v>
       </c>
       <c r="J89" s="5">
         <v>1</v>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I90" s="5">
         <f t="shared" si="8"/>
-        <v>464464065170</v>
+        <v>464464144420</v>
       </c>
       <c r="J90" s="5">
         <v>1</v>
@@ -7678,8 +7678,8 @@
         <v>20030.610011454803</v>
       </c>
       <c r="I91" s="5">
-        <f>A91^6+A91^4+100*A91+50</f>
-        <v>497044042152</v>
+        <f t="shared" si="8"/>
+        <v>497044122302</v>
       </c>
       <c r="J91" s="5">
         <v>1</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A46A8E-93B7-44D6-A6C9-113E684971FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1709D2E5-4F2A-446C-821E-8CD83D837CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I91"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1078,15 +1078,15 @@
         <v>18</v>
       </c>
       <c r="E2" s="7">
-        <f>A2^3</f>
+        <f>A2^2.9</f>
         <v>0</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="9">
-        <f>A2^6.45+A2^4+100*A2+20</f>
-        <v>20</v>
+        <f>A2^6.45+A2^4+100*A2+100</f>
+        <v>100</v>
       </c>
       <c r="H2" s="8">
         <f>A2^2.15+50+50*A2</f>
@@ -1151,15 +1151,15 @@
         <v>19</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E66" si="0">A3^3</f>
+        <f t="shared" ref="E3:E66" si="0">A3^2.9</f>
         <v>1</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G66" si="1">A3^6.45+A3^4+100*A3+20</f>
-        <v>122</v>
+        <f t="shared" ref="G3:G66" si="1">A3^6.45+A3^4+100*A3+100</f>
+        <v>202</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" ref="H3:H66" si="2">A3^2.15+50+50*A3</f>
@@ -1226,14 +1226,14 @@
       <c r="D4" s="5"/>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7.4642639322944575</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="1"/>
-        <v>323.42657643228131</v>
+        <v>403.42657643228131</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="2"/>
@@ -1300,14 +1300,14 @@
       <c r="D5" s="5"/>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>24.190878415700585</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
-        <v>1596.1766311172196</v>
+        <v>1676.1766311172196</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="2"/>
@@ -1374,14 +1374,14 @@
       <c r="D6" s="5"/>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>55.715236050951923</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>8319.4062666695281</v>
+        <v>8399.4062666695281</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="2"/>
@@ -1448,14 +1448,14 @@
       <c r="D7" s="5"/>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>106.41749031509804</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>33382.141682512403</v>
+        <v>33462.141682512403</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="2"/>
@@ -1522,14 +1522,14 @@
       <c r="D8" s="5"/>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>180.56710124883438</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>106406.20109044592</v>
+        <v>106486.20109044592</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="2"/>
@@ -1596,14 +1596,14 @@
       <c r="D9" s="5"/>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>282.34774011961417</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="1"/>
-        <v>285532.48736351961</v>
+        <v>285612.48736351961</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="2"/>
@@ -1670,14 +1670,14 @@
       <c r="D10" s="5"/>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>415.87322693439216</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" si="1"/>
-        <v>673152.84217596101</v>
+        <v>673232.84217596101</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="2"/>
@@ -1744,14 +1744,14 @@
       <c r="D11" s="5"/>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
-        <v>729</v>
+        <v>585.19859852320837</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="1"/>
-        <v>1435928.1795687063</v>
+        <v>1436008.1795687063</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="2"/>
@@ -1818,14 +1818,14 @@
       <c r="D12" s="5"/>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>794.32823472428208</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="1"/>
-        <v>2829402.9312644606</v>
+        <v>2829482.9312644606</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="2"/>
@@ -1892,14 +1892,14 @@
       <c r="D13" s="5"/>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
-        <v>1331</v>
+        <v>1047.2220715639037</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="1"/>
-        <v>5227501.9300244208</v>
+        <v>5227581.9300244208</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="2"/>
@@ -1966,14 +1966,14 @@
       <c r="D14" s="5"/>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>1728</v>
+        <v>1347.8005012106366</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="1"/>
-        <v>9157176.5520583224</v>
+        <v>9157256.5520583224</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="2"/>
@@ -2040,14 +2040,14 @@
       <c r="D15" s="5"/>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>2197</v>
+        <v>1699.9483319952403</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="1"/>
-        <v>15338450.928967474</v>
+        <v>15338530.928967474</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="2"/>
@@ -2114,14 +2114,14 @@
       <c r="D16" s="5"/>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>2744</v>
+        <v>2107.5180529396839</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>24730105.485340979</v>
+        <v>24730185.485340979</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="2"/>
@@ -2188,14 +2188,14 @@
       <c r="D17" s="5"/>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>3375</v>
+        <v>2574.3325695165299</v>
       </c>
       <c r="F17" s="5">
         <v>1.5</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="1"/>
-        <v>38581223.392953709</v>
+        <v>38581303.392953709</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="2"/>
@@ -2262,14 +2262,14 @@
       <c r="D18" s="5"/>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>4096</v>
+        <v>3104.1875282132928</v>
       </c>
       <c r="F18" s="5">
         <v>1.5</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="1"/>
-        <v>58488815.357363015</v>
+        <v>58488895.357363015</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="2"/>
@@ -2336,14 +2336,14 @@
       <c r="D19" s="5"/>
       <c r="E19" s="7">
         <f t="shared" si="0"/>
-        <v>4913</v>
+        <v>3700.8533151667184</v>
       </c>
       <c r="F19" s="5">
         <v>1.5</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" si="1"/>
-        <v>86461729.177238211</v>
+        <v>86461809.177238211</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="2"/>
@@ -2410,14 +2410,14 @@
       <c r="D20" s="5"/>
       <c r="E20" s="7">
         <f t="shared" si="0"/>
-        <v>5832</v>
+        <v>4368.0767921860433</v>
       </c>
       <c r="F20" s="5">
         <v>1.5</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>124991042.52403986</v>
+        <v>124991122.52403986</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="2"/>
@@ -2484,14 +2484,14 @@
       <c r="D21" s="5"/>
       <c r="E21" s="7">
         <f t="shared" si="0"/>
-        <v>6859</v>
+        <v>5109.5828181573261</v>
       </c>
       <c r="F21" s="5">
         <v>1.5</v>
       </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>177127130.21390957</v>
+        <v>177127210.21390957</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="2"/>
@@ -2558,14 +2558,14 @@
       <c r="D22" s="5"/>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>5929.0755928555818</v>
       </c>
       <c r="F22" s="5">
         <v>1.5</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" si="1"/>
-        <v>246563590.75562835</v>
+        <v>246563670.75562835</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="2"/>
@@ -2632,14 +2632,14 @@
       <c r="D23" s="5"/>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>9261</v>
+        <v>6830.2398521814148</v>
       </c>
       <c r="F23" s="5">
         <v>1.5</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="1"/>
-        <v>337728211.05593371</v>
+        <v>337728291.05593371</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="2"/>
@@ -2706,14 +2706,14 @@
       <c r="D24" s="5"/>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
-        <v>10648</v>
+        <v>7816.7419378771419</v>
       </c>
       <c r="F24" s="5">
         <v>1.5</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="1"/>
-        <v>455881142.76403016</v>
+        <v>455881222.76403016</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="2"/>
@@ -2780,14 +2780,14 @@
       <c r="D25" s="5"/>
       <c r="E25" s="7">
         <f t="shared" si="0"/>
-        <v>12167</v>
+        <v>8892.2307602683195</v>
       </c>
       <c r="F25" s="5">
         <v>1.5</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="1"/>
-        <v>607220458.77384245</v>
+        <v>607220538.77384245</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="2"/>
@@ -2854,14 +2854,14 @@
       <c r="D26" s="5"/>
       <c r="E26" s="7">
         <f t="shared" si="0"/>
-        <v>13824</v>
+        <v>10060.338669114952</v>
       </c>
       <c r="F26" s="5">
         <v>1.5</v>
       </c>
       <c r="G26" s="9">
         <f t="shared" si="1"/>
-        <v>798995253.82027626</v>
+        <v>798995333.82027626</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="2"/>
@@ -2928,14 +2928,14 @@
       <c r="D27" s="5"/>
       <c r="E27" s="7">
         <f t="shared" si="0"/>
-        <v>15625</v>
+        <v>11324.682244963982</v>
       </c>
       <c r="F27" s="5">
         <v>1.5</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="1"/>
-        <v>1039626448.8583786</v>
+        <v>1039626528.8583786</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="2"/>
@@ -3002,14 +3002,14 @@
       <c r="D28" s="5"/>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
-        <v>17576</v>
+        <v>12688.863021276193</v>
       </c>
       <c r="F28" s="5">
         <v>1.5</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="1"/>
-        <v>1338835454.9637971</v>
+        <v>1338835534.9637971</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="2"/>
@@ -3076,14 +3076,14 @@
       <c r="D29" s="5"/>
       <c r="E29" s="7">
         <f t="shared" si="0"/>
-        <v>19683</v>
+        <v>14156.468145913308</v>
       </c>
       <c r="F29" s="5">
         <v>1.5</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>1707780848.805819</v>
+        <v>1707780928.805819</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="2"/>
@@ -3150,14 +3150,14 @@
       <c r="D30" s="5"/>
       <c r="E30" s="7">
         <f t="shared" si="0"/>
-        <v>21952</v>
+        <v>15731.070989217116</v>
       </c>
       <c r="F30" s="5">
         <v>1.5</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="1"/>
-        <v>2159203208.2937846</v>
+        <v>2159203288.2937846</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="2"/>
@@ -3224,14 +3224,14 @@
       <c r="D31" s="5"/>
       <c r="E31" s="7">
         <f t="shared" si="0"/>
-        <v>24389</v>
+        <v>17416.231704813265</v>
       </c>
       <c r="F31" s="5">
         <v>1.5</v>
       </c>
       <c r="G31" s="9">
         <f t="shared" si="1"/>
-        <v>2707578253.7589922</v>
+        <v>2707578333.7589922</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="2"/>
@@ -3298,14 +3298,14 @@
       <c r="D32" s="5"/>
       <c r="E32" s="7">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>19215.497748373156</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>3369278436.9869232</v>
+        <v>3369278516.9869232</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="2"/>
@@ -3372,14 +3372,14 @@
       <c r="D33" s="5"/>
       <c r="E33" s="7">
         <f t="shared" si="0"/>
-        <v>29791</v>
+        <v>21132.404358829102</v>
       </c>
       <c r="F33" s="5">
         <v>2</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>4162743117.541553</v>
+        <v>4162743197.541553</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="2"/>
@@ -3446,14 +3446,14 @@
       <c r="D34" s="5"/>
       <c r="E34" s="7">
         <f t="shared" si="0"/>
-        <v>32768</v>
+        <v>23170.475005920798</v>
       </c>
       <c r="F34" s="5">
         <v>2</v>
       </c>
       <c r="G34" s="9">
         <f t="shared" si="1"/>
-        <v>5108657463.1071968</v>
+        <v>5108657543.1071968</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="2"/>
@@ -3520,14 +3520,14 @@
       <c r="D35" s="5"/>
       <c r="E35" s="7">
         <f t="shared" si="0"/>
-        <v>35937</v>
+        <v>25333.221807440499</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
       </c>
       <c r="G35" s="9">
         <f t="shared" si="1"/>
-        <v>6230140208.0022955</v>
+        <v>6230140288.0022955</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="2"/>
@@ -3594,14 +3594,14 @@
       <c r="D36" s="5"/>
       <c r="E36" s="7">
         <f t="shared" si="0"/>
-        <v>39304</v>
+        <v>27624.145919111299</v>
       </c>
       <c r="F36" s="5">
         <v>2</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>7552940401.57938</v>
+        <v>7552940481.57938</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="2"/>
@@ -3668,14 +3668,14 @@
       <c r="D37" s="5"/>
       <c r="E37" s="7">
         <f t="shared" si="0"/>
-        <v>42875</v>
+        <v>30046.737899668853</v>
       </c>
       <c r="F37" s="5">
         <v>2</v>
       </c>
       <c r="G37" s="9">
         <f t="shared" si="1"/>
-        <v>9105643275.9068451</v>
+        <v>9105643355.9068451</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="2"/>
@@ -3742,14 +3742,14 @@
       <c r="D38" s="5"/>
       <c r="E38" s="7">
         <f t="shared" si="0"/>
-        <v>46656</v>
+        <v>32604.478053406801</v>
       </c>
       <c r="F38" s="5">
         <v>2</v>
       </c>
       <c r="G38" s="9">
         <f t="shared" si="1"/>
-        <v>10919885359.921824</v>
+        <v>10919885439.921824</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="2"/>
@@ -3816,14 +3816,14 @@
       <c r="D39" s="5"/>
       <c r="E39" s="7">
         <f t="shared" si="0"/>
-        <v>50653</v>
+        <v>35300.836752181283</v>
       </c>
       <c r="F39" s="5">
         <v>2</v>
       </c>
       <c r="G39" s="9">
         <f t="shared" si="1"/>
-        <v>13030578965.137789</v>
+        <v>13030579045.137789</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="2"/>
@@ -3890,14 +3890,14 @@
       <c r="D40" s="5"/>
       <c r="E40" s="7">
         <f t="shared" si="0"/>
-        <v>54872</v>
+        <v>38139.274738643187</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" si="1"/>
-        <v>15476146165.983017</v>
+        <v>15476146245.983017</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="2"/>
@@ -3964,14 +3964,14 @@
       <c r="D41" s="5"/>
       <c r="E41" s="7">
         <f t="shared" si="0"/>
-        <v>59319</v>
+        <v>41123.243412269818</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="1"/>
-        <v>18298762395.925671</v>
+        <v>18298762475.925671</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="2"/>
@@ -4038,14 +4038,14 @@
       <c r="D42" s="5"/>
       <c r="E42" s="7">
         <f t="shared" si="0"/>
-        <v>64000</v>
+        <v>44256.185099599286</v>
       </c>
       <c r="F42" s="5">
         <v>2</v>
       </c>
       <c r="G42" s="9">
         <f t="shared" si="1"/>
-        <v>21544609778.701172</v>
+        <v>21544609858.701172</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="2"/>
@@ -4112,14 +4112,14 @@
       <c r="D43" s="5"/>
       <c r="E43" s="7">
         <f t="shared" si="0"/>
-        <v>68921</v>
+        <v>47541.533309922204</v>
       </c>
       <c r="F43" s="5">
         <v>2</v>
       </c>
       <c r="G43" s="9">
         <f t="shared" si="1"/>
-        <v>25264140312.19796</v>
+        <v>25264140392.19796</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="2"/>
@@ -4186,14 +4186,14 @@
       <c r="D44" s="5"/>
       <c r="E44" s="7">
         <f t="shared" si="0"/>
-        <v>74088</v>
+        <v>50982.712977557938</v>
       </c>
       <c r="F44" s="5">
         <v>2</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>29512349020.866146</v>
+        <v>29512349100.866146</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="2"/>
@@ -4260,14 +4260,14 @@
       <c r="D45" s="5"/>
       <c r="E45" s="7">
         <f t="shared" si="0"/>
-        <v>79507</v>
+        <v>54583.140691729262</v>
       </c>
       <c r="F45" s="5">
         <v>2</v>
       </c>
       <c r="G45" s="9">
         <f t="shared" si="1"/>
-        <v>34349057190.890388</v>
+        <v>34349057270.890388</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="2"/>
@@ -4334,14 +4334,14 @@
       <c r="D46" s="5"/>
       <c r="E46" s="7">
         <f t="shared" si="0"/>
-        <v>85184</v>
+        <v>58346.224914949707</v>
       </c>
       <c r="F46" s="5">
         <v>2</v>
       </c>
       <c r="G46" s="9">
         <f t="shared" si="1"/>
-        <v>39839205800.806664</v>
+        <v>39839205880.806664</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="2"/>
@@ -4408,14 +4408,14 @@
       <c r="D47" s="5"/>
       <c r="E47" s="7">
         <f t="shared" si="0"/>
-        <v>91125</v>
+        <v>62275.366190752415</v>
       </c>
       <c r="F47" s="5">
         <v>2.5</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>46053159258.741547</v>
+        <v>46053159338.741547</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="2"/>
@@ -4482,14 +4482,14 @@
       <c r="D48" s="5"/>
       <c r="E48" s="7">
         <f t="shared" si="0"/>
-        <v>97336</v>
+        <v>66373.957341510235</v>
       </c>
       <c r="F48" s="5">
         <v>2.5</v>
       </c>
       <c r="G48" s="9">
         <f t="shared" si="1"/>
-        <v>53067019556.0037</v>
+        <v>53067019636.0037</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="2"/>
@@ -4556,14 +4556,14 @@
       <c r="D49" s="5"/>
       <c r="E49" s="7">
         <f t="shared" si="0"/>
-        <v>103823</v>
+        <v>70645.383657029772</v>
       </c>
       <c r="F49" s="5">
         <v>2.5</v>
       </c>
       <c r="G49" s="9">
         <f t="shared" si="1"/>
-        <v>60962950945.363617</v>
+        <v>60962951025.363617</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="2"/>
@@ -4630,14 +4630,14 @@
       <c r="D50" s="5"/>
       <c r="E50" s="7">
         <f t="shared" si="0"/>
-        <v>110592</v>
+        <v>75093.023074541925</v>
       </c>
       <c r="F50" s="5">
         <v>2.5</v>
       </c>
       <c r="G50" s="9">
         <f t="shared" si="1"/>
-        <v>69829515251.010971</v>
+        <v>69829515331.010971</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="2"/>
@@ -4704,14 +4704,14 @@
       <c r="D51" s="5"/>
       <c r="E51" s="7">
         <f t="shared" si="0"/>
-        <v>117649</v>
+        <v>79720.246350653164</v>
       </c>
       <c r="F51" s="5">
         <v>2.5</v>
       </c>
       <c r="G51" s="9">
         <f t="shared" si="1"/>
-        <v>79762017915.875412</v>
+        <v>79762017995.875412</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="2"/>
@@ -4778,14 +4778,14 @@
       <c r="D52" s="5"/>
       <c r="E52" s="7">
         <f t="shared" si="0"/>
-        <v>125000</v>
+        <v>84530.417225780053</v>
       </c>
       <c r="F52" s="5">
         <v>2.5</v>
       </c>
       <c r="G52" s="9">
         <f t="shared" si="1"/>
-        <v>90862864890.746704</v>
+        <v>90862864970.746704</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="2"/>
@@ -4852,14 +4852,14 @@
       <c r="D53" s="5"/>
       <c r="E53" s="7">
         <f t="shared" si="0"/>
-        <v>132651</v>
+        <v>89526.892581540407</v>
       </c>
       <c r="F53" s="5">
         <v>2.5</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>103241930468.40762</v>
+        <v>103241930548.40762</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="2"/>
@@ -4926,14 +4926,14 @@
       <c r="D54" s="5"/>
       <c r="E54" s="7">
         <f t="shared" si="0"/>
-        <v>140608</v>
+        <v>94713.022591536894</v>
       </c>
       <c r="F54" s="5">
         <v>2.5</v>
       </c>
       <c r="G54" s="9">
         <f t="shared" si="1"/>
-        <v>117016936164.81889</v>
+        <v>117016936244.81889</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="2"/>
@@ -5000,14 +5000,14 @@
       <c r="D55" s="5"/>
       <c r="E55" s="7">
         <f t="shared" si="0"/>
-        <v>148877</v>
+        <v>100092.15086593677</v>
       </c>
       <c r="F55" s="5">
         <v>2.5</v>
       </c>
       <c r="G55" s="9">
         <f t="shared" si="1"/>
-        <v>132313840748.2588</v>
+        <v>132313840828.2588</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="2"/>
@@ -5074,14 +5074,14 @@
       <c r="D56" s="5"/>
       <c r="E56" s="7">
         <f t="shared" si="0"/>
-        <v>157464</v>
+        <v>105667.61459021605</v>
       </c>
       <c r="F56" s="5">
         <v>2.5</v>
       </c>
       <c r="G56" s="9">
         <f t="shared" si="1"/>
-        <v>149267241516.21442</v>
+        <v>149267241596.21442</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="2"/>
@@ -5148,14 +5148,14 @@
       <c r="D57" s="5"/>
       <c r="E57" s="7">
         <f t="shared" si="0"/>
-        <v>166375</v>
+        <v>111442.74465840882</v>
       </c>
       <c r="F57" s="5">
         <v>2.5</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="1"/>
-        <v>168020786918.7468</v>
+        <v>168020786998.7468</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="2"/>
@@ -5222,14 +5222,14 @@
       <c r="D58" s="5"/>
       <c r="E58" s="7">
         <f t="shared" si="0"/>
-        <v>175616</v>
+        <v>117420.8658011774</v>
       </c>
       <c r="F58" s="5">
         <v>2.5</v>
       </c>
       <c r="G58" s="9">
         <f t="shared" si="1"/>
-        <v>188727600626.01501</v>
+        <v>188727600706.01501</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="2"/>
@@ -5296,14 +5296,14 @@
       <c r="D59" s="5"/>
       <c r="E59" s="7">
         <f t="shared" si="0"/>
-        <v>185193</v>
+        <v>123605.29670899668</v>
       </c>
       <c r="F59" s="5">
         <v>2.5</v>
       </c>
       <c r="G59" s="9">
         <f t="shared" si="1"/>
-        <v>211550717136.64612</v>
+        <v>211550717216.64612</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="2"/>
@@ -5370,14 +5370,14 @@
       <c r="D60" s="5"/>
       <c r="E60" s="7">
         <f t="shared" si="0"/>
-        <v>195112</v>
+        <v>129999.35015072057</v>
       </c>
       <c r="F60" s="5">
         <v>2.5</v>
       </c>
       <c r="G60" s="9">
         <f t="shared" si="1"/>
-        <v>236663529022.63351</v>
+        <v>236663529102.63351</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="2"/>
@@ -5444,14 +5444,14 @@
       <c r="D61" s="5"/>
       <c r="E61" s="7">
         <f t="shared" si="0"/>
-        <v>205379</v>
+        <v>136606.33308778363</v>
       </c>
       <c r="F61" s="5">
         <v>2.5</v>
       </c>
       <c r="G61" s="9">
         <f t="shared" si="1"/>
-        <v>264250245905.52618</v>
+        <v>264250245985.52618</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="2"/>
@@ -5518,14 +5518,14 @@
       <c r="D62" s="5"/>
       <c r="E62" s="7">
         <f t="shared" si="0"/>
-        <v>216000</v>
+        <v>143429.54678426706</v>
       </c>
       <c r="F62" s="5">
         <v>3</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>294506365257.70337</v>
+        <v>294506365337.70337</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="2"/>
@@ -5592,14 +5592,14 @@
       <c r="D63" s="5"/>
       <c r="E63" s="7">
         <f t="shared" si="0"/>
-        <v>226981</v>
+        <v>150472.28691305482</v>
       </c>
       <c r="F63" s="5">
         <v>3</v>
       </c>
       <c r="G63" s="9">
         <f t="shared" si="1"/>
-        <v>327639155121.68616</v>
+        <v>327639155201.68616</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="2"/>
@@ -5666,14 +5666,14 @@
       <c r="D64" s="5"/>
       <c r="E64" s="7">
         <f t="shared" si="0"/>
-        <v>238328</v>
+        <v>157737.8436582702</v>
       </c>
       <c r="F64" s="5">
         <v>3</v>
       </c>
       <c r="G64" s="9">
         <f t="shared" si="1"/>
-        <v>363868148839.48749</v>
+        <v>363868148919.48749</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="2"/>
@@ -5740,14 +5740,14 @@
       <c r="D65" s="5"/>
       <c r="E65" s="7">
         <f t="shared" si="0"/>
-        <v>250047</v>
+        <v>165229.50181419312</v>
       </c>
       <c r="F65" s="5">
         <v>3</v>
       </c>
       <c r="G65" s="9">
         <f t="shared" si="1"/>
-        <v>403425651883.22229</v>
+        <v>403425651963.22229</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="2"/>
@@ -5814,14 +5814,14 @@
       <c r="D66" s="5"/>
       <c r="E66" s="7">
         <f t="shared" si="0"/>
-        <v>262144</v>
+        <v>172950.54088082444</v>
       </c>
       <c r="F66" s="5">
         <v>3</v>
       </c>
       <c r="G66" s="9">
         <f t="shared" si="1"/>
-        <v>446557260877.30017</v>
+        <v>446557260957.30017</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="2"/>
@@ -5887,15 +5887,15 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="7">
-        <f t="shared" ref="E67:E91" si="5">A67^3</f>
-        <v>274625</v>
+        <f t="shared" ref="E67:E91" si="5">A67^2.9</f>
+        <v>180904.23515627053</v>
       </c>
       <c r="F67" s="5">
         <v>3</v>
       </c>
       <c r="G67" s="9">
-        <f t="shared" ref="G67:G91" si="6">A67^6.45+A67^4+100*A67+20</f>
-        <v>493522394901.77332</v>
+        <f t="shared" ref="G67:G91" si="6">A67^6.45+A67^4+100*A67+100</f>
+        <v>493522394981.77332</v>
       </c>
       <c r="H67" s="8">
         <f t="shared" ref="H67:H91" si="7">A67^2.15+50+50*A67</f>
@@ -5962,14 +5962,14 @@
       <c r="D68" s="5"/>
       <c r="E68" s="7">
         <f t="shared" si="5"/>
-        <v>287496</v>
+        <v>189093.85382609314</v>
       </c>
       <c r="F68" s="5">
         <v>3</v>
       </c>
       <c r="G68" s="9">
         <f t="shared" si="6"/>
-        <v>544594839165.55835</v>
+        <v>544594839245.55835</v>
       </c>
       <c r="H68" s="8">
         <f t="shared" si="7"/>
@@ -6036,14 +6036,14 @@
       <c r="D69" s="5"/>
       <c r="E69" s="7">
         <f t="shared" si="5"/>
-        <v>300763</v>
+        <v>197522.6610497802</v>
       </c>
       <c r="F69" s="5">
         <v>3</v>
       </c>
       <c r="G69" s="9">
         <f t="shared" si="6"/>
-        <v>600063301137.54822</v>
+        <v>600063301217.54822</v>
       </c>
       <c r="H69" s="8">
         <f t="shared" si="7"/>
@@ -6110,14 +6110,14 @@
       <c r="D70" s="5"/>
       <c r="E70" s="7">
         <f t="shared" si="5"/>
-        <v>314432</v>
+        <v>206193.91604446189</v>
       </c>
       <c r="F70" s="5">
         <v>3</v>
       </c>
       <c r="G70" s="9">
         <f t="shared" si="6"/>
-        <v>660231979222.81006</v>
+        <v>660231979302.81006</v>
       </c>
       <c r="H70" s="8">
         <f t="shared" si="7"/>
@@ -6184,14 +6184,14 @@
       <c r="D71" s="5"/>
       <c r="E71" s="7">
         <f t="shared" si="5"/>
-        <v>328509</v>
+        <v>215110.87316600379</v>
       </c>
       <c r="F71" s="5">
         <v>3</v>
       </c>
       <c r="G71" s="9">
         <f t="shared" si="6"/>
-        <v>725421144070.36401</v>
+        <v>725421144150.36401</v>
       </c>
       <c r="H71" s="8">
         <f t="shared" si="7"/>
@@ -6258,14 +6258,14 @@
       <c r="D72" s="5"/>
       <c r="E72" s="7">
         <f t="shared" si="5"/>
-        <v>343000</v>
+        <v>224276.78198760346</v>
       </c>
       <c r="F72" s="5">
         <v>3</v>
       </c>
       <c r="G72" s="9">
         <f t="shared" si="6"/>
-        <v>795967732598.35266</v>
+        <v>795967732678.35266</v>
       </c>
       <c r="H72" s="8">
         <f t="shared" si="7"/>
@@ -6332,14 +6332,14 @@
       <c r="D73" s="5"/>
       <c r="E73" s="7">
         <f t="shared" si="5"/>
-        <v>357911</v>
+        <v>233694.88737598748</v>
       </c>
       <c r="F73" s="5">
         <v>3</v>
       </c>
       <c r="G73" s="9">
         <f t="shared" si="6"/>
-        <v>872225954821.62646</v>
+        <v>872225954901.62646</v>
       </c>
       <c r="H73" s="8">
         <f t="shared" si="7"/>
@@ -6406,14 +6406,14 @@
       <c r="D74" s="5"/>
       <c r="E74" s="7">
         <f t="shared" si="5"/>
-        <v>373248</v>
+        <v>243368.4295653305</v>
       </c>
       <c r="F74" s="5">
         <v>3</v>
       </c>
       <c r="G74" s="9">
         <f t="shared" si="6"/>
-        <v>954567913566.15015</v>
+        <v>954567913646.15015</v>
       </c>
       <c r="H74" s="8">
         <f t="shared" si="7"/>
@@ -6480,14 +6480,14 @@
       <c r="D75" s="5"/>
       <c r="E75" s="7">
         <f t="shared" si="5"/>
-        <v>389017</v>
+        <v>253300.64422898469</v>
       </c>
       <c r="F75" s="5">
         <v>3</v>
       </c>
       <c r="G75" s="9">
         <f t="shared" si="6"/>
-        <v>1043384237153.9595</v>
+        <v>1043384237233.9595</v>
       </c>
       <c r="H75" s="8">
         <f t="shared" si="7"/>
@@ -6554,14 +6554,14 @@
       <c r="D76" s="5"/>
       <c r="E76" s="7">
         <f t="shared" si="5"/>
-        <v>405224</v>
+        <v>263494.76254912175</v>
       </c>
       <c r="F76" s="5">
         <v>3</v>
       </c>
       <c r="G76" s="9">
         <f t="shared" si="6"/>
-        <v>1139084725141.7219</v>
+        <v>1139084725221.7219</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="7"/>
@@ -6628,14 +6628,14 @@
       <c r="D77" s="5"/>
       <c r="E77" s="7">
         <f t="shared" si="5"/>
-        <v>421875</v>
+        <v>273954.01128436648</v>
       </c>
       <c r="F77" s="5">
         <v>4</v>
       </c>
       <c r="G77" s="9">
         <f t="shared" si="6"/>
-        <v>1242099007195.2715</v>
+        <v>1242099007275.2715</v>
       </c>
       <c r="H77" s="8">
         <f t="shared" si="7"/>
@@ -6702,14 +6702,14 @@
       <c r="D78" s="5"/>
       <c r="E78" s="7">
         <f t="shared" si="5"/>
-        <v>438976</v>
+        <v>284681.61283552332</v>
       </c>
       <c r="F78" s="5">
         <v>4</v>
       </c>
       <c r="G78" s="9">
         <f t="shared" si="6"/>
-        <v>1352877215182.0776</v>
+        <v>1352877215262.0776</v>
       </c>
       <c r="H78" s="8">
         <f t="shared" si="7"/>
@@ -6776,14 +6776,14 @@
       <c r="D79" s="5"/>
       <c r="E79" s="7">
         <f t="shared" si="5"/>
-        <v>456533</v>
+        <v>295680.78530944901</v>
       </c>
       <c r="F79" s="5">
         <v>4</v>
       </c>
       <c r="G79" s="9">
         <f t="shared" si="6"/>
-        <v>1471890668562.5298</v>
+        <v>1471890668642.5298</v>
       </c>
       <c r="H79" s="8">
         <f t="shared" si="7"/>
@@ -6850,14 +6850,14 @@
       <c r="D80" s="5"/>
       <c r="E80" s="7">
         <f t="shared" si="5"/>
-        <v>474552</v>
+        <v>306954.74258117168</v>
       </c>
       <c r="F80" s="5">
         <v>4</v>
       </c>
       <c r="G80" s="9">
         <f t="shared" si="6"/>
-        <v>1599632573160.9675</v>
+        <v>1599632573240.9675</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" si="7"/>
@@ -6924,14 +6924,14 @@
       <c r="D81" s="5"/>
       <c r="E81" s="7">
         <f t="shared" si="5"/>
-        <v>493039</v>
+        <v>318506.69435431337</v>
       </c>
       <c r="F81" s="5">
         <v>4</v>
       </c>
       <c r="G81" s="9">
         <f t="shared" si="6"/>
-        <v>1736618733396.156</v>
+        <v>1736618733476.156</v>
       </c>
       <c r="H81" s="8">
         <f t="shared" si="7"/>
@@ -6998,14 +6998,14 @@
       <c r="D82" s="5"/>
       <c r="E82" s="7">
         <f t="shared" si="5"/>
-        <v>512000</v>
+        <v>330339.84621988621</v>
       </c>
       <c r="F82" s="5">
         <v>4</v>
       </c>
       <c r="G82" s="9">
         <f t="shared" si="6"/>
-        <v>1883388278050.7815</v>
+        <v>1883388278130.7815</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="7"/>
@@ -7072,14 +7072,14 @@
       <c r="D83" s="5"/>
       <c r="E83" s="7">
         <f t="shared" si="5"/>
-        <v>531441</v>
+        <v>342457.39971352724</v>
       </c>
       <c r="F83" s="5">
         <v>4</v>
       </c>
       <c r="G83" s="9">
         <f t="shared" si="6"/>
-        <v>2040504399658.792</v>
+        <v>2040504399738.792</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="7"/>
@@ -7146,14 +7146,14 @@
       <c r="D84" s="5"/>
       <c r="E84" s="7">
         <f t="shared" si="5"/>
-        <v>551368</v>
+        <v>354862.55237122771</v>
       </c>
       <c r="F84" s="5">
         <v>4</v>
       </c>
       <c r="G84" s="9">
         <f t="shared" si="6"/>
-        <v>2208555107588.7119</v>
+        <v>2208555107668.7119</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="7"/>
@@ -7220,14 +7220,14 @@
       <c r="D85" s="5"/>
       <c r="E85" s="7">
         <f t="shared" si="5"/>
-        <v>571787</v>
+        <v>367558.49778362713</v>
       </c>
       <c r="F85" s="5">
         <v>4</v>
       </c>
       <c r="G85" s="9">
         <f t="shared" si="6"/>
-        <v>2388153994901.0562</v>
+        <v>2388153994981.0562</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="7"/>
@@ -7294,14 +7294,14 @@
       <c r="D86" s="5"/>
       <c r="E86" s="7">
         <f t="shared" si="5"/>
-        <v>592704</v>
+        <v>380548.42564890615</v>
       </c>
       <c r="F86" s="5">
         <v>4</v>
       </c>
       <c r="G86" s="9">
         <f t="shared" si="6"/>
-        <v>2579941019056.5747</v>
+        <v>2579941019136.5747</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="7"/>
@@ -7368,14 +7368,14 @@
       <c r="D87" s="5"/>
       <c r="E87" s="7">
         <f t="shared" si="5"/>
-        <v>614125</v>
+        <v>393835.52182435268</v>
       </c>
       <c r="F87" s="5">
         <v>4</v>
       </c>
       <c r="G87" s="9">
         <f t="shared" si="6"/>
-        <v>2784583296552.4956</v>
+        <v>2784583296632.4956</v>
       </c>
       <c r="H87" s="8">
         <f t="shared" si="7"/>
@@ -7442,14 +7442,14 @@
       <c r="D88" s="5"/>
       <c r="E88" s="7">
         <f t="shared" si="5"/>
-        <v>636056</v>
+        <v>407422.96837662853</v>
       </c>
       <c r="F88" s="5">
         <v>4</v>
       </c>
       <c r="G88" s="9">
         <f t="shared" si="6"/>
-        <v>3002775911562.4243</v>
+        <v>3002775911642.4243</v>
       </c>
       <c r="H88" s="8">
         <f t="shared" si="7"/>
@@ -7516,14 +7516,14 @@
       <c r="D89" s="5"/>
       <c r="E89" s="7">
         <f t="shared" si="5"/>
-        <v>658503</v>
+        <v>421313.94363080681</v>
       </c>
       <c r="F89" s="5">
         <v>4</v>
       </c>
       <c r="G89" s="9">
         <f t="shared" si="6"/>
-        <v>3235242738656.312</v>
+        <v>3235242738736.312</v>
       </c>
       <c r="H89" s="8">
         <f t="shared" si="7"/>
@@ -7590,14 +7590,14 @@
       <c r="D90" s="5"/>
       <c r="E90" s="7">
         <f t="shared" si="5"/>
-        <v>681472</v>
+        <v>435511.62221820076</v>
       </c>
       <c r="F90" s="5">
         <v>4</v>
       </c>
       <c r="G90" s="9">
         <f t="shared" si="6"/>
-        <v>3482737279674.731</v>
+        <v>3482737279754.731</v>
       </c>
       <c r="H90" s="8">
         <f t="shared" si="7"/>
@@ -7664,14 +7664,14 @@
       <c r="D91" s="5"/>
       <c r="E91" s="7">
         <f t="shared" si="5"/>
-        <v>704969</v>
+        <v>450019.17512304336</v>
       </c>
       <c r="F91" s="5">
         <v>4</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="6"/>
-        <v>3746043514833.064</v>
+        <v>3746043514913.064</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="7"/>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1709D2E5-4F2A-446C-821E-8CD83D837CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B96276-7685-438E-8EBB-4D16875E05C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1050" yWindow="4320" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77:G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1067,1111 +1067,1098 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <f>A2^2.9</f>
         <v>0</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
-        <f>A2^6.45+A2^4+100*A2+100</f>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>A2^6+A2^4+100*A2+100</f>
         <v>100</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2">
         <f>A2^2.15+50+50*A2</f>
         <v>50</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2">
         <f>A2^6+A2^4+1000*A2+100</f>
         <v>100</v>
       </c>
-      <c r="J2" s="5">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5">
-        <v>11</v>
-      </c>
-      <c r="L2" s="5">
-        <v>5</v>
-      </c>
-      <c r="M2" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N2" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O2" s="5">
-        <v>30</v>
-      </c>
-      <c r="P2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>10000</v>
+      </c>
+      <c r="N2">
+        <v>10000</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>2.5</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="5">
-        <v>1</v>
-      </c>
-      <c r="V2" s="5">
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <f>10+A2</f>
         <v>10</v>
       </c>
-      <c r="W2" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="W2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3^2.9</f>
         <v>1</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
-        <f t="shared" ref="G3:G66" si="1">A3^6.45+A3^4+100*A3+100</f>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="1">A3^6+A3^4+100*A3+100</f>
         <v>202</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3">
         <f t="shared" ref="H3:H66" si="2">A3^2.15+50+50*A3</f>
         <v>101</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <f t="shared" ref="I3:I66" si="3">A3^6+A3^4+1000*A3+100</f>
         <v>1102</v>
       </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
-        <v>11</v>
-      </c>
-      <c r="L3" s="5">
-        <v>5</v>
-      </c>
-      <c r="M3" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N3" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O3" s="5">
-        <v>30</v>
-      </c>
-      <c r="P3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5" t="s">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>10000</v>
+      </c>
+      <c r="N3">
+        <v>10000</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
         <v>57</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3">
         <v>2</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3">
         <f t="shared" ref="V3:V66" si="4">10+A3</f>
         <v>11</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>7.4642639322944575</v>
       </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="1"/>
-        <v>403.42657643228131</v>
-      </c>
-      <c r="H4" s="8">
+        <v>380</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="2"/>
         <v>154.43827788827139</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <f t="shared" si="3"/>
         <v>2180</v>
       </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>11</v>
-      </c>
-      <c r="L4" s="5">
-        <v>5</v>
-      </c>
-      <c r="M4" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N4" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O4" s="5">
-        <v>30</v>
-      </c>
-      <c r="P4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="5">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>10000</v>
+      </c>
+      <c r="N4">
+        <v>10000</v>
+      </c>
+      <c r="O4">
+        <v>30</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4">
         <v>3</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>24.190878415700585</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>1676.1766311172196</v>
-      </c>
-      <c r="H5" s="8">
+        <v>1210</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="2"/>
         <v>210.6123288111323</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <f t="shared" si="3"/>
         <v>3910</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>11</v>
-      </c>
-      <c r="L5" s="5">
-        <v>5</v>
-      </c>
-      <c r="M5" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N5" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O5" s="5">
-        <v>30</v>
-      </c>
-      <c r="P5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5">
-        <v>1</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5" s="5">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>10000</v>
+      </c>
+      <c r="N5">
+        <v>10000</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5">
         <v>4</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>55.715236050951923</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>8399.4062666695281</v>
-      </c>
-      <c r="H6" s="8">
+        <v>4852</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="2"/>
         <v>269.69831061351863</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <f t="shared" si="3"/>
         <v>8452</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>11</v>
-      </c>
-      <c r="L6" s="5">
-        <v>5</v>
-      </c>
-      <c r="M6" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N6" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O6" s="5">
-        <v>30</v>
-      </c>
-      <c r="P6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>1</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="5">
-        <v>5</v>
-      </c>
-      <c r="V6" s="5">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>10000</v>
+      </c>
+      <c r="N6">
+        <v>10000</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>106.41749031509804</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>33462.141682512403</v>
-      </c>
-      <c r="H7" s="8">
+        <v>16850</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
         <v>331.82625288866058</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <f t="shared" si="3"/>
         <v>21350</v>
       </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>11</v>
-      </c>
-      <c r="L7" s="5">
-        <v>5</v>
-      </c>
-      <c r="M7" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N7" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O7" s="5">
-        <v>30</v>
-      </c>
-      <c r="P7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>1</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U7" s="5">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>10000</v>
+      </c>
+      <c r="N7">
+        <v>10000</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7">
         <v>6</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>180.56710124883438</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>106486.20109044592</v>
-      </c>
-      <c r="H8" s="8">
+        <v>48652</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
         <v>397.10046430551381</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <f t="shared" si="3"/>
         <v>54052</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>11</v>
-      </c>
-      <c r="L8" s="5">
-        <v>5</v>
-      </c>
-      <c r="M8" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N8" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O8" s="5">
-        <v>30</v>
-      </c>
-      <c r="P8" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>10000</v>
+      </c>
+      <c r="N8">
+        <v>10000</v>
+      </c>
+      <c r="O8">
+        <v>30</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="5">
+      <c r="T8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U8">
         <v>7</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>282.34774011961417</v>
       </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>285612.48736351961</v>
-      </c>
-      <c r="H9" s="8">
+        <v>120850</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="2"/>
         <v>465.60860233241453</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <f t="shared" si="3"/>
         <v>127150</v>
       </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>11</v>
-      </c>
-      <c r="L9" s="5">
-        <v>5</v>
-      </c>
-      <c r="M9" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N9" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O9" s="5">
-        <v>30</v>
-      </c>
-      <c r="P9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>10000</v>
+      </c>
+      <c r="N9">
+        <v>10000</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2.5</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="T9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="T9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U9">
         <v>8</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>415.87322693439216</v>
       </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>673232.84217596101</v>
-      </c>
-      <c r="H10" s="8">
+        <v>267140</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="2"/>
         <v>537.42657643228131</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <f t="shared" si="3"/>
         <v>274340</v>
       </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>11</v>
-      </c>
-      <c r="L10" s="5">
-        <v>5</v>
-      </c>
-      <c r="M10" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N10" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O10" s="5">
-        <v>30</v>
-      </c>
-      <c r="P10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>10000</v>
+      </c>
+      <c r="N10">
+        <v>10000</v>
+      </c>
+      <c r="O10">
+        <v>30</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>2.5</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>2</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="T10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10">
         <v>9</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>585.19859852320837</v>
       </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>1436008.1795687063</v>
-      </c>
-      <c r="H11" s="8">
+        <v>539002</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
         <v>612.6215227955887</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <f t="shared" si="3"/>
         <v>547102</v>
       </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>11</v>
-      </c>
-      <c r="L11" s="5">
-        <v>5</v>
-      </c>
-      <c r="M11" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N11" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O11" s="5">
-        <v>30</v>
-      </c>
-      <c r="P11" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>10000</v>
+      </c>
+      <c r="N11">
+        <v>10000</v>
+      </c>
+      <c r="O11">
+        <v>30</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>2.5</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>3</v>
       </c>
-      <c r="T11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" s="5">
+      <c r="T11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11">
         <v>10</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>794.32823472428208</v>
       </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>2829482.9312644606</v>
-      </c>
-      <c r="H12" s="8">
+        <v>1011100</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
         <v>691.25375446227542</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <f t="shared" si="3"/>
         <v>1020100</v>
       </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>11</v>
-      </c>
-      <c r="L12" s="5">
-        <v>5</v>
-      </c>
-      <c r="M12" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N12" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O12" s="5">
-        <v>30</v>
-      </c>
-      <c r="P12" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>10000</v>
+      </c>
+      <c r="N12">
+        <v>10000</v>
+      </c>
+      <c r="O12">
+        <v>30</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>3</v>
       </c>
-      <c r="T12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U12" s="5">
-        <v>11</v>
-      </c>
-      <c r="V12" s="5">
+      <c r="T12" t="s">
+        <v>59</v>
+      </c>
+      <c r="U12">
+        <v>11</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>1047.2220715639037</v>
       </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>5227581.9300244208</v>
-      </c>
-      <c r="H13" s="8">
+        <v>1787402</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="2"/>
         <v>773.37811347566094</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <f t="shared" si="3"/>
         <v>1797302</v>
       </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>11</v>
-      </c>
-      <c r="L13" s="5">
-        <v>5</v>
-      </c>
-      <c r="M13" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N13" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O13" s="5">
-        <v>30</v>
-      </c>
-      <c r="P13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>10000</v>
+      </c>
+      <c r="N13">
+        <v>10000</v>
+      </c>
+      <c r="O13">
+        <v>30</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>2.5</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>3</v>
       </c>
-      <c r="T13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U13" s="5">
+      <c r="T13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13">
         <v>12</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>1347.8005012106366</v>
       </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>9157256.5520583224</v>
-      </c>
-      <c r="H14" s="8">
+        <v>3008020</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>859.04494925447727</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14">
         <f t="shared" si="3"/>
         <v>3018820</v>
       </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <v>11</v>
-      </c>
-      <c r="L14" s="5">
-        <v>5</v>
-      </c>
-      <c r="M14" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N14" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O14" s="5">
-        <v>30</v>
-      </c>
-      <c r="P14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>10000</v>
+      </c>
+      <c r="N14">
+        <v>10000</v>
+      </c>
+      <c r="O14">
+        <v>30</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>2.5</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>4</v>
       </c>
-      <c r="T14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U14" s="5">
+      <c r="T14" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14">
         <v>13</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>1699.9483319952403</v>
       </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>15338530.928967474</v>
-      </c>
-      <c r="H15" s="8">
+        <v>4856770</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>948.30085068425512</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <f t="shared" si="3"/>
         <v>4868470</v>
       </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>11</v>
-      </c>
-      <c r="L15" s="5">
-        <v>5</v>
-      </c>
-      <c r="M15" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N15" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O15" s="5">
-        <v>30</v>
-      </c>
-      <c r="P15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>10000</v>
+      </c>
+      <c r="N15">
+        <v>10000</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>2.5</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>4</v>
       </c>
-      <c r="T15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U15" s="5">
+      <c r="T15" t="s">
+        <v>59</v>
+      </c>
+      <c r="U15">
         <v>14</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>2107.5180529396839</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>24730185.485340979</v>
-      </c>
-      <c r="H16" s="8">
+        <v>7569452</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="2"/>
         <v>1041.1892090123454</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16">
         <f t="shared" si="3"/>
         <v>7582052</v>
       </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>11</v>
-      </c>
-      <c r="L16" s="5">
-        <v>5</v>
-      </c>
-      <c r="M16" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N16" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O16" s="5">
-        <v>30</v>
-      </c>
-      <c r="P16" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>10000</v>
+      </c>
+      <c r="N16">
+        <v>10000</v>
+      </c>
+      <c r="O16">
+        <v>30</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>2.5</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>4</v>
       </c>
-      <c r="T16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U16" s="5">
+      <c r="T16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16">
         <v>15</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16">
         <v>5</v>
       </c>
     </row>
@@ -2194,8 +2181,8 @@
         <v>1.5</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="1"/>
-        <v>38581303.392953709</v>
+        <f>A17^6.1+A17^4+100*A17+100</f>
+        <v>14985555.615562128</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="2"/>
@@ -2268,8 +2255,8 @@
         <v>1.5</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="1"/>
-        <v>58488895.357363015</v>
+        <f t="shared" ref="G18:G31" si="5">A18^6.1+A18^4+100*A18+100</f>
+        <v>22204905.232745543</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="2"/>
@@ -2342,8 +2329,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="1"/>
-        <v>86461809.177238211</v>
+        <f t="shared" si="5"/>
+        <v>32128708.402307235</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="2"/>
@@ -2416,8 +2403,8 @@
         <v>1.5</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="1"/>
-        <v>124991122.52403986</v>
+        <f t="shared" si="5"/>
+        <v>45518003.09438619</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="2"/>
@@ -2490,8 +2477,8 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="1"/>
-        <v>177127210.21390957</v>
+        <f t="shared" si="5"/>
+        <v>63285754.315984607</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="2"/>
@@ -2564,8 +2551,8 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="1"/>
-        <v>246563670.75562835</v>
+        <f t="shared" si="5"/>
+        <v>86516202.251107752</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="2"/>
@@ -2638,8 +2625,8 @@
         <v>1.5</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="1"/>
-        <v>337728291.05593371</v>
+        <f t="shared" si="5"/>
+        <v>116485429.82443906</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="2"/>
@@ -2712,8 +2699,8 @@
         <v>1.5</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="1"/>
-        <v>455881222.76403016</v>
+        <f t="shared" si="5"/>
+        <v>154683156.30824435</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="2"/>
@@ -2786,8 +2773,8 @@
         <v>1.5</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="1"/>
-        <v>607220538.77384245</v>
+        <f t="shared" si="5"/>
+        <v>202835763.28495783</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="2"/>
@@ -2860,8 +2847,8 @@
         <v>1.5</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="1"/>
-        <v>798995333.82027626</v>
+        <f t="shared" si="5"/>
+        <v>262930558.99932846</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="2"/>
@@ -2934,8 +2921,8 @@
         <v>1.5</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="1"/>
-        <v>1039626528.8583786</v>
+        <f t="shared" si="5"/>
+        <v>337241286.88017869</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="2"/>
@@ -3008,8 +2995,8 @@
         <v>1.5</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="1"/>
-        <v>1338835534.9637971</v>
+        <f t="shared" si="5"/>
+        <v>428354883.77961051</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="2"/>
@@ -3082,8 +3069,8 @@
         <v>1.5</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="1"/>
-        <v>1707780928.805819</v>
+        <f t="shared" si="5"/>
+        <v>539199493.264094</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="2"/>
@@ -3156,8 +3143,8 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="1"/>
-        <v>2159203288.2937846</v>
+        <f t="shared" si="5"/>
+        <v>673073739.09516191</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="2"/>
@@ -3230,8 +3217,8 @@
         <v>1.5</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="1"/>
-        <v>2707578333.7589922</v>
+        <f t="shared" si="5"/>
+        <v>833677263.8554076</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="2"/>
@@ -3286,1112 +3273,1097 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>19215.497748373156</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32" s="9">
-        <f t="shared" si="1"/>
-        <v>3369278516.9869232</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="G32">
+        <f>A32^6.2+A32^4+100*A32+100</f>
+        <v>1440114604.1735837</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="2"/>
         <v>3049.0312881606123</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32">
         <f t="shared" si="3"/>
         <v>729840100</v>
       </c>
-      <c r="J32" s="5">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5">
-        <v>11</v>
-      </c>
-      <c r="L32" s="5">
-        <v>5</v>
-      </c>
-      <c r="M32" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N32" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O32" s="5">
-        <v>30</v>
-      </c>
-      <c r="P32" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R32" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
-        <v>0</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U32" s="5">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>11</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>10000</v>
+      </c>
+      <c r="N32">
+        <v>10000</v>
+      </c>
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>2.5</v>
+      </c>
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>59</v>
+      </c>
+      <c r="U32">
         <v>31</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="W32" s="5">
+      <c r="W32">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>21132.404358829102</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="G33" s="9">
-        <f t="shared" si="1"/>
-        <v>4162743197.541553</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="G33">
+        <f t="shared" ref="G33:G46" si="6">A33^6.2+A33^4+100*A33+100</f>
+        <v>1764698956.1660249</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="2"/>
         <v>3208.5243576419898</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33">
         <f t="shared" si="3"/>
         <v>888458302</v>
       </c>
-      <c r="J33" s="5">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5">
-        <v>11</v>
-      </c>
-      <c r="L33" s="5">
-        <v>5</v>
-      </c>
-      <c r="M33" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N33" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O33" s="5">
-        <v>30</v>
-      </c>
-      <c r="P33" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R33" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
-        <v>0</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U33" s="5">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>10000</v>
+      </c>
+      <c r="N33">
+        <v>10000</v>
+      </c>
+      <c r="O33">
+        <v>30</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2.5</v>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>59</v>
+      </c>
+      <c r="U33">
         <v>32</v>
       </c>
-      <c r="V33" s="5">
+      <c r="V33">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="W33" s="5">
+      <c r="W33">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>23170.475005920798</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>2</v>
       </c>
-      <c r="G34" s="9">
-        <f t="shared" si="1"/>
-        <v>5108657543.1071968</v>
-      </c>
-      <c r="H34" s="8">
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>2148535524.0000019</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="2"/>
         <v>3372.1558584396066</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34">
         <f t="shared" si="3"/>
         <v>1074822500</v>
       </c>
-      <c r="J34" s="5">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5">
-        <v>11</v>
-      </c>
-      <c r="L34" s="5">
-        <v>5</v>
-      </c>
-      <c r="M34" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N34" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O34" s="5">
-        <v>30</v>
-      </c>
-      <c r="P34" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R34" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S34" s="5">
-        <v>0</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U34" s="5">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>11</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>10000</v>
+      </c>
+      <c r="N34">
+        <v>10000</v>
+      </c>
+      <c r="O34">
+        <v>30</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2.5</v>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>59</v>
+      </c>
+      <c r="U34">
         <v>33</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>25333.221807440499</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="G35" s="9">
-        <f t="shared" si="1"/>
-        <v>6230140288.0022955</v>
-      </c>
-      <c r="H35" s="8">
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>2600070519.4915085</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="2"/>
         <v>3539.9455488575204</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35">
         <f t="shared" si="3"/>
         <v>1292686990</v>
       </c>
-      <c r="J35" s="5">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5">
-        <v>11</v>
-      </c>
-      <c r="L35" s="5">
-        <v>5</v>
-      </c>
-      <c r="M35" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N35" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O35" s="5">
-        <v>30</v>
-      </c>
-      <c r="P35" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R35" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5">
-        <v>1</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U35" s="5">
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>10000</v>
+      </c>
+      <c r="N35">
+        <v>10000</v>
+      </c>
+      <c r="O35">
+        <v>30</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2.5</v>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>59</v>
+      </c>
+      <c r="U35">
         <v>34</v>
       </c>
-      <c r="V35" s="5">
+      <c r="V35">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="W35" s="5">
+      <c r="W35">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="7">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>27624.145919111299</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="G36" s="9">
-        <f t="shared" si="1"/>
-        <v>7552940481.57938</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>3128637969.6298065</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="2"/>
         <v>3711.9126690061603</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36">
         <f t="shared" si="3"/>
         <v>1546174852</v>
       </c>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5">
-        <v>11</v>
-      </c>
-      <c r="L36" s="5">
-        <v>5</v>
-      </c>
-      <c r="M36" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N36" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O36" s="5">
-        <v>30</v>
-      </c>
-      <c r="P36" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R36" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S36" s="5">
-        <v>1</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U36" s="5">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>11</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>10000</v>
+      </c>
+      <c r="N36">
+        <v>10000</v>
+      </c>
+      <c r="O36">
+        <v>30</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2.5</v>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>59</v>
+      </c>
+      <c r="U36">
         <v>35</v>
       </c>
-      <c r="V36" s="5">
+      <c r="V36">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W36">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="7">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>30046.737899668853</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>2</v>
       </c>
-      <c r="G37" s="9">
-        <f t="shared" si="1"/>
-        <v>9105643355.9068451</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>3744521874.6552873</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="2"/>
         <v>3888.0759695029919</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37">
         <f t="shared" si="3"/>
         <v>1839801350</v>
       </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5">
-        <v>11</v>
-      </c>
-      <c r="L37" s="5">
-        <v>5</v>
-      </c>
-      <c r="M37" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N37" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O37" s="5">
-        <v>30</v>
-      </c>
-      <c r="P37" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R37" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
-        <v>1</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U37" s="5">
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>10000</v>
+      </c>
+      <c r="N37">
+        <v>10000</v>
+      </c>
+      <c r="O37">
+        <v>30</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2.5</v>
+      </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>59</v>
+      </c>
+      <c r="U37">
         <v>36</v>
       </c>
-      <c r="V37" s="5">
+      <c r="V37">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="W37" s="5">
+      <c r="W37">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7">
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>32604.478053406801</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38" s="9">
-        <f t="shared" si="1"/>
-        <v>10919885439.921824</v>
-      </c>
-      <c r="H38" s="8">
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>4459020668.0300045</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="2"/>
         <v>4068.4537377949773</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38">
         <f t="shared" si="3"/>
         <v>2178498052</v>
       </c>
-      <c r="J38" s="5">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5">
-        <v>11</v>
-      </c>
-      <c r="L38" s="5">
-        <v>5</v>
-      </c>
-      <c r="M38" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N38" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O38" s="5">
-        <v>30</v>
-      </c>
-      <c r="P38" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R38" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S38" s="5">
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>11</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>10000</v>
+      </c>
+      <c r="N38">
+        <v>10000</v>
+      </c>
+      <c r="O38">
+        <v>30</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>2.5</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>2</v>
       </c>
-      <c r="T38" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U38" s="5">
+      <c r="T38" t="s">
+        <v>59</v>
+      </c>
+      <c r="U38">
         <v>37</v>
       </c>
-      <c r="V38" s="5">
+      <c r="V38">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="W38" s="5">
+      <c r="W38">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7">
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>35300.836752181283</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39" s="9">
-        <f t="shared" si="1"/>
-        <v>13030579045.137789</v>
-      </c>
-      <c r="H39" s="8">
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>5284513992.0904589</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="2"/>
         <v>4253.0638223615515</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39">
         <f t="shared" si="3"/>
         <v>2567637670</v>
       </c>
-      <c r="J39" s="5">
-        <v>1</v>
-      </c>
-      <c r="K39" s="5">
-        <v>11</v>
-      </c>
-      <c r="L39" s="5">
-        <v>5</v>
-      </c>
-      <c r="M39" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N39" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O39" s="5">
-        <v>30</v>
-      </c>
-      <c r="P39" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R39" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>11</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>10000</v>
+      </c>
+      <c r="N39">
+        <v>10000</v>
+      </c>
+      <c r="O39">
+        <v>30</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2.5</v>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39">
         <v>2</v>
       </c>
-      <c r="T39" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U39" s="5">
+      <c r="T39" t="s">
+        <v>59</v>
+      </c>
+      <c r="U39">
         <v>38</v>
       </c>
-      <c r="V39" s="5">
+      <c r="V39">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="W39" s="5">
+      <c r="W39">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="7">
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>38139.274738643187</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40">
         <v>2</v>
       </c>
-      <c r="G40" s="9">
-        <f t="shared" si="1"/>
-        <v>15476146245.983017</v>
-      </c>
-      <c r="H40" s="8">
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>6234531802.8513393</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="2"/>
         <v>4441.923655022405</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40">
         <f t="shared" si="3"/>
         <v>3013059620</v>
       </c>
-      <c r="J40" s="5">
-        <v>1</v>
-      </c>
-      <c r="K40" s="5">
-        <v>11</v>
-      </c>
-      <c r="L40" s="5">
-        <v>5</v>
-      </c>
-      <c r="M40" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N40" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O40" s="5">
-        <v>30</v>
-      </c>
-      <c r="P40" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R40" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>11</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>10000</v>
+      </c>
+      <c r="N40">
+        <v>10000</v>
+      </c>
+      <c r="O40">
+        <v>30</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2.5</v>
+      </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+      <c r="S40">
         <v>2</v>
       </c>
-      <c r="T40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U40" s="5">
+      <c r="T40" t="s">
+        <v>59</v>
+      </c>
+      <c r="U40">
         <v>39</v>
       </c>
-      <c r="V40" s="5">
+      <c r="V40">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="W40" s="5">
+      <c r="W40">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="7">
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>41123.243412269818</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <v>2</v>
       </c>
-      <c r="G41" s="9">
-        <f t="shared" si="1"/>
-        <v>18298762475.925671</v>
-      </c>
-      <c r="H41" s="8">
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>7323825817.1245699</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="2"/>
         <v>4635.0502715451767</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41">
         <f t="shared" si="3"/>
         <v>3521096302</v>
       </c>
-      <c r="J41" s="5">
-        <v>1</v>
-      </c>
-      <c r="K41" s="5">
-        <v>11</v>
-      </c>
-      <c r="L41" s="5">
-        <v>5</v>
-      </c>
-      <c r="M41" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N41" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O41" s="5">
-        <v>30</v>
-      </c>
-      <c r="P41" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R41" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>10000</v>
+      </c>
+      <c r="N41">
+        <v>10000</v>
+      </c>
+      <c r="O41">
+        <v>30</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2.5</v>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>3</v>
       </c>
-      <c r="T41" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U41" s="5">
+      <c r="T41" t="s">
+        <v>59</v>
+      </c>
+      <c r="U41">
         <v>40</v>
       </c>
-      <c r="V41" s="5">
+      <c r="V41">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="W41" s="5">
+      <c r="W41">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="7">
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>44256.185099599286</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="G42" s="9">
-        <f t="shared" si="1"/>
-        <v>21544609858.701172</v>
-      </c>
-      <c r="H42" s="8">
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>8568443314.8276997</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="2"/>
         <v>4832.4603307235975</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42">
         <f t="shared" si="3"/>
         <v>4098600100</v>
       </c>
-      <c r="J42" s="5">
-        <v>1</v>
-      </c>
-      <c r="K42" s="5">
-        <v>11</v>
-      </c>
-      <c r="L42" s="5">
-        <v>5</v>
-      </c>
-      <c r="M42" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N42" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O42" s="5">
-        <v>30</v>
-      </c>
-      <c r="P42" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R42" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>11</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>10000</v>
+      </c>
+      <c r="N42">
+        <v>10000</v>
+      </c>
+      <c r="O42">
+        <v>30</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2.5</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42">
         <v>3</v>
       </c>
-      <c r="T42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U42" s="5">
+      <c r="T42" t="s">
+        <v>59</v>
+      </c>
+      <c r="U42">
         <v>41</v>
       </c>
-      <c r="V42" s="5">
+      <c r="V42">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="W42" s="5">
+      <c r="W42">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="7">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>47541.533309922204</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43">
         <v>2</v>
       </c>
-      <c r="G43" s="9">
-        <f t="shared" si="1"/>
-        <v>25264140392.19796</v>
-      </c>
-      <c r="H43" s="8">
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>9985803309.081152</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="2"/>
         <v>5034.1701320755374</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43">
         <f t="shared" si="3"/>
         <v>4752971102</v>
       </c>
-      <c r="J43" s="5">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5">
-        <v>11</v>
-      </c>
-      <c r="L43" s="5">
-        <v>5</v>
-      </c>
-      <c r="M43" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N43" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O43" s="5">
-        <v>30</v>
-      </c>
-      <c r="P43" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R43" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S43" s="5">
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>11</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>10000</v>
+      </c>
+      <c r="N43">
+        <v>10000</v>
+      </c>
+      <c r="O43">
+        <v>30</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2.5</v>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+      <c r="S43">
         <v>3</v>
       </c>
-      <c r="T43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U43" s="5">
+      <c r="T43" t="s">
+        <v>59</v>
+      </c>
+      <c r="U43">
         <v>42</v>
       </c>
-      <c r="V43" s="5">
+      <c r="V43">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="W43" s="5">
+      <c r="W43">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="7">
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>50982.712977557938</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44">
         <v>2</v>
       </c>
-      <c r="G44" s="9">
-        <f t="shared" si="1"/>
-        <v>29512349100.866146</v>
-      </c>
-      <c r="H44" s="8">
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>11594775096.429832</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="2"/>
         <v>5240.1956322925425</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44">
         <f t="shared" si="3"/>
         <v>5492185540</v>
       </c>
-      <c r="J44" s="5">
-        <v>1</v>
-      </c>
-      <c r="K44" s="5">
-        <v>11</v>
-      </c>
-      <c r="L44" s="5">
-        <v>5</v>
-      </c>
-      <c r="M44" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N44" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O44" s="5">
-        <v>30</v>
-      </c>
-      <c r="P44" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R44" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S44" s="5">
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>11</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>10000</v>
+      </c>
+      <c r="N44">
+        <v>10000</v>
+      </c>
+      <c r="O44">
+        <v>30</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2.5</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44">
         <v>4</v>
       </c>
-      <c r="T44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U44" s="5">
+      <c r="T44" t="s">
+        <v>59</v>
+      </c>
+      <c r="U44">
         <v>43</v>
       </c>
-      <c r="V44" s="5">
+      <c r="V44">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="W44" s="5">
+      <c r="W44">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="7">
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>54583.140691729262</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45">
         <v>2</v>
       </c>
-      <c r="G45" s="9">
-        <f t="shared" si="1"/>
-        <v>34349057270.890388</v>
-      </c>
-      <c r="H45" s="8">
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>13415759199.275536</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="2"/>
         <v>5450.5524605569453</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45">
         <f t="shared" si="3"/>
         <v>6324824950</v>
       </c>
-      <c r="J45" s="5">
-        <v>1</v>
-      </c>
-      <c r="K45" s="5">
-        <v>11</v>
-      </c>
-      <c r="L45" s="5">
-        <v>5</v>
-      </c>
-      <c r="M45" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N45" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O45" s="5">
-        <v>30</v>
-      </c>
-      <c r="P45" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R45" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S45" s="5">
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>11</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <v>10000</v>
+      </c>
+      <c r="N45">
+        <v>10000</v>
+      </c>
+      <c r="O45">
+        <v>30</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2.5</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45">
         <v>4</v>
       </c>
-      <c r="T45" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U45" s="5">
+      <c r="T45" t="s">
+        <v>59</v>
+      </c>
+      <c r="U45">
         <v>44</v>
       </c>
-      <c r="V45" s="5">
+      <c r="V45">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W45">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="7">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>58346.224914949707</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46">
         <v>2</v>
       </c>
-      <c r="G46" s="9">
-        <f t="shared" si="1"/>
-        <v>39839205880.806664</v>
-      </c>
-      <c r="H46" s="8">
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>15470770712.365486</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="2"/>
         <v>5665.2559328294519</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46">
         <f t="shared" si="3"/>
         <v>7260106052</v>
       </c>
-      <c r="J46" s="5">
-        <v>1</v>
-      </c>
-      <c r="K46" s="5">
-        <v>11</v>
-      </c>
-      <c r="L46" s="5">
-        <v>5</v>
-      </c>
-      <c r="M46" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N46" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O46" s="5">
-        <v>30</v>
-      </c>
-      <c r="P46" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R46" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5">
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>11</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>10000</v>
+      </c>
+      <c r="N46">
+        <v>10000</v>
+      </c>
+      <c r="O46">
+        <v>30</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2.5</v>
+      </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+      <c r="S46">
         <v>4</v>
       </c>
-      <c r="T46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U46" s="5">
+      <c r="T46" t="s">
+        <v>59</v>
+      </c>
+      <c r="U46">
         <v>45</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V46">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="W46" s="5">
+      <c r="W46">
         <v>5</v>
       </c>
     </row>
@@ -4414,8 +4386,8 @@
         <v>2.5</v>
       </c>
       <c r="G47" s="9">
-        <f t="shared" si="1"/>
-        <v>46053159338.741547</v>
+        <f>A47^6.3+A47^4+100*A47+100</f>
+        <v>26020004159.311378</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="2"/>
@@ -4488,8 +4460,8 @@
         <v>2.5</v>
       </c>
       <c r="G48" s="9">
-        <f t="shared" si="1"/>
-        <v>53067019636.0037</v>
+        <f t="shared" ref="G48:G61" si="7">A48^6.3+A48^4+100*A48+100</f>
+        <v>29884051907.125313</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="2"/>
@@ -4562,8 +4534,8 @@
         <v>2.5</v>
       </c>
       <c r="G49" s="9">
-        <f t="shared" si="1"/>
-        <v>60962951025.363617</v>
+        <f t="shared" si="7"/>
+        <v>34219881381.890774</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="2"/>
@@ -4636,8 +4608,8 @@
         <v>2.5</v>
       </c>
       <c r="G50" s="9">
-        <f t="shared" si="1"/>
-        <v>69829515331.010971</v>
+        <f t="shared" si="7"/>
+        <v>39073188852.897911</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="2"/>
@@ -4710,8 +4682,8 @@
         <v>2.5</v>
       </c>
       <c r="G51" s="9">
-        <f t="shared" si="1"/>
-        <v>79762017995.875412</v>
+        <f t="shared" si="7"/>
+        <v>44492993548.461731</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="2"/>
@@ -4784,8 +4756,8 @@
         <v>2.5</v>
       </c>
       <c r="G52" s="9">
-        <f t="shared" si="1"/>
-        <v>90862864970.746704</v>
+        <f t="shared" si="7"/>
+        <v>50531802488.855904</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="2"/>
@@ -4858,8 +4830,8 @@
         <v>2.5</v>
       </c>
       <c r="G53" s="9">
-        <f t="shared" si="1"/>
-        <v>103241930548.40762</v>
+        <f t="shared" si="7"/>
+        <v>57245779844.387543</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="2"/>
@@ -4932,8 +4904,8 @@
         <v>2.5</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" si="1"/>
-        <v>117016936244.81889</v>
+        <f t="shared" si="7"/>
+        <v>64694920846.701172</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="2"/>
@@ -5006,8 +4978,8 @@
         <v>2.5</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="1"/>
-        <v>132313840828.2588</v>
+        <f t="shared" si="7"/>
+        <v>72943230280.994476</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="2"/>
@@ -5080,8 +5052,8 @@
         <v>2.5</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="1"/>
-        <v>149267241596.21442</v>
+        <f t="shared" si="7"/>
+        <v>82058905586.442444</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="2"/>
@@ -5154,8 +5126,8 @@
         <v>2.5</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="1"/>
-        <v>168020786998.7468</v>
+        <f t="shared" si="7"/>
+        <v>92114524591.76091</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="2"/>
@@ -5228,8 +5200,8 @@
         <v>2.5</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="1"/>
-        <v>188727600706.01501</v>
+        <f t="shared" si="7"/>
+        <v>103187237912.47118</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="2"/>
@@ -5302,8 +5274,8 @@
         <v>2.5</v>
       </c>
       <c r="G59" s="9">
-        <f t="shared" si="1"/>
-        <v>211550717216.64612</v>
+        <f t="shared" si="7"/>
+        <v>115358966036.08681</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="2"/>
@@ -5376,8 +5348,8 @@
         <v>2.5</v>
       </c>
       <c r="G60" s="9">
-        <f t="shared" si="1"/>
-        <v>236663529102.63351</v>
+        <f t="shared" si="7"/>
+        <v>128716601121.10344</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="2"/>
@@ -5450,8 +5422,8 @@
         <v>2.5</v>
       </c>
       <c r="G61" s="9">
-        <f t="shared" si="1"/>
-        <v>264250245985.52618</v>
+        <f t="shared" si="7"/>
+        <v>143352213535.34052</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="2"/>
@@ -5506,1112 +5478,1097 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="7">
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="0"/>
         <v>143429.54678426706</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62">
         <v>3</v>
       </c>
-      <c r="G62" s="9">
-        <f t="shared" si="1"/>
-        <v>294506365337.70337</v>
-      </c>
-      <c r="H62" s="8">
+      <c r="G62">
+        <f>A62^6.35+A62^4+100*A62+100</f>
+        <v>195564145653.80487</v>
+      </c>
+      <c r="H62">
         <f t="shared" si="2"/>
         <v>9703.117420070208</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62">
         <f t="shared" si="3"/>
         <v>46669020100</v>
       </c>
-      <c r="J62" s="5">
-        <v>1</v>
-      </c>
-      <c r="K62" s="5">
-        <v>11</v>
-      </c>
-      <c r="L62" s="5">
-        <v>5</v>
-      </c>
-      <c r="M62" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N62" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O62" s="5">
-        <v>30</v>
-      </c>
-      <c r="P62" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R62" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S62" s="5">
-        <v>0</v>
-      </c>
-      <c r="T62" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U62" s="5">
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>11</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>10000</v>
+      </c>
+      <c r="N62">
+        <v>10000</v>
+      </c>
+      <c r="O62">
+        <v>30</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2.5</v>
+      </c>
+      <c r="R62" t="b">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
+        <v>59</v>
+      </c>
+      <c r="U62">
         <v>61</v>
       </c>
-      <c r="V62" s="5">
+      <c r="V62">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="W62" s="5">
+      <c r="W62">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="6" t="s">
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="7">
+      <c r="E63">
         <f t="shared" si="0"/>
         <v>150472.28691305482</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="G63" s="9">
-        <f t="shared" si="1"/>
-        <v>327639155201.68616</v>
-      </c>
-      <c r="H63" s="8">
+      <c r="G63">
+        <f t="shared" ref="G63:G76" si="8">A63^6.35+A63^4+100*A63+100</f>
+        <v>217206166010.76517</v>
+      </c>
+      <c r="H63">
         <f t="shared" si="2"/>
         <v>9993.8073905063829</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63">
         <f t="shared" si="3"/>
         <v>51534281302</v>
       </c>
-      <c r="J63" s="5">
-        <v>1</v>
-      </c>
-      <c r="K63" s="5">
-        <v>11</v>
-      </c>
-      <c r="L63" s="5">
-        <v>5</v>
-      </c>
-      <c r="M63" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N63" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O63" s="5">
-        <v>30</v>
-      </c>
-      <c r="P63" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R63" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S63" s="5">
-        <v>0</v>
-      </c>
-      <c r="T63" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U63" s="5">
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>11</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <v>10000</v>
+      </c>
+      <c r="N63">
+        <v>10000</v>
+      </c>
+      <c r="O63">
+        <v>30</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2.5</v>
+      </c>
+      <c r="R63" t="b">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>59</v>
+      </c>
+      <c r="U63">
         <v>62</v>
       </c>
-      <c r="V63" s="5">
+      <c r="V63">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="W63" s="5">
+      <c r="W63">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="7">
+      <c r="E64">
         <f t="shared" si="0"/>
         <v>157737.8436582702</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64">
         <v>3</v>
       </c>
-      <c r="G64" s="9">
-        <f t="shared" si="1"/>
-        <v>363868148919.48749</v>
-      </c>
-      <c r="H64" s="8">
+      <c r="G64">
+        <f t="shared" si="8"/>
+        <v>240831830592.42981</v>
+      </c>
+      <c r="H64">
         <f t="shared" si="2"/>
         <v>10289.078089268367</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64">
         <f t="shared" si="3"/>
         <v>56815074020</v>
       </c>
-      <c r="J64" s="5">
-        <v>1</v>
-      </c>
-      <c r="K64" s="5">
-        <v>11</v>
-      </c>
-      <c r="L64" s="5">
-        <v>5</v>
-      </c>
-      <c r="M64" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N64" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O64" s="5">
-        <v>30</v>
-      </c>
-      <c r="P64" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R64" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S64" s="5">
-        <v>0</v>
-      </c>
-      <c r="T64" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U64" s="5">
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>11</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>10000</v>
+      </c>
+      <c r="N64">
+        <v>10000</v>
+      </c>
+      <c r="O64">
+        <v>30</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>2.5</v>
+      </c>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>59</v>
+      </c>
+      <c r="U64">
         <v>63</v>
       </c>
-      <c r="V64" s="5">
+      <c r="V64">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="W64" s="5">
+      <c r="W64">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="7">
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="0"/>
         <v>165229.50181419312</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65">
         <v>3</v>
       </c>
-      <c r="G65" s="9">
-        <f t="shared" si="1"/>
-        <v>403425651963.22229</v>
-      </c>
-      <c r="H65" s="8">
+      <c r="G65">
+        <f t="shared" si="8"/>
+        <v>266586506386.88736</v>
+      </c>
+      <c r="H65">
         <f t="shared" si="2"/>
         <v>10588.940703166736</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65">
         <f t="shared" si="3"/>
         <v>62539318270</v>
       </c>
-      <c r="J65" s="5">
-        <v>1</v>
-      </c>
-      <c r="K65" s="5">
-        <v>11</v>
-      </c>
-      <c r="L65" s="5">
-        <v>5</v>
-      </c>
-      <c r="M65" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N65" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O65" s="5">
-        <v>30</v>
-      </c>
-      <c r="P65" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R65" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S65" s="5">
-        <v>1</v>
-      </c>
-      <c r="T65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U65" s="5">
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>11</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>10000</v>
+      </c>
+      <c r="N65">
+        <v>10000</v>
+      </c>
+      <c r="O65">
+        <v>30</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>2.5</v>
+      </c>
+      <c r="R65" t="b">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s">
+        <v>59</v>
+      </c>
+      <c r="U65">
         <v>64</v>
       </c>
-      <c r="V65" s="5">
+      <c r="V65">
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
-      <c r="W65" s="5">
+      <c r="W65">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="7">
+      <c r="E66">
         <f t="shared" si="0"/>
         <v>172950.54088082444</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66">
         <v>3</v>
       </c>
-      <c r="G66" s="9">
-        <f t="shared" si="1"/>
-        <v>446557260957.30017</v>
-      </c>
-      <c r="H66" s="8">
+      <c r="G66">
+        <f t="shared" si="8"/>
+        <v>294623629816.099</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="2"/>
         <v>10893.406266669514</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66">
         <f t="shared" si="3"/>
         <v>68736318052</v>
       </c>
-      <c r="J66" s="5">
-        <v>1</v>
-      </c>
-      <c r="K66" s="5">
-        <v>11</v>
-      </c>
-      <c r="L66" s="5">
-        <v>5</v>
-      </c>
-      <c r="M66" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N66" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O66" s="5">
-        <v>30</v>
-      </c>
-      <c r="P66" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R66" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S66" s="5">
-        <v>1</v>
-      </c>
-      <c r="T66" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U66" s="5">
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>11</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+      <c r="M66">
+        <v>10000</v>
+      </c>
+      <c r="N66">
+        <v>10000</v>
+      </c>
+      <c r="O66">
+        <v>30</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>2.5</v>
+      </c>
+      <c r="R66" t="b">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s">
+        <v>59</v>
+      </c>
+      <c r="U66">
         <v>65</v>
       </c>
-      <c r="V66" s="5">
+      <c r="V66">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="W66" s="5">
+      <c r="W66">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="7">
-        <f t="shared" ref="E67:E91" si="5">A67^2.9</f>
+      <c r="E67">
+        <f t="shared" ref="E67:E91" si="9">A67^2.9</f>
         <v>180904.23515627053</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67">
         <v>3</v>
       </c>
-      <c r="G67" s="9">
-        <f t="shared" ref="G67:G91" si="6">A67^6.45+A67^4+100*A67+100</f>
-        <v>493522394981.77332</v>
-      </c>
-      <c r="H67" s="8">
-        <f t="shared" ref="H67:H91" si="7">A67^2.15+50+50*A67</f>
+      <c r="G67">
+        <f t="shared" si="8"/>
+        <v>325105015892.41107</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H91" si="10">A67^2.15+50+50*A67</f>
         <v>11202.485666346649</v>
       </c>
-      <c r="I67" s="5">
-        <f t="shared" ref="I67:I91" si="8">A67^6+A67^4+1000*A67+100</f>
+      <c r="I67">
+        <f t="shared" ref="I67:I91" si="11">A67^6+A67^4+1000*A67+100</f>
         <v>75436806350</v>
       </c>
-      <c r="J67" s="5">
-        <v>1</v>
-      </c>
-      <c r="K67" s="5">
-        <v>11</v>
-      </c>
-      <c r="L67" s="5">
-        <v>5</v>
-      </c>
-      <c r="M67" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N67" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O67" s="5">
-        <v>30</v>
-      </c>
-      <c r="P67" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R67" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S67" s="5">
-        <v>1</v>
-      </c>
-      <c r="T67" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U67" s="5">
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>11</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>10000</v>
+      </c>
+      <c r="N67">
+        <v>10000</v>
+      </c>
+      <c r="O67">
+        <v>30</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2.5</v>
+      </c>
+      <c r="R67" t="b">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s">
+        <v>59</v>
+      </c>
+      <c r="U67">
         <v>66</v>
       </c>
-      <c r="V67" s="5">
-        <f t="shared" ref="V67:V91" si="9">10+A67</f>
+      <c r="V67">
+        <f t="shared" ref="V67:V91" si="12">10+A67</f>
         <v>75</v>
       </c>
-      <c r="W67" s="5">
+      <c r="W67">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="7">
-        <f t="shared" si="5"/>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="9"/>
         <v>189093.85382609314</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68">
         <v>3</v>
       </c>
-      <c r="G68" s="9">
-        <f t="shared" si="6"/>
-        <v>544594839245.55835</v>
-      </c>
-      <c r="H68" s="8">
-        <f t="shared" si="7"/>
+      <c r="G68">
+        <f t="shared" si="8"/>
+        <v>358201174071.23669</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="10"/>
         <v>11516.189645117673</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68">
+        <f t="shared" si="11"/>
+        <v>82672990852</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>11</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>10000</v>
+      </c>
+      <c r="N68">
+        <v>10000</v>
+      </c>
+      <c r="O68">
+        <v>30</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>2.5</v>
+      </c>
+      <c r="R68" t="b">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s">
+        <v>59</v>
+      </c>
+      <c r="U68">
+        <v>67</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="W68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="9"/>
+        <v>197522.6610497802</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="8"/>
-        <v>82672990852</v>
-      </c>
-      <c r="J68" s="5">
-        <v>1</v>
-      </c>
-      <c r="K68" s="5">
-        <v>11</v>
-      </c>
-      <c r="L68" s="5">
-        <v>5</v>
-      </c>
-      <c r="M68" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N68" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O68" s="5">
-        <v>30</v>
-      </c>
-      <c r="P68" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R68" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S68" s="5">
+        <v>394091630836.91382</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="10"/>
+        <v>11834.528806314473</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="11"/>
+        <v>90478600390</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>11</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>10000</v>
+      </c>
+      <c r="N69">
+        <v>10000</v>
+      </c>
+      <c r="O69">
+        <v>30</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>2.5</v>
+      </c>
+      <c r="R69" t="b">
+        <v>0</v>
+      </c>
+      <c r="S69">
         <v>2</v>
       </c>
-      <c r="T68" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U68" s="5">
-        <v>67</v>
-      </c>
-      <c r="V68" s="5">
+      <c r="T69" t="s">
+        <v>59</v>
+      </c>
+      <c r="U69">
+        <v>68</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="W69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="W68" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
-        <v>67</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="6" t="s">
+        <v>206193.91604446189</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>432965259058.38196</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="10"/>
+        <v>12157.513617569526</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="11"/>
+        <v>98888932100</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>11</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>10000</v>
+      </c>
+      <c r="N70">
+        <v>10000</v>
+      </c>
+      <c r="O70">
+        <v>30</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>2.5</v>
+      </c>
+      <c r="R70" t="b">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s">
+        <v>59</v>
+      </c>
+      <c r="U70">
+        <v>69</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="W70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="9"/>
+        <v>215110.87316600379</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="8"/>
+        <v>475020614150.95105</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="10"/>
+        <v>12485.154414539895</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="11"/>
+        <v>107940899302</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>11</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>10000</v>
+      </c>
+      <c r="N71">
+        <v>10000</v>
+      </c>
+      <c r="O71">
+        <v>30</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2.5</v>
+      </c>
+      <c r="R71" t="b">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s">
+        <v>59</v>
+      </c>
+      <c r="U71">
+        <v>70</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="W71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="7">
-        <f t="shared" si="5"/>
-        <v>197522.6610497802</v>
-      </c>
-      <c r="F69" s="5">
+      <c r="E72">
+        <f t="shared" si="9"/>
+        <v>224276.78198760346</v>
+      </c>
+      <c r="F72">
         <v>3</v>
       </c>
-      <c r="G69" s="9">
-        <f t="shared" si="6"/>
-        <v>600063301217.54822</v>
-      </c>
-      <c r="H69" s="8">
-        <f t="shared" si="7"/>
-        <v>11834.528806314473</v>
-      </c>
-      <c r="I69" s="5">
+      <c r="G72">
         <f t="shared" si="8"/>
-        <v>90478600390</v>
-      </c>
-      <c r="J69" s="5">
-        <v>1</v>
-      </c>
-      <c r="K69" s="5">
-        <v>11</v>
-      </c>
-      <c r="L69" s="5">
-        <v>5</v>
-      </c>
-      <c r="M69" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N69" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O69" s="5">
-        <v>30</v>
-      </c>
-      <c r="P69" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R69" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S69" s="5">
-        <v>2</v>
-      </c>
-      <c r="T69" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U69" s="5">
-        <v>68</v>
-      </c>
-      <c r="V69" s="5">
+        <v>520466277080.08423</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="10"/>
+        <v>12817.461404475967</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="11"/>
+        <v>117673080100</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>11</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>10000</v>
+      </c>
+      <c r="N72">
+        <v>10000</v>
+      </c>
+      <c r="O72">
+        <v>30</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2.5</v>
+      </c>
+      <c r="R72" t="b">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s">
+        <v>59</v>
+      </c>
+      <c r="U72">
+        <v>71</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="W72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="W69" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A70" s="5">
-        <v>68</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="6" t="s">
+        <v>233694.88737598748</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>569521204242.76672</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="10"/>
+        <v>13154.444669643712</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="11"/>
+        <v>128125766702</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>11</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>10000</v>
+      </c>
+      <c r="N73">
+        <v>10000</v>
+      </c>
+      <c r="O73">
+        <v>30</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2.5</v>
+      </c>
+      <c r="R73" t="b">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s">
+        <v>59</v>
+      </c>
+      <c r="U73">
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="W73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="9"/>
+        <v>243368.4295653305</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>622415084261.70117</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="10"/>
+        <v>13496.114170608449</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="11"/>
+        <v>139341015460</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>11</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>10000</v>
+      </c>
+      <c r="N74">
+        <v>10000</v>
+      </c>
+      <c r="O74">
+        <v>30</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2.5</v>
+      </c>
+      <c r="R74" t="b">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s">
+        <v>59</v>
+      </c>
+      <c r="U74">
+        <v>73</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="W74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="9"/>
+        <v>253300.64422898469</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>679388701727.19885</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="10"/>
+        <v>13842.479749387447</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="11"/>
+        <v>151362697630</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>11</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>10000</v>
+      </c>
+      <c r="N75">
+        <v>10000</v>
+      </c>
+      <c r="O75">
+        <v>30</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2.5</v>
+      </c>
+      <c r="R75" t="b">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s">
+        <v>59</v>
+      </c>
+      <c r="U75">
+        <v>74</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="12"/>
+        <v>83</v>
+      </c>
+      <c r="W75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="7">
-        <f t="shared" si="5"/>
-        <v>206193.91604446189</v>
-      </c>
-      <c r="F70" s="5">
+      <c r="E76">
+        <f t="shared" si="9"/>
+        <v>263494.76254912175</v>
+      </c>
+      <c r="F76">
         <v>3</v>
       </c>
-      <c r="G70" s="9">
-        <f t="shared" si="6"/>
-        <v>660231979302.81006</v>
-      </c>
-      <c r="H70" s="8">
-        <f t="shared" si="7"/>
-        <v>12157.513617569526</v>
-      </c>
-      <c r="I70" s="5">
+      <c r="G76">
         <f t="shared" si="8"/>
-        <v>98888932100</v>
-      </c>
-      <c r="J70" s="5">
-        <v>1</v>
-      </c>
-      <c r="K70" s="5">
-        <v>11</v>
-      </c>
-      <c r="L70" s="5">
-        <v>5</v>
-      </c>
-      <c r="M70" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N70" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O70" s="5">
-        <v>30</v>
-      </c>
-      <c r="P70" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R70" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S70" s="5">
-        <v>2</v>
-      </c>
-      <c r="T70" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U70" s="5">
-        <v>69</v>
-      </c>
-      <c r="V70" s="5">
-        <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="W70" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="5">
-        <v>69</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="7">
-        <f t="shared" si="5"/>
-        <v>215110.87316600379</v>
-      </c>
-      <c r="F71" s="5">
-        <v>3</v>
-      </c>
-      <c r="G71" s="9">
-        <f t="shared" si="6"/>
-        <v>725421144150.36401</v>
-      </c>
-      <c r="H71" s="8">
-        <f t="shared" si="7"/>
-        <v>12485.154414539895</v>
-      </c>
-      <c r="I71" s="5">
-        <f t="shared" si="8"/>
-        <v>107940899302</v>
-      </c>
-      <c r="J71" s="5">
-        <v>1</v>
-      </c>
-      <c r="K71" s="5">
-        <v>11</v>
-      </c>
-      <c r="L71" s="5">
-        <v>5</v>
-      </c>
-      <c r="M71" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N71" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O71" s="5">
-        <v>30</v>
-      </c>
-      <c r="P71" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R71" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S71" s="5">
-        <v>3</v>
-      </c>
-      <c r="T71" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U71" s="5">
-        <v>70</v>
-      </c>
-      <c r="V71" s="5">
-        <f t="shared" si="9"/>
-        <v>79</v>
-      </c>
-      <c r="W71" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="5">
-        <v>70</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="7">
-        <f t="shared" si="5"/>
-        <v>224276.78198760346</v>
-      </c>
-      <c r="F72" s="5">
-        <v>3</v>
-      </c>
-      <c r="G72" s="9">
-        <f t="shared" si="6"/>
-        <v>795967732678.35266</v>
-      </c>
-      <c r="H72" s="8">
-        <f t="shared" si="7"/>
-        <v>12817.461404475967</v>
-      </c>
-      <c r="I72" s="5">
-        <f t="shared" si="8"/>
-        <v>117673080100</v>
-      </c>
-      <c r="J72" s="5">
-        <v>1</v>
-      </c>
-      <c r="K72" s="5">
-        <v>11</v>
-      </c>
-      <c r="L72" s="5">
-        <v>5</v>
-      </c>
-      <c r="M72" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N72" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O72" s="5">
-        <v>30</v>
-      </c>
-      <c r="P72" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R72" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S72" s="5">
-        <v>3</v>
-      </c>
-      <c r="T72" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U72" s="5">
-        <v>71</v>
-      </c>
-      <c r="V72" s="5">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="W72" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
-        <v>71</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="7">
-        <f t="shared" si="5"/>
-        <v>233694.88737598748</v>
-      </c>
-      <c r="F73" s="5">
-        <v>3</v>
-      </c>
-      <c r="G73" s="9">
-        <f t="shared" si="6"/>
-        <v>872225954901.62646</v>
-      </c>
-      <c r="H73" s="8">
-        <f t="shared" si="7"/>
-        <v>13154.444669643712</v>
-      </c>
-      <c r="I73" s="5">
-        <f t="shared" si="8"/>
-        <v>128125766702</v>
-      </c>
-      <c r="J73" s="5">
-        <v>1</v>
-      </c>
-      <c r="K73" s="5">
-        <v>11</v>
-      </c>
-      <c r="L73" s="5">
-        <v>5</v>
-      </c>
-      <c r="M73" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N73" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O73" s="5">
-        <v>30</v>
-      </c>
-      <c r="P73" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R73" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S73" s="5">
-        <v>3</v>
-      </c>
-      <c r="T73" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U73" s="5">
-        <v>72</v>
-      </c>
-      <c r="V73" s="5">
-        <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="W73" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="5">
-        <v>72</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="7">
-        <f t="shared" si="5"/>
-        <v>243368.4295653305</v>
-      </c>
-      <c r="F74" s="5">
-        <v>3</v>
-      </c>
-      <c r="G74" s="9">
-        <f t="shared" si="6"/>
-        <v>954567913646.15015</v>
-      </c>
-      <c r="H74" s="8">
-        <f t="shared" si="7"/>
-        <v>13496.114170608449</v>
-      </c>
-      <c r="I74" s="5">
-        <f t="shared" si="8"/>
-        <v>139341015460</v>
-      </c>
-      <c r="J74" s="5">
-        <v>1</v>
-      </c>
-      <c r="K74" s="5">
-        <v>11</v>
-      </c>
-      <c r="L74" s="5">
-        <v>5</v>
-      </c>
-      <c r="M74" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N74" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O74" s="5">
-        <v>30</v>
-      </c>
-      <c r="P74" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R74" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S74" s="5">
+        <v>740694307921.41516</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="10"/>
+        <v>14193.551132478618</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="11"/>
+        <v>164236550852</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>11</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>10000</v>
+      </c>
+      <c r="N76">
+        <v>10000</v>
+      </c>
+      <c r="O76">
+        <v>30</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2.5</v>
+      </c>
+      <c r="R76" t="b">
+        <v>0</v>
+      </c>
+      <c r="S76">
         <v>4</v>
       </c>
-      <c r="T74" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U74" s="5">
-        <v>73</v>
-      </c>
-      <c r="V74" s="5">
-        <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="W74" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A75" s="5">
-        <v>73</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="7">
-        <f t="shared" si="5"/>
-        <v>253300.64422898469</v>
-      </c>
-      <c r="F75" s="5">
-        <v>3</v>
-      </c>
-      <c r="G75" s="9">
-        <f t="shared" si="6"/>
-        <v>1043384237233.9595</v>
-      </c>
-      <c r="H75" s="8">
-        <f t="shared" si="7"/>
-        <v>13842.479749387447</v>
-      </c>
-      <c r="I75" s="5">
-        <f t="shared" si="8"/>
-        <v>151362697630</v>
-      </c>
-      <c r="J75" s="5">
-        <v>1</v>
-      </c>
-      <c r="K75" s="5">
-        <v>11</v>
-      </c>
-      <c r="L75" s="5">
-        <v>5</v>
-      </c>
-      <c r="M75" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N75" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O75" s="5">
-        <v>30</v>
-      </c>
-      <c r="P75" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R75" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S75" s="5">
-        <v>4</v>
-      </c>
-      <c r="T75" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U75" s="5">
-        <v>74</v>
-      </c>
-      <c r="V75" s="5">
-        <f t="shared" si="9"/>
-        <v>83</v>
-      </c>
-      <c r="W75" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
-        <v>74</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="7">
-        <f t="shared" si="5"/>
-        <v>263494.76254912175</v>
-      </c>
-      <c r="F76" s="5">
-        <v>3</v>
-      </c>
-      <c r="G76" s="9">
-        <f t="shared" si="6"/>
-        <v>1139084725221.7219</v>
-      </c>
-      <c r="H76" s="8">
-        <f t="shared" si="7"/>
-        <v>14193.551132478618</v>
-      </c>
-      <c r="I76" s="5">
-        <f t="shared" si="8"/>
-        <v>164236550852</v>
-      </c>
-      <c r="J76" s="5">
-        <v>1</v>
-      </c>
-      <c r="K76" s="5">
-        <v>11</v>
-      </c>
-      <c r="L76" s="5">
-        <v>5</v>
-      </c>
-      <c r="M76" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N76" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O76" s="5">
-        <v>30</v>
-      </c>
-      <c r="P76" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R76" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S76" s="5">
-        <v>4</v>
-      </c>
-      <c r="T76" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U76" s="5">
+      <c r="T76" t="s">
+        <v>59</v>
+      </c>
+      <c r="U76">
         <v>75</v>
       </c>
-      <c r="V76" s="5">
-        <f t="shared" si="9"/>
+      <c r="V76">
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="W76" s="5">
+      <c r="W76">
         <v>5</v>
       </c>
     </row>
@@ -6627,22 +6584,22 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>273954.01128436648</v>
       </c>
       <c r="F77" s="5">
         <v>4</v>
       </c>
       <c r="G77" s="9">
-        <f t="shared" si="6"/>
-        <v>1242099007275.2715</v>
+        <f>A77^6.4+A77^4+100*A77+100</f>
+        <v>1000934866585.0903</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14549.337933771378</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>178010231350</v>
       </c>
       <c r="J77" s="5">
@@ -6682,7 +6639,7 @@
         <v>76</v>
       </c>
       <c r="V77" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="W77" s="5">
@@ -6701,22 +6658,22 @@
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>284681.61283552332</v>
       </c>
       <c r="F78" s="5">
         <v>4</v>
       </c>
       <c r="G78" s="9">
-        <f t="shared" si="6"/>
-        <v>1352877215262.0776</v>
+        <f t="shared" ref="G78:G91" si="13">A78^6.4+A78^4+100*A78+100</f>
+        <v>1089482585652.9373</v>
       </c>
       <c r="H78" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14909.849657346345</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>192733366852</v>
       </c>
       <c r="J78" s="5">
@@ -6756,7 +6713,7 @@
         <v>77</v>
       </c>
       <c r="V78" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="W78" s="5">
@@ -6775,22 +6732,22 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>295680.78530944901</v>
       </c>
       <c r="F79" s="5">
         <v>4</v>
       </c>
       <c r="G79" s="9">
-        <f t="shared" si="6"/>
-        <v>1471890668642.5298</v>
+        <f t="shared" si="13"/>
+        <v>1184550369111.1909</v>
       </c>
       <c r="H79" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15275.095700168886</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>208457610230</v>
       </c>
       <c r="J79" s="5">
@@ -6830,7 +6787,7 @@
         <v>78</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="W79" s="5">
@@ -6849,22 +6806,22 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>306954.74258117168</v>
       </c>
       <c r="F80" s="5">
         <v>4</v>
       </c>
       <c r="G80" s="9">
-        <f t="shared" si="6"/>
-        <v>1599632573240.9675</v>
+        <f t="shared" si="13"/>
+        <v>1286524186509.813</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15645.085354682449</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>225236693860</v>
       </c>
       <c r="J80" s="5">
@@ -6904,7 +6861,7 @@
         <v>79</v>
       </c>
       <c r="V80" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="W80" s="5">
@@ -6923,22 +6880,22 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>318506.69435431337</v>
       </c>
       <c r="F81" s="5">
         <v>4</v>
       </c>
       <c r="G81" s="9">
-        <f t="shared" si="6"/>
-        <v>1736618733476.156</v>
+        <f t="shared" si="13"/>
+        <v>1395807430468.8464</v>
       </c>
       <c r="H81" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16019.827811306393</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>243126484702</v>
       </c>
       <c r="J81" s="5">
@@ -6978,7 +6935,7 @@
         <v>80</v>
       </c>
       <c r="V81" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="W81" s="5">
@@ -6997,22 +6954,22 @@
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>330339.84621988621</v>
       </c>
       <c r="F82" s="5">
         <v>4</v>
       </c>
       <c r="G82" s="9">
-        <f t="shared" si="6"/>
-        <v>1883388278130.7815</v>
+        <f t="shared" si="13"/>
+        <v>1512821464636.5583</v>
       </c>
       <c r="H82" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16399.332160842801</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>262185040100</v>
       </c>
       <c r="J82" s="5">
@@ -7052,7 +7009,7 @@
         <v>81</v>
       </c>
       <c r="V82" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="W82" s="5">
@@ -7071,22 +7028,22 @@
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>342457.39971352724</v>
       </c>
       <c r="F83" s="5">
         <v>4</v>
       </c>
       <c r="G83" s="9">
-        <f t="shared" si="6"/>
-        <v>2040504399738.792</v>
+        <f t="shared" si="13"/>
+        <v>1638006181571.4167</v>
       </c>
       <c r="H83" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16783.607396797306</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>282472664302</v>
       </c>
       <c r="J83" s="5">
@@ -7126,7 +7083,7 @@
         <v>82</v>
       </c>
       <c r="V83" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="W83" s="5">
@@ -7145,22 +7102,22 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>354862.55237122771</v>
       </c>
       <c r="F84" s="5">
         <v>4</v>
       </c>
       <c r="G84" s="9">
-        <f t="shared" si="6"/>
-        <v>2208555107668.7119</v>
+        <f t="shared" si="13"/>
+        <v>1771820570598.4678</v>
       </c>
       <c r="H84" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>17172.662417617168</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>304051965700</v>
       </c>
       <c r="J84" s="5">
@@ -7200,7 +7157,7 @@
         <v>83</v>
       </c>
       <c r="V84" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="W84" s="5">
@@ -7219,22 +7176,22 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>367558.49778362713</v>
       </c>
       <c r="F85" s="5">
         <v>4</v>
       </c>
       <c r="G85" s="9">
-        <f t="shared" si="6"/>
-        <v>2388153994981.0562</v>
+        <f t="shared" si="13"/>
+        <v>1914743295690.7161</v>
       </c>
       <c r="H85" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>17566.506028851596</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>326987914790</v>
       </c>
       <c r="J85" s="5">
@@ -7274,7 +7231,7 @@
         <v>84</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="W85" s="5">
@@ -7293,22 +7250,22 @@
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>380548.42564890615</v>
       </c>
       <c r="F86" s="5">
         <v>4</v>
       </c>
       <c r="G86" s="9">
-        <f t="shared" si="6"/>
-        <v>2579941019136.5747</v>
+        <f t="shared" si="13"/>
+        <v>2067273283425.0588</v>
       </c>
       <c r="H86" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>17965.14694523676</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>351347902852</v>
       </c>
       <c r="J86" s="5">
@@ -7348,7 +7305,7 @@
         <v>85</v>
       </c>
       <c r="V86" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="W86" s="5">
@@ -7367,22 +7324,22 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>393835.52182435268</v>
       </c>
       <c r="F87" s="5">
         <v>4</v>
       </c>
       <c r="G87" s="9">
-        <f t="shared" si="6"/>
-        <v>2784583296632.4956</v>
+        <f t="shared" si="13"/>
+        <v>2229930321062.7461</v>
       </c>
       <c r="H87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>18368.593792710068</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>377201801350</v>
       </c>
       <c r="J87" s="5">
@@ -7422,7 +7379,7 @@
         <v>86</v>
       </c>
       <c r="V87" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="W87" s="5">
@@ -7441,22 +7398,22 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>407422.96837662853</v>
       </c>
       <c r="F88" s="5">
         <v>4</v>
       </c>
       <c r="G88" s="9">
-        <f t="shared" si="6"/>
-        <v>3002775911642.4243</v>
+        <f t="shared" si="13"/>
+        <v>2403255664803.1401</v>
       </c>
       <c r="H88" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>18776.855110356017</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>404622022052</v>
       </c>
       <c r="J88" s="5">
@@ -7496,7 +7453,7 @@
         <v>87</v>
       </c>
       <c r="V88" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="W88" s="5">
@@ -7515,22 +7472,22 @@
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>421313.94363080681</v>
       </c>
       <c r="F89" s="5">
         <v>4</v>
       </c>
       <c r="G89" s="9">
-        <f t="shared" si="6"/>
-        <v>3235242738736.312</v>
+        <f t="shared" si="13"/>
+        <v>2587812658260.1812</v>
       </c>
       <c r="H89" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>19189.939352287445</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>433683577870</v>
       </c>
       <c r="J89" s="5">
@@ -7570,7 +7527,7 @@
         <v>88</v>
       </c>
       <c r="V89" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="W89" s="5">
@@ -7589,22 +7546,22 @@
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>435511.62221820076</v>
       </c>
       <c r="F90" s="5">
         <v>4</v>
       </c>
       <c r="G90" s="9">
-        <f t="shared" si="6"/>
-        <v>3482737279754.731</v>
+        <f t="shared" si="13"/>
+        <v>2784187361209.4263</v>
       </c>
       <c r="H90" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>19607.854889464626</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>464464144420</v>
       </c>
       <c r="J90" s="5">
@@ -7644,7 +7601,7 @@
         <v>89</v>
       </c>
       <c r="V90" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="W90" s="5">
@@ -7663,22 +7620,22 @@
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>450019.17512304336</v>
       </c>
       <c r="F91" s="5">
         <v>4</v>
       </c>
       <c r="G91" s="9">
-        <f t="shared" si="6"/>
-        <v>3746043514913.064</v>
+        <f t="shared" si="13"/>
+        <v>2992989188654.3779</v>
       </c>
       <c r="H91" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>20030.610011454803</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>497044122302</v>
       </c>
       <c r="J91" s="5">
@@ -7718,7 +7675,7 @@
         <v>90</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="W91" s="5">

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B96276-7685-438E-8EBB-4D16875E05C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6674304-99CC-4CEA-8943-9D4F6D70429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="4320" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77:G91"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1133,6 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <f>10+A2</f>
         <v>10</v>
       </c>
       <c r="W2">
@@ -1206,8 +1205,7 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V66" si="4">10+A3</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3">
         <v>5</v>
@@ -1279,8 +1277,7 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W4">
         <v>5</v>
@@ -1352,8 +1349,7 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W5">
         <v>5</v>
@@ -1425,8 +1421,7 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1498,8 +1493,7 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W7">
         <v>5</v>
@@ -1571,8 +1565,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="W8">
         <v>5</v>
@@ -1644,8 +1637,7 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="W9">
         <v>5</v>
@@ -1717,8 +1709,7 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="W10">
         <v>5</v>
@@ -1790,8 +1781,7 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="W11">
         <v>5</v>
@@ -1863,8 +1853,7 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W12">
         <v>5</v>
@@ -1936,8 +1925,7 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="W13">
         <v>5</v>
@@ -2009,8 +1997,7 @@
         <v>13</v>
       </c>
       <c r="V14">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="W14">
         <v>5</v>
@@ -2082,8 +2069,7 @@
         <v>14</v>
       </c>
       <c r="V15">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="W15">
         <v>5</v>
@@ -2155,8 +2141,7 @@
         <v>15</v>
       </c>
       <c r="V16">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="W16">
         <v>5</v>
@@ -2229,8 +2214,7 @@
         <v>16</v>
       </c>
       <c r="V17" s="5">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="W17" s="5">
         <v>5</v>
@@ -2255,7 +2239,7 @@
         <v>1.5</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" ref="G18:G31" si="5">A18^6.1+A18^4+100*A18+100</f>
+        <f t="shared" ref="G18:G31" si="4">A18^6.1+A18^4+100*A18+100</f>
         <v>22204905.232745543</v>
       </c>
       <c r="H18" s="8">
@@ -2303,8 +2287,7 @@
         <v>17</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" si="4"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="W18" s="5">
         <v>5</v>
@@ -2329,7 +2312,7 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32128708.402307235</v>
       </c>
       <c r="H19" s="8">
@@ -2377,8 +2360,7 @@
         <v>18</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="4"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="W19" s="5">
         <v>5</v>
@@ -2403,7 +2385,7 @@
         <v>1.5</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45518003.09438619</v>
       </c>
       <c r="H20" s="8">
@@ -2451,8 +2433,7 @@
         <v>19</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="W20" s="5">
         <v>5</v>
@@ -2477,7 +2458,7 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63285754.315984607</v>
       </c>
       <c r="H21" s="8">
@@ -2525,8 +2506,7 @@
         <v>20</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="4"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W21" s="5">
         <v>5</v>
@@ -2551,7 +2531,7 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>86516202.251107752</v>
       </c>
       <c r="H22" s="8">
@@ -2599,8 +2579,7 @@
         <v>21</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W22" s="5">
         <v>5</v>
@@ -2625,7 +2604,7 @@
         <v>1.5</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>116485429.82443906</v>
       </c>
       <c r="H23" s="8">
@@ -2673,8 +2652,7 @@
         <v>22</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="4"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="W23" s="5">
         <v>5</v>
@@ -2699,7 +2677,7 @@
         <v>1.5</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>154683156.30824435</v>
       </c>
       <c r="H24" s="8">
@@ -2747,8 +2725,7 @@
         <v>23</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="W24" s="5">
         <v>5</v>
@@ -2773,7 +2750,7 @@
         <v>1.5</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>202835763.28495783</v>
       </c>
       <c r="H25" s="8">
@@ -2821,8 +2798,7 @@
         <v>24</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="W25" s="5">
         <v>5</v>
@@ -2847,7 +2823,7 @@
         <v>1.5</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>262930558.99932846</v>
       </c>
       <c r="H26" s="8">
@@ -2895,8 +2871,7 @@
         <v>25</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="W26" s="5">
         <v>5</v>
@@ -2921,7 +2896,7 @@
         <v>1.5</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>337241286.88017869</v>
       </c>
       <c r="H27" s="8">
@@ -2969,8 +2944,7 @@
         <v>26</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="W27" s="5">
         <v>5</v>
@@ -2995,7 +2969,7 @@
         <v>1.5</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>428354883.77961051</v>
       </c>
       <c r="H28" s="8">
@@ -3043,8 +3017,7 @@
         <v>27</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="W28" s="5">
         <v>5</v>
@@ -3069,7 +3042,7 @@
         <v>1.5</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>539199493.264094</v>
       </c>
       <c r="H29" s="8">
@@ -3117,8 +3090,7 @@
         <v>28</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="W29" s="5">
         <v>5</v>
@@ -3143,7 +3115,7 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>673073739.09516191</v>
       </c>
       <c r="H30" s="8">
@@ -3191,8 +3163,7 @@
         <v>29</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W30" s="5">
         <v>5</v>
@@ -3217,7 +3188,7 @@
         <v>1.5</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>833677263.8554076</v>
       </c>
       <c r="H31" s="8">
@@ -3265,8 +3236,7 @@
         <v>30</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="W31" s="5">
         <v>5</v>
@@ -3338,8 +3308,7 @@
         <v>31</v>
       </c>
       <c r="V32">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="W32">
         <v>5</v>
@@ -3363,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G46" si="6">A33^6.2+A33^4+100*A33+100</f>
+        <f t="shared" ref="G33:G46" si="5">A33^6.2+A33^4+100*A33+100</f>
         <v>1764698956.1660249</v>
       </c>
       <c r="H33">
@@ -3411,8 +3380,7 @@
         <v>32</v>
       </c>
       <c r="V33">
-        <f t="shared" si="4"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="W33">
         <v>5</v>
@@ -3436,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2148535524.0000019</v>
       </c>
       <c r="H34">
@@ -3484,8 +3452,7 @@
         <v>33</v>
       </c>
       <c r="V34">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W34">
         <v>5</v>
@@ -3509,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2600070519.4915085</v>
       </c>
       <c r="H35">
@@ -3557,8 +3524,7 @@
         <v>34</v>
       </c>
       <c r="V35">
-        <f t="shared" si="4"/>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="W35">
         <v>5</v>
@@ -3582,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3128637969.6298065</v>
       </c>
       <c r="H36">
@@ -3630,8 +3596,7 @@
         <v>35</v>
       </c>
       <c r="V36">
-        <f t="shared" si="4"/>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="W36">
         <v>5</v>
@@ -3655,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3744521874.6552873</v>
       </c>
       <c r="H37">
@@ -3703,8 +3668,7 @@
         <v>36</v>
       </c>
       <c r="V37">
-        <f t="shared" si="4"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="W37">
         <v>5</v>
@@ -3728,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4459020668.0300045</v>
       </c>
       <c r="H38">
@@ -3776,8 +3740,7 @@
         <v>37</v>
       </c>
       <c r="V38">
-        <f t="shared" si="4"/>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="W38">
         <v>5</v>
@@ -3801,7 +3764,7 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5284513992.0904589</v>
       </c>
       <c r="H39">
@@ -3849,8 +3812,7 @@
         <v>38</v>
       </c>
       <c r="V39">
-        <f t="shared" si="4"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="W39">
         <v>5</v>
@@ -3874,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6234531802.8513393</v>
       </c>
       <c r="H40">
@@ -3922,8 +3884,7 @@
         <v>39</v>
       </c>
       <c r="V40">
-        <f t="shared" si="4"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W40">
         <v>5</v>
@@ -3947,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7323825817.1245699</v>
       </c>
       <c r="H41">
@@ -3995,8 +3956,7 @@
         <v>40</v>
       </c>
       <c r="V41">
-        <f t="shared" si="4"/>
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="W41">
         <v>5</v>
@@ -4020,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8568443314.8276997</v>
       </c>
       <c r="H42">
@@ -4068,8 +4028,7 @@
         <v>41</v>
       </c>
       <c r="V42">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W42">
         <v>5</v>
@@ -4093,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9985803309.081152</v>
       </c>
       <c r="H43">
@@ -4141,8 +4100,7 @@
         <v>42</v>
       </c>
       <c r="V43">
-        <f t="shared" si="4"/>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="W43">
         <v>5</v>
@@ -4166,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11594775096.429832</v>
       </c>
       <c r="H44">
@@ -4214,8 +4172,7 @@
         <v>43</v>
       </c>
       <c r="V44">
-        <f t="shared" si="4"/>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="W44">
         <v>5</v>
@@ -4239,7 +4196,7 @@
         <v>2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13415759199.275536</v>
       </c>
       <c r="H45">
@@ -4287,8 +4244,7 @@
         <v>44</v>
       </c>
       <c r="V45">
-        <f t="shared" si="4"/>
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="W45">
         <v>5</v>
@@ -4312,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15470770712.365486</v>
       </c>
       <c r="H46">
@@ -4360,8 +4316,7 @@
         <v>45</v>
       </c>
       <c r="V46">
-        <f t="shared" si="4"/>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="W46">
         <v>5</v>
@@ -4434,8 +4389,7 @@
         <v>46</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" si="4"/>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="W47" s="5">
         <v>5</v>
@@ -4460,7 +4414,7 @@
         <v>2.5</v>
       </c>
       <c r="G48" s="9">
-        <f t="shared" ref="G48:G61" si="7">A48^6.3+A48^4+100*A48+100</f>
+        <f t="shared" ref="G48:G61" si="6">A48^6.3+A48^4+100*A48+100</f>
         <v>29884051907.125313</v>
       </c>
       <c r="H48" s="8">
@@ -4508,8 +4462,7 @@
         <v>47</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="W48" s="5">
         <v>5</v>
@@ -4534,7 +4487,7 @@
         <v>2.5</v>
       </c>
       <c r="G49" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>34219881381.890774</v>
       </c>
       <c r="H49" s="8">
@@ -4582,8 +4535,7 @@
         <v>48</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" si="4"/>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="W49" s="5">
         <v>5</v>
@@ -4608,7 +4560,7 @@
         <v>2.5</v>
       </c>
       <c r="G50" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>39073188852.897911</v>
       </c>
       <c r="H50" s="8">
@@ -4656,8 +4608,7 @@
         <v>49</v>
       </c>
       <c r="V50" s="5">
-        <f t="shared" si="4"/>
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="W50" s="5">
         <v>5</v>
@@ -4682,7 +4633,7 @@
         <v>2.5</v>
       </c>
       <c r="G51" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44492993548.461731</v>
       </c>
       <c r="H51" s="8">
@@ -4730,8 +4681,7 @@
         <v>50</v>
       </c>
       <c r="V51" s="5">
-        <f t="shared" si="4"/>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="W51" s="5">
         <v>5</v>
@@ -4756,7 +4706,7 @@
         <v>2.5</v>
       </c>
       <c r="G52" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>50531802488.855904</v>
       </c>
       <c r="H52" s="8">
@@ -4804,8 +4754,7 @@
         <v>51</v>
       </c>
       <c r="V52" s="5">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W52" s="5">
         <v>5</v>
@@ -4830,7 +4779,7 @@
         <v>2.5</v>
       </c>
       <c r="G53" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>57245779844.387543</v>
       </c>
       <c r="H53" s="8">
@@ -4878,8 +4827,7 @@
         <v>52</v>
       </c>
       <c r="V53" s="5">
-        <f t="shared" si="4"/>
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="W53" s="5">
         <v>5</v>
@@ -4904,7 +4852,7 @@
         <v>2.5</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>64694920846.701172</v>
       </c>
       <c r="H54" s="8">
@@ -4952,8 +4900,7 @@
         <v>53</v>
       </c>
       <c r="V54" s="5">
-        <f t="shared" si="4"/>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="W54" s="5">
         <v>5</v>
@@ -4978,7 +4925,7 @@
         <v>2.5</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>72943230280.994476</v>
       </c>
       <c r="H55" s="8">
@@ -5026,8 +4973,7 @@
         <v>54</v>
       </c>
       <c r="V55" s="5">
-        <f t="shared" si="4"/>
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="W55" s="5">
         <v>5</v>
@@ -5052,7 +4998,7 @@
         <v>2.5</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>82058905586.442444</v>
       </c>
       <c r="H56" s="8">
@@ -5100,8 +5046,7 @@
         <v>55</v>
       </c>
       <c r="V56" s="5">
-        <f t="shared" si="4"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="W56" s="5">
         <v>5</v>
@@ -5126,7 +5071,7 @@
         <v>2.5</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>92114524591.76091</v>
       </c>
       <c r="H57" s="8">
@@ -5174,8 +5119,7 @@
         <v>56</v>
       </c>
       <c r="V57" s="5">
-        <f t="shared" si="4"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="W57" s="5">
         <v>5</v>
@@ -5200,7 +5144,7 @@
         <v>2.5</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>103187237912.47118</v>
       </c>
       <c r="H58" s="8">
@@ -5248,8 +5192,7 @@
         <v>57</v>
       </c>
       <c r="V58" s="5">
-        <f t="shared" si="4"/>
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="W58" s="5">
         <v>5</v>
@@ -5274,7 +5217,7 @@
         <v>2.5</v>
       </c>
       <c r="G59" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>115358966036.08681</v>
       </c>
       <c r="H59" s="8">
@@ -5322,8 +5265,7 @@
         <v>58</v>
       </c>
       <c r="V59" s="5">
-        <f t="shared" si="4"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="W59" s="5">
         <v>5</v>
@@ -5348,7 +5290,7 @@
         <v>2.5</v>
       </c>
       <c r="G60" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>128716601121.10344</v>
       </c>
       <c r="H60" s="8">
@@ -5396,8 +5338,7 @@
         <v>59</v>
       </c>
       <c r="V60" s="5">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="W60" s="5">
         <v>5</v>
@@ -5422,7 +5363,7 @@
         <v>2.5</v>
       </c>
       <c r="G61" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>143352213535.34052</v>
       </c>
       <c r="H61" s="8">
@@ -5470,8 +5411,7 @@
         <v>60</v>
       </c>
       <c r="V61" s="5">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="W61" s="5">
         <v>5</v>
@@ -5543,8 +5483,7 @@
         <v>61</v>
       </c>
       <c r="V62">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="W62">
         <v>5</v>
@@ -5568,7 +5507,7 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:G76" si="8">A63^6.35+A63^4+100*A63+100</f>
+        <f t="shared" ref="G63:G76" si="7">A63^6.35+A63^4+100*A63+100</f>
         <v>217206166010.76517</v>
       </c>
       <c r="H63">
@@ -5616,8 +5555,7 @@
         <v>62</v>
       </c>
       <c r="V63">
-        <f t="shared" si="4"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="W63">
         <v>5</v>
@@ -5641,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>240831830592.42981</v>
       </c>
       <c r="H64">
@@ -5689,8 +5627,7 @@
         <v>63</v>
       </c>
       <c r="V64">
-        <f t="shared" si="4"/>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="W64">
         <v>5</v>
@@ -5714,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>266586506386.88736</v>
       </c>
       <c r="H65">
@@ -5762,8 +5699,7 @@
         <v>64</v>
       </c>
       <c r="V65">
-        <f t="shared" si="4"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="W65">
         <v>5</v>
@@ -5787,7 +5723,7 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>294623629816.099</v>
       </c>
       <c r="H66">
@@ -5835,8 +5771,7 @@
         <v>65</v>
       </c>
       <c r="V66">
-        <f t="shared" si="4"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="W66">
         <v>5</v>
@@ -5853,22 +5788,22 @@
         <v>32</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E91" si="9">A67^2.9</f>
+        <f t="shared" ref="E67:E91" si="8">A67^2.9</f>
         <v>180904.23515627053</v>
       </c>
       <c r="F67">
         <v>3</v>
       </c>
       <c r="G67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>325105015892.41107</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H91" si="10">A67^2.15+50+50*A67</f>
+        <f t="shared" ref="H67:H91" si="9">A67^2.15+50+50*A67</f>
         <v>11202.485666346649</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I91" si="11">A67^6+A67^4+1000*A67+100</f>
+        <f t="shared" ref="I67:I91" si="10">A67^6+A67^4+1000*A67+100</f>
         <v>75436806350</v>
       </c>
       <c r="J67">
@@ -5908,8 +5843,7 @@
         <v>66</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V91" si="12">10+A67</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="W67">
         <v>5</v>
@@ -5926,22 +5860,22 @@
         <v>30</v>
       </c>
       <c r="E68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>189093.85382609314</v>
       </c>
       <c r="F68">
         <v>3</v>
       </c>
       <c r="G68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>358201174071.23669</v>
       </c>
       <c r="H68">
+        <f t="shared" si="9"/>
+        <v>11516.189645117673</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="10"/>
-        <v>11516.189645117673</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="11"/>
         <v>82672990852</v>
       </c>
       <c r="J68">
@@ -5981,8 +5915,7 @@
         <v>67</v>
       </c>
       <c r="V68">
-        <f t="shared" si="12"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="W68">
         <v>5</v>
@@ -5999,22 +5932,22 @@
         <v>31</v>
       </c>
       <c r="E69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>197522.6610497802</v>
       </c>
       <c r="F69">
         <v>3</v>
       </c>
       <c r="G69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>394091630836.91382</v>
       </c>
       <c r="H69">
+        <f t="shared" si="9"/>
+        <v>11834.528806314473</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="10"/>
-        <v>11834.528806314473</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="11"/>
         <v>90478600390</v>
       </c>
       <c r="J69">
@@ -6054,8 +5987,7 @@
         <v>68</v>
       </c>
       <c r="V69">
-        <f t="shared" si="12"/>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="W69">
         <v>5</v>
@@ -6072,22 +6004,22 @@
         <v>32</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>206193.91604446189</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>432965259058.38196</v>
       </c>
       <c r="H70">
+        <f t="shared" si="9"/>
+        <v>12157.513617569526</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="10"/>
-        <v>12157.513617569526</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="11"/>
         <v>98888932100</v>
       </c>
       <c r="J70">
@@ -6127,8 +6059,7 @@
         <v>69</v>
       </c>
       <c r="V70">
-        <f t="shared" si="12"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="W70">
         <v>5</v>
@@ -6145,22 +6076,22 @@
         <v>30</v>
       </c>
       <c r="E71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>215110.87316600379</v>
       </c>
       <c r="F71">
         <v>3</v>
       </c>
       <c r="G71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>475020614150.95105</v>
       </c>
       <c r="H71">
+        <f t="shared" si="9"/>
+        <v>12485.154414539895</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="10"/>
-        <v>12485.154414539895</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="11"/>
         <v>107940899302</v>
       </c>
       <c r="J71">
@@ -6200,8 +6131,7 @@
         <v>70</v>
       </c>
       <c r="V71">
-        <f t="shared" si="12"/>
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="W71">
         <v>5</v>
@@ -6218,22 +6148,22 @@
         <v>31</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>224276.78198760346</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>520466277080.08423</v>
       </c>
       <c r="H72">
+        <f t="shared" si="9"/>
+        <v>12817.461404475967</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="10"/>
-        <v>12817.461404475967</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="11"/>
         <v>117673080100</v>
       </c>
       <c r="J72">
@@ -6273,8 +6203,7 @@
         <v>71</v>
       </c>
       <c r="V72">
-        <f t="shared" si="12"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="W72">
         <v>5</v>
@@ -6291,22 +6220,22 @@
         <v>32</v>
       </c>
       <c r="E73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>233694.88737598748</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>569521204242.76672</v>
       </c>
       <c r="H73">
+        <f t="shared" si="9"/>
+        <v>13154.444669643712</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="10"/>
-        <v>13154.444669643712</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="11"/>
         <v>128125766702</v>
       </c>
       <c r="J73">
@@ -6346,8 +6275,7 @@
         <v>72</v>
       </c>
       <c r="V73">
-        <f t="shared" si="12"/>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="W73">
         <v>5</v>
@@ -6364,22 +6292,22 @@
         <v>30</v>
       </c>
       <c r="E74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>243368.4295653305</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
       <c r="G74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>622415084261.70117</v>
       </c>
       <c r="H74">
+        <f t="shared" si="9"/>
+        <v>13496.114170608449</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="10"/>
-        <v>13496.114170608449</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="11"/>
         <v>139341015460</v>
       </c>
       <c r="J74">
@@ -6419,8 +6347,7 @@
         <v>73</v>
       </c>
       <c r="V74">
-        <f t="shared" si="12"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="W74">
         <v>5</v>
@@ -6437,22 +6364,22 @@
         <v>31</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>253300.64422898469</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>679388701727.19885</v>
       </c>
       <c r="H75">
+        <f t="shared" si="9"/>
+        <v>13842.479749387447</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="10"/>
-        <v>13842.479749387447</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="11"/>
         <v>151362697630</v>
       </c>
       <c r="J75">
@@ -6492,8 +6419,7 @@
         <v>74</v>
       </c>
       <c r="V75">
-        <f t="shared" si="12"/>
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="W75">
         <v>5</v>
@@ -6510,22 +6436,22 @@
         <v>32</v>
       </c>
       <c r="E76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>263494.76254912175</v>
       </c>
       <c r="F76">
         <v>3</v>
       </c>
       <c r="G76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>740694307921.41516</v>
       </c>
       <c r="H76">
+        <f t="shared" si="9"/>
+        <v>14193.551132478618</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="10"/>
-        <v>14193.551132478618</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="11"/>
         <v>164236550852</v>
       </c>
       <c r="J76">
@@ -6565,8 +6491,7 @@
         <v>75</v>
       </c>
       <c r="V76">
-        <f t="shared" si="12"/>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="W76">
         <v>5</v>
@@ -6584,7 +6509,7 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>273954.01128436648</v>
       </c>
       <c r="F77" s="5">
@@ -6595,11 +6520,11 @@
         <v>1000934866585.0903</v>
       </c>
       <c r="H77" s="8">
+        <f t="shared" si="9"/>
+        <v>14549.337933771378</v>
+      </c>
+      <c r="I77" s="5">
         <f t="shared" si="10"/>
-        <v>14549.337933771378</v>
-      </c>
-      <c r="I77" s="5">
-        <f t="shared" si="11"/>
         <v>178010231350</v>
       </c>
       <c r="J77" s="5">
@@ -6639,8 +6564,7 @@
         <v>76</v>
       </c>
       <c r="V77" s="5">
-        <f t="shared" si="12"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="W77" s="5">
         <v>5</v>
@@ -6658,22 +6582,22 @@
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>284681.61283552332</v>
       </c>
       <c r="F78" s="5">
         <v>4</v>
       </c>
       <c r="G78" s="9">
-        <f t="shared" ref="G78:G91" si="13">A78^6.4+A78^4+100*A78+100</f>
+        <f t="shared" ref="G78:G91" si="11">A78^6.4+A78^4+100*A78+100</f>
         <v>1089482585652.9373</v>
       </c>
       <c r="H78" s="8">
+        <f t="shared" si="9"/>
+        <v>14909.849657346345</v>
+      </c>
+      <c r="I78" s="5">
         <f t="shared" si="10"/>
-        <v>14909.849657346345</v>
-      </c>
-      <c r="I78" s="5">
-        <f t="shared" si="11"/>
         <v>192733366852</v>
       </c>
       <c r="J78" s="5">
@@ -6713,8 +6637,7 @@
         <v>77</v>
       </c>
       <c r="V78" s="5">
-        <f t="shared" si="12"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="W78" s="5">
         <v>5</v>
@@ -6732,22 +6655,22 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>295680.78530944901</v>
       </c>
       <c r="F79" s="5">
         <v>4</v>
       </c>
       <c r="G79" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1184550369111.1909</v>
       </c>
       <c r="H79" s="8">
+        <f t="shared" si="9"/>
+        <v>15275.095700168886</v>
+      </c>
+      <c r="I79" s="5">
         <f t="shared" si="10"/>
-        <v>15275.095700168886</v>
-      </c>
-      <c r="I79" s="5">
-        <f t="shared" si="11"/>
         <v>208457610230</v>
       </c>
       <c r="J79" s="5">
@@ -6787,8 +6710,7 @@
         <v>78</v>
       </c>
       <c r="V79" s="5">
-        <f t="shared" si="12"/>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="W79" s="5">
         <v>5</v>
@@ -6806,22 +6728,22 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>306954.74258117168</v>
       </c>
       <c r="F80" s="5">
         <v>4</v>
       </c>
       <c r="G80" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1286524186509.813</v>
       </c>
       <c r="H80" s="8">
+        <f t="shared" si="9"/>
+        <v>15645.085354682449</v>
+      </c>
+      <c r="I80" s="5">
         <f t="shared" si="10"/>
-        <v>15645.085354682449</v>
-      </c>
-      <c r="I80" s="5">
-        <f t="shared" si="11"/>
         <v>225236693860</v>
       </c>
       <c r="J80" s="5">
@@ -6861,8 +6783,7 @@
         <v>79</v>
       </c>
       <c r="V80" s="5">
-        <f t="shared" si="12"/>
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="W80" s="5">
         <v>5</v>
@@ -6880,22 +6801,22 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>318506.69435431337</v>
       </c>
       <c r="F81" s="5">
         <v>4</v>
       </c>
       <c r="G81" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1395807430468.8464</v>
       </c>
       <c r="H81" s="8">
+        <f t="shared" si="9"/>
+        <v>16019.827811306393</v>
+      </c>
+      <c r="I81" s="5">
         <f t="shared" si="10"/>
-        <v>16019.827811306393</v>
-      </c>
-      <c r="I81" s="5">
-        <f t="shared" si="11"/>
         <v>243126484702</v>
       </c>
       <c r="J81" s="5">
@@ -6935,8 +6856,7 @@
         <v>80</v>
       </c>
       <c r="V81" s="5">
-        <f t="shared" si="12"/>
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="W81" s="5">
         <v>5</v>
@@ -6954,22 +6874,22 @@
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>330339.84621988621</v>
       </c>
       <c r="F82" s="5">
         <v>4</v>
       </c>
       <c r="G82" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1512821464636.5583</v>
       </c>
       <c r="H82" s="8">
+        <f t="shared" si="9"/>
+        <v>16399.332160842801</v>
+      </c>
+      <c r="I82" s="5">
         <f t="shared" si="10"/>
-        <v>16399.332160842801</v>
-      </c>
-      <c r="I82" s="5">
-        <f t="shared" si="11"/>
         <v>262185040100</v>
       </c>
       <c r="J82" s="5">
@@ -7009,8 +6929,7 @@
         <v>81</v>
       </c>
       <c r="V82" s="5">
-        <f t="shared" si="12"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="W82" s="5">
         <v>5</v>
@@ -7028,22 +6947,22 @@
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>342457.39971352724</v>
       </c>
       <c r="F83" s="5">
         <v>4</v>
       </c>
       <c r="G83" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1638006181571.4167</v>
       </c>
       <c r="H83" s="8">
+        <f t="shared" si="9"/>
+        <v>16783.607396797306</v>
+      </c>
+      <c r="I83" s="5">
         <f t="shared" si="10"/>
-        <v>16783.607396797306</v>
-      </c>
-      <c r="I83" s="5">
-        <f t="shared" si="11"/>
         <v>282472664302</v>
       </c>
       <c r="J83" s="5">
@@ -7083,8 +7002,7 @@
         <v>82</v>
       </c>
       <c r="V83" s="5">
-        <f t="shared" si="12"/>
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="W83" s="5">
         <v>5</v>
@@ -7102,22 +7020,22 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>354862.55237122771</v>
       </c>
       <c r="F84" s="5">
         <v>4</v>
       </c>
       <c r="G84" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1771820570598.4678</v>
       </c>
       <c r="H84" s="8">
+        <f t="shared" si="9"/>
+        <v>17172.662417617168</v>
+      </c>
+      <c r="I84" s="5">
         <f t="shared" si="10"/>
-        <v>17172.662417617168</v>
-      </c>
-      <c r="I84" s="5">
-        <f t="shared" si="11"/>
         <v>304051965700</v>
       </c>
       <c r="J84" s="5">
@@ -7157,8 +7075,7 @@
         <v>83</v>
       </c>
       <c r="V84" s="5">
-        <f t="shared" si="12"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="W84" s="5">
         <v>5</v>
@@ -7176,22 +7093,22 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>367558.49778362713</v>
       </c>
       <c r="F85" s="5">
         <v>4</v>
       </c>
       <c r="G85" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1914743295690.7161</v>
       </c>
       <c r="H85" s="8">
+        <f t="shared" si="9"/>
+        <v>17566.506028851596</v>
+      </c>
+      <c r="I85" s="5">
         <f t="shared" si="10"/>
-        <v>17566.506028851596</v>
-      </c>
-      <c r="I85" s="5">
-        <f t="shared" si="11"/>
         <v>326987914790</v>
       </c>
       <c r="J85" s="5">
@@ -7231,8 +7148,7 @@
         <v>84</v>
       </c>
       <c r="V85" s="5">
-        <f t="shared" si="12"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="W85" s="5">
         <v>5</v>
@@ -7250,22 +7166,22 @@
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>380548.42564890615</v>
       </c>
       <c r="F86" s="5">
         <v>4</v>
       </c>
       <c r="G86" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2067273283425.0588</v>
       </c>
       <c r="H86" s="8">
+        <f t="shared" si="9"/>
+        <v>17965.14694523676</v>
+      </c>
+      <c r="I86" s="5">
         <f t="shared" si="10"/>
-        <v>17965.14694523676</v>
-      </c>
-      <c r="I86" s="5">
-        <f t="shared" si="11"/>
         <v>351347902852</v>
       </c>
       <c r="J86" s="5">
@@ -7305,8 +7221,7 @@
         <v>85</v>
       </c>
       <c r="V86" s="5">
-        <f t="shared" si="12"/>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="W86" s="5">
         <v>5</v>
@@ -7324,22 +7239,22 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>393835.52182435268</v>
       </c>
       <c r="F87" s="5">
         <v>4</v>
       </c>
       <c r="G87" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2229930321062.7461</v>
       </c>
       <c r="H87" s="8">
+        <f t="shared" si="9"/>
+        <v>18368.593792710068</v>
+      </c>
+      <c r="I87" s="5">
         <f t="shared" si="10"/>
-        <v>18368.593792710068</v>
-      </c>
-      <c r="I87" s="5">
-        <f t="shared" si="11"/>
         <v>377201801350</v>
       </c>
       <c r="J87" s="5">
@@ -7379,8 +7294,7 @@
         <v>86</v>
       </c>
       <c r="V87" s="5">
-        <f t="shared" si="12"/>
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="W87" s="5">
         <v>5</v>
@@ -7398,22 +7312,22 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>407422.96837662853</v>
       </c>
       <c r="F88" s="5">
         <v>4</v>
       </c>
       <c r="G88" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2403255664803.1401</v>
       </c>
       <c r="H88" s="8">
+        <f t="shared" si="9"/>
+        <v>18776.855110356017</v>
+      </c>
+      <c r="I88" s="5">
         <f t="shared" si="10"/>
-        <v>18776.855110356017</v>
-      </c>
-      <c r="I88" s="5">
-        <f t="shared" si="11"/>
         <v>404622022052</v>
       </c>
       <c r="J88" s="5">
@@ -7453,8 +7367,7 @@
         <v>87</v>
       </c>
       <c r="V88" s="5">
-        <f t="shared" si="12"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="W88" s="5">
         <v>5</v>
@@ -7472,22 +7385,22 @@
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>421313.94363080681</v>
       </c>
       <c r="F89" s="5">
         <v>4</v>
       </c>
       <c r="G89" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2587812658260.1812</v>
       </c>
       <c r="H89" s="8">
+        <f t="shared" si="9"/>
+        <v>19189.939352287445</v>
+      </c>
+      <c r="I89" s="5">
         <f t="shared" si="10"/>
-        <v>19189.939352287445</v>
-      </c>
-      <c r="I89" s="5">
-        <f t="shared" si="11"/>
         <v>433683577870</v>
       </c>
       <c r="J89" s="5">
@@ -7527,8 +7440,7 @@
         <v>88</v>
       </c>
       <c r="V89" s="5">
-        <f t="shared" si="12"/>
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="W89" s="5">
         <v>5</v>
@@ -7546,22 +7458,22 @@
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>435511.62221820076</v>
       </c>
       <c r="F90" s="5">
         <v>4</v>
       </c>
       <c r="G90" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2784187361209.4263</v>
       </c>
       <c r="H90" s="8">
+        <f t="shared" si="9"/>
+        <v>19607.854889464626</v>
+      </c>
+      <c r="I90" s="5">
         <f t="shared" si="10"/>
-        <v>19607.854889464626</v>
-      </c>
-      <c r="I90" s="5">
-        <f t="shared" si="11"/>
         <v>464464144420</v>
       </c>
       <c r="J90" s="5">
@@ -7601,8 +7513,7 @@
         <v>89</v>
       </c>
       <c r="V90" s="5">
-        <f t="shared" si="12"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="W90" s="5">
         <v>5</v>
@@ -7620,22 +7531,22 @@
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>450019.17512304336</v>
       </c>
       <c r="F91" s="5">
         <v>4</v>
       </c>
       <c r="G91" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2992989188654.3779</v>
       </c>
       <c r="H91" s="8">
+        <f t="shared" si="9"/>
+        <v>20030.610011454803</v>
+      </c>
+      <c r="I91" s="5">
         <f t="shared" si="10"/>
-        <v>20030.610011454803</v>
-      </c>
-      <c r="I91" s="5">
-        <f t="shared" si="11"/>
         <v>497044122302</v>
       </c>
       <c r="J91" s="5">
@@ -7675,8 +7586,7 @@
         <v>90</v>
       </c>
       <c r="V91" s="5">
-        <f t="shared" si="12"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="W91" s="5">
         <v>5</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6674304-99CC-4CEA-8943-9D4F6D70429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730349A2-AF0B-4C3E-819B-1194C5A650FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -968,7 +968,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <v>5</v>
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <v>5</v>
@@ -1277,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W4">
         <v>5</v>
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W5">
         <v>5</v>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W7">
         <v>5</v>
@@ -1565,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W8">
         <v>5</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W9">
         <v>5</v>
@@ -1709,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W10">
         <v>5</v>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W11">
         <v>5</v>
@@ -1853,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W12">
         <v>5</v>
@@ -1925,7 +1925,7 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W13">
         <v>5</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730349A2-AF0B-4C3E-819B-1194C5A650FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627DC4F7-6CC5-4145-BCFE-EF12430AEF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W3">
         <v>5</v>
@@ -1277,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W4">
         <v>5</v>
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>5</v>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W7">
         <v>5</v>
@@ -1565,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W8">
         <v>5</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W9">
         <v>5</v>
@@ -1709,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W10">
         <v>5</v>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W11">
         <v>5</v>
@@ -1853,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W12">
         <v>5</v>
@@ -1925,7 +1925,7 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W13">
         <v>5</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627DC4F7-6CC5-4145-BCFE-EF12430AEF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF16E772-5940-4A88-9556-BE31A6F0186D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -968,7 +968,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W3">
         <v>5</v>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W7">
         <v>5</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF16E772-5940-4A88-9556-BE31A6F0186D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E95EBB-A157-46BC-90D7-7F841E2C9B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -968,7 +968,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W5">
         <v>5</v>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1493,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W7">
         <v>5</v>
@@ -1565,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W8">
         <v>5</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W9">
         <v>5</v>
@@ -1709,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W10">
         <v>5</v>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W11">
         <v>5</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E95EBB-A157-46BC-90D7-7F841E2C9B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3100FA-0AD5-4406-BBA0-1FFB6AC598F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -506,9 +506,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,7 +616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,12 +640,6 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -967,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="G82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f>A2^6+A2^4+100*A2+100</f>
+        <f>A2^5.9+A2^4+100*A2+100</f>
         <v>100</v>
       </c>
       <c r="H2">
@@ -1136,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="W2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1157,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="1">A3^6+A3^4+100*A3+100</f>
+        <f t="shared" ref="G3:G66" si="1">A3^5.9+A3^4+100*A3+100</f>
         <v>202</v>
       </c>
       <c r="H3">
@@ -1165,7 +1156,7 @@
         <v>101</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="3">A3^6+A3^4+1000*A3+100</f>
+        <f t="shared" ref="I3:I16" si="3">A3^6+A3^4+1000*A3+100</f>
         <v>1102</v>
       </c>
       <c r="J3">
@@ -1208,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1230,7 +1221,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>375.71411145835572</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
@@ -1280,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1302,7 +1293,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1210</v>
+        <v>1134.1537172239161</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
@@ -1349,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1374,7 +1365,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>4852</v>
+        <v>4321.7751072609281</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
@@ -1421,10 +1412,10 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1446,7 +1437,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>16850</v>
+        <v>14527.186289387271</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
@@ -1493,10 +1484,10 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1518,7 +1509,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>48652</v>
+        <v>40998.493869748236</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
@@ -1565,10 +1556,10 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1590,7 +1581,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>120850</v>
+        <v>100046.27486102769</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
@@ -1637,10 +1628,10 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1662,7 +1653,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>267140</v>
+        <v>217923.09219040876</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
@@ -1709,10 +1700,10 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1734,7 +1725,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>539002</v>
+        <v>434170.77832341933</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
@@ -1781,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1806,7 +1797,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>1011100</v>
+        <v>805428.23472428333</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
@@ -1853,10 +1844,10 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1878,7 +1869,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>1787402</v>
+        <v>1409693.5772515589</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
@@ -1925,10 +1916,10 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1950,7 +1941,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>3008020</v>
+        <v>2351035.2660919833</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
@@ -1997,10 +1988,10 @@
         <v>13</v>
       </c>
       <c r="V14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -2022,7 +2013,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>4856770</v>
+        <v>3764747.4853935447</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
@@ -2069,10 +2060,10 @@
         <v>14</v>
       </c>
       <c r="V15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2094,7 +2085,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>7569452</v>
+        <v>5822945.5372664966</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
@@ -2141,10 +2132,10 @@
         <v>15</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2165,17 +2156,17 @@
       <c r="F17" s="5">
         <v>1.5</v>
       </c>
-      <c r="G17" s="9">
-        <f>A17^6.1+A17^4+100*A17+100</f>
-        <v>14985555.615562128</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>8740597.422118308</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>1137.7506604807154</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="3"/>
-        <v>11456350</v>
+        <f>A17^6.05+A17^4+1000*A17+100</f>
+        <v>13107962.884768389</v>
       </c>
       <c r="J17" s="5">
         <v>1</v>
@@ -2214,10 +2205,10 @@
         <v>16</v>
       </c>
       <c r="V17" s="5">
-        <v>20</v>
-      </c>
-      <c r="W17" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2238,17 +2229,17 @@
       <c r="F18" s="5">
         <v>1.5</v>
       </c>
-      <c r="G18" s="9">
-        <f t="shared" ref="G18:G31" si="4">A18^6.1+A18^4+100*A18+100</f>
-        <v>22204905.232745543</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>12781988.115561685</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
         <v>1238.0234410266619</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="3"/>
-        <v>16858852</v>
+        <f t="shared" ref="I18:I31" si="4">A18^6.05+A18^4+1000*A18+100</f>
+        <v>19353596.420629941</v>
       </c>
       <c r="J18" s="5">
         <v>1</v>
@@ -2287,10 +2278,10 @@
         <v>17</v>
       </c>
       <c r="V18" s="5">
-        <v>20</v>
-      </c>
-      <c r="W18" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2311,17 +2302,17 @@
       <c r="F19" s="5">
         <v>1.5</v>
       </c>
-      <c r="G19" s="9">
-        <f t="shared" si="4"/>
-        <v>32128708.402307235</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>18267613.337414075</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="2"/>
         <v>1342.0436751359628</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="3"/>
-        <v>24238190</v>
+        <f t="shared" si="4"/>
+        <v>27911580.609781958</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -2360,10 +2351,10 @@
         <v>18</v>
       </c>
       <c r="V19" s="5">
-        <v>20</v>
-      </c>
-      <c r="W19" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -2384,17 +2375,17 @@
       <c r="F20" s="5">
         <v>1.5</v>
       </c>
-      <c r="G20" s="9">
-        <f t="shared" si="4"/>
-        <v>45518003.09438619</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>25581499.852029059</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="2"/>
         <v>1449.8456143671119</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="3"/>
-        <v>34135300</v>
+        <f t="shared" si="4"/>
+        <v>39423628.500273176</v>
       </c>
       <c r="J20" s="5">
         <v>1</v>
@@ -2433,10 +2424,10 @@
         <v>19</v>
       </c>
       <c r="V20" s="5">
-        <v>20</v>
-      </c>
-      <c r="W20" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2457,17 +2448,17 @@
       <c r="F21" s="5">
         <v>1.5</v>
       </c>
-      <c r="G21" s="9">
-        <f t="shared" si="4"/>
-        <v>63285754.315984607</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>35178949.549741082</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="2"/>
         <v>1561.4618367199535</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="3"/>
-        <v>47195302</v>
+        <f t="shared" si="4"/>
+        <v>54657300.325151183</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
@@ -2506,10 +2497,10 @@
         <v>20</v>
       </c>
       <c r="V21" s="5">
-        <v>20</v>
-      </c>
-      <c r="W21" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2530,17 +2521,17 @@
       <c r="F22" s="5">
         <v>1.5</v>
       </c>
-      <c r="G22" s="9">
-        <f t="shared" si="4"/>
-        <v>86516202.251107752</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>47594704.742844656</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="2"/>
         <v>1676.9234150652314</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="3"/>
-        <v>64180100</v>
+        <f t="shared" si="4"/>
+        <v>74521626.377058581</v>
       </c>
       <c r="J22" s="5">
         <v>1</v>
@@ -2579,10 +2570,10 @@
         <v>21</v>
       </c>
       <c r="V22" s="5">
-        <v>20</v>
-      </c>
-      <c r="W22" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W22">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2603,17 +2594,17 @@
       <c r="F23" s="5">
         <v>1.5</v>
       </c>
-      <c r="G23" s="9">
-        <f t="shared" si="4"/>
-        <v>116485429.82443906</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>63451532.271052115</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="2"/>
         <v>1796.2600607904049</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="3"/>
-        <v>85981702</v>
+        <f t="shared" si="4"/>
+        <v>100083668.50855029</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
@@ -2652,10 +2643,10 @@
         <v>22</v>
       </c>
       <c r="V23" s="5">
-        <v>20</v>
-      </c>
-      <c r="W23" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2676,17 +2667,17 @@
       <c r="F24" s="5">
         <v>1.5</v>
       </c>
-      <c r="G24" s="9">
-        <f t="shared" si="4"/>
-        <v>154683156.30824435</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>83469224.154515862</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>1919.5002473492318</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="3"/>
-        <v>113636260</v>
+        <f t="shared" si="4"/>
+        <v>132586022.80255465</v>
       </c>
       <c r="J24" s="5">
         <v>1</v>
@@ -2725,10 +2716,10 @@
         <v>23</v>
       </c>
       <c r="V24" s="5">
-        <v>20</v>
-      </c>
-      <c r="W24" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2749,17 +2740,17 @@
       <c r="F25" s="5">
         <v>1.5</v>
       </c>
-      <c r="G25" s="9">
-        <f t="shared" si="4"/>
-        <v>202835763.28495783</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>108474012.66018483</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>2046.6713173374812</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="3"/>
-        <v>148338830</v>
+        <f t="shared" si="4"/>
+        <v>173465265.83290106</v>
       </c>
       <c r="J25" s="5">
         <v>1</v>
@@ -2798,10 +2789,10 @@
         <v>24</v>
       </c>
       <c r="V25" s="5">
-        <v>20</v>
-      </c>
-      <c r="W25" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -2822,17 +2813,17 @@
       <c r="F26" s="5">
         <v>1.5</v>
       </c>
-      <c r="G26" s="9">
-        <f t="shared" si="4"/>
-        <v>262930558.99932846</v>
-      </c>
-      <c r="H26" s="8">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>139408397.7618452</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>2177.7995759309588</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="3"/>
-        <v>191458852</v>
+        <f t="shared" si="4"/>
+        <v>224371346.82224062</v>
       </c>
       <c r="J26" s="5">
         <v>1</v>
@@ -2871,10 +2862,10 @@
         <v>25</v>
       </c>
       <c r="V26" s="5">
-        <v>20</v>
-      </c>
-      <c r="W26" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2895,17 +2886,17 @@
       <c r="F27" s="5">
         <v>1.5</v>
       </c>
-      <c r="G27" s="9">
-        <f t="shared" si="4"/>
-        <v>337241286.88017869</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>177341385.07756269</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="2"/>
         <v>2312.9103729329759</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="3"/>
-        <v>244556350</v>
+        <f t="shared" si="4"/>
+        <v>287187927.90234828</v>
       </c>
       <c r="J27" s="5">
         <v>1</v>
@@ -2944,10 +2935,10 @@
         <v>26</v>
       </c>
       <c r="V27" s="5">
-        <v>20</v>
-      </c>
-      <c r="W27" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -2968,17 +2959,17 @@
       <c r="F28" s="5">
         <v>1.5</v>
       </c>
-      <c r="G28" s="9">
-        <f t="shared" si="4"/>
-        <v>428354883.77961051</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>223479132.46195132</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="2"/>
         <v>2452.0281752309029</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="3"/>
-        <v>309398852</v>
+        <f t="shared" si="4"/>
+        <v>364053674.58838946</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
@@ -3017,10 +3008,10 @@
         <v>27</v>
       </c>
       <c r="V28" s="5">
-        <v>20</v>
-      </c>
-      <c r="W28" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -3041,17 +3032,17 @@
       <c r="F29" s="5">
         <v>1.5</v>
       </c>
-      <c r="G29" s="9">
-        <f t="shared" si="4"/>
-        <v>539199493.264094</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>279176003.51601166</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="2"/>
         <v>2595.1766311172187</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="3"/>
-        <v>387979030</v>
+        <f t="shared" si="4"/>
+        <v>457384498.49307305</v>
       </c>
       <c r="J29" s="5">
         <v>1</v>
@@ -3090,10 +3081,10 @@
         <v>28</v>
       </c>
       <c r="V29" s="5">
-        <v>20</v>
-      </c>
-      <c r="W29" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -3114,17 +3105,17 @@
       <c r="F30" s="5">
         <v>1.5</v>
       </c>
-      <c r="G30" s="9">
-        <f t="shared" si="4"/>
-        <v>673073739.09516191</v>
-      </c>
-      <c r="H30" s="8">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>345946026.35529512</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="2"/>
         <v>2742.378627662727</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="3"/>
-        <v>482533060</v>
+        <f t="shared" si="4"/>
+        <v>569896754.22786295</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -3163,10 +3154,10 @@
         <v>29</v>
       </c>
       <c r="V30" s="5">
-        <v>20</v>
-      </c>
-      <c r="W30" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -3187,17 +3178,17 @@
       <c r="F31" s="5">
         <v>1.5</v>
       </c>
-      <c r="G31" s="9">
-        <f t="shared" si="4"/>
-        <v>833677263.8554076</v>
-      </c>
-      <c r="H31" s="8">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>425474756.04869062</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="2"/>
         <v>2893.6563421190704</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="3"/>
-        <v>595559702</v>
+        <f t="shared" si="4"/>
+        <v>704631392.3656193</v>
       </c>
       <c r="J31" s="5">
         <v>1</v>
@@ -3236,10 +3227,10 @@
         <v>30</v>
       </c>
       <c r="V31" s="5">
-        <v>20</v>
-      </c>
-      <c r="W31" s="5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -3260,16 +3251,16 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <f>A32^6.2+A32^4+100*A32+100</f>
-        <v>1440114604.1735837</v>
+        <f t="shared" si="1"/>
+        <v>519631539.20607698</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
         <v>3049.0312881606123</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
-        <v>729840100</v>
+        <f>A32^6.05+A32^4+1000*A32+100</f>
+        <v>864979070.27173531</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3308,10 +3299,10 @@
         <v>31</v>
       </c>
       <c r="V32">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -3332,16 +3323,16 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G46" si="5">A33^6.2+A33^4+100*A33+100</f>
-        <v>1764698956.1660249</v>
+        <f t="shared" si="1"/>
+        <v>630482179.25387847</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
         <v>3208.5243576419898</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
-        <v>888458302</v>
+        <f t="shared" ref="I33:I46" si="5">A33^6.05+A33^4+1000*A33+100</f>
+        <v>1054706222.5482085</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -3380,10 +3371,10 @@
         <v>32</v>
       </c>
       <c r="V33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -3404,16 +3395,16 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
-        <v>2148535524.0000019</v>
+        <f t="shared" si="1"/>
+        <v>760302000.99401367</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
         <v>3372.1558584396066</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
-        <v>1074822500</v>
+        <f t="shared" si="5"/>
+        <v>1277982092.776799</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -3452,10 +3443,10 @@
         <v>33</v>
       </c>
       <c r="V34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -3476,16 +3467,16 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
-        <v>2600070519.4915085</v>
+        <f t="shared" si="1"/>
+        <v>911589313.09398961</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
         <v>3539.9455488575204</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>1292686990</v>
+        <f t="shared" si="5"/>
+        <v>1539406728.1930718</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -3524,10 +3515,10 @@
         <v>34</v>
       </c>
       <c r="V35">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -3548,16 +3539,16 @@
         <v>2</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
-        <v>3128637969.6298065</v>
+        <f t="shared" si="1"/>
+        <v>1087079267.2047539</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
         <v>3711.9126690061603</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
-        <v>1546174852</v>
+        <f t="shared" si="5"/>
+        <v>1844039938.8720973</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -3596,10 +3587,10 @@
         <v>35</v>
       </c>
       <c r="V36">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -3620,16 +3611,16 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
-        <v>3744521874.6552873</v>
+        <f t="shared" si="1"/>
+        <v>1289758112.448302</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
         <v>3888.0759695029919</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>1839801350</v>
+        <f t="shared" si="5"/>
+        <v>2197431222.9588652</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3668,10 +3659,10 @@
         <v>36</v>
       </c>
       <c r="V37">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W37">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -3692,16 +3683,16 @@
         <v>2</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
-        <v>4459020668.0300045</v>
+        <f t="shared" si="1"/>
+        <v>1522877844.0597486</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
         <v>4068.4537377949773</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
-        <v>2178498052</v>
+        <f t="shared" si="5"/>
+        <v>2605650659.4316463</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -3740,10 +3731,10 @@
         <v>37</v>
       </c>
       <c r="V38">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
@@ -3764,16 +3755,16 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
-        <v>5284513992.0904589</v>
+        <f t="shared" si="1"/>
+        <v>1789971245.0082421</v>
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
         <v>4253.0638223615515</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
-        <v>2567637670</v>
+        <f t="shared" si="5"/>
+        <v>3075320769.8440089</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3812,10 +3803,10 @@
         <v>38</v>
       </c>
       <c r="V39">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
@@ -3836,16 +3827,16 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
-        <v>6234531802.8513393</v>
+        <f t="shared" si="1"/>
+        <v>2094867319.4588282</v>
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
         <v>4441.923655022405</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
-        <v>3013059620</v>
+        <f t="shared" si="5"/>
+        <v>3613649350.4516859</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3884,10 +3875,10 @@
         <v>39</v>
       </c>
       <c r="V40">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -3908,16 +3899,16 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
-        <v>7323825817.1245699</v>
+        <f t="shared" si="1"/>
+        <v>2441707116.9724345</v>
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
         <v>4635.0502715451767</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
-        <v>3521096302</v>
+        <f t="shared" si="5"/>
+        <v>4228463276.0924816</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3956,10 +3947,10 @@
         <v>40</v>
       </c>
       <c r="V41">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
@@ -3980,16 +3971,16 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
-        <v>8568443314.8276997</v>
+        <f t="shared" si="1"/>
+        <v>2834959946.3743548</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
         <v>4832.4603307235975</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
-        <v>4098600100</v>
+        <f t="shared" si="5"/>
+        <v>4928243277.151823</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -4028,10 +4019,10 @@
         <v>41</v>
       </c>
       <c r="V42">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
@@ -4052,16 +4043,16 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
-        <v>9985803309.081152</v>
+        <f t="shared" si="1"/>
+        <v>3279439978.2531524</v>
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
         <v>5034.1701320755374</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
-        <v>4752971102</v>
+        <f t="shared" si="5"/>
+        <v>5722159690.9129629</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -4100,10 +4091,10 @@
         <v>42</v>
       </c>
       <c r="V43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
@@ -4124,16 +4115,16 @@
         <v>2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
-        <v>11594775096.429832</v>
+        <f t="shared" si="1"/>
+        <v>3780323235.0813155</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
         <v>5240.1956322925425</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
-        <v>5492185540</v>
+        <f t="shared" si="5"/>
+        <v>6620109188.5582886</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -4172,10 +4163,10 @@
         <v>43</v>
       </c>
       <c r="V44">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
@@ -4196,16 +4187,16 @@
         <v>2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
-        <v>13415759199.275536</v>
+        <f t="shared" si="1"/>
+        <v>4343164967.9773273</v>
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
         <v>5450.5524605569453</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
-        <v>6324824950</v>
+        <f t="shared" si="5"/>
+        <v>7632752479.0583487</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -4244,10 +4235,10 @@
         <v>44</v>
       </c>
       <c r="V45">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W45">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -4268,16 +4259,16 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
-        <v>15470770712.365486</v>
+        <f t="shared" si="1"/>
+        <v>4973917419.1550894</v>
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
         <v>5665.2559328294519</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
-        <v>7260106052</v>
+        <f t="shared" si="5"/>
+        <v>8771552991.1552639</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -4316,10 +4307,10 @@
         <v>45</v>
       </c>
       <c r="V46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W46">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
@@ -4340,17 +4331,17 @@
       <c r="F47" s="5">
         <v>2.5</v>
       </c>
-      <c r="G47" s="9">
-        <f>A47^6.3+A47^4+100*A47+100</f>
-        <v>26020004159.311378</v>
-      </c>
-      <c r="H47" s="8">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>5678947969.1323318</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="2"/>
         <v>5884.3210651984537</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="3"/>
-        <v>8307911350</v>
+        <f>A47^6.05+A47^4+1000*A47+100</f>
+        <v>10048816534.620764</v>
       </c>
       <c r="J47" s="5">
         <v>1</v>
@@ -4389,10 +4380,10 @@
         <v>46</v>
       </c>
       <c r="V47" s="5">
-        <v>40</v>
-      </c>
-      <c r="W47" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W47">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
@@ -4413,17 +4404,17 @@
       <c r="F48" s="5">
         <v>2.5</v>
       </c>
-      <c r="G48" s="9">
-        <f t="shared" ref="G48:G61" si="6">A48^6.3+A48^4+100*A48+100</f>
-        <v>29884051907.125313</v>
-      </c>
-      <c r="H48" s="8">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>6465057667.7932415</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="2"/>
         <v>6107.7625863725425</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="3"/>
-        <v>9478820452</v>
+        <f t="shared" ref="I48:I61" si="6">A48^6.05+A48^4+1000*A48+100</f>
+        <v>11477731941.941059</v>
       </c>
       <c r="J48" s="5">
         <v>1</v>
@@ -4462,10 +4453,10 @@
         <v>47</v>
       </c>
       <c r="V48" s="5">
-        <v>40</v>
-      </c>
-      <c r="W48" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W48">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -4486,17 +4477,17 @@
       <c r="F49" s="5">
         <v>2.5</v>
       </c>
-      <c r="G49" s="9">
-        <f t="shared" si="6"/>
-        <v>34219881381.890774</v>
-      </c>
-      <c r="H49" s="8">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>7339500148.4238043</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="2"/>
         <v>6335.5949493887865</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="3"/>
-        <v>10784142110</v>
+        <f t="shared" si="6"/>
+        <v>13072412691.557264</v>
       </c>
       <c r="J49" s="5">
         <v>1</v>
@@ -4535,10 +4526,10 @@
         <v>48</v>
       </c>
       <c r="V49" s="5">
-        <v>40</v>
-      </c>
-      <c r="W49" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W49">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
@@ -4559,17 +4550,17 @@
       <c r="F50" s="5">
         <v>2.5</v>
       </c>
-      <c r="G50" s="9">
-        <f t="shared" si="6"/>
-        <v>39073188852.897911</v>
-      </c>
-      <c r="H50" s="8">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>8310000923.8597498</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="2"/>
         <v>6567.8323426019369</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="3"/>
-        <v>12235946980</v>
+        <f t="shared" si="6"/>
+        <v>14847939513.764933</v>
       </c>
       <c r="J50" s="5">
         <v>1</v>
@@ -4608,10 +4599,10 @@
         <v>49</v>
       </c>
       <c r="V50" s="5">
-        <v>40</v>
-      </c>
-      <c r="W50" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W50">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -4632,17 +4623,17 @@
       <c r="F51" s="5">
         <v>2.5</v>
       </c>
-      <c r="G51" s="9">
-        <f t="shared" si="6"/>
-        <v>44492993548.461731</v>
-      </c>
-      <c r="H51" s="8">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>9384777063.9080029</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="2"/>
         <v>6804.4887000129083</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="3"/>
-        <v>13847101102</v>
+        <f t="shared" si="6"/>
+        <v>16820403980.352938</v>
       </c>
       <c r="J51" s="5">
         <v>1</v>
@@ -4681,10 +4672,10 @@
         <v>50</v>
       </c>
       <c r="V51" s="5">
-        <v>40</v>
-      </c>
-      <c r="W51" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W51">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
@@ -4705,17 +4696,17 @@
       <c r="F52" s="5">
         <v>2.5</v>
       </c>
-      <c r="G52" s="9">
-        <f t="shared" si="6"/>
-        <v>50531802488.855904</v>
-      </c>
-      <c r="H52" s="8">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>10572557253.222536</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="2"/>
         <v>7045.5777109891469</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="3"/>
-        <v>15631300100</v>
+        <f t="shared" si="6"/>
+        <v>19006953079.0415</v>
       </c>
       <c r="J52" s="5">
         <v>1</v>
@@ -4754,10 +4745,10 @@
         <v>51</v>
       </c>
       <c r="V52" s="5">
-        <v>40</v>
-      </c>
-      <c r="W52" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W52">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
@@ -4778,17 +4769,17 @@
       <c r="F53" s="5">
         <v>2.5</v>
       </c>
-      <c r="G53" s="9">
-        <f t="shared" si="6"/>
-        <v>57245779844.387543</v>
-      </c>
-      <c r="H53" s="8">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>11882602228.83395</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="2"/>
         <v>7291.112829424178</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="3"/>
-        <v>17603104102</v>
+        <f t="shared" si="6"/>
+        <v>21425834773.754974</v>
       </c>
       <c r="J53" s="5">
         <v>1</v>
@@ -4827,10 +4818,10 @@
         <v>52</v>
       </c>
       <c r="V53" s="5">
-        <v>40</v>
-      </c>
-      <c r="W53" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W53">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
@@ -4851,17 +4842,17 @@
       <c r="F54" s="5">
         <v>2.5</v>
       </c>
-      <c r="G54" s="9">
-        <f t="shared" si="6"/>
-        <v>64694920846.701172</v>
-      </c>
-      <c r="H54" s="8">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>13324725596.550856</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="2"/>
         <v>7541.107282379372</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="3"/>
-        <v>19777973380</v>
+        <f t="shared" si="6"/>
+        <v>24096444551.748653</v>
       </c>
       <c r="J54" s="5">
         <v>1</v>
@@ -4900,10 +4891,10 @@
         <v>53</v>
       </c>
       <c r="V54" s="5">
-        <v>40</v>
-      </c>
-      <c r="W54" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W54">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
@@ -4924,17 +4915,17 @@
       <c r="F55" s="5">
         <v>2.5</v>
       </c>
-      <c r="G55" s="9">
-        <f t="shared" si="6"/>
-        <v>72943230280.994476</v>
-      </c>
-      <c r="H55" s="8">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>14909315025.468121</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="2"/>
         <v>7795.5740782464591</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="3"/>
-        <v>22172304710</v>
+        <f t="shared" si="6"/>
+        <v>27039372958.585335</v>
       </c>
       <c r="J55" s="5">
         <v>1</v>
@@ -4973,10 +4964,10 @@
         <v>54</v>
       </c>
       <c r="V55" s="5">
-        <v>40</v>
-      </c>
-      <c r="W55" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W55">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
@@ -4997,17 +4988,17 @@
       <c r="F56" s="5">
         <v>2.5</v>
       </c>
-      <c r="G56" s="9">
-        <f t="shared" si="6"/>
-        <v>82058905586.442444</v>
-      </c>
-      <c r="H56" s="8">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>16647353819.833847</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="2"/>
         <v>8054.5260144662298</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="3"/>
-        <v>24803468452</v>
+        <f t="shared" si="6"/>
+        <v>30276454121.941242</v>
       </c>
       <c r="J56" s="5">
         <v>1</v>
@@ -5046,10 +5037,10 @@
         <v>55</v>
       </c>
       <c r="V56" s="5">
-        <v>40</v>
-      </c>
-      <c r="W56" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W56">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -5070,17 +5061,17 @@
       <c r="F57" s="5">
         <v>2.5</v>
       </c>
-      <c r="G57" s="9">
-        <f t="shared" si="6"/>
-        <v>92114524591.76091</v>
-      </c>
-      <c r="H57" s="8">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>18550442867.542797</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="2"/>
         <v>8317.9756848352717</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="3"/>
-        <v>27689846350</v>
+        <f t="shared" si="6"/>
+        <v>33830815265.202354</v>
       </c>
       <c r="J57" s="5">
         <v>1</v>
@@ -5119,10 +5110,10 @@
         <v>56</v>
       </c>
       <c r="V57" s="5">
-        <v>40</v>
-      </c>
-      <c r="W57" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W57">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
@@ -5143,17 +5134,17 @@
       <c r="F58" s="5">
         <v>2.5</v>
       </c>
-      <c r="G58" s="9">
-        <f t="shared" si="6"/>
-        <v>103187237912.47118</v>
-      </c>
-      <c r="H58" s="8">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>20630822964.539631</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="2"/>
         <v>8585.9354864300003</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="3"/>
-        <v>30850870052</v>
+        <f t="shared" si="6"/>
+        <v>37726927211.793266</v>
       </c>
       <c r="J58" s="5">
         <v>1</v>
@@ -5192,10 +5183,10 @@
         <v>57</v>
       </c>
       <c r="V58" s="5">
-        <v>40</v>
-      </c>
-      <c r="W58" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W58">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -5216,17 +5207,17 @@
       <c r="F59" s="5">
         <v>2.5</v>
       </c>
-      <c r="G59" s="9">
-        <f t="shared" si="6"/>
-        <v>115358966036.08681</v>
-      </c>
-      <c r="H59" s="8">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>22901397514.429253</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="2"/>
         <v>8858.4176261744178</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="3"/>
-        <v>34307060350</v>
+        <f t="shared" si="6"/>
+        <v>41990655881.166039</v>
       </c>
       <c r="J59" s="5">
         <v>1</v>
@@ -5265,10 +5256,10 @@
         <v>58</v>
       </c>
       <c r="V59" s="5">
-        <v>40</v>
-      </c>
-      <c r="W59" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W59">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
@@ -5289,17 +5280,17 @@
       <c r="F60" s="5">
         <v>2.5</v>
       </c>
-      <c r="G60" s="9">
-        <f t="shared" si="6"/>
-        <v>128716601121.10344</v>
-      </c>
-      <c r="H60" s="8">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>25375755602.607441</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="2"/>
         <v>9135.4341270762434</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="3"/>
-        <v>38080067140</v>
+        <f t="shared" si="6"/>
+        <v>46649314777.360016</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>
@@ -5338,10 +5329,10 @@
         <v>59</v>
       </c>
       <c r="V60" s="5">
-        <v>40</v>
-      </c>
-      <c r="W60" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W60">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
@@ -5362,17 +5353,17 @@
       <c r="F61" s="5">
         <v>2.5</v>
       </c>
-      <c r="G61" s="9">
-        <f t="shared" si="6"/>
-        <v>143352213535.34052</v>
-      </c>
-      <c r="H61" s="8">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>28068195444.236012</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="2"/>
         <v>9416.9968341531803</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="3"/>
-        <v>42192710102</v>
+        <f t="shared" si="6"/>
+        <v>51731718471.025421</v>
       </c>
       <c r="J61" s="5">
         <v>1</v>
@@ -5411,10 +5402,10 @@
         <v>60</v>
       </c>
       <c r="V61" s="5">
-        <v>40</v>
-      </c>
-      <c r="W61" s="5">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="W61">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
@@ -5435,16 +5426,16 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <f>A62^6.35+A62^4+100*A62+100</f>
-        <v>195564145653.80487</v>
+        <f t="shared" si="1"/>
+        <v>30993748205.401688</v>
       </c>
       <c r="H62">
         <f t="shared" si="2"/>
         <v>9703.117420070208</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
-        <v>46669020100</v>
+        <f>A62^6.05+A62^4+1000*A62+100</f>
+        <v>57268237075.790955</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -5483,10 +5474,10 @@
         <v>61</v>
       </c>
       <c r="V62">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W62">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
@@ -5507,16 +5498,16 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:G76" si="7">A63^6.35+A63^4+100*A63+100</f>
-        <v>217206166010.76517</v>
+        <f t="shared" si="1"/>
+        <v>34168202196.812138</v>
       </c>
       <c r="H63">
         <f t="shared" si="2"/>
         <v>9993.8073905063829</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
-        <v>51534281302</v>
+        <f t="shared" ref="I63:I76" si="7">A63^6.05+A63^4+1000*A63+100</f>
+        <v>63290851719.844543</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -5555,10 +5546,10 @@
         <v>62</v>
       </c>
       <c r="V63">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
@@ -5579,16 +5570,16 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <f t="shared" si="7"/>
-        <v>240831830592.42981</v>
+        <f t="shared" si="1"/>
+        <v>37608127439.388268</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
         <v>10289.078089268367</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
-        <v>56815074020</v>
+        <f t="shared" si="7"/>
+        <v>69833211013.570221</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -5627,10 +5618,10 @@
         <v>63</v>
       </c>
       <c r="V64">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W64">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
@@ -5651,16 +5642,16 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <f t="shared" si="7"/>
-        <v>266586506386.88736</v>
+        <f t="shared" si="1"/>
+        <v>41330900601.133568</v>
       </c>
       <c r="H65">
         <f t="shared" si="2"/>
         <v>10588.940703166736</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
-        <v>62539318270</v>
+        <f t="shared" si="7"/>
+        <v>76930688514.08783</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5699,10 +5690,10 @@
         <v>64</v>
       </c>
       <c r="V65">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
@@ -5723,16 +5714,16 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <f t="shared" si="7"/>
-        <v>294623629816.099</v>
+        <f t="shared" si="1"/>
+        <v>45354730304.662834</v>
       </c>
       <c r="H66">
         <f t="shared" si="2"/>
         <v>10893.406266669514</v>
       </c>
       <c r="I66">
-        <f t="shared" si="3"/>
-        <v>68736318052</v>
+        <f t="shared" si="7"/>
+        <v>84620441187.512238</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5771,10 +5762,10 @@
         <v>65</v>
       </c>
       <c r="V66">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W66">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
@@ -5795,16 +5786,16 @@
         <v>3</v>
       </c>
       <c r="G67">
+        <f t="shared" ref="G67:G91" si="9">A67^5.9+A67^4+100*A67+100</f>
+        <v>49698682804.790886</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H91" si="10">A67^2.15+50+50*A67</f>
+        <v>11202.485666346649</v>
+      </c>
+      <c r="I67">
         <f t="shared" si="7"/>
-        <v>325105015892.41107</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H91" si="9">A67^2.15+50+50*A67</f>
-        <v>11202.485666346649</v>
-      </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I91" si="10">A67^6+A67^4+1000*A67+100</f>
-        <v>75436806350</v>
+        <v>92941468869.748947</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5843,10 +5834,10 @@
         <v>66</v>
       </c>
       <c r="V67">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W67">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
@@ -5867,16 +5858,16 @@
         <v>3</v>
       </c>
       <c r="G68">
+        <f t="shared" si="9"/>
+        <v>54382708035.586601</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="10"/>
+        <v>11516.189645117673</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="7"/>
-        <v>358201174071.23669</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="9"/>
-        <v>11516.189645117673</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="10"/>
-        <v>82672990852</v>
+        <v>101934674726.62256</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5915,10 +5906,10 @@
         <v>67</v>
       </c>
       <c r="V68">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W68">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
@@ -5939,16 +5930,16 @@
         <v>3</v>
       </c>
       <c r="G69">
+        <f t="shared" si="9"/>
+        <v>59427666026.31514</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="10"/>
+        <v>11834.528806314473</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="7"/>
-        <v>394091630836.91382</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="9"/>
-        <v>11834.528806314473</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="10"/>
-        <v>90478600390</v>
+        <v>111642926714.12532</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5987,10 +5978,10 @@
         <v>68</v>
       </c>
       <c r="V69">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W69">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
@@ -6011,16 +6002,16 @@
         <v>3</v>
       </c>
       <c r="G70">
+        <f t="shared" si="9"/>
+        <v>64855353685.692345</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="10"/>
+        <v>12157.513617569526</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="7"/>
-        <v>432965259058.38196</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="9"/>
-        <v>12157.513617569526</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="10"/>
-        <v>98888932100</v>
+        <v>122111120039.5654</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -6059,10 +6050,10 @@
         <v>69</v>
       </c>
       <c r="V70">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W70">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -6083,16 +6074,16 @@
         <v>3</v>
       </c>
       <c r="G71">
+        <f t="shared" si="9"/>
+        <v>70688531953.890991</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="10"/>
+        <v>12485.154414539895</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="7"/>
-        <v>475020614150.95105</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="9"/>
-        <v>12485.154414539895</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="10"/>
-        <v>107940899302</v>
+        <v>133386240624.37062</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -6131,10 +6122,10 @@
         <v>70</v>
       </c>
       <c r="V71">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W71">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
@@ -6155,16 +6146,16 @@
         <v>3</v>
       </c>
       <c r="G72">
+        <f t="shared" si="9"/>
+        <v>76950953321.748138</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="10"/>
+        <v>12817.461404475967</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="7"/>
-        <v>520466277080.08423</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="9"/>
-        <v>12817.461404475967</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="10"/>
-        <v>117673080100</v>
+        <v>145517429569.31296</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -6203,10 +6194,10 @@
         <v>71</v>
       </c>
       <c r="V72">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W72">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
@@ -6227,16 +6218,16 @@
         <v>3</v>
       </c>
       <c r="G73">
+        <f t="shared" si="9"/>
+        <v>83667389716.627136</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="10"/>
+        <v>13154.444669643712</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="7"/>
-        <v>569521204242.76672</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="9"/>
-        <v>13154.444669643712</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="10"/>
-        <v>128125766702</v>
+        <v>158556048622.88702</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -6275,10 +6266,10 @@
         <v>72</v>
       </c>
       <c r="V73">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W73">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -6299,16 +6290,16 @@
         <v>3</v>
       </c>
       <c r="G74">
+        <f t="shared" si="9"/>
+        <v>90863660754.400558</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="10"/>
+        <v>13496.114170608449</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="7"/>
-        <v>622415084261.70117</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="9"/>
-        <v>13496.114170608449</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="10"/>
-        <v>139341015460</v>
+        <v>172555746653.57843</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -6347,10 +6338,10 @@
         <v>73</v>
       </c>
       <c r="V74">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W74">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
@@ -6371,16 +6362,16 @@
         <v>3</v>
       </c>
       <c r="G75">
+        <f t="shared" si="9"/>
+        <v>98566662357.027237</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="10"/>
+        <v>13842.479749387447</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="7"/>
-        <v>679388701727.19885</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="9"/>
-        <v>13842.479749387447</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="10"/>
-        <v>151362697630</v>
+        <v>187572527126.7471</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -6419,10 +6410,10 @@
         <v>74</v>
       </c>
       <c r="V75">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W75">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -6443,16 +6434,16 @@
         <v>3</v>
       </c>
       <c r="G76">
+        <f t="shared" si="9"/>
+        <v>106804395735.20573</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="10"/>
+        <v>14193.551132478618</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="7"/>
-        <v>740694307921.41516</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="9"/>
-        <v>14193.551132478618</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="10"/>
-        <v>164236550852</v>
+        <v>203664816586.83307</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -6491,10 +6482,10 @@
         <v>75</v>
       </c>
       <c r="V76">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
@@ -6515,17 +6506,17 @@
       <c r="F77" s="5">
         <v>4</v>
       </c>
-      <c r="G77" s="9">
-        <f>A77^6.4+A77^4+100*A77+100</f>
-        <v>1000934866585.0903</v>
-      </c>
-      <c r="H77" s="8">
+      <c r="G77">
         <f t="shared" si="9"/>
+        <v>115605996735.59241</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="10"/>
         <v>14549.337933771378</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="10"/>
-        <v>178010231350</v>
+        <f>A77^6.05+A77^4+1000*A77+100</f>
+        <v>220893534145.59039</v>
       </c>
       <c r="J77" s="5">
         <v>1</v>
@@ -6564,10 +6555,10 @@
         <v>76</v>
       </c>
       <c r="V77" s="5">
-        <v>60</v>
-      </c>
-      <c r="W77" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W77">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
@@ -6588,17 +6579,17 @@
       <c r="F78" s="5">
         <v>4</v>
       </c>
-      <c r="G78" s="9">
-        <f t="shared" ref="G78:G91" si="11">A78^6.4+A78^4+100*A78+100</f>
-        <v>1089482585652.9373</v>
-      </c>
-      <c r="H78" s="8">
+      <c r="G78">
         <f t="shared" si="9"/>
+        <v>125001765552.08713</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="10"/>
         <v>14909.849657346345</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="10"/>
-        <v>192733366852</v>
+        <f t="shared" ref="I78:I91" si="11">A78^6.05+A78^4+1000*A78+100</f>
+        <v>239322161977.05478</v>
       </c>
       <c r="J78" s="5">
         <v>1</v>
@@ -6637,10 +6628,10 @@
         <v>77</v>
       </c>
       <c r="V78" s="5">
-        <v>60</v>
-      </c>
-      <c r="W78" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W78">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
@@ -6661,17 +6652,17 @@
       <c r="F79" s="5">
         <v>4</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>135023196800.67929</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="10"/>
+        <v>15275.095700168886</v>
+      </c>
+      <c r="I79" s="5">
         <f t="shared" si="11"/>
-        <v>1184550369111.1909</v>
-      </c>
-      <c r="H79" s="8">
-        <f t="shared" si="9"/>
-        <v>15275.095700168886</v>
-      </c>
-      <c r="I79" s="5">
-        <f t="shared" si="10"/>
-        <v>208457610230</v>
+        <v>259016816819.89771</v>
       </c>
       <c r="J79" s="5">
         <v>1</v>
@@ -6710,10 +6701,10 @@
         <v>78</v>
       </c>
       <c r="V79" s="5">
-        <v>60</v>
-      </c>
-      <c r="W79" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W79">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
@@ -6734,17 +6725,17 @@
       <c r="F80" s="5">
         <v>4</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>145703009957.38055</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="10"/>
+        <v>15645.085354682449</v>
+      </c>
+      <c r="I80" s="5">
         <f t="shared" si="11"/>
-        <v>1286524186509.813</v>
-      </c>
-      <c r="H80" s="8">
-        <f t="shared" si="9"/>
-        <v>15645.085354682449</v>
-      </c>
-      <c r="I80" s="5">
-        <f t="shared" si="10"/>
-        <v>225236693860</v>
+        <v>280046322487.88751</v>
       </c>
       <c r="J80" s="5">
         <v>1</v>
@@ -6783,10 +6774,10 @@
         <v>79</v>
       </c>
       <c r="V80" s="5">
-        <v>60</v>
-      </c>
-      <c r="W80" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W80">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -6807,17 +6798,17 @@
       <c r="F81" s="5">
         <v>4</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>157075180158.75674</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="10"/>
+        <v>16019.827811306393</v>
+      </c>
+      <c r="I81" s="5">
         <f t="shared" si="11"/>
-        <v>1395807430468.8464</v>
-      </c>
-      <c r="H81" s="8">
-        <f t="shared" si="9"/>
-        <v>16019.827811306393</v>
-      </c>
-      <c r="I81" s="5">
-        <f t="shared" si="10"/>
-        <v>243126484702</v>
+        <v>302482283389.0918</v>
       </c>
       <c r="J81" s="5">
         <v>1</v>
@@ -6856,10 +6847,10 @@
         <v>80</v>
       </c>
       <c r="V81" s="5">
-        <v>60</v>
-      </c>
-      <c r="W81" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W81">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
@@ -6880,17 +6871,17 @@
       <c r="F82" s="5">
         <v>4</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82">
+        <f t="shared" si="9"/>
+        <v>169174969364.58182</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="10"/>
+        <v>16399.332160842801</v>
+      </c>
+      <c r="I82" s="5">
         <f t="shared" si="11"/>
-        <v>1512821464636.5583</v>
-      </c>
-      <c r="H82" s="8">
-        <f t="shared" si="9"/>
-        <v>16399.332160842801</v>
-      </c>
-      <c r="I82" s="5">
-        <f t="shared" si="10"/>
-        <v>262185040100</v>
+        <v>326399159054.48828</v>
       </c>
       <c r="J82" s="5">
         <v>1</v>
@@ -6929,10 +6920,10 @@
         <v>81</v>
       </c>
       <c r="V82" s="5">
-        <v>60</v>
-      </c>
-      <c r="W82" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W82">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
@@ -6953,17 +6944,17 @@
       <c r="F83" s="5">
         <v>4</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83">
+        <f t="shared" si="9"/>
+        <v>182038957882.15698</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="10"/>
+        <v>16783.607396797306</v>
+      </c>
+      <c r="I83" s="5">
         <f t="shared" si="11"/>
-        <v>1638006181571.4167</v>
-      </c>
-      <c r="H83" s="8">
-        <f t="shared" si="9"/>
-        <v>16783.607396797306</v>
-      </c>
-      <c r="I83" s="5">
-        <f t="shared" si="10"/>
-        <v>282472664302</v>
+        <v>351874339676.65216</v>
       </c>
       <c r="J83" s="5">
         <v>1</v>
@@ -7002,10 +6993,10 @@
         <v>82</v>
       </c>
       <c r="V83" s="5">
-        <v>60</v>
-      </c>
-      <c r="W83" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W83">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
@@ -7026,17 +7017,17 @@
       <c r="F84" s="5">
         <v>4</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84">
+        <f t="shared" si="9"/>
+        <v>195705076251.81937</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="10"/>
+        <v>17172.662417617168</v>
+      </c>
+      <c r="I84" s="5">
         <f t="shared" si="11"/>
-        <v>1771820570598.4678</v>
-      </c>
-      <c r="H84" s="8">
-        <f t="shared" si="9"/>
-        <v>17172.662417617168</v>
-      </c>
-      <c r="I84" s="5">
-        <f t="shared" si="10"/>
-        <v>304051965700</v>
+        <v>378988222659.12939</v>
       </c>
       <c r="J84" s="5">
         <v>1</v>
@@ -7075,10 +7066,10 @@
         <v>83</v>
       </c>
       <c r="V84" s="5">
-        <v>60</v>
-      </c>
-      <c r="W84" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W84">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -7099,17 +7090,17 @@
       <c r="F85" s="5">
         <v>4</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85">
+        <f t="shared" si="9"/>
+        <v>210212637493.20776</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="10"/>
+        <v>17566.506028851596</v>
+      </c>
+      <c r="I85" s="5">
         <f t="shared" si="11"/>
-        <v>1914743295690.7161</v>
-      </c>
-      <c r="H85" s="8">
-        <f t="shared" si="9"/>
-        <v>17566.506028851596</v>
-      </c>
-      <c r="I85" s="5">
-        <f t="shared" si="10"/>
-        <v>326987914790</v>
+        <v>407824290177.18054</v>
       </c>
       <c r="J85" s="5">
         <v>1</v>
@@ -7148,10 +7139,10 @@
         <v>84</v>
       </c>
       <c r="V85" s="5">
-        <v>60</v>
-      </c>
-      <c r="W85" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W85">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
@@ -7172,17 +7163,17 @@
       <c r="F86" s="5">
         <v>4</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86">
+        <f t="shared" si="9"/>
+        <v>225602369711.80951</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="10"/>
+        <v>17965.14694523676</v>
+      </c>
+      <c r="I86" s="5">
         <f t="shared" si="11"/>
-        <v>2067273283425.0588</v>
-      </c>
-      <c r="H86" s="8">
-        <f t="shared" si="9"/>
-        <v>17965.14694523676</v>
-      </c>
-      <c r="I86" s="5">
-        <f t="shared" si="10"/>
-        <v>351347902852</v>
+        <v>438469187750.47314</v>
       </c>
       <c r="J86" s="5">
         <v>1</v>
@@ -7221,10 +7212,10 @@
         <v>85</v>
       </c>
       <c r="V86" s="5">
-        <v>60</v>
-      </c>
-      <c r="W86" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W86">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -7245,17 +7236,17 @@
       <c r="F87" s="5">
         <v>4</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>241916449065.38162</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="10"/>
+        <v>18368.593792710068</v>
+      </c>
+      <c r="I87" s="5">
         <f t="shared" si="11"/>
-        <v>2229930321062.7461</v>
-      </c>
-      <c r="H87" s="8">
-        <f t="shared" si="9"/>
-        <v>18368.593792710068</v>
-      </c>
-      <c r="I87" s="5">
-        <f t="shared" si="10"/>
-        <v>377201801350</v>
+        <v>471012803828.38055</v>
       </c>
       <c r="J87" s="5">
         <v>1</v>
@@ -7294,10 +7285,10 @@
         <v>86</v>
       </c>
       <c r="V87" s="5">
-        <v>60</v>
-      </c>
-      <c r="W87" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W87">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
@@ -7318,17 +7309,17 @@
       <c r="F88" s="5">
         <v>4</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88">
+        <f t="shared" si="9"/>
+        <v>259198533089.76453</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="10"/>
+        <v>18776.855110356017</v>
+      </c>
+      <c r="I88" s="5">
         <f t="shared" si="11"/>
-        <v>2403255664803.1401</v>
-      </c>
-      <c r="H88" s="8">
-        <f t="shared" si="9"/>
-        <v>18776.855110356017</v>
-      </c>
-      <c r="I88" s="5">
-        <f t="shared" si="10"/>
-        <v>404622022052</v>
+        <v>505548350388.466</v>
       </c>
       <c r="J88" s="5">
         <v>1</v>
@@ -7367,10 +7358,10 @@
         <v>87</v>
       </c>
       <c r="V88" s="5">
-        <v>60</v>
-      </c>
-      <c r="W88" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W88">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
@@ -7391,17 +7382,17 @@
       <c r="F89" s="5">
         <v>4</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89">
+        <f t="shared" si="9"/>
+        <v>277493794383.71814</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="10"/>
+        <v>19189.939352287445</v>
+      </c>
+      <c r="I89" s="5">
         <f t="shared" si="11"/>
-        <v>2587812658260.1812</v>
-      </c>
-      <c r="H89" s="8">
-        <f t="shared" si="9"/>
-        <v>19189.939352287445</v>
-      </c>
-      <c r="I89" s="5">
-        <f t="shared" si="10"/>
-        <v>433683577870</v>
+        <v>542172444548.82355</v>
       </c>
       <c r="J89" s="5">
         <v>1</v>
@@ -7440,10 +7431,10 @@
         <v>88</v>
       </c>
       <c r="V89" s="5">
-        <v>60</v>
-      </c>
-      <c r="W89" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W89">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
@@ -7464,17 +7455,17 @@
       <c r="F90" s="5">
         <v>4</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>296848954652.28259</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="10"/>
+        <v>19607.854889464626</v>
+      </c>
+      <c r="I90" s="5">
         <f t="shared" si="11"/>
-        <v>2784187361209.4263</v>
-      </c>
-      <c r="H90" s="8">
-        <f t="shared" si="9"/>
-        <v>19607.854889464626</v>
-      </c>
-      <c r="I90" s="5">
-        <f t="shared" si="10"/>
-        <v>464464144420</v>
+        <v>580985191194.77686</v>
       </c>
       <c r="J90" s="5">
         <v>1</v>
@@ -7513,10 +7504,10 @@
         <v>89</v>
       </c>
       <c r="V90" s="5">
-        <v>60</v>
-      </c>
-      <c r="W90" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W90">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
@@ -7537,17 +7528,17 @@
       <c r="F91" s="5">
         <v>4</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91">
+        <f t="shared" si="9"/>
+        <v>317312319108.31769</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="10"/>
+        <v>20030.610011454803</v>
+      </c>
+      <c r="I91" s="5">
         <f t="shared" si="11"/>
-        <v>2992989188654.3779</v>
-      </c>
-      <c r="H91" s="8">
-        <f t="shared" si="9"/>
-        <v>20030.610011454803</v>
-      </c>
-      <c r="I91" s="5">
-        <f t="shared" si="10"/>
-        <v>497044122302</v>
+        <v>622090266620.61975</v>
       </c>
       <c r="J91" s="5">
         <v>1</v>
@@ -7586,10 +7577,10 @@
         <v>90</v>
       </c>
       <c r="V91" s="5">
-        <v>60</v>
-      </c>
-      <c r="W91" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="W91">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3100FA-0AD5-4406-BBA0-1FFB6AC598F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00772723-D953-4D4B-9403-A3818EA6625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W91"/>
+    <sheetView tabSelected="1" topLeftCell="G58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X73" sqref="X73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1271,7 +1271,7 @@
         <v>6</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1415,7 +1415,7 @@
         <v>6</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1559,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="W8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1631,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="W9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1775,7 +1775,7 @@
         <v>6</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
         <v>6</v>
       </c>
       <c r="W12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1919,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="W13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
         <v>6</v>
       </c>
       <c r="W14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="W15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2135,7 +2135,7 @@
         <v>6</v>
       </c>
       <c r="W16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2208,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="W17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2281,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="W18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2354,7 +2354,7 @@
         <v>10</v>
       </c>
       <c r="W19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -2427,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="W20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2500,7 +2500,7 @@
         <v>10</v>
       </c>
       <c r="W21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2573,7 +2573,7 @@
         <v>10</v>
       </c>
       <c r="W22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2646,7 +2646,7 @@
         <v>10</v>
       </c>
       <c r="W23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2719,7 +2719,7 @@
         <v>10</v>
       </c>
       <c r="W24">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2792,7 +2792,7 @@
         <v>10</v>
       </c>
       <c r="W25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -2865,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="W26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2938,7 +2938,7 @@
         <v>10</v>
       </c>
       <c r="W27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -3011,7 +3011,7 @@
         <v>10</v>
       </c>
       <c r="W28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="W29">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -3157,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="W30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -3230,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="W31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -3302,7 +3302,7 @@
         <v>20</v>
       </c>
       <c r="W32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -3374,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="W33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -3446,7 +3446,7 @@
         <v>20</v>
       </c>
       <c r="W34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -3518,7 +3518,7 @@
         <v>20</v>
       </c>
       <c r="W35">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>20</v>
       </c>
       <c r="W36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -3662,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="W37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -3734,7 +3734,7 @@
         <v>20</v>
       </c>
       <c r="W38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
@@ -3806,7 +3806,7 @@
         <v>20</v>
       </c>
       <c r="W39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
         <v>20</v>
       </c>
       <c r="W40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -3950,7 +3950,7 @@
         <v>20</v>
       </c>
       <c r="W41">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="W42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
@@ -4094,7 +4094,7 @@
         <v>20</v>
       </c>
       <c r="W43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
@@ -4166,7 +4166,7 @@
         <v>20</v>
       </c>
       <c r="W44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
@@ -4238,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="W45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -4310,7 +4310,7 @@
         <v>20</v>
       </c>
       <c r="W46">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
@@ -4383,7 +4383,7 @@
         <v>30</v>
       </c>
       <c r="W47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
@@ -4456,7 +4456,7 @@
         <v>30</v>
       </c>
       <c r="W48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="W49">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
@@ -4602,7 +4602,7 @@
         <v>30</v>
       </c>
       <c r="W50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -4675,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="W51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
@@ -4748,7 +4748,7 @@
         <v>30</v>
       </c>
       <c r="W52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
@@ -4821,7 +4821,7 @@
         <v>30</v>
       </c>
       <c r="W53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
@@ -4894,7 +4894,7 @@
         <v>30</v>
       </c>
       <c r="W54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
@@ -4967,7 +4967,7 @@
         <v>30</v>
       </c>
       <c r="W55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
@@ -5040,7 +5040,7 @@
         <v>30</v>
       </c>
       <c r="W56">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -5113,7 +5113,7 @@
         <v>30</v>
       </c>
       <c r="W57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
         <v>30</v>
       </c>
       <c r="W58">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -5259,7 +5259,7 @@
         <v>30</v>
       </c>
       <c r="W59">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
@@ -5332,7 +5332,7 @@
         <v>30</v>
       </c>
       <c r="W60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
@@ -5405,7 +5405,7 @@
         <v>30</v>
       </c>
       <c r="W61">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
@@ -5477,7 +5477,7 @@
         <v>40</v>
       </c>
       <c r="W62">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
@@ -5549,7 +5549,7 @@
         <v>40</v>
       </c>
       <c r="W63">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="W64">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
@@ -5693,7 +5693,7 @@
         <v>40</v>
       </c>
       <c r="W65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
@@ -5765,7 +5765,7 @@
         <v>40</v>
       </c>
       <c r="W66">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
@@ -5837,7 +5837,7 @@
         <v>40</v>
       </c>
       <c r="W67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
@@ -5909,7 +5909,7 @@
         <v>40</v>
       </c>
       <c r="W68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
@@ -5981,7 +5981,7 @@
         <v>40</v>
       </c>
       <c r="W69">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
@@ -6053,7 +6053,7 @@
         <v>40</v>
       </c>
       <c r="W70">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -6125,7 +6125,7 @@
         <v>40</v>
       </c>
       <c r="W71">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>40</v>
       </c>
       <c r="W72">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
@@ -6269,7 +6269,7 @@
         <v>40</v>
       </c>
       <c r="W73">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
         <v>40</v>
       </c>
       <c r="W74">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
         <v>40</v>
       </c>
       <c r="W75">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
         <v>40</v>
       </c>
       <c r="W76">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
@@ -6558,7 +6558,7 @@
         <v>50</v>
       </c>
       <c r="W77">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
@@ -6631,7 +6631,7 @@
         <v>50</v>
       </c>
       <c r="W78">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
@@ -6704,7 +6704,7 @@
         <v>50</v>
       </c>
       <c r="W79">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
@@ -6777,7 +6777,7 @@
         <v>50</v>
       </c>
       <c r="W80">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -6850,7 +6850,7 @@
         <v>50</v>
       </c>
       <c r="W81">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
@@ -6923,7 +6923,7 @@
         <v>50</v>
       </c>
       <c r="W82">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
@@ -6996,7 +6996,7 @@
         <v>50</v>
       </c>
       <c r="W83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
@@ -7069,7 +7069,7 @@
         <v>50</v>
       </c>
       <c r="W84">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -7142,7 +7142,7 @@
         <v>50</v>
       </c>
       <c r="W85">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
@@ -7215,7 +7215,7 @@
         <v>50</v>
       </c>
       <c r="W86">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -7288,7 +7288,7 @@
         <v>50</v>
       </c>
       <c r="W87">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
@@ -7361,7 +7361,7 @@
         <v>50</v>
       </c>
       <c r="W88">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
@@ -7434,7 +7434,7 @@
         <v>50</v>
       </c>
       <c r="W89">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
@@ -7507,7 +7507,7 @@
         <v>50</v>
       </c>
       <c r="W90">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
@@ -7580,7 +7580,7 @@
         <v>50</v>
       </c>
       <c r="W91">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00772723-D953-4D4B-9403-A3818EA6625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C994A03-B7D3-48CC-910C-07B2F801146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X73" sqref="X73"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1196,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1268,10 +1268,10 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1340,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1412,10 +1412,10 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1484,10 +1484,10 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1556,10 +1556,10 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1628,10 +1628,10 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1700,10 +1700,10 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1772,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1844,10 +1844,10 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1916,10 +1916,10 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1991,7 +1991,7 @@
         <v>6</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2135,7 +2135,7 @@
         <v>6</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2205,10 +2205,10 @@
         <v>16</v>
       </c>
       <c r="V17" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2278,10 +2278,10 @@
         <v>17</v>
       </c>
       <c r="V18" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2351,10 +2351,10 @@
         <v>18</v>
       </c>
       <c r="V19" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -2424,10 +2424,10 @@
         <v>19</v>
       </c>
       <c r="V20" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2497,10 +2497,10 @@
         <v>20</v>
       </c>
       <c r="V21" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2570,10 +2570,10 @@
         <v>21</v>
       </c>
       <c r="V22" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2643,10 +2643,10 @@
         <v>22</v>
       </c>
       <c r="V23" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2716,10 +2716,10 @@
         <v>23</v>
       </c>
       <c r="V24" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2789,10 +2789,10 @@
         <v>24</v>
       </c>
       <c r="V25" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -2862,10 +2862,10 @@
         <v>25</v>
       </c>
       <c r="V26" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2935,10 +2935,10 @@
         <v>26</v>
       </c>
       <c r="V27" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -3008,10 +3008,10 @@
         <v>27</v>
       </c>
       <c r="V28" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -3081,10 +3081,10 @@
         <v>28</v>
       </c>
       <c r="V29" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -3154,10 +3154,10 @@
         <v>29</v>
       </c>
       <c r="V30" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -3227,10 +3227,10 @@
         <v>30</v>
       </c>
       <c r="V31" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -3302,7 +3302,7 @@
         <v>20</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -3374,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -3446,7 +3446,7 @@
         <v>20</v>
       </c>
       <c r="W34">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -3518,7 +3518,7 @@
         <v>20</v>
       </c>
       <c r="W35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>20</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -3662,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="W37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -3734,7 +3734,7 @@
         <v>20</v>
       </c>
       <c r="W38">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
@@ -3806,7 +3806,7 @@
         <v>20</v>
       </c>
       <c r="W39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
         <v>20</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -3950,7 +3950,7 @@
         <v>20</v>
       </c>
       <c r="W41">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="W42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
@@ -4094,7 +4094,7 @@
         <v>20</v>
       </c>
       <c r="W43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
@@ -4166,7 +4166,7 @@
         <v>20</v>
       </c>
       <c r="W44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
@@ -4238,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="W45">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -4310,7 +4310,7 @@
         <v>20</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
@@ -4383,7 +4383,7 @@
         <v>30</v>
       </c>
       <c r="W47">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
@@ -4456,7 +4456,7 @@
         <v>30</v>
       </c>
       <c r="W48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="W49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
@@ -4602,7 +4602,7 @@
         <v>30</v>
       </c>
       <c r="W50">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -4675,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="W51">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
@@ -4748,7 +4748,7 @@
         <v>30</v>
       </c>
       <c r="W52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
@@ -4821,7 +4821,7 @@
         <v>30</v>
       </c>
       <c r="W53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
@@ -4894,7 +4894,7 @@
         <v>30</v>
       </c>
       <c r="W54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
@@ -4967,7 +4967,7 @@
         <v>30</v>
       </c>
       <c r="W55">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
@@ -5040,7 +5040,7 @@
         <v>30</v>
       </c>
       <c r="W56">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -5113,7 +5113,7 @@
         <v>30</v>
       </c>
       <c r="W57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
         <v>30</v>
       </c>
       <c r="W58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -5259,7 +5259,7 @@
         <v>30</v>
       </c>
       <c r="W59">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
@@ -5332,7 +5332,7 @@
         <v>30</v>
       </c>
       <c r="W60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
@@ -5405,7 +5405,7 @@
         <v>30</v>
       </c>
       <c r="W61">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
@@ -5477,7 +5477,7 @@
         <v>40</v>
       </c>
       <c r="W62">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
@@ -5549,7 +5549,7 @@
         <v>40</v>
       </c>
       <c r="W63">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="W64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
@@ -5693,7 +5693,7 @@
         <v>40</v>
       </c>
       <c r="W65">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
@@ -5765,7 +5765,7 @@
         <v>40</v>
       </c>
       <c r="W66">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
@@ -5837,7 +5837,7 @@
         <v>40</v>
       </c>
       <c r="W67">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
@@ -5909,7 +5909,7 @@
         <v>40</v>
       </c>
       <c r="W68">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
@@ -5981,7 +5981,7 @@
         <v>40</v>
       </c>
       <c r="W69">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
@@ -6053,7 +6053,7 @@
         <v>40</v>
       </c>
       <c r="W70">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -6125,7 +6125,7 @@
         <v>40</v>
       </c>
       <c r="W71">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>40</v>
       </c>
       <c r="W72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
@@ -6269,7 +6269,7 @@
         <v>40</v>
       </c>
       <c r="W73">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
         <v>40</v>
       </c>
       <c r="W74">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
         <v>40</v>
       </c>
       <c r="W75">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
         <v>40</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
@@ -6558,7 +6558,7 @@
         <v>50</v>
       </c>
       <c r="W77">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
@@ -6631,7 +6631,7 @@
         <v>50</v>
       </c>
       <c r="W78">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
@@ -6704,7 +6704,7 @@
         <v>50</v>
       </c>
       <c r="W79">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
@@ -6777,7 +6777,7 @@
         <v>50</v>
       </c>
       <c r="W80">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -6850,7 +6850,7 @@
         <v>50</v>
       </c>
       <c r="W81">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
@@ -6923,7 +6923,7 @@
         <v>50</v>
       </c>
       <c r="W82">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
@@ -6996,7 +6996,7 @@
         <v>50</v>
       </c>
       <c r="W83">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
@@ -7069,7 +7069,7 @@
         <v>50</v>
       </c>
       <c r="W84">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -7142,7 +7142,7 @@
         <v>50</v>
       </c>
       <c r="W85">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
@@ -7215,7 +7215,7 @@
         <v>50</v>
       </c>
       <c r="W86">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -7288,7 +7288,7 @@
         <v>50</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
@@ -7361,7 +7361,7 @@
         <v>50</v>
       </c>
       <c r="W88">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
@@ -7434,7 +7434,7 @@
         <v>50</v>
       </c>
       <c r="W89">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
@@ -7507,7 +7507,7 @@
         <v>50</v>
       </c>
       <c r="W90">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
@@ -7580,7 +7580,7 @@
         <v>50</v>
       </c>
       <c r="W91">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C994A03-B7D3-48CC-910C-07B2F801146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ECFB97-2CA3-41D3-B448-4A5672759E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <v>1.5</v>
@@ -1340,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W5">
         <v>1.5</v>
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W6">
         <v>1.5</v>
@@ -1484,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W7">
         <v>1.5</v>
@@ -1556,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W8">
         <v>1.5</v>
@@ -1628,7 +1628,7 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W9">
         <v>1.5</v>
@@ -1700,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W10">
         <v>1.5</v>
@@ -1772,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W11">
         <v>1.5</v>
@@ -1844,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W12">
         <v>1.5</v>
@@ -1916,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W13">
         <v>1.5</v>
@@ -1988,7 +1988,7 @@
         <v>13</v>
       </c>
       <c r="V14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W14">
         <v>1.5</v>
@@ -2060,7 +2060,7 @@
         <v>14</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W15">
         <v>1.5</v>
@@ -2132,7 +2132,7 @@
         <v>15</v>
       </c>
       <c r="V16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W16">
         <v>1.5</v>
@@ -2205,7 +2205,7 @@
         <v>16</v>
       </c>
       <c r="V17" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W17">
         <v>1.5</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="V18" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W18">
         <v>1.5</v>
@@ -2351,7 +2351,7 @@
         <v>18</v>
       </c>
       <c r="V19" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W19">
         <v>1.5</v>
@@ -2424,7 +2424,7 @@
         <v>19</v>
       </c>
       <c r="V20" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W20">
         <v>1.5</v>
@@ -2497,7 +2497,7 @@
         <v>20</v>
       </c>
       <c r="V21" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W21">
         <v>1.5</v>
@@ -2570,7 +2570,7 @@
         <v>21</v>
       </c>
       <c r="V22" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W22">
         <v>1.5</v>
@@ -2643,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="V23" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W23">
         <v>1.5</v>
@@ -2716,7 +2716,7 @@
         <v>23</v>
       </c>
       <c r="V24" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W24">
         <v>1.5</v>
@@ -2789,7 +2789,7 @@
         <v>24</v>
       </c>
       <c r="V25" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W25">
         <v>1.5</v>
@@ -2862,7 +2862,7 @@
         <v>25</v>
       </c>
       <c r="V26" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W26">
         <v>1.5</v>
@@ -2935,7 +2935,7 @@
         <v>26</v>
       </c>
       <c r="V27" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W27">
         <v>1.5</v>
@@ -3008,7 +3008,7 @@
         <v>27</v>
       </c>
       <c r="V28" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W28">
         <v>1.5</v>
@@ -3081,7 +3081,7 @@
         <v>28</v>
       </c>
       <c r="V29" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W29">
         <v>1.5</v>
@@ -3154,7 +3154,7 @@
         <v>29</v>
       </c>
       <c r="V30" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W30">
         <v>1.5</v>
@@ -3227,7 +3227,7 @@
         <v>30</v>
       </c>
       <c r="V31" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W31">
         <v>1.5</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ECFB97-2CA3-41D3-B448-4A5672759E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00682139-0C98-4683-A155-C2A52011CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1340,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W5">
         <v>1.5</v>
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W6">
         <v>1.5</v>
@@ -1484,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W7">
         <v>1.5</v>
@@ -1556,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W8">
         <v>1.5</v>
@@ -1628,7 +1628,7 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W9">
         <v>1.5</v>
@@ -1700,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W10">
         <v>1.5</v>
@@ -1772,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W11">
         <v>1.5</v>
@@ -1844,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W12">
         <v>1.5</v>
@@ -1916,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W13">
         <v>1.5</v>
@@ -1988,7 +1988,7 @@
         <v>13</v>
       </c>
       <c r="V14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W14">
         <v>1.5</v>
@@ -2060,7 +2060,7 @@
         <v>14</v>
       </c>
       <c r="V15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W15">
         <v>1.5</v>
@@ -2132,7 +2132,7 @@
         <v>15</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W16">
         <v>1.5</v>
@@ -2205,7 +2205,7 @@
         <v>16</v>
       </c>
       <c r="V17" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W17">
         <v>1.5</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="V18" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W18">
         <v>1.5</v>
@@ -2351,7 +2351,7 @@
         <v>18</v>
       </c>
       <c r="V19" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W19">
         <v>1.5</v>
@@ -2424,7 +2424,7 @@
         <v>19</v>
       </c>
       <c r="V20" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W20">
         <v>1.5</v>
@@ -2497,7 +2497,7 @@
         <v>20</v>
       </c>
       <c r="V21" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W21">
         <v>1.5</v>
@@ -2570,7 +2570,7 @@
         <v>21</v>
       </c>
       <c r="V22" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W22">
         <v>1.5</v>
@@ -2643,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="V23" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W23">
         <v>1.5</v>
@@ -2716,7 +2716,7 @@
         <v>23</v>
       </c>
       <c r="V24" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W24">
         <v>1.5</v>
@@ -2789,7 +2789,7 @@
         <v>24</v>
       </c>
       <c r="V25" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W25">
         <v>1.5</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00682139-0C98-4683-A155-C2A52011CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E965DA5-3AD1-42FB-8E2E-368EC0193633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="W2">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="W3">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="W4">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1412,10 +1412,10 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W6">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1484,10 +1484,10 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W7">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1556,10 +1556,10 @@
         <v>7</v>
       </c>
       <c r="V8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W8">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1628,10 +1628,10 @@
         <v>8</v>
       </c>
       <c r="V9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W9">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1700,10 +1700,10 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1772,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W11">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1844,10 +1844,10 @@
         <v>11</v>
       </c>
       <c r="V12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1916,10 +1916,10 @@
         <v>12</v>
       </c>
       <c r="V13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W13">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1988,10 +1988,10 @@
         <v>13</v>
       </c>
       <c r="V14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W14">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -2060,10 +2060,10 @@
         <v>14</v>
       </c>
       <c r="V15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2132,10 +2132,10 @@
         <v>15</v>
       </c>
       <c r="V16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W16">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2208,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="W17">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2281,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2354,7 +2354,7 @@
         <v>9</v>
       </c>
       <c r="W19">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -2427,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="W20">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2500,7 +2500,7 @@
         <v>9</v>
       </c>
       <c r="W21">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2573,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="W22">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2646,7 +2646,7 @@
         <v>9</v>
       </c>
       <c r="W23">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2719,7 +2719,7 @@
         <v>9</v>
       </c>
       <c r="W24">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2792,7 +2792,7 @@
         <v>9</v>
       </c>
       <c r="W25">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -2865,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="W26">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2938,7 +2938,7 @@
         <v>10</v>
       </c>
       <c r="W27">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -3011,7 +3011,7 @@
         <v>10</v>
       </c>
       <c r="W28">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -3084,7 +3084,7 @@
         <v>10</v>
       </c>
       <c r="W29">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -3157,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="W30">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -3230,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="W31">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -3302,7 +3302,7 @@
         <v>20</v>
       </c>
       <c r="W32">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -3374,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="W33">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -3446,7 +3446,7 @@
         <v>20</v>
       </c>
       <c r="W34">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -3518,7 +3518,7 @@
         <v>20</v>
       </c>
       <c r="W35">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -3590,7 +3590,7 @@
         <v>20</v>
       </c>
       <c r="W36">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -3662,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="W37">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -3734,7 +3734,7 @@
         <v>20</v>
       </c>
       <c r="W38">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
@@ -3806,7 +3806,7 @@
         <v>20</v>
       </c>
       <c r="W39">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
         <v>20</v>
       </c>
       <c r="W40">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -3950,7 +3950,7 @@
         <v>20</v>
       </c>
       <c r="W41">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="W42">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
@@ -4094,7 +4094,7 @@
         <v>20</v>
       </c>
       <c r="W43">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
@@ -4166,7 +4166,7 @@
         <v>20</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
@@ -4238,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="W45">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -4310,7 +4310,7 @@
         <v>20</v>
       </c>
       <c r="W46">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
@@ -4383,7 +4383,7 @@
         <v>30</v>
       </c>
       <c r="W47">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
@@ -4456,7 +4456,7 @@
         <v>30</v>
       </c>
       <c r="W48">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="W49">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
@@ -4602,7 +4602,7 @@
         <v>30</v>
       </c>
       <c r="W50">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -4675,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="W51">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
@@ -4748,7 +4748,7 @@
         <v>30</v>
       </c>
       <c r="W52">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
@@ -4821,7 +4821,7 @@
         <v>30</v>
       </c>
       <c r="W53">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
@@ -4894,7 +4894,7 @@
         <v>30</v>
       </c>
       <c r="W54">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
@@ -4967,7 +4967,7 @@
         <v>30</v>
       </c>
       <c r="W55">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
@@ -5040,7 +5040,7 @@
         <v>30</v>
       </c>
       <c r="W56">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -5113,7 +5113,7 @@
         <v>30</v>
       </c>
       <c r="W57">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
         <v>30</v>
       </c>
       <c r="W58">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -5259,7 +5259,7 @@
         <v>30</v>
       </c>
       <c r="W59">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
@@ -5332,7 +5332,7 @@
         <v>30</v>
       </c>
       <c r="W60">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
@@ -5405,7 +5405,7 @@
         <v>30</v>
       </c>
       <c r="W61">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
@@ -5477,7 +5477,7 @@
         <v>40</v>
       </c>
       <c r="W62">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
@@ -5549,7 +5549,7 @@
         <v>40</v>
       </c>
       <c r="W63">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="W64">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
@@ -5693,7 +5693,7 @@
         <v>40</v>
       </c>
       <c r="W65">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
@@ -5765,7 +5765,7 @@
         <v>40</v>
       </c>
       <c r="W66">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
@@ -5837,7 +5837,7 @@
         <v>40</v>
       </c>
       <c r="W67">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
@@ -5909,7 +5909,7 @@
         <v>40</v>
       </c>
       <c r="W68">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
@@ -5981,7 +5981,7 @@
         <v>40</v>
       </c>
       <c r="W69">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
@@ -6053,7 +6053,7 @@
         <v>40</v>
       </c>
       <c r="W70">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -6125,7 +6125,7 @@
         <v>40</v>
       </c>
       <c r="W71">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>40</v>
       </c>
       <c r="W72">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
@@ -6269,7 +6269,7 @@
         <v>40</v>
       </c>
       <c r="W73">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -6341,7 +6341,7 @@
         <v>40</v>
       </c>
       <c r="W74">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
         <v>40</v>
       </c>
       <c r="W75">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
         <v>40</v>
       </c>
       <c r="W76">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
@@ -6558,7 +6558,7 @@
         <v>50</v>
       </c>
       <c r="W77">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
@@ -6631,7 +6631,7 @@
         <v>50</v>
       </c>
       <c r="W78">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
@@ -6704,7 +6704,7 @@
         <v>50</v>
       </c>
       <c r="W79">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
@@ -6777,7 +6777,7 @@
         <v>50</v>
       </c>
       <c r="W80">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -6850,7 +6850,7 @@
         <v>50</v>
       </c>
       <c r="W81">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
@@ -6923,7 +6923,7 @@
         <v>50</v>
       </c>
       <c r="W82">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
@@ -6996,7 +6996,7 @@
         <v>50</v>
       </c>
       <c r="W83">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
@@ -7069,7 +7069,7 @@
         <v>50</v>
       </c>
       <c r="W84">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -7142,7 +7142,7 @@
         <v>50</v>
       </c>
       <c r="W85">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
@@ -7215,7 +7215,7 @@
         <v>50</v>
       </c>
       <c r="W86">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -7288,7 +7288,7 @@
         <v>50</v>
       </c>
       <c r="W87">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
@@ -7361,7 +7361,7 @@
         <v>50</v>
       </c>
       <c r="W88">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
@@ -7434,7 +7434,7 @@
         <v>50</v>
       </c>
       <c r="W89">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
@@ -7507,7 +7507,7 @@
         <v>50</v>
       </c>
       <c r="W90">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
@@ -7580,7 +7580,7 @@
         <v>50</v>
       </c>
       <c r="W91">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E965DA5-3AD1-42FB-8E2E-368EC0193633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3DE879-BF82-4123-882E-3B05EA6732C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1121,13 +1121,14 @@
         <v>57</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <f>A2+5</f>
+        <v>5</v>
       </c>
       <c r="V2">
         <v>3</v>
       </c>
       <c r="W2">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1193,13 +1194,14 @@
         <v>57</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <f t="shared" ref="U3:U66" si="4">A3+5</f>
+        <v>6</v>
       </c>
       <c r="V3">
         <v>4</v>
       </c>
       <c r="W3">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1265,13 +1267,14 @@
         <v>59</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="V4">
         <v>5</v>
       </c>
       <c r="W4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1337,13 +1340,14 @@
         <v>59</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="V5">
         <v>7</v>
       </c>
       <c r="W5">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1409,13 +1413,14 @@
         <v>59</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="V6">
         <v>7</v>
       </c>
       <c r="W6">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1481,13 +1486,14 @@
         <v>59</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="V7">
         <v>7</v>
       </c>
       <c r="W7">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1553,13 +1559,14 @@
         <v>59</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="V8">
         <v>7</v>
       </c>
       <c r="W8">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1625,13 +1632,14 @@
         <v>59</v>
       </c>
       <c r="U9">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="V9">
         <v>7</v>
       </c>
       <c r="W9">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1697,13 +1705,14 @@
         <v>59</v>
       </c>
       <c r="U10">
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="V10">
         <v>7</v>
       </c>
       <c r="W10">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1769,13 +1778,14 @@
         <v>59</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="V11">
         <v>7</v>
       </c>
       <c r="W11">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1841,13 +1851,14 @@
         <v>59</v>
       </c>
       <c r="U12">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="V12">
         <v>8</v>
       </c>
       <c r="W12">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1913,13 +1924,14 @@
         <v>59</v>
       </c>
       <c r="U13">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="V13">
         <v>8</v>
       </c>
       <c r="W13">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1985,13 +1997,14 @@
         <v>59</v>
       </c>
       <c r="U14">
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="V14">
         <v>8</v>
       </c>
       <c r="W14">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -2057,13 +2070,14 @@
         <v>59</v>
       </c>
       <c r="U15">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="V15">
         <v>8</v>
       </c>
       <c r="W15">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2129,13 +2143,14 @@
         <v>59</v>
       </c>
       <c r="U16">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="V16">
         <v>8</v>
       </c>
       <c r="W16">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2201,14 +2216,15 @@
       <c r="T17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="5">
-        <v>16</v>
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="V17" s="5">
         <v>9</v>
       </c>
       <c r="W17">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2238,7 +2254,7 @@
         <v>1238.0234410266619</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" ref="I18:I31" si="4">A18^6.05+A18^4+1000*A18+100</f>
+        <f t="shared" ref="I18:I31" si="5">A18^6.05+A18^4+1000*A18+100</f>
         <v>19353596.420629941</v>
       </c>
       <c r="J18" s="5">
@@ -2274,14 +2290,15 @@
       <c r="T18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="5">
-        <v>17</v>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="V18" s="5">
         <v>9</v>
       </c>
       <c r="W18">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2311,50 +2328,51 @@
         <v>1342.0436751359628</v>
       </c>
       <c r="I19" s="5">
+        <f t="shared" si="5"/>
+        <v>27911580.609781958</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>11</v>
+      </c>
+      <c r="L19" s="5">
+        <v>5</v>
+      </c>
+      <c r="M19" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N19" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O19" s="5">
+        <v>30</v>
+      </c>
+      <c r="P19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="4"/>
-        <v>27911580.609781958</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>11</v>
-      </c>
-      <c r="L19" s="5">
-        <v>5</v>
-      </c>
-      <c r="M19" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N19" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O19" s="5">
-        <v>30</v>
-      </c>
-      <c r="P19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U19" s="5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="V19" s="5">
         <v>9</v>
       </c>
       <c r="W19">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -2384,50 +2402,51 @@
         <v>1449.8456143671119</v>
       </c>
       <c r="I20" s="5">
+        <f t="shared" si="5"/>
+        <v>39423628.500273176</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>11</v>
+      </c>
+      <c r="L20" s="5">
+        <v>5</v>
+      </c>
+      <c r="M20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O20" s="5">
+        <v>30</v>
+      </c>
+      <c r="P20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="4"/>
-        <v>39423628.500273176</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5">
-        <v>11</v>
-      </c>
-      <c r="L20" s="5">
-        <v>5</v>
-      </c>
-      <c r="M20" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N20" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O20" s="5">
-        <v>30</v>
-      </c>
-      <c r="P20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
-        <v>1</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U20" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V20" s="5">
         <v>9</v>
       </c>
       <c r="W20">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2457,50 +2476,51 @@
         <v>1561.4618367199535</v>
       </c>
       <c r="I21" s="5">
+        <f t="shared" si="5"/>
+        <v>54657300.325151183</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>11</v>
+      </c>
+      <c r="L21" s="5">
+        <v>5</v>
+      </c>
+      <c r="M21" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N21" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O21" s="5">
+        <v>30</v>
+      </c>
+      <c r="P21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="4"/>
-        <v>54657300.325151183</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
-        <v>11</v>
-      </c>
-      <c r="L21" s="5">
-        <v>5</v>
-      </c>
-      <c r="M21" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N21" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O21" s="5">
-        <v>30</v>
-      </c>
-      <c r="P21" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <v>1</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U21" s="5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V21" s="5">
         <v>9</v>
       </c>
       <c r="W21">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -2530,50 +2550,51 @@
         <v>1676.9234150652314</v>
       </c>
       <c r="I22" s="5">
+        <f t="shared" si="5"/>
+        <v>74521626.377058581</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>11</v>
+      </c>
+      <c r="L22" s="5">
+        <v>5</v>
+      </c>
+      <c r="M22" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N22" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O22" s="5">
+        <v>30</v>
+      </c>
+      <c r="P22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="4"/>
-        <v>74521626.377058581</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5">
-        <v>11</v>
-      </c>
-      <c r="L22" s="5">
-        <v>5</v>
-      </c>
-      <c r="M22" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N22" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O22" s="5">
-        <v>30</v>
-      </c>
-      <c r="P22" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R22" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
-        <v>1</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U22" s="5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V22" s="5">
         <v>9</v>
       </c>
       <c r="W22">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -2603,7 +2624,7 @@
         <v>1796.2600607904049</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100083668.50855029</v>
       </c>
       <c r="J23" s="5">
@@ -2639,14 +2660,15 @@
       <c r="T23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U23" s="5">
-        <v>22</v>
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="V23" s="5">
         <v>9</v>
       </c>
       <c r="W23">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -2676,7 +2698,7 @@
         <v>1919.5002473492318</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>132586022.80255465</v>
       </c>
       <c r="J24" s="5">
@@ -2712,14 +2734,15 @@
       <c r="T24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U24" s="5">
-        <v>23</v>
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="V24" s="5">
         <v>9</v>
       </c>
       <c r="W24">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -2749,7 +2772,7 @@
         <v>2046.6713173374812</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>173465265.83290106</v>
       </c>
       <c r="J25" s="5">
@@ -2785,14 +2808,15 @@
       <c r="T25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U25" s="5">
-        <v>24</v>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="V25" s="5">
         <v>9</v>
       </c>
       <c r="W25">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -2822,7 +2846,7 @@
         <v>2177.7995759309588</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>224371346.82224062</v>
       </c>
       <c r="J26" s="5">
@@ -2858,14 +2882,15 @@
       <c r="T26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U26" s="5">
-        <v>25</v>
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
       <c r="V26" s="5">
         <v>10</v>
       </c>
       <c r="W26">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -2895,7 +2920,7 @@
         <v>2312.9103729329759</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>287187927.90234828</v>
       </c>
       <c r="J27" s="5">
@@ -2931,14 +2956,15 @@
       <c r="T27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="5">
-        <v>26</v>
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="V27" s="5">
         <v>10</v>
       </c>
       <c r="W27">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -2968,7 +2994,7 @@
         <v>2452.0281752309029</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>364053674.58838946</v>
       </c>
       <c r="J28" s="5">
@@ -3004,14 +3030,15 @@
       <c r="T28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U28" s="5">
-        <v>27</v>
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
       <c r="V28" s="5">
         <v>10</v>
       </c>
       <c r="W28">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -3041,7 +3068,7 @@
         <v>2595.1766311172187</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>457384498.49307305</v>
       </c>
       <c r="J29" s="5">
@@ -3077,14 +3104,15 @@
       <c r="T29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U29" s="5">
-        <v>28</v>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="V29" s="5">
         <v>10</v>
       </c>
       <c r="W29">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -3114,7 +3142,7 @@
         <v>2742.378627662727</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>569896754.22786295</v>
       </c>
       <c r="J30" s="5">
@@ -3150,14 +3178,15 @@
       <c r="T30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U30" s="5">
-        <v>29</v>
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
       <c r="V30" s="5">
         <v>10</v>
       </c>
       <c r="W30">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -3187,7 +3216,7 @@
         <v>2893.6563421190704</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>704631392.3656193</v>
       </c>
       <c r="J31" s="5">
@@ -3223,14 +3252,15 @@
       <c r="T31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U31" s="5">
-        <v>30</v>
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>34</v>
       </c>
       <c r="V31" s="5">
         <v>10</v>
       </c>
       <c r="W31">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -3296,13 +3326,14 @@
         <v>59</v>
       </c>
       <c r="U32">
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="V32">
         <v>20</v>
       </c>
       <c r="W32">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -3331,7 +3362,7 @@
         <v>3208.5243576419898</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:I46" si="5">A33^6.05+A33^4+1000*A33+100</f>
+        <f t="shared" ref="I33:I46" si="6">A33^6.05+A33^4+1000*A33+100</f>
         <v>1054706222.5482085</v>
       </c>
       <c r="J33">
@@ -3368,13 +3399,14 @@
         <v>59</v>
       </c>
       <c r="U33">
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="V33">
         <v>20</v>
       </c>
       <c r="W33">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -3403,7 +3435,7 @@
         <v>3372.1558584396066</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1277982092.776799</v>
       </c>
       <c r="J34">
@@ -3440,13 +3472,14 @@
         <v>59</v>
       </c>
       <c r="U34">
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>37</v>
       </c>
       <c r="V34">
         <v>20</v>
       </c>
       <c r="W34">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -3475,7 +3508,7 @@
         <v>3539.9455488575204</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1539406728.1930718</v>
       </c>
       <c r="J35">
@@ -3512,13 +3545,14 @@
         <v>59</v>
       </c>
       <c r="U35">
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>38</v>
       </c>
       <c r="V35">
         <v>20</v>
       </c>
       <c r="W35">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
@@ -3547,7 +3581,7 @@
         <v>3711.9126690061603</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1844039938.8720973</v>
       </c>
       <c r="J36">
@@ -3584,13 +3618,14 @@
         <v>59</v>
       </c>
       <c r="U36">
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
       </c>
       <c r="V36">
         <v>20</v>
       </c>
       <c r="W36">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
@@ -3619,7 +3654,7 @@
         <v>3888.0759695029919</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2197431222.9588652</v>
       </c>
       <c r="J37">
@@ -3656,13 +3691,14 @@
         <v>59</v>
       </c>
       <c r="U37">
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="V37">
         <v>20</v>
       </c>
       <c r="W37">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -3691,7 +3727,7 @@
         <v>4068.4537377949773</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2605650659.4316463</v>
       </c>
       <c r="J38">
@@ -3728,13 +3764,14 @@
         <v>59</v>
       </c>
       <c r="U38">
-        <v>37</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="V38">
         <v>20</v>
       </c>
       <c r="W38">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
@@ -3763,7 +3800,7 @@
         <v>4253.0638223615515</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3075320769.8440089</v>
       </c>
       <c r="J39">
@@ -3800,13 +3837,14 @@
         <v>59</v>
       </c>
       <c r="U39">
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
       <c r="V39">
         <v>20</v>
       </c>
       <c r="W39">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
@@ -3835,7 +3873,7 @@
         <v>4441.923655022405</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3613649350.4516859</v>
       </c>
       <c r="J40">
@@ -3872,13 +3910,14 @@
         <v>59</v>
       </c>
       <c r="U40">
-        <v>39</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
       <c r="V40">
         <v>20</v>
       </c>
       <c r="W40">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
@@ -3907,7 +3946,7 @@
         <v>4635.0502715451767</v>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4228463276.0924816</v>
       </c>
       <c r="J41">
@@ -3944,13 +3983,14 @@
         <v>59</v>
       </c>
       <c r="U41">
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>44</v>
       </c>
       <c r="V41">
         <v>20</v>
       </c>
       <c r="W41">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
@@ -3979,7 +4019,7 @@
         <v>4832.4603307235975</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4928243277.151823</v>
       </c>
       <c r="J42">
@@ -4016,13 +4056,14 @@
         <v>59</v>
       </c>
       <c r="U42">
-        <v>41</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="V42">
         <v>20</v>
       </c>
       <c r="W42">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
@@ -4051,7 +4092,7 @@
         <v>5034.1701320755374</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5722159690.9129629</v>
       </c>
       <c r="J43">
@@ -4088,13 +4129,14 @@
         <v>59</v>
       </c>
       <c r="U43">
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
       <c r="V43">
         <v>20</v>
       </c>
       <c r="W43">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
@@ -4123,7 +4165,7 @@
         <v>5240.1956322925425</v>
       </c>
       <c r="I44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6620109188.5582886</v>
       </c>
       <c r="J44">
@@ -4160,13 +4202,14 @@
         <v>59</v>
       </c>
       <c r="U44">
-        <v>43</v>
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
       <c r="V44">
         <v>20</v>
       </c>
       <c r="W44">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
@@ -4195,7 +4238,7 @@
         <v>5450.5524605569453</v>
       </c>
       <c r="I45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7632752479.0583487</v>
       </c>
       <c r="J45">
@@ -4232,13 +4275,14 @@
         <v>59</v>
       </c>
       <c r="U45">
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
       <c r="V45">
         <v>20</v>
       </c>
       <c r="W45">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
@@ -4267,7 +4311,7 @@
         <v>5665.2559328294519</v>
       </c>
       <c r="I46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8771552991.1552639</v>
       </c>
       <c r="J46">
@@ -4304,13 +4348,14 @@
         <v>59</v>
       </c>
       <c r="U46">
-        <v>45</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="V46">
         <v>20</v>
       </c>
       <c r="W46">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
@@ -4376,14 +4421,15 @@
       <c r="T47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U47" s="5">
-        <v>46</v>
+      <c r="U47">
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="V47" s="5">
         <v>30</v>
       </c>
       <c r="W47">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
@@ -4413,7 +4459,7 @@
         <v>6107.7625863725425</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" ref="I48:I61" si="6">A48^6.05+A48^4+1000*A48+100</f>
+        <f t="shared" ref="I48:I61" si="7">A48^6.05+A48^4+1000*A48+100</f>
         <v>11477731941.941059</v>
       </c>
       <c r="J48" s="5">
@@ -4449,14 +4495,15 @@
       <c r="T48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U48" s="5">
-        <v>47</v>
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
       <c r="V48" s="5">
         <v>30</v>
       </c>
       <c r="W48">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -4486,7 +4533,7 @@
         <v>6335.5949493887865</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13072412691.557264</v>
       </c>
       <c r="J49" s="5">
@@ -4522,14 +4569,15 @@
       <c r="T49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U49" s="5">
-        <v>48</v>
+      <c r="U49">
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
       <c r="V49" s="5">
         <v>30</v>
       </c>
       <c r="W49">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
@@ -4559,7 +4607,7 @@
         <v>6567.8323426019369</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14847939513.764933</v>
       </c>
       <c r="J50" s="5">
@@ -4595,14 +4643,15 @@
       <c r="T50" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U50" s="5">
-        <v>49</v>
+      <c r="U50">
+        <f t="shared" si="4"/>
+        <v>53</v>
       </c>
       <c r="V50" s="5">
         <v>30</v>
       </c>
       <c r="W50">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
@@ -4632,7 +4681,7 @@
         <v>6804.4887000129083</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16820403980.352938</v>
       </c>
       <c r="J51" s="5">
@@ -4668,14 +4717,15 @@
       <c r="T51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U51" s="5">
-        <v>50</v>
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="V51" s="5">
         <v>30</v>
       </c>
       <c r="W51">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
@@ -4705,7 +4755,7 @@
         <v>7045.5777109891469</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19006953079.0415</v>
       </c>
       <c r="J52" s="5">
@@ -4741,14 +4791,15 @@
       <c r="T52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U52" s="5">
-        <v>51</v>
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
       <c r="V52" s="5">
         <v>30</v>
       </c>
       <c r="W52">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
@@ -4778,7 +4829,7 @@
         <v>7291.112829424178</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21425834773.754974</v>
       </c>
       <c r="J53" s="5">
@@ -4814,14 +4865,15 @@
       <c r="T53" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U53" s="5">
-        <v>52</v>
+      <c r="U53">
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
       <c r="V53" s="5">
         <v>30</v>
       </c>
       <c r="W53">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
@@ -4851,7 +4903,7 @@
         <v>7541.107282379372</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24096444551.748653</v>
       </c>
       <c r="J54" s="5">
@@ -4887,14 +4939,15 @@
       <c r="T54" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U54" s="5">
-        <v>53</v>
+      <c r="U54">
+        <f t="shared" si="4"/>
+        <v>57</v>
       </c>
       <c r="V54" s="5">
         <v>30</v>
       </c>
       <c r="W54">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
@@ -4924,7 +4977,7 @@
         <v>7795.5740782464591</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27039372958.585335</v>
       </c>
       <c r="J55" s="5">
@@ -4960,14 +5013,15 @@
       <c r="T55" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U55" s="5">
-        <v>54</v>
+      <c r="U55">
+        <f t="shared" si="4"/>
+        <v>58</v>
       </c>
       <c r="V55" s="5">
         <v>30</v>
       </c>
       <c r="W55">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
@@ -4997,7 +5051,7 @@
         <v>8054.5260144662298</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30276454121.941242</v>
       </c>
       <c r="J56" s="5">
@@ -5033,14 +5087,15 @@
       <c r="T56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U56" s="5">
-        <v>55</v>
+      <c r="U56">
+        <f t="shared" si="4"/>
+        <v>59</v>
       </c>
       <c r="V56" s="5">
         <v>30</v>
       </c>
       <c r="W56">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
@@ -5070,7 +5125,7 @@
         <v>8317.9756848352717</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33830815265.202354</v>
       </c>
       <c r="J57" s="5">
@@ -5106,14 +5161,15 @@
       <c r="T57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U57" s="5">
-        <v>56</v>
+      <c r="U57">
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="V57" s="5">
         <v>30</v>
       </c>
       <c r="W57">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
@@ -5143,7 +5199,7 @@
         <v>8585.9354864300003</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37726927211.793266</v>
       </c>
       <c r="J58" s="5">
@@ -5179,14 +5235,15 @@
       <c r="T58" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U58" s="5">
-        <v>57</v>
+      <c r="U58">
+        <f t="shared" si="4"/>
+        <v>61</v>
       </c>
       <c r="V58" s="5">
         <v>30</v>
       </c>
       <c r="W58">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
@@ -5216,7 +5273,7 @@
         <v>8858.4176261744178</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41990655881.166039</v>
       </c>
       <c r="J59" s="5">
@@ -5252,14 +5309,15 @@
       <c r="T59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U59" s="5">
-        <v>58</v>
+      <c r="U59">
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
       <c r="V59" s="5">
         <v>30</v>
       </c>
       <c r="W59">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
@@ -5289,7 +5347,7 @@
         <v>9135.4341270762434</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46649314777.360016</v>
       </c>
       <c r="J60" s="5">
@@ -5325,14 +5383,15 @@
       <c r="T60" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U60" s="5">
-        <v>59</v>
+      <c r="U60">
+        <f t="shared" si="4"/>
+        <v>63</v>
       </c>
       <c r="V60" s="5">
         <v>30</v>
       </c>
       <c r="W60">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
@@ -5362,7 +5421,7 @@
         <v>9416.9968341531803</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51731718471.025421</v>
       </c>
       <c r="J61" s="5">
@@ -5398,14 +5457,15 @@
       <c r="T61" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U61" s="5">
-        <v>60</v>
+      <c r="U61">
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
       <c r="V61" s="5">
         <v>30</v>
       </c>
       <c r="W61">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
@@ -5471,13 +5531,14 @@
         <v>59</v>
       </c>
       <c r="U62">
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>65</v>
       </c>
       <c r="V62">
         <v>40</v>
       </c>
       <c r="W62">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
@@ -5506,7 +5567,7 @@
         <v>9993.8073905063829</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I76" si="7">A63^6.05+A63^4+1000*A63+100</f>
+        <f t="shared" ref="I63:I76" si="8">A63^6.05+A63^4+1000*A63+100</f>
         <v>63290851719.844543</v>
       </c>
       <c r="J63">
@@ -5543,13 +5604,14 @@
         <v>59</v>
       </c>
       <c r="U63">
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
       <c r="V63">
         <v>40</v>
       </c>
       <c r="W63">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
@@ -5578,7 +5640,7 @@
         <v>10289.078089268367</v>
       </c>
       <c r="I64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>69833211013.570221</v>
       </c>
       <c r="J64">
@@ -5615,13 +5677,14 @@
         <v>59</v>
       </c>
       <c r="U64">
-        <v>63</v>
+        <f t="shared" si="4"/>
+        <v>67</v>
       </c>
       <c r="V64">
         <v>40</v>
       </c>
       <c r="W64">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
@@ -5650,7 +5713,7 @@
         <v>10588.940703166736</v>
       </c>
       <c r="I65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>76930688514.08783</v>
       </c>
       <c r="J65">
@@ -5687,13 +5750,14 @@
         <v>59</v>
       </c>
       <c r="U65">
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="V65">
         <v>40</v>
       </c>
       <c r="W65">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
@@ -5722,7 +5786,7 @@
         <v>10893.406266669514</v>
       </c>
       <c r="I66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>84620441187.512238</v>
       </c>
       <c r="J66">
@@ -5759,13 +5823,14 @@
         <v>59</v>
       </c>
       <c r="U66">
-        <v>65</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="V66">
         <v>40</v>
       </c>
       <c r="W66">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
@@ -5779,22 +5844,22 @@
         <v>32</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E91" si="8">A67^2.9</f>
+        <f t="shared" ref="E67:E91" si="9">A67^2.9</f>
         <v>180904.23515627053</v>
       </c>
       <c r="F67">
         <v>3</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G91" si="9">A67^5.9+A67^4+100*A67+100</f>
+        <f t="shared" ref="G67:G91" si="10">A67^5.9+A67^4+100*A67+100</f>
         <v>49698682804.790886</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H91" si="10">A67^2.15+50+50*A67</f>
+        <f t="shared" ref="H67:H91" si="11">A67^2.15+50+50*A67</f>
         <v>11202.485666346649</v>
       </c>
       <c r="I67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>92941468869.748947</v>
       </c>
       <c r="J67">
@@ -5831,13 +5896,14 @@
         <v>59</v>
       </c>
       <c r="U67">
-        <v>66</v>
+        <f t="shared" ref="U67:U91" si="12">A67+5</f>
+        <v>70</v>
       </c>
       <c r="V67">
         <v>40</v>
       </c>
       <c r="W67">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
@@ -5851,22 +5917,22 @@
         <v>30</v>
       </c>
       <c r="E68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>189093.85382609314</v>
       </c>
       <c r="F68">
         <v>3</v>
       </c>
       <c r="G68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54382708035.586601</v>
       </c>
       <c r="H68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11516.189645117673</v>
       </c>
       <c r="I68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>101934674726.62256</v>
       </c>
       <c r="J68">
@@ -5903,13 +5969,14 @@
         <v>59</v>
       </c>
       <c r="U68">
-        <v>67</v>
+        <f t="shared" si="12"/>
+        <v>71</v>
       </c>
       <c r="V68">
         <v>40</v>
       </c>
       <c r="W68">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
@@ -5923,22 +5990,22 @@
         <v>31</v>
       </c>
       <c r="E69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>197522.6610497802</v>
       </c>
       <c r="F69">
         <v>3</v>
       </c>
       <c r="G69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59427666026.31514</v>
       </c>
       <c r="H69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11834.528806314473</v>
       </c>
       <c r="I69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>111642926714.12532</v>
       </c>
       <c r="J69">
@@ -5975,13 +6042,14 @@
         <v>59</v>
       </c>
       <c r="U69">
-        <v>68</v>
+        <f t="shared" si="12"/>
+        <v>72</v>
       </c>
       <c r="V69">
         <v>40</v>
       </c>
       <c r="W69">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
@@ -5995,22 +6063,22 @@
         <v>32</v>
       </c>
       <c r="E70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>206193.91604446189</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64855353685.692345</v>
       </c>
       <c r="H70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12157.513617569526</v>
       </c>
       <c r="I70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>122111120039.5654</v>
       </c>
       <c r="J70">
@@ -6047,13 +6115,14 @@
         <v>59</v>
       </c>
       <c r="U70">
-        <v>69</v>
+        <f t="shared" si="12"/>
+        <v>73</v>
       </c>
       <c r="V70">
         <v>40</v>
       </c>
       <c r="W70">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -6067,22 +6136,22 @@
         <v>30</v>
       </c>
       <c r="E71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>215110.87316600379</v>
       </c>
       <c r="F71">
         <v>3</v>
       </c>
       <c r="G71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>70688531953.890991</v>
       </c>
       <c r="H71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12485.154414539895</v>
       </c>
       <c r="I71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>133386240624.37062</v>
       </c>
       <c r="J71">
@@ -6119,13 +6188,14 @@
         <v>59</v>
       </c>
       <c r="U71">
-        <v>70</v>
+        <f t="shared" si="12"/>
+        <v>74</v>
       </c>
       <c r="V71">
         <v>40</v>
       </c>
       <c r="W71">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
@@ -6139,22 +6209,22 @@
         <v>31</v>
       </c>
       <c r="E72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>224276.78198760346</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76950953321.748138</v>
       </c>
       <c r="H72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12817.461404475967</v>
       </c>
       <c r="I72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>145517429569.31296</v>
       </c>
       <c r="J72">
@@ -6191,13 +6261,14 @@
         <v>59</v>
       </c>
       <c r="U72">
-        <v>71</v>
+        <f t="shared" si="12"/>
+        <v>75</v>
       </c>
       <c r="V72">
         <v>40</v>
       </c>
       <c r="W72">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
@@ -6211,22 +6282,22 @@
         <v>32</v>
       </c>
       <c r="E73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>233694.88737598748</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>83667389716.627136</v>
       </c>
       <c r="H73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13154.444669643712</v>
       </c>
       <c r="I73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>158556048622.88702</v>
       </c>
       <c r="J73">
@@ -6263,13 +6334,14 @@
         <v>59</v>
       </c>
       <c r="U73">
-        <v>72</v>
+        <f t="shared" si="12"/>
+        <v>76</v>
       </c>
       <c r="V73">
         <v>40</v>
       </c>
       <c r="W73">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
@@ -6283,22 +6355,22 @@
         <v>30</v>
       </c>
       <c r="E74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>243368.4295653305</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
       <c r="G74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>90863660754.400558</v>
       </c>
       <c r="H74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13496.114170608449</v>
       </c>
       <c r="I74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>172555746653.57843</v>
       </c>
       <c r="J74">
@@ -6335,13 +6407,14 @@
         <v>59</v>
       </c>
       <c r="U74">
-        <v>73</v>
+        <f t="shared" si="12"/>
+        <v>77</v>
       </c>
       <c r="V74">
         <v>40</v>
       </c>
       <c r="W74">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
@@ -6355,22 +6428,22 @@
         <v>31</v>
       </c>
       <c r="E75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>253300.64422898469</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>98566662357.027237</v>
       </c>
       <c r="H75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13842.479749387447</v>
       </c>
       <c r="I75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>187572527126.7471</v>
       </c>
       <c r="J75">
@@ -6407,13 +6480,14 @@
         <v>59</v>
       </c>
       <c r="U75">
-        <v>74</v>
+        <f t="shared" si="12"/>
+        <v>78</v>
       </c>
       <c r="V75">
         <v>40</v>
       </c>
       <c r="W75">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -6427,22 +6501,22 @@
         <v>32</v>
       </c>
       <c r="E76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>263494.76254912175</v>
       </c>
       <c r="F76">
         <v>3</v>
       </c>
       <c r="G76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>106804395735.20573</v>
       </c>
       <c r="H76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14193.551132478618</v>
       </c>
       <c r="I76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>203664816586.83307</v>
       </c>
       <c r="J76">
@@ -6479,13 +6553,14 @@
         <v>59</v>
       </c>
       <c r="U76">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>79</v>
       </c>
       <c r="V76">
         <v>40</v>
       </c>
       <c r="W76">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
@@ -6500,18 +6575,18 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>273954.01128436648</v>
       </c>
       <c r="F77" s="5">
         <v>4</v>
       </c>
       <c r="G77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>115605996735.59241</v>
       </c>
       <c r="H77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14549.337933771378</v>
       </c>
       <c r="I77" s="5">
@@ -6551,14 +6626,15 @@
       <c r="T77" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U77" s="5">
-        <v>76</v>
+      <c r="U77">
+        <f t="shared" si="12"/>
+        <v>80</v>
       </c>
       <c r="V77" s="5">
         <v>50</v>
       </c>
       <c r="W77">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
@@ -6573,22 +6649,22 @@
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>284681.61283552332</v>
       </c>
       <c r="F78" s="5">
         <v>4</v>
       </c>
       <c r="G78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>125001765552.08713</v>
       </c>
       <c r="H78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14909.849657346345</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" ref="I78:I91" si="11">A78^6.05+A78^4+1000*A78+100</f>
+        <f t="shared" ref="I78:I91" si="13">A78^6.05+A78^4+1000*A78+100</f>
         <v>239322161977.05478</v>
       </c>
       <c r="J78" s="5">
@@ -6624,14 +6700,15 @@
       <c r="T78" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U78" s="5">
-        <v>77</v>
+      <c r="U78">
+        <f t="shared" si="12"/>
+        <v>81</v>
       </c>
       <c r="V78" s="5">
         <v>50</v>
       </c>
       <c r="W78">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
@@ -6646,22 +6723,22 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>295680.78530944901</v>
       </c>
       <c r="F79" s="5">
         <v>4</v>
       </c>
       <c r="G79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>135023196800.67929</v>
       </c>
       <c r="H79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15275.095700168886</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>259016816819.89771</v>
       </c>
       <c r="J79" s="5">
@@ -6697,14 +6774,15 @@
       <c r="T79" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U79" s="5">
-        <v>78</v>
+      <c r="U79">
+        <f t="shared" si="12"/>
+        <v>82</v>
       </c>
       <c r="V79" s="5">
         <v>50</v>
       </c>
       <c r="W79">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
@@ -6719,22 +6797,22 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>306954.74258117168</v>
       </c>
       <c r="F80" s="5">
         <v>4</v>
       </c>
       <c r="G80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>145703009957.38055</v>
       </c>
       <c r="H80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15645.085354682449</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>280046322487.88751</v>
       </c>
       <c r="J80" s="5">
@@ -6770,14 +6848,15 @@
       <c r="T80" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U80" s="5">
-        <v>79</v>
+      <c r="U80">
+        <f t="shared" si="12"/>
+        <v>83</v>
       </c>
       <c r="V80" s="5">
         <v>50</v>
       </c>
       <c r="W80">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
@@ -6792,22 +6871,22 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>318506.69435431337</v>
       </c>
       <c r="F81" s="5">
         <v>4</v>
       </c>
       <c r="G81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>157075180158.75674</v>
       </c>
       <c r="H81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16019.827811306393</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>302482283389.0918</v>
       </c>
       <c r="J81" s="5">
@@ -6843,14 +6922,15 @@
       <c r="T81" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U81" s="5">
-        <v>80</v>
+      <c r="U81">
+        <f t="shared" si="12"/>
+        <v>84</v>
       </c>
       <c r="V81" s="5">
         <v>50</v>
       </c>
       <c r="W81">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
@@ -6865,22 +6945,22 @@
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>330339.84621988621</v>
       </c>
       <c r="F82" s="5">
         <v>4</v>
       </c>
       <c r="G82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>169174969364.58182</v>
       </c>
       <c r="H82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16399.332160842801</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>326399159054.48828</v>
       </c>
       <c r="J82" s="5">
@@ -6916,14 +6996,15 @@
       <c r="T82" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U82" s="5">
-        <v>81</v>
+      <c r="U82">
+        <f t="shared" si="12"/>
+        <v>85</v>
       </c>
       <c r="V82" s="5">
         <v>50</v>
       </c>
       <c r="W82">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
@@ -6938,22 +7019,22 @@
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>342457.39971352724</v>
       </c>
       <c r="F83" s="5">
         <v>4</v>
       </c>
       <c r="G83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>182038957882.15698</v>
       </c>
       <c r="H83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16783.607396797306</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>351874339676.65216</v>
       </c>
       <c r="J83" s="5">
@@ -6989,14 +7070,15 @@
       <c r="T83" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U83" s="5">
-        <v>82</v>
+      <c r="U83">
+        <f t="shared" si="12"/>
+        <v>86</v>
       </c>
       <c r="V83" s="5">
         <v>50</v>
       </c>
       <c r="W83">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
@@ -7011,22 +7093,22 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>354862.55237122771</v>
       </c>
       <c r="F84" s="5">
         <v>4</v>
       </c>
       <c r="G84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>195705076251.81937</v>
       </c>
       <c r="H84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17172.662417617168</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>378988222659.12939</v>
       </c>
       <c r="J84" s="5">
@@ -7062,14 +7144,15 @@
       <c r="T84" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U84" s="5">
-        <v>83</v>
+      <c r="U84">
+        <f t="shared" si="12"/>
+        <v>87</v>
       </c>
       <c r="V84" s="5">
         <v>50</v>
       </c>
       <c r="W84">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
@@ -7084,22 +7167,22 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>367558.49778362713</v>
       </c>
       <c r="F85" s="5">
         <v>4</v>
       </c>
       <c r="G85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>210212637493.20776</v>
       </c>
       <c r="H85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17566.506028851596</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>407824290177.18054</v>
       </c>
       <c r="J85" s="5">
@@ -7135,14 +7218,15 @@
       <c r="T85" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U85" s="5">
-        <v>84</v>
+      <c r="U85">
+        <f t="shared" si="12"/>
+        <v>88</v>
       </c>
       <c r="V85" s="5">
         <v>50</v>
       </c>
       <c r="W85">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
@@ -7157,22 +7241,22 @@
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>380548.42564890615</v>
       </c>
       <c r="F86" s="5">
         <v>4</v>
       </c>
       <c r="G86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>225602369711.80951</v>
       </c>
       <c r="H86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17965.14694523676</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>438469187750.47314</v>
       </c>
       <c r="J86" s="5">
@@ -7208,14 +7292,15 @@
       <c r="T86" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U86" s="5">
-        <v>85</v>
+      <c r="U86">
+        <f t="shared" si="12"/>
+        <v>89</v>
       </c>
       <c r="V86" s="5">
         <v>50</v>
       </c>
       <c r="W86">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
@@ -7230,22 +7315,22 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>393835.52182435268</v>
       </c>
       <c r="F87" s="5">
         <v>4</v>
       </c>
       <c r="G87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>241916449065.38162</v>
       </c>
       <c r="H87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18368.593792710068</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>471012803828.38055</v>
       </c>
       <c r="J87" s="5">
@@ -7281,14 +7366,15 @@
       <c r="T87" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U87" s="5">
-        <v>86</v>
+      <c r="U87">
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="V87" s="5">
         <v>50</v>
       </c>
       <c r="W87">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
@@ -7303,22 +7389,22 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>407422.96837662853</v>
       </c>
       <c r="F88" s="5">
         <v>4</v>
       </c>
       <c r="G88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>259198533089.76453</v>
       </c>
       <c r="H88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18776.855110356017</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>505548350388.466</v>
       </c>
       <c r="J88" s="5">
@@ -7354,14 +7440,15 @@
       <c r="T88" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U88" s="5">
-        <v>87</v>
+      <c r="U88">
+        <f t="shared" si="12"/>
+        <v>91</v>
       </c>
       <c r="V88" s="5">
         <v>50</v>
       </c>
       <c r="W88">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
@@ -7376,22 +7463,22 @@
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>421313.94363080681</v>
       </c>
       <c r="F89" s="5">
         <v>4</v>
       </c>
       <c r="G89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>277493794383.71814</v>
       </c>
       <c r="H89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19189.939352287445</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>542172444548.82355</v>
       </c>
       <c r="J89" s="5">
@@ -7427,14 +7514,15 @@
       <c r="T89" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U89" s="5">
-        <v>88</v>
+      <c r="U89">
+        <f t="shared" si="12"/>
+        <v>92</v>
       </c>
       <c r="V89" s="5">
         <v>50</v>
       </c>
       <c r="W89">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
@@ -7449,22 +7537,22 @@
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>435511.62221820076</v>
       </c>
       <c r="F90" s="5">
         <v>4</v>
       </c>
       <c r="G90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>296848954652.28259</v>
       </c>
       <c r="H90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19607.854889464626</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>580985191194.77686</v>
       </c>
       <c r="J90" s="5">
@@ -7500,14 +7588,15 @@
       <c r="T90" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U90" s="5">
-        <v>89</v>
+      <c r="U90">
+        <f t="shared" si="12"/>
+        <v>93</v>
       </c>
       <c r="V90" s="5">
         <v>50</v>
       </c>
       <c r="W90">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
@@ -7522,22 +7611,22 @@
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>450019.17512304336</v>
       </c>
       <c r="F91" s="5">
         <v>4</v>
       </c>
       <c r="G91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>317312319108.31769</v>
       </c>
       <c r="H91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20030.610011454803</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>622090266620.61975</v>
       </c>
       <c r="J91" s="5">
@@ -7573,14 +7662,15 @@
       <c r="T91" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U91" s="5">
-        <v>90</v>
+      <c r="U91">
+        <f t="shared" si="12"/>
+        <v>94</v>
       </c>
       <c r="V91" s="5">
         <v>50</v>
       </c>
       <c r="W91">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3DE879-BF82-4123-882E-3B05EA6732C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F0BC19-CE6C-4FF2-9E2C-8B28EC828DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="70">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,6 +499,30 @@
   </si>
   <si>
     <t>EnemyGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">A3^5.9+A3^4+100*A3+100</f>
+        <f t="shared" ref="G3:G61" si="1">A3^5.9+A3^4+100*A3+100</f>
         <v>202</v>
       </c>
       <c r="H3">
@@ -5486,8 +5510,8 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>30993748205.401688</v>
+        <f>A62^5.95+A62^4+100*A62+100</f>
+        <v>38031900460.521156</v>
       </c>
       <c r="H62">
         <f t="shared" si="2"/>
@@ -5559,15 +5583,15 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>34168202196.812138</v>
+        <f t="shared" ref="G63:G121" si="8">A63^5.95+A63^4+100*A63+100</f>
+        <v>41961973644.763359</v>
       </c>
       <c r="H63">
         <f t="shared" si="2"/>
         <v>9993.8073905063829</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I76" si="8">A63^6.05+A63^4+1000*A63+100</f>
+        <f t="shared" ref="I63:I76" si="9">A63^6.05+A63^4+1000*A63+100</f>
         <v>63290851719.844543</v>
       </c>
       <c r="J63">
@@ -5632,15 +5656,15 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>37608127439.388268</v>
+        <f t="shared" si="8"/>
+        <v>46224206363.449806</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
         <v>10289.078089268367</v>
       </c>
       <c r="I64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69833211013.570221</v>
       </c>
       <c r="J64">
@@ -5705,15 +5729,15 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>41330900601.133568</v>
+        <f t="shared" si="8"/>
+        <v>50840628515.702522</v>
       </c>
       <c r="H65">
         <f t="shared" si="2"/>
         <v>10588.940703166736</v>
       </c>
       <c r="I65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76930688514.08783</v>
       </c>
       <c r="J65">
@@ -5778,15 +5802,15 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>45354730304.662834</v>
+        <f t="shared" si="8"/>
+        <v>55834343371.162407</v>
       </c>
       <c r="H66">
         <f t="shared" si="2"/>
         <v>10893.406266669514</v>
       </c>
       <c r="I66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>84620441187.512238</v>
       </c>
       <c r="J66">
@@ -5844,22 +5868,22 @@
         <v>32</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E91" si="9">A67^2.9</f>
+        <f t="shared" ref="E67:E96" si="10">A67^2.9</f>
         <v>180904.23515627053</v>
       </c>
       <c r="F67">
         <v>3</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G91" si="10">A67^5.9+A67^4+100*A67+100</f>
-        <v>49698682804.790886</v>
+        <f t="shared" si="8"/>
+        <v>61229561584.231308</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H91" si="11">A67^2.15+50+50*A67</f>
+        <f t="shared" ref="H67:H121" si="11">A67^2.15+50+50*A67</f>
         <v>11202.485666346649</v>
       </c>
       <c r="I67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>92941468869.748947</v>
       </c>
       <c r="J67">
@@ -5896,7 +5920,7 @@
         <v>59</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U91" si="12">A67+5</f>
+        <f t="shared" ref="U67:U96" si="12">A67+5</f>
         <v>70</v>
       </c>
       <c r="V67">
@@ -5917,22 +5941,22 @@
         <v>30</v>
       </c>
       <c r="E68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>189093.85382609314</v>
       </c>
       <c r="F68">
         <v>3</v>
       </c>
       <c r="G68">
-        <f t="shared" si="10"/>
-        <v>54382708035.586601</v>
+        <f t="shared" si="8"/>
+        <v>67051635725.127586</v>
       </c>
       <c r="H68">
         <f t="shared" si="11"/>
         <v>11516.189645117673</v>
       </c>
       <c r="I68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101934674726.62256</v>
       </c>
       <c r="J68">
@@ -5990,22 +6014,22 @@
         <v>31</v>
       </c>
       <c r="E69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>197522.6610497802</v>
       </c>
       <c r="F69">
         <v>3</v>
       </c>
       <c r="G69">
-        <f t="shared" si="10"/>
-        <v>59427666026.31514</v>
+        <f t="shared" si="8"/>
+        <v>73327095327.350296</v>
       </c>
       <c r="H69">
         <f t="shared" si="11"/>
         <v>11834.528806314473</v>
       </c>
       <c r="I69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>111642926714.12532</v>
       </c>
       <c r="J69">
@@ -6063,22 +6087,22 @@
         <v>32</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>206193.91604446189</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70">
-        <f t="shared" si="10"/>
-        <v>64855353685.692345</v>
+        <f t="shared" si="8"/>
+        <v>80083682451.147125</v>
       </c>
       <c r="H70">
         <f t="shared" si="11"/>
         <v>12157.513617569526</v>
       </c>
       <c r="I70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>122111120039.5654</v>
       </c>
       <c r="J70">
@@ -6136,22 +6160,22 @@
         <v>30</v>
       </c>
       <c r="E71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>215110.87316600379</v>
       </c>
       <c r="F71">
         <v>3</v>
       </c>
       <c r="G71">
-        <f t="shared" si="10"/>
-        <v>70688531953.890991</v>
+        <f t="shared" si="8"/>
+        <v>87350387762.596573</v>
       </c>
       <c r="H71">
         <f t="shared" si="11"/>
         <v>12485.154414539895</v>
       </c>
       <c r="I71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>133386240624.37062</v>
       </c>
       <c r="J71">
@@ -6209,22 +6233,22 @@
         <v>31</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>224276.78198760346</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="10"/>
-        <v>76950953321.748138</v>
+        <f t="shared" si="8"/>
+        <v>95157487127.916473</v>
       </c>
       <c r="H72">
         <f t="shared" si="11"/>
         <v>12817.461404475967</v>
       </c>
       <c r="I72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>145517429569.31296</v>
       </c>
       <c r="J72">
@@ -6282,22 +6306,22 @@
         <v>32</v>
       </c>
       <c r="E73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>233694.88737598748</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73">
-        <f t="shared" si="10"/>
-        <v>83667389716.627136</v>
+        <f t="shared" si="8"/>
+        <v>103536578722.61235</v>
       </c>
       <c r="H73">
         <f t="shared" si="11"/>
         <v>13154.444669643712</v>
       </c>
       <c r="I73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>158556048622.88702</v>
       </c>
       <c r="J73">
@@ -6355,22 +6379,22 @@
         <v>30</v>
       </c>
       <c r="E74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>243368.4295653305</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
       <c r="G74">
-        <f t="shared" si="10"/>
-        <v>90863660754.400558</v>
+        <f t="shared" si="8"/>
+        <v>112520620655.09891</v>
       </c>
       <c r="H74">
         <f t="shared" si="11"/>
         <v>13496.114170608449</v>
       </c>
       <c r="I74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>172555746653.57843</v>
       </c>
       <c r="J74">
@@ -6428,22 +6452,22 @@
         <v>31</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>253300.64422898469</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75">
-        <f t="shared" si="10"/>
-        <v>98566662357.027237</v>
+        <f t="shared" si="8"/>
+        <v>122143969104.41269</v>
       </c>
       <c r="H75">
         <f t="shared" si="11"/>
         <v>13842.479749387447</v>
       </c>
       <c r="I75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>187572527126.7471</v>
       </c>
       <c r="J75">
@@ -6501,22 +6525,22 @@
         <v>32</v>
       </c>
       <c r="E76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>263494.76254912175</v>
       </c>
       <c r="F76">
         <v>3</v>
       </c>
       <c r="G76">
-        <f t="shared" si="10"/>
-        <v>106804395735.20573</v>
+        <f t="shared" si="8"/>
+        <v>132442416971.66588</v>
       </c>
       <c r="H76">
         <f t="shared" si="11"/>
         <v>14193.551132478618</v>
       </c>
       <c r="I76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>203664816586.83307</v>
       </c>
       <c r="J76">
@@ -6575,15 +6599,15 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>273954.01128436648</v>
       </c>
       <c r="F77" s="5">
         <v>4</v>
       </c>
       <c r="G77">
-        <f t="shared" si="10"/>
-        <v>115605996735.59241</v>
+        <f t="shared" si="8"/>
+        <v>143453233044.86465</v>
       </c>
       <c r="H77">
         <f t="shared" si="11"/>
@@ -6649,15 +6673,15 @@
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>284681.61283552332</v>
       </c>
       <c r="F78" s="5">
         <v>4</v>
       </c>
       <c r="G78">
-        <f t="shared" si="10"/>
-        <v>125001765552.08713</v>
+        <f t="shared" si="8"/>
+        <v>155215201676.75949</v>
       </c>
       <c r="H78">
         <f t="shared" si="11"/>
@@ -6723,15 +6747,15 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>295680.78530944901</v>
       </c>
       <c r="F79" s="5">
         <v>4</v>
       </c>
       <c r="G79">
-        <f t="shared" si="10"/>
-        <v>135023196800.67929</v>
+        <f t="shared" si="8"/>
+        <v>167768662975.35574</v>
       </c>
       <c r="H79">
         <f t="shared" si="11"/>
@@ -6797,15 +6821,15 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>306954.74258117168</v>
       </c>
       <c r="F80" s="5">
         <v>4</v>
       </c>
       <c r="G80">
-        <f t="shared" si="10"/>
-        <v>145703009957.38055</v>
+        <f t="shared" si="8"/>
+        <v>181155553506.75565</v>
       </c>
       <c r="H80">
         <f t="shared" si="11"/>
@@ -6871,15 +6895,15 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>318506.69435431337</v>
       </c>
       <c r="F81" s="5">
         <v>4</v>
       </c>
       <c r="G81">
-        <f t="shared" si="10"/>
-        <v>157075180158.75674</v>
+        <f t="shared" si="8"/>
+        <v>195419447509.99246</v>
       </c>
       <c r="H81">
         <f t="shared" si="11"/>
@@ -6945,15 +6969,15 @@
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>330339.84621988621</v>
       </c>
       <c r="F82" s="5">
         <v>4</v>
       </c>
       <c r="G82">
-        <f t="shared" si="10"/>
-        <v>169174969364.58182</v>
+        <f t="shared" si="8"/>
+        <v>210605598623.51035</v>
       </c>
       <c r="H82">
         <f t="shared" si="11"/>
@@ -7019,15 +7043,15 @@
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>342457.39971352724</v>
       </c>
       <c r="F83" s="5">
         <v>4</v>
       </c>
       <c r="G83">
-        <f t="shared" si="10"/>
-        <v>182038957882.15698</v>
+        <f t="shared" si="8"/>
+        <v>226760982122.97635</v>
       </c>
       <c r="H83">
         <f t="shared" si="11"/>
@@ -7093,15 +7117,15 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>354862.55237122771</v>
       </c>
       <c r="F84" s="5">
         <v>4</v>
       </c>
       <c r="G84">
-        <f t="shared" si="10"/>
-        <v>195705076251.81937</v>
+        <f t="shared" si="8"/>
+        <v>243934337670.07803</v>
       </c>
       <c r="H84">
         <f t="shared" si="11"/>
@@ -7167,15 +7191,15 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>367558.49778362713</v>
       </c>
       <c r="F85" s="5">
         <v>4</v>
       </c>
       <c r="G85">
-        <f t="shared" si="10"/>
-        <v>210212637493.20776</v>
+        <f t="shared" si="8"/>
+        <v>262176212572.01379</v>
       </c>
       <c r="H85">
         <f t="shared" si="11"/>
@@ -7241,15 +7265,15 @@
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>380548.42564890615</v>
       </c>
       <c r="F86" s="5">
         <v>4</v>
       </c>
       <c r="G86">
-        <f t="shared" si="10"/>
-        <v>225602369711.80951</v>
+        <f t="shared" si="8"/>
+        <v>281539005551.32483</v>
       </c>
       <c r="H86">
         <f t="shared" si="11"/>
@@ -7315,15 +7339,15 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>393835.52182435268</v>
       </c>
       <c r="F87" s="5">
         <v>4</v>
       </c>
       <c r="G87">
-        <f t="shared" si="10"/>
-        <v>241916449065.38162</v>
+        <f t="shared" si="8"/>
+        <v>302077011025.7934</v>
       </c>
       <c r="H87">
         <f t="shared" si="11"/>
@@ -7389,15 +7413,15 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>407422.96837662853</v>
       </c>
       <c r="F88" s="5">
         <v>4</v>
       </c>
       <c r="G88">
-        <f t="shared" si="10"/>
-        <v>259198533089.76453</v>
+        <f t="shared" si="8"/>
+        <v>323846463898.0556</v>
       </c>
       <c r="H88">
         <f t="shared" si="11"/>
@@ -7463,15 +7487,15 @@
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>421313.94363080681</v>
       </c>
       <c r="F89" s="5">
         <v>4</v>
       </c>
       <c r="G89">
-        <f t="shared" si="10"/>
-        <v>277493794383.71814</v>
+        <f t="shared" si="8"/>
+        <v>346905584854.6684</v>
       </c>
       <c r="H89">
         <f t="shared" si="11"/>
@@ -7537,15 +7561,15 @@
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>435511.62221820076</v>
       </c>
       <c r="F90" s="5">
         <v>4</v>
       </c>
       <c r="G90">
-        <f t="shared" si="10"/>
-        <v>296848954652.28259</v>
+        <f t="shared" si="8"/>
+        <v>371314626174.2887</v>
       </c>
       <c r="H90">
         <f t="shared" si="11"/>
@@ -7611,15 +7635,15 @@
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>450019.17512304336</v>
       </c>
       <c r="F91" s="5">
         <v>4</v>
       </c>
       <c r="G91">
-        <f t="shared" si="10"/>
-        <v>317312319108.31769</v>
+        <f t="shared" si="8"/>
+        <v>397135918044.69904</v>
       </c>
       <c r="H91">
         <f t="shared" si="11"/>
@@ -7670,6 +7694,2211 @@
         <v>50</v>
       </c>
       <c r="W91">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="10"/>
+        <v>464839.76972806355</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="8"/>
+        <v>424433915388.36951</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="11"/>
+        <v>20458.212928135639</v>
+      </c>
+      <c r="I92">
+        <f>A92^6.05+A92^4+1000*A92+100</f>
+        <v>665595003186.96167</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>11</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <v>10000</v>
+      </c>
+      <c r="N92">
+        <v>10000</v>
+      </c>
+      <c r="O92">
+        <v>30</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2.5</v>
+      </c>
+      <c r="R92" t="b">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92" t="s">
+        <v>59</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="12"/>
+        <v>95</v>
+      </c>
+      <c r="V92">
+        <v>60</v>
+      </c>
+      <c r="W92">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="10"/>
+        <v>479976.56985896284</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="8"/>
+        <v>453275245196.25879</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="11"/>
+        <v>20890.671771343517</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ref="I93:I106" si="14">A93^6.05+A93^4+1000*A93+100</f>
+        <v>711610474994.20007</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>11</v>
+      </c>
+      <c r="L93">
+        <v>5</v>
+      </c>
+      <c r="M93">
+        <v>10000</v>
+      </c>
+      <c r="N93">
+        <v>10000</v>
+      </c>
+      <c r="O93">
+        <v>30</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>2.5</v>
+      </c>
+      <c r="R93" t="b">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93" t="s">
+        <v>59</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="V93">
+        <v>60</v>
+      </c>
+      <c r="W93">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="10"/>
+        <v>495432.73582788557</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="8"/>
+        <v>483728754369.58844</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="11"/>
+        <v>21327.994596470722</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="14"/>
+        <v>760251584572.8009</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>11</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>10000</v>
+      </c>
+      <c r="N94">
+        <v>10000</v>
+      </c>
+      <c r="O94">
+        <v>30</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>2.5</v>
+      </c>
+      <c r="R94" t="b">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94" t="s">
+        <v>59</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="12"/>
+        <v>97</v>
+      </c>
+      <c r="V94">
+        <v>60</v>
+      </c>
+      <c r="W94">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="10"/>
+        <v>511211.42447585613</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>515865558069.2876</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="11"/>
+        <v>21770.189384012174</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="14"/>
+        <v>811637150590.83582</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>11</v>
+      </c>
+      <c r="L95">
+        <v>5</v>
+      </c>
+      <c r="M95">
+        <v>10000</v>
+      </c>
+      <c r="N95">
+        <v>10000</v>
+      </c>
+      <c r="O95">
+        <v>30</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>2.5</v>
+      </c>
+      <c r="R95" t="b">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s">
+        <v>59</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
+      <c r="V95">
+        <v>60</v>
+      </c>
+      <c r="W95">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="10"/>
+        <v>527315.78921427135</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="8"/>
+        <v>549759088572.83984</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="11"/>
+        <v>22217.264041064769</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="14"/>
+        <v>865889996579.44507</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>11</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>10000</v>
+      </c>
+      <c r="N96">
+        <v>10000</v>
+      </c>
+      <c r="O96">
+        <v>30</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>2.5</v>
+      </c>
+      <c r="R96" t="b">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s">
+        <v>59</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="V96">
+        <v>60</v>
+      </c>
+      <c r="W96">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ref="E97:E121" si="15">A97^2.9</f>
+        <v>543748.98006544856</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="8"/>
+        <v>585485144638.25</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="11"/>
+        <v>22669.226402781103</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="14"/>
+        <v>923137040676.72595</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>11</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>10000</v>
+      </c>
+      <c r="N97">
+        <v>10000</v>
+      </c>
+      <c r="O97">
+        <v>30</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>2.5</v>
+      </c>
+      <c r="R97" t="b">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s">
+        <v>59</v>
+      </c>
+      <c r="U97">
+        <f t="shared" ref="U97:U121" si="16">A97+5</f>
+        <v>100</v>
+      </c>
+      <c r="V97">
+        <v>60</v>
+      </c>
+      <c r="W97">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="15"/>
+        <v>560514.14370225859</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="8"/>
+        <v>623121941374.84766</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="11"/>
+        <v>23126.084233778911</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="14"/>
+        <v>983509386390.58374</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>11</v>
+      </c>
+      <c r="L98">
+        <v>5</v>
+      </c>
+      <c r="M98">
+        <v>10000</v>
+      </c>
+      <c r="N98">
+        <v>10000</v>
+      </c>
+      <c r="O98">
+        <v>30</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>2.5</v>
+      </c>
+      <c r="R98" t="b">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98" t="s">
+        <v>59</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="16"/>
+        <v>101</v>
+      </c>
+      <c r="V98">
+        <v>60</v>
+      </c>
+      <c r="W98">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="15"/>
+        <v>577614.42348689889</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="8"/>
+        <v>662750160620.67566</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="11"/>
+        <v>23587.845229508795</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="14"/>
+        <v>1047142414381.1482</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>11</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>10000</v>
+      </c>
+      <c r="N99">
+        <v>10000</v>
+      </c>
+      <c r="O99">
+        <v>30</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>2.5</v>
+      </c>
+      <c r="R99" t="b">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99" t="s">
+        <v>59</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="16"/>
+        <v>102</v>
+      </c>
+      <c r="V99">
+        <v>60</v>
+      </c>
+      <c r="W99">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="15"/>
+        <v>595052.95950881008</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="8"/>
+        <v>704453001826.19031</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="11"/>
+        <v>24054.51701758134</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="14"/>
+        <v>1114175875263.2222</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>11</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>10000</v>
+      </c>
+      <c r="N100">
+        <v>10000</v>
+      </c>
+      <c r="O100">
+        <v>30</v>
+      </c>
+      <c r="P100" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>2.5</v>
+      </c>
+      <c r="R100" t="b">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100" t="s">
+        <v>59</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="16"/>
+        <v>103</v>
+      </c>
+      <c r="V100">
+        <v>60</v>
+      </c>
+      <c r="W100">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="15"/>
+        <v>612832.88862176694</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="8"/>
+        <v>748316233443.97205</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="11"/>
+        <v>24526.107159055289</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="14"/>
+        <v>1184753983429.3806</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>11</v>
+      </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>10000</v>
+      </c>
+      <c r="N101">
+        <v>10000</v>
+      </c>
+      <c r="O101">
+        <v>30</v>
+      </c>
+      <c r="P101" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>2.5</v>
+      </c>
+      <c r="R101" t="b">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s">
+        <v>59</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="16"/>
+        <v>104</v>
+      </c>
+      <c r="V101">
+        <v>60</v>
+      </c>
+      <c r="W101">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="15"/>
+        <v>630957.34448019415</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="8"/>
+        <v>794428244824.2843</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="11"/>
+        <v>25002.623149688792</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="14"/>
+        <v>1259025511894.1692</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>11</v>
+      </c>
+      <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>10000</v>
+      </c>
+      <c r="N102">
+        <v>10000</v>
+      </c>
+      <c r="O102">
+        <v>30</v>
+      </c>
+      <c r="P102" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>2.5</v>
+      </c>
+      <c r="R102" t="b">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s">
+        <v>59</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="16"/>
+        <v>105</v>
+      </c>
+      <c r="V102">
+        <v>60</v>
+      </c>
+      <c r="W102">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="15"/>
+        <v>649429.45757468231</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="8"/>
+        <v>842880098616.05273</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="11"/>
+        <v>25484.072421154346</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="14"/>
+        <v>1337143888159.9634</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>11</v>
+      </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>10000</v>
+      </c>
+      <c r="N103">
+        <v>10000</v>
+      </c>
+      <c r="O103">
+        <v>30</v>
+      </c>
+      <c r="P103" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>2.5</v>
+      </c>
+      <c r="R103" t="b">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s">
+        <v>59</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="16"/>
+        <v>106</v>
+      </c>
+      <c r="V103">
+        <v>60</v>
+      </c>
+      <c r="W103">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="15"/>
+        <v>668252.355266792</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="8"/>
+        <v>893765583673.20068</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="11"/>
+        <v>25970.462342219515</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="14"/>
+        <v>1419267291105.0381</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>11</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>10000</v>
+      </c>
+      <c r="N104">
+        <v>10000</v>
+      </c>
+      <c r="O104">
+        <v>30</v>
+      </c>
+      <c r="P104" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>2.5</v>
+      </c>
+      <c r="R104" t="b">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s">
+        <v>59</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="16"/>
+        <v>107</v>
+      </c>
+      <c r="V104">
+        <v>60</v>
+      </c>
+      <c r="W104">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="15"/>
+        <v>687429.16182310728</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="8"/>
+        <v>947181268465.96741</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="11"/>
+        <v>26461.800219894489</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="14"/>
+        <v>1505558748894.283</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>11</v>
+      </c>
+      <c r="L105">
+        <v>5</v>
+      </c>
+      <c r="M105">
+        <v>10000</v>
+      </c>
+      <c r="N105">
+        <v>10000</v>
+      </c>
+      <c r="O105">
+        <v>30</v>
+      </c>
+      <c r="P105" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>2.5</v>
+      </c>
+      <c r="R105" t="b">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s">
+        <v>59</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="V105">
+        <v>60</v>
+      </c>
+      <c r="W105">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="15"/>
+        <v>706962.99844859866</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="8"/>
+        <v>1003226554996.9296</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="11"/>
+        <v>26958.093300547484</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="14"/>
+        <v>1596186237913.1262</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>11</v>
+      </c>
+      <c r="L106">
+        <v>5</v>
+      </c>
+      <c r="M106">
+        <v>10000</v>
+      </c>
+      <c r="N106">
+        <v>10000</v>
+      </c>
+      <c r="O106">
+        <v>30</v>
+      </c>
+      <c r="P106" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>2.5</v>
+      </c>
+      <c r="R106" t="b">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s">
+        <v>59</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="16"/>
+        <v>109</v>
+      </c>
+      <c r="V106">
+        <v>60</v>
+      </c>
+      <c r="W106">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>105</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107">
+        <f t="shared" si="15"/>
+        <v>726856.98331931105</v>
+      </c>
+      <c r="F107" s="5">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="8"/>
+        <v>1062003733221.6243</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="11"/>
+        <v>27459.348770989582</v>
+      </c>
+      <c r="I107" s="5">
+        <f>A107^6.05+A107^4+1000*A107+100</f>
+        <v>1691322782725.2109</v>
+      </c>
+      <c r="J107" s="5">
+        <v>1</v>
+      </c>
+      <c r="K107" s="5">
+        <v>11</v>
+      </c>
+      <c r="L107" s="5">
+        <v>5</v>
+      </c>
+      <c r="M107" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N107" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O107" s="5">
+        <v>30</v>
+      </c>
+      <c r="P107" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R107" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S107" s="5">
+        <v>0</v>
+      </c>
+      <c r="T107" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="V107" s="5">
+        <v>70</v>
+      </c>
+      <c r="W107">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>106</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108">
+        <f t="shared" si="15"/>
+        <v>747114.23161438701</v>
+      </c>
+      <c r="F108" s="5">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="8"/>
+        <v>1123618035973.3757</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="11"/>
+        <v>27965.573759530074</v>
+      </c>
+      <c r="I108" s="5">
+        <f t="shared" ref="I108:I121" si="17">A108^6.05+A108^4+1000*A108+100</f>
+        <v>1791146557054.1973</v>
+      </c>
+      <c r="J108" s="5">
+        <v>1</v>
+      </c>
+      <c r="K108" s="5">
+        <v>11</v>
+      </c>
+      <c r="L108" s="5">
+        <v>5</v>
+      </c>
+      <c r="M108" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N108" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O108" s="5">
+        <v>30</v>
+      </c>
+      <c r="P108" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R108" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S108" s="5">
+        <v>0</v>
+      </c>
+      <c r="T108" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="V108" s="5">
+        <v>70</v>
+      </c>
+      <c r="W108">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>107</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109">
+        <f t="shared" si="15"/>
+        <v>767737.85554744338</v>
+      </c>
+      <c r="F109" s="5">
+        <v>4</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="8"/>
+        <v>1188177694392.1418</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="11"/>
+        <v>28476.775337002829</v>
+      </c>
+      <c r="I109" s="5">
+        <f t="shared" si="17"/>
+        <v>1895840985790.3337</v>
+      </c>
+      <c r="J109" s="5">
+        <v>1</v>
+      </c>
+      <c r="K109" s="5">
+        <v>11</v>
+      </c>
+      <c r="L109" s="5">
+        <v>5</v>
+      </c>
+      <c r="M109" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N109" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O109" s="5">
+        <v>30</v>
+      </c>
+      <c r="P109" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R109" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S109" s="5">
+        <v>0</v>
+      </c>
+      <c r="T109" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="16"/>
+        <v>112</v>
+      </c>
+      <c r="V109" s="5">
+        <v>70</v>
+      </c>
+      <c r="W109">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110">
+        <f t="shared" si="15"/>
+        <v>788730.96439734229</v>
+      </c>
+      <c r="F110" s="5">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="8"/>
+        <v>1255793993857.1975</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="11"/>
+        <v>28992.960517765769</v>
+      </c>
+      <c r="I110" s="5">
+        <f t="shared" si="17"/>
+        <v>2005594848022.1631</v>
+      </c>
+      <c r="J110" s="5">
+        <v>1</v>
+      </c>
+      <c r="K110" s="5">
+        <v>11</v>
+      </c>
+      <c r="L110" s="5">
+        <v>5</v>
+      </c>
+      <c r="M110" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N110" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O110" s="5">
+        <v>30</v>
+      </c>
+      <c r="P110" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R110" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S110" s="5">
+        <v>1</v>
+      </c>
+      <c r="T110" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="16"/>
+        <v>113</v>
+      </c>
+      <c r="V110" s="5">
+        <v>70</v>
+      </c>
+      <c r="W110">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>109</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111">
+        <f t="shared" si="15"/>
+        <v>810096.6645383368</v>
+      </c>
+      <c r="F111" s="5">
+        <v>4</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="8"/>
+        <v>1326581330423.26</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="11"/>
+        <v>29514.136260673295</v>
+      </c>
+      <c r="I111" s="5">
+        <f t="shared" si="17"/>
+        <v>2120602381093.9172</v>
+      </c>
+      <c r="J111" s="5">
+        <v>1</v>
+      </c>
+      <c r="K111" s="5">
+        <v>11</v>
+      </c>
+      <c r="L111" s="5">
+        <v>5</v>
+      </c>
+      <c r="M111" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N111" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O111" s="5">
+        <v>30</v>
+      </c>
+      <c r="P111" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R111" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S111" s="5">
+        <v>1</v>
+      </c>
+      <c r="T111" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="16"/>
+        <v>114</v>
+      </c>
+      <c r="V111" s="5">
+        <v>70</v>
+      </c>
+      <c r="W111">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>110</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112">
+        <f t="shared" si="15"/>
+        <v>831838.05946966144</v>
+      </c>
+      <c r="F112" s="5">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="8"/>
+        <v>1400657267760.0393</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="11"/>
+        <v>30040.309470023552</v>
+      </c>
+      <c r="I112" s="5">
+        <f t="shared" si="17"/>
+        <v>2241063385689.1436</v>
+      </c>
+      <c r="J112" s="5">
+        <v>1</v>
+      </c>
+      <c r="K112" s="5">
+        <v>11</v>
+      </c>
+      <c r="L112" s="5">
+        <v>5</v>
+      </c>
+      <c r="M112" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N112" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O112" s="5">
+        <v>30</v>
+      </c>
+      <c r="P112" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R112" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S112" s="5">
+        <v>1</v>
+      </c>
+      <c r="T112" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="16"/>
+        <v>115</v>
+      </c>
+      <c r="V112" s="5">
+        <v>70</v>
+      </c>
+      <c r="W112">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>111</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113">
+        <f t="shared" si="15"/>
+        <v>853958.24984451104</v>
+      </c>
+      <c r="F113" s="5">
+        <v>4</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="8"/>
+        <v>1478142594594.7419</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="11"/>
+        <v>30571.486996480584</v>
+      </c>
+      <c r="I113" s="5">
+        <f t="shared" si="17"/>
+        <v>2367183331940.7749</v>
+      </c>
+      <c r="J113" s="5">
+        <v>1</v>
+      </c>
+      <c r="K113" s="5">
+        <v>11</v>
+      </c>
+      <c r="L113" s="5">
+        <v>5</v>
+      </c>
+      <c r="M113" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N113" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O113" s="5">
+        <v>30</v>
+      </c>
+      <c r="P113" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R113" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S113" s="5">
+        <v>2</v>
+      </c>
+      <c r="T113" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="16"/>
+        <v>116</v>
+      </c>
+      <c r="V113" s="5">
+        <v>70</v>
+      </c>
+      <c r="W113">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>112</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114">
+        <f t="shared" si="15"/>
+        <v>876460.33349851426</v>
+      </c>
+      <c r="F114" s="5">
+        <v>4</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="8"/>
+        <v>1559161382657.5146</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="11"/>
+        <v>31107.675637973356</v>
+      </c>
+      <c r="I114" s="5">
+        <f t="shared" si="17"/>
+        <v>2499173466568.5669</v>
+      </c>
+      <c r="J114" s="5">
+        <v>1</v>
+      </c>
+      <c r="K114" s="5">
+        <v>11</v>
+      </c>
+      <c r="L114" s="5">
+        <v>5</v>
+      </c>
+      <c r="M114" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N114" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O114" s="5">
+        <v>30</v>
+      </c>
+      <c r="P114" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R114" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S114" s="5">
+        <v>2</v>
+      </c>
+      <c r="T114" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="16"/>
+        <v>117</v>
+      </c>
+      <c r="V114" s="5">
+        <v>70</v>
+      </c>
+      <c r="W114">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>113</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115">
+        <f t="shared" si="15"/>
+        <v>899347.40547762555</v>
+      </c>
+      <c r="F115" s="5">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="8"/>
+        <v>1643841045129.416</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="11"/>
+        <v>31648.882140571</v>
+      </c>
+      <c r="I115" s="5">
+        <f t="shared" si="17"/>
+        <v>2637250921043.9019</v>
+      </c>
+      <c r="J115" s="5">
+        <v>1</v>
+      </c>
+      <c r="K115" s="5">
+        <v>11</v>
+      </c>
+      <c r="L115" s="5">
+        <v>5</v>
+      </c>
+      <c r="M115" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N115" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O115" s="5">
+        <v>30</v>
+      </c>
+      <c r="P115" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R115" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S115" s="5">
+        <v>2</v>
+      </c>
+      <c r="T115" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="V115" s="5">
+        <v>70</v>
+      </c>
+      <c r="W115">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>114</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116">
+        <f t="shared" si="15"/>
+        <v>922622.55806551839</v>
+      </c>
+      <c r="F116" s="5">
+        <v>4</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="8"/>
+        <v>1732312395592.8162</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="11"/>
+        <v>32195.11319933636</v>
+      </c>
+      <c r="I116" s="5">
+        <f t="shared" si="17"/>
+        <v>2781638820782.6548</v>
+      </c>
+      <c r="J116" s="5">
+        <v>1</v>
+      </c>
+      <c r="K116" s="5">
+        <v>11</v>
+      </c>
+      <c r="L116" s="5">
+        <v>5</v>
+      </c>
+      <c r="M116" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N116" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O116" s="5">
+        <v>30</v>
+      </c>
+      <c r="P116" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R116" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S116" s="5">
+        <v>3</v>
+      </c>
+      <c r="T116" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="16"/>
+        <v>119</v>
+      </c>
+      <c r="V116" s="5">
+        <v>70</v>
+      </c>
+      <c r="W116">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117">
+        <f t="shared" si="15"/>
+        <v>946288.88081047079</v>
+      </c>
+      <c r="F117" s="5">
+        <v>4</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="8"/>
+        <v>1824709707483.9443</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="11"/>
+        <v>32746.375459158106</v>
+      </c>
+      <c r="I117" s="5">
+        <f t="shared" si="17"/>
+        <v>2932566395366.7305</v>
+      </c>
+      <c r="J117" s="5">
+        <v>1</v>
+      </c>
+      <c r="K117" s="5">
+        <v>11</v>
+      </c>
+      <c r="L117" s="5">
+        <v>5</v>
+      </c>
+      <c r="M117" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N117" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O117" s="5">
+        <v>30</v>
+      </c>
+      <c r="P117" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R117" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S117" s="5">
+        <v>3</v>
+      </c>
+      <c r="T117" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="V117" s="5">
+        <v>70</v>
+      </c>
+      <c r="W117">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>116</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118">
+        <f t="shared" si="15"/>
+        <v>970349.46055174293</v>
+      </c>
+      <c r="F118" s="5">
+        <v>4</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="8"/>
+        <v>1921170774047.3584</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="11"/>
+        <v>33302.67551556167</v>
+      </c>
+      <c r="I118" s="5">
+        <f t="shared" si="17"/>
+        <v>3090269089794.3696</v>
+      </c>
+      <c r="J118" s="5">
+        <v>1</v>
+      </c>
+      <c r="K118" s="5">
+        <v>11</v>
+      </c>
+      <c r="L118" s="5">
+        <v>5</v>
+      </c>
+      <c r="M118" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N118" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O118" s="5">
+        <v>30</v>
+      </c>
+      <c r="P118" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R118" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S118" s="5">
+        <v>3</v>
+      </c>
+      <c r="T118" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="16"/>
+        <v>121</v>
+      </c>
+      <c r="V118" s="5">
+        <v>70</v>
+      </c>
+      <c r="W118">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>117</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119">
+        <f t="shared" si="15"/>
+        <v>994807.38144547958</v>
+      </c>
+      <c r="F119" s="5">
+        <v>4</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="8"/>
+        <v>2021836968792.1604</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="11"/>
+        <v>33864.019915500874</v>
+      </c>
+      <c r="I119" s="5">
+        <f t="shared" si="17"/>
+        <v>3254988676759.9551</v>
+      </c>
+      <c r="J119" s="5">
+        <v>1</v>
+      </c>
+      <c r="K119" s="5">
+        <v>11</v>
+      </c>
+      <c r="L119" s="5">
+        <v>5</v>
+      </c>
+      <c r="M119" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N119" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O119" s="5">
+        <v>30</v>
+      </c>
+      <c r="P119" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R119" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S119" s="5">
+        <v>4</v>
+      </c>
+      <c r="T119" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="16"/>
+        <v>122</v>
+      </c>
+      <c r="V119" s="5">
+        <v>70</v>
+      </c>
+      <c r="W119">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>118</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120">
+        <f t="shared" si="15"/>
+        <v>1019665.7249901477</v>
+      </c>
+      <c r="F120" s="5">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="8"/>
+        <v>2126853306449.6201</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="11"/>
+        <v>34430.415158129501</v>
+      </c>
+      <c r="I120" s="5">
+        <f t="shared" si="17"/>
+        <v>3426973369963.6704</v>
+      </c>
+      <c r="J120" s="5">
+        <v>1</v>
+      </c>
+      <c r="K120" s="5">
+        <v>11</v>
+      </c>
+      <c r="L120" s="5">
+        <v>5</v>
+      </c>
+      <c r="M120" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N120" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O120" s="5">
+        <v>30</v>
+      </c>
+      <c r="P120" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R120" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S120" s="5">
+        <v>4</v>
+      </c>
+      <c r="T120" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="16"/>
+        <v>123</v>
+      </c>
+      <c r="V120" s="5">
+        <v>70</v>
+      </c>
+      <c r="W120">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>119</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121">
+        <f t="shared" si="15"/>
+        <v>1044927.5700515051</v>
+      </c>
+      <c r="F121" s="5">
+        <v>4</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="8"/>
+        <v>2236368504432.2002</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="11"/>
+        <v>35001.867695554436</v>
+      </c>
+      <c r="I121" s="5">
+        <f t="shared" si="17"/>
+        <v>3606477938451.4399</v>
+      </c>
+      <c r="J121" s="5">
+        <v>1</v>
+      </c>
+      <c r="K121" s="5">
+        <v>11</v>
+      </c>
+      <c r="L121" s="5">
+        <v>5</v>
+      </c>
+      <c r="M121" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N121" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O121" s="5">
+        <v>30</v>
+      </c>
+      <c r="P121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R121" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S121" s="5">
+        <v>4</v>
+      </c>
+      <c r="T121" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="16"/>
+        <v>124</v>
+      </c>
+      <c r="V121" s="5">
+        <v>70</v>
+      </c>
+      <c r="W121">
         <v>1.3</v>
       </c>
     </row>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F0BC19-CE6C-4FF2-9E2C-8B28EC828DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFBE0A2-9621-4812-AFC0-064E6EC6CAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O96" sqref="O96"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T111" sqref="T111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:G121" si="8">A63^5.95+A63^4+100*A63+100</f>
+        <f t="shared" ref="G63:G91" si="8">A63^5.95+A63^4+100*A63+100</f>
         <v>41961973644.763359</v>
       </c>
       <c r="H63">
@@ -7715,8 +7715,8 @@
         <v>3</v>
       </c>
       <c r="G92">
-        <f t="shared" si="8"/>
-        <v>424433915388.36951</v>
+        <f>A92^5.98+A92^4+100*A92+100</f>
+        <v>485767970999.57379</v>
       </c>
       <c r="H92">
         <f t="shared" si="11"/>
@@ -7788,15 +7788,15 @@
         <v>3</v>
       </c>
       <c r="G93">
-        <f t="shared" si="8"/>
-        <v>453275245196.25879</v>
+        <f t="shared" ref="G93:G121" si="14">A93^5.98+A93^4+100*A93+100</f>
+        <v>518949294749.66425</v>
       </c>
       <c r="H93">
         <f t="shared" si="11"/>
         <v>20890.671771343517</v>
       </c>
       <c r="I93">
-        <f t="shared" ref="I93:I106" si="14">A93^6.05+A93^4+1000*A93+100</f>
+        <f t="shared" ref="I93:I106" si="15">A93^6.05+A93^4+1000*A93+100</f>
         <v>711610474994.20007</v>
       </c>
       <c r="J93">
@@ -7861,15 +7861,15 @@
         <v>3</v>
       </c>
       <c r="G94">
-        <f t="shared" si="8"/>
-        <v>483728754369.58844</v>
+        <f t="shared" si="14"/>
+        <v>553996956182.61365</v>
       </c>
       <c r="H94">
         <f t="shared" si="11"/>
         <v>21327.994596470722</v>
       </c>
       <c r="I94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>760251584572.8009</v>
       </c>
       <c r="J94">
@@ -7934,15 +7934,15 @@
         <v>3</v>
       </c>
       <c r="G95">
-        <f t="shared" si="8"/>
-        <v>515865558069.2876</v>
+        <f t="shared" si="14"/>
+        <v>590993920927.74756</v>
       </c>
       <c r="H95">
         <f t="shared" si="11"/>
         <v>21770.189384012174</v>
       </c>
       <c r="I95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>811637150590.83582</v>
       </c>
       <c r="J95">
@@ -8007,15 +8007,15 @@
         <v>3</v>
       </c>
       <c r="G96">
-        <f t="shared" si="8"/>
-        <v>549759088572.83984</v>
+        <f t="shared" si="14"/>
+        <v>630025885793.43494</v>
       </c>
       <c r="H96">
         <f t="shared" si="11"/>
         <v>22217.264041064769</v>
       </c>
       <c r="I96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>865889996579.44507</v>
       </c>
       <c r="J96">
@@ -8073,22 +8073,22 @@
         <v>66</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97:E121" si="15">A97^2.9</f>
+        <f t="shared" ref="E97:E121" si="16">A97^2.9</f>
         <v>543748.98006544856</v>
       </c>
       <c r="F97">
         <v>3</v>
       </c>
       <c r="G97">
-        <f t="shared" si="8"/>
-        <v>585485144638.25</v>
+        <f t="shared" si="14"/>
+        <v>671181337857.06079</v>
       </c>
       <c r="H97">
         <f t="shared" si="11"/>
         <v>22669.226402781103</v>
       </c>
       <c r="I97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>923137040676.72595</v>
       </c>
       <c r="J97">
@@ -8125,7 +8125,7 @@
         <v>59</v>
       </c>
       <c r="U97">
-        <f t="shared" ref="U97:U121" si="16">A97+5</f>
+        <f t="shared" ref="U97:U121" si="17">A97+5</f>
         <v>100</v>
       </c>
       <c r="V97">
@@ -8146,22 +8146,22 @@
         <v>64</v>
       </c>
       <c r="E98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>560514.14370225859</v>
       </c>
       <c r="F98">
         <v>3</v>
       </c>
       <c r="G98">
-        <f t="shared" si="8"/>
-        <v>623121941374.84766</v>
+        <f t="shared" si="14"/>
+        <v>714551614180.94092</v>
       </c>
       <c r="H98">
         <f t="shared" si="11"/>
         <v>23126.084233778911</v>
       </c>
       <c r="I98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>983509386390.58374</v>
       </c>
       <c r="J98">
@@ -8198,7 +8198,7 @@
         <v>59</v>
       </c>
       <c r="U98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>101</v>
       </c>
       <c r="V98">
@@ -8219,22 +8219,22 @@
         <v>65</v>
       </c>
       <c r="E99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>577614.42348689889</v>
       </c>
       <c r="F99">
         <v>3</v>
       </c>
       <c r="G99">
-        <f t="shared" si="8"/>
-        <v>662750160620.67566</v>
+        <f t="shared" si="14"/>
+        <v>760230962154.10474</v>
       </c>
       <c r="H99">
         <f t="shared" si="11"/>
         <v>23587.845229508795</v>
       </c>
       <c r="I99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1047142414381.1482</v>
       </c>
       <c r="J99">
@@ -8271,7 +8271,7 @@
         <v>59</v>
       </c>
       <c r="U99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>102</v>
       </c>
       <c r="V99">
@@ -8292,22 +8292,22 @@
         <v>66</v>
       </c>
       <c r="E100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>595052.95950881008</v>
       </c>
       <c r="F100">
         <v>3</v>
       </c>
       <c r="G100">
-        <f t="shared" si="8"/>
-        <v>704453001826.19031</v>
+        <f t="shared" si="14"/>
+        <v>808316600459.75903</v>
       </c>
       <c r="H100">
         <f t="shared" si="11"/>
         <v>24054.51701758134</v>
       </c>
       <c r="I100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1114175875263.2222</v>
       </c>
       <c r="J100">
@@ -8344,7 +8344,7 @@
         <v>59</v>
       </c>
       <c r="U100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>103</v>
       </c>
       <c r="V100">
@@ -8365,22 +8365,22 @@
         <v>64</v>
       </c>
       <c r="E101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>612832.88862176694</v>
       </c>
       <c r="F101">
         <v>3</v>
       </c>
       <c r="G101">
-        <f t="shared" si="8"/>
-        <v>748316233443.97205</v>
+        <f t="shared" si="14"/>
+        <v>858908780668.32092</v>
       </c>
       <c r="H101">
         <f t="shared" si="11"/>
         <v>24526.107159055289</v>
       </c>
       <c r="I101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1184753983429.3806</v>
       </c>
       <c r="J101">
@@ -8417,7 +8417,7 @@
         <v>59</v>
       </c>
       <c r="U101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="V101">
@@ -8438,22 +8438,22 @@
         <v>65</v>
       </c>
       <c r="E102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>630957.34448019415</v>
       </c>
       <c r="F102">
         <v>3</v>
       </c>
       <c r="G102">
-        <f t="shared" si="8"/>
-        <v>794428244824.2843</v>
+        <f t="shared" si="14"/>
+        <v>912110849455.91248</v>
       </c>
       <c r="H102">
         <f t="shared" si="11"/>
         <v>25002.623149688792</v>
       </c>
       <c r="I102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1259025511894.1692</v>
       </c>
       <c r="J102">
@@ -8490,7 +8490,7 @@
         <v>59</v>
       </c>
       <c r="U102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
       <c r="V102">
@@ -8511,22 +8511,22 @@
         <v>66</v>
       </c>
       <c r="E103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>649429.45757468231</v>
       </c>
       <c r="F103">
         <v>3</v>
       </c>
       <c r="G103">
-        <f t="shared" si="8"/>
-        <v>842880098616.05273</v>
+        <f t="shared" si="14"/>
+        <v>968029311448.13269</v>
       </c>
       <c r="H103">
         <f t="shared" si="11"/>
         <v>25484.072421154346</v>
       </c>
       <c r="I103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1337143888159.9634</v>
       </c>
       <c r="J103">
@@ -8563,7 +8563,7 @@
         <v>59</v>
       </c>
       <c r="U103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>106</v>
       </c>
       <c r="V103">
@@ -8584,22 +8584,22 @@
         <v>64</v>
       </c>
       <c r="E104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>668252.355266792</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
       <c r="G104">
-        <f t="shared" si="8"/>
-        <v>893765583673.20068</v>
+        <f t="shared" si="14"/>
+        <v>1026773892689.0406</v>
       </c>
       <c r="H104">
         <f t="shared" si="11"/>
         <v>25970.462342219515</v>
       </c>
       <c r="I104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1419267291105.0381</v>
       </c>
       <c r="J104">
@@ -8636,7 +8636,7 @@
         <v>59</v>
       </c>
       <c r="U104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>107</v>
       </c>
       <c r="V104">
@@ -8657,22 +8657,22 @@
         <v>65</v>
       </c>
       <c r="E105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>687429.16182310728</v>
       </c>
       <c r="F105">
         <v>3</v>
       </c>
       <c r="G105">
-        <f t="shared" si="8"/>
-        <v>947181268465.96741</v>
+        <f t="shared" si="14"/>
+        <v>1088457604735.2118</v>
       </c>
       <c r="H105">
         <f t="shared" si="11"/>
         <v>26461.800219894489</v>
       </c>
       <c r="I105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1505558748894.283</v>
       </c>
       <c r="J105">
@@ -8709,7 +8709,7 @@
         <v>59</v>
       </c>
       <c r="U105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>108</v>
       </c>
       <c r="V105">
@@ -8730,22 +8730,22 @@
         <v>66</v>
       </c>
       <c r="E106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>706962.99844859866</v>
       </c>
       <c r="F106">
         <v>3</v>
       </c>
       <c r="G106">
-        <f t="shared" si="8"/>
-        <v>1003226554996.9296</v>
+        <f t="shared" si="14"/>
+        <v>1153196809374.6646</v>
       </c>
       <c r="H106">
         <f t="shared" si="11"/>
         <v>26958.093300547484</v>
       </c>
       <c r="I106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1596186237913.1262</v>
       </c>
       <c r="J106">
@@ -8782,7 +8782,7 @@
         <v>59</v>
       </c>
       <c r="U106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>109</v>
       </c>
       <c r="V106">
@@ -8804,15 +8804,15 @@
       </c>
       <c r="D107" s="5"/>
       <c r="E107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>726856.98331931105</v>
       </c>
       <c r="F107" s="5">
         <v>4</v>
       </c>
       <c r="G107">
-        <f t="shared" si="8"/>
-        <v>1062003733221.6243</v>
+        <f>A107^6+A107^4+100*A107+100</f>
+        <v>1340217201850</v>
       </c>
       <c r="H107">
         <f t="shared" si="11"/>
@@ -8856,7 +8856,7 @@
         <v>59</v>
       </c>
       <c r="U107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>110</v>
       </c>
       <c r="V107" s="5">
@@ -8878,22 +8878,22 @@
       </c>
       <c r="D108" s="5"/>
       <c r="E108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>747114.23161438701</v>
       </c>
       <c r="F108" s="5">
         <v>4</v>
       </c>
       <c r="G108">
-        <f t="shared" si="8"/>
-        <v>1123618035973.3757</v>
+        <f t="shared" ref="G108:G121" si="18">A108^6+A108^4+100*A108+100</f>
+        <v>1418645370652</v>
       </c>
       <c r="H108">
         <f t="shared" si="11"/>
         <v>27965.573759530074</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" ref="I108:I121" si="17">A108^6.05+A108^4+1000*A108+100</f>
+        <f t="shared" ref="I108:I121" si="19">A108^6.05+A108^4+1000*A108+100</f>
         <v>1791146557054.1973</v>
       </c>
       <c r="J108" s="5">
@@ -8930,7 +8930,7 @@
         <v>59</v>
       </c>
       <c r="U108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>111</v>
       </c>
       <c r="V108" s="5">
@@ -8952,59 +8952,59 @@
       </c>
       <c r="D109" s="5"/>
       <c r="E109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>767737.85554744338</v>
       </c>
       <c r="F109" s="5">
         <v>4</v>
       </c>
       <c r="G109">
-        <f t="shared" si="8"/>
-        <v>1188177694392.1418</v>
+        <f t="shared" si="18"/>
+        <v>1500861442250</v>
       </c>
       <c r="H109">
         <f t="shared" si="11"/>
         <v>28476.775337002829</v>
       </c>
       <c r="I109" s="5">
+        <f t="shared" si="19"/>
+        <v>1895840985790.3337</v>
+      </c>
+      <c r="J109" s="5">
+        <v>1</v>
+      </c>
+      <c r="K109" s="5">
+        <v>11</v>
+      </c>
+      <c r="L109" s="5">
+        <v>5</v>
+      </c>
+      <c r="M109" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N109" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O109" s="5">
+        <v>30</v>
+      </c>
+      <c r="P109" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R109" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S109" s="5">
+        <v>0</v>
+      </c>
+      <c r="T109" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U109">
         <f t="shared" si="17"/>
-        <v>1895840985790.3337</v>
-      </c>
-      <c r="J109" s="5">
-        <v>1</v>
-      </c>
-      <c r="K109" s="5">
-        <v>11</v>
-      </c>
-      <c r="L109" s="5">
-        <v>5</v>
-      </c>
-      <c r="M109" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N109" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O109" s="5">
-        <v>30</v>
-      </c>
-      <c r="P109" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R109" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S109" s="5">
-        <v>0</v>
-      </c>
-      <c r="T109" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U109">
-        <f t="shared" si="16"/>
         <v>112</v>
       </c>
       <c r="V109" s="5">
@@ -9026,59 +9026,59 @@
       </c>
       <c r="D110" s="5"/>
       <c r="E110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>788730.96439734229</v>
       </c>
       <c r="F110" s="5">
         <v>4</v>
       </c>
       <c r="G110">
-        <f t="shared" si="8"/>
-        <v>1255793993857.1975</v>
+        <f t="shared" si="18"/>
+        <v>1587010382740</v>
       </c>
       <c r="H110">
         <f t="shared" si="11"/>
         <v>28992.960517765769</v>
       </c>
       <c r="I110" s="5">
+        <f t="shared" si="19"/>
+        <v>2005594848022.1631</v>
+      </c>
+      <c r="J110" s="5">
+        <v>1</v>
+      </c>
+      <c r="K110" s="5">
+        <v>11</v>
+      </c>
+      <c r="L110" s="5">
+        <v>5</v>
+      </c>
+      <c r="M110" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N110" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O110" s="5">
+        <v>30</v>
+      </c>
+      <c r="P110" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R110" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S110" s="5">
+        <v>1</v>
+      </c>
+      <c r="T110" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U110">
         <f t="shared" si="17"/>
-        <v>2005594848022.1631</v>
-      </c>
-      <c r="J110" s="5">
-        <v>1</v>
-      </c>
-      <c r="K110" s="5">
-        <v>11</v>
-      </c>
-      <c r="L110" s="5">
-        <v>5</v>
-      </c>
-      <c r="M110" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N110" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O110" s="5">
-        <v>30</v>
-      </c>
-      <c r="P110" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R110" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S110" s="5">
-        <v>1</v>
-      </c>
-      <c r="T110" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U110">
-        <f t="shared" si="16"/>
         <v>113</v>
       </c>
       <c r="V110" s="5">
@@ -9100,59 +9100,59 @@
       </c>
       <c r="D111" s="5"/>
       <c r="E111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>810096.6645383368</v>
       </c>
       <c r="F111" s="5">
         <v>4</v>
       </c>
       <c r="G111">
-        <f t="shared" si="8"/>
-        <v>1326581330423.26</v>
+        <f t="shared" si="18"/>
+        <v>1677241280002</v>
       </c>
       <c r="H111">
         <f t="shared" si="11"/>
         <v>29514.136260673295</v>
       </c>
       <c r="I111" s="5">
+        <f t="shared" si="19"/>
+        <v>2120602381093.9172</v>
+      </c>
+      <c r="J111" s="5">
+        <v>1</v>
+      </c>
+      <c r="K111" s="5">
+        <v>11</v>
+      </c>
+      <c r="L111" s="5">
+        <v>5</v>
+      </c>
+      <c r="M111" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N111" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O111" s="5">
+        <v>30</v>
+      </c>
+      <c r="P111" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R111" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S111" s="5">
+        <v>1</v>
+      </c>
+      <c r="T111" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U111">
         <f t="shared" si="17"/>
-        <v>2120602381093.9172</v>
-      </c>
-      <c r="J111" s="5">
-        <v>1</v>
-      </c>
-      <c r="K111" s="5">
-        <v>11</v>
-      </c>
-      <c r="L111" s="5">
-        <v>5</v>
-      </c>
-      <c r="M111" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N111" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O111" s="5">
-        <v>30</v>
-      </c>
-      <c r="P111" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R111" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S111" s="5">
-        <v>1</v>
-      </c>
-      <c r="T111" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U111">
-        <f t="shared" si="16"/>
         <v>114</v>
       </c>
       <c r="V111" s="5">
@@ -9174,59 +9174,59 @@
       </c>
       <c r="D112" s="5"/>
       <c r="E112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>831838.05946966144</v>
       </c>
       <c r="F112" s="5">
         <v>4</v>
       </c>
       <c r="G112">
-        <f t="shared" si="8"/>
-        <v>1400657267760.0393</v>
+        <f t="shared" si="18"/>
+        <v>1771707421100</v>
       </c>
       <c r="H112">
         <f t="shared" si="11"/>
         <v>30040.309470023552</v>
       </c>
       <c r="I112" s="5">
+        <f t="shared" si="19"/>
+        <v>2241063385689.1436</v>
+      </c>
+      <c r="J112" s="5">
+        <v>1</v>
+      </c>
+      <c r="K112" s="5">
+        <v>11</v>
+      </c>
+      <c r="L112" s="5">
+        <v>5</v>
+      </c>
+      <c r="M112" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N112" s="5">
+        <v>10000</v>
+      </c>
+      <c r="O112" s="5">
+        <v>30</v>
+      </c>
+      <c r="P112" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="R112" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S112" s="5">
+        <v>1</v>
+      </c>
+      <c r="T112" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U112">
         <f t="shared" si="17"/>
-        <v>2241063385689.1436</v>
-      </c>
-      <c r="J112" s="5">
-        <v>1</v>
-      </c>
-      <c r="K112" s="5">
-        <v>11</v>
-      </c>
-      <c r="L112" s="5">
-        <v>5</v>
-      </c>
-      <c r="M112" s="5">
-        <v>10000</v>
-      </c>
-      <c r="N112" s="5">
-        <v>10000</v>
-      </c>
-      <c r="O112" s="5">
-        <v>30</v>
-      </c>
-      <c r="P112" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="R112" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S112" s="5">
-        <v>1</v>
-      </c>
-      <c r="T112" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U112">
-        <f t="shared" si="16"/>
         <v>115</v>
       </c>
       <c r="V112" s="5">
@@ -9248,22 +9248,22 @@
       </c>
       <c r="D113" s="5"/>
       <c r="E113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>853958.24984451104</v>
       </c>
       <c r="F113" s="5">
         <v>4</v>
       </c>
       <c r="G113">
-        <f t="shared" si="8"/>
-        <v>1478142594594.7419</v>
+        <f t="shared" si="18"/>
+        <v>1870566370402</v>
       </c>
       <c r="H113">
         <f t="shared" si="11"/>
         <v>30571.486996480584</v>
       </c>
       <c r="I113" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2367183331940.7749</v>
       </c>
       <c r="J113" s="5">
@@ -9300,7 +9300,7 @@
         <v>59</v>
       </c>
       <c r="U113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>116</v>
       </c>
       <c r="V113" s="5">
@@ -9322,22 +9322,22 @@
       </c>
       <c r="D114" s="5"/>
       <c r="E114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>876460.33349851426</v>
       </c>
       <c r="F114" s="5">
         <v>4</v>
       </c>
       <c r="G114">
-        <f t="shared" si="8"/>
-        <v>1559161382657.5146</v>
+        <f t="shared" si="18"/>
+        <v>1973980048420</v>
       </c>
       <c r="H114">
         <f t="shared" si="11"/>
         <v>31107.675637973356</v>
       </c>
       <c r="I114" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2499173466568.5669</v>
       </c>
       <c r="J114" s="5">
@@ -9374,7 +9374,7 @@
         <v>59</v>
       </c>
       <c r="U114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>117</v>
       </c>
       <c r="V114" s="5">
@@ -9396,22 +9396,22 @@
       </c>
       <c r="D115" s="5"/>
       <c r="E115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>899347.40547762555</v>
       </c>
       <c r="F115" s="5">
         <v>4</v>
       </c>
       <c r="G115">
-        <f t="shared" si="8"/>
-        <v>1643841045129.416</v>
+        <f t="shared" si="18"/>
+        <v>2082114811370</v>
       </c>
       <c r="H115">
         <f t="shared" si="11"/>
         <v>31648.882140571</v>
       </c>
       <c r="I115" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2637250921043.9019</v>
       </c>
       <c r="J115" s="5">
@@ -9448,7 +9448,7 @@
         <v>59</v>
       </c>
       <c r="U115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>118</v>
       </c>
       <c r="V115" s="5">
@@ -9470,22 +9470,22 @@
       </c>
       <c r="D116" s="5"/>
       <c r="E116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>922622.55806551839</v>
       </c>
       <c r="F116" s="5">
         <v>4</v>
       </c>
       <c r="G116">
-        <f t="shared" si="8"/>
-        <v>1732312395592.8162</v>
+        <f t="shared" si="18"/>
+        <v>2195141531452</v>
       </c>
       <c r="H116">
         <f t="shared" si="11"/>
         <v>32195.11319933636</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2781638820782.6548</v>
       </c>
       <c r="J116" s="5">
@@ -9522,7 +9522,7 @@
         <v>59</v>
       </c>
       <c r="U116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>119</v>
       </c>
       <c r="V116" s="5">
@@ -9544,22 +9544,22 @@
       </c>
       <c r="D117" s="5"/>
       <c r="E117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>946288.88081047079</v>
       </c>
       <c r="F117" s="5">
         <v>4</v>
       </c>
       <c r="G117">
-        <f t="shared" si="8"/>
-        <v>1824709707483.9443</v>
+        <f t="shared" si="18"/>
+        <v>2313235677850</v>
       </c>
       <c r="H117">
         <f t="shared" si="11"/>
         <v>32746.375459158106</v>
       </c>
       <c r="I117" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2932566395366.7305</v>
       </c>
       <c r="J117" s="5">
@@ -9596,7 +9596,7 @@
         <v>59</v>
       </c>
       <c r="U117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="V117" s="5">
@@ -9618,22 +9618,22 @@
       </c>
       <c r="D118" s="5"/>
       <c r="E118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>970349.46055174293</v>
       </c>
       <c r="F118" s="5">
         <v>4</v>
       </c>
       <c r="G118">
-        <f t="shared" si="8"/>
-        <v>1921170774047.3584</v>
+        <f t="shared" si="18"/>
+        <v>2436577398452</v>
       </c>
       <c r="H118">
         <f t="shared" si="11"/>
         <v>33302.67551556167</v>
       </c>
       <c r="I118" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3090269089794.3696</v>
       </c>
       <c r="J118" s="5">
@@ -9670,7 +9670,7 @@
         <v>59</v>
       </c>
       <c r="U118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>121</v>
       </c>
       <c r="V118" s="5">
@@ -9692,22 +9692,22 @@
       </c>
       <c r="D119" s="5"/>
       <c r="E119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>994807.38144547958</v>
       </c>
       <c r="F119" s="5">
         <v>4</v>
       </c>
       <c r="G119">
-        <f t="shared" si="8"/>
-        <v>2021836968792.1604</v>
+        <f t="shared" si="18"/>
+        <v>2565351602290</v>
       </c>
       <c r="H119">
         <f t="shared" si="11"/>
         <v>33864.019915500874</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3254988676759.9551</v>
       </c>
       <c r="J119" s="5">
@@ -9744,7 +9744,7 @@
         <v>59</v>
       </c>
       <c r="U119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>122</v>
       </c>
       <c r="V119" s="5">
@@ -9766,22 +9766,22 @@
       </c>
       <c r="D120" s="5"/>
       <c r="E120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1019665.7249901477</v>
       </c>
       <c r="F120" s="5">
         <v>4</v>
       </c>
       <c r="G120">
-        <f t="shared" si="8"/>
-        <v>2126853306449.6201</v>
+        <f t="shared" si="18"/>
+        <v>2699748042700</v>
       </c>
       <c r="H120">
         <f t="shared" si="11"/>
         <v>34430.415158129501</v>
       </c>
       <c r="I120" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3426973369963.6704</v>
       </c>
       <c r="J120" s="5">
@@ -9818,7 +9818,7 @@
         <v>59</v>
       </c>
       <c r="U120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>123</v>
       </c>
       <c r="V120" s="5">
@@ -9840,22 +9840,22 @@
       </c>
       <c r="D121" s="5"/>
       <c r="E121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1044927.5700515051</v>
       </c>
       <c r="F121" s="5">
         <v>4</v>
       </c>
       <c r="G121">
-        <f t="shared" si="8"/>
-        <v>2236368504432.2002</v>
+        <f t="shared" si="18"/>
+        <v>2839961401202</v>
       </c>
       <c r="H121">
         <f t="shared" si="11"/>
         <v>35001.867695554436</v>
       </c>
       <c r="I121" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3606477938451.4399</v>
       </c>
       <c r="J121" s="5">
@@ -9892,7 +9892,7 @@
         <v>59</v>
       </c>
       <c r="U121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>124</v>
       </c>
       <c r="V121" s="5">

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFBE0A2-9621-4812-AFC0-064E6EC6CAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091F652C-E5ED-45A9-9DD0-265C6B7EAAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4605" yWindow="2760" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="70">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,7 +530,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,8 +588,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,8 +623,18 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -631,16 +657,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,11 +709,34 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
+    <cellStyle name="메모" xfId="2" builtinId="10"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -980,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W121"/>
+  <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T111" sqref="T111"/>
+    <sheetView tabSelected="1" topLeftCell="D118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -992,7 +1062,7 @@
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="35.5" customWidth="1"/>
@@ -1024,7 +1094,7 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -1092,7 +1162,7 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="12">
         <f>A2^2.9</f>
         <v>0</v>
       </c>
@@ -1165,7 +1235,7 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E66" si="0">A3^2.9</f>
         <v>1</v>
       </c>
@@ -1238,7 +1308,7 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="12">
         <f t="shared" si="0"/>
         <v>7.4642639322944575</v>
       </c>
@@ -1311,7 +1381,7 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
         <v>24.190878415700585</v>
       </c>
@@ -1384,7 +1454,7 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>55.715236050951923</v>
       </c>
@@ -1457,7 +1527,7 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>106.41749031509804</v>
       </c>
@@ -1530,7 +1600,7 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>180.56710124883438</v>
       </c>
@@ -1603,7 +1673,7 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>282.34774011961417</v>
       </c>
@@ -1676,7 +1746,7 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>415.87322693439216</v>
       </c>
@@ -1749,7 +1819,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>585.19859852320837</v>
       </c>
@@ -1822,7 +1892,7 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>794.32823472428208</v>
       </c>
@@ -1895,7 +1965,7 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
         <v>1047.2220715639037</v>
       </c>
@@ -1968,7 +2038,7 @@
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>1347.8005012106366</v>
       </c>
@@ -2041,7 +2111,7 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>1699.9483319952403</v>
       </c>
@@ -2114,7 +2184,7 @@
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="12">
         <f t="shared" si="0"/>
         <v>2107.5180529396839</v>
       </c>
@@ -2188,7 +2258,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="7">
+      <c r="E17" s="13">
         <f t="shared" si="0"/>
         <v>2574.3325695165299</v>
       </c>
@@ -2262,7 +2332,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="7">
+      <c r="E18" s="13">
         <f t="shared" si="0"/>
         <v>3104.1875282132928</v>
       </c>
@@ -2336,7 +2406,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="7">
+      <c r="E19" s="13">
         <f t="shared" si="0"/>
         <v>3700.8533151667184</v>
       </c>
@@ -2410,7 +2480,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="7">
+      <c r="E20" s="13">
         <f t="shared" si="0"/>
         <v>4368.0767921860433</v>
       </c>
@@ -2484,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="7">
+      <c r="E21" s="13">
         <f t="shared" si="0"/>
         <v>5109.5828181573261</v>
       </c>
@@ -2558,7 +2628,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="7">
+      <c r="E22" s="13">
         <f t="shared" si="0"/>
         <v>5929.0755928555818</v>
       </c>
@@ -2632,7 +2702,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="7">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>6830.2398521814148</v>
       </c>
@@ -2706,7 +2776,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="7">
+      <c r="E24" s="13">
         <f t="shared" si="0"/>
         <v>7816.7419378771419</v>
       </c>
@@ -2780,7 +2850,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="7">
+      <c r="E25" s="13">
         <f t="shared" si="0"/>
         <v>8892.2307602683195</v>
       </c>
@@ -2854,7 +2924,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="7">
+      <c r="E26" s="13">
         <f t="shared" si="0"/>
         <v>10060.338669114952</v>
       </c>
@@ -2928,7 +2998,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="7">
+      <c r="E27" s="13">
         <f t="shared" si="0"/>
         <v>11324.682244963982</v>
       </c>
@@ -3002,7 +3072,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="7">
+      <c r="E28" s="13">
         <f t="shared" si="0"/>
         <v>12688.863021276193</v>
       </c>
@@ -3076,7 +3146,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="7">
+      <c r="E29" s="13">
         <f t="shared" si="0"/>
         <v>14156.468145913308</v>
       </c>
@@ -3150,7 +3220,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="7">
+      <c r="E30" s="13">
         <f t="shared" si="0"/>
         <v>15731.070989217116</v>
       </c>
@@ -3224,7 +3294,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="7">
+      <c r="E31" s="13">
         <f t="shared" si="0"/>
         <v>17416.231704813265</v>
       </c>
@@ -3297,7 +3367,7 @@
       <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="12">
         <f t="shared" si="0"/>
         <v>19215.497748373156</v>
       </c>
@@ -3370,7 +3440,7 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="12">
         <f t="shared" si="0"/>
         <v>21132.404358829102</v>
       </c>
@@ -3443,7 +3513,7 @@
       <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="12">
         <f t="shared" si="0"/>
         <v>23170.475005920798</v>
       </c>
@@ -3516,7 +3586,7 @@
       <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="12">
         <f t="shared" si="0"/>
         <v>25333.221807440499</v>
       </c>
@@ -3589,7 +3659,7 @@
       <c r="C36" t="s">
         <v>25</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="12">
         <f t="shared" si="0"/>
         <v>27624.145919111299</v>
       </c>
@@ -3662,7 +3732,7 @@
       <c r="C37" t="s">
         <v>26</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="12">
         <f t="shared" si="0"/>
         <v>30046.737899668853</v>
       </c>
@@ -3735,7 +3805,7 @@
       <c r="C38" t="s">
         <v>24</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="12">
         <f t="shared" si="0"/>
         <v>32604.478053406801</v>
       </c>
@@ -3808,7 +3878,7 @@
       <c r="C39" t="s">
         <v>25</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="12">
         <f t="shared" si="0"/>
         <v>35300.836752181283</v>
       </c>
@@ -3881,7 +3951,7 @@
       <c r="C40" t="s">
         <v>26</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="12">
         <f t="shared" si="0"/>
         <v>38139.274738643187</v>
       </c>
@@ -3954,7 +4024,7 @@
       <c r="C41" t="s">
         <v>24</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="12">
         <f t="shared" si="0"/>
         <v>41123.243412269818</v>
       </c>
@@ -4027,7 +4097,7 @@
       <c r="C42" t="s">
         <v>25</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="12">
         <f t="shared" si="0"/>
         <v>44256.185099599286</v>
       </c>
@@ -4100,7 +4170,7 @@
       <c r="C43" t="s">
         <v>26</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="12">
         <f t="shared" si="0"/>
         <v>47541.533309922204</v>
       </c>
@@ -4173,7 +4243,7 @@
       <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="12">
         <f t="shared" si="0"/>
         <v>50982.712977557938</v>
       </c>
@@ -4246,7 +4316,7 @@
       <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="12">
         <f t="shared" si="0"/>
         <v>54583.140691729262</v>
       </c>
@@ -4319,7 +4389,7 @@
       <c r="C46" t="s">
         <v>26</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="12">
         <f t="shared" si="0"/>
         <v>58346.224914949707</v>
       </c>
@@ -4393,7 +4463,7 @@
         <v>27</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="7">
+      <c r="E47" s="13">
         <f t="shared" si="0"/>
         <v>62275.366190752415</v>
       </c>
@@ -4467,7 +4537,7 @@
         <v>28</v>
       </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="7">
+      <c r="E48" s="13">
         <f t="shared" si="0"/>
         <v>66373.957341510235</v>
       </c>
@@ -4541,7 +4611,7 @@
         <v>29</v>
       </c>
       <c r="D49" s="5"/>
-      <c r="E49" s="7">
+      <c r="E49" s="13">
         <f t="shared" si="0"/>
         <v>70645.383657029772</v>
       </c>
@@ -4615,7 +4685,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="7">
+      <c r="E50" s="13">
         <f t="shared" si="0"/>
         <v>75093.023074541925</v>
       </c>
@@ -4689,7 +4759,7 @@
         <v>28</v>
       </c>
       <c r="D51" s="5"/>
-      <c r="E51" s="7">
+      <c r="E51" s="13">
         <f t="shared" si="0"/>
         <v>79720.246350653164</v>
       </c>
@@ -4763,7 +4833,7 @@
         <v>29</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="7">
+      <c r="E52" s="13">
         <f t="shared" si="0"/>
         <v>84530.417225780053</v>
       </c>
@@ -4837,7 +4907,7 @@
         <v>27</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="E53" s="7">
+      <c r="E53" s="13">
         <f t="shared" si="0"/>
         <v>89526.892581540407</v>
       </c>
@@ -4911,7 +4981,7 @@
         <v>28</v>
       </c>
       <c r="D54" s="5"/>
-      <c r="E54" s="7">
+      <c r="E54" s="13">
         <f t="shared" si="0"/>
         <v>94713.022591536894</v>
       </c>
@@ -4985,7 +5055,7 @@
         <v>29</v>
       </c>
       <c r="D55" s="5"/>
-      <c r="E55" s="7">
+      <c r="E55" s="13">
         <f t="shared" si="0"/>
         <v>100092.15086593677</v>
       </c>
@@ -5059,7 +5129,7 @@
         <v>27</v>
       </c>
       <c r="D56" s="5"/>
-      <c r="E56" s="7">
+      <c r="E56" s="13">
         <f t="shared" si="0"/>
         <v>105667.61459021605</v>
       </c>
@@ -5133,7 +5203,7 @@
         <v>28</v>
       </c>
       <c r="D57" s="5"/>
-      <c r="E57" s="7">
+      <c r="E57" s="13">
         <f t="shared" si="0"/>
         <v>111442.74465840882</v>
       </c>
@@ -5207,7 +5277,7 @@
         <v>29</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="7">
+      <c r="E58" s="13">
         <f t="shared" si="0"/>
         <v>117420.8658011774</v>
       </c>
@@ -5281,7 +5351,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="7">
+      <c r="E59" s="13">
         <f t="shared" si="0"/>
         <v>123605.29670899668</v>
       </c>
@@ -5355,7 +5425,7 @@
         <v>28</v>
       </c>
       <c r="D60" s="5"/>
-      <c r="E60" s="7">
+      <c r="E60" s="13">
         <f t="shared" si="0"/>
         <v>129999.35015072057</v>
       </c>
@@ -5429,7 +5499,7 @@
         <v>29</v>
       </c>
       <c r="D61" s="5"/>
-      <c r="E61" s="7">
+      <c r="E61" s="13">
         <f t="shared" si="0"/>
         <v>136606.33308778363</v>
       </c>
@@ -5502,7 +5572,7 @@
       <c r="C62" t="s">
         <v>30</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="12">
         <f t="shared" si="0"/>
         <v>143429.54678426706</v>
       </c>
@@ -5575,7 +5645,7 @@
       <c r="C63" t="s">
         <v>31</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="12">
         <f t="shared" si="0"/>
         <v>150472.28691305482</v>
       </c>
@@ -5648,7 +5718,7 @@
       <c r="C64" t="s">
         <v>32</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="12">
         <f t="shared" si="0"/>
         <v>157737.8436582702</v>
       </c>
@@ -5721,7 +5791,7 @@
       <c r="C65" t="s">
         <v>30</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="12">
         <f t="shared" si="0"/>
         <v>165229.50181419312</v>
       </c>
@@ -5794,7 +5864,7 @@
       <c r="C66" t="s">
         <v>31</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="12">
         <f t="shared" si="0"/>
         <v>172950.54088082444</v>
       </c>
@@ -5867,7 +5937,7 @@
       <c r="C67" t="s">
         <v>32</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="12">
         <f t="shared" ref="E67:E96" si="10">A67^2.9</f>
         <v>180904.23515627053</v>
       </c>
@@ -5940,7 +6010,7 @@
       <c r="C68" t="s">
         <v>30</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="12">
         <f t="shared" si="10"/>
         <v>189093.85382609314</v>
       </c>
@@ -6013,7 +6083,7 @@
       <c r="C69" t="s">
         <v>31</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="12">
         <f t="shared" si="10"/>
         <v>197522.6610497802</v>
       </c>
@@ -6086,7 +6156,7 @@
       <c r="C70" t="s">
         <v>32</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="12">
         <f t="shared" si="10"/>
         <v>206193.91604446189</v>
       </c>
@@ -6159,7 +6229,7 @@
       <c r="C71" t="s">
         <v>30</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="12">
         <f t="shared" si="10"/>
         <v>215110.87316600379</v>
       </c>
@@ -6232,7 +6302,7 @@
       <c r="C72" t="s">
         <v>31</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="12">
         <f t="shared" si="10"/>
         <v>224276.78198760346</v>
       </c>
@@ -6305,7 +6375,7 @@
       <c r="C73" t="s">
         <v>32</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="12">
         <f t="shared" si="10"/>
         <v>233694.88737598748</v>
       </c>
@@ -6378,7 +6448,7 @@
       <c r="C74" t="s">
         <v>30</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="12">
         <f t="shared" si="10"/>
         <v>243368.4295653305</v>
       </c>
@@ -6451,7 +6521,7 @@
       <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="12">
         <f t="shared" si="10"/>
         <v>253300.64422898469</v>
       </c>
@@ -6524,7 +6594,7 @@
       <c r="C76" t="s">
         <v>32</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="12">
         <f t="shared" si="10"/>
         <v>263494.76254912175</v>
       </c>
@@ -6598,7 +6668,7 @@
         <v>33</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="7">
+      <c r="E77" s="13">
         <f t="shared" si="10"/>
         <v>273954.01128436648</v>
       </c>
@@ -6672,7 +6742,7 @@
         <v>34</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="7">
+      <c r="E78" s="13">
         <f t="shared" si="10"/>
         <v>284681.61283552332</v>
       </c>
@@ -6746,7 +6816,7 @@
         <v>35</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="7">
+      <c r="E79" s="13">
         <f t="shared" si="10"/>
         <v>295680.78530944901</v>
       </c>
@@ -6820,7 +6890,7 @@
         <v>33</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="E80" s="7">
+      <c r="E80" s="13">
         <f t="shared" si="10"/>
         <v>306954.74258117168</v>
       </c>
@@ -6894,7 +6964,7 @@
         <v>34</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="E81" s="7">
+      <c r="E81" s="13">
         <f t="shared" si="10"/>
         <v>318506.69435431337</v>
       </c>
@@ -6968,7 +7038,7 @@
         <v>35</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="E82" s="7">
+      <c r="E82" s="13">
         <f t="shared" si="10"/>
         <v>330339.84621988621</v>
       </c>
@@ -7042,7 +7112,7 @@
         <v>33</v>
       </c>
       <c r="D83" s="5"/>
-      <c r="E83" s="7">
+      <c r="E83" s="13">
         <f t="shared" si="10"/>
         <v>342457.39971352724</v>
       </c>
@@ -7116,7 +7186,7 @@
         <v>34</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="7">
+      <c r="E84" s="13">
         <f t="shared" si="10"/>
         <v>354862.55237122771</v>
       </c>
@@ -7190,7 +7260,7 @@
         <v>35</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="7">
+      <c r="E85" s="13">
         <f t="shared" si="10"/>
         <v>367558.49778362713</v>
       </c>
@@ -7264,7 +7334,7 @@
         <v>33</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="E86" s="7">
+      <c r="E86" s="13">
         <f t="shared" si="10"/>
         <v>380548.42564890615</v>
       </c>
@@ -7338,7 +7408,7 @@
         <v>34</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="E87" s="7">
+      <c r="E87" s="13">
         <f t="shared" si="10"/>
         <v>393835.52182435268</v>
       </c>
@@ -7412,7 +7482,7 @@
         <v>35</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="E88" s="7">
+      <c r="E88" s="13">
         <f t="shared" si="10"/>
         <v>407422.96837662853</v>
       </c>
@@ -7486,7 +7556,7 @@
         <v>33</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="E89" s="7">
+      <c r="E89" s="13">
         <f t="shared" si="10"/>
         <v>421313.94363080681</v>
       </c>
@@ -7560,7 +7630,7 @@
         <v>34</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="E90" s="7">
+      <c r="E90" s="13">
         <f t="shared" si="10"/>
         <v>435511.62221820076</v>
       </c>
@@ -7634,7 +7704,7 @@
         <v>35</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="7">
+      <c r="E91" s="13">
         <f t="shared" si="10"/>
         <v>450019.17512304336</v>
       </c>
@@ -7707,7 +7777,7 @@
       <c r="C92" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="12">
         <f t="shared" si="10"/>
         <v>464839.76972806355</v>
       </c>
@@ -7780,7 +7850,7 @@
       <c r="C93" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="12">
         <f t="shared" si="10"/>
         <v>479976.56985896284</v>
       </c>
@@ -7788,7 +7858,7 @@
         <v>3</v>
       </c>
       <c r="G93">
-        <f t="shared" ref="G93:G121" si="14">A93^5.98+A93^4+100*A93+100</f>
+        <f t="shared" ref="G93:G106" si="14">A93^5.98+A93^4+100*A93+100</f>
         <v>518949294749.66425</v>
       </c>
       <c r="H93">
@@ -7853,7 +7923,7 @@
       <c r="C94" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="12">
         <f t="shared" si="10"/>
         <v>495432.73582788557</v>
       </c>
@@ -7926,7 +7996,7 @@
       <c r="C95" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="12">
         <f t="shared" si="10"/>
         <v>511211.42447585613</v>
       </c>
@@ -7999,7 +8069,7 @@
       <c r="C96" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="12">
         <f t="shared" si="10"/>
         <v>527315.78921427135</v>
       </c>
@@ -8072,7 +8142,7 @@
       <c r="C97" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="12">
         <f t="shared" ref="E97:E121" si="16">A97^2.9</f>
         <v>543748.98006544856</v>
       </c>
@@ -8145,7 +8215,7 @@
       <c r="C98" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="12">
         <f t="shared" si="16"/>
         <v>560514.14370225859</v>
       </c>
@@ -8218,7 +8288,7 @@
       <c r="C99" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="12">
         <f t="shared" si="16"/>
         <v>577614.42348689889</v>
       </c>
@@ -8291,7 +8361,7 @@
       <c r="C100" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="12">
         <f t="shared" si="16"/>
         <v>595052.95950881008</v>
       </c>
@@ -8364,7 +8434,7 @@
       <c r="C101" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="12">
         <f t="shared" si="16"/>
         <v>612832.88862176694</v>
       </c>
@@ -8437,7 +8507,7 @@
       <c r="C102" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="12">
         <f t="shared" si="16"/>
         <v>630957.34448019415</v>
       </c>
@@ -8510,7 +8580,7 @@
       <c r="C103" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="12">
         <f t="shared" si="16"/>
         <v>649429.45757468231</v>
       </c>
@@ -8583,7 +8653,7 @@
       <c r="C104" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="12">
         <f t="shared" si="16"/>
         <v>668252.355266792</v>
       </c>
@@ -8656,7 +8726,7 @@
       <c r="C105" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="12">
         <f t="shared" si="16"/>
         <v>687429.16182310728</v>
       </c>
@@ -8729,7 +8799,7 @@
       <c r="C106" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="12">
         <f t="shared" si="16"/>
         <v>706962.99844859866</v>
       </c>
@@ -8803,7 +8873,7 @@
         <v>67</v>
       </c>
       <c r="D107" s="5"/>
-      <c r="E107">
+      <c r="E107" s="12">
         <f t="shared" si="16"/>
         <v>726856.98331931105</v>
       </c>
@@ -8877,7 +8947,7 @@
         <v>68</v>
       </c>
       <c r="D108" s="5"/>
-      <c r="E108">
+      <c r="E108" s="12">
         <f t="shared" si="16"/>
         <v>747114.23161438701</v>
       </c>
@@ -8951,7 +9021,7 @@
         <v>69</v>
       </c>
       <c r="D109" s="5"/>
-      <c r="E109">
+      <c r="E109" s="12">
         <f t="shared" si="16"/>
         <v>767737.85554744338</v>
       </c>
@@ -9025,7 +9095,7 @@
         <v>67</v>
       </c>
       <c r="D110" s="5"/>
-      <c r="E110">
+      <c r="E110" s="12">
         <f t="shared" si="16"/>
         <v>788730.96439734229</v>
       </c>
@@ -9099,7 +9169,7 @@
         <v>68</v>
       </c>
       <c r="D111" s="5"/>
-      <c r="E111">
+      <c r="E111" s="12">
         <f t="shared" si="16"/>
         <v>810096.6645383368</v>
       </c>
@@ -9173,7 +9243,7 @@
         <v>69</v>
       </c>
       <c r="D112" s="5"/>
-      <c r="E112">
+      <c r="E112" s="12">
         <f t="shared" si="16"/>
         <v>831838.05946966144</v>
       </c>
@@ -9247,7 +9317,7 @@
         <v>67</v>
       </c>
       <c r="D113" s="5"/>
-      <c r="E113">
+      <c r="E113" s="12">
         <f t="shared" si="16"/>
         <v>853958.24984451104</v>
       </c>
@@ -9321,7 +9391,7 @@
         <v>68</v>
       </c>
       <c r="D114" s="5"/>
-      <c r="E114">
+      <c r="E114" s="12">
         <f t="shared" si="16"/>
         <v>876460.33349851426</v>
       </c>
@@ -9395,7 +9465,7 @@
         <v>69</v>
       </c>
       <c r="D115" s="5"/>
-      <c r="E115">
+      <c r="E115" s="12">
         <f t="shared" si="16"/>
         <v>899347.40547762555</v>
       </c>
@@ -9469,7 +9539,7 @@
         <v>67</v>
       </c>
       <c r="D116" s="5"/>
-      <c r="E116">
+      <c r="E116" s="12">
         <f t="shared" si="16"/>
         <v>922622.55806551839</v>
       </c>
@@ -9543,7 +9613,7 @@
         <v>68</v>
       </c>
       <c r="D117" s="5"/>
-      <c r="E117">
+      <c r="E117" s="12">
         <f t="shared" si="16"/>
         <v>946288.88081047079</v>
       </c>
@@ -9617,7 +9687,7 @@
         <v>69</v>
       </c>
       <c r="D118" s="5"/>
-      <c r="E118">
+      <c r="E118" s="12">
         <f t="shared" si="16"/>
         <v>970349.46055174293</v>
       </c>
@@ -9691,7 +9761,7 @@
         <v>67</v>
       </c>
       <c r="D119" s="5"/>
-      <c r="E119">
+      <c r="E119" s="12">
         <f t="shared" si="16"/>
         <v>994807.38144547958</v>
       </c>
@@ -9765,7 +9835,7 @@
         <v>68</v>
       </c>
       <c r="D120" s="5"/>
-      <c r="E120">
+      <c r="E120" s="12">
         <f t="shared" si="16"/>
         <v>1019665.7249901477</v>
       </c>
@@ -9839,7 +9909,7 @@
         <v>69</v>
       </c>
       <c r="D121" s="5"/>
-      <c r="E121">
+      <c r="E121" s="12">
         <f t="shared" si="16"/>
         <v>1044927.5700515051</v>
       </c>
@@ -9899,6 +9969,2226 @@
         <v>70</v>
       </c>
       <c r="W121">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>120</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="14">
+        <f t="shared" ref="E122:E136" si="20">A122^2.9</f>
+        <v>1070595.9928871447</v>
+      </c>
+      <c r="F122" s="7">
+        <v>5</v>
+      </c>
+      <c r="G122" s="9">
+        <f>A122^6.1+A122^4+100*A122+100</f>
+        <v>4819747503279.8848</v>
+      </c>
+      <c r="H122" s="9">
+        <f>A122^2.147+50+50*A122</f>
+        <v>35157.314290139984</v>
+      </c>
+      <c r="I122" s="7">
+        <f>A122^6.04+A122^4+1000*A122+100</f>
+        <v>3616426500422.1436</v>
+      </c>
+      <c r="J122" s="7">
+        <v>1</v>
+      </c>
+      <c r="K122" s="7">
+        <v>11</v>
+      </c>
+      <c r="L122" s="7">
+        <v>5</v>
+      </c>
+      <c r="M122" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N122" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O122" s="7">
+        <v>30</v>
+      </c>
+      <c r="P122" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="7">
+        <v>0</v>
+      </c>
+      <c r="R122" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S122" s="7">
+        <v>0</v>
+      </c>
+      <c r="T122" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U122" s="9">
+        <f t="shared" ref="U122:U136" si="21">A122+5</f>
+        <v>125</v>
+      </c>
+      <c r="V122" s="7">
+        <v>80</v>
+      </c>
+      <c r="W122" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>121</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="14">
+        <f t="shared" si="20"/>
+        <v>1096674.0671705939</v>
+      </c>
+      <c r="F123" s="7">
+        <v>5</v>
+      </c>
+      <c r="G123" s="9">
+        <f t="shared" ref="G123:G136" si="22">A123^6.1+A123^4+100*A123+100</f>
+        <v>5070013575722.3076</v>
+      </c>
+      <c r="H123" s="9">
+        <f t="shared" ref="H123:H151" si="23">A123^2.147+50+50*A123</f>
+        <v>35730.582556077905</v>
+      </c>
+      <c r="I123" s="7">
+        <f>A123^6.035+A123^4+1000*A123+100</f>
+        <v>3712229371900.9355</v>
+      </c>
+      <c r="J123" s="7">
+        <v>1</v>
+      </c>
+      <c r="K123" s="7">
+        <v>11</v>
+      </c>
+      <c r="L123" s="7">
+        <v>5</v>
+      </c>
+      <c r="M123" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N123" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O123" s="7">
+        <v>30</v>
+      </c>
+      <c r="P123" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="7">
+        <v>0</v>
+      </c>
+      <c r="R123" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S123" s="7">
+        <v>0</v>
+      </c>
+      <c r="T123" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U123" s="9">
+        <f t="shared" si="21"/>
+        <v>126</v>
+      </c>
+      <c r="V123" s="7">
+        <v>81.5</v>
+      </c>
+      <c r="W123" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <v>122</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="14">
+        <f t="shared" si="20"/>
+        <v>1123164.8640149781</v>
+      </c>
+      <c r="F124" s="7">
+        <v>5</v>
+      </c>
+      <c r="G124" s="9">
+        <f t="shared" si="22"/>
+        <v>5331053190656.1904</v>
+      </c>
+      <c r="H124" s="9">
+        <f t="shared" si="23"/>
+        <v>36308.834667873351</v>
+      </c>
+      <c r="I124" s="7">
+        <f>A124^6.034+A124^4+1000*A124+100</f>
+        <v>3882576421523.0742</v>
+      </c>
+      <c r="J124" s="7">
+        <v>1</v>
+      </c>
+      <c r="K124" s="7">
+        <v>11</v>
+      </c>
+      <c r="L124" s="7">
+        <v>5</v>
+      </c>
+      <c r="M124" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N124" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O124" s="7">
+        <v>30</v>
+      </c>
+      <c r="P124" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="7">
+        <v>0</v>
+      </c>
+      <c r="R124" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S124" s="7">
+        <v>0</v>
+      </c>
+      <c r="T124" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U124" s="9">
+        <f t="shared" si="21"/>
+        <v>127</v>
+      </c>
+      <c r="V124" s="7">
+        <v>83</v>
+      </c>
+      <c r="W124" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
+        <v>123</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="14">
+        <f t="shared" si="20"/>
+        <v>1150071.4519963036</v>
+      </c>
+      <c r="F125" s="7">
+        <v>5</v>
+      </c>
+      <c r="G125" s="9">
+        <f t="shared" si="22"/>
+        <v>5603236089151.6465</v>
+      </c>
+      <c r="H125" s="9">
+        <f t="shared" si="23"/>
+        <v>36892.076659105849</v>
+      </c>
+      <c r="I125" s="7">
+        <f>A125^6.033+A125^4+1000*A125+100</f>
+        <v>4059027940695.6621</v>
+      </c>
+      <c r="J125" s="7">
+        <v>1</v>
+      </c>
+      <c r="K125" s="7">
+        <v>11</v>
+      </c>
+      <c r="L125" s="7">
+        <v>5</v>
+      </c>
+      <c r="M125" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N125" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O125" s="7">
+        <v>30</v>
+      </c>
+      <c r="P125" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="7">
+        <v>0</v>
+      </c>
+      <c r="R125" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S125" s="7">
+        <v>1</v>
+      </c>
+      <c r="T125" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U125" s="9">
+        <f t="shared" si="21"/>
+        <v>128</v>
+      </c>
+      <c r="V125" s="7">
+        <v>84.5</v>
+      </c>
+      <c r="W125" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <v>124</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="14">
+        <f t="shared" si="20"/>
+        <v>1177396.89717633</v>
+      </c>
+      <c r="F126" s="7">
+        <v>5</v>
+      </c>
+      <c r="G126" s="9">
+        <f t="shared" si="22"/>
+        <v>5886941527382.7402</v>
+      </c>
+      <c r="H126" s="9">
+        <f t="shared" si="23"/>
+        <v>37480.314521315027</v>
+      </c>
+      <c r="I126" s="7">
+        <f>A126^6.032+A126^4+1000*A126+100</f>
+        <v>4241737849887.5288</v>
+      </c>
+      <c r="J126" s="7">
+        <v>1</v>
+      </c>
+      <c r="K126" s="7">
+        <v>11</v>
+      </c>
+      <c r="L126" s="7">
+        <v>5</v>
+      </c>
+      <c r="M126" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N126" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O126" s="7">
+        <v>30</v>
+      </c>
+      <c r="P126" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="7">
+        <v>0</v>
+      </c>
+      <c r="R126" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S126" s="7">
+        <v>1</v>
+      </c>
+      <c r="T126" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U126" s="9">
+        <f t="shared" si="21"/>
+        <v>129</v>
+      </c>
+      <c r="V126" s="7">
+        <v>86</v>
+      </c>
+      <c r="W126" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
+        <v>125</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="14">
+        <f t="shared" si="20"/>
+        <v>1205144.2631250194</v>
+      </c>
+      <c r="F127" s="7">
+        <v>5</v>
+      </c>
+      <c r="G127" s="9">
+        <f t="shared" si="22"/>
+        <v>6182558441146.0127</v>
+      </c>
+      <c r="H127" s="9">
+        <f t="shared" si="23"/>
+        <v>38073.554204631611</v>
+      </c>
+      <c r="I127" s="7">
+        <f>A127^6.031+A127^4+1000*A127+100</f>
+        <v>4430862070903.083</v>
+      </c>
+      <c r="J127" s="7">
+        <v>1</v>
+      </c>
+      <c r="K127" s="7">
+        <v>11</v>
+      </c>
+      <c r="L127" s="7">
+        <v>5</v>
+      </c>
+      <c r="M127" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N127" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O127" s="7">
+        <v>30</v>
+      </c>
+      <c r="P127" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="7">
+        <v>0</v>
+      </c>
+      <c r="R127" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S127" s="7">
+        <v>1</v>
+      </c>
+      <c r="T127" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U127" s="9">
+        <f t="shared" si="21"/>
+        <v>130</v>
+      </c>
+      <c r="V127" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="W127" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
+        <v>126</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="14">
+        <f t="shared" si="20"/>
+        <v>1233316.6109426627</v>
+      </c>
+      <c r="F128" s="7">
+        <v>5</v>
+      </c>
+      <c r="G128" s="9">
+        <f t="shared" si="22"/>
+        <v>6490485611857.1748</v>
+      </c>
+      <c r="H128" s="9">
+        <f t="shared" si="23"/>
+        <v>38671.801618394122</v>
+      </c>
+      <c r="I128" s="7">
+        <f>A128^6.03+A128^4+1000*A128+100</f>
+        <v>4626558513543.5957</v>
+      </c>
+      <c r="J128" s="7">
+        <v>1</v>
+      </c>
+      <c r="K128" s="7">
+        <v>11</v>
+      </c>
+      <c r="L128" s="7">
+        <v>5</v>
+      </c>
+      <c r="M128" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N128" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O128" s="7">
+        <v>30</v>
+      </c>
+      <c r="P128" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="7">
+        <v>0</v>
+      </c>
+      <c r="R128" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S128" s="7">
+        <v>2</v>
+      </c>
+      <c r="T128" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U128" s="9">
+        <f t="shared" si="21"/>
+        <v>131</v>
+      </c>
+      <c r="V128" s="7">
+        <v>89</v>
+      </c>
+      <c r="W128" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>127</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="14">
+        <f t="shared" si="20"/>
+        <v>1261916.9992815966</v>
+      </c>
+      <c r="F129" s="7">
+        <v>5</v>
+      </c>
+      <c r="G129" s="9">
+        <f t="shared" si="22"/>
+        <v>6811131834026.9639</v>
+      </c>
+      <c r="H129" s="9">
+        <f t="shared" si="23"/>
+        <v>39275.062631751774</v>
+      </c>
+      <c r="I129" s="7">
+        <f>A129^6.029+A129^4+1000*A129+100</f>
+        <v>4828987061598.4102</v>
+      </c>
+      <c r="J129" s="7">
+        <v>1</v>
+      </c>
+      <c r="K129" s="7">
+        <v>11</v>
+      </c>
+      <c r="L129" s="7">
+        <v>5</v>
+      </c>
+      <c r="M129" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N129" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O129" s="7">
+        <v>30</v>
+      </c>
+      <c r="P129" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="7">
+        <v>0</v>
+      </c>
+      <c r="R129" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S129" s="7">
+        <v>2</v>
+      </c>
+      <c r="T129" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U129" s="9">
+        <f t="shared" si="21"/>
+        <v>132</v>
+      </c>
+      <c r="V129" s="7">
+        <v>90.5</v>
+      </c>
+      <c r="W129" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>128</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="14">
+        <f t="shared" si="20"/>
+        <v>1290948.4843675578</v>
+      </c>
+      <c r="F130" s="7">
+        <v>5</v>
+      </c>
+      <c r="G130" s="9">
+        <f t="shared" si="22"/>
+        <v>7144916084216.7793</v>
+      </c>
+      <c r="H130" s="9">
+        <f t="shared" si="23"/>
+        <v>39883.343074253404</v>
+      </c>
+      <c r="I130" s="7">
+        <f>A130^6.028+A130^4+1000*A130+100</f>
+        <v>5038309558173.0439</v>
+      </c>
+      <c r="J130" s="7">
+        <v>1</v>
+      </c>
+      <c r="K130" s="7">
+        <v>11</v>
+      </c>
+      <c r="L130" s="7">
+        <v>5</v>
+      </c>
+      <c r="M130" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N130" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O130" s="7">
+        <v>30</v>
+      </c>
+      <c r="P130" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="7">
+        <v>0</v>
+      </c>
+      <c r="R130" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S130" s="7">
+        <v>2</v>
+      </c>
+      <c r="T130" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U130" s="9">
+        <f t="shared" si="21"/>
+        <v>133</v>
+      </c>
+      <c r="V130" s="7">
+        <v>92</v>
+      </c>
+      <c r="W130" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <v>129</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="14">
+        <f t="shared" si="20"/>
+        <v>1320414.1200207022</v>
+      </c>
+      <c r="F131" s="7">
+        <v>5</v>
+      </c>
+      <c r="G131" s="9">
+        <f t="shared" si="22"/>
+        <v>7492267691476.4912</v>
+      </c>
+      <c r="H131" s="9">
+        <f t="shared" si="23"/>
+        <v>40496.648736423296</v>
+      </c>
+      <c r="I131" s="7">
+        <f>A131^6.027+A131^4+1000*A131+100</f>
+        <v>5254689790360.959</v>
+      </c>
+      <c r="J131" s="7">
+        <v>1</v>
+      </c>
+      <c r="K131" s="7">
+        <v>11</v>
+      </c>
+      <c r="L131" s="7">
+        <v>5</v>
+      </c>
+      <c r="M131" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N131" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O131" s="7">
+        <v>30</v>
+      </c>
+      <c r="P131" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="7">
+        <v>0</v>
+      </c>
+      <c r="R131" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S131" s="7">
+        <v>3</v>
+      </c>
+      <c r="T131" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U131" s="9">
+        <f t="shared" si="21"/>
+        <v>134</v>
+      </c>
+      <c r="V131" s="7">
+        <v>93.5</v>
+      </c>
+      <c r="W131" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <v>130</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="14">
+        <f t="shared" si="20"/>
+        <v>1350316.9576762647</v>
+      </c>
+      <c r="F132" s="7">
+        <v>5</v>
+      </c>
+      <c r="G132" s="9">
+        <f t="shared" si="22"/>
+        <v>7853626509264.2646</v>
+      </c>
+      <c r="H132" s="9">
+        <f t="shared" si="23"/>
+        <v>41114.985370324292</v>
+      </c>
+      <c r="I132" s="7">
+        <f>A132^6.026+A132^4+1000*A132+100</f>
+        <v>5478293473266.0527</v>
+      </c>
+      <c r="J132" s="7">
+        <v>1</v>
+      </c>
+      <c r="K132" s="7">
+        <v>11</v>
+      </c>
+      <c r="L132" s="7">
+        <v>5</v>
+      </c>
+      <c r="M132" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N132" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O132" s="7">
+        <v>30</v>
+      </c>
+      <c r="P132" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="7">
+        <v>0</v>
+      </c>
+      <c r="R132" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S132" s="7">
+        <v>3</v>
+      </c>
+      <c r="T132" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U132" s="9">
+        <f t="shared" si="21"/>
+        <v>135</v>
+      </c>
+      <c r="V132" s="7">
+        <v>95</v>
+      </c>
+      <c r="W132" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>131</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="14">
+        <f t="shared" si="20"/>
+        <v>1380660.0464048982</v>
+      </c>
+      <c r="F133" s="7">
+        <v>5</v>
+      </c>
+      <c r="G133" s="9">
+        <f t="shared" si="22"/>
+        <v>8229443088850.6787</v>
+      </c>
+      <c r="H133" s="9">
+        <f t="shared" si="23"/>
+        <v>41738.358690108565</v>
+      </c>
+      <c r="I133" s="7">
+        <f>A133^6.025+A133^4+1000*A133+100</f>
+        <v>5709288233383.6963</v>
+      </c>
+      <c r="J133" s="7">
+        <v>1</v>
+      </c>
+      <c r="K133" s="7">
+        <v>11</v>
+      </c>
+      <c r="L133" s="7">
+        <v>5</v>
+      </c>
+      <c r="M133" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N133" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O133" s="7">
+        <v>30</v>
+      </c>
+      <c r="P133" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="7">
+        <v>0</v>
+      </c>
+      <c r="R133" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S133" s="7">
+        <v>3</v>
+      </c>
+      <c r="T133" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U133" s="9">
+        <f t="shared" si="21"/>
+        <v>136</v>
+      </c>
+      <c r="V133" s="7">
+        <v>96.5</v>
+      </c>
+      <c r="W133" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <v>132</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="14">
+        <f t="shared" si="20"/>
+        <v>1411446.4329326693</v>
+      </c>
+      <c r="F134" s="7">
+        <v>5</v>
+      </c>
+      <c r="G134" s="9">
+        <f t="shared" si="22"/>
+        <v>8620178854207.5303</v>
+      </c>
+      <c r="H134" s="9">
+        <f t="shared" si="23"/>
+        <v>42366.774372556196</v>
+      </c>
+      <c r="I134" s="7">
+        <f>A134^6.024+A134^4+1000*A134+100</f>
+        <v>5947843591347.0498</v>
+      </c>
+      <c r="J134" s="7">
+        <v>1</v>
+      </c>
+      <c r="K134" s="7">
+        <v>11</v>
+      </c>
+      <c r="L134" s="7">
+        <v>5</v>
+      </c>
+      <c r="M134" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N134" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O134" s="7">
+        <v>30</v>
+      </c>
+      <c r="P134" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="7">
+        <v>0</v>
+      </c>
+      <c r="R134" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S134" s="7">
+        <v>4</v>
+      </c>
+      <c r="T134" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U134" s="9">
+        <f t="shared" si="21"/>
+        <v>137</v>
+      </c>
+      <c r="V134" s="7">
+        <v>98</v>
+      </c>
+      <c r="W134" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <v>133</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="14">
+        <f t="shared" si="20"/>
+        <v>1442679.1616607304</v>
+      </c>
+      <c r="F135" s="7">
+        <v>5</v>
+      </c>
+      <c r="G135" s="9">
+        <f t="shared" si="22"/>
+        <v>9026306278382.7871</v>
+      </c>
+      <c r="H135" s="9">
+        <f t="shared" si="23"/>
+        <v>43000.23805760219</v>
+      </c>
+      <c r="I135" s="7">
+        <f>A135^6.023+A135^4+1000*A135+100</f>
+        <v>6194130944047.1504</v>
+      </c>
+      <c r="J135" s="7">
+        <v>1</v>
+      </c>
+      <c r="K135" s="7">
+        <v>11</v>
+      </c>
+      <c r="L135" s="7">
+        <v>5</v>
+      </c>
+      <c r="M135" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N135" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O135" s="7">
+        <v>30</v>
+      </c>
+      <c r="P135" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="7">
+        <v>0</v>
+      </c>
+      <c r="R135" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S135" s="7">
+        <v>4</v>
+      </c>
+      <c r="T135" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U135" s="9">
+        <f t="shared" si="21"/>
+        <v>138</v>
+      </c>
+      <c r="V135" s="7">
+        <v>99.5</v>
+      </c>
+      <c r="W135" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <v>134</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="14">
+        <f t="shared" si="20"/>
+        <v>1474361.2746846997</v>
+      </c>
+      <c r="F136" s="7">
+        <v>5</v>
+      </c>
+      <c r="G136" s="9">
+        <f t="shared" si="22"/>
+        <v>9448309061362.8633</v>
+      </c>
+      <c r="H136" s="9">
+        <f t="shared" si="23"/>
+        <v>43638.755348851701</v>
+      </c>
+      <c r="I136" s="7">
+        <f>A136^6.024+A136^4+1000*A136+100</f>
+        <v>6511796470601.3262</v>
+      </c>
+      <c r="J136" s="7">
+        <v>1</v>
+      </c>
+      <c r="K136" s="7">
+        <v>11</v>
+      </c>
+      <c r="L136" s="7">
+        <v>5</v>
+      </c>
+      <c r="M136" s="7">
+        <v>10000</v>
+      </c>
+      <c r="N136" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O136" s="7">
+        <v>30</v>
+      </c>
+      <c r="P136" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="7">
+        <v>0</v>
+      </c>
+      <c r="R136" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S136" s="7">
+        <v>4</v>
+      </c>
+      <c r="T136" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U136" s="9">
+        <f t="shared" si="21"/>
+        <v>139</v>
+      </c>
+      <c r="V136" s="7">
+        <v>101</v>
+      </c>
+      <c r="W136" s="9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A137" s="5">
+        <v>135</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D137" s="10"/>
+      <c r="E137" s="14">
+        <f t="shared" ref="E137:E151" si="24">A137^2.9</f>
+        <v>1506495.8118137231</v>
+      </c>
+      <c r="F137" s="7">
+        <v>5</v>
+      </c>
+      <c r="G137" s="9">
+        <f>A137^6.15+A137^4+100*A137+100</f>
+        <v>12634675548267.326</v>
+      </c>
+      <c r="H137" s="9">
+        <f t="shared" si="23"/>
+        <v>44282.33181408525</v>
+      </c>
+      <c r="I137" s="7">
+        <f>A137^6.023+A137^4+1000*A137+100</f>
+        <v>6776751850043.0986</v>
+      </c>
+      <c r="J137" s="10">
+        <v>1</v>
+      </c>
+      <c r="K137" s="10">
+        <v>11</v>
+      </c>
+      <c r="L137" s="10">
+        <v>5</v>
+      </c>
+      <c r="M137" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N137" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O137" s="10">
+        <v>30</v>
+      </c>
+      <c r="P137" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="7">
+        <v>0</v>
+      </c>
+      <c r="R137" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S137" s="10">
+        <v>0</v>
+      </c>
+      <c r="T137" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U137" s="10">
+        <f t="shared" ref="U137:U151" si="25">A137+5</f>
+        <v>140</v>
+      </c>
+      <c r="V137" s="7">
+        <v>102.5</v>
+      </c>
+      <c r="W137" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <v>136</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" s="10"/>
+      <c r="E138" s="14">
+        <f t="shared" si="24"/>
+        <v>1539085.8105892276</v>
+      </c>
+      <c r="F138" s="7">
+        <v>5</v>
+      </c>
+      <c r="G138" s="9">
+        <f t="shared" ref="G138:G151" si="26">A138^6.15+A138^4+100*A138+100</f>
+        <v>13221341544836.094</v>
+      </c>
+      <c r="H138" s="9">
+        <f t="shared" si="23"/>
+        <v>44930.972985751891</v>
+      </c>
+      <c r="I138" s="7">
+        <f>A138^6.022+A138^4+1000*A138+100</f>
+        <v>7050053117550.5547</v>
+      </c>
+      <c r="J138" s="10">
+        <v>1</v>
+      </c>
+      <c r="K138" s="10">
+        <v>11</v>
+      </c>
+      <c r="L138" s="10">
+        <v>5</v>
+      </c>
+      <c r="M138" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N138" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O138" s="10">
+        <v>30</v>
+      </c>
+      <c r="P138" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="7">
+        <v>0</v>
+      </c>
+      <c r="R138" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S138" s="10">
+        <v>0</v>
+      </c>
+      <c r="T138" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U138" s="10">
+        <f t="shared" si="25"/>
+        <v>141</v>
+      </c>
+      <c r="V138" s="7">
+        <v>104</v>
+      </c>
+      <c r="W138" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <v>137</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" s="10"/>
+      <c r="E139" s="14">
+        <f t="shared" si="24"/>
+        <v>1572134.3063033996</v>
+      </c>
+      <c r="F139" s="7">
+        <v>5</v>
+      </c>
+      <c r="G139" s="9">
+        <f t="shared" si="26"/>
+        <v>13830648700185.506</v>
+      </c>
+      <c r="H139" s="9">
+        <f t="shared" si="23"/>
+        <v>45584.684361453008</v>
+      </c>
+      <c r="I139" s="7">
+        <f>A139^6.021+A139^4+1000*A139+100</f>
+        <v>7331881042373.3584</v>
+      </c>
+      <c r="J139" s="10">
+        <v>1</v>
+      </c>
+      <c r="K139" s="10">
+        <v>11</v>
+      </c>
+      <c r="L139" s="10">
+        <v>5</v>
+      </c>
+      <c r="M139" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N139" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O139" s="10">
+        <v>30</v>
+      </c>
+      <c r="P139" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="7">
+        <v>0</v>
+      </c>
+      <c r="R139" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S139" s="10">
+        <v>0</v>
+      </c>
+      <c r="T139" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U139" s="10">
+        <f t="shared" si="25"/>
+        <v>142</v>
+      </c>
+      <c r="V139" s="7">
+        <v>105.5</v>
+      </c>
+      <c r="W139" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
+        <v>138</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="14">
+        <f t="shared" si="24"/>
+        <v>1605644.3320173719</v>
+      </c>
+      <c r="F140" s="7">
+        <v>5</v>
+      </c>
+      <c r="G140" s="9">
+        <f t="shared" si="26"/>
+        <v>14463295922395.055</v>
+      </c>
+      <c r="H140" s="9">
+        <f t="shared" si="23"/>
+        <v>46243.471404415817</v>
+      </c>
+      <c r="I140" s="7">
+        <f>A140^6.02+A140^4+1000*A140+100</f>
+        <v>7622418195717.8477</v>
+      </c>
+      <c r="J140" s="10">
+        <v>1</v>
+      </c>
+      <c r="K140" s="10">
+        <v>11</v>
+      </c>
+      <c r="L140" s="10">
+        <v>5</v>
+      </c>
+      <c r="M140" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N140" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O140" s="10">
+        <v>30</v>
+      </c>
+      <c r="P140" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="7">
+        <v>0</v>
+      </c>
+      <c r="R140" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S140" s="10">
+        <v>1</v>
+      </c>
+      <c r="T140" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U140" s="10">
+        <f t="shared" si="25"/>
+        <v>143</v>
+      </c>
+      <c r="V140" s="7">
+        <v>107</v>
+      </c>
+      <c r="W140" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
+        <v>139</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="14">
+        <f t="shared" si="24"/>
+        <v>1639618.9185791237</v>
+      </c>
+      <c r="F141" s="7">
+        <v>5</v>
+      </c>
+      <c r="G141" s="9">
+        <f t="shared" si="26"/>
+        <v>15119998375046.057</v>
+      </c>
+      <c r="H141" s="9">
+        <f t="shared" si="23"/>
+        <v>46907.339543956376</v>
+      </c>
+      <c r="I141" s="7">
+        <f>A141^6.019+A141^4+1000*A141+100</f>
+        <v>7921848929094.375</v>
+      </c>
+      <c r="J141" s="10">
+        <v>1</v>
+      </c>
+      <c r="K141" s="10">
+        <v>11</v>
+      </c>
+      <c r="L141" s="10">
+        <v>5</v>
+      </c>
+      <c r="M141" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N141" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O141" s="10">
+        <v>30</v>
+      </c>
+      <c r="P141" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="7">
+        <v>0</v>
+      </c>
+      <c r="R141" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S141" s="10">
+        <v>1</v>
+      </c>
+      <c r="T141" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U141" s="10">
+        <f t="shared" si="25"/>
+        <v>144</v>
+      </c>
+      <c r="V141" s="7">
+        <v>108.5</v>
+      </c>
+      <c r="W141" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
+        <v>140</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D142" s="10"/>
+      <c r="E142" s="14">
+        <f t="shared" si="24"/>
+        <v>1674061.094641132</v>
+      </c>
+      <c r="F142" s="7">
+        <v>5</v>
+      </c>
+      <c r="G142" s="9">
+        <f t="shared" si="26"/>
+        <v>15801487733392.412</v>
+      </c>
+      <c r="H142" s="9">
+        <f t="shared" si="23"/>
+        <v>47576.294175933952</v>
+      </c>
+      <c r="I142" s="7">
+        <f>A142^6.018+A142^4+1000*A142+100</f>
+        <v>8230359352088.3301</v>
+      </c>
+      <c r="J142" s="10">
+        <v>1</v>
+      </c>
+      <c r="K142" s="10">
+        <v>11</v>
+      </c>
+      <c r="L142" s="10">
+        <v>5</v>
+      </c>
+      <c r="M142" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N142" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O142" s="10">
+        <v>30</v>
+      </c>
+      <c r="P142" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="7">
+        <v>0</v>
+      </c>
+      <c r="R142" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S142" s="10">
+        <v>1</v>
+      </c>
+      <c r="T142" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U142" s="10">
+        <f t="shared" si="25"/>
+        <v>145</v>
+      </c>
+      <c r="V142" s="7">
+        <v>110</v>
+      </c>
+      <c r="W142" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A143" s="5">
+        <v>141</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D143" s="10"/>
+      <c r="E143" s="14">
+        <f t="shared" si="24"/>
+        <v>1708973.886677729</v>
+      </c>
+      <c r="F143" s="7">
+        <v>5</v>
+      </c>
+      <c r="G143" s="9">
+        <f t="shared" si="26"/>
+        <v>16508512442673.996</v>
+      </c>
+      <c r="H143" s="9">
+        <f t="shared" si="23"/>
+        <v>48250.340663195777</v>
+      </c>
+      <c r="I143" s="7">
+        <f>A143^6.017+A143^4+1000*A143+100</f>
+        <v>8548137309564.083</v>
+      </c>
+      <c r="J143" s="10">
+        <v>1</v>
+      </c>
+      <c r="K143" s="10">
+        <v>11</v>
+      </c>
+      <c r="L143" s="10">
+        <v>5</v>
+      </c>
+      <c r="M143" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N143" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O143" s="10">
+        <v>30</v>
+      </c>
+      <c r="P143" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="7">
+        <v>0</v>
+      </c>
+      <c r="R143" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S143" s="10">
+        <v>2</v>
+      </c>
+      <c r="T143" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U143" s="10">
+        <f t="shared" si="25"/>
+        <v>146</v>
+      </c>
+      <c r="V143" s="7">
+        <v>111.5</v>
+      </c>
+      <c r="W143" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <v>142</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" s="10"/>
+      <c r="E144" s="14">
+        <f t="shared" si="24"/>
+        <v>1744360.3190022011</v>
+      </c>
+      <c r="F144" s="7">
+        <v>5</v>
+      </c>
+      <c r="G144" s="9">
+        <f t="shared" si="26"/>
+        <v>17241837978576.168</v>
+      </c>
+      <c r="H144" s="9">
+        <f t="shared" si="23"/>
+        <v>48929.484336011861</v>
+      </c>
+      <c r="I144" s="7">
+        <f>A144^6.016+A144^4+1000*A144+100</f>
+        <v>8875372358310.0742</v>
+      </c>
+      <c r="J144" s="10">
+        <v>1</v>
+      </c>
+      <c r="K144" s="10">
+        <v>11</v>
+      </c>
+      <c r="L144" s="10">
+        <v>5</v>
+      </c>
+      <c r="M144" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N144" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O144" s="10">
+        <v>30</v>
+      </c>
+      <c r="P144" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="7">
+        <v>0</v>
+      </c>
+      <c r="R144" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S144" s="10">
+        <v>2</v>
+      </c>
+      <c r="T144" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U144" s="10">
+        <f t="shared" si="25"/>
+        <v>147</v>
+      </c>
+      <c r="V144" s="7">
+        <v>113</v>
+      </c>
+      <c r="W144" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <v>143</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="10"/>
+      <c r="E145" s="14">
+        <f t="shared" si="24"/>
+        <v>1780223.413783655</v>
+      </c>
+      <c r="F145" s="7">
+        <v>5</v>
+      </c>
+      <c r="G145" s="9">
+        <f t="shared" si="26"/>
+        <v>18002247109838.23</v>
+      </c>
+      <c r="H145" s="9">
+        <f t="shared" si="23"/>
+        <v>49613.730492503069</v>
+      </c>
+      <c r="I145" s="7">
+        <f>A145^6.015+A145^4+1000*A145+100</f>
+        <v>9212255743135.3184</v>
+      </c>
+      <c r="J145" s="10">
+        <v>1</v>
+      </c>
+      <c r="K145" s="10">
+        <v>11</v>
+      </c>
+      <c r="L145" s="10">
+        <v>5</v>
+      </c>
+      <c r="M145" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N145" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O145" s="10">
+        <v>30</v>
+      </c>
+      <c r="P145" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="7">
+        <v>0</v>
+      </c>
+      <c r="R145" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S145" s="10">
+        <v>2</v>
+      </c>
+      <c r="T145" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U145" s="10">
+        <f t="shared" si="25"/>
+        <v>148</v>
+      </c>
+      <c r="V145" s="7">
+        <v>114.5</v>
+      </c>
+      <c r="W145" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>144</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D146" s="10"/>
+      <c r="E146" s="14">
+        <f t="shared" si="24"/>
+        <v>1816566.191063643</v>
+      </c>
+      <c r="F146" s="7">
+        <v>5</v>
+      </c>
+      <c r="G146" s="9">
+        <f t="shared" si="26"/>
+        <v>18790540163012.039</v>
+      </c>
+      <c r="H146" s="9">
+        <f t="shared" si="23"/>
+        <v>50303.084399058469</v>
+      </c>
+      <c r="I146" s="7">
+        <f>A146^6.014+A146^4+1000*A146+100</f>
+        <v>9558980372425.5898</v>
+      </c>
+      <c r="J146" s="10">
+        <v>1</v>
+      </c>
+      <c r="K146" s="10">
+        <v>11</v>
+      </c>
+      <c r="L146" s="10">
+        <v>5</v>
+      </c>
+      <c r="M146" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N146" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O146" s="10">
+        <v>30</v>
+      </c>
+      <c r="P146" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="7">
+        <v>0</v>
+      </c>
+      <c r="R146" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S146" s="10">
+        <v>3</v>
+      </c>
+      <c r="T146" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U146" s="10">
+        <f t="shared" si="25"/>
+        <v>149</v>
+      </c>
+      <c r="V146" s="7">
+        <v>116</v>
+      </c>
+      <c r="W146" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <v>145</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" s="10"/>
+      <c r="E147" s="14">
+        <f t="shared" si="24"/>
+        <v>1853391.6687724653</v>
+      </c>
+      <c r="F147" s="7">
+        <v>5</v>
+      </c>
+      <c r="G147" s="9">
+        <f t="shared" si="26"/>
+        <v>19607535289373.148</v>
+      </c>
+      <c r="H147" s="9">
+        <f t="shared" si="23"/>
+        <v>50997.551290745512</v>
+      </c>
+      <c r="I147" s="7">
+        <f>A147^6.013+A147^4+1000*A147+100</f>
+        <v>9915740793168.8398</v>
+      </c>
+      <c r="J147" s="10">
+        <v>1</v>
+      </c>
+      <c r="K147" s="10">
+        <v>11</v>
+      </c>
+      <c r="L147" s="10">
+        <v>5</v>
+      </c>
+      <c r="M147" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N147" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O147" s="10">
+        <v>30</v>
+      </c>
+      <c r="P147" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="7">
+        <v>0</v>
+      </c>
+      <c r="R147" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S147" s="10">
+        <v>3</v>
+      </c>
+      <c r="T147" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U147" s="10">
+        <f t="shared" si="25"/>
+        <v>150</v>
+      </c>
+      <c r="V147" s="7">
+        <v>117.5</v>
+      </c>
+      <c r="W147" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>146</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D148" s="10"/>
+      <c r="E148" s="14">
+        <f t="shared" si="24"/>
+        <v>1890702.8627453633</v>
+      </c>
+      <c r="F148" s="7">
+        <v>5</v>
+      </c>
+      <c r="G148" s="9">
+        <f t="shared" si="26"/>
+        <v>20454068733987.746</v>
+      </c>
+      <c r="H148" s="9">
+        <f t="shared" si="23"/>
+        <v>51697.136371712208</v>
+      </c>
+      <c r="I148" s="7">
+        <f>A148^6.012+A148^4+1000*A148+100</f>
+        <v>10282733165460.129</v>
+      </c>
+      <c r="J148" s="10">
+        <v>1</v>
+      </c>
+      <c r="K148" s="10">
+        <v>11</v>
+      </c>
+      <c r="L148" s="10">
+        <v>5</v>
+      </c>
+      <c r="M148" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N148" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O148" s="10">
+        <v>30</v>
+      </c>
+      <c r="P148" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="7">
+        <v>0</v>
+      </c>
+      <c r="R148" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S148" s="10">
+        <v>3</v>
+      </c>
+      <c r="T148" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U148" s="10">
+        <f t="shared" si="25"/>
+        <v>151</v>
+      </c>
+      <c r="V148" s="7">
+        <v>119</v>
+      </c>
+      <c r="W148" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
+        <v>147</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D149" s="10"/>
+      <c r="E149" s="14">
+        <f t="shared" si="24"/>
+        <v>1928502.7867383463</v>
+      </c>
+      <c r="F149" s="7">
+        <v>5</v>
+      </c>
+      <c r="G149" s="9">
+        <f t="shared" si="26"/>
+        <v>21330995106936.848</v>
+      </c>
+      <c r="H149" s="9">
+        <f t="shared" si="23"/>
+        <v>52401.844815580916</v>
+      </c>
+      <c r="I149" s="7">
+        <f>A149^6.011+A149^4+1000*A149+100</f>
+        <v>10660155236494.27</v>
+      </c>
+      <c r="J149" s="10">
+        <v>1</v>
+      </c>
+      <c r="K149" s="10">
+        <v>11</v>
+      </c>
+      <c r="L149" s="10">
+        <v>5</v>
+      </c>
+      <c r="M149" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N149" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O149" s="10">
+        <v>30</v>
+      </c>
+      <c r="P149" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="7">
+        <v>0</v>
+      </c>
+      <c r="R149" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S149" s="10">
+        <v>4</v>
+      </c>
+      <c r="T149" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U149" s="10">
+        <f t="shared" si="25"/>
+        <v>152</v>
+      </c>
+      <c r="V149" s="7">
+        <v>120.5</v>
+      </c>
+      <c r="W149" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <v>148</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" s="10"/>
+      <c r="E150" s="14">
+        <f t="shared" si="24"/>
+        <v>1966794.4524438977</v>
+      </c>
+      <c r="F150" s="7">
+        <v>5</v>
+      </c>
+      <c r="G150" s="9">
+        <f t="shared" si="26"/>
+        <v>22239187656699.695</v>
+      </c>
+      <c r="H150" s="9">
+        <f t="shared" si="23"/>
+        <v>53111.681765834357</v>
+      </c>
+      <c r="I150" s="7">
+        <f>A150^6.01+A150^4+1000*A150+100</f>
+        <v>11048206314056.773</v>
+      </c>
+      <c r="J150" s="10">
+        <v>1</v>
+      </c>
+      <c r="K150" s="10">
+        <v>11</v>
+      </c>
+      <c r="L150" s="10">
+        <v>5</v>
+      </c>
+      <c r="M150" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N150" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O150" s="10">
+        <v>30</v>
+      </c>
+      <c r="P150" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="7">
+        <v>0</v>
+      </c>
+      <c r="R150" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S150" s="10">
+        <v>4</v>
+      </c>
+      <c r="T150" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U150" s="10">
+        <f t="shared" si="25"/>
+        <v>153</v>
+      </c>
+      <c r="V150" s="7">
+        <v>122</v>
+      </c>
+      <c r="W150" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A151" s="5">
+        <v>149</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D151" s="10"/>
+      <c r="E151" s="14">
+        <f t="shared" si="24"/>
+        <v>2005580.8695063875</v>
+      </c>
+      <c r="F151" s="7">
+        <v>5</v>
+      </c>
+      <c r="G151" s="9">
+        <f t="shared" si="26"/>
+        <v>23179538545699.719</v>
+      </c>
+      <c r="H151" s="9">
+        <f t="shared" si="23"/>
+        <v>53826.652336195177</v>
+      </c>
+      <c r="I151" s="7">
+        <f>A151^6.009+A151^4+1000*A151+100</f>
+        <v>11447087239522.916</v>
+      </c>
+      <c r="J151" s="10">
+        <v>1</v>
+      </c>
+      <c r="K151" s="10">
+        <v>11</v>
+      </c>
+      <c r="L151" s="10">
+        <v>5</v>
+      </c>
+      <c r="M151" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N151" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O151" s="10">
+        <v>30</v>
+      </c>
+      <c r="P151" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="7">
+        <v>0</v>
+      </c>
+      <c r="R151" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S151" s="10">
+        <v>4</v>
+      </c>
+      <c r="T151" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U151" s="10">
+        <f t="shared" si="25"/>
+        <v>154</v>
+      </c>
+      <c r="V151" s="7">
+        <v>123.5</v>
+      </c>
+      <c r="W151" s="10">
         <v>1.3</v>
       </c>
     </row>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091F652C-E5ED-45A9-9DD0-265C6B7EAAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA7FE19-AE0D-495D-9BD6-87F8053EAF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2760" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2580" yWindow="2805" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="76">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,30 @@
   </si>
   <si>
     <t>8-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1064,7 +1088,7 @@
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="50.125" customWidth="1"/>
     <col min="8" max="8" width="35.5" customWidth="1"/>
     <col min="9" max="9" width="43.25" customWidth="1"/>
     <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
@@ -9980,7 +10004,7 @@
         <v>56</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="14">
@@ -10054,7 +10078,7 @@
         <v>56</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="14">
@@ -10128,7 +10152,7 @@
         <v>56</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="14">
@@ -10202,7 +10226,7 @@
         <v>56</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="14">
@@ -10276,7 +10300,7 @@
         <v>56</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="14">
@@ -10350,7 +10374,7 @@
         <v>56</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="14">
@@ -10424,7 +10448,7 @@
         <v>56</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="14">
@@ -10498,7 +10522,7 @@
         <v>56</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="14">
@@ -10572,7 +10596,7 @@
         <v>56</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="14">
@@ -10646,7 +10670,7 @@
         <v>56</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="14">
@@ -10720,7 +10744,7 @@
         <v>56</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="14">
@@ -10794,7 +10818,7 @@
         <v>56</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="14">
@@ -10868,7 +10892,7 @@
         <v>56</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="14">
@@ -10942,7 +10966,7 @@
         <v>56</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="14">
@@ -11016,7 +11040,7 @@
         <v>56</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="14">
@@ -11090,7 +11114,7 @@
         <v>56</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="14">
@@ -11164,7 +11188,7 @@
         <v>56</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="14">
@@ -11175,7 +11199,7 @@
         <v>5</v>
       </c>
       <c r="G138" s="9">
-        <f t="shared" ref="G138:G151" si="26">A138^6.15+A138^4+100*A138+100</f>
+        <f t="shared" ref="G138:G139" si="26">A138^6.15+A138^4+100*A138+100</f>
         <v>13221341544836.094</v>
       </c>
       <c r="H138" s="9">
@@ -11238,7 +11262,7 @@
         <v>56</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="14">
@@ -11312,7 +11336,7 @@
         <v>56</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="14">
@@ -11323,8 +11347,8 @@
         <v>5</v>
       </c>
       <c r="G140" s="9">
-        <f t="shared" si="26"/>
-        <v>14463295922395.055</v>
+        <f>A140^6.2+A140^4+100*A140+100</f>
+        <v>18503711490187.512</v>
       </c>
       <c r="H140" s="9">
         <f t="shared" si="23"/>
@@ -11386,7 +11410,7 @@
         <v>56</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="14">
@@ -11397,8 +11421,8 @@
         <v>5</v>
       </c>
       <c r="G141" s="9">
-        <f t="shared" si="26"/>
-        <v>15119998375046.057</v>
+        <f t="shared" ref="G141:G151" si="27">A141^6.2+A141^4+100*A141+100</f>
+        <v>19350854168630.676</v>
       </c>
       <c r="H141" s="9">
         <f t="shared" si="23"/>
@@ -11460,7 +11484,7 @@
         <v>56</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="14">
@@ -11471,8 +11495,8 @@
         <v>5</v>
       </c>
       <c r="G142" s="9">
-        <f t="shared" si="26"/>
-        <v>15801487733392.412</v>
+        <f t="shared" si="27"/>
+        <v>20230288143923.559</v>
       </c>
       <c r="H142" s="9">
         <f t="shared" si="23"/>
@@ -11534,7 +11558,7 @@
         <v>56</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="14">
@@ -11545,8 +11569,8 @@
         <v>5</v>
       </c>
       <c r="G143" s="9">
-        <f t="shared" si="26"/>
-        <v>16508512442673.996</v>
+        <f t="shared" si="27"/>
+        <v>21143000383674.512</v>
       </c>
       <c r="H143" s="9">
         <f t="shared" si="23"/>
@@ -11608,7 +11632,7 @@
         <v>56</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="14">
@@ -11619,8 +11643,8 @@
         <v>5</v>
       </c>
       <c r="G144" s="9">
-        <f t="shared" si="26"/>
-        <v>17241837978576.168</v>
+        <f t="shared" si="27"/>
+        <v>22090000673944.102</v>
       </c>
       <c r="H144" s="9">
         <f t="shared" si="23"/>
@@ -11682,7 +11706,7 @@
         <v>56</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="14">
@@ -11693,8 +11717,8 @@
         <v>5</v>
       </c>
       <c r="G145" s="9">
-        <f t="shared" si="26"/>
-        <v>18002247109838.23</v>
+        <f t="shared" si="27"/>
+        <v>23072321979351.121</v>
       </c>
       <c r="H145" s="9">
         <f t="shared" si="23"/>
@@ -11756,7 +11780,7 @@
         <v>56</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="14">
@@ -11767,8 +11791,8 @@
         <v>5</v>
       </c>
       <c r="G146" s="9">
-        <f t="shared" si="26"/>
-        <v>18790540163012.039</v>
+        <f t="shared" si="27"/>
+        <v>24091020806255.168</v>
       </c>
       <c r="H146" s="9">
         <f t="shared" si="23"/>
@@ -11830,7 +11854,7 @@
         <v>56</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="14">
@@ -11841,8 +11865,8 @@
         <v>5</v>
       </c>
       <c r="G147" s="9">
-        <f t="shared" si="26"/>
-        <v>19607535289373.148</v>
+        <f t="shared" si="27"/>
+        <v>25147177569022.473</v>
       </c>
       <c r="H147" s="9">
         <f t="shared" si="23"/>
@@ -11904,7 +11928,7 @@
         <v>56</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="14">
@@ -11915,8 +11939,8 @@
         <v>5</v>
       </c>
       <c r="G148" s="9">
-        <f t="shared" si="26"/>
-        <v>20454068733987.746</v>
+        <f t="shared" si="27"/>
+        <v>26241896959377.469</v>
       </c>
       <c r="H148" s="9">
         <f t="shared" si="23"/>
@@ -11978,7 +12002,7 @@
         <v>56</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="14">
@@ -11989,8 +12013,8 @@
         <v>5</v>
       </c>
       <c r="G149" s="9">
-        <f t="shared" si="26"/>
-        <v>21330995106936.848</v>
+        <f t="shared" si="27"/>
+        <v>27376308318845.816</v>
       </c>
       <c r="H149" s="9">
         <f t="shared" si="23"/>
@@ -12052,7 +12076,7 @@
         <v>56</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="14">
@@ -12063,8 +12087,8 @@
         <v>5</v>
       </c>
       <c r="G150" s="9">
-        <f t="shared" si="26"/>
-        <v>22239187656699.695</v>
+        <f t="shared" si="27"/>
+        <v>28551566014291.816</v>
       </c>
       <c r="H150" s="9">
         <f t="shared" si="23"/>
@@ -12126,7 +12150,7 @@
         <v>56</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="14">
@@ -12137,8 +12161,8 @@
         <v>5</v>
       </c>
       <c r="G151" s="9">
-        <f t="shared" si="26"/>
-        <v>23179538545699.719</v>
+        <f t="shared" si="27"/>
+        <v>29768849816555.801</v>
       </c>
       <c r="H151" s="9">
         <f t="shared" si="23"/>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA7FE19-AE0D-495D-9BD6-87F8053EAF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43533E69-5964-422E-8CF2-E9BC82370F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2805" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="79">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,12 +549,23 @@
     <t>10-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>bosshp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossattackpower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,8 +639,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +674,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -697,7 +721,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,8 +734,11 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,11 +784,21 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
+    <cellStyle name="좋음" xfId="4" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1074,38 +1111,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:W151"/>
+  <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U156" sqref="U156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="50.125" customWidth="1"/>
+    <col min="7" max="7" width="50.08203125" customWidth="1"/>
     <col min="8" max="8" width="35.5" customWidth="1"/>
     <col min="9" max="9" width="43.25" customWidth="1"/>
-    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
-    <col min="13" max="13" width="21.625" customWidth="1"/>
+    <col min="13" max="13" width="21.58203125" customWidth="1"/>
     <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
-    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.08203125" customWidth="1"/>
+    <col min="16" max="16" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="18" max="18" width="12.25" customWidth="1"/>
     <col min="19" max="19" width="16.5" customWidth="1"/>
-    <col min="20" max="20" width="14.625" customWidth="1"/>
-    <col min="22" max="22" width="12.875" customWidth="1"/>
+    <col min="20" max="20" width="14.58203125" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,8 +1212,14 @@
       <c r="W1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1248,8 +1291,16 @@
       <c r="W2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <f>G2*V2</f>
+        <v>300</v>
+      </c>
+      <c r="Y2">
+        <f>E2*W2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1321,8 +1372,16 @@
       <c r="W3">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="5">G3*V3</f>
+        <v>808</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y66" si="6">E3*W3</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1394,8 +1453,16 @@
       <c r="W4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <f t="shared" si="5"/>
+        <v>1878.5705572917786</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="6"/>
+        <v>9.7035431119827944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1467,8 +1534,16 @@
       <c r="W5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>7939.0760205674133</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>31.44814194041076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1540,8 +1615,16 @@
       <c r="W6">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>30252.425750826496</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="6"/>
+        <v>72.429806866237499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1613,8 +1696,16 @@
       <c r="W7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>101690.3040257109</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>138.34273740962746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1686,8 +1777,16 @@
       <c r="W8">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <f t="shared" si="5"/>
+        <v>286989.45708823763</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>234.73723162348469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1759,8 +1858,16 @@
       <c r="W9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <f t="shared" si="5"/>
+        <v>700323.9240271938</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="6"/>
+        <v>367.05206215549845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1832,8 +1939,16 @@
       <c r="W10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <f t="shared" si="5"/>
+        <v>1525461.6453328612</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>540.63519501470978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1905,8 +2020,16 @@
       <c r="W11">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11">
+        <f t="shared" si="5"/>
+        <v>3039195.4482639353</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="6"/>
+        <v>760.75817808017086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1978,8 +2101,16 @@
       <c r="W12">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <f t="shared" si="5"/>
+        <v>6443425.8777942667</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="6"/>
+        <v>1032.6267051415668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2051,8 +2182,16 @@
       <c r="W13">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13">
+        <f t="shared" si="5"/>
+        <v>11277548.618012471</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="6"/>
+        <v>1361.3886930330748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2124,8 +2263,16 @@
       <c r="W14">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14">
+        <f t="shared" si="5"/>
+        <v>18808282.128735866</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="6"/>
+        <v>1752.1406515738277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2197,8 +2344,16 @@
       <c r="W15">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <f t="shared" si="5"/>
+        <v>30117979.883148357</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="6"/>
+        <v>2209.9328315938124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2270,8 +2425,16 @@
       <c r="W16">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16">
+        <f t="shared" si="5"/>
+        <v>46583564.298131973</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>2739.7734688215892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2344,8 +2507,16 @@
       <c r="W17">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X17">
+        <f t="shared" si="5"/>
+        <v>78665376.79906477</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="6"/>
+        <v>3346.6323403714891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2372,7 +2543,7 @@
         <v>1238.0234410266619</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" ref="I18:I31" si="5">A18^6.05+A18^4+1000*A18+100</f>
+        <f t="shared" ref="I18:I31" si="7">A18^6.05+A18^4+1000*A18+100</f>
         <v>19353596.420629941</v>
       </c>
       <c r="J18" s="5">
@@ -2418,8 +2589,16 @@
       <c r="W18">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <f t="shared" si="5"/>
+        <v>115037893.04005516</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="6"/>
+        <v>4035.443786677281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2446,7 +2625,7 @@
         <v>1342.0436751359628</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>27911580.609781958</v>
       </c>
       <c r="J19" s="5">
@@ -2492,8 +2671,16 @@
       <c r="W19">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X19">
+        <f t="shared" si="5"/>
+        <v>164408520.03672668</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="6"/>
+        <v>4811.1093097167341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2520,7 +2707,7 @@
         <v>1449.8456143671119</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39423628.500273176</v>
       </c>
       <c r="J20" s="5">
@@ -2566,8 +2753,16 @@
       <c r="W20">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X20">
+        <f t="shared" si="5"/>
+        <v>230233498.66826153</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="6"/>
+        <v>5678.4998298418568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2594,7 +2789,7 @@
         <v>1561.4618367199535</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>54657300.325151183</v>
       </c>
       <c r="J21" s="5">
@@ -2640,8 +2835,16 @@
       <c r="W21">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X21">
+        <f t="shared" si="5"/>
+        <v>316610545.94766974</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="6"/>
+        <v>6642.457663604524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2668,7 +2871,7 @@
         <v>1676.9234150652314</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>74521626.377058581</v>
       </c>
       <c r="J22" s="5">
@@ -2714,8 +2917,16 @@
       <c r="W22">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>428352342.68560189</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="6"/>
+        <v>7707.7982707122565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2742,7 +2953,7 @@
         <v>1796.2600607904049</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100083668.50855029</v>
       </c>
       <c r="J23" s="5">
@@ -2788,8 +2999,16 @@
       <c r="W23">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X23">
+        <f t="shared" si="5"/>
+        <v>571063790.43946898</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="6"/>
+        <v>8879.3118078358402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -2816,7 +3035,7 @@
         <v>1919.5002473492318</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>132586022.80255465</v>
       </c>
       <c r="J24" s="5">
@@ -2862,8 +3081,16 @@
       <c r="W24">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X24">
+        <f t="shared" si="5"/>
+        <v>751223017.39064276</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="6"/>
+        <v>10161.764519240285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -2890,7 +3117,7 @@
         <v>2046.6713173374812</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>173465265.83290106</v>
       </c>
       <c r="J25" s="5">
@@ -2936,8 +3163,16 @@
       <c r="W25">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X25">
+        <f t="shared" si="5"/>
+        <v>976266113.9416635</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="6"/>
+        <v>11559.899988348816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -2964,7 +3199,7 @@
         <v>2177.7995759309588</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>224371346.82224062</v>
       </c>
       <c r="J26" s="5">
@@ -3010,8 +3245,16 @@
       <c r="W26">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X26">
+        <f t="shared" si="5"/>
+        <v>1394083977.6184521</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="6"/>
+        <v>13078.440269849438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -3038,7 +3281,7 @@
         <v>2312.9103729329759</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>287187927.90234828</v>
       </c>
       <c r="J27" s="5">
@@ -3084,8 +3327,16 @@
       <c r="W27">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X27">
+        <f t="shared" si="5"/>
+        <v>1773413850.7756269</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="6"/>
+        <v>14722.086918453177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -3112,7 +3363,7 @@
         <v>2452.0281752309029</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>364053674.58838946</v>
       </c>
       <c r="J28" s="5">
@@ -3158,8 +3409,16 @@
       <c r="W28">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X28">
+        <f t="shared" si="5"/>
+        <v>2234791324.619513</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="6"/>
+        <v>16495.521927659051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -3186,7 +3445,7 @@
         <v>2595.1766311172187</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>457384498.49307305</v>
       </c>
       <c r="J29" s="5">
@@ -3232,8 +3491,16 @@
       <c r="W29">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X29">
+        <f t="shared" si="5"/>
+        <v>2791760035.1601167</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="6"/>
+        <v>18403.4085896873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -3260,7 +3527,7 @@
         <v>2742.378627662727</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>569896754.22786295</v>
       </c>
       <c r="J30" s="5">
@@ -3306,8 +3573,16 @@
       <c r="W30">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X30">
+        <f t="shared" si="5"/>
+        <v>3459460263.5529513</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="6"/>
+        <v>20450.392285982252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -3334,7 +3609,7 @@
         <v>2893.6563421190704</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>704631392.3656193</v>
       </c>
       <c r="J31" s="5">
@@ -3380,8 +3655,16 @@
       <c r="W31">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X31">
+        <f t="shared" si="5"/>
+        <v>4254747560.4869061</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="6"/>
+        <v>22641.101216257244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3453,8 +3736,16 @@
       <c r="W32">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>10392630784.12154</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="6"/>
+        <v>24980.147072885105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3480,7 +3771,7 @@
         <v>3208.5243576419898</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:I46" si="6">A33^6.05+A33^4+1000*A33+100</f>
+        <f t="shared" ref="I33:I46" si="8">A33^6.05+A33^4+1000*A33+100</f>
         <v>1054706222.5482085</v>
       </c>
       <c r="J33">
@@ -3526,8 +3817,16 @@
       <c r="W33">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X33">
+        <f t="shared" si="5"/>
+        <v>12609643585.07757</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="6"/>
+        <v>27472.125666477834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3553,7 +3852,7 @@
         <v>3372.1558584396066</v>
       </c>
       <c r="I34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1277982092.776799</v>
       </c>
       <c r="J34">
@@ -3599,8 +3898,16 @@
       <c r="W34">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X34">
+        <f t="shared" si="5"/>
+        <v>15206040019.880274</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="6"/>
+        <v>30121.617507697039</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3626,7 +3933,7 @@
         <v>3539.9455488575204</v>
       </c>
       <c r="I35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1539406728.1930718</v>
       </c>
       <c r="J35">
@@ -3672,8 +3979,16 @@
       <c r="W35">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>18231786261.879791</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="6"/>
+        <v>32933.188349672651</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3699,7 +4014,7 @@
         <v>3711.9126690061603</v>
       </c>
       <c r="I36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1844039938.8720973</v>
       </c>
       <c r="J36">
@@ -3745,8 +4060,16 @@
       <c r="W36">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X36">
+        <f t="shared" si="5"/>
+        <v>21741585344.095078</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="6"/>
+        <v>35911.389694844693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3772,7 +4095,7 @@
         <v>3888.0759695029919</v>
       </c>
       <c r="I37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2197431222.9588652</v>
       </c>
       <c r="J37">
@@ -3818,8 +4141,16 @@
       <c r="W37">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X37">
+        <f t="shared" si="5"/>
+        <v>25795162248.966042</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="6"/>
+        <v>39060.759269569513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3845,7 +4176,7 @@
         <v>4068.4537377949773</v>
       </c>
       <c r="I38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2605650659.4316463</v>
       </c>
       <c r="J38">
@@ -3891,8 +4222,16 @@
       <c r="W38">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X38">
+        <f t="shared" si="5"/>
+        <v>30457556881.194973</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="6"/>
+        <v>42385.82146942884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3918,7 +4257,7 @@
         <v>4253.0638223615515</v>
       </c>
       <c r="I39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3075320769.8440089</v>
       </c>
       <c r="J39">
@@ -3964,8 +4303,16 @@
       <c r="W39">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X39">
+        <f t="shared" si="5"/>
+        <v>35799424900.164841</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="6"/>
+        <v>45891.087777835673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3991,7 +4338,7 @@
         <v>4441.923655022405</v>
       </c>
       <c r="I40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3613649350.4516859</v>
       </c>
       <c r="J40">
@@ -4037,8 +4384,16 @@
       <c r="W40">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X40">
+        <f t="shared" si="5"/>
+        <v>41897346389.176567</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="6"/>
+        <v>49581.057160236145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4064,7 +4419,7 @@
         <v>4635.0502715451767</v>
       </c>
       <c r="I41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4228463276.0924816</v>
       </c>
       <c r="J41">
@@ -4110,8 +4465,16 @@
       <c r="W41">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X41">
+        <f t="shared" si="5"/>
+        <v>48834142339.448692</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="6"/>
+        <v>53460.216435950766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4137,7 +4500,7 @@
         <v>4832.4603307235975</v>
       </c>
       <c r="I42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4928243277.151823</v>
       </c>
       <c r="J42">
@@ -4183,8 +4546,16 @@
       <c r="W42">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X42">
+        <f t="shared" si="5"/>
+        <v>56699198927.487099</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="6"/>
+        <v>57533.040629479074</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4210,7 +4581,7 @@
         <v>5034.1701320755374</v>
       </c>
       <c r="I43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5722159690.9129629</v>
       </c>
       <c r="J43">
@@ -4256,8 +4627,16 @@
       <c r="W43">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X43">
+        <f t="shared" si="5"/>
+        <v>65588799565.063049</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="6"/>
+        <v>61803.993302898867</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4283,7 +4662,7 @@
         <v>5240.1956322925425</v>
       </c>
       <c r="I44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6620109188.5582886</v>
       </c>
       <c r="J44">
@@ -4329,8 +4708,16 @@
       <c r="W44">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X44">
+        <f t="shared" si="5"/>
+        <v>75606464701.626312</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="6"/>
+        <v>66277.526870825328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4356,7 +4743,7 @@
         <v>5450.5524605569453</v>
       </c>
       <c r="I45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7632752479.0583487</v>
       </c>
       <c r="J45">
@@ -4402,8 +4789,16 @@
       <c r="W45">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X45">
+        <f t="shared" si="5"/>
+        <v>86863299359.546539</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="6"/>
+        <v>70958.082899248038</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4429,7 +4824,7 @@
         <v>5665.2559328294519</v>
       </c>
       <c r="I46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8771552991.1552639</v>
       </c>
       <c r="J46">
@@ -4475,8 +4870,16 @@
       <c r="W46">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X46">
+        <f t="shared" si="5"/>
+        <v>99478348383.101791</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="6"/>
+        <v>75850.09238943462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4549,8 +4952,16 @@
       <c r="W47">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X47">
+        <f t="shared" si="5"/>
+        <v>170368439073.96997</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="6"/>
+        <v>80957.97604797814</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -4577,7 +4988,7 @@
         <v>6107.7625863725425</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" ref="I48:I61" si="7">A48^6.05+A48^4+1000*A48+100</f>
+        <f t="shared" ref="I48:I61" si="9">A48^6.05+A48^4+1000*A48+100</f>
         <v>11477731941.941059</v>
       </c>
       <c r="J48" s="5">
@@ -4623,8 +5034,16 @@
       <c r="W48">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X48">
+        <f t="shared" si="5"/>
+        <v>193951730033.79724</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="6"/>
+        <v>86286.14454396331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -4651,7 +5070,7 @@
         <v>6335.5949493887865</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13072412691.557264</v>
       </c>
       <c r="J49" s="5">
@@ -4697,8 +5116,16 @@
       <c r="W49">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X49">
+        <f t="shared" si="5"/>
+        <v>220185004452.71414</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="6"/>
+        <v>91838.998754138709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -4725,7 +5152,7 @@
         <v>6567.8323426019369</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14847939513.764933</v>
       </c>
       <c r="J50" s="5">
@@ -4771,8 +5198,16 @@
       <c r="W50">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X50">
+        <f t="shared" si="5"/>
+        <v>249300027715.79248</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="6"/>
+        <v>97620.92999690451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -4799,7 +5234,7 @@
         <v>6804.4887000129083</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16820403980.352938</v>
       </c>
       <c r="J51" s="5">
@@ -4845,8 +5280,16 @@
       <c r="W51">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X51">
+        <f t="shared" si="5"/>
+        <v>281543311917.24011</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="6"/>
+        <v>103636.32025584912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -4873,7 +5316,7 @@
         <v>7045.5777109891469</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19006953079.0415</v>
       </c>
       <c r="J52" s="5">
@@ -4919,8 +5362,16 @@
       <c r="W52">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X52">
+        <f t="shared" si="5"/>
+        <v>317176717596.67609</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="6"/>
+        <v>109889.54239351407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -4947,7 +5398,7 @@
         <v>7291.112829424178</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21425834773.754974</v>
       </c>
       <c r="J53" s="5">
@@ -4993,8 +5444,16 @@
       <c r="W53">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X53">
+        <f t="shared" si="5"/>
+        <v>356478066865.01849</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="6"/>
+        <v>116384.96035600253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -5021,7 +5480,7 @@
         <v>7541.107282379372</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24096444551.748653</v>
       </c>
       <c r="J54" s="5">
@@ -5067,8 +5526,16 @@
       <c r="W54">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X54">
+        <f t="shared" si="5"/>
+        <v>399741767896.5257</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="6"/>
+        <v>123126.92936899797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -5095,7 +5562,7 @@
         <v>7795.5740782464591</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27039372958.585335</v>
       </c>
       <c r="J55" s="5">
@@ -5141,8 +5608,16 @@
       <c r="W55">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X55">
+        <f t="shared" si="5"/>
+        <v>447279450764.04364</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="6"/>
+        <v>130119.79612571781</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -5169,7 +5644,7 @@
         <v>8054.5260144662298</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30276454121.941242</v>
       </c>
       <c r="J56" s="5">
@@ -5215,8 +5690,16 @@
       <c r="W56">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X56">
+        <f t="shared" si="5"/>
+        <v>499420614595.01538</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="6"/>
+        <v>137367.89896728087</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -5243,7 +5726,7 @@
         <v>8317.9756848352717</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33830815265.202354</v>
       </c>
       <c r="J57" s="5">
@@ -5289,8 +5772,16 @@
       <c r="W57">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X57">
+        <f t="shared" si="5"/>
+        <v>556513286026.28394</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="6"/>
+        <v>144875.56805593148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -5317,7 +5808,7 @@
         <v>8585.9354864300003</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37726927211.793266</v>
       </c>
       <c r="J58" s="5">
@@ -5363,8 +5854,16 @@
       <c r="W58">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X58">
+        <f t="shared" si="5"/>
+        <v>618924688936.18896</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="6"/>
+        <v>152647.12554153061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -5391,7 +5890,7 @@
         <v>8858.4176261744178</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>41990655881.166039</v>
       </c>
       <c r="J59" s="5">
@@ -5437,8 +5936,16 @@
       <c r="W59">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X59">
+        <f t="shared" si="5"/>
+        <v>687041925432.87756</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="6"/>
+        <v>160686.8857216957</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -5465,7 +5972,7 @@
         <v>9135.4341270762434</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46649314777.360016</v>
       </c>
       <c r="J60" s="5">
@@ -5511,8 +6018,16 @@
       <c r="W60">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X60">
+        <f t="shared" si="5"/>
+        <v>761272668078.22327</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="6"/>
+        <v>168999.15519593674</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -5539,7 +6054,7 @@
         <v>9416.9968341531803</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51731718471.025421</v>
       </c>
       <c r="J61" s="5">
@@ -5585,8 +6100,16 @@
       <c r="W61">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X61">
+        <f t="shared" si="5"/>
+        <v>842045863327.08032</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="6"/>
+        <v>177588.23301411871</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5658,8 +6181,16 @@
       <c r="W62">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X62">
+        <f t="shared" si="5"/>
+        <v>1521276018420.8462</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="6"/>
+        <v>186458.41081954719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5677,7 +6208,7 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:G91" si="8">A63^5.95+A63^4+100*A63+100</f>
+        <f t="shared" ref="G63:G91" si="10">A63^5.95+A63^4+100*A63+100</f>
         <v>41961973644.763359</v>
       </c>
       <c r="H63">
@@ -5685,7 +6216,7 @@
         <v>9993.8073905063829</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I76" si="9">A63^6.05+A63^4+1000*A63+100</f>
+        <f t="shared" ref="I63:I76" si="11">A63^6.05+A63^4+1000*A63+100</f>
         <v>63290851719.844543</v>
       </c>
       <c r="J63">
@@ -5731,8 +6262,16 @@
       <c r="W63">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X63">
+        <f t="shared" si="5"/>
+        <v>1678478945790.5344</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="6"/>
+        <v>195613.97298697126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5750,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="G64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46224206363.449806</v>
       </c>
       <c r="H64">
@@ -5758,7 +6297,7 @@
         <v>10289.078089268367</v>
       </c>
       <c r="I64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>69833211013.570221</v>
       </c>
       <c r="J64">
@@ -5804,8 +6343,16 @@
       <c r="W64">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X64">
+        <f t="shared" si="5"/>
+        <v>1848968254537.9922</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="6"/>
+        <v>205059.19675575127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5823,7 +6370,7 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50840628515.702522</v>
       </c>
       <c r="H65">
@@ -5831,7 +6378,7 @@
         <v>10588.940703166736</v>
       </c>
       <c r="I65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>76930688514.08783</v>
       </c>
       <c r="J65">
@@ -5877,8 +6424,16 @@
       <c r="W65">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X65">
+        <f t="shared" si="5"/>
+        <v>2033625140628.1008</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="6"/>
+        <v>214798.35235845105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5896,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55834343371.162407</v>
       </c>
       <c r="H66">
@@ -5904,7 +6459,7 @@
         <v>10893.406266669514</v>
       </c>
       <c r="I66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84620441187.512238</v>
       </c>
       <c r="J66">
@@ -5950,8 +6505,16 @@
       <c r="W66">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X66">
+        <f t="shared" si="5"/>
+        <v>2233373734846.4961</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="6"/>
+        <v>224835.70314507178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5962,22 +6525,22 @@
         <v>32</v>
       </c>
       <c r="E67" s="12">
-        <f t="shared" ref="E67:E96" si="10">A67^2.9</f>
+        <f t="shared" ref="E67:E96" si="12">A67^2.9</f>
         <v>180904.23515627053</v>
       </c>
       <c r="F67">
         <v>3</v>
       </c>
       <c r="G67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>61229561584.231308</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H121" si="11">A67^2.15+50+50*A67</f>
+        <f t="shared" ref="H67:H121" si="13">A67^2.15+50+50*A67</f>
         <v>11202.485666346649</v>
       </c>
       <c r="I67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>92941468869.748947</v>
       </c>
       <c r="J67">
@@ -6014,7 +6577,7 @@
         <v>59</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U96" si="12">A67+5</f>
+        <f t="shared" ref="U67:U96" si="14">A67+5</f>
         <v>70</v>
       </c>
       <c r="V67">
@@ -6023,8 +6586,16 @@
       <c r="W67">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X67">
+        <f t="shared" ref="X67:X130" si="15">G67*V67</f>
+        <v>2449182463369.2524</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y130" si="16">E67*W67</f>
+        <v>235175.50570315169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6035,22 +6606,22 @@
         <v>30</v>
       </c>
       <c r="E68" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>189093.85382609314</v>
       </c>
       <c r="F68">
         <v>3</v>
       </c>
       <c r="G68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>67051635725.127586</v>
       </c>
       <c r="H68">
+        <f t="shared" si="13"/>
+        <v>11516.189645117673</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="11"/>
-        <v>11516.189645117673</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="9"/>
         <v>101934674726.62256</v>
       </c>
       <c r="J68">
@@ -6087,7 +6658,7 @@
         <v>59</v>
       </c>
       <c r="U68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>71</v>
       </c>
       <c r="V68">
@@ -6096,8 +6667,16 @@
       <c r="W68">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X68">
+        <f t="shared" si="15"/>
+        <v>2682065429005.1035</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="16"/>
+        <v>245822.00997392109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6108,22 +6687,22 @@
         <v>31</v>
       </c>
       <c r="E69" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>197522.6610497802</v>
       </c>
       <c r="F69">
         <v>3</v>
       </c>
       <c r="G69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>73327095327.350296</v>
       </c>
       <c r="H69">
+        <f t="shared" si="13"/>
+        <v>11834.528806314473</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="11"/>
-        <v>11834.528806314473</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="9"/>
         <v>111642926714.12532</v>
       </c>
       <c r="J69">
@@ -6160,7 +6739,7 @@
         <v>59</v>
       </c>
       <c r="U69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="V69">
@@ -6169,8 +6748,16 @@
       <c r="W69">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X69">
+        <f t="shared" si="15"/>
+        <v>2933083813094.0117</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="16"/>
+        <v>256779.45936471428</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6181,22 +6768,22 @@
         <v>32</v>
       </c>
       <c r="E70" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>206193.91604446189</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>80083682451.147125</v>
       </c>
       <c r="H70">
+        <f t="shared" si="13"/>
+        <v>12157.513617569526</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="11"/>
-        <v>12157.513617569526</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="9"/>
         <v>122111120039.5654</v>
       </c>
       <c r="J70">
@@ -6233,7 +6820,7 @@
         <v>59</v>
       </c>
       <c r="U70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="V70">
@@ -6242,8 +6829,16 @@
       <c r="W70">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X70">
+        <f t="shared" si="15"/>
+        <v>3203347298045.8848</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="16"/>
+        <v>268052.09085780045</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6254,22 +6849,22 @@
         <v>30</v>
       </c>
       <c r="E71" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>215110.87316600379</v>
       </c>
       <c r="F71">
         <v>3</v>
       </c>
       <c r="G71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>87350387762.596573</v>
       </c>
       <c r="H71">
+        <f t="shared" si="13"/>
+        <v>12485.154414539895</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="11"/>
-        <v>12485.154414539895</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="9"/>
         <v>133386240624.37062</v>
       </c>
       <c r="J71">
@@ -6306,7 +6901,7 @@
         <v>59</v>
       </c>
       <c r="U71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
       <c r="V71">
@@ -6315,8 +6910,16 @@
       <c r="W71">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X71">
+        <f t="shared" si="15"/>
+        <v>3494015510503.8628</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="16"/>
+        <v>279644.13511580491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6327,22 +6930,22 @@
         <v>31</v>
       </c>
       <c r="E72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>224276.78198760346</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>95157487127.916473</v>
       </c>
       <c r="H72">
+        <f t="shared" si="13"/>
+        <v>12817.461404475967</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="11"/>
-        <v>12817.461404475967</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="9"/>
         <v>145517429569.31296</v>
       </c>
       <c r="J72">
@@ -6379,7 +6982,7 @@
         <v>59</v>
       </c>
       <c r="U72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="V72">
@@ -6388,8 +6991,16 @@
       <c r="W72">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X72">
+        <f t="shared" si="15"/>
+        <v>3806299485116.6592</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="16"/>
+        <v>291559.81658388453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6400,22 +7011,22 @@
         <v>32</v>
       </c>
       <c r="E73" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>233694.88737598748</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>103536578722.61235</v>
       </c>
       <c r="H73">
+        <f t="shared" si="13"/>
+        <v>13154.444669643712</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="11"/>
-        <v>13154.444669643712</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="9"/>
         <v>158556048622.88702</v>
       </c>
       <c r="J73">
@@ -6452,7 +7063,7 @@
         <v>59</v>
       </c>
       <c r="U73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
       <c r="V73">
@@ -6461,8 +7072,16 @@
       <c r="W73">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X73">
+        <f t="shared" si="15"/>
+        <v>4141463148904.4941</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="16"/>
+        <v>303803.35358878376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6473,22 +7092,22 @@
         <v>30</v>
       </c>
       <c r="E74" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>243368.4295653305</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
       <c r="G74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>112520620655.09891</v>
       </c>
       <c r="H74">
+        <f t="shared" si="13"/>
+        <v>13496.114170608449</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="11"/>
-        <v>13496.114170608449</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="9"/>
         <v>172555746653.57843</v>
       </c>
       <c r="J74">
@@ -6525,7 +7144,7 @@
         <v>59</v>
       </c>
       <c r="U74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
       <c r="V74">
@@ -6534,8 +7153,16 @@
       <c r="W74">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X74">
+        <f t="shared" si="15"/>
+        <v>4500824826203.9561</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="16"/>
+        <v>316378.95843492966</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6546,22 +7173,22 @@
         <v>31</v>
       </c>
       <c r="E75" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>253300.64422898469</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>122143969104.41269</v>
       </c>
       <c r="H75">
+        <f t="shared" si="13"/>
+        <v>13842.479749387447</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="11"/>
-        <v>13842.479749387447</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="9"/>
         <v>187572527126.7471</v>
       </c>
       <c r="J75">
@@ -6598,7 +7225,7 @@
         <v>59</v>
       </c>
       <c r="U75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="V75">
@@ -6607,8 +7234,16 @@
       <c r="W75">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X75">
+        <f t="shared" si="15"/>
+        <v>4885758764176.5078</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="16"/>
+        <v>329290.8374976801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6619,22 +7254,22 @@
         <v>32</v>
       </c>
       <c r="E76" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>263494.76254912175</v>
       </c>
       <c r="F76">
         <v>3</v>
       </c>
       <c r="G76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>132442416971.66588</v>
       </c>
       <c r="H76">
+        <f t="shared" si="13"/>
+        <v>14193.551132478618</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="11"/>
-        <v>14193.551132478618</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="9"/>
         <v>203664816586.83307</v>
       </c>
       <c r="J76">
@@ -6671,7 +7306,7 @@
         <v>59</v>
       </c>
       <c r="U76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>79</v>
       </c>
       <c r="V76">
@@ -6680,8 +7315,16 @@
       <c r="W76">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X76">
+        <f t="shared" si="15"/>
+        <v>5297696678866.6348</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="16"/>
+        <v>342543.19131385826</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -6693,18 +7336,18 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>273954.01128436648</v>
       </c>
       <c r="F77" s="5">
         <v>4</v>
       </c>
       <c r="G77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>143453233044.86465</v>
       </c>
       <c r="H77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14549.337933771378</v>
       </c>
       <c r="I77" s="5">
@@ -6745,7 +7388,7 @@
         <v>59</v>
       </c>
       <c r="U77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="V77" s="5">
@@ -6754,8 +7397,16 @@
       <c r="W77">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X77">
+        <f t="shared" si="15"/>
+        <v>7172661652243.2324</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="16"/>
+        <v>356140.21466967644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -6767,22 +7418,22 @@
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>284681.61283552332</v>
       </c>
       <c r="F78" s="5">
         <v>4</v>
       </c>
       <c r="G78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>155215201676.75949</v>
       </c>
       <c r="H78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14909.849657346345</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" ref="I78:I91" si="13">A78^6.05+A78^4+1000*A78+100</f>
+        <f t="shared" ref="I78:I91" si="17">A78^6.05+A78^4+1000*A78+100</f>
         <v>239322161977.05478</v>
       </c>
       <c r="J78" s="5">
@@ -6819,7 +7470,7 @@
         <v>59</v>
       </c>
       <c r="U78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>81</v>
       </c>
       <c r="V78" s="5">
@@ -6828,8 +7479,16 @@
       <c r="W78">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X78">
+        <f t="shared" si="15"/>
+        <v>7760760083837.9746</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="16"/>
+        <v>370086.09668618033</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -6841,22 +7500,22 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>295680.78530944901</v>
       </c>
       <c r="F79" s="5">
         <v>4</v>
       </c>
       <c r="G79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>167768662975.35574</v>
       </c>
       <c r="H79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15275.095700168886</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>259016816819.89771</v>
       </c>
       <c r="J79" s="5">
@@ -6893,7 +7552,7 @@
         <v>59</v>
       </c>
       <c r="U79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>82</v>
       </c>
       <c r="V79" s="5">
@@ -6902,8 +7561,16 @@
       <c r="W79">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X79">
+        <f t="shared" si="15"/>
+        <v>8388433148767.7871</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="16"/>
+        <v>384385.02090228372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -6915,22 +7582,22 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>306954.74258117168</v>
       </c>
       <c r="F80" s="5">
         <v>4</v>
       </c>
       <c r="G80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>181155553506.75565</v>
       </c>
       <c r="H80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15645.085354682449</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>280046322487.88751</v>
       </c>
       <c r="J80" s="5">
@@ -6967,7 +7634,7 @@
         <v>59</v>
       </c>
       <c r="U80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
       <c r="V80" s="5">
@@ -6976,8 +7643,16 @@
       <c r="W80">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X80">
+        <f t="shared" si="15"/>
+        <v>9057777675337.7832</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="16"/>
+        <v>399041.16535552318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -6989,22 +7664,22 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>318506.69435431337</v>
       </c>
       <c r="F81" s="5">
         <v>4</v>
       </c>
       <c r="G81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>195419447509.99246</v>
       </c>
       <c r="H81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16019.827811306393</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>302482283389.0918</v>
       </c>
       <c r="J81" s="5">
@@ -7041,7 +7716,7 @@
         <v>59</v>
       </c>
       <c r="U81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="V81" s="5">
@@ -7050,8 +7725,16 @@
       <c r="W81">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X81">
+        <f t="shared" si="15"/>
+        <v>9770972375499.623</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="16"/>
+        <v>414058.70266060741</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -7063,22 +7746,22 @@
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>330339.84621988621</v>
       </c>
       <c r="F82" s="5">
         <v>4</v>
       </c>
       <c r="G82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>210605598623.51035</v>
       </c>
       <c r="H82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16399.332160842801</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>326399159054.48828</v>
       </c>
       <c r="J82" s="5">
@@ -7115,7 +7798,7 @@
         <v>59</v>
       </c>
       <c r="U82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
       <c r="V82" s="5">
@@ -7124,8 +7807,16 @@
       <c r="W82">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X82">
+        <f t="shared" si="15"/>
+        <v>10530279931175.518</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="16"/>
+        <v>429441.8000858521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -7137,22 +7828,22 @@
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>342457.39971352724</v>
       </c>
       <c r="F83" s="5">
         <v>4</v>
       </c>
       <c r="G83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>226760982122.97635</v>
       </c>
       <c r="H83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16783.607396797306</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>351874339676.65216</v>
       </c>
       <c r="J83" s="5">
@@ -7189,7 +7880,7 @@
         <v>59</v>
       </c>
       <c r="U83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>86</v>
       </c>
       <c r="V83" s="5">
@@ -7198,8 +7889,16 @@
       <c r="W83">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X83">
+        <f t="shared" si="15"/>
+        <v>11338049106148.818</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="16"/>
+        <v>445194.6196275854</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -7211,22 +7910,22 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>354862.55237122771</v>
       </c>
       <c r="F84" s="5">
         <v>4</v>
       </c>
       <c r="G84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>243934337670.07803</v>
       </c>
       <c r="H84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17172.662417617168</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>378988222659.12939</v>
       </c>
       <c r="J84" s="5">
@@ -7263,7 +7962,7 @@
         <v>59</v>
       </c>
       <c r="U84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>87</v>
       </c>
       <c r="V84" s="5">
@@ -7272,8 +7971,16 @@
       <c r="W84">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X84">
+        <f t="shared" si="15"/>
+        <v>12196716883503.902</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="16"/>
+        <v>461321.31808259606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -7285,22 +7992,22 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>367558.49778362713</v>
       </c>
       <c r="F85" s="5">
         <v>4</v>
       </c>
       <c r="G85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>262176212572.01379</v>
       </c>
       <c r="H85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17566.506028851596</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>407824290177.18054</v>
       </c>
       <c r="J85" s="5">
@@ -7337,7 +8044,7 @@
         <v>59</v>
       </c>
       <c r="U85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
       <c r="V85" s="5">
@@ -7346,8 +8053,16 @@
       <c r="W85">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X85">
+        <f t="shared" si="15"/>
+        <v>13108810628600.689</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="16"/>
+        <v>477826.0471187153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -7359,22 +8074,22 @@
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>380548.42564890615</v>
       </c>
       <c r="F86" s="5">
         <v>4</v>
       </c>
       <c r="G86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>281539005551.32483</v>
       </c>
       <c r="H86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17965.14694523676</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>438469187750.47314</v>
       </c>
       <c r="J86" s="5">
@@ -7411,7 +8126,7 @@
         <v>59</v>
       </c>
       <c r="U86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>89</v>
       </c>
       <c r="V86" s="5">
@@ -7420,8 +8135,16 @@
       <c r="W86">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X86">
+        <f t="shared" si="15"/>
+        <v>14076950277566.242</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="16"/>
+        <v>494712.95334357803</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -7433,22 +8156,22 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>393835.52182435268</v>
       </c>
       <c r="F87" s="5">
         <v>4</v>
       </c>
       <c r="G87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>302077011025.7934</v>
       </c>
       <c r="H87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18368.593792710068</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>471012803828.38055</v>
       </c>
       <c r="J87" s="5">
@@ -7485,7 +8208,7 @@
         <v>59</v>
       </c>
       <c r="U87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="V87" s="5">
@@ -7494,8 +8217,16 @@
       <c r="W87">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X87">
+        <f t="shared" si="15"/>
+        <v>15103850551289.67</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="16"/>
+        <v>511986.17837165849</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -7507,22 +8238,22 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>407422.96837662853</v>
       </c>
       <c r="F88" s="5">
         <v>4</v>
       </c>
       <c r="G88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>323846463898.0556</v>
       </c>
       <c r="H88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18776.855110356017</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>505548350388.466</v>
       </c>
       <c r="J88" s="5">
@@ -7559,7 +8290,7 @@
         <v>59</v>
       </c>
       <c r="U88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>91</v>
       </c>
       <c r="V88" s="5">
@@ -7568,8 +8299,16 @@
       <c r="W88">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X88">
+        <f t="shared" si="15"/>
+        <v>16192323194902.779</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="16"/>
+        <v>529649.85888961714</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -7581,22 +8320,22 @@
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>421313.94363080681</v>
       </c>
       <c r="F89" s="5">
         <v>4</v>
       </c>
       <c r="G89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>346905584854.6684</v>
       </c>
       <c r="H89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19189.939352287445</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>542172444548.82355</v>
       </c>
       <c r="J89" s="5">
@@ -7633,7 +8372,7 @@
         <v>59</v>
       </c>
       <c r="U89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="V89" s="5">
@@ -7642,8 +8381,16 @@
       <c r="W89">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X89">
+        <f t="shared" si="15"/>
+        <v>17345279242733.42</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="16"/>
+        <v>547708.12672004884</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -7655,22 +8402,22 @@
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>435511.62221820076</v>
       </c>
       <c r="F90" s="5">
         <v>4</v>
       </c>
       <c r="G90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>371314626174.2887</v>
       </c>
       <c r="H90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19607.854889464626</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>580985191194.77686</v>
       </c>
       <c r="J90" s="5">
@@ -7707,7 +8454,7 @@
         <v>59</v>
       </c>
       <c r="U90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="V90" s="5">
@@ -7716,8 +8463,16 @@
       <c r="W90">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X90">
+        <f t="shared" si="15"/>
+        <v>18565731308714.434</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="16"/>
+        <v>566165.10888366099</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -7729,22 +8484,22 @@
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>450019.17512304336</v>
       </c>
       <c r="F91" s="5">
         <v>4</v>
       </c>
       <c r="G91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>397135918044.69904</v>
       </c>
       <c r="H91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20030.610011454803</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>622090266620.61975</v>
       </c>
       <c r="J91" s="5">
@@ -7781,7 +8536,7 @@
         <v>59</v>
       </c>
       <c r="U91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="V91" s="5">
@@ -7790,8 +8545,16 @@
       <c r="W91">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X91">
+        <f t="shared" si="15"/>
+        <v>19856795902234.953</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="16"/>
+        <v>585024.92765995639</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -7802,7 +8565,7 @@
         <v>64</v>
       </c>
       <c r="E92" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>464839.76972806355</v>
       </c>
       <c r="F92">
@@ -7813,7 +8576,7 @@
         <v>485767970999.57379</v>
       </c>
       <c r="H92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20458.212928135639</v>
       </c>
       <c r="I92">
@@ -7854,7 +8617,7 @@
         <v>59</v>
       </c>
       <c r="U92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="V92">
@@ -7863,8 +8626,16 @@
       <c r="W92">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X92">
+        <f t="shared" si="15"/>
+        <v>29146078259974.426</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="16"/>
+        <v>604291.70064648264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A93" s="5">
         <v>91</v>
       </c>
@@ -7875,22 +8646,22 @@
         <v>65</v>
       </c>
       <c r="E93" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>479976.56985896284</v>
       </c>
       <c r="F93">
         <v>3</v>
       </c>
       <c r="G93">
-        <f t="shared" ref="G93:G106" si="14">A93^5.98+A93^4+100*A93+100</f>
+        <f t="shared" ref="G93:G106" si="18">A93^5.98+A93^4+100*A93+100</f>
         <v>518949294749.66425</v>
       </c>
       <c r="H93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20890.671771343517</v>
       </c>
       <c r="I93">
-        <f t="shared" ref="I93:I106" si="15">A93^6.05+A93^4+1000*A93+100</f>
+        <f t="shared" ref="I93:I106" si="19">A93^6.05+A93^4+1000*A93+100</f>
         <v>711610474994.20007</v>
       </c>
       <c r="J93">
@@ -7927,7 +8698,7 @@
         <v>59</v>
       </c>
       <c r="U93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="V93">
@@ -7936,8 +8707,16 @@
       <c r="W93">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X93">
+        <f t="shared" si="15"/>
+        <v>31136957684979.855</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="16"/>
+        <v>623969.54081665177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -7948,22 +8727,22 @@
         <v>66</v>
       </c>
       <c r="E94" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>495432.73582788557</v>
       </c>
       <c r="F94">
         <v>3</v>
       </c>
       <c r="G94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>553996956182.61365</v>
       </c>
       <c r="H94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21327.994596470722</v>
       </c>
       <c r="I94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>760251584572.8009</v>
       </c>
       <c r="J94">
@@ -8000,7 +8779,7 @@
         <v>59</v>
       </c>
       <c r="U94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="V94">
@@ -8009,8 +8788,16 @@
       <c r="W94">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X94">
+        <f t="shared" si="15"/>
+        <v>33239817370956.82</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="16"/>
+        <v>644062.55657625129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A95" s="5">
         <v>93</v>
       </c>
@@ -8021,22 +8808,22 @@
         <v>64</v>
       </c>
       <c r="E95" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>511211.42447585613</v>
       </c>
       <c r="F95">
         <v>3</v>
       </c>
       <c r="G95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>590993920927.74756</v>
       </c>
       <c r="H95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21770.189384012174</v>
       </c>
       <c r="I95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>811637150590.83582</v>
       </c>
       <c r="J95">
@@ -8073,7 +8860,7 @@
         <v>59</v>
       </c>
       <c r="U95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
       <c r="V95">
@@ -8082,8 +8869,16 @@
       <c r="W95">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X95">
+        <f t="shared" si="15"/>
+        <v>35459635255664.852</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="16"/>
+        <v>664574.85181861301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A96" s="5">
         <v>94</v>
       </c>
@@ -8094,22 +8889,22 @@
         <v>65</v>
       </c>
       <c r="E96" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>527315.78921427135</v>
       </c>
       <c r="F96">
         <v>3</v>
       </c>
       <c r="G96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>630025885793.43494</v>
       </c>
       <c r="H96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22217.264041064769</v>
       </c>
       <c r="I96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>865889996579.44507</v>
       </c>
       <c r="J96">
@@ -8146,7 +8941,7 @@
         <v>59</v>
       </c>
       <c r="U96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="V96">
@@ -8155,8 +8950,16 @@
       <c r="W96">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X96">
+        <f t="shared" si="15"/>
+        <v>37801553147606.094</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="16"/>
+        <v>685510.52597855276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A97" s="5">
         <v>95</v>
       </c>
@@ -8167,22 +8970,22 @@
         <v>66</v>
       </c>
       <c r="E97" s="12">
-        <f t="shared" ref="E97:E121" si="16">A97^2.9</f>
+        <f t="shared" ref="E97:E121" si="20">A97^2.9</f>
         <v>543748.98006544856</v>
       </c>
       <c r="F97">
         <v>3</v>
       </c>
       <c r="G97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>671181337857.06079</v>
       </c>
       <c r="H97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22669.226402781103</v>
       </c>
       <c r="I97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>923137040676.72595</v>
       </c>
       <c r="J97">
@@ -8219,7 +9022,7 @@
         <v>59</v>
       </c>
       <c r="U97">
-        <f t="shared" ref="U97:U121" si="17">A97+5</f>
+        <f t="shared" ref="U97:U121" si="21">A97+5</f>
         <v>100</v>
       </c>
       <c r="V97">
@@ -8228,8 +9031,16 @@
       <c r="W97">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X97">
+        <f t="shared" si="15"/>
+        <v>40270880271423.648</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="16"/>
+        <v>706873.67408508318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A98" s="5">
         <v>96</v>
       </c>
@@ -8240,22 +9051,22 @@
         <v>64</v>
       </c>
       <c r="E98" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>560514.14370225859</v>
       </c>
       <c r="F98">
         <v>3</v>
       </c>
       <c r="G98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>714551614180.94092</v>
       </c>
       <c r="H98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23126.084233778911</v>
       </c>
       <c r="I98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>983509386390.58374</v>
       </c>
       <c r="J98">
@@ -8292,7 +9103,7 @@
         <v>59</v>
       </c>
       <c r="U98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>101</v>
       </c>
       <c r="V98">
@@ -8301,8 +9112,16 @@
       <c r="W98">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X98">
+        <f t="shared" si="15"/>
+        <v>42873096850856.453</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="16"/>
+        <v>728668.38681293617</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A99" s="5">
         <v>97</v>
       </c>
@@ -8313,22 +9132,22 @@
         <v>65</v>
       </c>
       <c r="E99" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>577614.42348689889</v>
       </c>
       <c r="F99">
         <v>3</v>
       </c>
       <c r="G99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>760230962154.10474</v>
       </c>
       <c r="H99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23587.845229508795</v>
       </c>
       <c r="I99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1047142414381.1482</v>
       </c>
       <c r="J99">
@@ -8365,7 +9184,7 @@
         <v>59</v>
       </c>
       <c r="U99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>102</v>
       </c>
       <c r="V99">
@@ -8374,8 +9193,16 @@
       <c r="W99">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X99">
+        <f t="shared" si="15"/>
+        <v>45613857729246.281</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="16"/>
+        <v>750898.75053296855</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A100" s="5">
         <v>98</v>
       </c>
@@ -8386,22 +9213,22 @@
         <v>66</v>
       </c>
       <c r="E100" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>595052.95950881008</v>
       </c>
       <c r="F100">
         <v>3</v>
       </c>
       <c r="G100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>808316600459.75903</v>
       </c>
       <c r="H100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24054.51701758134</v>
       </c>
       <c r="I100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1114175875263.2222</v>
       </c>
       <c r="J100">
@@ -8438,7 +9265,7 @@
         <v>59</v>
       </c>
       <c r="U100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>103</v>
       </c>
       <c r="V100">
@@ -8447,8 +9274,16 @@
       <c r="W100">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X100">
+        <f t="shared" si="15"/>
+        <v>48498996027585.539</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="16"/>
+        <v>773568.84736145311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A101" s="5">
         <v>99</v>
       </c>
@@ -8459,22 +9294,22 @@
         <v>64</v>
       </c>
       <c r="E101" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>612832.88862176694</v>
       </c>
       <c r="F101">
         <v>3</v>
       </c>
       <c r="G101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>858908780668.32092</v>
       </c>
       <c r="H101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24526.107159055289</v>
       </c>
       <c r="I101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1184753983429.3806</v>
       </c>
       <c r="J101">
@@ -8511,7 +9346,7 @@
         <v>59</v>
       </c>
       <c r="U101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>104</v>
       </c>
       <c r="V101">
@@ -8520,8 +9355,16 @@
       <c r="W101">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X101">
+        <f t="shared" si="15"/>
+        <v>51534526840099.258</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="16"/>
+        <v>796682.75520829705</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A102" s="5">
         <v>100</v>
       </c>
@@ -8532,22 +9375,22 @@
         <v>65</v>
       </c>
       <c r="E102" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>630957.34448019415</v>
       </c>
       <c r="F102">
         <v>3</v>
       </c>
       <c r="G102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>912110849455.91248</v>
       </c>
       <c r="H102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25002.623149688792</v>
       </c>
       <c r="I102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1259025511894.1692</v>
       </c>
       <c r="J102">
@@ -8584,7 +9427,7 @@
         <v>59</v>
       </c>
       <c r="U102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>105</v>
       </c>
       <c r="V102">
@@ -8593,8 +9436,16 @@
       <c r="W102">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X102">
+        <f t="shared" si="15"/>
+        <v>54726650967354.75</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="16"/>
+        <v>820244.5478242524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A103" s="5">
         <v>101</v>
       </c>
@@ -8605,22 +9456,22 @@
         <v>66</v>
       </c>
       <c r="E103" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>649429.45757468231</v>
       </c>
       <c r="F103">
         <v>3</v>
       </c>
       <c r="G103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>968029311448.13269</v>
       </c>
       <c r="H103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25484.072421154346</v>
       </c>
       <c r="I103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1337143888159.9634</v>
       </c>
       <c r="J103">
@@ -8657,7 +9508,7 @@
         <v>59</v>
       </c>
       <c r="U103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>106</v>
       </c>
       <c r="V103">
@@ -8666,8 +9517,16 @@
       <c r="W103">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X103">
+        <f t="shared" si="15"/>
+        <v>58081758686887.961</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="16"/>
+        <v>844258.294847087</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A104" s="5">
         <v>102</v>
       </c>
@@ -8678,22 +9537,22 @@
         <v>64</v>
       </c>
       <c r="E104" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>668252.355266792</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
       <c r="G104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1026773892689.0406</v>
       </c>
       <c r="H104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25970.462342219515</v>
       </c>
       <c r="I104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1419267291105.0381</v>
       </c>
       <c r="J104">
@@ -8730,7 +9589,7 @@
         <v>59</v>
       </c>
       <c r="U104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>107</v>
       </c>
       <c r="V104">
@@ -8739,8 +9598,16 @@
       <c r="W104">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X104">
+        <f t="shared" si="15"/>
+        <v>61606433561342.438</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="16"/>
+        <v>868728.0618468296</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A105" s="5">
         <v>103</v>
       </c>
@@ -8751,22 +9618,22 @@
         <v>65</v>
       </c>
       <c r="E105" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>687429.16182310728</v>
       </c>
       <c r="F105">
         <v>3</v>
       </c>
       <c r="G105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1088457604735.2118</v>
       </c>
       <c r="H105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>26461.800219894489</v>
       </c>
       <c r="I105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1505558748894.283</v>
       </c>
       <c r="J105">
@@ -8803,7 +9670,7 @@
         <v>59</v>
       </c>
       <c r="U105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>108</v>
       </c>
       <c r="V105">
@@ -8812,8 +9679,16 @@
       <c r="W105">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X105">
+        <f t="shared" si="15"/>
+        <v>65307456284112.711</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="16"/>
+        <v>893657.91037003952</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A106" s="5">
         <v>104</v>
       </c>
@@ -8824,22 +9699,22 @@
         <v>66</v>
       </c>
       <c r="E106" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>706962.99844859866</v>
       </c>
       <c r="F106">
         <v>3</v>
       </c>
       <c r="G106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1153196809374.6646</v>
       </c>
       <c r="H106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>26958.093300547484</v>
       </c>
       <c r="I106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1596186237913.1262</v>
       </c>
       <c r="J106">
@@ -8876,7 +9751,7 @@
         <v>59</v>
       </c>
       <c r="U106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>109</v>
       </c>
       <c r="V106">
@@ -8885,8 +9760,16 @@
       <c r="W106">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X106">
+        <f t="shared" si="15"/>
+        <v>69191808562479.875</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="16"/>
+        <v>919051.89798317826</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A107" s="5">
         <v>105</v>
       </c>
@@ -8898,7 +9781,7 @@
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>726856.98331931105</v>
       </c>
       <c r="F107" s="5">
@@ -8909,7 +9792,7 @@
         <v>1340217201850</v>
       </c>
       <c r="H107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27459.348770989582</v>
       </c>
       <c r="I107" s="5">
@@ -8950,7 +9833,7 @@
         <v>59</v>
       </c>
       <c r="U107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>110</v>
       </c>
       <c r="V107" s="5">
@@ -8959,8 +9842,16 @@
       <c r="W107">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X107">
+        <f t="shared" si="15"/>
+        <v>93815204129500</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="16"/>
+        <v>944914.07831510436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A108" s="5">
         <v>106</v>
       </c>
@@ -8972,22 +9863,22 @@
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>747114.23161438701</v>
       </c>
       <c r="F108" s="5">
         <v>4</v>
       </c>
       <c r="G108">
-        <f t="shared" ref="G108:G121" si="18">A108^6+A108^4+100*A108+100</f>
+        <f t="shared" ref="G108:G121" si="22">A108^6+A108^4+100*A108+100</f>
         <v>1418645370652</v>
       </c>
       <c r="H108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27965.573759530074</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" ref="I108:I121" si="19">A108^6.05+A108^4+1000*A108+100</f>
+        <f t="shared" ref="I108:I121" si="23">A108^6.05+A108^4+1000*A108+100</f>
         <v>1791146557054.1973</v>
       </c>
       <c r="J108" s="5">
@@ -9024,7 +9915,7 @@
         <v>59</v>
       </c>
       <c r="U108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>111</v>
       </c>
       <c r="V108" s="5">
@@ -9033,8 +9924,16 @@
       <c r="W108">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X108">
+        <f t="shared" si="15"/>
+        <v>99305175945640</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="16"/>
+        <v>971248.50109870313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A109" s="5">
         <v>107</v>
       </c>
@@ -9046,22 +9945,22 @@
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>767737.85554744338</v>
       </c>
       <c r="F109" s="5">
         <v>4</v>
       </c>
       <c r="G109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1500861442250</v>
       </c>
       <c r="H109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28476.775337002829</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1895840985790.3337</v>
       </c>
       <c r="J109" s="5">
@@ -9098,7 +9997,7 @@
         <v>59</v>
       </c>
       <c r="U109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>112</v>
       </c>
       <c r="V109" s="5">
@@ -9107,8 +10006,16 @@
       <c r="W109">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X109">
+        <f t="shared" si="15"/>
+        <v>105060300957500</v>
+      </c>
+      <c r="Y109">
+        <f t="shared" si="16"/>
+        <v>998059.21221167641</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A110" s="5">
         <v>108</v>
       </c>
@@ -9120,22 +10027,22 @@
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>788730.96439734229</v>
       </c>
       <c r="F110" s="5">
         <v>4</v>
       </c>
       <c r="G110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1587010382740</v>
       </c>
       <c r="H110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28992.960517765769</v>
       </c>
       <c r="I110" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2005594848022.1631</v>
       </c>
       <c r="J110" s="5">
@@ -9172,7 +10079,7 @@
         <v>59</v>
       </c>
       <c r="U110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>113</v>
       </c>
       <c r="V110" s="5">
@@ -9181,8 +10088,16 @@
       <c r="W110">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X110">
+        <f t="shared" si="15"/>
+        <v>111090726791800</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" si="16"/>
+        <v>1025350.2537165451</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A111" s="5">
         <v>109</v>
       </c>
@@ -9194,22 +10109,22 @@
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>810096.6645383368</v>
       </c>
       <c r="F111" s="5">
         <v>4</v>
       </c>
       <c r="G111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1677241280002</v>
       </c>
       <c r="H111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>29514.136260673295</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2120602381093.9172</v>
       </c>
       <c r="J111" s="5">
@@ -9246,7 +10161,7 @@
         <v>59</v>
       </c>
       <c r="U111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>114</v>
       </c>
       <c r="V111" s="5">
@@ -9255,8 +10170,16 @@
       <c r="W111">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X111">
+        <f t="shared" si="15"/>
+        <v>117406889600140</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" si="16"/>
+        <v>1053125.663899838</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A112" s="5">
         <v>110</v>
       </c>
@@ -9268,22 +10191,22 @@
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>831838.05946966144</v>
       </c>
       <c r="F112" s="5">
         <v>4</v>
       </c>
       <c r="G112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1771707421100</v>
       </c>
       <c r="H112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30040.309470023552</v>
       </c>
       <c r="I112" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2241063385689.1436</v>
       </c>
       <c r="J112" s="5">
@@ -9320,7 +10243,7 @@
         <v>59</v>
       </c>
       <c r="U112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>115</v>
       </c>
       <c r="V112" s="5">
@@ -9329,8 +10252,16 @@
       <c r="W112">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X112">
+        <f t="shared" si="15"/>
+        <v>124019519477000</v>
+      </c>
+      <c r="Y112">
+        <f t="shared" si="16"/>
+        <v>1081389.4773105599</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A113" s="5">
         <v>111</v>
       </c>
@@ -9342,22 +10273,22 @@
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>853958.24984451104</v>
       </c>
       <c r="F113" s="5">
         <v>4</v>
       </c>
       <c r="G113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1870566370402</v>
       </c>
       <c r="H113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30571.486996480584</v>
       </c>
       <c r="I113" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2367183331940.7749</v>
       </c>
       <c r="J113" s="5">
@@ -9394,7 +10325,7 @@
         <v>59</v>
       </c>
       <c r="U113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>116</v>
       </c>
       <c r="V113" s="5">
@@ -9403,8 +10334,16 @@
       <c r="W113">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X113">
+        <f t="shared" si="15"/>
+        <v>130939645928140</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" si="16"/>
+        <v>1110145.7247978644</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A114" s="5">
         <v>112</v>
       </c>
@@ -9416,22 +10355,22 @@
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>876460.33349851426</v>
       </c>
       <c r="F114" s="5">
         <v>4</v>
       </c>
       <c r="G114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1973980048420</v>
       </c>
       <c r="H114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31107.675637973356</v>
       </c>
       <c r="I114" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2499173466568.5669</v>
       </c>
       <c r="J114" s="5">
@@ -9468,7 +10407,7 @@
         <v>59</v>
       </c>
       <c r="U114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>117</v>
       </c>
       <c r="V114" s="5">
@@ -9477,8 +10416,16 @@
       <c r="W114">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X114">
+        <f t="shared" si="15"/>
+        <v>138178603389400</v>
+      </c>
+      <c r="Y114">
+        <f t="shared" si="16"/>
+        <v>1139398.4335480686</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A115" s="5">
         <v>113</v>
       </c>
@@ -9490,22 +10437,22 @@
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>899347.40547762555</v>
       </c>
       <c r="F115" s="5">
         <v>4</v>
       </c>
       <c r="G115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2082114811370</v>
       </c>
       <c r="H115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31648.882140571</v>
       </c>
       <c r="I115" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2637250921043.9019</v>
       </c>
       <c r="J115" s="5">
@@ -9542,7 +10489,7 @@
         <v>59</v>
       </c>
       <c r="U115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>118</v>
       </c>
       <c r="V115" s="5">
@@ -9551,8 +10498,16 @@
       <c r="W115">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X115">
+        <f t="shared" si="15"/>
+        <v>145748036795900</v>
+      </c>
+      <c r="Y115">
+        <f t="shared" si="16"/>
+        <v>1169151.6271209132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A116" s="5">
         <v>114</v>
       </c>
@@ -9564,22 +10519,22 @@
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>922622.55806551839</v>
       </c>
       <c r="F116" s="5">
         <v>4</v>
       </c>
       <c r="G116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2195141531452</v>
       </c>
       <c r="H116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32195.11319933636</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2781638820782.6548</v>
       </c>
       <c r="J116" s="5">
@@ -9616,7 +10571,7 @@
         <v>59</v>
       </c>
       <c r="U116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>119</v>
       </c>
       <c r="V116" s="5">
@@ -9625,8 +10580,16 @@
       <c r="W116">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X116">
+        <f t="shared" si="15"/>
+        <v>153659907201640</v>
+      </c>
+      <c r="Y116">
+        <f t="shared" si="16"/>
+        <v>1199409.3254851738</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A117" s="5">
         <v>115</v>
       </c>
@@ -9638,22 +10601,22 @@
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>946288.88081047079</v>
       </c>
       <c r="F117" s="5">
         <v>4</v>
       </c>
       <c r="G117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2313235677850</v>
       </c>
       <c r="H117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32746.375459158106</v>
       </c>
       <c r="I117" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2932566395366.7305</v>
       </c>
       <c r="J117" s="5">
@@ -9690,7 +10653,7 @@
         <v>59</v>
       </c>
       <c r="U117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>120</v>
       </c>
       <c r="V117" s="5">
@@ -9699,8 +10662,16 @@
       <c r="W117">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X117">
+        <f t="shared" si="15"/>
+        <v>161926497449500</v>
+      </c>
+      <c r="Y117">
+        <f t="shared" si="16"/>
+        <v>1230175.545053612</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A118" s="5">
         <v>116</v>
       </c>
@@ -9712,22 +10683,22 @@
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>970349.46055174293</v>
       </c>
       <c r="F118" s="5">
         <v>4</v>
       </c>
       <c r="G118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2436577398452</v>
       </c>
       <c r="H118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33302.67551556167</v>
       </c>
       <c r="I118" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3090269089794.3696</v>
       </c>
       <c r="J118" s="5">
@@ -9764,7 +10735,7 @@
         <v>59</v>
       </c>
       <c r="U118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>121</v>
       </c>
       <c r="V118" s="5">
@@ -9773,8 +10744,16 @@
       <c r="W118">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X118">
+        <f t="shared" si="15"/>
+        <v>170560417891640</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" si="16"/>
+        <v>1261454.2987172659</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A119" s="5">
         <v>117</v>
       </c>
@@ -9786,22 +10765,22 @@
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>994807.38144547958</v>
       </c>
       <c r="F119" s="5">
         <v>4</v>
       </c>
       <c r="G119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2565351602290</v>
       </c>
       <c r="H119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33864.019915500874</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3254988676759.9551</v>
       </c>
       <c r="J119" s="5">
@@ -9838,7 +10817,7 @@
         <v>59</v>
       </c>
       <c r="U119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>122</v>
       </c>
       <c r="V119" s="5">
@@ -9847,8 +10826,16 @@
       <c r="W119">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X119">
+        <f t="shared" si="15"/>
+        <v>179574612160300</v>
+      </c>
+      <c r="Y119">
+        <f t="shared" si="16"/>
+        <v>1293249.5958791235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A120" s="5">
         <v>118</v>
       </c>
@@ -9860,22 +10847,22 @@
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1019665.7249901477</v>
       </c>
       <c r="F120" s="5">
         <v>4</v>
       </c>
       <c r="G120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2699748042700</v>
       </c>
       <c r="H120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>34430.415158129501</v>
       </c>
       <c r="I120" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3426973369963.6704</v>
       </c>
       <c r="J120" s="5">
@@ -9912,7 +10899,7 @@
         <v>59</v>
       </c>
       <c r="U120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>123</v>
       </c>
       <c r="V120" s="5">
@@ -9921,8 +10908,16 @@
       <c r="W120">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X120">
+        <f t="shared" si="15"/>
+        <v>188982362989000</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" si="16"/>
+        <v>1325565.4424871921</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A121" s="5">
         <v>119</v>
       </c>
@@ -9934,22 +10929,22 @@
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1044927.5700515051</v>
       </c>
       <c r="F121" s="5">
         <v>4</v>
       </c>
       <c r="G121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2839961401202</v>
       </c>
       <c r="H121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35001.867695554436</v>
       </c>
       <c r="I121" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3606477938451.4399</v>
       </c>
       <c r="J121" s="5">
@@ -9986,7 +10981,7 @@
         <v>59</v>
       </c>
       <c r="U121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>124</v>
       </c>
       <c r="V121" s="5">
@@ -9995,8 +10990,16 @@
       <c r="W121">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X121">
+        <f t="shared" si="15"/>
+        <v>198797298084140</v>
+      </c>
+      <c r="Y121">
+        <f t="shared" si="16"/>
+        <v>1358405.8410669568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A122" s="5">
         <v>120</v>
       </c>
@@ -10008,7 +11011,7 @@
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="14">
-        <f t="shared" ref="E122:E136" si="20">A122^2.9</f>
+        <f t="shared" ref="E122:E136" si="24">A122^2.9</f>
         <v>1070595.9928871447</v>
       </c>
       <c r="F122" s="7">
@@ -10060,7 +11063,7 @@
         <v>59</v>
       </c>
       <c r="U122" s="9">
-        <f t="shared" ref="U122:U136" si="21">A122+5</f>
+        <f t="shared" ref="U122:U136" si="25">A122+5</f>
         <v>125</v>
       </c>
       <c r="V122" s="7">
@@ -10069,8 +11072,16 @@
       <c r="W122" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X122">
+        <f t="shared" si="15"/>
+        <v>385579800262390.75</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="16"/>
+        <v>1391774.7907532882</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A123" s="5">
         <v>121</v>
       </c>
@@ -10082,18 +11093,18 @@
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1096674.0671705939</v>
       </c>
       <c r="F123" s="7">
         <v>5</v>
       </c>
       <c r="G123" s="9">
-        <f t="shared" ref="G123:G136" si="22">A123^6.1+A123^4+100*A123+100</f>
+        <f t="shared" ref="G123:G136" si="26">A123^6.1+A123^4+100*A123+100</f>
         <v>5070013575722.3076</v>
       </c>
       <c r="H123" s="9">
-        <f t="shared" ref="H123:H151" si="23">A123^2.147+50+50*A123</f>
+        <f t="shared" ref="H123:H151" si="27">A123^2.147+50+50*A123</f>
         <v>35730.582556077905</v>
       </c>
       <c r="I123" s="7">
@@ -10134,7 +11145,7 @@
         <v>59</v>
       </c>
       <c r="U123" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>126</v>
       </c>
       <c r="V123" s="7">
@@ -10143,8 +11154,16 @@
       <c r="W123" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X123">
+        <f t="shared" si="15"/>
+        <v>413206106421368.06</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" si="16"/>
+        <v>1425676.2873217722</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A124" s="5">
         <v>122</v>
       </c>
@@ -10156,18 +11175,18 @@
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1123164.8640149781</v>
       </c>
       <c r="F124" s="7">
         <v>5</v>
       </c>
       <c r="G124" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5331053190656.1904</v>
       </c>
       <c r="H124" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>36308.834667873351</v>
       </c>
       <c r="I124" s="7">
@@ -10208,7 +11227,7 @@
         <v>59</v>
       </c>
       <c r="U124" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>127</v>
       </c>
       <c r="V124" s="7">
@@ -10217,8 +11236,16 @@
       <c r="W124" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X124">
+        <f t="shared" si="15"/>
+        <v>442477414824463.81</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="16"/>
+        <v>1460114.3232194716</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A125" s="5">
         <v>123</v>
       </c>
@@ -10230,18 +11257,18 @@
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1150071.4519963036</v>
       </c>
       <c r="F125" s="7">
         <v>5</v>
       </c>
       <c r="G125" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5603236089151.6465</v>
       </c>
       <c r="H125" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>36892.076659105849</v>
       </c>
       <c r="I125" s="7">
@@ -10282,7 +11309,7 @@
         <v>59</v>
       </c>
       <c r="U125" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>128</v>
       </c>
       <c r="V125" s="7">
@@ -10291,8 +11318,16 @@
       <c r="W125" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X125">
+        <f t="shared" si="15"/>
+        <v>473473449533314.13</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="16"/>
+        <v>1495092.8875951949</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A126" s="5">
         <v>124</v>
       </c>
@@ -10304,18 +11339,18 @@
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1177396.89717633</v>
       </c>
       <c r="F126" s="7">
         <v>5</v>
       </c>
       <c r="G126" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5886941527382.7402</v>
       </c>
       <c r="H126" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>37480.314521315027</v>
       </c>
       <c r="I126" s="7">
@@ -10356,7 +11391,7 @@
         <v>59</v>
       </c>
       <c r="U126" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>129</v>
       </c>
       <c r="V126" s="7">
@@ -10365,8 +11400,16 @@
       <c r="W126" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X126">
+        <f t="shared" si="15"/>
+        <v>506276971354915.69</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" si="16"/>
+        <v>1530615.9663292291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A127" s="5">
         <v>125</v>
       </c>
@@ -10378,18 +11421,18 @@
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1205144.2631250194</v>
       </c>
       <c r="F127" s="7">
         <v>5</v>
       </c>
       <c r="G127" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6182558441146.0127</v>
       </c>
       <c r="H127" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>38073.554204631611</v>
       </c>
       <c r="I127" s="7">
@@ -10430,7 +11473,7 @@
         <v>59</v>
       </c>
       <c r="U127" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>130</v>
       </c>
       <c r="V127" s="7">
@@ -10439,8 +11482,16 @@
       <c r="W127" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X127">
+        <f t="shared" si="15"/>
+        <v>540973863600276.13</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" si="16"/>
+        <v>1566687.5420625252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A128" s="5">
         <v>126</v>
       </c>
@@ -10452,18 +11503,18 @@
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1233316.6109426627</v>
       </c>
       <c r="F128" s="7">
         <v>5</v>
       </c>
       <c r="G128" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6490485611857.1748</v>
       </c>
       <c r="H128" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>38671.801618394122</v>
       </c>
       <c r="I128" s="7">
@@ -10504,7 +11555,7 @@
         <v>59</v>
       </c>
       <c r="U128" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>131</v>
       </c>
       <c r="V128" s="7">
@@ -10513,8 +11564,16 @@
       <c r="W128" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X128">
+        <f t="shared" si="15"/>
+        <v>577653219455288.5</v>
+      </c>
+      <c r="Y128">
+        <f t="shared" si="16"/>
+        <v>1603311.5942254616</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A129" s="5">
         <v>127</v>
       </c>
@@ -10526,18 +11585,18 @@
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1261916.9992815966</v>
       </c>
       <c r="F129" s="7">
         <v>5</v>
       </c>
       <c r="G129" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6811131834026.9639</v>
       </c>
       <c r="H129" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>39275.062631751774</v>
       </c>
       <c r="I129" s="7">
@@ -10578,7 +11637,7 @@
         <v>59</v>
       </c>
       <c r="U129" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>132</v>
       </c>
       <c r="V129" s="7">
@@ -10587,8 +11646,16 @@
       <c r="W129" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X129">
+        <f t="shared" si="15"/>
+        <v>616407430979440.25</v>
+      </c>
+      <c r="Y129">
+        <f t="shared" si="16"/>
+        <v>1640492.0990660756</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A130" s="5">
         <v>128</v>
       </c>
@@ -10600,18 +11667,18 @@
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1290948.4843675578</v>
       </c>
       <c r="F130" s="7">
         <v>5</v>
       </c>
       <c r="G130" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7144916084216.7793</v>
       </c>
       <c r="H130" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>39883.343074253404</v>
       </c>
       <c r="I130" s="7">
@@ -10652,7 +11719,7 @@
         <v>59</v>
       </c>
       <c r="U130" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>133</v>
       </c>
       <c r="V130" s="7">
@@ -10661,8 +11728,16 @@
       <c r="W130" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X130">
+        <f t="shared" si="15"/>
+        <v>657332279747943.75</v>
+      </c>
+      <c r="Y130">
+        <f t="shared" si="16"/>
+        <v>1678233.0296778253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A131" s="5">
         <v>129</v>
       </c>
@@ -10674,18 +11749,18 @@
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1320414.1200207022</v>
       </c>
       <c r="F131" s="7">
         <v>5</v>
       </c>
       <c r="G131" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7492267691476.4912</v>
       </c>
       <c r="H131" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>40496.648736423296</v>
       </c>
       <c r="I131" s="7">
@@ -10726,7 +11801,7 @@
         <v>59</v>
       </c>
       <c r="U131" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>134</v>
       </c>
       <c r="V131" s="7">
@@ -10735,8 +11810,16 @@
       <c r="W131" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X131">
+        <f t="shared" ref="X131:X181" si="28">G131*V131</f>
+        <v>700527029153051.88</v>
+      </c>
+      <c r="Y131">
+        <f t="shared" ref="Y131:Y181" si="29">E131*W131</f>
+        <v>1716538.356026913</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A132" s="5">
         <v>130</v>
       </c>
@@ -10748,18 +11831,18 @@
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1350316.9576762647</v>
       </c>
       <c r="F132" s="7">
         <v>5</v>
       </c>
       <c r="G132" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7853626509264.2646</v>
       </c>
       <c r="H132" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41114.985370324292</v>
       </c>
       <c r="I132" s="7">
@@ -10800,7 +11883,7 @@
         <v>59</v>
       </c>
       <c r="U132" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>135</v>
       </c>
       <c r="V132" s="7">
@@ -10809,8 +11892,16 @@
       <c r="W132" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X132">
+        <f t="shared" si="28"/>
+        <v>746094518380105.13</v>
+      </c>
+      <c r="Y132">
+        <f t="shared" si="29"/>
+        <v>1755412.0449791441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A133" s="5">
         <v>131</v>
       </c>
@@ -10822,18 +11913,18 @@
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1380660.0464048982</v>
       </c>
       <c r="F133" s="7">
         <v>5</v>
       </c>
       <c r="G133" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8229443088850.6787</v>
       </c>
       <c r="H133" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41738.358690108565</v>
       </c>
       <c r="I133" s="7">
@@ -10874,7 +11965,7 @@
         <v>59</v>
       </c>
       <c r="U133" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>136</v>
       </c>
       <c r="V133" s="7">
@@ -10883,8 +11974,16 @@
       <c r="W133" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X133">
+        <f t="shared" si="28"/>
+        <v>794141258074090.5</v>
+      </c>
+      <c r="Y133">
+        <f t="shared" si="29"/>
+        <v>1794858.0603263676</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A134" s="5">
         <v>132</v>
       </c>
@@ -10896,18 +11995,18 @@
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1411446.4329326693</v>
       </c>
       <c r="F134" s="7">
         <v>5</v>
       </c>
       <c r="G134" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8620178854207.5303</v>
       </c>
       <c r="H134" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42366.774372556196</v>
       </c>
       <c r="I134" s="7">
@@ -10948,7 +12047,7 @@
         <v>59</v>
       </c>
       <c r="U134" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>137</v>
       </c>
       <c r="V134" s="7">
@@ -10957,8 +12056,16 @@
       <c r="W134" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X134">
+        <f t="shared" si="28"/>
+        <v>844777527712338</v>
+      </c>
+      <c r="Y134">
+        <f t="shared" si="29"/>
+        <v>1834880.3628124702</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A135" s="5">
         <v>133</v>
       </c>
@@ -10970,18 +12077,18 @@
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1442679.1616607304</v>
       </c>
       <c r="F135" s="7">
         <v>5</v>
       </c>
       <c r="G135" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>9026306278382.7871</v>
       </c>
       <c r="H135" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>43000.23805760219</v>
       </c>
       <c r="I135" s="7">
@@ -11022,7 +12129,7 @@
         <v>59</v>
       </c>
       <c r="U135" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>138</v>
       </c>
       <c r="V135" s="7">
@@ -11031,8 +12138,16 @@
       <c r="W135" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X135">
+        <f t="shared" si="28"/>
+        <v>898117474699087.38</v>
+      </c>
+      <c r="Y135">
+        <f t="shared" si="29"/>
+        <v>1875482.9101589494</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A136" s="5">
         <v>134</v>
       </c>
@@ -11044,18 +12159,18 @@
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1474361.2746846997</v>
       </c>
       <c r="F136" s="7">
         <v>5</v>
       </c>
       <c r="G136" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>9448309061362.8633</v>
       </c>
       <c r="H136" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>43638.755348851701</v>
       </c>
       <c r="I136" s="7">
@@ -11096,7 +12211,7 @@
         <v>59</v>
       </c>
       <c r="U136" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>139</v>
       </c>
       <c r="V136" s="7">
@@ -11105,8 +12220,16 @@
       <c r="W136" s="9">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X136">
+        <f t="shared" si="28"/>
+        <v>954279215197649.25</v>
+      </c>
+      <c r="Y136">
+        <f t="shared" si="29"/>
+        <v>1916669.6570901098</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A137" s="5">
         <v>135</v>
       </c>
@@ -11118,7 +12241,7 @@
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="14">
-        <f t="shared" ref="E137:E151" si="24">A137^2.9</f>
+        <f t="shared" ref="E137:E181" si="30">A137^2.9</f>
         <v>1506495.8118137231</v>
       </c>
       <c r="F137" s="7">
@@ -11129,7 +12252,7 @@
         <v>12634675548267.326</v>
       </c>
       <c r="H137" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>44282.33181408525</v>
       </c>
       <c r="I137" s="7">
@@ -11170,7 +12293,7 @@
         <v>59</v>
       </c>
       <c r="U137" s="10">
-        <f t="shared" ref="U137:U151" si="25">A137+5</f>
+        <f t="shared" ref="U137:U151" si="31">A137+5</f>
         <v>140</v>
       </c>
       <c r="V137" s="7">
@@ -11179,8 +12302,16 @@
       <c r="W137" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X137">
+        <f t="shared" si="28"/>
+        <v>1295054243697401</v>
+      </c>
+      <c r="Y137">
+        <f t="shared" si="29"/>
+        <v>1958444.5553578401</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A138" s="5">
         <v>136</v>
       </c>
@@ -11192,18 +12323,18 @@
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1539085.8105892276</v>
       </c>
       <c r="F138" s="7">
         <v>5</v>
       </c>
       <c r="G138" s="9">
-        <f t="shared" ref="G138:G139" si="26">A138^6.15+A138^4+100*A138+100</f>
+        <f t="shared" ref="G138:G139" si="32">A138^6.15+A138^4+100*A138+100</f>
         <v>13221341544836.094</v>
       </c>
       <c r="H138" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>44930.972985751891</v>
       </c>
       <c r="I138" s="7">
@@ -11244,7 +12375,7 @@
         <v>59</v>
       </c>
       <c r="U138" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>141</v>
       </c>
       <c r="V138" s="7">
@@ -11253,8 +12384,16 @@
       <c r="W138" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X138">
+        <f t="shared" si="28"/>
+        <v>1375019520662953.8</v>
+      </c>
+      <c r="Y138">
+        <f t="shared" si="29"/>
+        <v>2000811.5537659959</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A139" s="5">
         <v>137</v>
       </c>
@@ -11266,18 +12405,18 @@
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1572134.3063033996</v>
       </c>
       <c r="F139" s="7">
         <v>5</v>
       </c>
       <c r="G139" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>13830648700185.506</v>
       </c>
       <c r="H139" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45584.684361453008</v>
       </c>
       <c r="I139" s="7">
@@ -11318,7 +12457,7 @@
         <v>59</v>
       </c>
       <c r="U139" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>142</v>
       </c>
       <c r="V139" s="7">
@@ -11327,8 +12466,16 @@
       <c r="W139" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X139">
+        <f t="shared" si="28"/>
+        <v>1459133437869570.8</v>
+      </c>
+      <c r="Y139">
+        <f t="shared" si="29"/>
+        <v>2043774.5981944196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A140" s="5">
         <v>138</v>
       </c>
@@ -11340,7 +12487,7 @@
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1605644.3320173719</v>
       </c>
       <c r="F140" s="7">
@@ -11351,7 +12498,7 @@
         <v>18503711490187.512</v>
       </c>
       <c r="H140" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>46243.471404415817</v>
       </c>
       <c r="I140" s="7">
@@ -11392,7 +12539,7 @@
         <v>59</v>
       </c>
       <c r="U140" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>143</v>
       </c>
       <c r="V140" s="7">
@@ -11401,8 +12548,16 @@
       <c r="W140" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X140">
+        <f t="shared" si="28"/>
+        <v>1979897129450063.8</v>
+      </c>
+      <c r="Y140">
+        <f t="shared" si="29"/>
+        <v>2087337.6316225836</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A141" s="5">
         <v>139</v>
       </c>
@@ -11414,18 +12569,18 @@
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1639618.9185791237</v>
       </c>
       <c r="F141" s="7">
         <v>5</v>
       </c>
       <c r="G141" s="9">
-        <f t="shared" ref="G141:G151" si="27">A141^6.2+A141^4+100*A141+100</f>
+        <f t="shared" ref="G141:G151" si="33">A141^6.2+A141^4+100*A141+100</f>
         <v>19350854168630.676</v>
       </c>
       <c r="H141" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>46907.339543956376</v>
       </c>
       <c r="I141" s="7">
@@ -11466,7 +12621,7 @@
         <v>59</v>
       </c>
       <c r="U141" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>144</v>
       </c>
       <c r="V141" s="7">
@@ -11475,8 +12630,16 @@
       <c r="W141" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X141">
+        <f t="shared" si="28"/>
+        <v>2099567677296428.3</v>
+      </c>
+      <c r="Y141">
+        <f t="shared" si="29"/>
+        <v>2131504.5941528608</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A142" s="5">
         <v>140</v>
       </c>
@@ -11488,18 +12651,18 @@
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1674061.094641132</v>
       </c>
       <c r="F142" s="7">
         <v>5</v>
       </c>
       <c r="G142" s="9">
+        <f t="shared" si="33"/>
+        <v>20230288143923.559</v>
+      </c>
+      <c r="H142" s="9">
         <f t="shared" si="27"/>
-        <v>20230288143923.559</v>
-      </c>
-      <c r="H142" s="9">
-        <f t="shared" si="23"/>
         <v>47576.294175933952</v>
       </c>
       <c r="I142" s="7">
@@ -11540,7 +12703,7 @@
         <v>59</v>
       </c>
       <c r="U142" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>145</v>
       </c>
       <c r="V142" s="7">
@@ -11549,8 +12712,16 @@
       <c r="W142" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X142">
+        <f t="shared" si="28"/>
+        <v>2225331695831591.5</v>
+      </c>
+      <c r="Y142">
+        <f t="shared" si="29"/>
+        <v>2176279.4230334717</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A143" s="5">
         <v>141</v>
       </c>
@@ -11562,18 +12733,18 @@
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1708973.886677729</v>
       </c>
       <c r="F143" s="7">
         <v>5</v>
       </c>
       <c r="G143" s="9">
+        <f t="shared" si="33"/>
+        <v>21143000383674.512</v>
+      </c>
+      <c r="H143" s="9">
         <f t="shared" si="27"/>
-        <v>21143000383674.512</v>
-      </c>
-      <c r="H143" s="9">
-        <f t="shared" si="23"/>
         <v>48250.340663195777</v>
       </c>
       <c r="I143" s="7">
@@ -11614,7 +12785,7 @@
         <v>59</v>
       </c>
       <c r="U143" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>146</v>
       </c>
       <c r="V143" s="7">
@@ -11623,8 +12794,16 @@
       <c r="W143" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X143">
+        <f t="shared" si="28"/>
+        <v>2357444542779708</v>
+      </c>
+      <c r="Y143">
+        <f t="shared" si="29"/>
+        <v>2221666.0526810479</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A144" s="5">
         <v>142</v>
       </c>
@@ -11636,18 +12815,18 @@
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1744360.3190022011</v>
       </c>
       <c r="F144" s="7">
         <v>5</v>
       </c>
       <c r="G144" s="9">
+        <f t="shared" si="33"/>
+        <v>22090000673944.102</v>
+      </c>
+      <c r="H144" s="9">
         <f t="shared" si="27"/>
-        <v>22090000673944.102</v>
-      </c>
-      <c r="H144" s="9">
-        <f t="shared" si="23"/>
         <v>48929.484336011861</v>
       </c>
       <c r="I144" s="7">
@@ -11688,7 +12867,7 @@
         <v>59</v>
       </c>
       <c r="U144" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>147</v>
       </c>
       <c r="V144" s="7">
@@ -11697,8 +12876,16 @@
       <c r="W144" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X144">
+        <f t="shared" si="28"/>
+        <v>2496170076155683.5</v>
+      </c>
+      <c r="Y144">
+        <f t="shared" si="29"/>
+        <v>2267668.4147028616</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A145" s="5">
         <v>143</v>
       </c>
@@ -11710,18 +12897,18 @@
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1780223.413783655</v>
       </c>
       <c r="F145" s="7">
         <v>5</v>
       </c>
       <c r="G145" s="9">
+        <f t="shared" si="33"/>
+        <v>23072321979351.121</v>
+      </c>
+      <c r="H145" s="9">
         <f t="shared" si="27"/>
-        <v>23072321979351.121</v>
-      </c>
-      <c r="H145" s="9">
-        <f t="shared" si="23"/>
         <v>49613.730492503069</v>
       </c>
       <c r="I145" s="7">
@@ -11762,7 +12949,7 @@
         <v>59</v>
       </c>
       <c r="U145" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>148</v>
       </c>
       <c r="V145" s="7">
@@ -11771,8 +12958,16 @@
       <c r="W145" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X145">
+        <f t="shared" si="28"/>
+        <v>2641780866635703.5</v>
+      </c>
+      <c r="Y145">
+        <f t="shared" si="29"/>
+        <v>2314290.4379187515</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A146" s="5">
         <v>144</v>
       </c>
@@ -11784,18 +12979,18 @@
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1816566.191063643</v>
       </c>
       <c r="F146" s="7">
         <v>5</v>
       </c>
       <c r="G146" s="9">
+        <f t="shared" si="33"/>
+        <v>24091020806255.168</v>
+      </c>
+      <c r="H146" s="9">
         <f t="shared" si="27"/>
-        <v>24091020806255.168</v>
-      </c>
-      <c r="H146" s="9">
-        <f t="shared" si="23"/>
         <v>50303.084399058469</v>
       </c>
       <c r="I146" s="7">
@@ -11836,7 +13031,7 @@
         <v>59</v>
       </c>
       <c r="U146" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>149</v>
       </c>
       <c r="V146" s="7">
@@ -11845,8 +13040,16 @@
       <c r="W146" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X146">
+        <f t="shared" si="28"/>
+        <v>2794558413525599.5</v>
+      </c>
+      <c r="Y146">
+        <f t="shared" si="29"/>
+        <v>2361536.0483827358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A147" s="5">
         <v>145</v>
       </c>
@@ -11858,18 +13061,18 @@
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1853391.6687724653</v>
       </c>
       <c r="F147" s="7">
         <v>5</v>
       </c>
       <c r="G147" s="9">
+        <f t="shared" si="33"/>
+        <v>25147177569022.473</v>
+      </c>
+      <c r="H147" s="9">
         <f t="shared" si="27"/>
-        <v>25147177569022.473</v>
-      </c>
-      <c r="H147" s="9">
-        <f t="shared" si="23"/>
         <v>50997.551290745512</v>
       </c>
       <c r="I147" s="7">
@@ -11910,7 +13113,7 @@
         <v>59</v>
       </c>
       <c r="U147" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>150</v>
       </c>
       <c r="V147" s="7">
@@ -11919,8 +13122,16 @@
       <c r="W147" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X147">
+        <f t="shared" si="28"/>
+        <v>2954793364360140.5</v>
+      </c>
+      <c r="Y147">
+        <f t="shared" si="29"/>
+        <v>2409409.1694042049</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A148" s="5">
         <v>146</v>
       </c>
@@ -11932,18 +13143,18 @@
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1890702.8627453633</v>
       </c>
       <c r="F148" s="7">
         <v>5</v>
       </c>
       <c r="G148" s="9">
+        <f t="shared" si="33"/>
+        <v>26241896959377.469</v>
+      </c>
+      <c r="H148" s="9">
         <f t="shared" si="27"/>
-        <v>26241896959377.469</v>
-      </c>
-      <c r="H148" s="9">
-        <f t="shared" si="23"/>
         <v>51697.136371712208</v>
       </c>
       <c r="I148" s="7">
@@ -11984,7 +13195,7 @@
         <v>59</v>
       </c>
       <c r="U148" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>151</v>
       </c>
       <c r="V148" s="7">
@@ -11993,8 +13204,16 @@
       <c r="W148" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X148">
+        <f t="shared" si="28"/>
+        <v>3122785738165919</v>
+      </c>
+      <c r="Y148">
+        <f t="shared" si="29"/>
+        <v>2457913.7215689723</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A149" s="5">
         <v>147</v>
       </c>
@@ -12006,18 +13225,18 @@
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1928502.7867383463</v>
       </c>
       <c r="F149" s="7">
         <v>5</v>
       </c>
       <c r="G149" s="9">
+        <f t="shared" si="33"/>
+        <v>27376308318845.816</v>
+      </c>
+      <c r="H149" s="9">
         <f t="shared" si="27"/>
-        <v>27376308318845.816</v>
-      </c>
-      <c r="H149" s="9">
-        <f t="shared" si="23"/>
         <v>52401.844815580916</v>
       </c>
       <c r="I149" s="7">
@@ -12058,7 +13277,7 @@
         <v>59</v>
       </c>
       <c r="U149" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>152</v>
       </c>
       <c r="V149" s="7">
@@ -12067,8 +13286,16 @@
       <c r="W149" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X149">
+        <f t="shared" si="28"/>
+        <v>3298845152420921</v>
+      </c>
+      <c r="Y149">
+        <f t="shared" si="29"/>
+        <v>2507053.6227598502</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A150" s="5">
         <v>148</v>
       </c>
@@ -12080,18 +13307,18 @@
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1966794.4524438977</v>
       </c>
       <c r="F150" s="7">
         <v>5</v>
       </c>
       <c r="G150" s="9">
+        <f t="shared" si="33"/>
+        <v>28551566014291.816</v>
+      </c>
+      <c r="H150" s="9">
         <f t="shared" si="27"/>
-        <v>28551566014291.816</v>
-      </c>
-      <c r="H150" s="9">
-        <f t="shared" si="23"/>
         <v>53111.681765834357</v>
       </c>
       <c r="I150" s="7">
@@ -12132,7 +13359,7 @@
         <v>59</v>
       </c>
       <c r="U150" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>153</v>
       </c>
       <c r="V150" s="7">
@@ -12141,8 +13368,16 @@
       <c r="W150" s="10">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X150">
+        <f t="shared" si="28"/>
+        <v>3483291053743601.5</v>
+      </c>
+      <c r="Y150">
+        <f t="shared" si="29"/>
+        <v>2556832.7881770669</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A151" s="5">
         <v>149</v>
       </c>
@@ -12154,18 +13389,18 @@
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2005580.8695063875</v>
       </c>
       <c r="F151" s="7">
         <v>5</v>
       </c>
       <c r="G151" s="9">
+        <f t="shared" si="33"/>
+        <v>29768849816555.801</v>
+      </c>
+      <c r="H151" s="9">
         <f t="shared" si="27"/>
-        <v>29768849816555.801</v>
-      </c>
-      <c r="H151" s="9">
-        <f t="shared" si="23"/>
         <v>53826.652336195177</v>
       </c>
       <c r="I151" s="7">
@@ -12206,7 +13441,7 @@
         <v>59</v>
       </c>
       <c r="U151" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>154</v>
       </c>
       <c r="V151" s="7">
@@ -12214,6 +13449,2474 @@
       </c>
       <c r="W151" s="10">
         <v>1.3</v>
+      </c>
+      <c r="X151">
+        <f t="shared" si="28"/>
+        <v>3676452952344641.5</v>
+      </c>
+      <c r="Y151">
+        <f t="shared" si="29"/>
+        <v>2607255.1303583039</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="15">
+        <v>150</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16">
+        <f t="shared" si="30"/>
+        <v>2044865.0455372883</v>
+      </c>
+      <c r="F152" s="16">
+        <v>5</v>
+      </c>
+      <c r="G152" s="16">
+        <f>A152^6.76+A152^4+100*A152+100</f>
+        <v>513307180540955.19</v>
+      </c>
+      <c r="H152" s="16">
+        <f t="shared" ref="H152:H181" si="34">A152^2.147+50+50*A152</f>
+        <v>54546.761610996517</v>
+      </c>
+      <c r="I152" s="16">
+        <f t="shared" ref="I152" si="35">A152^6.016+A152^4+1000*A152+100</f>
+        <v>12341923050196.191</v>
+      </c>
+      <c r="J152" s="16">
+        <v>1</v>
+      </c>
+      <c r="K152" s="16">
+        <v>11</v>
+      </c>
+      <c r="L152" s="16">
+        <v>5</v>
+      </c>
+      <c r="M152" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N152" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O152" s="16">
+        <v>30</v>
+      </c>
+      <c r="P152" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="16">
+        <v>0</v>
+      </c>
+      <c r="R152" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S152" s="16">
+        <v>4.5714285714285703</v>
+      </c>
+      <c r="T152" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U152" s="16">
+        <f t="shared" ref="U152:U181" si="36">A152+5</f>
+        <v>155</v>
+      </c>
+      <c r="V152" s="7">
+        <v>15</v>
+      </c>
+      <c r="W152" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="X152">
+        <f t="shared" si="28"/>
+        <v>7699607708114328</v>
+      </c>
+      <c r="Y152">
+        <f t="shared" si="29"/>
+        <v>2658324.559198475</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="15">
+        <v>151</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16">
+        <f t="shared" si="30"/>
+        <v>2084649.9861301971</v>
+      </c>
+      <c r="F153" s="16">
+        <v>5</v>
+      </c>
+      <c r="G153" s="16">
+        <f t="shared" ref="G153:G181" si="37">A153^6.76+A153^4+100*A153+100</f>
+        <v>536889096675819.88</v>
+      </c>
+      <c r="H153" s="16">
+        <f t="shared" si="34"/>
+        <v>55272.014645547468</v>
+      </c>
+      <c r="I153" s="16">
+        <f t="shared" ref="I153" si="38">A153^6.015+A153^4+1000*A153+100</f>
+        <v>12780975697369.68</v>
+      </c>
+      <c r="J153" s="16">
+        <v>1</v>
+      </c>
+      <c r="K153" s="16">
+        <v>11</v>
+      </c>
+      <c r="L153" s="16">
+        <v>5</v>
+      </c>
+      <c r="M153" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N153" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O153" s="16">
+        <v>30</v>
+      </c>
+      <c r="P153" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="16">
+        <v>0</v>
+      </c>
+      <c r="R153" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S153" s="16">
+        <v>4.8928571428571397</v>
+      </c>
+      <c r="T153" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U153" s="16">
+        <f t="shared" si="36"/>
+        <v>156</v>
+      </c>
+      <c r="V153" s="7">
+        <v>16</v>
+      </c>
+      <c r="W153" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="X153">
+        <f t="shared" si="28"/>
+        <v>8590225546813118</v>
+      </c>
+      <c r="Y153">
+        <f t="shared" si="29"/>
+        <v>2689198.4821079541</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="15">
+        <v>152</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16">
+        <f t="shared" si="30"/>
+        <v>2124938.6948756147</v>
+      </c>
+      <c r="F154" s="16">
+        <v>5</v>
+      </c>
+      <c r="G154" s="16">
+        <f t="shared" si="37"/>
+        <v>561387925505310.06</v>
+      </c>
+      <c r="H154" s="16">
+        <f t="shared" si="34"/>
+        <v>56002.416466489958</v>
+      </c>
+      <c r="I154" s="16">
+        <f t="shared" ref="I154" si="39">A154^6.014+A154^4+1000*A154+100</f>
+        <v>13231980836524.748</v>
+      </c>
+      <c r="J154" s="16">
+        <v>1</v>
+      </c>
+      <c r="K154" s="16">
+        <v>11</v>
+      </c>
+      <c r="L154" s="16">
+        <v>5</v>
+      </c>
+      <c r="M154" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N154" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O154" s="16">
+        <v>30</v>
+      </c>
+      <c r="P154" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="16">
+        <v>0</v>
+      </c>
+      <c r="R154" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S154" s="16">
+        <v>5.21428571428571</v>
+      </c>
+      <c r="T154" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U154" s="16">
+        <f t="shared" si="36"/>
+        <v>157</v>
+      </c>
+      <c r="V154" s="7">
+        <v>17</v>
+      </c>
+      <c r="W154" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="X154">
+        <f t="shared" si="28"/>
+        <v>9543594733590272</v>
+      </c>
+      <c r="Y154">
+        <f t="shared" si="29"/>
+        <v>2719921.5294407867</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="15">
+        <v>153</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16">
+        <f t="shared" si="30"/>
+        <v>2165734.1733755274</v>
+      </c>
+      <c r="F155" s="16">
+        <v>5</v>
+      </c>
+      <c r="G155" s="16">
+        <f t="shared" si="37"/>
+        <v>586832932278865.63</v>
+      </c>
+      <c r="H155" s="16">
+        <f t="shared" si="34"/>
+        <v>56737.972072149634</v>
+      </c>
+      <c r="I155" s="16">
+        <f t="shared" ref="I155" si="40">A155^6.013+A155^4+1000*A155+100</f>
+        <v>13695155130347.637</v>
+      </c>
+      <c r="J155" s="16">
+        <v>1</v>
+      </c>
+      <c r="K155" s="16">
+        <v>11</v>
+      </c>
+      <c r="L155" s="16">
+        <v>5</v>
+      </c>
+      <c r="M155" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N155" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O155" s="16">
+        <v>30</v>
+      </c>
+      <c r="P155" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="16">
+        <v>0</v>
+      </c>
+      <c r="R155" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S155" s="16">
+        <v>5.53571428571429</v>
+      </c>
+      <c r="T155" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U155" s="16">
+        <f t="shared" si="36"/>
+        <v>158</v>
+      </c>
+      <c r="V155" s="7">
+        <v>18</v>
+      </c>
+      <c r="W155" s="16">
+        <v>1.27</v>
+      </c>
+      <c r="X155">
+        <f t="shared" si="28"/>
+        <v>1.0562992781019582E+16</v>
+      </c>
+      <c r="Y155">
+        <f t="shared" si="29"/>
+        <v>2750482.4001869196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="15">
+        <v>154</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16">
+        <f t="shared" si="30"/>
+        <v>2207039.4212578246</v>
+      </c>
+      <c r="F156" s="16">
+        <v>5</v>
+      </c>
+      <c r="G156" s="16">
+        <f t="shared" si="37"/>
+        <v>613254115184388.25</v>
+      </c>
+      <c r="H156" s="16">
+        <f t="shared" si="34"/>
+        <v>57478.686432880611</v>
+      </c>
+      <c r="I156" s="16">
+        <f t="shared" ref="I156" si="41">A156^6.012+A156^4+1000*A156+100</f>
+        <v>14170716717642.029</v>
+      </c>
+      <c r="J156" s="16">
+        <v>1</v>
+      </c>
+      <c r="K156" s="16">
+        <v>11</v>
+      </c>
+      <c r="L156" s="16">
+        <v>5</v>
+      </c>
+      <c r="M156" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N156" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O156" s="16">
+        <v>30</v>
+      </c>
+      <c r="P156" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="16">
+        <v>0</v>
+      </c>
+      <c r="R156" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S156" s="16">
+        <v>5.8571428571428603</v>
+      </c>
+      <c r="T156" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U156" s="16">
+        <f t="shared" si="36"/>
+        <v>159</v>
+      </c>
+      <c r="V156" s="7">
+        <v>19</v>
+      </c>
+      <c r="W156" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="X156">
+        <f t="shared" si="28"/>
+        <v>1.1651828188503376E+16</v>
+      </c>
+      <c r="Y156">
+        <f t="shared" si="29"/>
+        <v>2780869.670784859</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="15">
+        <v>155</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16">
+        <f t="shared" si="30"/>
+        <v>2248857.4361904315</v>
+      </c>
+      <c r="F157" s="16">
+        <v>5</v>
+      </c>
+      <c r="G157" s="16">
+        <f t="shared" si="37"/>
+        <v>640682218733685</v>
+      </c>
+      <c r="H157" s="16">
+        <f t="shared" si="34"/>
+        <v>58224.564491402489</v>
+      </c>
+      <c r="I157" s="16">
+        <f t="shared" ref="I157" si="42">A157^6.011+A157^4+1000*A157+100</f>
+        <v>14658885182371.701</v>
+      </c>
+      <c r="J157" s="16">
+        <v>1</v>
+      </c>
+      <c r="K157" s="16">
+        <v>11</v>
+      </c>
+      <c r="L157" s="16">
+        <v>5</v>
+      </c>
+      <c r="M157" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N157" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O157" s="16">
+        <v>30</v>
+      </c>
+      <c r="P157" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="16">
+        <v>0</v>
+      </c>
+      <c r="R157" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S157" s="16">
+        <v>6.1785714285714297</v>
+      </c>
+      <c r="T157" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U157" s="16">
+        <f t="shared" si="36"/>
+        <v>160</v>
+      </c>
+      <c r="V157" s="7">
+        <v>20</v>
+      </c>
+      <c r="W157" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="X157">
+        <f t="shared" si="28"/>
+        <v>1.28136443746737E+16</v>
+      </c>
+      <c r="Y157">
+        <f t="shared" si="29"/>
+        <v>2811071.7952380395</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="15">
+        <v>156</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16">
+        <f t="shared" si="30"/>
+        <v>2291191.2138953684</v>
+      </c>
+      <c r="F158" s="16">
+        <v>5</v>
+      </c>
+      <c r="G158" s="16">
+        <f t="shared" si="37"/>
+        <v>669148747302805.38</v>
+      </c>
+      <c r="H158" s="16">
+        <f t="shared" si="34"/>
+        <v>58975.611163132708</v>
+      </c>
+      <c r="I158" s="16">
+        <f t="shared" ref="I158" si="43">A158^6.01+A158^4+1000*A158+100</f>
+        <v>15159881522255.934</v>
+      </c>
+      <c r="J158" s="16">
+        <v>1</v>
+      </c>
+      <c r="K158" s="16">
+        <v>11</v>
+      </c>
+      <c r="L158" s="16">
+        <v>5</v>
+      </c>
+      <c r="M158" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N158" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O158" s="16">
+        <v>30</v>
+      </c>
+      <c r="P158" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="16">
+        <v>0</v>
+      </c>
+      <c r="R158" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S158" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="T158" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U158" s="16">
+        <f t="shared" si="36"/>
+        <v>161</v>
+      </c>
+      <c r="V158" s="7">
+        <v>21</v>
+      </c>
+      <c r="W158" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="X158">
+        <f t="shared" si="28"/>
+        <v>1.4052123693358912E+16</v>
+      </c>
+      <c r="Y158">
+        <f t="shared" si="29"/>
+        <v>2841077.1052302569</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="15">
+        <v>157</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16">
+        <f t="shared" si="30"/>
+        <v>2334043.7481625108</v>
+      </c>
+      <c r="F159" s="16">
+        <v>5</v>
+      </c>
+      <c r="G159" s="16">
+        <f t="shared" si="37"/>
+        <v>698685978827999.75</v>
+      </c>
+      <c r="H159" s="16">
+        <f t="shared" si="34"/>
+        <v>59731.831336511488</v>
+      </c>
+      <c r="I159" s="16">
+        <f t="shared" ref="I159" si="44">A159^6.009+A159^4+1000*A159+100</f>
+        <v>15673928116927.488</v>
+      </c>
+      <c r="J159" s="16">
+        <v>1</v>
+      </c>
+      <c r="K159" s="16">
+        <v>11</v>
+      </c>
+      <c r="L159" s="16">
+        <v>5</v>
+      </c>
+      <c r="M159" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N159" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O159" s="16">
+        <v>30</v>
+      </c>
+      <c r="P159" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="16">
+        <v>0</v>
+      </c>
+      <c r="R159" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S159" s="16">
+        <v>6.8214285714285703</v>
+      </c>
+      <c r="T159" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U159" s="16">
+        <f t="shared" si="36"/>
+        <v>162</v>
+      </c>
+      <c r="V159" s="7">
+        <v>22</v>
+      </c>
+      <c r="W159" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="X159">
+        <f t="shared" si="28"/>
+        <v>1.5371091534215994E+16</v>
+      </c>
+      <c r="Y159">
+        <f t="shared" si="29"/>
+        <v>2870873.8102398883</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="15">
+        <v>158</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16">
+        <f t="shared" si="30"/>
+        <v>2377418.0308632394</v>
+      </c>
+      <c r="F160" s="16">
+        <v>5</v>
+      </c>
+      <c r="G160" s="16">
+        <f t="shared" si="37"/>
+        <v>729326978658059.25</v>
+      </c>
+      <c r="H160" s="16">
+        <f t="shared" si="34"/>
+        <v>60493.229873321907</v>
+      </c>
+      <c r="I160" s="16">
+        <f t="shared" ref="I160" si="45">A160^6.016+A160^4+1000*A160+100</f>
+        <v>16870854584638.814</v>
+      </c>
+      <c r="J160" s="16">
+        <v>1</v>
+      </c>
+      <c r="K160" s="16">
+        <v>11</v>
+      </c>
+      <c r="L160" s="16">
+        <v>5</v>
+      </c>
+      <c r="M160" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N160" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O160" s="16">
+        <v>30</v>
+      </c>
+      <c r="P160" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="16">
+        <v>0</v>
+      </c>
+      <c r="R160" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S160" s="16">
+        <v>7.1428571428571397</v>
+      </c>
+      <c r="T160" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U160" s="16">
+        <f t="shared" si="36"/>
+        <v>163</v>
+      </c>
+      <c r="V160" s="7">
+        <v>23</v>
+      </c>
+      <c r="W160" s="16">
+        <v>1.22</v>
+      </c>
+      <c r="X160">
+        <f t="shared" si="28"/>
+        <v>1.6774520509135362E+16</v>
+      </c>
+      <c r="Y160">
+        <f t="shared" si="29"/>
+        <v>2900449.9976531519</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A161" s="15">
+        <v>159</v>
+      </c>
+      <c r="B161" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16">
+        <f t="shared" si="30"/>
+        <v>2421317.0519638374</v>
+      </c>
+      <c r="F161" s="16">
+        <v>5</v>
+      </c>
+      <c r="G161" s="16">
+        <f t="shared" si="37"/>
+        <v>761105613563828.13</v>
+      </c>
+      <c r="H161" s="16">
+        <f t="shared" si="34"/>
+        <v>61259.811609003256</v>
+      </c>
+      <c r="I161" s="16">
+        <f t="shared" ref="I161" si="46">A161^6.015+A161^4+1000*A161+100</f>
+        <v>17434906689957.736</v>
+      </c>
+      <c r="J161" s="16">
+        <v>1</v>
+      </c>
+      <c r="K161" s="16">
+        <v>11</v>
+      </c>
+      <c r="L161" s="16">
+        <v>5</v>
+      </c>
+      <c r="M161" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N161" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O161" s="16">
+        <v>30</v>
+      </c>
+      <c r="P161" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="16">
+        <v>0</v>
+      </c>
+      <c r="R161" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S161" s="16">
+        <v>7.46428571428571</v>
+      </c>
+      <c r="T161" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U161" s="16">
+        <f t="shared" si="36"/>
+        <v>164</v>
+      </c>
+      <c r="V161" s="7">
+        <v>24</v>
+      </c>
+      <c r="W161" s="16">
+        <v>1.21</v>
+      </c>
+      <c r="X161">
+        <f t="shared" si="28"/>
+        <v>1.8266534725531876E+16</v>
+      </c>
+      <c r="Y161">
+        <f t="shared" si="29"/>
+        <v>2929793.632876243</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="15">
+        <v>160</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16">
+        <f t="shared" si="30"/>
+        <v>2465743.799538793</v>
+      </c>
+      <c r="F162" s="16">
+        <v>5</v>
+      </c>
+      <c r="G162" s="16">
+        <f t="shared" si="37"/>
+        <v>794056565905670.38</v>
+      </c>
+      <c r="H162" s="16">
+        <f t="shared" si="34"/>
+        <v>62031.58135295938</v>
+      </c>
+      <c r="I162" s="16">
+        <f t="shared" ref="I162" si="47">A162^6.014+A162^4+1000*A162+100</f>
+        <v>18013304079923.98</v>
+      </c>
+      <c r="J162" s="16">
+        <v>1</v>
+      </c>
+      <c r="K162" s="16">
+        <v>11</v>
+      </c>
+      <c r="L162" s="16">
+        <v>5</v>
+      </c>
+      <c r="M162" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N162" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O162" s="16">
+        <v>30</v>
+      </c>
+      <c r="P162" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q162" s="16">
+        <v>0</v>
+      </c>
+      <c r="R162" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S162" s="16">
+        <v>7.78571428571429</v>
+      </c>
+      <c r="T162" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U162" s="16">
+        <f t="shared" si="36"/>
+        <v>165</v>
+      </c>
+      <c r="V162" s="7">
+        <v>25</v>
+      </c>
+      <c r="W162" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="X162">
+        <f t="shared" si="28"/>
+        <v>1.985141414764176E+16</v>
+      </c>
+      <c r="Y162">
+        <f t="shared" si="29"/>
+        <v>2958892.5594465514</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="15">
+        <v>161</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16">
+        <f t="shared" si="30"/>
+        <v>2510701.2597838785</v>
+      </c>
+      <c r="F163" s="16">
+        <v>5</v>
+      </c>
+      <c r="G163" s="16">
+        <f t="shared" si="37"/>
+        <v>828215347959626.88</v>
+      </c>
+      <c r="H163" s="16">
+        <f t="shared" si="34"/>
+        <v>62808.54388886143</v>
+      </c>
+      <c r="I163" s="16">
+        <f t="shared" ref="I163" si="48">A163^6.013+A163^4+1000*A163+100</f>
+        <v>18606285456291.684</v>
+      </c>
+      <c r="J163" s="16">
+        <v>1</v>
+      </c>
+      <c r="K163" s="16">
+        <v>11</v>
+      </c>
+      <c r="L163" s="16">
+        <v>5</v>
+      </c>
+      <c r="M163" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N163" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O163" s="16">
+        <v>30</v>
+      </c>
+      <c r="P163" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="16">
+        <v>0</v>
+      </c>
+      <c r="R163" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S163" s="16">
+        <v>8.1071428571428594</v>
+      </c>
+      <c r="T163" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U163" s="16">
+        <f t="shared" si="36"/>
+        <v>166</v>
+      </c>
+      <c r="V163" s="7">
+        <v>26</v>
+      </c>
+      <c r="W163" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="X163">
+        <f t="shared" si="28"/>
+        <v>2.15335990469503E+16</v>
+      </c>
+      <c r="Y163">
+        <f t="shared" si="29"/>
+        <v>2987734.4991428154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A164" s="15">
+        <v>162</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16">
+        <f t="shared" si="30"/>
+        <v>2556192.4170290222</v>
+      </c>
+      <c r="F164" s="16">
+        <v>5</v>
+      </c>
+      <c r="G164" s="16">
+        <f t="shared" si="37"/>
+        <v>863618316402975.63</v>
+      </c>
+      <c r="H164" s="16">
+        <f t="shared" si="34"/>
+        <v>63590.703974944539</v>
+      </c>
+      <c r="I164" s="16">
+        <f t="shared" ref="I164" si="49">A164^6.012+A164^4+1000*A164+100</f>
+        <v>19214090815964.984</v>
+      </c>
+      <c r="J164" s="16">
+        <v>1</v>
+      </c>
+      <c r="K164" s="16">
+        <v>11</v>
+      </c>
+      <c r="L164" s="16">
+        <v>5</v>
+      </c>
+      <c r="M164" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N164" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O164" s="16">
+        <v>30</v>
+      </c>
+      <c r="P164" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="16">
+        <v>0</v>
+      </c>
+      <c r="R164" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S164" s="16">
+        <v>8.4285714285714306</v>
+      </c>
+      <c r="T164" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U164" s="16">
+        <f t="shared" si="36"/>
+        <v>167</v>
+      </c>
+      <c r="V164" s="7">
+        <v>27</v>
+      </c>
+      <c r="W164" s="16">
+        <v>1.18</v>
+      </c>
+      <c r="X164">
+        <f t="shared" si="28"/>
+        <v>2.331769454288034E+16</v>
+      </c>
+      <c r="Y164">
+        <f t="shared" si="29"/>
+        <v>3016307.0520942463</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A165" s="15">
+        <v>163</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16">
+        <f t="shared" si="30"/>
+        <v>2602220.2537511094</v>
+      </c>
+      <c r="F165" s="16">
+        <v>5</v>
+      </c>
+      <c r="G165" s="16">
+        <f t="shared" si="37"/>
+        <v>900302686960126.38</v>
+      </c>
+      <c r="H165" s="16">
+        <f t="shared" si="34"/>
+        <v>64378.066344300663</v>
+      </c>
+      <c r="I165" s="16">
+        <f t="shared" ref="I165" si="50">A165^6.011+A165^4+1000*A165+100</f>
+        <v>19836961415295.645</v>
+      </c>
+      <c r="J165" s="16">
+        <v>1</v>
+      </c>
+      <c r="K165" s="16">
+        <v>11</v>
+      </c>
+      <c r="L165" s="16">
+        <v>5</v>
+      </c>
+      <c r="M165" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N165" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O165" s="16">
+        <v>30</v>
+      </c>
+      <c r="P165" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="16">
+        <v>0</v>
+      </c>
+      <c r="R165" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S165" s="16">
+        <v>8.75</v>
+      </c>
+      <c r="T165" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U165" s="16">
+        <f t="shared" si="36"/>
+        <v>168</v>
+      </c>
+      <c r="V165" s="7">
+        <v>28</v>
+      </c>
+      <c r="W165" s="16">
+        <v>1.17</v>
+      </c>
+      <c r="X165">
+        <f t="shared" si="28"/>
+        <v>2.520847523488354E+16</v>
+      </c>
+      <c r="Y165">
+        <f t="shared" si="29"/>
+        <v>3044597.6968887979</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A166" s="15">
+        <v>164</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16">
+        <f t="shared" si="30"/>
+        <v>2648787.7505865116</v>
+      </c>
+      <c r="F166" s="16">
+        <v>5</v>
+      </c>
+      <c r="G166" s="16">
+        <f t="shared" si="37"/>
+        <v>938306549209338</v>
+      </c>
+      <c r="H166" s="16">
+        <f t="shared" si="34"/>
+        <v>65170.635705164743</v>
+      </c>
+      <c r="I166" s="16">
+        <f t="shared" ref="I166" si="51">A166^6.01+A166^4+1000*A166+100</f>
+        <v>20475139733993.789</v>
+      </c>
+      <c r="J166" s="16">
+        <v>1</v>
+      </c>
+      <c r="K166" s="16">
+        <v>11</v>
+      </c>
+      <c r="L166" s="16">
+        <v>5</v>
+      </c>
+      <c r="M166" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N166" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O166" s="16">
+        <v>30</v>
+      </c>
+      <c r="P166" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="16">
+        <v>0</v>
+      </c>
+      <c r="R166" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S166" s="16">
+        <v>9.0714285714285694</v>
+      </c>
+      <c r="T166" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U166" s="16">
+        <f t="shared" si="36"/>
+        <v>169</v>
+      </c>
+      <c r="V166" s="7">
+        <v>29</v>
+      </c>
+      <c r="W166" s="16">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="X166">
+        <f t="shared" si="28"/>
+        <v>2.72108899270708E+16</v>
+      </c>
+      <c r="Y166">
+        <f t="shared" si="29"/>
+        <v>3072593.7906803531</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A167" s="15">
+        <v>165</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16">
+        <f t="shared" si="30"/>
+        <v>2695897.8863435248</v>
+      </c>
+      <c r="F167" s="16">
+        <v>5</v>
+      </c>
+      <c r="G167" s="16">
+        <f t="shared" si="37"/>
+        <v>977668881551331.88</v>
+      </c>
+      <c r="H167" s="16">
+        <f t="shared" si="34"/>
+        <v>65968.416741196474</v>
+      </c>
+      <c r="I167" s="16">
+        <f t="shared" ref="I167" si="52">A167^6.009+A167^4+1000*A167+100</f>
+        <v>21128869438665.926</v>
+      </c>
+      <c r="J167" s="16">
+        <v>1</v>
+      </c>
+      <c r="K167" s="16">
+        <v>11</v>
+      </c>
+      <c r="L167" s="16">
+        <v>5</v>
+      </c>
+      <c r="M167" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N167" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O167" s="16">
+        <v>30</v>
+      </c>
+      <c r="P167" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="16">
+        <v>0</v>
+      </c>
+      <c r="R167" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S167" s="16">
+        <v>9.3928571428571406</v>
+      </c>
+      <c r="T167" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U167" s="16">
+        <f t="shared" si="36"/>
+        <v>170</v>
+      </c>
+      <c r="V167" s="7">
+        <v>30</v>
+      </c>
+      <c r="W167" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X167">
+        <f t="shared" si="28"/>
+        <v>2.9330066446539956E+16</v>
+      </c>
+      <c r="Y167">
+        <f t="shared" si="29"/>
+        <v>3100282.5692950534</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A168" s="15">
+        <v>166</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16">
+        <f t="shared" si="30"/>
+        <v>2743553.6380146639</v>
+      </c>
+      <c r="F168" s="16">
+        <v>5</v>
+      </c>
+      <c r="G168" s="16">
+        <f t="shared" si="37"/>
+        <v>1018429566340322.9</v>
+      </c>
+      <c r="H168" s="16">
+        <f t="shared" si="34"/>
+        <v>66771.414111758204</v>
+      </c>
+      <c r="I168" s="16">
+        <f t="shared" ref="I168" si="53">A168^6.016+A168^4+1000*A168+100</f>
+        <v>22708308375597.066</v>
+      </c>
+      <c r="J168" s="16">
+        <v>1</v>
+      </c>
+      <c r="K168" s="16">
+        <v>11</v>
+      </c>
+      <c r="L168" s="16">
+        <v>5</v>
+      </c>
+      <c r="M168" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N168" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O168" s="16">
+        <v>30</v>
+      </c>
+      <c r="P168" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="16">
+        <v>0</v>
+      </c>
+      <c r="R168" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S168" s="16">
+        <v>9.7142857142857206</v>
+      </c>
+      <c r="T168" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U168" s="16">
+        <f t="shared" si="36"/>
+        <v>171</v>
+      </c>
+      <c r="V168" s="7">
+        <v>31</v>
+      </c>
+      <c r="W168" s="16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X168">
+        <f t="shared" si="28"/>
+        <v>3.1571316556550008E+16</v>
+      </c>
+      <c r="Y168">
+        <f t="shared" si="29"/>
+        <v>3127651.1473367168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A169" s="15">
+        <v>167</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16">
+        <f t="shared" si="30"/>
+        <v>2791757.9807886742</v>
+      </c>
+      <c r="F169" s="16">
+        <v>5</v>
+      </c>
+      <c r="G169" s="16">
+        <f t="shared" si="37"/>
+        <v>1060629405178273.5</v>
+      </c>
+      <c r="H169" s="16">
+        <f t="shared" si="34"/>
+        <v>67579.63245218595</v>
+      </c>
+      <c r="I169" s="16">
+        <f t="shared" ref="I169" si="54">A169^6.015+A169^4+1000*A169+100</f>
+        <v>23423619159473.289</v>
+      </c>
+      <c r="J169" s="16">
+        <v>1</v>
+      </c>
+      <c r="K169" s="16">
+        <v>11</v>
+      </c>
+      <c r="L169" s="16">
+        <v>5</v>
+      </c>
+      <c r="M169" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N169" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O169" s="16">
+        <v>30</v>
+      </c>
+      <c r="P169" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="16">
+        <v>0</v>
+      </c>
+      <c r="R169" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S169" s="16">
+        <v>10.035714285714301</v>
+      </c>
+      <c r="T169" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U169" s="16">
+        <f t="shared" si="36"/>
+        <v>172</v>
+      </c>
+      <c r="V169" s="7">
+        <v>32</v>
+      </c>
+      <c r="W169" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="X169">
+        <f t="shared" si="28"/>
+        <v>3.3940140965704752E+16</v>
+      </c>
+      <c r="Y169">
+        <f t="shared" si="29"/>
+        <v>3154686.5182912014</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A170" s="15">
+        <v>168</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16">
+        <f t="shared" si="30"/>
+        <v>2840513.8880625684</v>
+      </c>
+      <c r="F170" s="16">
+        <v>5</v>
+      </c>
+      <c r="G170" s="16">
+        <f t="shared" si="37"/>
+        <v>1104310134373263</v>
+      </c>
+      <c r="H170" s="16">
+        <f t="shared" si="34"/>
+        <v>68393.076374057593</v>
+      </c>
+      <c r="I170" s="16">
+        <f t="shared" ref="I170" si="55">A170^6.014+A170^4+1000*A170+100</f>
+        <v>24155962422575.223</v>
+      </c>
+      <c r="J170" s="16">
+        <v>1</v>
+      </c>
+      <c r="K170" s="16">
+        <v>11</v>
+      </c>
+      <c r="L170" s="16">
+        <v>5</v>
+      </c>
+      <c r="M170" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N170" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O170" s="16">
+        <v>30</v>
+      </c>
+      <c r="P170" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="16">
+        <v>0</v>
+      </c>
+      <c r="R170" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S170" s="16">
+        <v>10.3571428571429</v>
+      </c>
+      <c r="T170" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U170" s="16">
+        <f t="shared" si="36"/>
+        <v>173</v>
+      </c>
+      <c r="V170" s="7">
+        <v>33</v>
+      </c>
+      <c r="W170" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="X170">
+        <f t="shared" si="28"/>
+        <v>3.644223443431768E+16</v>
+      </c>
+      <c r="Y170">
+        <f t="shared" si="29"/>
+        <v>3181375.554630077</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A171" s="15">
+        <v>169</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16">
+        <f t="shared" si="30"/>
+        <v>2889824.3314534002</v>
+      </c>
+      <c r="F171" s="16">
+        <v>5</v>
+      </c>
+      <c r="G171" s="16">
+        <f t="shared" si="37"/>
+        <v>1149514440562511</v>
+      </c>
+      <c r="H171" s="16">
+        <f t="shared" si="34"/>
+        <v>69211.750465455654</v>
+      </c>
+      <c r="I171" s="16">
+        <f t="shared" ref="I171" si="56">A171^6.013+A171^4+1000*A171+100</f>
+        <v>24905598489550.094</v>
+      </c>
+      <c r="J171" s="16">
+        <v>1</v>
+      </c>
+      <c r="K171" s="16">
+        <v>11</v>
+      </c>
+      <c r="L171" s="16">
+        <v>5</v>
+      </c>
+      <c r="M171" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N171" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O171" s="16">
+        <v>30</v>
+      </c>
+      <c r="P171" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="16">
+        <v>0</v>
+      </c>
+      <c r="R171" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S171" s="16">
+        <v>10.6785714285714</v>
+      </c>
+      <c r="T171" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U171" s="16">
+        <f t="shared" si="36"/>
+        <v>174</v>
+      </c>
+      <c r="V171" s="7">
+        <v>34</v>
+      </c>
+      <c r="W171" s="16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X171">
+        <f t="shared" si="28"/>
+        <v>3.9083490979125376E+16</v>
+      </c>
+      <c r="Y171">
+        <f t="shared" si="29"/>
+        <v>3207705.0079132747</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A172" s="15">
+        <v>170</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16">
+        <f t="shared" si="30"/>
+        <v>2939692.2808098868</v>
+      </c>
+      <c r="F172" s="16">
+        <v>5</v>
+      </c>
+      <c r="G172" s="16">
+        <f t="shared" si="37"/>
+        <v>1196285976501000.3</v>
+      </c>
+      <c r="H172" s="16">
+        <f t="shared" si="34"/>
+        <v>70035.659291225966</v>
+      </c>
+      <c r="I172" s="16">
+        <f t="shared" ref="I172" si="57">A172^6.012+A172^4+1000*A172+100</f>
+        <v>25672788754914.484</v>
+      </c>
+      <c r="J172" s="16">
+        <v>1</v>
+      </c>
+      <c r="K172" s="16">
+        <v>11</v>
+      </c>
+      <c r="L172" s="16">
+        <v>5</v>
+      </c>
+      <c r="M172" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N172" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O172" s="16">
+        <v>30</v>
+      </c>
+      <c r="P172" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="16">
+        <v>0</v>
+      </c>
+      <c r="R172" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S172" s="16">
+        <v>11</v>
+      </c>
+      <c r="T172" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U172" s="16">
+        <f t="shared" si="36"/>
+        <v>175</v>
+      </c>
+      <c r="V172" s="7">
+        <v>35</v>
+      </c>
+      <c r="W172" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="28"/>
+        <v>4.1870009177535008E+16</v>
+      </c>
+      <c r="Y172">
+        <f t="shared" si="29"/>
+        <v>3233661.5088908756</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A173" s="15">
+        <v>171</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16">
+        <f t="shared" si="30"/>
+        <v>2990120.7042239355</v>
+      </c>
+      <c r="F173" s="16">
+        <v>5</v>
+      </c>
+      <c r="G173" s="16">
+        <f t="shared" si="37"/>
+        <v>1244669377016334.8</v>
+      </c>
+      <c r="H173" s="16">
+        <f t="shared" si="34"/>
+        <v>70864.807393231342</v>
+      </c>
+      <c r="I173" s="16">
+        <f t="shared" ref="I173" si="58">A173^6.011+A173^4+1000*A173+100</f>
+        <v>26457795642878.691</v>
+      </c>
+      <c r="J173" s="16">
+        <v>1</v>
+      </c>
+      <c r="K173" s="16">
+        <v>11</v>
+      </c>
+      <c r="L173" s="16">
+        <v>5</v>
+      </c>
+      <c r="M173" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N173" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O173" s="16">
+        <v>30</v>
+      </c>
+      <c r="P173" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="16">
+        <v>0</v>
+      </c>
+      <c r="R173" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S173" s="16">
+        <v>11.3214285714286</v>
+      </c>
+      <c r="T173" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U173" s="16">
+        <f t="shared" si="36"/>
+        <v>176</v>
+      </c>
+      <c r="V173" s="7">
+        <v>36</v>
+      </c>
+      <c r="W173" s="16">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="28"/>
+        <v>4.4808097572588048E+16</v>
+      </c>
+      <c r="Y173">
+        <f t="shared" si="29"/>
+        <v>3259231.5676040901</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A174" s="15">
+        <v>172</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16">
+        <f t="shared" si="30"/>
+        <v>3041112.5680420124</v>
+      </c>
+      <c r="F174" s="16">
+        <v>5</v>
+      </c>
+      <c r="G174" s="16">
+        <f t="shared" si="37"/>
+        <v>1294710275130599.3</v>
+      </c>
+      <c r="H174" s="16">
+        <f t="shared" si="34"/>
+        <v>71699.199290601915</v>
+      </c>
+      <c r="I174" s="16">
+        <f t="shared" ref="I174" si="59">A174^6.01+A174^4+1000*A174+100</f>
+        <v>27260882566856.184</v>
+      </c>
+      <c r="J174" s="16">
+        <v>1</v>
+      </c>
+      <c r="K174" s="16">
+        <v>11</v>
+      </c>
+      <c r="L174" s="16">
+        <v>5</v>
+      </c>
+      <c r="M174" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N174" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O174" s="16">
+        <v>30</v>
+      </c>
+      <c r="P174" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="16">
+        <v>0</v>
+      </c>
+      <c r="R174" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S174" s="16">
+        <v>11.6428571428571</v>
+      </c>
+      <c r="T174" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U174" s="16">
+        <f t="shared" si="36"/>
+        <v>177</v>
+      </c>
+      <c r="V174" s="7">
+        <v>37</v>
+      </c>
+      <c r="W174" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="X174">
+        <f t="shared" si="28"/>
+        <v>4.7904280179832176E+16</v>
+      </c>
+      <c r="Y174">
+        <f t="shared" si="29"/>
+        <v>3284401.5734853735</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A175" s="15">
+        <v>173</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16">
+        <f t="shared" si="30"/>
+        <v>3092670.8368763952</v>
+      </c>
+      <c r="F175" s="16">
+        <v>5</v>
+      </c>
+      <c r="G175" s="16">
+        <f t="shared" si="37"/>
+        <v>1346455318350100.5</v>
+      </c>
+      <c r="H175" s="16">
+        <f t="shared" si="34"/>
+        <v>72538.839479980932</v>
+      </c>
+      <c r="I175" s="16">
+        <f t="shared" ref="I175" si="60">A175^6.009+A175^4+1000*A175+100</f>
+        <v>28082313888669.813</v>
+      </c>
+      <c r="J175" s="16">
+        <v>1</v>
+      </c>
+      <c r="K175" s="16">
+        <v>11</v>
+      </c>
+      <c r="L175" s="16">
+        <v>5</v>
+      </c>
+      <c r="M175" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N175" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O175" s="16">
+        <v>30</v>
+      </c>
+      <c r="P175" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q175" s="16">
+        <v>0</v>
+      </c>
+      <c r="R175" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S175" s="16">
+        <v>11.964285714285699</v>
+      </c>
+      <c r="T175" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U175" s="16">
+        <f t="shared" si="36"/>
+        <v>178</v>
+      </c>
+      <c r="V175" s="7">
+        <v>38</v>
+      </c>
+      <c r="W175" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="28"/>
+        <v>5.1165302097303816E+16</v>
+      </c>
+      <c r="Y175">
+        <f t="shared" si="29"/>
+        <v>3309157.7954577431</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="15">
+        <v>174</v>
+      </c>
+      <c r="B176" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16">
+        <f t="shared" si="30"/>
+        <v>3144798.4736161758</v>
+      </c>
+      <c r="F176" s="16">
+        <v>5</v>
+      </c>
+      <c r="G176" s="16">
+        <f t="shared" si="37"/>
+        <v>1399952185123466.3</v>
+      </c>
+      <c r="H176" s="16">
+        <f t="shared" si="34"/>
+        <v>73383.732435765894</v>
+      </c>
+      <c r="I176" s="16">
+        <f>A176^6.016+A176^4+1000*A176+100</f>
+        <v>30140988270724.641</v>
+      </c>
+      <c r="J176" s="16">
+        <v>1</v>
+      </c>
+      <c r="K176" s="16">
+        <v>11</v>
+      </c>
+      <c r="L176" s="16">
+        <v>5</v>
+      </c>
+      <c r="M176" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N176" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O176" s="16">
+        <v>30</v>
+      </c>
+      <c r="P176" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="16">
+        <v>0</v>
+      </c>
+      <c r="R176" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S176" s="16">
+        <v>12.285714285714301</v>
+      </c>
+      <c r="T176" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U176" s="16">
+        <f t="shared" si="36"/>
+        <v>179</v>
+      </c>
+      <c r="V176" s="7">
+        <v>39</v>
+      </c>
+      <c r="W176" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="X176">
+        <f t="shared" si="28"/>
+        <v>5.4598135219815184E+16</v>
+      </c>
+      <c r="Y176">
+        <f t="shared" si="29"/>
+        <v>3333486.3820331465</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A177" s="15">
+        <v>175</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16">
+        <f t="shared" si="30"/>
+        <v>3197498.4394383049</v>
+      </c>
+      <c r="F177" s="16">
+        <v>5</v>
+      </c>
+      <c r="G177" s="16">
+        <f t="shared" si="37"/>
+        <v>1455249601469183.8</v>
+      </c>
+      <c r="H177" s="16">
+        <f t="shared" si="34"/>
+        <v>74233.88261034686</v>
+      </c>
+      <c r="I177" s="16">
+        <f>A177^6.015+A177^4+1000*A177+100</f>
+        <v>31037518326092.41</v>
+      </c>
+      <c r="J177" s="16">
+        <v>1</v>
+      </c>
+      <c r="K177" s="16">
+        <v>11</v>
+      </c>
+      <c r="L177" s="16">
+        <v>5</v>
+      </c>
+      <c r="M177" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N177" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O177" s="16">
+        <v>30</v>
+      </c>
+      <c r="P177" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="16">
+        <v>0</v>
+      </c>
+      <c r="R177" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S177" s="16">
+        <v>12.6071428571429</v>
+      </c>
+      <c r="T177" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U177" s="16">
+        <f t="shared" si="36"/>
+        <v>180</v>
+      </c>
+      <c r="V177" s="7">
+        <v>40</v>
+      </c>
+      <c r="W177" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="X177">
+        <f t="shared" si="28"/>
+        <v>5.8209984058767352E+16</v>
+      </c>
+      <c r="Y177">
+        <f t="shared" si="29"/>
+        <v>3357373.3614102202</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A178" s="15">
+        <v>176</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16">
+        <f t="shared" si="30"/>
+        <v>3250773.6938183582</v>
+      </c>
+      <c r="F178" s="16">
+        <v>5</v>
+      </c>
+      <c r="G178" s="16">
+        <f t="shared" si="37"/>
+        <v>1512397357772982.5</v>
+      </c>
+      <c r="H178" s="16">
+        <f t="shared" si="34"/>
+        <v>75089.294434339507</v>
+      </c>
+      <c r="I178" s="16">
+        <f>A178^6.014+A178^4+1000*A178+100</f>
+        <v>31954073348950.547</v>
+      </c>
+      <c r="J178" s="16">
+        <v>1</v>
+      </c>
+      <c r="K178" s="16">
+        <v>11</v>
+      </c>
+      <c r="L178" s="16">
+        <v>5</v>
+      </c>
+      <c r="M178" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N178" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O178" s="16">
+        <v>30</v>
+      </c>
+      <c r="P178" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="16">
+        <v>0</v>
+      </c>
+      <c r="R178" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S178" s="16">
+        <v>12.9285714285714</v>
+      </c>
+      <c r="T178" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U178" s="16">
+        <f t="shared" si="36"/>
+        <v>181</v>
+      </c>
+      <c r="V178" s="7">
+        <v>41</v>
+      </c>
+      <c r="W178" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="X178">
+        <f t="shared" si="28"/>
+        <v>6.200829166869228E+16</v>
+      </c>
+      <c r="Y178">
+        <f t="shared" si="29"/>
+        <v>3380804.6415710929</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A179" s="15">
+        <v>177</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16">
+        <f t="shared" si="30"/>
+        <v>3304627.1945412653</v>
+      </c>
+      <c r="F179" s="16">
+        <v>5</v>
+      </c>
+      <c r="G179" s="16">
+        <f t="shared" si="37"/>
+        <v>1571446325756228.8</v>
+      </c>
+      <c r="H179" s="16">
+        <f t="shared" si="34"/>
+        <v>75949.97231681642</v>
+      </c>
+      <c r="I179" s="16">
+        <f>A179^6.013+A179^4+1000*A179+100</f>
+        <v>32890934513751.012</v>
+      </c>
+      <c r="J179" s="16">
+        <v>1</v>
+      </c>
+      <c r="K179" s="16">
+        <v>11</v>
+      </c>
+      <c r="L179" s="16">
+        <v>5</v>
+      </c>
+      <c r="M179" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N179" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O179" s="16">
+        <v>30</v>
+      </c>
+      <c r="P179" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q179" s="16">
+        <v>0</v>
+      </c>
+      <c r="R179" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S179" s="16">
+        <v>13.25</v>
+      </c>
+      <c r="T179" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U179" s="16">
+        <f t="shared" si="36"/>
+        <v>182</v>
+      </c>
+      <c r="V179" s="7">
+        <v>42</v>
+      </c>
+      <c r="W179" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="X179">
+        <f t="shared" si="28"/>
+        <v>6.6000745681761608E+16</v>
+      </c>
+      <c r="Y179">
+        <f t="shared" si="29"/>
+        <v>3403766.0103775035</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A180" s="15">
+        <v>178</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16">
+        <f t="shared" si="30"/>
+        <v>3359061.8977118405</v>
+      </c>
+      <c r="F180" s="16">
+        <v>5</v>
+      </c>
+      <c r="G180" s="16">
+        <f t="shared" si="37"/>
+        <v>1632448475615534.8</v>
+      </c>
+      <c r="H180" s="16">
+        <f t="shared" si="34"/>
+        <v>76815.920645531733</v>
+      </c>
+      <c r="I180" s="16">
+        <f>A180^6.012+A180^4+1000*A180+100</f>
+        <v>33848383795367.422</v>
+      </c>
+      <c r="J180" s="16">
+        <v>1</v>
+      </c>
+      <c r="K180" s="16">
+        <v>11</v>
+      </c>
+      <c r="L180" s="16">
+        <v>5</v>
+      </c>
+      <c r="M180" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N180" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O180" s="16">
+        <v>30</v>
+      </c>
+      <c r="P180" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q180" s="16">
+        <v>0</v>
+      </c>
+      <c r="R180" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S180" s="16">
+        <v>13.5714285714286</v>
+      </c>
+      <c r="T180" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U180" s="16">
+        <f t="shared" si="36"/>
+        <v>183</v>
+      </c>
+      <c r="V180" s="7">
+        <v>43</v>
+      </c>
+      <c r="W180" s="16">
+        <v>1.02</v>
+      </c>
+      <c r="X180">
+        <f t="shared" si="28"/>
+        <v>7.0195284451467992E+16</v>
+      </c>
+      <c r="Y180">
+        <f t="shared" si="29"/>
+        <v>3426243.1356660775</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A181" s="15">
+        <v>179</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16">
+        <f t="shared" si="30"/>
+        <v>3414080.7577652303</v>
+      </c>
+      <c r="F181" s="16">
+        <v>5</v>
+      </c>
+      <c r="G181" s="16">
+        <f t="shared" si="37"/>
+        <v>1695456893334868.3</v>
+      </c>
+      <c r="H181" s="16">
+        <f t="shared" si="34"/>
+        <v>77687.143787144916</v>
+      </c>
+      <c r="I181" s="16">
+        <f>A181^6.011+A181^4+1000*A181+100</f>
+        <v>34826703924786.383</v>
+      </c>
+      <c r="J181" s="16">
+        <v>1</v>
+      </c>
+      <c r="K181" s="16">
+        <v>11</v>
+      </c>
+      <c r="L181" s="16">
+        <v>5</v>
+      </c>
+      <c r="M181" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N181" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O181" s="16">
+        <v>30</v>
+      </c>
+      <c r="P181" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q181" s="16">
+        <v>0</v>
+      </c>
+      <c r="R181" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S181" s="16">
+        <v>13.8928571428571</v>
+      </c>
+      <c r="T181" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U181" s="16">
+        <f t="shared" si="36"/>
+        <v>184</v>
+      </c>
+      <c r="V181" s="7">
+        <v>44</v>
+      </c>
+      <c r="W181" s="16">
+        <v>1.01</v>
+      </c>
+      <c r="X181">
+        <f t="shared" si="28"/>
+        <v>7.4600103306734208E+16</v>
+      </c>
+      <c r="Y181">
+        <f t="shared" si="29"/>
+        <v>3448221.5653428826</v>
       </c>
     </row>
   </sheetData>
@@ -12232,9 +15935,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12290,7 +15993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12349,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12409,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12469,7 +16172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12529,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -12589,7 +16292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12649,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12709,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -12769,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -12829,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -12889,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -12949,7 +16652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -13009,7 +16712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -13069,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -13129,7 +16832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -13189,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -13249,7 +16952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -13309,7 +17012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43533E69-5964-422E-8CF2-E9BC82370F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A21623B-6412-41ED-9AF2-2320BAEA332E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="84">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,14 +550,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10-1</t>
-  </si>
-  <si>
     <t>bosshp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bossattackpower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U156" sqref="U156"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182:XFD191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1213,10 +1234,10 @@
         <v>61</v>
       </c>
       <c r="X1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" t="s">
         <v>77</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
@@ -13467,7 +13488,7 @@
         <v>56</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D152" s="16"/>
       <c r="E152" s="16">
@@ -13549,7 +13570,7 @@
         <v>56</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D153" s="16"/>
       <c r="E153" s="16">
@@ -13631,7 +13652,7 @@
         <v>56</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D154" s="16"/>
       <c r="E154" s="16">
@@ -13713,7 +13734,7 @@
         <v>56</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D155" s="16"/>
       <c r="E155" s="16">
@@ -13795,7 +13816,7 @@
         <v>56</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D156" s="16"/>
       <c r="E156" s="16">
@@ -13877,7 +13898,7 @@
         <v>56</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D157" s="16"/>
       <c r="E157" s="16">
@@ -13959,7 +13980,7 @@
         <v>56</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D158" s="16"/>
       <c r="E158" s="16">
@@ -14041,7 +14062,7 @@
         <v>56</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D159" s="16"/>
       <c r="E159" s="16">
@@ -14123,7 +14144,7 @@
         <v>56</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="16">
@@ -14205,7 +14226,7 @@
         <v>56</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D161" s="16"/>
       <c r="E161" s="16">
@@ -14287,7 +14308,7 @@
         <v>56</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D162" s="16"/>
       <c r="E162" s="16">
@@ -14369,7 +14390,7 @@
         <v>56</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D163" s="16"/>
       <c r="E163" s="16">
@@ -14451,7 +14472,7 @@
         <v>56</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D164" s="16"/>
       <c r="E164" s="16">
@@ -14533,7 +14554,7 @@
         <v>56</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D165" s="16"/>
       <c r="E165" s="16">
@@ -14615,7 +14636,7 @@
         <v>56</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D166" s="16"/>
       <c r="E166" s="16">
@@ -14697,7 +14718,7 @@
         <v>56</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D167" s="16"/>
       <c r="E167" s="16">
@@ -14779,7 +14800,7 @@
         <v>56</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D168" s="16"/>
       <c r="E168" s="16">
@@ -14861,7 +14882,7 @@
         <v>56</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D169" s="16"/>
       <c r="E169" s="16">
@@ -14943,7 +14964,7 @@
         <v>56</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D170" s="16"/>
       <c r="E170" s="16">
@@ -15025,7 +15046,7 @@
         <v>56</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D171" s="16"/>
       <c r="E171" s="16">
@@ -15107,7 +15128,7 @@
         <v>56</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D172" s="16"/>
       <c r="E172" s="16">
@@ -15189,7 +15210,7 @@
         <v>56</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D173" s="16"/>
       <c r="E173" s="16">
@@ -15271,7 +15292,7 @@
         <v>56</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D174" s="16"/>
       <c r="E174" s="16">
@@ -15353,7 +15374,7 @@
         <v>56</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="16">
@@ -15435,7 +15456,7 @@
         <v>56</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16">
@@ -15517,7 +15538,7 @@
         <v>56</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16">
@@ -15599,7 +15620,7 @@
         <v>56</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D178" s="16"/>
       <c r="E178" s="16">
@@ -15681,7 +15702,7 @@
         <v>56</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D179" s="16"/>
       <c r="E179" s="16">
@@ -15763,7 +15784,7 @@
         <v>56</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D180" s="16"/>
       <c r="E180" s="16">
@@ -15845,7 +15866,7 @@
         <v>56</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D181" s="16"/>
       <c r="E181" s="16">

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A21623B-6412-41ED-9AF2-2320BAEA332E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FE193D-4E27-4EB9-B789-B3CB960528AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -1134,36 +1134,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182:XFD191"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="50.08203125" customWidth="1"/>
+    <col min="7" max="7" width="50.125" customWidth="1"/>
     <col min="8" max="8" width="35.5" customWidth="1"/>
     <col min="9" max="9" width="43.25" customWidth="1"/>
-    <col min="10" max="10" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
-    <col min="13" max="13" width="21.58203125" customWidth="1"/>
+    <col min="13" max="13" width="21.625" customWidth="1"/>
     <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="13.08203125" customWidth="1"/>
-    <col min="16" max="16" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="18" max="18" width="12.25" customWidth="1"/>
     <col min="19" max="19" width="16.5" customWidth="1"/>
-    <col min="20" max="20" width="14.58203125" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.625" customWidth="1"/>
+    <col min="22" max="22" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>9.7035431119827944</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>31.44814194041076</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>72.429806866237499</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>138.34273740962746</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>234.73723162348469</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>367.05206215549845</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>540.63519501470978</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>760.75817808017086</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>1032.6267051415668</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1361.3886930330748</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1752.1406515738277</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>2209.9328315938124</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>2739.7734688215892</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>3346.6323403714891</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>4035.443786677281</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>4811.1093097167341</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>5678.4998298418568</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>6642.457663604524</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>7707.7982707122565</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>8879.3118078358402</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>10161.764519240285</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>11559.899988348816</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>13078.440269849438</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>14722.086918453177</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>16495.521927659051</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>18403.4085896873</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>20450.392285982252</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>22641.101216257244</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>24980.147072885105</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>27472.125666477834</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>30121.617507697039</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>32933.188349672651</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>35911.389694844693</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>39060.759269569513</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>42385.82146942884</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>45891.087777835673</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>49581.057160236145</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>53460.216435950766</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>57533.040629479074</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>61803.993302898867</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>66277.526870825328</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>70958.082899248038</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>75850.09238943462</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>80957.97604797814</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>86286.14454396331</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>47</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>91838.998754138709</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>97620.92999690451</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>49</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>103636.32025584912</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>109889.54239351407</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>116384.96035600253</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>123126.92936899797</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>130119.79612571781</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>137367.89896728087</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>144875.56805593148</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>152647.12554153061</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>57</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>160686.8857216957</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>168999.15519593674</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>59</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>177588.23301411871</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>186458.41081954719</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>195613.97298697126</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>205059.19675575127</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>214798.35235845105</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>224835.70314507178</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>235175.50570315169</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>245822.00997392109</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>256779.45936471428</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>268052.09085780045</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>279644.13511580491</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>291559.81658388453</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>303803.35358878376</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>316378.95843492966</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>329290.8374976801</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>342543.19131385826</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>356140.21466967644</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>370086.09668618033</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>77</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>384385.02090228372</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>399041.16535552318</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>79</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>414058.70266060741</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>429441.8000858521</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>81</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>445194.6196275854</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>82</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>461321.31808259606</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>83</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>477826.0471187153</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>84</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>494712.95334357803</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>85</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>511986.17837165849</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>86</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>529649.85888961714</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>87</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>547708.12672004884</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>88</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>566165.10888366099</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>89</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>585024.92765995639</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>604291.70064648264</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>91</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>623969.54081665177</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>644062.55657625129</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>93</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>664574.85181861301</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>94</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>685510.52597855276</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>95</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>706873.67408508318</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>96</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>728668.38681293617</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>97</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>750898.75053296855</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>98</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>773568.84736145311</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>99</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>796682.75520829705</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>100</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>820244.5478242524</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>101</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>844258.294847087</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>102</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>868728.0618468296</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>103</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>893657.91037003952</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>104</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>919051.89798317826</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>105</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>944914.07831510436</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>106</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>971248.50109870313</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>107</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>998059.21221167641</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>108</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1025350.2537165451</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>109</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>1053125.663899838</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>110</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>1081389.4773105599</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>111</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>1110145.7247978644</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>112</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>1139398.4335480686</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>113</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>1169151.6271209132</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>114</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>1199409.3254851738</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>115</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>1230175.545053612</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>116</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>1261454.2987172659</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>117</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>1293249.5958791235</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>118</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>1325565.4424871921</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>119</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>1358405.8410669568</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>120</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>1391774.7907532882</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>121</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>1425676.2873217722</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>122</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>1460114.3232194716</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>123</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>1495092.8875951949</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>124</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>1530615.9663292291</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>125</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>1566687.5420625252</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>126</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>1603311.5942254616</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>127</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>1640492.0990660756</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>128</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>1678233.0296778253</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>129</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>1716538.356026913</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>130</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>1755412.0449791441</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>131</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>1794858.0603263676</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>132</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>1834880.3628124702</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>133</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>1875482.9101589494</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>134</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>1916669.6570901098</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>135</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>1958444.5553578401</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>136</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>2000811.5537659959</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>137</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>2043774.5981944196</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>138</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>2087337.6316225836</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>139</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>2131504.5941528608</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>140</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>2176279.4230334717</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>141</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>2221666.0526810479</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>142</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>2267668.4147028616</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>143</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>2314290.4379187515</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>144</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>2361536.0483827358</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>145</v>
       </c>
@@ -13152,7 +13152,7 @@
         <v>2409409.1694042049</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>146</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>2457913.7215689723</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>147</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>2507053.6227598502</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>148</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>2556832.7881770669</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>149</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>2607255.1303583039</v>
       </c>
     </row>
-    <row r="152" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="15">
         <v>150</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>2658324.559198475</v>
       </c>
     </row>
-    <row r="153" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
         <v>151</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>2689198.4821079541</v>
       </c>
     </row>
-    <row r="154" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="15">
         <v>152</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>2719921.5294407867</v>
       </c>
     </row>
-    <row r="155" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
         <v>153</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>2750482.4001869196</v>
       </c>
     </row>
-    <row r="156" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
         <v>154</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>2780869.670784859</v>
       </c>
     </row>
-    <row r="157" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="15">
         <v>155</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>2811071.7952380395</v>
       </c>
     </row>
-    <row r="158" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
         <v>156</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>2841077.1052302569</v>
       </c>
     </row>
-    <row r="159" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
         <v>157</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>2870873.8102398883</v>
       </c>
     </row>
-    <row r="160" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
         <v>158</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>2900449.9976531519</v>
       </c>
     </row>
-    <row r="161" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
         <v>159</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>2929793.632876243</v>
       </c>
     </row>
-    <row r="162" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
         <v>160</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>2958892.5594465514</v>
       </c>
     </row>
-    <row r="163" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
         <v>161</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>2987734.4991428154</v>
       </c>
     </row>
-    <row r="164" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="15">
         <v>162</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>3016307.0520942463</v>
       </c>
     </row>
-    <row r="165" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
         <v>163</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>3044597.6968887979</v>
       </c>
     </row>
-    <row r="166" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="15">
         <v>164</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>3072593.7906803531</v>
       </c>
     </row>
-    <row r="167" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="15">
         <v>165</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>3100282.5692950534</v>
       </c>
     </row>
-    <row r="168" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
         <v>166</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>3127651.1473367168</v>
       </c>
     </row>
-    <row r="169" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="15">
         <v>167</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>3154686.5182912014</v>
       </c>
     </row>
-    <row r="170" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
         <v>168</v>
       </c>
@@ -15038,7 +15038,7 @@
         <v>3181375.554630077</v>
       </c>
     </row>
-    <row r="171" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
         <v>169</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>3207705.0079132747</v>
       </c>
     </row>
-    <row r="172" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
         <v>170</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>3233661.5088908756</v>
       </c>
     </row>
-    <row r="173" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
         <v>171</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>3259231.5676040901</v>
       </c>
     </row>
-    <row r="174" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
         <v>172</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>3284401.5734853735</v>
       </c>
     </row>
-    <row r="175" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15">
         <v>173</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>3309157.7954577431</v>
       </c>
     </row>
-    <row r="176" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="15">
         <v>174</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>3333486.3820331465</v>
       </c>
     </row>
-    <row r="177" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
         <v>175</v>
       </c>
@@ -15549,8 +15549,8 @@
         <v>5</v>
       </c>
       <c r="G177" s="16">
-        <f t="shared" si="37"/>
-        <v>1455249601469183.8</v>
+        <f>A177^6.8+A177^4+100*A177+100</f>
+        <v>1789200285195038.5</v>
       </c>
       <c r="H177" s="16">
         <f t="shared" si="34"/>
@@ -15605,14 +15605,14 @@
       </c>
       <c r="X177">
         <f t="shared" si="28"/>
-        <v>5.8209984058767352E+16</v>
+        <v>7.1568011407801536E+16</v>
       </c>
       <c r="Y177">
         <f t="shared" si="29"/>
         <v>3357373.3614102202</v>
       </c>
     </row>
-    <row r="178" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
         <v>176</v>
       </c>
@@ -15631,8 +15631,8 @@
         <v>5</v>
       </c>
       <c r="G178" s="16">
-        <f t="shared" si="37"/>
-        <v>1512397357772982.5</v>
+        <f t="shared" ref="G178:G181" si="61">A178^6.8+A178^4+100*A178+100</f>
+        <v>1859886170612449.5</v>
       </c>
       <c r="H178" s="16">
         <f t="shared" si="34"/>
@@ -15687,14 +15687,14 @@
       </c>
       <c r="X178">
         <f t="shared" si="28"/>
-        <v>6.200829166869228E+16</v>
+        <v>7.6255332995110432E+16</v>
       </c>
       <c r="Y178">
         <f t="shared" si="29"/>
         <v>3380804.6415710929</v>
       </c>
     </row>
-    <row r="179" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="15">
         <v>177</v>
       </c>
@@ -15713,8 +15713,8 @@
         <v>5</v>
       </c>
       <c r="G179" s="16">
-        <f t="shared" si="37"/>
-        <v>1571446325756228.8</v>
+        <f t="shared" si="61"/>
+        <v>1932940259921638</v>
       </c>
       <c r="H179" s="16">
         <f t="shared" si="34"/>
@@ -15769,14 +15769,14 @@
       </c>
       <c r="X179">
         <f t="shared" si="28"/>
-        <v>6.6000745681761608E+16</v>
+        <v>8.11834909167088E+16</v>
       </c>
       <c r="Y179">
         <f t="shared" si="29"/>
         <v>3403766.0103775035</v>
       </c>
     </row>
-    <row r="180" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
         <v>178</v>
       </c>
@@ -15795,8 +15795,8 @@
         <v>5</v>
       </c>
       <c r="G180" s="16">
-        <f t="shared" si="37"/>
-        <v>1632448475615534.8</v>
+        <f t="shared" si="61"/>
+        <v>2008427840107141.8</v>
       </c>
       <c r="H180" s="16">
         <f t="shared" si="34"/>
@@ -15851,14 +15851,14 @@
       </c>
       <c r="X180">
         <f t="shared" si="28"/>
-        <v>7.0195284451467992E+16</v>
+        <v>8.6362397124607088E+16</v>
       </c>
       <c r="Y180">
         <f t="shared" si="29"/>
         <v>3426243.1356660775</v>
       </c>
     </row>
-    <row r="181" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
         <v>179</v>
       </c>
@@ -15877,8 +15877,8 @@
         <v>5</v>
       </c>
       <c r="G181" s="16">
-        <f t="shared" si="37"/>
-        <v>1695456893334868.3</v>
+        <f t="shared" si="61"/>
+        <v>2086415614920836.3</v>
       </c>
       <c r="H181" s="16">
         <f t="shared" si="34"/>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="X181">
         <f t="shared" si="28"/>
-        <v>7.4600103306734208E+16</v>
+        <v>9.18022870565168E+16</v>
       </c>
       <c r="Y181">
         <f t="shared" si="29"/>
@@ -15956,9 +15956,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -16613,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FE193D-4E27-4EB9-B789-B3CB960528AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581085D-8209-4270-A092-EBE4043483DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2805" yWindow="4230" windowWidth="35595" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="85">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,6 +580,9 @@
   <si>
     <t>12-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
   </si>
 </sst>
 </file>
@@ -1132,35 +1135,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Y181"/>
+  <dimension ref="A1:Y211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G175" sqref="G175"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="50.125" customWidth="1"/>
     <col min="8" max="8" width="35.5" customWidth="1"/>
     <col min="9" max="9" width="43.25" customWidth="1"/>
-    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="8.5" customWidth="1"/>
     <col min="13" max="13" width="21.625" customWidth="1"/>
     <col min="14" max="14" width="11.75" customWidth="1"/>
     <col min="15" max="15" width="13.125" customWidth="1"/>
-    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="18" max="18" width="12.25" customWidth="1"/>
     <col min="19" max="19" width="16.5" customWidth="1"/>
     <col min="20" max="20" width="14.625" customWidth="1"/>
+    <col min="21" max="21" width="9.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.875" customWidth="1"/>
+    <col min="23" max="23" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
@@ -13581,7 +13588,7 @@
         <v>5</v>
       </c>
       <c r="G153" s="16">
-        <f t="shared" ref="G153:G181" si="37">A153^6.76+A153^4+100*A153+100</f>
+        <f t="shared" ref="G153:G176" si="37">A153^6.76+A153^4+100*A153+100</f>
         <v>536889096675819.88</v>
       </c>
       <c r="H153" s="16">
@@ -15938,6 +15945,2466 @@
       <c r="Y181">
         <f t="shared" si="29"/>
         <v>3448221.5653428826</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <v>180</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10">
+        <f t="shared" ref="E182:E211" si="62">A182^2.9</f>
+        <v>3469686.7274772446</v>
+      </c>
+      <c r="F182" s="10">
+        <v>5</v>
+      </c>
+      <c r="G182" s="10">
+        <f>A182^6.9+A182^4+100*A182+100</f>
+        <v>3642339388814613</v>
+      </c>
+      <c r="H182" s="10">
+        <f t="shared" ref="H182:H211" si="63">A182^2.147+50+50*A182</f>
+        <v>78563.6460874396</v>
+      </c>
+      <c r="I182" s="10">
+        <f t="shared" ref="I182" si="64">A182^6.013+A182^4+1000*A182+100</f>
+        <v>36388663447537.172</v>
+      </c>
+      <c r="J182" s="10">
+        <v>1</v>
+      </c>
+      <c r="K182" s="10">
+        <v>11</v>
+      </c>
+      <c r="L182" s="10">
+        <v>5</v>
+      </c>
+      <c r="M182" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N182" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O182" s="10">
+        <v>30</v>
+      </c>
+      <c r="P182" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q182" s="10">
+        <v>0</v>
+      </c>
+      <c r="R182" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S182" s="10">
+        <v>14.214285714285801</v>
+      </c>
+      <c r="T182" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U182" s="10">
+        <f t="shared" ref="U182:U211" si="65">A182+5</f>
+        <v>185</v>
+      </c>
+      <c r="V182" s="10">
+        <v>45</v>
+      </c>
+      <c r="W182" s="10">
+        <v>1</v>
+      </c>
+      <c r="X182" s="5">
+        <f t="shared" ref="X182:X211" si="66">G182*V182</f>
+        <v>1.639052724966576E+17</v>
+      </c>
+      <c r="Y182" s="5">
+        <f t="shared" ref="Y182:Y211" si="67">E182*W182</f>
+        <v>3469686.7274772446</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
+        <v>181</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10">
+        <f t="shared" si="62"/>
+        <v>3525882.7579745394</v>
+      </c>
+      <c r="F183" s="10">
+        <v>5</v>
+      </c>
+      <c r="G183" s="10">
+        <f t="shared" ref="G183:G186" si="68">A183^6.9+A183^4+100*A183+100</f>
+        <v>3784271524060340.5</v>
+      </c>
+      <c r="H183" s="10">
+        <f t="shared" si="63"/>
+        <v>79445.431871538778</v>
+      </c>
+      <c r="I183" s="10">
+        <f t="shared" ref="I183" si="69">A183^6.012+A183^4+1000*A183+100</f>
+        <v>37426227121702.586</v>
+      </c>
+      <c r="J183" s="10">
+        <v>1</v>
+      </c>
+      <c r="K183" s="10">
+        <v>11</v>
+      </c>
+      <c r="L183" s="10">
+        <v>5</v>
+      </c>
+      <c r="M183" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N183" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O183" s="10">
+        <v>30</v>
+      </c>
+      <c r="P183" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="10">
+        <v>0</v>
+      </c>
+      <c r="R183" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S183" s="10">
+        <v>14.5357142857144</v>
+      </c>
+      <c r="T183" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U183" s="10">
+        <f t="shared" si="65"/>
+        <v>186</v>
+      </c>
+      <c r="V183" s="10">
+        <v>46</v>
+      </c>
+      <c r="W183" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="X183" s="5">
+        <f t="shared" si="66"/>
+        <v>1.7407649010677565E+17</v>
+      </c>
+      <c r="Y183" s="5">
+        <f t="shared" si="67"/>
+        <v>3490623.9303947939</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
+        <v>182</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10">
+        <f t="shared" si="62"/>
+        <v>3582671.7987446724</v>
+      </c>
+      <c r="F184" s="10">
+        <v>5</v>
+      </c>
+      <c r="G184" s="10">
+        <f t="shared" si="68"/>
+        <v>3930906359213138.5</v>
+      </c>
+      <c r="H184" s="10">
+        <f t="shared" si="63"/>
+        <v>80332.505444117633</v>
+      </c>
+      <c r="I184" s="10">
+        <f t="shared" ref="I184" si="70">A184^6.011+A184^4+1000*A184+100</f>
+        <v>38485886680672.094</v>
+      </c>
+      <c r="J184" s="10">
+        <v>1</v>
+      </c>
+      <c r="K184" s="10">
+        <v>11</v>
+      </c>
+      <c r="L184" s="10">
+        <v>5</v>
+      </c>
+      <c r="M184" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N184" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O184" s="10">
+        <v>30</v>
+      </c>
+      <c r="P184" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="10">
+        <v>0</v>
+      </c>
+      <c r="R184" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S184" s="10">
+        <v>14.857142857143</v>
+      </c>
+      <c r="T184" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U184" s="10">
+        <f t="shared" si="65"/>
+        <v>187</v>
+      </c>
+      <c r="V184" s="10">
+        <v>47</v>
+      </c>
+      <c r="W184" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="X184" s="5">
+        <f t="shared" si="66"/>
+        <v>1.847525988830175E+17</v>
+      </c>
+      <c r="Y184" s="5">
+        <f t="shared" si="67"/>
+        <v>3511018.3627697788</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
+        <v>183</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10">
+        <f t="shared" si="62"/>
+        <v>3640056.7976461248</v>
+      </c>
+      <c r="F185" s="10">
+        <v>5</v>
+      </c>
+      <c r="G185" s="10">
+        <f t="shared" si="68"/>
+        <v>4082372581276906</v>
+      </c>
+      <c r="H185" s="10">
+        <f t="shared" si="63"/>
+        <v>81224.871089611945</v>
+      </c>
+      <c r="I185" s="10">
+        <f t="shared" ref="I185" si="71">A185^6.013+A185^4+1000*A185+100</f>
+        <v>40191158375472.813</v>
+      </c>
+      <c r="J185" s="10">
+        <v>1</v>
+      </c>
+      <c r="K185" s="10">
+        <v>11</v>
+      </c>
+      <c r="L185" s="10">
+        <v>5</v>
+      </c>
+      <c r="M185" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N185" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O185" s="10">
+        <v>30</v>
+      </c>
+      <c r="P185" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q185" s="10">
+        <v>0</v>
+      </c>
+      <c r="R185" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S185" s="10">
+        <v>15.178571428571599</v>
+      </c>
+      <c r="T185" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U185" s="10">
+        <f t="shared" si="65"/>
+        <v>188</v>
+      </c>
+      <c r="V185" s="10">
+        <v>48</v>
+      </c>
+      <c r="W185" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="X185" s="5">
+        <f t="shared" si="66"/>
+        <v>1.9595388390129149E+17</v>
+      </c>
+      <c r="Y185" s="5">
+        <f t="shared" si="67"/>
+        <v>3530855.0937167411</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="5">
+        <v>184</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10">
+        <f t="shared" si="62"/>
+        <v>3698040.7009180528</v>
+      </c>
+      <c r="F186" s="10">
+        <v>5</v>
+      </c>
+      <c r="G186" s="10">
+        <f t="shared" si="68"/>
+        <v>4238801664537101.5</v>
+      </c>
+      <c r="H186" s="10">
+        <f t="shared" si="63"/>
+        <v>82122.533072423787</v>
+      </c>
+      <c r="I186" s="10">
+        <f t="shared" ref="I186" si="72">A186^6.012+A186^4+1000*A186+100</f>
+        <v>41313957960032.672</v>
+      </c>
+      <c r="J186" s="10">
+        <v>1</v>
+      </c>
+      <c r="K186" s="10">
+        <v>11</v>
+      </c>
+      <c r="L186" s="10">
+        <v>5</v>
+      </c>
+      <c r="M186" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N186" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O186" s="10">
+        <v>30</v>
+      </c>
+      <c r="P186" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q186" s="10">
+        <v>0</v>
+      </c>
+      <c r="R186" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S186" s="10">
+        <v>15.500000000000201</v>
+      </c>
+      <c r="T186" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U186" s="10">
+        <f t="shared" si="65"/>
+        <v>189</v>
+      </c>
+      <c r="V186" s="10">
+        <v>49</v>
+      </c>
+      <c r="W186" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="X186" s="5">
+        <f t="shared" si="66"/>
+        <v>2.0770128156231798E+17</v>
+      </c>
+      <c r="Y186" s="5">
+        <f t="shared" si="67"/>
+        <v>3550119.0728813307</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <v>185</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10">
+        <f t="shared" si="62"/>
+        <v>3756626.4531901018</v>
+      </c>
+      <c r="F187" s="10">
+        <v>5</v>
+      </c>
+      <c r="G187" s="10">
+        <f>A187^6.92+A187^4+100*A187+100</f>
+        <v>4884593921677992</v>
+      </c>
+      <c r="H187" s="10">
+        <f t="shared" si="63"/>
+        <v>83025.495637123691</v>
+      </c>
+      <c r="I187" s="10">
+        <f t="shared" ref="I187" si="73">A187^6.011+A187^4+1000*A187+100</f>
+        <v>42460122461532.914</v>
+      </c>
+      <c r="J187" s="10">
+        <v>1</v>
+      </c>
+      <c r="K187" s="10">
+        <v>11</v>
+      </c>
+      <c r="L187" s="10">
+        <v>5</v>
+      </c>
+      <c r="M187" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N187" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O187" s="10">
+        <v>30</v>
+      </c>
+      <c r="P187" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q187" s="10">
+        <v>0</v>
+      </c>
+      <c r="R187" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S187" s="10">
+        <v>15.8214285714288</v>
+      </c>
+      <c r="T187" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U187" s="10">
+        <f t="shared" si="65"/>
+        <v>190</v>
+      </c>
+      <c r="V187" s="10">
+        <v>50</v>
+      </c>
+      <c r="W187" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="X187" s="5">
+        <f t="shared" si="66"/>
+        <v>2.4422969608389958E+17</v>
+      </c>
+      <c r="Y187" s="5">
+        <f t="shared" si="67"/>
+        <v>3568795.1305305967</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="5">
+        <v>186</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10">
+        <f t="shared" si="62"/>
+        <v>3815816.9974920037</v>
+      </c>
+      <c r="F188" s="10">
+        <v>5</v>
+      </c>
+      <c r="G188" s="10">
+        <f t="shared" ref="G188:G196" si="74">A188^6.92+A188^4+100*A188+100</f>
+        <v>5070253534959854</v>
+      </c>
+      <c r="H188" s="10">
+        <f t="shared" si="63"/>
+        <v>83933.763008651018</v>
+      </c>
+      <c r="I188" s="10">
+        <f t="shared" ref="I188" si="75">A188^6.013+A188^4+1000*A188+100</f>
+        <v>44319317527661.563</v>
+      </c>
+      <c r="J188" s="10">
+        <v>1</v>
+      </c>
+      <c r="K188" s="10">
+        <v>11</v>
+      </c>
+      <c r="L188" s="10">
+        <v>5</v>
+      </c>
+      <c r="M188" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N188" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O188" s="10">
+        <v>30</v>
+      </c>
+      <c r="P188" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="10">
+        <v>0</v>
+      </c>
+      <c r="R188" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S188" s="10">
+        <v>16.142857142857402</v>
+      </c>
+      <c r="T188" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U188" s="10">
+        <f t="shared" si="65"/>
+        <v>191</v>
+      </c>
+      <c r="V188" s="10">
+        <v>51</v>
+      </c>
+      <c r="W188" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="X188" s="5">
+        <f t="shared" si="66"/>
+        <v>2.5858293028295254E+17</v>
+      </c>
+      <c r="Y188" s="5">
+        <f t="shared" si="67"/>
+        <v>3586867.9776424831</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
+        <v>187</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10">
+        <f t="shared" si="62"/>
+        <v>3875615.2752630315</v>
+      </c>
+      <c r="F189" s="10">
+        <v>5</v>
+      </c>
+      <c r="G189" s="10">
+        <f t="shared" si="74"/>
+        <v>5261917300433256</v>
+      </c>
+      <c r="H189" s="10">
+        <f t="shared" si="63"/>
+        <v>84847.339392507842</v>
+      </c>
+      <c r="I189" s="10">
+        <f t="shared" ref="I189" si="76">A189^6.012+A189^4+1000*A189+100</f>
+        <v>45532700001276.031</v>
+      </c>
+      <c r="J189" s="10">
+        <v>1</v>
+      </c>
+      <c r="K189" s="10">
+        <v>11</v>
+      </c>
+      <c r="L189" s="10">
+        <v>5</v>
+      </c>
+      <c r="M189" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N189" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O189" s="10">
+        <v>30</v>
+      </c>
+      <c r="P189" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q189" s="10">
+        <v>0</v>
+      </c>
+      <c r="R189" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S189" s="10">
+        <v>16.464285714286</v>
+      </c>
+      <c r="T189" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U189" s="10">
+        <f t="shared" si="65"/>
+        <v>192</v>
+      </c>
+      <c r="V189" s="10">
+        <v>52</v>
+      </c>
+      <c r="W189" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="X189" s="5">
+        <f t="shared" si="66"/>
+        <v>2.7361969962252931E+17</v>
+      </c>
+      <c r="Y189" s="5">
+        <f t="shared" si="67"/>
+        <v>3604322.2059946195</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
+        <v>188</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10">
+        <f t="shared" si="62"/>
+        <v>3936024.2263614782</v>
+      </c>
+      <c r="F190" s="10">
+        <v>5</v>
+      </c>
+      <c r="G190" s="10">
+        <f t="shared" si="74"/>
+        <v>5459745716908986</v>
+      </c>
+      <c r="H190" s="10">
+        <f t="shared" si="63"/>
+        <v>85766.228974954734</v>
+      </c>
+      <c r="I190" s="10">
+        <f t="shared" ref="I190" si="77">A190^6.011+A190^4+1000*A190+100</f>
+        <v>46770760684791.961</v>
+      </c>
+      <c r="J190" s="10">
+        <v>1</v>
+      </c>
+      <c r="K190" s="10">
+        <v>11</v>
+      </c>
+      <c r="L190" s="10">
+        <v>5</v>
+      </c>
+      <c r="M190" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N190" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O190" s="10">
+        <v>30</v>
+      </c>
+      <c r="P190" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="10">
+        <v>0</v>
+      </c>
+      <c r="R190" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S190" s="10">
+        <v>16.785714285714601</v>
+      </c>
+      <c r="T190" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U190" s="10">
+        <f t="shared" si="65"/>
+        <v>193</v>
+      </c>
+      <c r="V190" s="10">
+        <v>53</v>
+      </c>
+      <c r="W190" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="X190" s="5">
+        <f t="shared" si="66"/>
+        <v>2.8936652299617626E+17</v>
+      </c>
+      <c r="Y190" s="5">
+        <f t="shared" si="67"/>
+        <v>3621142.28825256</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
+        <v>189</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10">
+        <f t="shared" si="62"/>
+        <v>3997046.7890739264</v>
+      </c>
+      <c r="F191" s="10">
+        <v>5</v>
+      </c>
+      <c r="G191" s="10">
+        <f t="shared" si="74"/>
+        <v>5663902683112730</v>
+      </c>
+      <c r="H191" s="10">
+        <f t="shared" si="63"/>
+        <v>86690.435923199548</v>
+      </c>
+      <c r="I191" s="10">
+        <f t="shared" ref="I191" si="78">A191^6.013+A191^4+1000*A191+100</f>
+        <v>48795097161145.133</v>
+      </c>
+      <c r="J191" s="10">
+        <v>1</v>
+      </c>
+      <c r="K191" s="10">
+        <v>11</v>
+      </c>
+      <c r="L191" s="10">
+        <v>5</v>
+      </c>
+      <c r="M191" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N191" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O191" s="10">
+        <v>30</v>
+      </c>
+      <c r="P191" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q191" s="10">
+        <v>0</v>
+      </c>
+      <c r="R191" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S191" s="10">
+        <v>17.107142857143199</v>
+      </c>
+      <c r="T191" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U191" s="10">
+        <f t="shared" si="65"/>
+        <v>194</v>
+      </c>
+      <c r="V191" s="10">
+        <v>54</v>
+      </c>
+      <c r="W191" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="X191" s="5">
+        <f t="shared" si="66"/>
+        <v>3.0585074488808742E+17</v>
+      </c>
+      <c r="Y191" s="5">
+        <f t="shared" si="67"/>
+        <v>3637312.5780572733</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
+        <v>190</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10">
+        <f t="shared" si="62"/>
+        <v>4058685.9001244241</v>
+      </c>
+      <c r="F192" s="10">
+        <v>5</v>
+      </c>
+      <c r="G192" s="10">
+        <f t="shared" si="74"/>
+        <v>5874555551046904</v>
+      </c>
+      <c r="H192" s="10">
+        <f t="shared" si="63"/>
+        <v>87619.964385584768</v>
+      </c>
+      <c r="I192" s="10">
+        <f t="shared" ref="I192" si="79">A192^6.012+A192^4+1000*A192+100</f>
+        <v>50104640061460.484</v>
+      </c>
+      <c r="J192" s="10">
+        <v>1</v>
+      </c>
+      <c r="K192" s="10">
+        <v>11</v>
+      </c>
+      <c r="L192" s="10">
+        <v>5</v>
+      </c>
+      <c r="M192" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N192" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O192" s="10">
+        <v>30</v>
+      </c>
+      <c r="P192" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q192" s="10">
+        <v>0</v>
+      </c>
+      <c r="R192" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S192" s="10">
+        <v>17.4285714285718</v>
+      </c>
+      <c r="T192" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U192" s="10">
+        <f t="shared" si="65"/>
+        <v>195</v>
+      </c>
+      <c r="V192" s="10">
+        <v>55</v>
+      </c>
+      <c r="W192" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="X192" s="5">
+        <f t="shared" si="66"/>
+        <v>3.2310055530757971E+17</v>
+      </c>
+      <c r="Y192" s="5">
+        <f t="shared" si="67"/>
+        <v>3652817.3101119818</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="5">
+        <v>191</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10">
+        <f t="shared" si="62"/>
+        <v>4120944.4946836135</v>
+      </c>
+      <c r="F193" s="10">
+        <v>5</v>
+      </c>
+      <c r="G193" s="10">
+        <f t="shared" si="74"/>
+        <v>6091875179899995</v>
+      </c>
+      <c r="H193" s="10">
+        <f t="shared" si="63"/>
+        <v>88554.818491772705</v>
+      </c>
+      <c r="I193" s="10">
+        <f t="shared" ref="I193" si="80">A193^6.011+A193^4+1000*A193+100</f>
+        <v>51440218940389.742</v>
+      </c>
+      <c r="J193" s="10">
+        <v>1</v>
+      </c>
+      <c r="K193" s="10">
+        <v>11</v>
+      </c>
+      <c r="L193" s="10">
+        <v>5</v>
+      </c>
+      <c r="M193" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N193" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O193" s="10">
+        <v>30</v>
+      </c>
+      <c r="P193" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q193" s="10">
+        <v>0</v>
+      </c>
+      <c r="R193" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S193" s="10">
+        <v>17.750000000000401</v>
+      </c>
+      <c r="T193" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U193" s="10">
+        <f t="shared" si="65"/>
+        <v>196</v>
+      </c>
+      <c r="V193" s="10">
+        <v>56</v>
+      </c>
+      <c r="W193" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="X193" s="5">
+        <f t="shared" si="66"/>
+        <v>3.4114501007439974E+17</v>
+      </c>
+      <c r="Y193" s="5">
+        <f t="shared" si="67"/>
+        <v>3667640.6002684161</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
+        <v>192</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10">
+        <f t="shared" si="62"/>
+        <v>4183825.5063776793</v>
+      </c>
+      <c r="F194" s="10">
+        <v>5</v>
+      </c>
+      <c r="G194" s="10">
+        <f t="shared" si="74"/>
+        <v>6316035990506235</v>
+      </c>
+      <c r="H194" s="10">
+        <f t="shared" si="63"/>
+        <v>89495.002352926589</v>
+      </c>
+      <c r="I194" s="10">
+        <f t="shared" ref="I194" si="81">A194^6.013+A194^4+1000*A194+100</f>
+        <v>53641546761461.5</v>
+      </c>
+      <c r="J194" s="10">
+        <v>1</v>
+      </c>
+      <c r="K194" s="10">
+        <v>11</v>
+      </c>
+      <c r="L194" s="10">
+        <v>5</v>
+      </c>
+      <c r="M194" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N194" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O194" s="10">
+        <v>30</v>
+      </c>
+      <c r="P194" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q194" s="10">
+        <v>0</v>
+      </c>
+      <c r="R194" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S194" s="10">
+        <v>18.071428571428999</v>
+      </c>
+      <c r="T194" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U194" s="10">
+        <f t="shared" si="65"/>
+        <v>197</v>
+      </c>
+      <c r="V194" s="10">
+        <v>57</v>
+      </c>
+      <c r="W194" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="X194" s="5">
+        <f t="shared" si="66"/>
+        <v>3.6001405145885542E+17</v>
+      </c>
+      <c r="Y194" s="5">
+        <f t="shared" si="67"/>
+        <v>3681766.4456123579</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="5">
+        <v>193</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10">
+        <f t="shared" si="62"/>
+        <v>4247331.8672972871</v>
+      </c>
+      <c r="F195" s="10">
+        <v>5</v>
+      </c>
+      <c r="G195" s="10">
+        <f t="shared" si="74"/>
+        <v>6547216020358682</v>
+      </c>
+      <c r="H195" s="10">
+        <f t="shared" si="63"/>
+        <v>90440.52006189058</v>
+      </c>
+      <c r="I195" s="10">
+        <f t="shared" ref="I195" si="82">A195^6.012+A195^4+1000*A195+100</f>
+        <v>55053063241371.266</v>
+      </c>
+      <c r="J195" s="10">
+        <v>1</v>
+      </c>
+      <c r="K195" s="10">
+        <v>11</v>
+      </c>
+      <c r="L195" s="10">
+        <v>5</v>
+      </c>
+      <c r="M195" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N195" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O195" s="10">
+        <v>30</v>
+      </c>
+      <c r="P195" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q195" s="10">
+        <v>0</v>
+      </c>
+      <c r="R195" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S195" s="10">
+        <v>18.392857142857601</v>
+      </c>
+      <c r="T195" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U195" s="10">
+        <f t="shared" si="65"/>
+        <v>198</v>
+      </c>
+      <c r="V195" s="10">
+        <v>58</v>
+      </c>
+      <c r="W195" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="X195" s="5">
+        <f t="shared" si="66"/>
+        <v>3.7973852918080358E+17</v>
+      </c>
+      <c r="Y195" s="5">
+        <f t="shared" si="67"/>
+        <v>3695178.7245486397</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
+        <v>194</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10">
+        <f t="shared" si="62"/>
+        <v>4311466.5080063222</v>
+      </c>
+      <c r="F196" s="10">
+        <v>5</v>
+      </c>
+      <c r="G196" s="10">
+        <f t="shared" si="74"/>
+        <v>6785596979177690</v>
+      </c>
+      <c r="H196" s="10">
+        <f t="shared" si="63"/>
+        <v>91391.375693364986</v>
+      </c>
+      <c r="I196" s="10">
+        <f t="shared" ref="I196" si="83">A196^6.011+A196^4+1000*A196+100</f>
+        <v>56492018107142.047</v>
+      </c>
+      <c r="J196" s="10">
+        <v>1</v>
+      </c>
+      <c r="K196" s="10">
+        <v>11</v>
+      </c>
+      <c r="L196" s="10">
+        <v>5</v>
+      </c>
+      <c r="M196" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N196" s="10">
+        <v>10000</v>
+      </c>
+      <c r="O196" s="10">
+        <v>30</v>
+      </c>
+      <c r="P196" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q196" s="10">
+        <v>0</v>
+      </c>
+      <c r="R196" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S196" s="10">
+        <v>18.714285714286198</v>
+      </c>
+      <c r="T196" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U196" s="10">
+        <f t="shared" si="65"/>
+        <v>199</v>
+      </c>
+      <c r="V196" s="10">
+        <v>59</v>
+      </c>
+      <c r="W196" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="X196" s="5">
+        <f t="shared" si="66"/>
+        <v>4.0035022177148371E+17</v>
+      </c>
+      <c r="Y196" s="5">
+        <f t="shared" si="67"/>
+        <v>3707861.1968854372</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="15">
+        <v>195</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16">
+        <f t="shared" si="62"/>
+        <v>4376232.3575506499</v>
+      </c>
+      <c r="F197" s="16">
+        <v>5</v>
+      </c>
+      <c r="G197" s="16">
+        <f>A197^6.95+A197^4+100*A197+100</f>
+        <v>8236460598767268</v>
+      </c>
+      <c r="H197" s="16">
+        <f t="shared" si="63"/>
+        <v>92347.573304080841</v>
+      </c>
+      <c r="I197" s="16">
+        <f t="shared" ref="I197" si="84">A197^6.013+A197^4+1000*A197+100</f>
+        <v>58882844824086.891</v>
+      </c>
+      <c r="J197" s="16">
+        <v>1</v>
+      </c>
+      <c r="K197" s="16">
+        <v>11</v>
+      </c>
+      <c r="L197" s="16">
+        <v>5</v>
+      </c>
+      <c r="M197" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N197" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O197" s="16">
+        <v>30</v>
+      </c>
+      <c r="P197" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q197" s="16">
+        <v>0</v>
+      </c>
+      <c r="R197" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S197" s="16">
+        <v>19.0357142857148</v>
+      </c>
+      <c r="T197" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U197" s="16">
+        <f t="shared" si="65"/>
+        <v>200</v>
+      </c>
+      <c r="V197" s="16">
+        <v>60</v>
+      </c>
+      <c r="W197" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="X197" s="15">
+        <f t="shared" si="66"/>
+        <v>4.941876359260361E+17</v>
+      </c>
+      <c r="Y197" s="15">
+        <f t="shared" si="67"/>
+        <v>3719797.5039180522</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="15">
+        <v>196</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16">
+        <f t="shared" si="62"/>
+        <v>4441632.3434666758</v>
+      </c>
+      <c r="F198" s="16">
+        <v>5</v>
+      </c>
+      <c r="G198" s="16">
+        <f t="shared" ref="G198:G206" si="85">A198^6.95+A198^4+100*A198+100</f>
+        <v>8534533177431366</v>
+      </c>
+      <c r="H198" s="16">
+        <f t="shared" si="63"/>
+        <v>93309.116932971127</v>
+      </c>
+      <c r="I198" s="16">
+        <f t="shared" ref="I198" si="86">A198^6.012+A198^4+1000*A198+100</f>
+        <v>60402388661694.141</v>
+      </c>
+      <c r="J198" s="16">
+        <v>1</v>
+      </c>
+      <c r="K198" s="16">
+        <v>11</v>
+      </c>
+      <c r="L198" s="16">
+        <v>5</v>
+      </c>
+      <c r="M198" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N198" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O198" s="16">
+        <v>30</v>
+      </c>
+      <c r="P198" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q198" s="16">
+        <v>0</v>
+      </c>
+      <c r="R198" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S198" s="16">
+        <v>19.357142857143401</v>
+      </c>
+      <c r="T198" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U198" s="16">
+        <f t="shared" si="65"/>
+        <v>201</v>
+      </c>
+      <c r="V198" s="16">
+        <v>61</v>
+      </c>
+      <c r="W198" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="X198" s="15">
+        <f t="shared" si="66"/>
+        <v>5.2060652382331334E+17</v>
+      </c>
+      <c r="Y198" s="15">
+        <f t="shared" si="67"/>
+        <v>3730971.1685120077</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="15">
+        <v>197</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16">
+        <f t="shared" si="62"/>
+        <v>4507669.3917899011</v>
+      </c>
+      <c r="F199" s="16">
+        <v>5</v>
+      </c>
+      <c r="G199" s="16">
+        <f t="shared" si="85"/>
+        <v>8841793053286616</v>
+      </c>
+      <c r="H199" s="16">
+        <f t="shared" si="63"/>
+        <v>94276.010601339629</v>
+      </c>
+      <c r="I199" s="16">
+        <f t="shared" ref="I199" si="87">A199^6.011+A199^4+1000*A199+100</f>
+        <v>61950818040234.438</v>
+      </c>
+      <c r="J199" s="16">
+        <v>1</v>
+      </c>
+      <c r="K199" s="16">
+        <v>11</v>
+      </c>
+      <c r="L199" s="16">
+        <v>5</v>
+      </c>
+      <c r="M199" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N199" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O199" s="16">
+        <v>30</v>
+      </c>
+      <c r="P199" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q199" s="16">
+        <v>0</v>
+      </c>
+      <c r="R199" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S199" s="16">
+        <v>19.678571428571999</v>
+      </c>
+      <c r="T199" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U199" s="16">
+        <f t="shared" si="65"/>
+        <v>202</v>
+      </c>
+      <c r="V199" s="16">
+        <v>62</v>
+      </c>
+      <c r="W199" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="X199" s="15">
+        <f t="shared" si="66"/>
+        <v>5.4819116930377018E+17</v>
+      </c>
+      <c r="Y199" s="15">
+        <f t="shared" si="67"/>
+        <v>3741365.5951856179</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="15">
+        <v>198</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16">
+        <f t="shared" si="62"/>
+        <v>4574346.4270632798</v>
+      </c>
+      <c r="F200" s="16">
+        <v>5</v>
+      </c>
+      <c r="G200" s="16">
+        <f t="shared" si="85"/>
+        <v>9158474598184746</v>
+      </c>
+      <c r="H200" s="16">
+        <f t="shared" si="63"/>
+        <v>95248.258313026512</v>
+      </c>
+      <c r="I200" s="16">
+        <f t="shared" ref="I200" si="88">A200^6.013+A200^4+1000*A200+100</f>
+        <v>64544335215883.461</v>
+      </c>
+      <c r="J200" s="16">
+        <v>1</v>
+      </c>
+      <c r="K200" s="16">
+        <v>11</v>
+      </c>
+      <c r="L200" s="16">
+        <v>5</v>
+      </c>
+      <c r="M200" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N200" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O200" s="16">
+        <v>30</v>
+      </c>
+      <c r="P200" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q200" s="16">
+        <v>0</v>
+      </c>
+      <c r="R200" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S200" s="16">
+        <v>20.0000000000006</v>
+      </c>
+      <c r="T200" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U200" s="16">
+        <f t="shared" si="65"/>
+        <v>203</v>
+      </c>
+      <c r="V200" s="16">
+        <v>63</v>
+      </c>
+      <c r="W200" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="X200" s="15">
+        <f t="shared" si="66"/>
+        <v>5.7698389968563904E+17</v>
+      </c>
+      <c r="Y200" s="15">
+        <f t="shared" si="67"/>
+        <v>3750964.0701918891</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="15">
+        <v>199</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16">
+        <f t="shared" si="62"/>
+        <v>4641666.3723456264</v>
+      </c>
+      <c r="F201" s="16">
+        <v>5</v>
+      </c>
+      <c r="G201" s="16">
+        <f t="shared" si="85"/>
+        <v>9484816930660068</v>
+      </c>
+      <c r="H201" s="16">
+        <f t="shared" si="63"/>
+        <v>96225.864054572987</v>
+      </c>
+      <c r="I201" s="16">
+        <f t="shared" ref="I201" si="89">A201^6.012+A201^4+1000*A201+100</f>
+        <v>66178205773769.383</v>
+      </c>
+      <c r="J201" s="16">
+        <v>1</v>
+      </c>
+      <c r="K201" s="16">
+        <v>11</v>
+      </c>
+      <c r="L201" s="16">
+        <v>5</v>
+      </c>
+      <c r="M201" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N201" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O201" s="16">
+        <v>30</v>
+      </c>
+      <c r="P201" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q201" s="16">
+        <v>0</v>
+      </c>
+      <c r="R201" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S201" s="16">
+        <v>20.321428571429198</v>
+      </c>
+      <c r="T201" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U201" s="16">
+        <f t="shared" si="65"/>
+        <v>204</v>
+      </c>
+      <c r="V201" s="16">
+        <v>64</v>
+      </c>
+      <c r="W201" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="X201" s="15">
+        <f t="shared" si="66"/>
+        <v>6.0702828356224435E+17</v>
+      </c>
+      <c r="Y201" s="15">
+        <f t="shared" si="67"/>
+        <v>3759749.7615999575</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="15">
+        <v>200</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16">
+        <f t="shared" si="62"/>
+        <v>4709632.1492197923</v>
+      </c>
+      <c r="F202" s="16">
+        <v>5</v>
+      </c>
+      <c r="G202" s="16">
+        <f t="shared" si="85"/>
+        <v>9821063987359900</v>
+      </c>
+      <c r="H202" s="16">
+        <f t="shared" si="63"/>
+        <v>97208.831795382735</v>
+      </c>
+      <c r="I202" s="16">
+        <f t="shared" ref="I202" si="90">A202^6.011+A202^4+1000*A202+100</f>
+        <v>67842453829952.703</v>
+      </c>
+      <c r="J202" s="16">
+        <v>1</v>
+      </c>
+      <c r="K202" s="16">
+        <v>11</v>
+      </c>
+      <c r="L202" s="16">
+        <v>5</v>
+      </c>
+      <c r="M202" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N202" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O202" s="16">
+        <v>30</v>
+      </c>
+      <c r="P202" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q202" s="16">
+        <v>0</v>
+      </c>
+      <c r="R202" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S202" s="16">
+        <v>20.6428571428578</v>
+      </c>
+      <c r="T202" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U202" s="16">
+        <f t="shared" si="65"/>
+        <v>205</v>
+      </c>
+      <c r="V202" s="16">
+        <v>65</v>
+      </c>
+      <c r="W202" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="X202" s="15">
+        <f t="shared" si="66"/>
+        <v>6.3836915917839347E+17</v>
+      </c>
+      <c r="Y202" s="15">
+        <f t="shared" si="67"/>
+        <v>3767705.7193758339</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="15">
+        <v>201</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D203" s="16"/>
+      <c r="E203" s="16">
+        <f t="shared" si="62"/>
+        <v>4778246.6778008807</v>
+      </c>
+      <c r="F203" s="16">
+        <v>5</v>
+      </c>
+      <c r="G203" s="16">
+        <f t="shared" si="85"/>
+        <v>1.0167464595182796E+16</v>
+      </c>
+      <c r="H203" s="16">
+        <f t="shared" si="63"/>
+        <v>98197.165487881022</v>
+      </c>
+      <c r="I203" s="16">
+        <f t="shared" ref="I203" si="91">A203^6.013+A203^4+1000*A203+100</f>
+        <v>70652564116668.844</v>
+      </c>
+      <c r="J203" s="16">
+        <v>1</v>
+      </c>
+      <c r="K203" s="16">
+        <v>11</v>
+      </c>
+      <c r="L203" s="16">
+        <v>5</v>
+      </c>
+      <c r="M203" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N203" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O203" s="16">
+        <v>30</v>
+      </c>
+      <c r="P203" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q203" s="16">
+        <v>0</v>
+      </c>
+      <c r="R203" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S203" s="16">
+        <v>20.964285714286401</v>
+      </c>
+      <c r="T203" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U203" s="16">
+        <f t="shared" si="65"/>
+        <v>206</v>
+      </c>
+      <c r="V203" s="16">
+        <v>66</v>
+      </c>
+      <c r="W203" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="X203" s="15">
+        <f t="shared" si="66"/>
+        <v>6.7105266328206451E+17</v>
+      </c>
+      <c r="Y203" s="15">
+        <f t="shared" si="67"/>
+        <v>3774814.875462696</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="15">
+        <v>202</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16">
+        <f t="shared" si="62"/>
+        <v>4847512.876744261</v>
+      </c>
+      <c r="F204" s="16">
+        <v>5</v>
+      </c>
+      <c r="G204" s="16">
+        <f t="shared" si="85"/>
+        <v>1.0524272544126422E+16</v>
+      </c>
+      <c r="H204" s="16">
+        <f t="shared" si="63"/>
+        <v>99190.869067671418</v>
+      </c>
+      <c r="I204" s="16">
+        <f t="shared" ref="I204" si="92">A204^6.012+A204^4+1000*A204+100</f>
+        <v>72407311246059.438</v>
+      </c>
+      <c r="J204" s="16">
+        <v>1</v>
+      </c>
+      <c r="K204" s="16">
+        <v>11</v>
+      </c>
+      <c r="L204" s="16">
+        <v>5</v>
+      </c>
+      <c r="M204" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N204" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O204" s="16">
+        <v>30</v>
+      </c>
+      <c r="P204" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="16">
+        <v>0</v>
+      </c>
+      <c r="R204" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S204" s="16">
+        <v>21.285714285714999</v>
+      </c>
+      <c r="T204" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U204" s="16">
+        <f t="shared" si="65"/>
+        <v>207</v>
+      </c>
+      <c r="V204" s="16">
+        <v>67</v>
+      </c>
+      <c r="W204" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="X204" s="15">
+        <f t="shared" si="66"/>
+        <v>7.0512626045647027E+17</v>
+      </c>
+      <c r="Y204" s="15">
+        <f t="shared" si="67"/>
+        <v>3781060.0438605235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="15">
+        <v>203</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16">
+        <f t="shared" si="62"/>
+        <v>4917433.6632535905</v>
+      </c>
+      <c r="F205" s="16">
+        <v>5</v>
+      </c>
+      <c r="G205" s="16">
+        <f t="shared" si="85"/>
+        <v>1.0891746660849688E+16</v>
+      </c>
+      <c r="H205" s="16">
+        <f t="shared" si="63"/>
+        <v>100189.94645369118</v>
+      </c>
+      <c r="I205" s="16">
+        <f t="shared" ref="I205" si="93">A205^6.011+A205^4+1000*A205+100</f>
+        <v>74193972631751.938</v>
+      </c>
+      <c r="J205" s="16">
+        <v>1</v>
+      </c>
+      <c r="K205" s="16">
+        <v>11</v>
+      </c>
+      <c r="L205" s="16">
+        <v>5</v>
+      </c>
+      <c r="M205" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N205" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O205" s="16">
+        <v>30</v>
+      </c>
+      <c r="P205" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q205" s="16">
+        <v>0</v>
+      </c>
+      <c r="R205" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S205" s="16">
+        <v>21.6071428571436</v>
+      </c>
+      <c r="T205" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U205" s="16">
+        <f t="shared" si="65"/>
+        <v>208</v>
+      </c>
+      <c r="V205" s="16">
+        <v>68</v>
+      </c>
+      <c r="W205" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="X205" s="15">
+        <f t="shared" si="66"/>
+        <v>7.4063877293777882E+17</v>
+      </c>
+      <c r="Y205" s="15">
+        <f t="shared" si="67"/>
+        <v>3786423.9207052649</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="15">
+        <v>204</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16">
+        <f t="shared" si="62"/>
+        <v>4988011.9530887352</v>
+      </c>
+      <c r="F206" s="16">
+        <v>5</v>
+      </c>
+      <c r="G206" s="16">
+        <f t="shared" si="85"/>
+        <v>1.1270150882951964E+16</v>
+      </c>
+      <c r="H206" s="16">
+        <f t="shared" si="63"/>
+        <v>101194.40154836317</v>
+      </c>
+      <c r="I206" s="16">
+        <f t="shared" ref="I206" si="94">A206^6.013+A206^4+1000*A206+100</f>
+        <v>77235317541028.188</v>
+      </c>
+      <c r="J206" s="16">
+        <v>1</v>
+      </c>
+      <c r="K206" s="16">
+        <v>11</v>
+      </c>
+      <c r="L206" s="16">
+        <v>5</v>
+      </c>
+      <c r="M206" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N206" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O206" s="16">
+        <v>30</v>
+      </c>
+      <c r="P206" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q206" s="16">
+        <v>0</v>
+      </c>
+      <c r="R206" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S206" s="16">
+        <v>21.928571428572202</v>
+      </c>
+      <c r="T206" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U206" s="16">
+        <f t="shared" si="65"/>
+        <v>209</v>
+      </c>
+      <c r="V206" s="16">
+        <v>69</v>
+      </c>
+      <c r="W206" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="X206" s="15">
+        <f t="shared" si="66"/>
+        <v>7.776404109236855E+17</v>
+      </c>
+      <c r="Y206" s="15">
+        <f t="shared" si="67"/>
+        <v>3790889.084347439</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="15">
+        <v>205</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D207" s="16"/>
+      <c r="E207" s="16">
+        <f t="shared" si="62"/>
+        <v>5059250.6605735561</v>
+      </c>
+      <c r="F207" s="16">
+        <v>5</v>
+      </c>
+      <c r="G207" s="16">
+        <f>A207^6.98+A207^4+100*A207+100</f>
+        <v>1.3678611227602552E+16</v>
+      </c>
+      <c r="H207" s="16">
+        <f t="shared" si="63"/>
+        <v>102204.23823774703</v>
+      </c>
+      <c r="I207" s="16">
+        <f t="shared" ref="I207" si="95">A207^6.012+A207^4+1000*A207+100</f>
+        <v>79117746426439.844</v>
+      </c>
+      <c r="J207" s="16">
+        <v>1</v>
+      </c>
+      <c r="K207" s="16">
+        <v>11</v>
+      </c>
+      <c r="L207" s="16">
+        <v>5</v>
+      </c>
+      <c r="M207" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N207" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O207" s="16">
+        <v>30</v>
+      </c>
+      <c r="P207" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q207" s="16">
+        <v>0</v>
+      </c>
+      <c r="R207" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S207" s="16">
+        <v>22.250000000000799</v>
+      </c>
+      <c r="T207" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U207" s="16">
+        <f t="shared" si="65"/>
+        <v>210</v>
+      </c>
+      <c r="V207" s="16">
+        <v>70</v>
+      </c>
+      <c r="W207" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="X207" s="15">
+        <f t="shared" si="66"/>
+        <v>9.5750278593217869E+17</v>
+      </c>
+      <c r="Y207" s="15">
+        <f t="shared" si="67"/>
+        <v>3794437.9954301668</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="15">
+        <v>206</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D208" s="16"/>
+      <c r="E208" s="16">
+        <f t="shared" si="62"/>
+        <v>5131152.6986036282</v>
+      </c>
+      <c r="F208" s="16">
+        <v>5</v>
+      </c>
+      <c r="G208" s="16">
+        <f t="shared" ref="G208:G211" si="96">A208^6.98+A208^4+100*A208+100</f>
+        <v>1.4151199495511578E+16</v>
+      </c>
+      <c r="H208" s="16">
+        <f t="shared" si="63"/>
+        <v>103219.46039168636</v>
+      </c>
+      <c r="I208" s="16">
+        <f t="shared" ref="I208" si="97">A208^6.011+A208^4+1000*A208+100</f>
+        <v>81033671067752.797</v>
+      </c>
+      <c r="J208" s="16">
+        <v>1</v>
+      </c>
+      <c r="K208" s="16">
+        <v>11</v>
+      </c>
+      <c r="L208" s="16">
+        <v>5</v>
+      </c>
+      <c r="M208" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N208" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O208" s="16">
+        <v>30</v>
+      </c>
+      <c r="P208" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q208" s="16">
+        <v>0</v>
+      </c>
+      <c r="R208" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S208" s="16">
+        <v>22.571428571429401</v>
+      </c>
+      <c r="T208" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U208" s="16">
+        <f t="shared" si="65"/>
+        <v>211</v>
+      </c>
+      <c r="V208" s="16">
+        <v>71</v>
+      </c>
+      <c r="W208" s="16">
+        <v>0.74</v>
+      </c>
+      <c r="X208" s="15">
+        <f t="shared" si="66"/>
+        <v>1.004735164181322E+18</v>
+      </c>
+      <c r="Y208" s="15">
+        <f t="shared" si="67"/>
+        <v>3797052.9969666847</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="15">
+        <v>207</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D209" s="16"/>
+      <c r="E209" s="16">
+        <f t="shared" si="62"/>
+        <v>5203720.9786539804</v>
+      </c>
+      <c r="F209" s="16">
+        <v>5</v>
+      </c>
+      <c r="G209" s="16">
+        <f t="shared" si="96"/>
+        <v>1.463770754059962E+16</v>
+      </c>
+      <c r="H209" s="16">
+        <f t="shared" si="63"/>
+        <v>104240.07186395583</v>
+      </c>
+      <c r="I209" s="16">
+        <f t="shared" ref="I209" si="98">A209^6.013+A209^4+1000*A209+100</f>
+        <v>84321659440482.016</v>
+      </c>
+      <c r="J209" s="16">
+        <v>1</v>
+      </c>
+      <c r="K209" s="16">
+        <v>11</v>
+      </c>
+      <c r="L209" s="16">
+        <v>5</v>
+      </c>
+      <c r="M209" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N209" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O209" s="16">
+        <v>30</v>
+      </c>
+      <c r="P209" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q209" s="16">
+        <v>0</v>
+      </c>
+      <c r="R209" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S209" s="16">
+        <v>22.892857142857999</v>
+      </c>
+      <c r="T209" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U209" s="16">
+        <f t="shared" si="65"/>
+        <v>212</v>
+      </c>
+      <c r="V209" s="16">
+        <v>72</v>
+      </c>
+      <c r="W209" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="X209" s="15">
+        <f t="shared" si="66"/>
+        <v>1.0539149429231726E+18</v>
+      </c>
+      <c r="Y209" s="15">
+        <f t="shared" si="67"/>
+        <v>3798716.3144174055</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="15">
+        <v>208</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16">
+        <f t="shared" si="62"/>
+        <v>5276958.4107866157</v>
+      </c>
+      <c r="F210" s="16">
+        <v>5</v>
+      </c>
+      <c r="G210" s="16">
+        <f t="shared" si="96"/>
+        <v>1.5138475131182758E+16</v>
+      </c>
+      <c r="H210" s="16">
+        <f t="shared" si="63"/>
+        <v>105266.07649240621</v>
+      </c>
+      <c r="I210" s="16">
+        <f t="shared" ref="I210" si="99">A210^6.012+A210^4+1000*A210+100</f>
+        <v>86338835380419.313</v>
+      </c>
+      <c r="J210" s="16">
+        <v>1</v>
+      </c>
+      <c r="K210" s="16">
+        <v>11</v>
+      </c>
+      <c r="L210" s="16">
+        <v>5</v>
+      </c>
+      <c r="M210" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N210" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O210" s="16">
+        <v>30</v>
+      </c>
+      <c r="P210" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="16">
+        <v>0</v>
+      </c>
+      <c r="R210" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S210" s="16">
+        <v>23.2142857142866</v>
+      </c>
+      <c r="T210" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U210" s="16">
+        <f t="shared" si="65"/>
+        <v>213</v>
+      </c>
+      <c r="V210" s="16">
+        <v>73</v>
+      </c>
+      <c r="W210" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="X210" s="15">
+        <f t="shared" si="66"/>
+        <v>1.1051086845763414E+18</v>
+      </c>
+      <c r="Y210" s="15">
+        <f t="shared" si="67"/>
+        <v>3799410.0557663632</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="15">
+        <v>209</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D211" s="16"/>
+      <c r="E211" s="16">
+        <f t="shared" si="62"/>
+        <v>5350867.9036580445</v>
+      </c>
+      <c r="F211" s="16">
+        <v>5</v>
+      </c>
+      <c r="G211" s="16">
+        <f t="shared" si="96"/>
+        <v>1.5653848631424252E+16</v>
+      </c>
+      <c r="H211" s="16">
+        <f t="shared" si="63"/>
+        <v>106297.4780991044</v>
+      </c>
+      <c r="I211" s="16">
+        <f t="shared" ref="I211" si="100">A211^6.011+A211^4+1000*A211+100</f>
+        <v>88391133199765.578</v>
+      </c>
+      <c r="J211" s="16">
+        <v>1</v>
+      </c>
+      <c r="K211" s="16">
+        <v>11</v>
+      </c>
+      <c r="L211" s="16">
+        <v>5</v>
+      </c>
+      <c r="M211" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N211" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O211" s="16">
+        <v>30</v>
+      </c>
+      <c r="P211" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q211" s="16">
+        <v>0</v>
+      </c>
+      <c r="R211" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S211" s="16">
+        <v>23.535714285715201</v>
+      </c>
+      <c r="T211" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U211" s="16">
+        <f t="shared" si="65"/>
+        <v>214</v>
+      </c>
+      <c r="V211" s="16">
+        <v>74</v>
+      </c>
+      <c r="W211" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="X211" s="15">
+        <f t="shared" si="66"/>
+        <v>1.1583847987253947E+18</v>
+      </c>
+      <c r="Y211" s="15">
+        <f t="shared" si="67"/>
+        <v>3799116.2115972112</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581085D-8209-4270-A092-EBE4043483DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84393C4A-D630-4000-91A5-A442ED915801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="4230" windowWidth="35595" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="90">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,7 +582,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1</t>
+    <t>13-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1138,8 +1159,8 @@
   <dimension ref="A1:Y211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G204" sqref="G204"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15955,7 +15976,7 @@
         <v>56</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="10">
@@ -16037,7 +16058,7 @@
         <v>56</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="10">
@@ -16119,7 +16140,7 @@
         <v>56</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="10">
@@ -16283,7 +16304,7 @@
         <v>56</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="10">
@@ -16365,7 +16386,7 @@
         <v>56</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D187" s="10"/>
       <c r="E187" s="10">
@@ -16529,7 +16550,7 @@
         <v>56</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D189" s="10"/>
       <c r="E189" s="10">
@@ -16611,7 +16632,7 @@
         <v>56</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D190" s="10"/>
       <c r="E190" s="10">
@@ -16775,7 +16796,7 @@
         <v>56</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D192" s="10"/>
       <c r="E192" s="10">
@@ -16857,7 +16878,7 @@
         <v>56</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D193" s="10"/>
       <c r="E193" s="10">
@@ -17021,7 +17042,7 @@
         <v>56</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D195" s="10"/>
       <c r="E195" s="10">
@@ -17103,7 +17124,7 @@
         <v>56</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D196" s="10"/>
       <c r="E196" s="10">
@@ -17185,7 +17206,7 @@
         <v>56</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D197" s="16"/>
       <c r="E197" s="16">
@@ -17267,7 +17288,7 @@
         <v>56</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D198" s="16"/>
       <c r="E198" s="16">
@@ -17349,7 +17370,7 @@
         <v>56</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D199" s="16"/>
       <c r="E199" s="16">
@@ -17431,7 +17452,7 @@
         <v>56</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D200" s="16"/>
       <c r="E200" s="16">
@@ -17513,7 +17534,7 @@
         <v>56</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D201" s="16"/>
       <c r="E201" s="16">
@@ -17595,7 +17616,7 @@
         <v>56</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="16">
@@ -17677,7 +17698,7 @@
         <v>56</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D203" s="16"/>
       <c r="E203" s="16">
@@ -17759,7 +17780,7 @@
         <v>56</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D204" s="16"/>
       <c r="E204" s="16">
@@ -17841,7 +17862,7 @@
         <v>56</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D205" s="16"/>
       <c r="E205" s="16">
@@ -17923,7 +17944,7 @@
         <v>56</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D206" s="16"/>
       <c r="E206" s="16">
@@ -18005,7 +18026,7 @@
         <v>56</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D207" s="16"/>
       <c r="E207" s="16">
@@ -18087,7 +18108,7 @@
         <v>56</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D208" s="16"/>
       <c r="E208" s="16">
@@ -18169,7 +18190,7 @@
         <v>56</v>
       </c>
       <c r="C209" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D209" s="16"/>
       <c r="E209" s="16">
@@ -18251,7 +18272,7 @@
         <v>56</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D210" s="16"/>
       <c r="E210" s="16">
@@ -18333,7 +18354,7 @@
         <v>56</v>
       </c>
       <c r="C211" s="17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D211" s="16"/>
       <c r="E211" s="16">

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84393C4A-D630-4000-91A5-A442ED915801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77458F6-D198-42C2-8D5E-8419885B7168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1160,7 +1160,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C205" sqref="C205"/>
+      <selection pane="bottomLeft" activeCell="J205" sqref="J205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18037,8 +18037,8 @@
         <v>5</v>
       </c>
       <c r="G207" s="16">
-        <f>A207^6.98+A207^4+100*A207+100</f>
-        <v>1.3678611227602552E+16</v>
+        <f>A207^6.995+A207^4+100*A207+100</f>
+        <v>1.4815568126795568E+16</v>
       </c>
       <c r="H207" s="16">
         <f t="shared" si="63"/>
@@ -18093,7 +18093,7 @@
       </c>
       <c r="X207" s="15">
         <f t="shared" si="66"/>
-        <v>9.5750278593217869E+17</v>
+        <v>1.0370897688756897E+18</v>
       </c>
       <c r="Y207" s="15">
         <f t="shared" si="67"/>
@@ -18119,8 +18119,8 @@
         <v>5</v>
       </c>
       <c r="G208" s="16">
-        <f t="shared" ref="G208:G211" si="96">A208^6.98+A208^4+100*A208+100</f>
-        <v>1.4151199495511578E+16</v>
+        <f t="shared" ref="G208:G211" si="96">A208^6.995+A208^4+100*A208+100</f>
+        <v>1.5328556447558984E+16</v>
       </c>
       <c r="H208" s="16">
         <f t="shared" si="63"/>
@@ -18175,7 +18175,7 @@
       </c>
       <c r="X208" s="15">
         <f t="shared" si="66"/>
-        <v>1.004735164181322E+18</v>
+        <v>1.0883275077766879E+18</v>
       </c>
       <c r="Y208" s="15">
         <f t="shared" si="67"/>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="G209" s="16">
         <f t="shared" si="96"/>
-        <v>1.463770754059962E+16</v>
+        <v>1.5856692956965612E+16</v>
       </c>
       <c r="H209" s="16">
         <f t="shared" si="63"/>
@@ -18257,7 +18257,7 @@
       </c>
       <c r="X209" s="15">
         <f t="shared" si="66"/>
-        <v>1.0539149429231726E+18</v>
+        <v>1.1416818929015241E+18</v>
       </c>
       <c r="Y209" s="15">
         <f t="shared" si="67"/>
@@ -18284,7 +18284,7 @@
       </c>
       <c r="G210" s="16">
         <f t="shared" si="96"/>
-        <v>1.5138475131182758E+16</v>
+        <v>1.6400348534884516E+16</v>
       </c>
       <c r="H210" s="16">
         <f t="shared" si="63"/>
@@ -18339,7 +18339,7 @@
       </c>
       <c r="X210" s="15">
         <f t="shared" si="66"/>
-        <v>1.1051086845763414E+18</v>
+        <v>1.1972254430465697E+18</v>
       </c>
       <c r="Y210" s="15">
         <f t="shared" si="67"/>
@@ -18366,7 +18366,7 @@
       </c>
       <c r="G211" s="16">
         <f t="shared" si="96"/>
-        <v>1.5653848631424252E+16</v>
+        <v>1.6959901288390476E+16</v>
       </c>
       <c r="H211" s="16">
         <f t="shared" si="63"/>
@@ -18421,7 +18421,7 @@
       </c>
       <c r="X211" s="15">
         <f t="shared" si="66"/>
-        <v>1.1583847987253947E+18</v>
+        <v>1.2550326953408952E+18</v>
       </c>
       <c r="Y211" s="15">
         <f t="shared" si="67"/>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77458F6-D198-42C2-8D5E-8419885B7168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BEEBC5-9356-41F0-866E-4A434A881FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1160,7 +1160,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J205" sqref="J205"/>
+      <selection pane="bottomLeft" activeCell="Y177" sqref="Y177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16121,7 +16121,7 @@
         <v>46</v>
       </c>
       <c r="W183" s="10">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="X183" s="5">
         <f t="shared" si="66"/>
@@ -16129,7 +16129,7 @@
       </c>
       <c r="Y183" s="5">
         <f t="shared" si="67"/>
-        <v>3490623.9303947939</v>
+        <v>3561141.585554285</v>
       </c>
     </row>
     <row r="184" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16203,7 +16203,7 @@
         <v>47</v>
       </c>
       <c r="W184" s="10">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="X184" s="5">
         <f t="shared" si="66"/>
@@ -16211,7 +16211,7 @@
       </c>
       <c r="Y184" s="5">
         <f t="shared" si="67"/>
-        <v>3511018.3627697788</v>
+        <v>3618498.516732119</v>
       </c>
     </row>
     <row r="185" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16285,7 +16285,7 @@
         <v>48</v>
       </c>
       <c r="W185" s="10">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="X185" s="5">
         <f t="shared" si="66"/>
@@ -16293,7 +16293,7 @@
       </c>
       <c r="Y185" s="5">
         <f t="shared" si="67"/>
-        <v>3530855.0937167411</v>
+        <v>3676457.3656225861</v>
       </c>
     </row>
     <row r="186" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16367,7 +16367,7 @@
         <v>49</v>
       </c>
       <c r="W186" s="10">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="X186" s="5">
         <f t="shared" si="66"/>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="Y186" s="5">
         <f t="shared" si="67"/>
-        <v>3550119.0728813307</v>
+        <v>3735021.1079272334</v>
       </c>
     </row>
     <row r="187" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16449,7 +16449,7 @@
         <v>50</v>
       </c>
       <c r="W187" s="10">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="X187" s="5">
         <f t="shared" si="66"/>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="Y187" s="5">
         <f t="shared" si="67"/>
-        <v>3568795.1305305967</v>
+        <v>3794192.7177220029</v>
       </c>
     </row>
     <row r="188" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16531,7 +16531,7 @@
         <v>51</v>
       </c>
       <c r="W188" s="10">
-        <v>0.94</v>
+        <v>1.01</v>
       </c>
       <c r="X188" s="5">
         <f t="shared" si="66"/>
@@ -16539,7 +16539,7 @@
       </c>
       <c r="Y188" s="5">
         <f t="shared" si="67"/>
-        <v>3586867.9776424831</v>
+        <v>3853975.1674669236</v>
       </c>
     </row>
     <row r="189" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16613,7 +16613,7 @@
         <v>52</v>
       </c>
       <c r="W189" s="10">
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="X189" s="5">
         <f t="shared" si="66"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="Y189" s="5">
         <f t="shared" si="67"/>
-        <v>3604322.2059946195</v>
+        <v>3953127.5807682923</v>
       </c>
     </row>
     <row r="190" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16695,7 +16695,7 @@
         <v>53</v>
       </c>
       <c r="W190" s="10">
-        <v>0.92</v>
+        <v>1.02</v>
       </c>
       <c r="X190" s="5">
         <f t="shared" si="66"/>
@@ -16703,7 +16703,7 @@
       </c>
       <c r="Y190" s="5">
         <f t="shared" si="67"/>
-        <v>3621142.28825256</v>
+        <v>4014744.710888708</v>
       </c>
     </row>
     <row r="191" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16777,7 +16777,7 @@
         <v>54</v>
       </c>
       <c r="W191" s="10">
-        <v>0.91</v>
+        <v>1.02</v>
       </c>
       <c r="X191" s="5">
         <f t="shared" si="66"/>
@@ -16785,7 +16785,7 @@
       </c>
       <c r="Y191" s="5">
         <f t="shared" si="67"/>
-        <v>3637312.5780572733</v>
+        <v>4076987.7248554048</v>
       </c>
     </row>
     <row r="192" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16859,7 +16859,7 @@
         <v>55</v>
       </c>
       <c r="W192" s="10">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="X192" s="5">
         <f t="shared" si="66"/>
@@ -16867,7 +16867,7 @@
       </c>
       <c r="Y192" s="5">
         <f t="shared" si="67"/>
-        <v>3652817.3101119818</v>
+        <v>4139859.6181269125</v>
       </c>
     </row>
     <row r="193" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16941,7 +16941,7 @@
         <v>56</v>
       </c>
       <c r="W193" s="10">
-        <v>0.89</v>
+        <v>1.02</v>
       </c>
       <c r="X193" s="5">
         <f t="shared" si="66"/>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="Y193" s="5">
         <f t="shared" si="67"/>
-        <v>3667640.6002684161</v>
+        <v>4203363.3845772855</v>
       </c>
     </row>
     <row r="194" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17023,7 +17023,7 @@
         <v>57</v>
       </c>
       <c r="W194" s="10">
-        <v>0.88</v>
+        <v>1.02</v>
       </c>
       <c r="X194" s="5">
         <f t="shared" si="66"/>
@@ -17031,7 +17031,7 @@
       </c>
       <c r="Y194" s="5">
         <f t="shared" si="67"/>
-        <v>3681766.4456123579</v>
+        <v>4267502.016505233</v>
       </c>
     </row>
     <row r="195" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17105,7 +17105,7 @@
         <v>58</v>
       </c>
       <c r="W195" s="10">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="X195" s="5">
         <f t="shared" si="66"/>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="Y195" s="5">
         <f t="shared" si="67"/>
-        <v>3695178.7245486397</v>
+        <v>4332278.5046432326</v>
       </c>
     </row>
     <row r="196" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17187,7 +17187,7 @@
         <v>59</v>
       </c>
       <c r="W196" s="10">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="X196" s="5">
         <f t="shared" si="66"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="Y196" s="5">
         <f t="shared" si="67"/>
-        <v>3707861.1968854372</v>
+        <v>4397695.8381664483</v>
       </c>
     </row>
     <row r="197" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -17268,8 +17268,8 @@
       <c r="V197" s="16">
         <v>60</v>
       </c>
-      <c r="W197" s="16">
-        <v>0.85</v>
+      <c r="W197" s="10">
+        <v>1.03</v>
       </c>
       <c r="X197" s="15">
         <f t="shared" si="66"/>
@@ -17277,7 +17277,7 @@
       </c>
       <c r="Y197" s="15">
         <f t="shared" si="67"/>
-        <v>3719797.5039180522</v>
+        <v>4507519.3282771697</v>
       </c>
     </row>
     <row r="198" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -17350,8 +17350,8 @@
       <c r="V198" s="16">
         <v>61</v>
       </c>
-      <c r="W198" s="16">
-        <v>0.84</v>
+      <c r="W198" s="10">
+        <v>1.03</v>
       </c>
       <c r="X198" s="15">
         <f t="shared" si="66"/>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="Y198" s="15">
         <f t="shared" si="67"/>
-        <v>3730971.1685120077</v>
+        <v>4574881.313770676</v>
       </c>
     </row>
     <row r="199" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -17432,8 +17432,8 @@
       <c r="V199" s="16">
         <v>62</v>
       </c>
-      <c r="W199" s="16">
-        <v>0.83</v>
+      <c r="W199" s="10">
+        <v>1.03</v>
       </c>
       <c r="X199" s="15">
         <f t="shared" si="66"/>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="Y199" s="15">
         <f t="shared" si="67"/>
-        <v>3741365.5951856179</v>
+        <v>4642899.4735435983</v>
       </c>
     </row>
     <row r="200" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -17514,8 +17514,8 @@
       <c r="V200" s="16">
         <v>63</v>
       </c>
-      <c r="W200" s="16">
-        <v>0.82</v>
+      <c r="W200" s="10">
+        <v>1.03</v>
       </c>
       <c r="X200" s="15">
         <f t="shared" si="66"/>
@@ -17523,7 +17523,7 @@
       </c>
       <c r="Y200" s="15">
         <f t="shared" si="67"/>
-        <v>3750964.0701918891</v>
+        <v>4711576.8198751779</v>
       </c>
     </row>
     <row r="201" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -17596,8 +17596,8 @@
       <c r="V201" s="16">
         <v>64</v>
       </c>
-      <c r="W201" s="16">
-        <v>0.81</v>
+      <c r="W201" s="10">
+        <v>1.03</v>
       </c>
       <c r="X201" s="15">
         <f t="shared" si="66"/>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="Y201" s="15">
         <f t="shared" si="67"/>
-        <v>3759749.7615999575</v>
+        <v>4780916.3635159954</v>
       </c>
     </row>
     <row r="202" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -17678,8 +17678,8 @@
       <c r="V202" s="16">
         <v>65</v>
       </c>
-      <c r="W202" s="16">
-        <v>0.8</v>
+      <c r="W202" s="10">
+        <v>1.03</v>
       </c>
       <c r="X202" s="15">
         <f t="shared" si="66"/>
@@ -17687,7 +17687,7 @@
       </c>
       <c r="Y202" s="15">
         <f t="shared" si="67"/>
-        <v>3767705.7193758339</v>
+        <v>4850921.1136963861</v>
       </c>
     </row>
     <row r="203" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -17760,8 +17760,8 @@
       <c r="V203" s="16">
         <v>66</v>
       </c>
-      <c r="W203" s="16">
-        <v>0.79</v>
+      <c r="W203" s="10">
+        <v>1.03</v>
       </c>
       <c r="X203" s="15">
         <f t="shared" si="66"/>
@@ -17769,7 +17769,7 @@
       </c>
       <c r="Y203" s="15">
         <f t="shared" si="67"/>
-        <v>3774814.875462696</v>
+        <v>4921594.0781349074</v>
       </c>
     </row>
     <row r="204" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -17842,8 +17842,8 @@
       <c r="V204" s="16">
         <v>67</v>
       </c>
-      <c r="W204" s="16">
-        <v>0.78</v>
+      <c r="W204" s="10">
+        <v>1.03</v>
       </c>
       <c r="X204" s="15">
         <f t="shared" si="66"/>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="Y204" s="15">
         <f t="shared" si="67"/>
-        <v>3781060.0438605235</v>
+        <v>4992938.2630465887</v>
       </c>
     </row>
     <row r="205" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -17924,8 +17924,8 @@
       <c r="V205" s="16">
         <v>68</v>
       </c>
-      <c r="W205" s="16">
-        <v>0.77</v>
+      <c r="W205" s="10">
+        <v>1.04</v>
       </c>
       <c r="X205" s="15">
         <f t="shared" si="66"/>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="Y205" s="15">
         <f t="shared" si="67"/>
-        <v>3786423.9207052649</v>
+        <v>5114131.0097837346</v>
       </c>
     </row>
     <row r="206" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -18006,8 +18006,8 @@
       <c r="V206" s="16">
         <v>69</v>
       </c>
-      <c r="W206" s="16">
-        <v>0.76</v>
+      <c r="W206" s="10">
+        <v>1.04</v>
       </c>
       <c r="X206" s="15">
         <f t="shared" si="66"/>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="Y206" s="15">
         <f t="shared" si="67"/>
-        <v>3790889.084347439</v>
+        <v>5187532.4312122846</v>
       </c>
     </row>
     <row r="207" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -18088,8 +18088,8 @@
       <c r="V207" s="16">
         <v>70</v>
       </c>
-      <c r="W207" s="16">
-        <v>0.75</v>
+      <c r="W207" s="10">
+        <v>1.04</v>
       </c>
       <c r="X207" s="15">
         <f t="shared" si="66"/>
@@ -18097,7 +18097,7 @@
       </c>
       <c r="Y207" s="15">
         <f t="shared" si="67"/>
-        <v>3794437.9954301668</v>
+        <v>5261620.6869964981</v>
       </c>
     </row>
     <row r="208" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -18170,8 +18170,8 @@
       <c r="V208" s="16">
         <v>71</v>
       </c>
-      <c r="W208" s="16">
-        <v>0.74</v>
+      <c r="W208" s="10">
+        <v>1.04</v>
       </c>
       <c r="X208" s="15">
         <f t="shared" si="66"/>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="Y208" s="15">
         <f t="shared" si="67"/>
-        <v>3797052.9969666847</v>
+        <v>5336398.8065477731</v>
       </c>
     </row>
     <row r="209" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -18252,8 +18252,8 @@
       <c r="V209" s="16">
         <v>72</v>
       </c>
-      <c r="W209" s="16">
-        <v>0.73</v>
+      <c r="W209" s="10">
+        <v>1.04</v>
       </c>
       <c r="X209" s="15">
         <f t="shared" si="66"/>
@@ -18261,7 +18261,7 @@
       </c>
       <c r="Y209" s="15">
         <f t="shared" si="67"/>
-        <v>3798716.3144174055</v>
+        <v>5411869.81780014</v>
       </c>
     </row>
     <row r="210" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -18334,8 +18334,8 @@
       <c r="V210" s="16">
         <v>73</v>
       </c>
-      <c r="W210" s="16">
-        <v>0.72</v>
+      <c r="W210" s="10">
+        <v>1.04</v>
       </c>
       <c r="X210" s="15">
         <f t="shared" si="66"/>
@@ -18343,7 +18343,7 @@
       </c>
       <c r="Y210" s="15">
         <f t="shared" si="67"/>
-        <v>3799410.0557663632</v>
+        <v>5488036.7472180808</v>
       </c>
     </row>
     <row r="211" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -18416,8 +18416,8 @@
       <c r="V211" s="16">
         <v>74</v>
       </c>
-      <c r="W211" s="16">
-        <v>0.71</v>
+      <c r="W211" s="10">
+        <v>1.04</v>
       </c>
       <c r="X211" s="15">
         <f t="shared" si="66"/>
@@ -18425,7 +18425,7 @@
       </c>
       <c r="Y211" s="15">
         <f t="shared" si="67"/>
-        <v>3799116.2115972112</v>
+        <v>5564902.6198043665</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BEEBC5-9356-41F0-866E-4A434A881FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB64DF42-1B2D-4184-8F3B-CA0237CDC3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="90">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,7 +610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,8 +692,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,8 +734,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -765,8 +778,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,8 +806,11 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,8 +865,24 @@
     <xf numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="강조색2" xfId="5" builtinId="33"/>
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
@@ -1156,11 +1199,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Y211"/>
+  <dimension ref="A1:Y302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y177" sqref="Y177"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G250" sqref="G250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15980,7 +16023,7 @@
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="10">
-        <f t="shared" ref="E182:E211" si="62">A182^2.9</f>
+        <f t="shared" ref="E182:E245" si="62">A182^2.9</f>
         <v>3469686.7274772446</v>
       </c>
       <c r="F182" s="10">
@@ -18426,6 +18469,6558 @@
       <c r="Y211" s="15">
         <f t="shared" si="67"/>
         <v>5564902.6198043665</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A212" s="21">
+        <v>210</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E212" s="12">
+        <f t="shared" si="62"/>
+        <v>5425452.3645266946</v>
+      </c>
+      <c r="F212" s="16">
+        <v>5</v>
+      </c>
+      <c r="G212" s="18">
+        <f>A212^7.01+A212^4+100*A212+100</f>
+        <v>1.9000161854298256E+16</v>
+      </c>
+      <c r="H212" s="16">
+        <f>A212^2.146+50+50*A212</f>
+        <v>106818.14567933552</v>
+      </c>
+      <c r="I212" s="16">
+        <f>A212^6.018+A212^4+1000*A212+100</f>
+        <v>94433190055203.766</v>
+      </c>
+      <c r="J212" s="16">
+        <v>1</v>
+      </c>
+      <c r="K212" s="16">
+        <v>11</v>
+      </c>
+      <c r="L212" s="16">
+        <v>5</v>
+      </c>
+      <c r="M212" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N212" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O212" s="16">
+        <v>30</v>
+      </c>
+      <c r="P212" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="16">
+        <v>0</v>
+      </c>
+      <c r="R212" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S212" s="16">
+        <v>23.857142857143799</v>
+      </c>
+      <c r="T212" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U212" s="16">
+        <v>216</v>
+      </c>
+      <c r="V212" s="16">
+        <v>75</v>
+      </c>
+      <c r="W212" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A213" s="20">
+        <v>211</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E213" s="12">
+        <f t="shared" si="62"/>
+        <v>5500714.6992603028</v>
+      </c>
+      <c r="F213" s="16">
+        <v>5</v>
+      </c>
+      <c r="G213" s="18">
+        <f t="shared" ref="G213:G240" si="101">A213^7.01+A213^4+100*A213+100</f>
+        <v>1.9643553565411292E+16</v>
+      </c>
+      <c r="H213" s="16">
+        <f t="shared" ref="H213:H276" si="102">A213^2.146+50+50*A213</f>
+        <v>107854.59934901509</v>
+      </c>
+      <c r="I213" s="16">
+        <f t="shared" ref="I213:I276" si="103">A213^6.018+A213^4+1000*A213+100</f>
+        <v>97171895798660.766</v>
+      </c>
+      <c r="J213" s="16">
+        <v>1</v>
+      </c>
+      <c r="K213" s="16">
+        <v>11</v>
+      </c>
+      <c r="L213" s="16">
+        <v>5</v>
+      </c>
+      <c r="M213" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N213" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O213" s="16">
+        <v>30</v>
+      </c>
+      <c r="P213" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q213" s="16">
+        <v>0</v>
+      </c>
+      <c r="R213" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S213" s="16">
+        <v>24.1785714285724</v>
+      </c>
+      <c r="T213" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U213" s="16">
+        <v>218</v>
+      </c>
+      <c r="V213" s="16">
+        <v>76</v>
+      </c>
+      <c r="W213" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A214" s="5">
+        <v>212</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E214" s="16">
+        <f t="shared" si="62"/>
+        <v>5576657.8123431541</v>
+      </c>
+      <c r="F214" s="16">
+        <v>5</v>
+      </c>
+      <c r="G214" s="18">
+        <f t="shared" si="101"/>
+        <v>2.0305534614973924E+16</v>
+      </c>
+      <c r="H214" s="16">
+        <f t="shared" si="102"/>
+        <v>108896.42530899418</v>
+      </c>
+      <c r="I214" s="16">
+        <f t="shared" si="103"/>
+        <v>99976513334736.828</v>
+      </c>
+      <c r="J214" s="16">
+        <v>1</v>
+      </c>
+      <c r="K214" s="16">
+        <v>11</v>
+      </c>
+      <c r="L214" s="16">
+        <v>5</v>
+      </c>
+      <c r="M214" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N214" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O214" s="16">
+        <v>30</v>
+      </c>
+      <c r="P214" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q214" s="16">
+        <v>0</v>
+      </c>
+      <c r="R214" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S214" s="16">
+        <v>24.500000000000998</v>
+      </c>
+      <c r="T214" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U214" s="16">
+        <v>220</v>
+      </c>
+      <c r="V214" s="16">
+        <v>77</v>
+      </c>
+      <c r="W214" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A215" s="20">
+        <v>213</v>
+      </c>
+      <c r="B215" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E215" s="16">
+        <f t="shared" si="62"/>
+        <v>5653284.6068833573</v>
+      </c>
+      <c r="F215" s="16">
+        <v>5</v>
+      </c>
+      <c r="G215" s="18">
+        <f t="shared" si="101"/>
+        <v>2.098655059711474E+16</v>
+      </c>
+      <c r="H215" s="16">
+        <f t="shared" si="102"/>
+        <v>109943.62726910344</v>
+      </c>
+      <c r="I215" s="16">
+        <f t="shared" si="103"/>
+        <v>102848306784326.16</v>
+      </c>
+      <c r="J215" s="16">
+        <v>1</v>
+      </c>
+      <c r="K215" s="16">
+        <v>11</v>
+      </c>
+      <c r="L215" s="16">
+        <v>5</v>
+      </c>
+      <c r="M215" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N215" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O215" s="16">
+        <v>30</v>
+      </c>
+      <c r="P215" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q215" s="16">
+        <v>0</v>
+      </c>
+      <c r="R215" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S215" s="16">
+        <v>24.8214285714296</v>
+      </c>
+      <c r="T215" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U215" s="16">
+        <v>222</v>
+      </c>
+      <c r="V215" s="16">
+        <v>78</v>
+      </c>
+      <c r="W215" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A216" s="5">
+        <v>214</v>
+      </c>
+      <c r="B216" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C216" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E216" s="16">
+        <f t="shared" si="62"/>
+        <v>5730597.9846198717</v>
+      </c>
+      <c r="F216" s="16">
+        <v>5</v>
+      </c>
+      <c r="G216" s="18">
+        <f t="shared" si="101"/>
+        <v>2.1687055614505988E+16</v>
+      </c>
+      <c r="H216" s="16">
+        <f t="shared" si="102"/>
+        <v>110996.20892425849</v>
+      </c>
+      <c r="I216" s="16">
+        <f t="shared" si="103"/>
+        <v>105788558392638.86</v>
+      </c>
+      <c r="J216" s="16">
+        <v>1</v>
+      </c>
+      <c r="K216" s="16">
+        <v>11</v>
+      </c>
+      <c r="L216" s="16">
+        <v>5</v>
+      </c>
+      <c r="M216" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N216" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O216" s="16">
+        <v>30</v>
+      </c>
+      <c r="P216" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q216" s="16">
+        <v>0</v>
+      </c>
+      <c r="R216" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S216" s="16">
+        <v>25.142857142858201</v>
+      </c>
+      <c r="T216" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U216" s="16">
+        <v>224</v>
+      </c>
+      <c r="V216" s="16">
+        <v>79</v>
+      </c>
+      <c r="W216" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A217" s="20">
+        <v>215</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E217" s="16">
+        <f t="shared" si="62"/>
+        <v>5808600.8459297325</v>
+      </c>
+      <c r="F217" s="16">
+        <v>5</v>
+      </c>
+      <c r="G217" s="18">
+        <f t="shared" si="101"/>
+        <v>2.240751239974224E+16</v>
+      </c>
+      <c r="H217" s="16">
+        <f t="shared" si="102"/>
+        <v>112054.17395459089</v>
+      </c>
+      <c r="I217" s="16">
+        <f t="shared" si="103"/>
+        <v>108798568702140.31</v>
+      </c>
+      <c r="J217" s="16">
+        <v>1</v>
+      </c>
+      <c r="K217" s="16">
+        <v>11</v>
+      </c>
+      <c r="L217" s="16">
+        <v>5</v>
+      </c>
+      <c r="M217" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N217" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O217" s="16">
+        <v>30</v>
+      </c>
+      <c r="P217" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q217" s="16">
+        <v>0</v>
+      </c>
+      <c r="R217" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S217" s="16">
+        <v>25.464285714286799</v>
+      </c>
+      <c r="T217" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U217" s="16">
+        <v>226</v>
+      </c>
+      <c r="V217" s="16">
+        <v>80</v>
+      </c>
+      <c r="W217" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A218" s="5">
+        <v>216</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E218" s="16">
+        <f t="shared" si="62"/>
+        <v>5887296.0898349043</v>
+      </c>
+      <c r="F218" s="16">
+        <v>5</v>
+      </c>
+      <c r="G218" s="18">
+        <f t="shared" si="101"/>
+        <v>2.3148392437867488E+16</v>
+      </c>
+      <c r="H218" s="16">
+        <f t="shared" si="102"/>
+        <v>113117.52602557463</v>
+      </c>
+      <c r="I218" s="16">
+        <f t="shared" si="103"/>
+        <v>111879656726313.03</v>
+      </c>
+      <c r="J218" s="16">
+        <v>1</v>
+      </c>
+      <c r="K218" s="16">
+        <v>11</v>
+      </c>
+      <c r="L218" s="16">
+        <v>5</v>
+      </c>
+      <c r="M218" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N218" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O218" s="16">
+        <v>30</v>
+      </c>
+      <c r="P218" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q218" s="16">
+        <v>0</v>
+      </c>
+      <c r="R218" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S218" s="16">
+        <v>25.7857142857154</v>
+      </c>
+      <c r="T218" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U218" s="16">
+        <v>228</v>
+      </c>
+      <c r="V218" s="16">
+        <v>81</v>
+      </c>
+      <c r="W218" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A219" s="20">
+        <v>217</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E219" s="16">
+        <f t="shared" si="62"/>
+        <v>5966686.6140092807</v>
+      </c>
+      <c r="F219" s="16">
+        <v>5</v>
+      </c>
+      <c r="G219" s="18">
+        <f t="shared" si="101"/>
+        <v>2.391017609005838E+16</v>
+      </c>
+      <c r="H219" s="16">
+        <f t="shared" si="102"/>
+        <v>114186.26878815246</v>
+      </c>
+      <c r="I219" s="16">
+        <f t="shared" si="103"/>
+        <v>115033160124247.84</v>
+      </c>
+      <c r="J219" s="16">
+        <v>1</v>
+      </c>
+      <c r="K219" s="16">
+        <v>11</v>
+      </c>
+      <c r="L219" s="16">
+        <v>5</v>
+      </c>
+      <c r="M219" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N219" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O219" s="16">
+        <v>30</v>
+      </c>
+      <c r="P219" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q219" s="16">
+        <v>0</v>
+      </c>
+      <c r="R219" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S219" s="16">
+        <v>26.107142857144002</v>
+      </c>
+      <c r="T219" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U219" s="16">
+        <v>230</v>
+      </c>
+      <c r="V219" s="16">
+        <v>82</v>
+      </c>
+      <c r="W219" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A220" s="5">
+        <v>218</v>
+      </c>
+      <c r="B220" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E220" s="16">
+        <f t="shared" si="62"/>
+        <v>6046775.3147855587</v>
+      </c>
+      <c r="F220" s="16">
+        <v>5</v>
+      </c>
+      <c r="G220" s="18">
+        <f t="shared" si="101"/>
+        <v>2.4693352718471884E+16</v>
+      </c>
+      <c r="H220" s="16">
+        <f t="shared" si="102"/>
+        <v>115260.40587886114</v>
+      </c>
+      <c r="I220" s="16">
+        <f t="shared" si="103"/>
+        <v>118260435376067.86</v>
+      </c>
+      <c r="J220" s="16">
+        <v>1</v>
+      </c>
+      <c r="K220" s="16">
+        <v>11</v>
+      </c>
+      <c r="L220" s="16">
+        <v>5</v>
+      </c>
+      <c r="M220" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N220" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O220" s="16">
+        <v>30</v>
+      </c>
+      <c r="P220" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q220" s="16">
+        <v>0</v>
+      </c>
+      <c r="R220" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S220" s="16">
+        <v>26.428571428572599</v>
+      </c>
+      <c r="T220" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U220" s="16">
+        <v>232</v>
+      </c>
+      <c r="V220" s="16">
+        <v>83</v>
+      </c>
+      <c r="W220" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A221" s="20">
+        <v>219</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E221" s="16">
+        <f t="shared" si="62"/>
+        <v>6127565.0871620011</v>
+      </c>
+      <c r="F221" s="16">
+        <v>5</v>
+      </c>
+      <c r="G221" s="18">
+        <f t="shared" si="101"/>
+        <v>2.5498420812257144E+16</v>
+      </c>
+      <c r="H221" s="16">
+        <f t="shared" si="102"/>
+        <v>116339.94091995439</v>
+      </c>
+      <c r="I221" s="16">
+        <f t="shared" si="103"/>
+        <v>121562857959178.03</v>
+      </c>
+      <c r="J221" s="16">
+        <v>1</v>
+      </c>
+      <c r="K221" s="16">
+        <v>11</v>
+      </c>
+      <c r="L221" s="16">
+        <v>5</v>
+      </c>
+      <c r="M221" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N221" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O221" s="16">
+        <v>30</v>
+      </c>
+      <c r="P221" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q221" s="16">
+        <v>0</v>
+      </c>
+      <c r="R221" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S221" s="16">
+        <v>26.750000000001201</v>
+      </c>
+      <c r="T221" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U221" s="16">
+        <v>234</v>
+      </c>
+      <c r="V221" s="16">
+        <v>84</v>
+      </c>
+      <c r="W221" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A222" s="5">
+        <v>220</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E222" s="16">
+        <f t="shared" si="62"/>
+        <v>6209058.8248092029</v>
+      </c>
+      <c r="F222" s="16">
+        <v>5</v>
+      </c>
+      <c r="G222" s="18">
+        <f t="shared" si="101"/>
+        <v>2.632588811474114E+16</v>
+      </c>
+      <c r="H222" s="16">
+        <f t="shared" si="102"/>
+        <v>117424.87751952246</v>
+      </c>
+      <c r="I222" s="16">
+        <f t="shared" si="103"/>
+        <v>124941822525343.16</v>
+      </c>
+      <c r="J222" s="16">
+        <v>1</v>
+      </c>
+      <c r="K222" s="16">
+        <v>11</v>
+      </c>
+      <c r="L222" s="16">
+        <v>5</v>
+      </c>
+      <c r="M222" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N222" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O222" s="16">
+        <v>30</v>
+      </c>
+      <c r="P222" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="16">
+        <v>0</v>
+      </c>
+      <c r="R222" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S222" s="16">
+        <v>27.071428571429799</v>
+      </c>
+      <c r="T222" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U222" s="16">
+        <v>236</v>
+      </c>
+      <c r="V222" s="16">
+        <v>85</v>
+      </c>
+      <c r="W222" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A223" s="20">
+        <v>221</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E223" s="16">
+        <f t="shared" si="62"/>
+        <v>6291259.4200767074</v>
+      </c>
+      <c r="F223" s="16">
+        <v>5</v>
+      </c>
+      <c r="G223" s="18">
+        <f t="shared" si="101"/>
+        <v>2.7176271751792404E+16</v>
+      </c>
+      <c r="H223" s="16">
+        <f t="shared" si="102"/>
+        <v>118515.21927161352</v>
+      </c>
+      <c r="I223" s="16">
+        <f t="shared" si="103"/>
+        <v>128398743078596.42</v>
+      </c>
+      <c r="J223" s="16">
+        <v>1</v>
+      </c>
+      <c r="K223" s="16">
+        <v>11</v>
+      </c>
+      <c r="L223" s="16">
+        <v>5</v>
+      </c>
+      <c r="M223" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N223" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O223" s="16">
+        <v>30</v>
+      </c>
+      <c r="P223" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q223" s="16">
+        <v>0</v>
+      </c>
+      <c r="R223" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S223" s="16">
+        <v>27.3928571428584</v>
+      </c>
+      <c r="T223" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U223" s="16">
+        <v>238</v>
+      </c>
+      <c r="V223" s="16">
+        <v>86</v>
+      </c>
+      <c r="W223" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A224" s="5">
+        <v>222</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E224" s="16">
+        <f t="shared" si="62"/>
+        <v>6374169.7639996912</v>
+      </c>
+      <c r="F224" s="16">
+        <v>5</v>
+      </c>
+      <c r="G224" s="18">
+        <f t="shared" si="101"/>
+        <v>2.80500983613692E+16</v>
+      </c>
+      <c r="H224" s="16">
+        <f t="shared" si="102"/>
+        <v>119610.96975635154</v>
+      </c>
+      <c r="I224" s="16">
+        <f t="shared" si="103"/>
+        <v>131935053153975.55</v>
+      </c>
+      <c r="J224" s="16">
+        <v>1</v>
+      </c>
+      <c r="K224" s="16">
+        <v>11</v>
+      </c>
+      <c r="L224" s="16">
+        <v>5</v>
+      </c>
+      <c r="M224" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N224" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O224" s="16">
+        <v>30</v>
+      </c>
+      <c r="P224" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q224" s="16">
+        <v>0</v>
+      </c>
+      <c r="R224" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S224" s="16">
+        <v>27.714285714287001</v>
+      </c>
+      <c r="T224" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U224" s="16">
+        <v>240</v>
+      </c>
+      <c r="V224" s="16">
+        <v>87</v>
+      </c>
+      <c r="W224" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A225" s="20">
+        <v>223</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E225" s="12">
+        <f t="shared" si="62"/>
+        <v>6457792.7463054061</v>
+      </c>
+      <c r="F225" s="16">
+        <v>5</v>
+      </c>
+      <c r="G225" s="18">
+        <f t="shared" si="101"/>
+        <v>2.8947904224254508E+16</v>
+      </c>
+      <c r="H225" s="16">
+        <f t="shared" si="102"/>
+        <v>120712.13254005185</v>
+      </c>
+      <c r="I225" s="16">
+        <f t="shared" si="103"/>
+        <v>135552205997089.42</v>
+      </c>
+      <c r="J225" s="16">
+        <v>1</v>
+      </c>
+      <c r="K225" s="16">
+        <v>11</v>
+      </c>
+      <c r="L225" s="16">
+        <v>5</v>
+      </c>
+      <c r="M225" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N225" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O225" s="16">
+        <v>30</v>
+      </c>
+      <c r="P225" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q225" s="16">
+        <v>0</v>
+      </c>
+      <c r="R225" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S225" s="16">
+        <v>28.035714285715599</v>
+      </c>
+      <c r="T225" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U225" s="16">
+        <v>242</v>
+      </c>
+      <c r="V225" s="16">
+        <v>88</v>
+      </c>
+      <c r="W225" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A226" s="5">
+        <v>224</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E226" s="12">
+        <f t="shared" si="62"/>
+        <v>6542131.2554197293</v>
+      </c>
+      <c r="F226" s="16">
+        <v>5</v>
+      </c>
+      <c r="G226" s="18">
+        <f t="shared" si="101"/>
+        <v>2.9870235395987588E+16</v>
+      </c>
+      <c r="H226" s="16">
+        <f t="shared" si="102"/>
+        <v>121818.71117533711</v>
+      </c>
+      <c r="I226" s="16">
+        <f t="shared" si="103"/>
+        <v>139251674744508.56</v>
+      </c>
+      <c r="J226" s="16">
+        <v>1</v>
+      </c>
+      <c r="K226" s="16">
+        <v>11</v>
+      </c>
+      <c r="L226" s="16">
+        <v>5</v>
+      </c>
+      <c r="M226" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N226" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O226" s="16">
+        <v>30</v>
+      </c>
+      <c r="P226" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q226" s="16">
+        <v>0</v>
+      </c>
+      <c r="R226" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S226" s="16">
+        <v>28.357142857144201</v>
+      </c>
+      <c r="T226" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U226" s="16">
+        <v>244</v>
+      </c>
+      <c r="V226" s="16">
+        <v>89</v>
+      </c>
+      <c r="W226" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A227" s="19">
+        <v>225</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E227" s="16">
+        <f t="shared" si="62"/>
+        <v>6627188.1784735788</v>
+      </c>
+      <c r="F227" s="16">
+        <v>5</v>
+      </c>
+      <c r="G227" s="18">
+        <f t="shared" si="101"/>
+        <v>3.081764783999416E+16</v>
+      </c>
+      <c r="H227" s="16">
+        <f t="shared" si="102"/>
+        <v>122930.70920125126</v>
+      </c>
+      <c r="I227" s="16">
+        <f t="shared" si="103"/>
+        <v>143034952604997.34</v>
+      </c>
+      <c r="J227" s="16">
+        <v>1</v>
+      </c>
+      <c r="K227" s="16">
+        <v>11</v>
+      </c>
+      <c r="L227" s="16">
+        <v>5</v>
+      </c>
+      <c r="M227" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N227" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O227" s="16">
+        <v>30</v>
+      </c>
+      <c r="P227" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q227" s="16">
+        <v>0</v>
+      </c>
+      <c r="R227" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S227" s="16">
+        <v>28.678571428572798</v>
+      </c>
+      <c r="T227" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U227" s="16">
+        <v>246</v>
+      </c>
+      <c r="V227" s="16">
+        <v>90</v>
+      </c>
+      <c r="W227" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A228" s="15">
+        <v>226</v>
+      </c>
+      <c r="B228" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E228" s="16">
+        <f t="shared" si="62"/>
+        <v>6712966.4013092369</v>
+      </c>
+      <c r="F228" s="16">
+        <v>5</v>
+      </c>
+      <c r="G228" s="18">
+        <f t="shared" si="101"/>
+        <v>3.1790707561923456E+16</v>
+      </c>
+      <c r="H228" s="16">
+        <f t="shared" si="102"/>
+        <v>124048.13014337065</v>
+      </c>
+      <c r="I228" s="16">
+        <f t="shared" si="103"/>
+        <v>146903553041557.69</v>
+      </c>
+      <c r="J228" s="16">
+        <v>1</v>
+      </c>
+      <c r="K228" s="16">
+        <v>11</v>
+      </c>
+      <c r="L228" s="16">
+        <v>5</v>
+      </c>
+      <c r="M228" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N228" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O228" s="16">
+        <v>30</v>
+      </c>
+      <c r="P228" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q228" s="16">
+        <v>0</v>
+      </c>
+      <c r="R228" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S228" s="16">
+        <v>29.0000000000014</v>
+      </c>
+      <c r="T228" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U228" s="16">
+        <v>248</v>
+      </c>
+      <c r="V228" s="16">
+        <v>91</v>
+      </c>
+      <c r="W228" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A229" s="19">
+        <v>227</v>
+      </c>
+      <c r="B229" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E229" s="16">
+        <f t="shared" si="62"/>
+        <v>6799468.808486647</v>
+      </c>
+      <c r="F229" s="16">
+        <v>5</v>
+      </c>
+      <c r="G229" s="18">
+        <f t="shared" si="101"/>
+        <v>3.2789990745193528E+16</v>
+      </c>
+      <c r="H229" s="16">
+        <f t="shared" si="102"/>
+        <v>125170.97751391516</v>
+      </c>
+      <c r="I229" s="16">
+        <f t="shared" si="103"/>
+        <v>150859009954316.31</v>
+      </c>
+      <c r="J229" s="16">
+        <v>1</v>
+      </c>
+      <c r="K229" s="16">
+        <v>11</v>
+      </c>
+      <c r="L229" s="16">
+        <v>5</v>
+      </c>
+      <c r="M229" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N229" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O229" s="16">
+        <v>30</v>
+      </c>
+      <c r="P229" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q229" s="16">
+        <v>0</v>
+      </c>
+      <c r="R229" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S229" s="16">
+        <v>29.321428571430001</v>
+      </c>
+      <c r="T229" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U229" s="16">
+        <v>250</v>
+      </c>
+      <c r="V229" s="16">
+        <v>92</v>
+      </c>
+      <c r="W229" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A230" s="15">
+        <v>228</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E230" s="16">
+        <f t="shared" si="62"/>
+        <v>6886698.2832897073</v>
+      </c>
+      <c r="F230" s="16">
+        <v>5</v>
+      </c>
+      <c r="G230" s="18">
+        <f t="shared" si="101"/>
+        <v>3.3816083887755656E+16</v>
+      </c>
+      <c r="H230" s="16">
+        <f t="shared" si="102"/>
+        <v>126299.25481185799</v>
+      </c>
+      <c r="I230" s="16">
+        <f t="shared" si="103"/>
+        <v>154902877864235.84</v>
+      </c>
+      <c r="J230" s="16">
+        <v>1</v>
+      </c>
+      <c r="K230" s="16">
+        <v>11</v>
+      </c>
+      <c r="L230" s="16">
+        <v>5</v>
+      </c>
+      <c r="M230" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N230" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O230" s="16">
+        <v>30</v>
+      </c>
+      <c r="P230" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q230" s="16">
+        <v>0</v>
+      </c>
+      <c r="R230" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S230" s="16">
+        <v>29.642857142858599</v>
+      </c>
+      <c r="T230" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U230" s="16">
+        <v>252</v>
+      </c>
+      <c r="V230" s="16">
+        <v>93</v>
+      </c>
+      <c r="W230" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A231" s="19">
+        <v>229</v>
+      </c>
+      <c r="B231" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E231" s="16">
+        <f t="shared" si="62"/>
+        <v>6974657.7077323757</v>
+      </c>
+      <c r="F231" s="16">
+        <v>5</v>
+      </c>
+      <c r="G231" s="18">
+        <f t="shared" si="101"/>
+        <v>3.4869583940079652E+16</v>
+      </c>
+      <c r="H231" s="16">
+        <f t="shared" si="102"/>
+        <v>127432.96552303368</v>
+      </c>
+      <c r="I231" s="16">
+        <f t="shared" si="103"/>
+        <v>159036732097656.66</v>
+      </c>
+      <c r="J231" s="16">
+        <v>1</v>
+      </c>
+      <c r="K231" s="16">
+        <v>11</v>
+      </c>
+      <c r="L231" s="16">
+        <v>5</v>
+      </c>
+      <c r="M231" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N231" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O231" s="16">
+        <v>30</v>
+      </c>
+      <c r="P231" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q231" s="16">
+        <v>0</v>
+      </c>
+      <c r="R231" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S231" s="16">
+        <v>29.9642857142872</v>
+      </c>
+      <c r="T231" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U231" s="16">
+        <v>254</v>
+      </c>
+      <c r="V231" s="16">
+        <v>94</v>
+      </c>
+      <c r="W231" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A232" s="15">
+        <v>230</v>
+      </c>
+      <c r="B232" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E232" s="16">
+        <f t="shared" si="62"/>
+        <v>7063349.9625648949</v>
+      </c>
+      <c r="F232" s="16">
+        <v>5</v>
+      </c>
+      <c r="G232" s="18">
+        <f t="shared" si="101"/>
+        <v>3.595109844436402E+16</v>
+      </c>
+      <c r="H232" s="16">
+        <f t="shared" si="102"/>
+        <v>128572.11312024422</v>
+      </c>
+      <c r="I232" s="16">
+        <f t="shared" si="103"/>
+        <v>163262168971662.16</v>
+      </c>
+      <c r="J232" s="16">
+        <v>1</v>
+      </c>
+      <c r="K232" s="16">
+        <v>11</v>
+      </c>
+      <c r="L232" s="16">
+        <v>5</v>
+      </c>
+      <c r="M232" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N232" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O232" s="16">
+        <v>30</v>
+      </c>
+      <c r="P232" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q232" s="16">
+        <v>0</v>
+      </c>
+      <c r="R232" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S232" s="16">
+        <v>30.285714285715802</v>
+      </c>
+      <c r="T232" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U232" s="16">
+        <v>256</v>
+      </c>
+      <c r="V232" s="16">
+        <v>95</v>
+      </c>
+      <c r="W232" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A233" s="19">
+        <v>231</v>
+      </c>
+      <c r="B233" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E233" s="16">
+        <f t="shared" si="62"/>
+        <v>7152777.9272797396</v>
+      </c>
+      <c r="F233" s="16">
+        <v>5</v>
+      </c>
+      <c r="G233" s="18">
+        <f t="shared" si="101"/>
+        <v>3.7061245674983104E+16</v>
+      </c>
+      <c r="H233" s="16">
+        <f t="shared" si="102"/>
+        <v>129716.7010633641</v>
+      </c>
+      <c r="I233" s="16">
+        <f t="shared" si="103"/>
+        <v>167580805980284.34</v>
+      </c>
+      <c r="J233" s="16">
+        <v>1</v>
+      </c>
+      <c r="K233" s="16">
+        <v>11</v>
+      </c>
+      <c r="L233" s="16">
+        <v>5</v>
+      </c>
+      <c r="M233" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N233" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O233" s="16">
+        <v>30</v>
+      </c>
+      <c r="P233" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q233" s="16">
+        <v>0</v>
+      </c>
+      <c r="R233" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S233" s="16">
+        <v>30.6071428571444</v>
+      </c>
+      <c r="T233" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U233" s="16">
+        <v>258</v>
+      </c>
+      <c r="V233" s="16">
+        <v>96</v>
+      </c>
+      <c r="W233" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A234" s="15">
+        <v>232</v>
+      </c>
+      <c r="B234" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E234" s="16">
+        <f t="shared" si="62"/>
+        <v>7242944.4801177559</v>
+      </c>
+      <c r="F234" s="16">
+        <v>5</v>
+      </c>
+      <c r="G234" s="18">
+        <f t="shared" si="101"/>
+        <v>3.8200654780169392E+16</v>
+      </c>
+      <c r="H234" s="16">
+        <f t="shared" si="102"/>
+        <v>130866.73279944605</v>
+      </c>
+      <c r="I234" s="16">
+        <f t="shared" si="103"/>
+        <v>171994281981533.72</v>
+      </c>
+      <c r="J234" s="16">
+        <v>1</v>
+      </c>
+      <c r="K234" s="16">
+        <v>11</v>
+      </c>
+      <c r="L234" s="16">
+        <v>5</v>
+      </c>
+      <c r="M234" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N234" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O234" s="16">
+        <v>30</v>
+      </c>
+      <c r="P234" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q234" s="16">
+        <v>0</v>
+      </c>
+      <c r="R234" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S234" s="16">
+        <v>30.928571428573001</v>
+      </c>
+      <c r="T234" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U234" s="16">
+        <v>260</v>
+      </c>
+      <c r="V234" s="16">
+        <v>97</v>
+      </c>
+      <c r="W234" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A235" s="19">
+        <v>233</v>
+      </c>
+      <c r="B235" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E235" s="16">
+        <f t="shared" si="62"/>
+        <v>7333852.4980740137</v>
+      </c>
+      <c r="F235" s="16">
+        <v>5</v>
+      </c>
+      <c r="G235" s="18">
+        <f t="shared" si="101"/>
+        <v>3.9369965924938816E+16</v>
+      </c>
+      <c r="H235" s="16">
+        <f t="shared" si="102"/>
+        <v>132022.2117628213</v>
+      </c>
+      <c r="I235" s="16">
+        <f t="shared" si="103"/>
+        <v>176504257385250.91</v>
+      </c>
+      <c r="J235" s="16">
+        <v>1</v>
+      </c>
+      <c r="K235" s="16">
+        <v>11</v>
+      </c>
+      <c r="L235" s="16">
+        <v>5</v>
+      </c>
+      <c r="M235" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N235" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O235" s="16">
+        <v>30</v>
+      </c>
+      <c r="P235" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q235" s="16">
+        <v>0</v>
+      </c>
+      <c r="R235" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S235" s="16">
+        <v>31.250000000001599</v>
+      </c>
+      <c r="T235" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U235" s="16">
+        <v>262</v>
+      </c>
+      <c r="V235" s="16">
+        <v>98</v>
+      </c>
+      <c r="W235" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A236" s="15">
+        <v>234</v>
+      </c>
+      <c r="B236" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E236" s="16">
+        <f t="shared" si="62"/>
+        <v>7425504.8569037979</v>
+      </c>
+      <c r="F236" s="16">
+        <v>5</v>
+      </c>
+      <c r="G236" s="18">
+        <f t="shared" si="101"/>
+        <v>4.0569830435269216E+16</v>
+      </c>
+      <c r="H236" s="16">
+        <f t="shared" si="102"/>
+        <v>133183.14137520327</v>
+      </c>
+      <c r="I236" s="16">
+        <f t="shared" si="103"/>
+        <v>181112414341803.47</v>
+      </c>
+      <c r="J236" s="16">
+        <v>1</v>
+      </c>
+      <c r="K236" s="16">
+        <v>11</v>
+      </c>
+      <c r="L236" s="16">
+        <v>5</v>
+      </c>
+      <c r="M236" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N236" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O236" s="16">
+        <v>30</v>
+      </c>
+      <c r="P236" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q236" s="16">
+        <v>0</v>
+      </c>
+      <c r="R236" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S236" s="16">
+        <v>31.5714285714302</v>
+      </c>
+      <c r="T236" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U236" s="16">
+        <v>264</v>
+      </c>
+      <c r="V236" s="16">
+        <v>99</v>
+      </c>
+      <c r="W236" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A237" s="19">
+        <v>235</v>
+      </c>
+      <c r="B237" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E237" s="16">
+        <f t="shared" si="62"/>
+        <v>7517904.4311283501</v>
+      </c>
+      <c r="F237" s="16">
+        <v>5</v>
+      </c>
+      <c r="G237" s="18">
+        <f t="shared" si="101"/>
+        <v>4.1800910943526656E+16</v>
+      </c>
+      <c r="H237" s="16">
+        <f t="shared" si="102"/>
+        <v>134349.52504578573</v>
+      </c>
+      <c r="I237" s="16">
+        <f t="shared" si="103"/>
+        <v>185820456931599.47</v>
+      </c>
+      <c r="J237" s="16">
+        <v>1</v>
+      </c>
+      <c r="K237" s="16">
+        <v>11</v>
+      </c>
+      <c r="L237" s="16">
+        <v>5</v>
+      </c>
+      <c r="M237" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N237" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O237" s="16">
+        <v>30</v>
+      </c>
+      <c r="P237" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q237" s="16">
+        <v>0</v>
+      </c>
+      <c r="R237" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S237" s="16">
+        <v>31.892857142858801</v>
+      </c>
+      <c r="T237" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U237" s="16">
+        <v>266</v>
+      </c>
+      <c r="V237" s="16">
+        <v>100</v>
+      </c>
+      <c r="W237" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A238" s="15">
+        <v>236</v>
+      </c>
+      <c r="B238" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E238" s="12">
+        <f t="shared" si="62"/>
+        <v>7611054.0940408353</v>
+      </c>
+      <c r="F238" s="16">
+        <v>5</v>
+      </c>
+      <c r="G238" s="18">
+        <f t="shared" si="101"/>
+        <v>4.3063881535159648E+16</v>
+      </c>
+      <c r="H238" s="16">
+        <f t="shared" si="102"/>
+        <v>135521.36617134404</v>
+      </c>
+      <c r="I238" s="16">
+        <f t="shared" si="103"/>
+        <v>190630111355439.66</v>
+      </c>
+      <c r="J238" s="16">
+        <v>1</v>
+      </c>
+      <c r="K238" s="16">
+        <v>11</v>
+      </c>
+      <c r="L238" s="16">
+        <v>5</v>
+      </c>
+      <c r="M238" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N238" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O238" s="16">
+        <v>30</v>
+      </c>
+      <c r="P238" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q238" s="16">
+        <v>0</v>
+      </c>
+      <c r="R238" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S238" s="16">
+        <v>32.214285714287399</v>
+      </c>
+      <c r="T238" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U238" s="16">
+        <v>268</v>
+      </c>
+      <c r="V238" s="16">
+        <v>101</v>
+      </c>
+      <c r="W238" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A239" s="19">
+        <v>237</v>
+      </c>
+      <c r="B239" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E239" s="12">
+        <f t="shared" si="62"/>
+        <v>7704956.7177119059</v>
+      </c>
+      <c r="F239" s="16">
+        <v>5</v>
+      </c>
+      <c r="G239" s="18">
+        <f t="shared" si="101"/>
+        <v>4.435942789665184E+16</v>
+      </c>
+      <c r="H239" s="16">
+        <f t="shared" si="102"/>
+        <v>136698.66813633105</v>
+      </c>
+      <c r="I239" s="16">
+        <f t="shared" si="103"/>
+        <v>195543126125693.69</v>
+      </c>
+      <c r="J239" s="16">
+        <v>1</v>
+      </c>
+      <c r="K239" s="16">
+        <v>11</v>
+      </c>
+      <c r="L239" s="16">
+        <v>5</v>
+      </c>
+      <c r="M239" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N239" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O239" s="16">
+        <v>30</v>
+      </c>
+      <c r="P239" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q239" s="16">
+        <v>0</v>
+      </c>
+      <c r="R239" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S239" s="16">
+        <v>32.535714285715997</v>
+      </c>
+      <c r="T239" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U239" s="16">
+        <v>270</v>
+      </c>
+      <c r="V239" s="16">
+        <v>102</v>
+      </c>
+      <c r="W239" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A240" s="15">
+        <v>238</v>
+      </c>
+      <c r="B240" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E240" s="16">
+        <f t="shared" si="62"/>
+        <v>7799615.1729955366</v>
+      </c>
+      <c r="F240" s="16">
+        <v>5</v>
+      </c>
+      <c r="G240" s="18">
+        <f t="shared" si="101"/>
+        <v>4.5688247464750816E+16</v>
+      </c>
+      <c r="H240" s="16">
+        <f t="shared" si="102"/>
+        <v>137881.43431297486</v>
+      </c>
+      <c r="I240" s="16">
+        <f t="shared" si="103"/>
+        <v>200561272258305.31</v>
+      </c>
+      <c r="J240" s="16">
+        <v>1</v>
+      </c>
+      <c r="K240" s="16">
+        <v>11</v>
+      </c>
+      <c r="L240" s="16">
+        <v>5</v>
+      </c>
+      <c r="M240" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N240" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O240" s="16">
+        <v>30</v>
+      </c>
+      <c r="P240" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q240" s="16">
+        <v>0</v>
+      </c>
+      <c r="R240" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S240" s="16">
+        <v>32.857142857144602</v>
+      </c>
+      <c r="T240" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U240" s="16">
+        <v>272</v>
+      </c>
+      <c r="V240" s="16">
+        <v>103</v>
+      </c>
+      <c r="W240" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A241" s="19">
+        <v>239</v>
+      </c>
+      <c r="B241" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C241" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E241" s="16">
+        <f t="shared" si="62"/>
+        <v>7895032.3295346107</v>
+      </c>
+      <c r="F241" s="16">
+        <v>5</v>
+      </c>
+      <c r="G241" s="18">
+        <f>A241^7.01+A241^4+100*A241+100</f>
+        <v>4.7051049576968912E+16</v>
+      </c>
+      <c r="H241" s="16">
+        <f t="shared" si="102"/>
+        <v>139069.66806137399</v>
+      </c>
+      <c r="I241" s="16">
+        <f t="shared" si="103"/>
+        <v>205686343465639.28</v>
+      </c>
+      <c r="J241" s="16">
+        <v>1</v>
+      </c>
+      <c r="K241" s="16">
+        <v>11</v>
+      </c>
+      <c r="L241" s="16">
+        <v>5</v>
+      </c>
+      <c r="M241" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N241" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O241" s="16">
+        <v>30</v>
+      </c>
+      <c r="P241" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q241" s="16">
+        <v>0</v>
+      </c>
+      <c r="R241" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S241" s="16">
+        <v>33.1785714285732</v>
+      </c>
+      <c r="T241" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U241" s="16">
+        <v>274</v>
+      </c>
+      <c r="V241" s="16">
+        <v>104</v>
+      </c>
+      <c r="W241" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A242" s="5">
+        <v>240</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E242" s="16">
+        <f t="shared" si="62"/>
+        <v>7991211.0557664987</v>
+      </c>
+      <c r="F242" s="16">
+        <v>5</v>
+      </c>
+      <c r="G242" s="18">
+        <f t="shared" ref="G242:G302" si="104">A242^7.01+A242^4+100*A242+100</f>
+        <v>4.8448555623369216E+16</v>
+      </c>
+      <c r="H242" s="16">
+        <f t="shared" si="102"/>
+        <v>140263.37272959109</v>
+      </c>
+      <c r="I242" s="16">
+        <f t="shared" si="103"/>
+        <v>210920156350141.22</v>
+      </c>
+      <c r="J242" s="16">
+        <v>1</v>
+      </c>
+      <c r="K242" s="16">
+        <v>11</v>
+      </c>
+      <c r="L242" s="16">
+        <v>5</v>
+      </c>
+      <c r="M242" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N242" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O242" s="16">
+        <v>30</v>
+      </c>
+      <c r="P242" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q242" s="16">
+        <v>0</v>
+      </c>
+      <c r="R242" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S242" s="16">
+        <v>33.500000000001798</v>
+      </c>
+      <c r="T242" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U242" s="16">
+        <v>276</v>
+      </c>
+      <c r="V242" s="16">
+        <v>105</v>
+      </c>
+      <c r="W242" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A243" s="20">
+        <v>241</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E243" s="16">
+        <f t="shared" si="62"/>
+        <v>8088154.2189286696</v>
+      </c>
+      <c r="F243" s="16">
+        <v>5</v>
+      </c>
+      <c r="G243" s="18">
+        <f t="shared" si="104"/>
+        <v>4.9881499199637904E+16</v>
+      </c>
+      <c r="H243" s="16">
+        <f t="shared" si="102"/>
+        <v>141462.55165374718</v>
+      </c>
+      <c r="I243" s="16">
+        <f t="shared" si="103"/>
+        <v>216264550598839.06</v>
+      </c>
+      <c r="J243" s="16">
+        <v>1</v>
+      </c>
+      <c r="K243" s="16">
+        <v>11</v>
+      </c>
+      <c r="L243" s="16">
+        <v>5</v>
+      </c>
+      <c r="M243" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N243" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O243" s="16">
+        <v>30</v>
+      </c>
+      <c r="P243" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q243" s="16">
+        <v>0</v>
+      </c>
+      <c r="R243" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S243" s="16">
+        <v>33.821428571430403</v>
+      </c>
+      <c r="T243" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U243" s="16">
+        <v>278</v>
+      </c>
+      <c r="V243" s="16">
+        <v>106</v>
+      </c>
+      <c r="W243" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A244" s="5">
+        <v>242</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E244" s="16">
+        <f t="shared" si="62"/>
+        <v>8185864.6850641435</v>
+      </c>
+      <c r="F244" s="16">
+        <v>5</v>
+      </c>
+      <c r="G244" s="18">
+        <f t="shared" si="104"/>
+        <v>5.1350626261448464E+16</v>
+      </c>
+      <c r="H244" s="16">
+        <f t="shared" si="102"/>
+        <v>142667.20815811347</v>
+      </c>
+      <c r="I244" s="16">
+        <f t="shared" si="103"/>
+        <v>221721389178674.34</v>
+      </c>
+      <c r="J244" s="16">
+        <v>1</v>
+      </c>
+      <c r="K244" s="16">
+        <v>11</v>
+      </c>
+      <c r="L244" s="16">
+        <v>5</v>
+      </c>
+      <c r="M244" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N244" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O244" s="16">
+        <v>30</v>
+      </c>
+      <c r="P244" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q244" s="16">
+        <v>0</v>
+      </c>
+      <c r="R244" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S244" s="16">
+        <v>34.142857142859</v>
+      </c>
+      <c r="T244" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U244" s="16">
+        <v>280</v>
+      </c>
+      <c r="V244" s="16">
+        <v>107</v>
+      </c>
+      <c r="W244" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A245" s="20">
+        <v>243</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E245" s="16">
+        <f t="shared" si="62"/>
+        <v>8284345.3190269023</v>
+      </c>
+      <c r="F245" s="16">
+        <v>5</v>
+      </c>
+      <c r="G245" s="18">
+        <f t="shared" si="104"/>
+        <v>5.285669528012384E+16</v>
+      </c>
+      <c r="H245" s="16">
+        <f t="shared" si="102"/>
+        <v>143877.34555520097</v>
+      </c>
+      <c r="I245" s="16">
+        <f t="shared" si="103"/>
+        <v>227292558532655.84</v>
+      </c>
+      <c r="J245" s="16">
+        <v>1</v>
+      </c>
+      <c r="K245" s="16">
+        <v>11</v>
+      </c>
+      <c r="L245" s="16">
+        <v>5</v>
+      </c>
+      <c r="M245" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N245" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O245" s="16">
+        <v>30</v>
+      </c>
+      <c r="P245" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q245" s="16">
+        <v>0</v>
+      </c>
+      <c r="R245" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S245" s="16">
+        <v>34.464285714287598</v>
+      </c>
+      <c r="T245" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U245" s="16">
+        <v>282</v>
+      </c>
+      <c r="V245" s="16">
+        <v>108</v>
+      </c>
+      <c r="W245" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A246" s="5">
+        <v>244</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E246" s="16">
+        <f t="shared" ref="E246:E302" si="105">A246^2.9</f>
+        <v>8383598.9844874209</v>
+      </c>
+      <c r="F246" s="16">
+        <v>5</v>
+      </c>
+      <c r="G246" s="18">
+        <f t="shared" si="104"/>
+        <v>5.440047739960608E+16</v>
+      </c>
+      <c r="H246" s="16">
+        <f t="shared" si="102"/>
+        <v>145092.96714585312</v>
+      </c>
+      <c r="I246" s="16">
+        <f t="shared" si="103"/>
+        <v>232979968776855.84</v>
+      </c>
+      <c r="J246" s="16">
+        <v>1</v>
+      </c>
+      <c r="K246" s="16">
+        <v>11</v>
+      </c>
+      <c r="L246" s="16">
+        <v>5</v>
+      </c>
+      <c r="M246" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N246" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O246" s="16">
+        <v>30</v>
+      </c>
+      <c r="P246" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q246" s="16">
+        <v>0</v>
+      </c>
+      <c r="R246" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S246" s="16">
+        <v>34.785714285716303</v>
+      </c>
+      <c r="T246" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U246" s="16">
+        <v>284</v>
+      </c>
+      <c r="V246" s="16">
+        <v>109</v>
+      </c>
+      <c r="W246" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A247" s="20">
+        <v>245</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E247" s="16">
+        <f t="shared" si="105"/>
+        <v>8483628.5439378768</v>
+      </c>
+      <c r="F247" s="16">
+        <v>5</v>
+      </c>
+      <c r="G247" s="18">
+        <f t="shared" si="104"/>
+        <v>5.5982756594728768E+16</v>
+      </c>
+      <c r="H247" s="16">
+        <f t="shared" si="102"/>
+        <v>146314.07621933176</v>
+      </c>
+      <c r="I247" s="16">
+        <f t="shared" si="103"/>
+        <v>238785553898224.19</v>
+      </c>
+      <c r="J247" s="16">
+        <v>1</v>
+      </c>
+      <c r="K247" s="16">
+        <v>11</v>
+      </c>
+      <c r="L247" s="16">
+        <v>5</v>
+      </c>
+      <c r="M247" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N247" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O247" s="16">
+        <v>30</v>
+      </c>
+      <c r="P247" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q247" s="16">
+        <v>0</v>
+      </c>
+      <c r="R247" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S247" s="16">
+        <v>35.1071428571449</v>
+      </c>
+      <c r="T247" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U247" s="16">
+        <v>286</v>
+      </c>
+      <c r="V247" s="16">
+        <v>110</v>
+      </c>
+      <c r="W247" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A248" s="5">
+        <v>246</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E248" s="16">
+        <f t="shared" si="105"/>
+        <v>8584436.8586975392</v>
+      </c>
+      <c r="F248" s="16">
+        <v>5</v>
+      </c>
+      <c r="G248" s="18">
+        <f t="shared" si="104"/>
+        <v>5.7604329830809552E+16</v>
+      </c>
+      <c r="H248" s="16">
+        <f t="shared" si="102"/>
+        <v>147540.67605340705</v>
+      </c>
+      <c r="I248" s="16">
+        <f t="shared" si="103"/>
+        <v>244711271953238.78</v>
+      </c>
+      <c r="J248" s="16">
+        <v>1</v>
+      </c>
+      <c r="K248" s="16">
+        <v>11</v>
+      </c>
+      <c r="L248" s="16">
+        <v>5</v>
+      </c>
+      <c r="M248" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N248" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O248" s="16">
+        <v>30</v>
+      </c>
+      <c r="P248" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q248" s="16">
+        <v>0</v>
+      </c>
+      <c r="R248" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S248" s="16">
+        <v>35.428571428573498</v>
+      </c>
+      <c r="T248" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U248" s="16">
+        <v>288</v>
+      </c>
+      <c r="V248" s="16">
+        <v>111</v>
+      </c>
+      <c r="W248" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A249" s="20">
+        <v>247</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E249" s="16">
+        <f t="shared" si="105"/>
+        <v>8686026.7889180873</v>
+      </c>
+      <c r="F249" s="16">
+        <v>5</v>
+      </c>
+      <c r="G249" s="18">
+        <f t="shared" si="104"/>
+        <v>5.9266007224561968E+16</v>
+      </c>
+      <c r="H249" s="16">
+        <f t="shared" si="102"/>
+        <v>148772.76991444395</v>
+      </c>
+      <c r="I249" s="16">
+        <f t="shared" si="103"/>
+        <v>250759105267394.53</v>
+      </c>
+      <c r="J249" s="16">
+        <v>1</v>
+      </c>
+      <c r="K249" s="16">
+        <v>11</v>
+      </c>
+      <c r="L249" s="16">
+        <v>5</v>
+      </c>
+      <c r="M249" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N249" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O249" s="16">
+        <v>30</v>
+      </c>
+      <c r="P249" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q249" s="16">
+        <v>0</v>
+      </c>
+      <c r="R249" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S249" s="16">
+        <v>35.750000000002103</v>
+      </c>
+      <c r="T249" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U249" s="16">
+        <v>290</v>
+      </c>
+      <c r="V249" s="16">
+        <v>112</v>
+      </c>
+      <c r="W249" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A250" s="5">
+        <v>248</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E250" s="16">
+        <f t="shared" si="105"/>
+        <v>8788401.1935886815</v>
+      </c>
+      <c r="F250" s="16">
+        <v>5</v>
+      </c>
+      <c r="G250" s="18">
+        <f t="shared" si="104"/>
+        <v>6.0968612206327184E+16</v>
+      </c>
+      <c r="H250" s="16">
+        <f t="shared" si="102"/>
+        <v>150010.36105748644</v>
+      </c>
+      <c r="I250" s="16">
+        <f t="shared" si="103"/>
+        <v>256931060635500.97</v>
+      </c>
+      <c r="J250" s="16">
+        <v>1</v>
+      </c>
+      <c r="K250" s="16">
+        <v>11</v>
+      </c>
+      <c r="L250" s="16">
+        <v>5</v>
+      </c>
+      <c r="M250" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N250" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O250" s="16">
+        <v>30</v>
+      </c>
+      <c r="P250" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q250" s="16">
+        <v>0</v>
+      </c>
+      <c r="R250" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S250" s="16">
+        <v>36.071428571430701</v>
+      </c>
+      <c r="T250" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U250" s="16">
+        <v>292</v>
+      </c>
+      <c r="V250" s="16">
+        <v>113</v>
+      </c>
+      <c r="W250" s="10">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A251" s="20">
+        <v>249</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E251" s="12">
+        <f t="shared" si="105"/>
+        <v>8891562.930541249</v>
+      </c>
+      <c r="F251" s="16">
+        <v>5</v>
+      </c>
+      <c r="G251" s="18">
+        <f t="shared" si="104"/>
+        <v>6.271298168364624E+16</v>
+      </c>
+      <c r="H251" s="16">
+        <f t="shared" si="102"/>
+        <v>151253.45272634458</v>
+      </c>
+      <c r="I251" s="16">
+        <f t="shared" si="103"/>
+        <v>263229169522835.5</v>
+      </c>
+      <c r="J251" s="16">
+        <v>1</v>
+      </c>
+      <c r="K251" s="16">
+        <v>11</v>
+      </c>
+      <c r="L251" s="16">
+        <v>5</v>
+      </c>
+      <c r="M251" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N251" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O251" s="16">
+        <v>30</v>
+      </c>
+      <c r="P251" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q251" s="16">
+        <v>0</v>
+      </c>
+      <c r="R251" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S251" s="16">
+        <v>36.392857142859299</v>
+      </c>
+      <c r="T251" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U251" s="16">
+        <v>294</v>
+      </c>
+      <c r="V251" s="16">
+        <v>114</v>
+      </c>
+      <c r="W251" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A252" s="5">
+        <v>250</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C252" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E252" s="12">
+        <f t="shared" si="105"/>
+        <v>8995514.8564556595</v>
+      </c>
+      <c r="F252" s="16">
+        <v>5</v>
+      </c>
+      <c r="G252" s="18">
+        <f t="shared" si="104"/>
+        <v>6.4499966206160832E+16</v>
+      </c>
+      <c r="H252" s="16">
+        <f t="shared" si="102"/>
+        <v>152502.04815367685</v>
+      </c>
+      <c r="I252" s="16">
+        <f t="shared" si="103"/>
+        <v>269655488267111.25</v>
+      </c>
+      <c r="J252" s="16">
+        <v>1</v>
+      </c>
+      <c r="K252" s="16">
+        <v>11</v>
+      </c>
+      <c r="L252" s="16">
+        <v>5</v>
+      </c>
+      <c r="M252" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N252" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O252" s="16">
+        <v>30</v>
+      </c>
+      <c r="P252" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q252" s="16">
+        <v>0</v>
+      </c>
+      <c r="R252" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S252" s="16">
+        <v>36.714285714287897</v>
+      </c>
+      <c r="T252" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U252" s="16">
+        <v>296</v>
+      </c>
+      <c r="V252" s="16">
+        <v>115</v>
+      </c>
+      <c r="W252" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A253" s="20">
+        <v>251</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C253" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E253" s="16">
+        <f t="shared" si="105"/>
+        <v>9100259.8268646207</v>
+      </c>
+      <c r="F253" s="16">
+        <v>5</v>
+      </c>
+      <c r="G253" s="18">
+        <f t="shared" si="104"/>
+        <v>6.6330430131858704E+16</v>
+      </c>
+      <c r="H253" s="16">
+        <f t="shared" si="102"/>
+        <v>153756.15056107394</v>
+      </c>
+      <c r="I253" s="16">
+        <f t="shared" si="103"/>
+        <v>276212098281286.63</v>
+      </c>
+      <c r="J253" s="16">
+        <v>1</v>
+      </c>
+      <c r="K253" s="16">
+        <v>11</v>
+      </c>
+      <c r="L253" s="16">
+        <v>5</v>
+      </c>
+      <c r="M253" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N253" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O253" s="16">
+        <v>30</v>
+      </c>
+      <c r="P253" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q253" s="16">
+        <v>0</v>
+      </c>
+      <c r="R253" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S253" s="16">
+        <v>37.035714285716502</v>
+      </c>
+      <c r="T253" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U253" s="16">
+        <v>298</v>
+      </c>
+      <c r="V253" s="16">
+        <v>116</v>
+      </c>
+      <c r="W253" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A254" s="5">
+        <v>252</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E254" s="16">
+        <f t="shared" si="105"/>
+        <v>9205800.696158966</v>
+      </c>
+      <c r="F254" s="16">
+        <v>5</v>
+      </c>
+      <c r="G254" s="18">
+        <f t="shared" si="104"/>
+        <v>6.820525179466888E+16</v>
+      </c>
+      <c r="H254" s="16">
+        <f t="shared" si="102"/>
+        <v>155015.76315913958</v>
+      </c>
+      <c r="I254" s="16">
+        <f t="shared" si="103"/>
+        <v>282901106257187.56</v>
+      </c>
+      <c r="J254" s="16">
+        <v>1</v>
+      </c>
+      <c r="K254" s="16">
+        <v>11</v>
+      </c>
+      <c r="L254" s="16">
+        <v>5</v>
+      </c>
+      <c r="M254" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N254" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O254" s="16">
+        <v>30</v>
+      </c>
+      <c r="P254" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q254" s="16">
+        <v>0</v>
+      </c>
+      <c r="R254" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S254" s="16">
+        <v>37.357142857145099</v>
+      </c>
+      <c r="T254" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U254" s="16">
+        <v>300</v>
+      </c>
+      <c r="V254" s="16">
+        <v>117</v>
+      </c>
+      <c r="W254" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A255" s="20">
+        <v>253</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E255" s="16">
+        <f t="shared" si="105"/>
+        <v>9312140.3175924718</v>
+      </c>
+      <c r="F255" s="16">
+        <v>5</v>
+      </c>
+      <c r="G255" s="18">
+        <f t="shared" si="104"/>
+        <v>7.012532367340496E+16</v>
+      </c>
+      <c r="H255" s="16">
+        <f t="shared" si="102"/>
+        <v>156280.88914757283</v>
+      </c>
+      <c r="I255" s="16">
+        <f t="shared" si="103"/>
+        <v>289724644369979.94</v>
+      </c>
+      <c r="J255" s="16">
+        <v>1</v>
+      </c>
+      <c r="K255" s="16">
+        <v>11</v>
+      </c>
+      <c r="L255" s="16">
+        <v>5</v>
+      </c>
+      <c r="M255" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N255" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O255" s="16">
+        <v>30</v>
+      </c>
+      <c r="P255" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q255" s="16">
+        <v>0</v>
+      </c>
+      <c r="R255" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S255" s="16">
+        <v>37.678571428573697</v>
+      </c>
+      <c r="T255" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U255" s="16">
+        <v>302</v>
+      </c>
+      <c r="V255" s="16">
+        <v>118</v>
+      </c>
+      <c r="W255" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A256" s="5">
+        <v>254</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C256" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E256" s="16">
+        <f t="shared" si="105"/>
+        <v>9419281.5432868861</v>
+      </c>
+      <c r="F256" s="16">
+        <v>5</v>
+      </c>
+      <c r="G256" s="18">
+        <f t="shared" si="104"/>
+        <v>7.2091552562070336E+16</v>
+      </c>
+      <c r="H256" s="16">
+        <f t="shared" si="102"/>
+        <v>157551.53171524734</v>
+      </c>
+      <c r="I256" s="16">
+        <f t="shared" si="103"/>
+        <v>296684870483473.44</v>
+      </c>
+      <c r="J256" s="16">
+        <v>1</v>
+      </c>
+      <c r="K256" s="16">
+        <v>11</v>
+      </c>
+      <c r="L256" s="16">
+        <v>5</v>
+      </c>
+      <c r="M256" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N256" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O256" s="16">
+        <v>30</v>
+      </c>
+      <c r="P256" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q256" s="16">
+        <v>0</v>
+      </c>
+      <c r="R256" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S256" s="16">
+        <v>38.000000000002302</v>
+      </c>
+      <c r="T256" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U256" s="16">
+        <v>304</v>
+      </c>
+      <c r="V256" s="16">
+        <v>119</v>
+      </c>
+      <c r="W256" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A257" s="19">
+        <v>255</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C257" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E257" s="16">
+        <f t="shared" si="105"/>
+        <v>9527227.2242368795</v>
+      </c>
+      <c r="F257" s="16">
+        <v>5</v>
+      </c>
+      <c r="G257" s="18">
+        <f t="shared" si="104"/>
+        <v>7.4104859741526544E+16</v>
+      </c>
+      <c r="H257" s="16">
+        <f t="shared" si="102"/>
+        <v>158827.69404029101</v>
+      </c>
+      <c r="I257" s="16">
+        <f t="shared" si="103"/>
+        <v>303783968356235.13</v>
+      </c>
+      <c r="J257" s="16">
+        <v>1</v>
+      </c>
+      <c r="K257" s="16">
+        <v>11</v>
+      </c>
+      <c r="L257" s="16">
+        <v>5</v>
+      </c>
+      <c r="M257" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N257" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O257" s="16">
+        <v>30</v>
+      </c>
+      <c r="P257" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q257" s="16">
+        <v>0</v>
+      </c>
+      <c r="R257" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S257" s="16">
+        <v>38.3214285714309</v>
+      </c>
+      <c r="T257" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U257" s="16">
+        <v>306</v>
+      </c>
+      <c r="V257" s="16">
+        <v>120</v>
+      </c>
+      <c r="W257" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A258" s="15">
+        <v>256</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E258" s="16">
+        <f t="shared" si="105"/>
+        <v>9635980.2103149537</v>
+      </c>
+      <c r="F258" s="16">
+        <v>5</v>
+      </c>
+      <c r="G258" s="18">
+        <f t="shared" si="104"/>
+        <v>7.6166181152530976E+16</v>
+      </c>
+      <c r="H258" s="16">
+        <f t="shared" si="102"/>
+        <v>160109.37929016366</v>
+      </c>
+      <c r="I258" s="16">
+        <f t="shared" si="103"/>
+        <v>311024147848552.13</v>
+      </c>
+      <c r="J258" s="16">
+        <v>1</v>
+      </c>
+      <c r="K258" s="16">
+        <v>11</v>
+      </c>
+      <c r="L258" s="16">
+        <v>5</v>
+      </c>
+      <c r="M258" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N258" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O258" s="16">
+        <v>30</v>
+      </c>
+      <c r="P258" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q258" s="16">
+        <v>0</v>
+      </c>
+      <c r="R258" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S258" s="16">
+        <v>38.642857142859498</v>
+      </c>
+      <c r="T258" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U258" s="16">
+        <v>308</v>
+      </c>
+      <c r="V258" s="16">
+        <v>121</v>
+      </c>
+      <c r="W258" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A259" s="19">
+        <v>257</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E259" s="16">
+        <f t="shared" si="105"/>
+        <v>9745543.3502761442</v>
+      </c>
+      <c r="F259" s="16">
+        <v>5</v>
+      </c>
+      <c r="G259" s="18">
+        <f t="shared" si="104"/>
+        <v>7.827646757014696E+16</v>
+      </c>
+      <c r="H259" s="16">
+        <f t="shared" si="102"/>
+        <v>161396.59062173523</v>
+      </c>
+      <c r="I259" s="16">
+        <f t="shared" si="103"/>
+        <v>318407645130228.31</v>
+      </c>
+      <c r="J259" s="16">
+        <v>1</v>
+      </c>
+      <c r="K259" s="16">
+        <v>11</v>
+      </c>
+      <c r="L259" s="16">
+        <v>5</v>
+      </c>
+      <c r="M259" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N259" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O259" s="16">
+        <v>30</v>
+      </c>
+      <c r="P259" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q259" s="16">
+        <v>0</v>
+      </c>
+      <c r="R259" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S259" s="16">
+        <v>38.964285714288103</v>
+      </c>
+      <c r="T259" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U259" s="16">
+        <v>310</v>
+      </c>
+      <c r="V259" s="16">
+        <v>122</v>
+      </c>
+      <c r="W259" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A260" s="15">
+        <v>258</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E260" s="16">
+        <f t="shared" si="105"/>
+        <v>9855919.4917628486</v>
+      </c>
+      <c r="F260" s="16">
+        <v>5</v>
+      </c>
+      <c r="G260" s="18">
+        <f t="shared" si="104"/>
+        <v>8.0436684779538304E+16</v>
+      </c>
+      <c r="H260" s="16">
+        <f t="shared" si="102"/>
+        <v>162689.33118136181</v>
+      </c>
+      <c r="I260" s="16">
+        <f t="shared" si="103"/>
+        <v>325936722889195.31</v>
+      </c>
+      <c r="J260" s="16">
+        <v>1</v>
+      </c>
+      <c r="K260" s="16">
+        <v>11</v>
+      </c>
+      <c r="L260" s="16">
+        <v>5</v>
+      </c>
+      <c r="M260" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N260" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O260" s="16">
+        <v>30</v>
+      </c>
+      <c r="P260" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q260" s="16">
+        <v>0</v>
+      </c>
+      <c r="R260" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S260" s="16">
+        <v>39.285714285716701</v>
+      </c>
+      <c r="T260" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U260" s="16">
+        <v>312</v>
+      </c>
+      <c r="V260" s="16">
+        <v>123</v>
+      </c>
+      <c r="W260" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A261" s="19">
+        <v>259</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E261" s="16">
+        <f t="shared" si="105"/>
+        <v>9967111.4813097883</v>
+      </c>
+      <c r="F261" s="16">
+        <v>5</v>
+      </c>
+      <c r="G261" s="18">
+        <f t="shared" si="104"/>
+        <v>8.2647813753144672E+16</v>
+      </c>
+      <c r="H261" s="16">
+        <f t="shared" si="102"/>
+        <v>163987.60410496185</v>
+      </c>
+      <c r="I261" s="16">
+        <f t="shared" si="103"/>
+        <v>333613670540966.75</v>
+      </c>
+      <c r="J261" s="16">
+        <v>1</v>
+      </c>
+      <c r="K261" s="16">
+        <v>11</v>
+      </c>
+      <c r="L261" s="16">
+        <v>5</v>
+      </c>
+      <c r="M261" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N261" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O261" s="16">
+        <v>30</v>
+      </c>
+      <c r="P261" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q261" s="16">
+        <v>0</v>
+      </c>
+      <c r="R261" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S261" s="16">
+        <v>39.607142857145298</v>
+      </c>
+      <c r="T261" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U261" s="16">
+        <v>314</v>
+      </c>
+      <c r="V261" s="16">
+        <v>124</v>
+      </c>
+      <c r="W261" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A262" s="15">
+        <v>260</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C262" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E262" s="16">
+        <f t="shared" si="105"/>
+        <v>10079122.164348537</v>
+      </c>
+      <c r="F262" s="16">
+        <v>5</v>
+      </c>
+      <c r="G262" s="18">
+        <f t="shared" si="104"/>
+        <v>8.4910850829254096E+16</v>
+      </c>
+      <c r="H262" s="16">
+        <f t="shared" si="102"/>
+        <v>165291.41251809028</v>
+      </c>
+      <c r="I262" s="16">
+        <f t="shared" si="103"/>
+        <v>341440804438927.19</v>
+      </c>
+      <c r="J262" s="16">
+        <v>1</v>
+      </c>
+      <c r="K262" s="16">
+        <v>11</v>
+      </c>
+      <c r="L262" s="16">
+        <v>5</v>
+      </c>
+      <c r="M262" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N262" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O262" s="16">
+        <v>30</v>
+      </c>
+      <c r="P262" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q262" s="16">
+        <v>0</v>
+      </c>
+      <c r="R262" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S262" s="16">
+        <v>39.928571428573903</v>
+      </c>
+      <c r="T262" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U262" s="16">
+        <v>316</v>
+      </c>
+      <c r="V262" s="16">
+        <v>125</v>
+      </c>
+      <c r="W262" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A263" s="19">
+        <v>261</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C263" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E263" s="16">
+        <f t="shared" si="105"/>
+        <v>10191954.385212181</v>
+      </c>
+      <c r="F263" s="16">
+        <v>5</v>
+      </c>
+      <c r="G263" s="18">
+        <f t="shared" si="104"/>
+        <v>8.7226807891964512E+16</v>
+      </c>
+      <c r="H263" s="16">
+        <f t="shared" si="102"/>
+        <v>166600.75953601365</v>
+      </c>
+      <c r="I263" s="16">
+        <f t="shared" si="103"/>
+        <v>349420468085439</v>
+      </c>
+      <c r="J263" s="16">
+        <v>1</v>
+      </c>
+      <c r="K263" s="16">
+        <v>11</v>
+      </c>
+      <c r="L263" s="16">
+        <v>5</v>
+      </c>
+      <c r="M263" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N263" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O263" s="16">
+        <v>30</v>
+      </c>
+      <c r="P263" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q263" s="16">
+        <v>0</v>
+      </c>
+      <c r="R263" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S263" s="16">
+        <v>40.250000000002501</v>
+      </c>
+      <c r="T263" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U263" s="16">
+        <v>318</v>
+      </c>
+      <c r="V263" s="16">
+        <v>126</v>
+      </c>
+      <c r="W263" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A264" s="15">
+        <v>262</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E264" s="12">
+        <f t="shared" si="105"/>
+        <v>10305610.987140069</v>
+      </c>
+      <c r="F264" s="16">
+        <v>5</v>
+      </c>
+      <c r="G264" s="18">
+        <f t="shared" si="104"/>
+        <v>8.9596712552553024E+16</v>
+      </c>
+      <c r="H264" s="16">
+        <f t="shared" si="102"/>
+        <v>167915.64826378171</v>
+      </c>
+      <c r="I264" s="16">
+        <f t="shared" si="103"/>
+        <v>357555032343787.44</v>
+      </c>
+      <c r="J264" s="16">
+        <v>1</v>
+      </c>
+      <c r="K264" s="16">
+        <v>11</v>
+      </c>
+      <c r="L264" s="16">
+        <v>5</v>
+      </c>
+      <c r="M264" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N264" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O264" s="16">
+        <v>30</v>
+      </c>
+      <c r="P264" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q264" s="16">
+        <v>0</v>
+      </c>
+      <c r="R264" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S264" s="16">
+        <v>40.571428571431099</v>
+      </c>
+      <c r="T264" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U264" s="16">
+        <v>320</v>
+      </c>
+      <c r="V264" s="16">
+        <v>127</v>
+      </c>
+      <c r="W264" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A265" s="19">
+        <v>263</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C265" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E265" s="12">
+        <f t="shared" si="105"/>
+        <v>10420094.812282493</v>
+      </c>
+      <c r="F265" s="16">
+        <v>5</v>
+      </c>
+      <c r="G265" s="18">
+        <f t="shared" si="104"/>
+        <v>9.2021608332254448E+16</v>
+      </c>
+      <c r="H265" s="16">
+        <f t="shared" si="102"/>
+        <v>169236.08179630261</v>
+      </c>
+      <c r="I265" s="16">
+        <f t="shared" si="103"/>
+        <v>365846895650974.56</v>
+      </c>
+      <c r="J265" s="16">
+        <v>1</v>
+      </c>
+      <c r="K265" s="16">
+        <v>11</v>
+      </c>
+      <c r="L265" s="16">
+        <v>5</v>
+      </c>
+      <c r="M265" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N265" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O265" s="16">
+        <v>30</v>
+      </c>
+      <c r="P265" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q265" s="16">
+        <v>0</v>
+      </c>
+      <c r="R265" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S265" s="16">
+        <v>40.892857142859697</v>
+      </c>
+      <c r="T265" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U265" s="16">
+        <v>322</v>
+      </c>
+      <c r="V265" s="16">
+        <v>128</v>
+      </c>
+      <c r="W265" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A266" s="15">
+        <v>264</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C266" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E266" s="16">
+        <f t="shared" si="105"/>
+        <v>10535408.701704986</v>
+      </c>
+      <c r="F266" s="16">
+        <v>5</v>
+      </c>
+      <c r="G266" s="18">
+        <f t="shared" si="104"/>
+        <v>9.4502554846442704E+16</v>
+      </c>
+      <c r="H266" s="16">
+        <f t="shared" si="102"/>
+        <v>170562.06321841059</v>
+      </c>
+      <c r="I266" s="16">
+        <f t="shared" si="103"/>
+        <v>374298484231304.13</v>
+      </c>
+      <c r="J266" s="16">
+        <v>1</v>
+      </c>
+      <c r="K266" s="16">
+        <v>11</v>
+      </c>
+      <c r="L266" s="16">
+        <v>5</v>
+      </c>
+      <c r="M266" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N266" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O266" s="16">
+        <v>30</v>
+      </c>
+      <c r="P266" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q266" s="16">
+        <v>0</v>
+      </c>
+      <c r="R266" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S266" s="16">
+        <v>41.214285714288302</v>
+      </c>
+      <c r="T266" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U266" s="16">
+        <v>324</v>
+      </c>
+      <c r="V266" s="16">
+        <v>129</v>
+      </c>
+      <c r="W266" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A267" s="19">
+        <v>265</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C267" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E267" s="16">
+        <f t="shared" si="105"/>
+        <v>10651555.495393157</v>
+      </c>
+      <c r="F267" s="16">
+        <v>5</v>
+      </c>
+      <c r="G267" s="18">
+        <f t="shared" si="104"/>
+        <v>9.7040627990245024E+16</v>
+      </c>
+      <c r="H267" s="16">
+        <f t="shared" si="102"/>
+        <v>171893.59560494131</v>
+      </c>
+      <c r="I267" s="16">
+        <f t="shared" si="103"/>
+        <v>382912252310833</v>
+      </c>
+      <c r="J267" s="16">
+        <v>1</v>
+      </c>
+      <c r="K267" s="16">
+        <v>11</v>
+      </c>
+      <c r="L267" s="16">
+        <v>5</v>
+      </c>
+      <c r="M267" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N267" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O267" s="16">
+        <v>30</v>
+      </c>
+      <c r="P267" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q267" s="16">
+        <v>0</v>
+      </c>
+      <c r="R267" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S267" s="16">
+        <v>41.535714285716899</v>
+      </c>
+      <c r="T267" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U267" s="16">
+        <v>326</v>
+      </c>
+      <c r="V267" s="16">
+        <v>130</v>
+      </c>
+      <c r="W267" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A268" s="15">
+        <v>266</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C268" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E268" s="16">
+        <f t="shared" si="105"/>
+        <v>10768538.032256991</v>
+      </c>
+      <c r="F268" s="16">
+        <v>5</v>
+      </c>
+      <c r="G268" s="18">
+        <f t="shared" si="104"/>
+        <v>9.9636920125565952E+16</v>
+      </c>
+      <c r="H268" s="16">
+        <f t="shared" si="102"/>
+        <v>173230.68202079894</v>
+      </c>
+      <c r="I268" s="16">
+        <f t="shared" si="103"/>
+        <v>391690682332656.19</v>
+      </c>
+      <c r="J268" s="16">
+        <v>1</v>
+      </c>
+      <c r="K268" s="16">
+        <v>11</v>
+      </c>
+      <c r="L268" s="16">
+        <v>5</v>
+      </c>
+      <c r="M268" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N268" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O268" s="16">
+        <v>30</v>
+      </c>
+      <c r="P268" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q268" s="16">
+        <v>0</v>
+      </c>
+      <c r="R268" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S268" s="16">
+        <v>41.857142857145497</v>
+      </c>
+      <c r="T268" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U268" s="16">
+        <v>328</v>
+      </c>
+      <c r="V268" s="16">
+        <v>131</v>
+      </c>
+      <c r="W268" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A269" s="19">
+        <v>267</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C269" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E269" s="16">
+        <f t="shared" si="105"/>
+        <v>10886359.150135417</v>
+      </c>
+      <c r="F269" s="16">
+        <v>5</v>
+      </c>
+      <c r="G269" s="18">
+        <f t="shared" si="104"/>
+        <v>1.0229254026955309E+17</v>
+      </c>
+      <c r="H269" s="16">
+        <f t="shared" si="102"/>
+        <v>174573.3255210256</v>
+      </c>
+      <c r="I269" s="16">
+        <f t="shared" si="103"/>
+        <v>400636285172981</v>
+      </c>
+      <c r="J269" s="16">
+        <v>1</v>
+      </c>
+      <c r="K269" s="16">
+        <v>11</v>
+      </c>
+      <c r="L269" s="16">
+        <v>5</v>
+      </c>
+      <c r="M269" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N269" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O269" s="16">
+        <v>30</v>
+      </c>
+      <c r="P269" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q269" s="16">
+        <v>0</v>
+      </c>
+      <c r="R269" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S269" s="16">
+        <v>42.178571428574102</v>
+      </c>
+      <c r="T269" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U269" s="16">
+        <v>330</v>
+      </c>
+      <c r="V269" s="16">
+        <v>132</v>
+      </c>
+      <c r="W269" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A270" s="15">
+        <v>268</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C270" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E270" s="16">
+        <f t="shared" si="105"/>
+        <v>11005021.685800681</v>
+      </c>
+      <c r="F270" s="16">
+        <v>5</v>
+      </c>
+      <c r="G270" s="18">
+        <f t="shared" si="104"/>
+        <v>1.0500861428448675E+17</v>
+      </c>
+      <c r="H270" s="16">
+        <f t="shared" si="102"/>
+        <v>175921.529150872</v>
+      </c>
+      <c r="I270" s="16">
+        <f t="shared" si="103"/>
+        <v>409751600358094.06</v>
+      </c>
+      <c r="J270" s="16">
+        <v>1</v>
+      </c>
+      <c r="K270" s="16">
+        <v>11</v>
+      </c>
+      <c r="L270" s="16">
+        <v>5</v>
+      </c>
+      <c r="M270" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N270" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O270" s="16">
+        <v>30</v>
+      </c>
+      <c r="P270" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q270" s="16">
+        <v>0</v>
+      </c>
+      <c r="R270" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S270" s="16">
+        <v>42.5000000000027</v>
+      </c>
+      <c r="T270" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U270" s="16">
+        <v>332</v>
+      </c>
+      <c r="V270" s="16">
+        <v>133</v>
+      </c>
+      <c r="W270" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A271" s="19">
+        <v>269</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C271" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E271" s="16">
+        <f t="shared" si="105"/>
+        <v>11124528.474962797</v>
+      </c>
+      <c r="F271" s="16">
+        <v>5</v>
+      </c>
+      <c r="G271" s="18">
+        <f t="shared" si="104"/>
+        <v>1.0778628506912E+17</v>
+      </c>
+      <c r="H271" s="16">
+        <f t="shared" si="102"/>
+        <v>177275.29594586344</v>
+      </c>
+      <c r="I271" s="16">
+        <f t="shared" si="103"/>
+        <v>419039196282113.5</v>
+      </c>
+      <c r="J271" s="16">
+        <v>1</v>
+      </c>
+      <c r="K271" s="16">
+        <v>11</v>
+      </c>
+      <c r="L271" s="16">
+        <v>5</v>
+      </c>
+      <c r="M271" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N271" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O271" s="16">
+        <v>30</v>
+      </c>
+      <c r="P271" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q271" s="16">
+        <v>0</v>
+      </c>
+      <c r="R271" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S271" s="16">
+        <v>42.821428571431298</v>
+      </c>
+      <c r="T271" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U271" s="16">
+        <v>334</v>
+      </c>
+      <c r="V271" s="16">
+        <v>134</v>
+      </c>
+      <c r="W271" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A272" s="5">
+        <v>270</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C272" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E272" s="16">
+        <f t="shared" si="105"/>
+        <v>11244882.352273848</v>
+      </c>
+      <c r="F272" s="16">
+        <v>5</v>
+      </c>
+      <c r="G272" s="18">
+        <f t="shared" si="104"/>
+        <v>1.1062671275145728E+17</v>
+      </c>
+      <c r="H272" s="16">
+        <f t="shared" si="102"/>
+        <v>178634.62893186833</v>
+      </c>
+      <c r="I272" s="16">
+        <f t="shared" si="103"/>
+        <v>428501670425579.31</v>
+      </c>
+      <c r="J272" s="16">
+        <v>1</v>
+      </c>
+      <c r="K272" s="16">
+        <v>11</v>
+      </c>
+      <c r="L272" s="16">
+        <v>5</v>
+      </c>
+      <c r="M272" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N272" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O272" s="16">
+        <v>30</v>
+      </c>
+      <c r="P272" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q272" s="16">
+        <v>0</v>
+      </c>
+      <c r="R272" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S272" s="16">
+        <v>43.142857142859903</v>
+      </c>
+      <c r="T272" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U272" s="16">
+        <v>336</v>
+      </c>
+      <c r="V272" s="16">
+        <v>135</v>
+      </c>
+      <c r="W272" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A273" s="20">
+        <v>271</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C273" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E273" s="16">
+        <f t="shared" si="105"/>
+        <v>11366086.151332274</v>
+      </c>
+      <c r="F273" s="16">
+        <v>5</v>
+      </c>
+      <c r="G273" s="18">
+        <f t="shared" si="104"/>
+        <v>1.1353107488298509E+17</v>
+      </c>
+      <c r="H273" s="16">
+        <f t="shared" si="102"/>
+        <v>179999.53112516252</v>
+      </c>
+      <c r="I273" s="16">
+        <f t="shared" si="103"/>
+        <v>438141649574900.13</v>
+      </c>
+      <c r="J273" s="16">
+        <v>1</v>
+      </c>
+      <c r="K273" s="16">
+        <v>11</v>
+      </c>
+      <c r="L273" s="16">
+        <v>5</v>
+      </c>
+      <c r="M273" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N273" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O273" s="16">
+        <v>30</v>
+      </c>
+      <c r="P273" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q273" s="16">
+        <v>0</v>
+      </c>
+      <c r="R273" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S273" s="16">
+        <v>43.464285714288501</v>
+      </c>
+      <c r="T273" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U273" s="16">
+        <v>338</v>
+      </c>
+      <c r="V273" s="16">
+        <v>136</v>
+      </c>
+      <c r="W273" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A274" s="5">
+        <v>272</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C274" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E274" s="16">
+        <f t="shared" si="105"/>
+        <v>11488142.704687346</v>
+      </c>
+      <c r="F274" s="16">
+        <v>5</v>
+      </c>
+      <c r="G274" s="18">
+        <f t="shared" si="104"/>
+        <v>1.1650056663436638E+17</v>
+      </c>
+      <c r="H274" s="16">
+        <f t="shared" si="102"/>
+        <v>181370.00553249783</v>
+      </c>
+      <c r="I274" s="16">
+        <f t="shared" si="103"/>
+        <v>447961790042622</v>
+      </c>
+      <c r="J274" s="16">
+        <v>1</v>
+      </c>
+      <c r="K274" s="16">
+        <v>11</v>
+      </c>
+      <c r="L274" s="16">
+        <v>5</v>
+      </c>
+      <c r="M274" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N274" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O274" s="16">
+        <v>30</v>
+      </c>
+      <c r="P274" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q274" s="16">
+        <v>0</v>
+      </c>
+      <c r="R274" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S274" s="16">
+        <v>43.785714285717098</v>
+      </c>
+      <c r="T274" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U274" s="16">
+        <v>340</v>
+      </c>
+      <c r="V274" s="16">
+        <v>137</v>
+      </c>
+      <c r="W274" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A275" s="20">
+        <v>273</v>
+      </c>
+      <c r="B275" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C275" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E275" s="16">
+        <f t="shared" si="105"/>
+        <v>11611054.843843212</v>
+      </c>
+      <c r="F275" s="16">
+        <v>5</v>
+      </c>
+      <c r="G275" s="18">
+        <f t="shared" si="104"/>
+        <v>1.1953640099258648E+17</v>
+      </c>
+      <c r="H275" s="16">
+        <f t="shared" si="102"/>
+        <v>182746.05515116514</v>
+      </c>
+      <c r="I275" s="16">
+        <f t="shared" si="103"/>
+        <v>457964777888492.63</v>
+      </c>
+      <c r="J275" s="16">
+        <v>1</v>
+      </c>
+      <c r="K275" s="16">
+        <v>11</v>
+      </c>
+      <c r="L275" s="16">
+        <v>5</v>
+      </c>
+      <c r="M275" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N275" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O275" s="16">
+        <v>30</v>
+      </c>
+      <c r="P275" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q275" s="16">
+        <v>0</v>
+      </c>
+      <c r="R275" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S275" s="16">
+        <v>44.107142857145703</v>
+      </c>
+      <c r="T275" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U275" s="16">
+        <v>342</v>
+      </c>
+      <c r="V275" s="16">
+        <v>138</v>
+      </c>
+      <c r="W275" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A276" s="5">
+        <v>274</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C276" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E276" s="16">
+        <f t="shared" si="105"/>
+        <v>11734825.399263229</v>
+      </c>
+      <c r="F276" s="16">
+        <v>5</v>
+      </c>
+      <c r="G276" s="18">
+        <f t="shared" si="104"/>
+        <v>1.2263980895957462E+17</v>
+      </c>
+      <c r="H276" s="16">
+        <f t="shared" si="102"/>
+        <v>184127.68296906006</v>
+      </c>
+      <c r="I276" s="16">
+        <f t="shared" si="103"/>
+        <v>468153329141425.13</v>
+      </c>
+      <c r="J276" s="16">
+        <v>1</v>
+      </c>
+      <c r="K276" s="16">
+        <v>11</v>
+      </c>
+      <c r="L276" s="16">
+        <v>5</v>
+      </c>
+      <c r="M276" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N276" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O276" s="16">
+        <v>30</v>
+      </c>
+      <c r="P276" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q276" s="16">
+        <v>0</v>
+      </c>
+      <c r="R276" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S276" s="16">
+        <v>44.428571428574301</v>
+      </c>
+      <c r="T276" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U276" s="16">
+        <v>344</v>
+      </c>
+      <c r="V276" s="16">
+        <v>139</v>
+      </c>
+      <c r="W276" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A277" s="20">
+        <v>275</v>
+      </c>
+      <c r="B277" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C277" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E277" s="12">
+        <f t="shared" si="105"/>
+        <v>11859457.200374141</v>
+      </c>
+      <c r="F277" s="16">
+        <v>5</v>
+      </c>
+      <c r="G277" s="18">
+        <f t="shared" si="104"/>
+        <v>1.2581203975229741E+17</v>
+      </c>
+      <c r="H277" s="16">
+        <f t="shared" ref="H277:H302" si="106">A277^2.146+50+50*A277</f>
+        <v>185514.89196474513</v>
+      </c>
+      <c r="I277" s="16">
+        <f t="shared" ref="I277:I302" si="107">A277^6.018+A277^4+1000*A277+100</f>
+        <v>478530190022234.25</v>
+      </c>
+      <c r="J277" s="16">
+        <v>1</v>
+      </c>
+      <c r="K277" s="16">
+        <v>11</v>
+      </c>
+      <c r="L277" s="16">
+        <v>5</v>
+      </c>
+      <c r="M277" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N277" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O277" s="16">
+        <v>30</v>
+      </c>
+      <c r="P277" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q277" s="16">
+        <v>0</v>
+      </c>
+      <c r="R277" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S277" s="16">
+        <v>44.750000000002899</v>
+      </c>
+      <c r="T277" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U277" s="16">
+        <v>346</v>
+      </c>
+      <c r="V277" s="16">
+        <v>140</v>
+      </c>
+      <c r="W277" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A278" s="5">
+        <v>276</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C278" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E278" s="12">
+        <f t="shared" si="105"/>
+        <v>11984953.07557027</v>
+      </c>
+      <c r="F278" s="16">
+        <v>5</v>
+      </c>
+      <c r="G278" s="18">
+        <f t="shared" si="104"/>
+        <v>1.290543610043259E+17</v>
+      </c>
+      <c r="H278" s="16">
+        <f t="shared" si="106"/>
+        <v>186907.68510751368</v>
+      </c>
+      <c r="I278" s="16">
+        <f t="shared" si="107"/>
+        <v>489098137167234.94</v>
+      </c>
+      <c r="J278" s="16">
+        <v>1</v>
+      </c>
+      <c r="K278" s="16">
+        <v>11</v>
+      </c>
+      <c r="L278" s="16">
+        <v>5</v>
+      </c>
+      <c r="M278" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N278" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O278" s="16">
+        <v>30</v>
+      </c>
+      <c r="P278" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q278" s="16">
+        <v>0</v>
+      </c>
+      <c r="R278" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S278" s="16">
+        <v>45.071428571431497</v>
+      </c>
+      <c r="T278" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U278" s="16">
+        <v>348</v>
+      </c>
+      <c r="V278" s="16">
+        <v>141</v>
+      </c>
+      <c r="W278" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A279" s="20">
+        <v>277</v>
+      </c>
+      <c r="B279" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C279" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E279" s="16">
+        <f t="shared" si="105"/>
+        <v>12111315.852217589</v>
+      </c>
+      <c r="F279" s="16">
+        <v>5</v>
+      </c>
+      <c r="G279" s="18">
+        <f t="shared" si="104"/>
+        <v>1.3236805896889515E+17</v>
+      </c>
+      <c r="H279" s="16">
+        <f t="shared" si="106"/>
+        <v>188306.06535745368</v>
+      </c>
+      <c r="I279" s="16">
+        <f t="shared" si="107"/>
+        <v>499859977852675.06</v>
+      </c>
+      <c r="J279" s="16">
+        <v>1</v>
+      </c>
+      <c r="K279" s="16">
+        <v>11</v>
+      </c>
+      <c r="L279" s="16">
+        <v>5</v>
+      </c>
+      <c r="M279" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N279" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O279" s="16">
+        <v>30</v>
+      </c>
+      <c r="P279" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q279" s="16">
+        <v>0</v>
+      </c>
+      <c r="R279" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S279" s="16">
+        <v>45.392857142860102</v>
+      </c>
+      <c r="T279" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U279" s="16">
+        <v>350</v>
+      </c>
+      <c r="V279" s="16">
+        <v>142</v>
+      </c>
+      <c r="W279" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A280" s="5">
+        <v>278</v>
+      </c>
+      <c r="B280" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C280" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E280" s="16">
+        <f t="shared" si="105"/>
+        <v>12238548.356657792</v>
+      </c>
+      <c r="F280" s="16">
+        <v>5</v>
+      </c>
+      <c r="G280" s="18">
+        <f t="shared" si="104"/>
+        <v>1.357544387234463E+17</v>
+      </c>
+      <c r="H280" s="16">
+        <f t="shared" si="106"/>
+        <v>189710.03566550647</v>
+      </c>
+      <c r="I280" s="16">
+        <f t="shared" si="107"/>
+        <v>510818550219968.25</v>
+      </c>
+      <c r="J280" s="16">
+        <v>1</v>
+      </c>
+      <c r="K280" s="16">
+        <v>11</v>
+      </c>
+      <c r="L280" s="16">
+        <v>5</v>
+      </c>
+      <c r="M280" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N280" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O280" s="16">
+        <v>30</v>
+      </c>
+      <c r="P280" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q280" s="16">
+        <v>0</v>
+      </c>
+      <c r="R280" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S280" s="16">
+        <v>45.7142857142887</v>
+      </c>
+      <c r="T280" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U280" s="16">
+        <v>352</v>
+      </c>
+      <c r="V280" s="16">
+        <v>143</v>
+      </c>
+      <c r="W280" s="22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A281" s="20">
+        <v>279</v>
+      </c>
+      <c r="B281" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C281" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E281" s="16">
+        <f t="shared" si="105"/>
+        <v>12366653.414212499</v>
+      </c>
+      <c r="F281" s="16">
+        <v>5</v>
+      </c>
+      <c r="G281" s="18">
+        <f t="shared" si="104"/>
+        <v>1.3921482437566506E+17</v>
+      </c>
+      <c r="H281" s="16">
+        <f t="shared" si="106"/>
+        <v>191119.59897353032</v>
+      </c>
+      <c r="I281" s="16">
+        <f t="shared" si="107"/>
+        <v>521976723501812.69</v>
+      </c>
+      <c r="J281" s="16">
+        <v>1</v>
+      </c>
+      <c r="K281" s="16">
+        <v>11</v>
+      </c>
+      <c r="L281" s="16">
+        <v>5</v>
+      </c>
+      <c r="M281" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N281" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O281" s="16">
+        <v>30</v>
+      </c>
+      <c r="P281" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q281" s="16">
+        <v>0</v>
+      </c>
+      <c r="R281" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S281" s="16">
+        <v>46.035714285717297</v>
+      </c>
+      <c r="T281" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U281" s="16">
+        <v>354</v>
+      </c>
+      <c r="V281" s="16">
+        <v>144</v>
+      </c>
+      <c r="W281" s="22">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A282" s="5">
+        <v>280</v>
+      </c>
+      <c r="B282" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C282" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E282" s="16">
+        <f t="shared" si="105"/>
+        <v>12495633.849187199</v>
+      </c>
+      <c r="F282" s="16">
+        <v>5</v>
+      </c>
+      <c r="G282" s="18">
+        <f t="shared" si="104"/>
+        <v>1.4275055927102469E+17</v>
+      </c>
+      <c r="H282" s="16">
+        <f t="shared" si="106"/>
+        <v>192534.75821435996</v>
+      </c>
+      <c r="I282" s="16">
+        <f t="shared" si="107"/>
+        <v>533337398249084.44</v>
+      </c>
+      <c r="J282" s="16">
+        <v>1</v>
+      </c>
+      <c r="K282" s="16">
+        <v>11</v>
+      </c>
+      <c r="L282" s="16">
+        <v>5</v>
+      </c>
+      <c r="M282" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N282" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O282" s="16">
+        <v>30</v>
+      </c>
+      <c r="P282" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q282" s="16">
+        <v>0</v>
+      </c>
+      <c r="R282" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S282" s="16">
+        <v>46.357142857145902</v>
+      </c>
+      <c r="T282" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U282" s="16">
+        <v>356</v>
+      </c>
+      <c r="V282" s="16">
+        <v>145</v>
+      </c>
+      <c r="W282" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A283" s="20">
+        <v>281</v>
+      </c>
+      <c r="B283" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C283" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E283" s="16">
+        <f t="shared" si="105"/>
+        <v>12625492.484875167</v>
+      </c>
+      <c r="F283" s="16">
+        <v>5</v>
+      </c>
+      <c r="G283" s="18">
+        <f t="shared" si="104"/>
+        <v>1.4636300620182886E+17</v>
+      </c>
+      <c r="H283" s="16">
+        <f t="shared" si="106"/>
+        <v>193955.51631186623</v>
+      </c>
+      <c r="I283" s="16">
+        <f t="shared" si="107"/>
+        <v>544903506558619.5</v>
+      </c>
+      <c r="J283" s="16">
+        <v>1</v>
+      </c>
+      <c r="K283" s="16">
+        <v>11</v>
+      </c>
+      <c r="L283" s="16">
+        <v>5</v>
+      </c>
+      <c r="M283" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N283" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O283" s="16">
+        <v>30</v>
+      </c>
+      <c r="P283" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q283" s="16">
+        <v>0</v>
+      </c>
+      <c r="R283" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S283" s="16">
+        <v>46.6785714285745</v>
+      </c>
+      <c r="T283" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U283" s="16">
+        <v>358</v>
+      </c>
+      <c r="V283" s="16">
+        <v>146</v>
+      </c>
+      <c r="W283" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A284" s="5">
+        <v>282</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E284" s="16">
+        <f t="shared" si="105"/>
+        <v>12756232.143561665</v>
+      </c>
+      <c r="F284" s="16">
+        <v>5</v>
+      </c>
+      <c r="G284" s="18">
+        <f t="shared" si="104"/>
+        <v>1.5005354761777376E+17</v>
+      </c>
+      <c r="H284" s="16">
+        <f t="shared" si="106"/>
+        <v>195381.87618101633</v>
+      </c>
+      <c r="I284" s="16">
+        <f t="shared" si="107"/>
+        <v>556678012301766.44</v>
+      </c>
+      <c r="J284" s="16">
+        <v>1</v>
+      </c>
+      <c r="K284" s="16">
+        <v>11</v>
+      </c>
+      <c r="L284" s="16">
+        <v>5</v>
+      </c>
+      <c r="M284" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N284" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O284" s="16">
+        <v>30</v>
+      </c>
+      <c r="P284" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q284" s="16">
+        <v>0</v>
+      </c>
+      <c r="R284" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S284" s="16">
+        <v>47.000000000003098</v>
+      </c>
+      <c r="T284" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U284" s="16">
+        <v>360</v>
+      </c>
+      <c r="V284" s="16">
+        <v>147</v>
+      </c>
+      <c r="W284" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A285" s="20">
+        <v>283</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C285" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E285" s="16">
+        <f t="shared" si="105"/>
+        <v>12887855.646527616</v>
+      </c>
+      <c r="F285" s="16">
+        <v>5</v>
+      </c>
+      <c r="G285" s="18">
+        <f t="shared" si="104"/>
+        <v>1.538235858380169E+17</v>
+      </c>
+      <c r="H285" s="16">
+        <f t="shared" si="106"/>
+        <v>196813.84072793086</v>
+      </c>
+      <c r="I285" s="16">
+        <f t="shared" si="107"/>
+        <v>568663911353831.63</v>
+      </c>
+      <c r="J285" s="16">
+        <v>1</v>
+      </c>
+      <c r="K285" s="16">
+        <v>11</v>
+      </c>
+      <c r="L285" s="16">
+        <v>5</v>
+      </c>
+      <c r="M285" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N285" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O285" s="16">
+        <v>30</v>
+      </c>
+      <c r="P285" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q285" s="16">
+        <v>0</v>
+      </c>
+      <c r="R285" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S285" s="16">
+        <v>47.321428571431703</v>
+      </c>
+      <c r="T285" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U285" s="16">
+        <v>362</v>
+      </c>
+      <c r="V285" s="16">
+        <v>148</v>
+      </c>
+      <c r="W285" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A286" s="5">
+        <v>284</v>
+      </c>
+      <c r="B286" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C286" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E286" s="16">
+        <f t="shared" si="105"/>
+        <v>13020365.814053755</v>
+      </c>
+      <c r="F286" s="16">
+        <v>5</v>
+      </c>
+      <c r="G286" s="18">
+        <f t="shared" si="104"/>
+        <v>1.5767454326477878E+17</v>
+      </c>
+      <c r="H286" s="16">
+        <f t="shared" si="106"/>
+        <v>198251.41284994417</v>
+      </c>
+      <c r="I286" s="16">
+        <f t="shared" si="107"/>
+        <v>580864231824321.63</v>
+      </c>
+      <c r="J286" s="16">
+        <v>1</v>
+      </c>
+      <c r="K286" s="16">
+        <v>11</v>
+      </c>
+      <c r="L286" s="16">
+        <v>5</v>
+      </c>
+      <c r="M286" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N286" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O286" s="16">
+        <v>30</v>
+      </c>
+      <c r="P286" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q286" s="16">
+        <v>0</v>
+      </c>
+      <c r="R286" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S286" s="16">
+        <v>47.642857142860301</v>
+      </c>
+      <c r="T286" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U286" s="16">
+        <v>364</v>
+      </c>
+      <c r="V286" s="16">
+        <v>149</v>
+      </c>
+      <c r="W286" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A287" s="19">
+        <v>285</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C287" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E287" s="16">
+        <f t="shared" si="105"/>
+        <v>13153765.465424472</v>
+      </c>
+      <c r="F287" s="16">
+        <v>5</v>
+      </c>
+      <c r="G287" s="18">
+        <f t="shared" si="104"/>
+        <v>1.6160786259846509E+17</v>
+      </c>
+      <c r="H287" s="16">
+        <f t="shared" si="106"/>
+        <v>199694.59543565934</v>
+      </c>
+      <c r="I287" s="16">
+        <f t="shared" si="107"/>
+        <v>593282034288033.63</v>
+      </c>
+      <c r="J287" s="16">
+        <v>1</v>
+      </c>
+      <c r="K287" s="16">
+        <v>11</v>
+      </c>
+      <c r="L287" s="16">
+        <v>5</v>
+      </c>
+      <c r="M287" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N287" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O287" s="16">
+        <v>30</v>
+      </c>
+      <c r="P287" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q287" s="16">
+        <v>0</v>
+      </c>
+      <c r="R287" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S287" s="16">
+        <v>47.964285714288899</v>
+      </c>
+      <c r="T287" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U287" s="16">
+        <v>366</v>
+      </c>
+      <c r="V287" s="16">
+        <v>150</v>
+      </c>
+      <c r="W287" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A288" s="15">
+        <v>286</v>
+      </c>
+      <c r="B288" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C288" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E288" s="16">
+        <f t="shared" si="105"/>
+        <v>13288057.418931467</v>
+      </c>
+      <c r="F288" s="16">
+        <v>5</v>
+      </c>
+      <c r="G288" s="18">
+        <f t="shared" si="104"/>
+        <v>1.6562500705432522E+17</v>
+      </c>
+      <c r="H288" s="16">
+        <f t="shared" si="106"/>
+        <v>201143.39136500671</v>
+      </c>
+      <c r="I288" s="16">
+        <f t="shared" si="107"/>
+        <v>605920412016945.63</v>
+      </c>
+      <c r="J288" s="16">
+        <v>1</v>
+      </c>
+      <c r="K288" s="16">
+        <v>11</v>
+      </c>
+      <c r="L288" s="16">
+        <v>5</v>
+      </c>
+      <c r="M288" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N288" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O288" s="16">
+        <v>30</v>
+      </c>
+      <c r="P288" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q288" s="16">
+        <v>0</v>
+      </c>
+      <c r="R288" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S288" s="16">
+        <v>48.285714285717503</v>
+      </c>
+      <c r="T288" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U288" s="16">
+        <v>368</v>
+      </c>
+      <c r="V288" s="16">
+        <v>151</v>
+      </c>
+      <c r="W288" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A289" s="19">
+        <v>287</v>
+      </c>
+      <c r="B289" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C289" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E289" s="16">
+        <f t="shared" si="105"/>
+        <v>13423244.491877869</v>
+      </c>
+      <c r="F289" s="16">
+        <v>5</v>
+      </c>
+      <c r="G289" s="18">
+        <f t="shared" si="104"/>
+        <v>1.6972746058065366E+17</v>
+      </c>
+      <c r="H289" s="16">
+        <f t="shared" si="106"/>
+        <v>202597.80350930063</v>
+      </c>
+      <c r="I289" s="16">
+        <f t="shared" si="107"/>
+        <v>618782491213017.38</v>
+      </c>
+      <c r="J289" s="16">
+        <v>1</v>
+      </c>
+      <c r="K289" s="16">
+        <v>11</v>
+      </c>
+      <c r="L289" s="16">
+        <v>5</v>
+      </c>
+      <c r="M289" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N289" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O289" s="16">
+        <v>30</v>
+      </c>
+      <c r="P289" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q289" s="16">
+        <v>0</v>
+      </c>
+      <c r="R289" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S289" s="16">
+        <v>48.607142857146101</v>
+      </c>
+      <c r="T289" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U289" s="16">
+        <v>370</v>
+      </c>
+      <c r="V289" s="16">
+        <v>152</v>
+      </c>
+      <c r="W289" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A290" s="15">
+        <v>288</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C290" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E290" s="12">
+        <f t="shared" si="105"/>
+        <v>13559329.500581868</v>
+      </c>
+      <c r="F290" s="16">
+        <v>5</v>
+      </c>
+      <c r="G290" s="18">
+        <f t="shared" si="104"/>
+        <v>1.739167280785209E+17</v>
+      </c>
+      <c r="H290" s="16">
+        <f t="shared" si="106"/>
+        <v>204057.83473129259</v>
+      </c>
+      <c r="I290" s="16">
+        <f t="shared" si="107"/>
+        <v>631871431241717.38</v>
+      </c>
+      <c r="J290" s="16">
+        <v>1</v>
+      </c>
+      <c r="K290" s="16">
+        <v>11</v>
+      </c>
+      <c r="L290" s="16">
+        <v>5</v>
+      </c>
+      <c r="M290" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N290" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O290" s="16">
+        <v>30</v>
+      </c>
+      <c r="P290" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q290" s="16">
+        <v>0</v>
+      </c>
+      <c r="R290" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S290" s="16">
+        <v>48.928571428574699</v>
+      </c>
+      <c r="T290" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U290" s="16">
+        <v>372</v>
+      </c>
+      <c r="V290" s="16">
+        <v>153</v>
+      </c>
+      <c r="W290" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A291" s="19">
+        <v>289</v>
+      </c>
+      <c r="B291" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C291" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E291" s="12">
+        <f t="shared" si="105"/>
+        <v>13696315.26038049</v>
+      </c>
+      <c r="F291" s="16">
+        <v>5</v>
+      </c>
+      <c r="G291" s="18">
+        <f t="shared" si="104"/>
+        <v>1.781943356230745E+17</v>
+      </c>
+      <c r="H291" s="16">
+        <f t="shared" si="106"/>
+        <v>205523.48788522993</v>
+      </c>
+      <c r="I291" s="16">
+        <f t="shared" si="107"/>
+        <v>645190424866466.75</v>
+      </c>
+      <c r="J291" s="16">
+        <v>1</v>
+      </c>
+      <c r="K291" s="16">
+        <v>11</v>
+      </c>
+      <c r="L291" s="16">
+        <v>5</v>
+      </c>
+      <c r="M291" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N291" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O291" s="16">
+        <v>30</v>
+      </c>
+      <c r="P291" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q291" s="16">
+        <v>0</v>
+      </c>
+      <c r="R291" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S291" s="16">
+        <v>49.250000000003297</v>
+      </c>
+      <c r="T291" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U291" s="16">
+        <v>374</v>
+      </c>
+      <c r="V291" s="16">
+        <v>154</v>
+      </c>
+      <c r="W291" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A292" s="15">
+        <v>290</v>
+      </c>
+      <c r="B292" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E292" s="16">
+        <f t="shared" si="105"/>
+        <v>13834204.585633369</v>
+      </c>
+      <c r="F292" s="16">
+        <v>5</v>
+      </c>
+      <c r="G292" s="18">
+        <f t="shared" si="104"/>
+        <v>1.8256183068638173E+17</v>
+      </c>
+      <c r="H292" s="16">
+        <f t="shared" si="106"/>
+        <v>206994.76581690795</v>
+      </c>
+      <c r="I292" s="16">
+        <f t="shared" si="107"/>
+        <v>658742698483894.25</v>
+      </c>
+      <c r="J292" s="16">
+        <v>1</v>
+      </c>
+      <c r="K292" s="16">
+        <v>11</v>
+      </c>
+      <c r="L292" s="16">
+        <v>5</v>
+      </c>
+      <c r="M292" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N292" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O292" s="16">
+        <v>30</v>
+      </c>
+      <c r="P292" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q292" s="16">
+        <v>0</v>
+      </c>
+      <c r="R292" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S292" s="16">
+        <v>49.571428571431902</v>
+      </c>
+      <c r="T292" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U292" s="16">
+        <v>376</v>
+      </c>
+      <c r="V292" s="16">
+        <v>155</v>
+      </c>
+      <c r="W292" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A293" s="19">
+        <v>291</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C293" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E293" s="16">
+        <f t="shared" si="105"/>
+        <v>13973000.289726567</v>
+      </c>
+      <c r="F293" s="16">
+        <v>5</v>
+      </c>
+      <c r="G293" s="18">
+        <f t="shared" si="104"/>
+        <v>1.8702078236183773E+17</v>
+      </c>
+      <c r="H293" s="16">
+        <f t="shared" si="106"/>
+        <v>208471.67136372547</v>
+      </c>
+      <c r="I293" s="16">
+        <f t="shared" si="107"/>
+        <v>672531512359894.5</v>
+      </c>
+      <c r="J293" s="16">
+        <v>1</v>
+      </c>
+      <c r="K293" s="16">
+        <v>11</v>
+      </c>
+      <c r="L293" s="16">
+        <v>5</v>
+      </c>
+      <c r="M293" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N293" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O293" s="16">
+        <v>30</v>
+      </c>
+      <c r="P293" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q293" s="16">
+        <v>0</v>
+      </c>
+      <c r="R293" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S293" s="16">
+        <v>49.8928571428605</v>
+      </c>
+      <c r="T293" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U293" s="16">
+        <v>378</v>
+      </c>
+      <c r="V293" s="16">
+        <v>156</v>
+      </c>
+      <c r="W293" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A294" s="15">
+        <v>292</v>
+      </c>
+      <c r="B294" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C294" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E294" s="16">
+        <f t="shared" si="105"/>
+        <v>14112705.185076088</v>
+      </c>
+      <c r="F294" s="16">
+        <v>5</v>
+      </c>
+      <c r="G294" s="18">
+        <f t="shared" si="104"/>
+        <v>1.9157278159013386E+17</v>
+      </c>
+      <c r="H294" s="16">
+        <f t="shared" si="106"/>
+        <v>209954.20735473747</v>
+      </c>
+      <c r="I294" s="16">
+        <f t="shared" si="107"/>
+        <v>686560160866565.38</v>
+      </c>
+      <c r="J294" s="16">
+        <v>1</v>
+      </c>
+      <c r="K294" s="16">
+        <v>11</v>
+      </c>
+      <c r="L294" s="16">
+        <v>5</v>
+      </c>
+      <c r="M294" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N294" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O294" s="16">
+        <v>30</v>
+      </c>
+      <c r="P294" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q294" s="16">
+        <v>0</v>
+      </c>
+      <c r="R294" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S294" s="16">
+        <v>50.214285714289097</v>
+      </c>
+      <c r="T294" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U294" s="16">
+        <v>380</v>
+      </c>
+      <c r="V294" s="16">
+        <v>157</v>
+      </c>
+      <c r="W294" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A295" s="19">
+        <v>293</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C295" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E295" s="16">
+        <f t="shared" si="105"/>
+        <v>14253322.083131695</v>
+      </c>
+      <c r="F295" s="16">
+        <v>5</v>
+      </c>
+      <c r="G295" s="18">
+        <f t="shared" si="104"/>
+        <v>1.962194413868081E+17</v>
+      </c>
+      <c r="H295" s="16">
+        <f t="shared" si="106"/>
+        <v>211442.3766107088</v>
+      </c>
+      <c r="I295" s="16">
+        <f t="shared" si="107"/>
+        <v>700831972719937.38</v>
+      </c>
+      <c r="J295" s="16">
+        <v>1</v>
+      </c>
+      <c r="K295" s="16">
+        <v>11</v>
+      </c>
+      <c r="L295" s="16">
+        <v>5</v>
+      </c>
+      <c r="M295" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N295" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O295" s="16">
+        <v>30</v>
+      </c>
+      <c r="P295" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q295" s="16">
+        <v>0</v>
+      </c>
+      <c r="R295" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S295" s="16">
+        <v>50.535714285717702</v>
+      </c>
+      <c r="T295" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U295" s="16">
+        <v>382</v>
+      </c>
+      <c r="V295" s="16">
+        <v>158</v>
+      </c>
+      <c r="W295" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A296" s="15">
+        <v>294</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C296" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E296" s="16">
+        <f t="shared" si="105"/>
+        <v>14394853.79438041</v>
+      </c>
+      <c r="F296" s="16">
+        <v>5</v>
+      </c>
+      <c r="G296" s="18">
+        <f t="shared" si="104"/>
+        <v>2.0096239707136499E+17</v>
+      </c>
+      <c r="H296" s="16">
+        <f t="shared" si="106"/>
+        <v>212936.18194416599</v>
+      </c>
+      <c r="I296" s="16">
+        <f t="shared" si="107"/>
+        <v>715350311218560.88</v>
+      </c>
+      <c r="J296" s="16">
+        <v>1</v>
+      </c>
+      <c r="K296" s="16">
+        <v>11</v>
+      </c>
+      <c r="L296" s="16">
+        <v>5</v>
+      </c>
+      <c r="M296" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N296" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O296" s="16">
+        <v>30</v>
+      </c>
+      <c r="P296" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q296" s="16">
+        <v>0</v>
+      </c>
+      <c r="R296" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S296" s="16">
+        <v>50.8571428571463</v>
+      </c>
+      <c r="T296" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U296" s="16">
+        <v>384</v>
+      </c>
+      <c r="V296" s="16">
+        <v>159</v>
+      </c>
+      <c r="W296" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A297" s="19">
+        <v>295</v>
+      </c>
+      <c r="B297" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C297" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E297" s="16">
+        <f t="shared" si="105"/>
+        <v>14537303.128350295</v>
+      </c>
+      <c r="F297" s="16">
+        <v>5</v>
+      </c>
+      <c r="G297" s="18">
+        <f t="shared" si="104"/>
+        <v>2.0580330649798365E+17</v>
+      </c>
+      <c r="H297" s="16">
+        <f t="shared" si="106"/>
+        <v>214435.62615945103</v>
+      </c>
+      <c r="I297" s="16">
+        <f t="shared" si="107"/>
+        <v>730118574482937.13</v>
+      </c>
+      <c r="J297" s="16">
+        <v>1</v>
+      </c>
+      <c r="K297" s="16">
+        <v>11</v>
+      </c>
+      <c r="L297" s="16">
+        <v>5</v>
+      </c>
+      <c r="M297" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N297" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O297" s="16">
+        <v>30</v>
+      </c>
+      <c r="P297" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q297" s="16">
+        <v>0</v>
+      </c>
+      <c r="R297" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S297" s="16">
+        <v>51.178571428574898</v>
+      </c>
+      <c r="T297" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U297" s="16">
+        <v>386</v>
+      </c>
+      <c r="V297" s="16">
+        <v>160</v>
+      </c>
+      <c r="W297" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A298" s="15">
+        <v>296</v>
+      </c>
+      <c r="B298" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C298" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E298" s="16">
+        <f t="shared" si="105"/>
+        <v>14680672.893613806</v>
+      </c>
+      <c r="F298" s="16">
+        <v>5</v>
+      </c>
+      <c r="G298" s="18">
+        <f t="shared" si="104"/>
+        <v>2.1074385028779939E+17</v>
+      </c>
+      <c r="H298" s="16">
+        <f t="shared" si="106"/>
+        <v>215940.71205277002</v>
+      </c>
+      <c r="I298" s="16">
+        <f t="shared" si="107"/>
+        <v>745140195695720.25</v>
+      </c>
+      <c r="J298" s="16">
+        <v>1</v>
+      </c>
+      <c r="K298" s="16">
+        <v>11</v>
+      </c>
+      <c r="L298" s="16">
+        <v>5</v>
+      </c>
+      <c r="M298" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N298" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O298" s="16">
+        <v>30</v>
+      </c>
+      <c r="P298" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q298" s="16">
+        <v>0</v>
+      </c>
+      <c r="R298" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S298" s="16">
+        <v>51.500000000003503</v>
+      </c>
+      <c r="T298" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U298" s="16">
+        <v>388</v>
+      </c>
+      <c r="V298" s="16">
+        <v>161</v>
+      </c>
+      <c r="W298" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A299" s="19">
+        <v>297</v>
+      </c>
+      <c r="B299" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C299" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E299" s="16">
+        <f t="shared" si="105"/>
+        <v>14824965.897791749</v>
+      </c>
+      <c r="F299" s="16">
+        <v>5</v>
+      </c>
+      <c r="G299" s="18">
+        <f t="shared" si="104"/>
+        <v>2.1578573206280746E+17</v>
+      </c>
+      <c r="H299" s="16">
+        <f t="shared" si="106"/>
+        <v>217451.44241224852</v>
+      </c>
+      <c r="I299" s="16">
+        <f t="shared" si="107"/>
+        <v>760418643342857</v>
+      </c>
+      <c r="J299" s="16">
+        <v>1</v>
+      </c>
+      <c r="K299" s="16">
+        <v>11</v>
+      </c>
+      <c r="L299" s="16">
+        <v>5</v>
+      </c>
+      <c r="M299" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N299" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O299" s="16">
+        <v>30</v>
+      </c>
+      <c r="P299" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q299" s="16">
+        <v>0</v>
+      </c>
+      <c r="R299" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S299" s="16">
+        <v>51.821428571432101</v>
+      </c>
+      <c r="T299" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U299" s="16">
+        <v>390</v>
+      </c>
+      <c r="V299" s="16">
+        <v>162</v>
+      </c>
+      <c r="W299" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A300" s="15">
+        <v>298</v>
+      </c>
+      <c r="B300" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E300" s="16">
+        <f t="shared" si="105"/>
+        <v>14970184.94755628</v>
+      </c>
+      <c r="F300" s="16">
+        <v>5</v>
+      </c>
+      <c r="G300" s="18">
+        <f t="shared" si="104"/>
+        <v>2.2093067868132947E+17</v>
+      </c>
+      <c r="H300" s="16">
+        <f t="shared" si="106"/>
+        <v>218967.82001797677</v>
+      </c>
+      <c r="I300" s="16">
+        <f t="shared" si="107"/>
+        <v>775957421455451.63</v>
+      </c>
+      <c r="J300" s="16">
+        <v>1</v>
+      </c>
+      <c r="K300" s="16">
+        <v>11</v>
+      </c>
+      <c r="L300" s="16">
+        <v>5</v>
+      </c>
+      <c r="M300" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N300" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O300" s="16">
+        <v>30</v>
+      </c>
+      <c r="P300" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q300" s="16">
+        <v>0</v>
+      </c>
+      <c r="R300" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S300" s="16">
+        <v>52.142857142860699</v>
+      </c>
+      <c r="T300" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U300" s="16">
+        <v>392</v>
+      </c>
+      <c r="V300" s="16">
+        <v>163</v>
+      </c>
+      <c r="W300" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A301" s="19">
+        <v>299</v>
+      </c>
+      <c r="B301" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C301" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E301" s="16">
+        <f t="shared" si="105"/>
+        <v>15116332.848634899</v>
+      </c>
+      <c r="F301" s="16">
+        <v>5</v>
+      </c>
+      <c r="G301" s="18">
+        <f t="shared" si="104"/>
+        <v>2.2618044047511773E+17</v>
+      </c>
+      <c r="H301" s="16">
+        <f t="shared" si="106"/>
+        <v>220489.84764206412</v>
+      </c>
+      <c r="I301" s="16">
+        <f t="shared" si="107"/>
+        <v>791760069852539.5</v>
+      </c>
+      <c r="J301" s="16">
+        <v>1</v>
+      </c>
+      <c r="K301" s="16">
+        <v>11</v>
+      </c>
+      <c r="L301" s="16">
+        <v>5</v>
+      </c>
+      <c r="M301" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N301" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O301" s="16">
+        <v>30</v>
+      </c>
+      <c r="P301" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q301" s="16">
+        <v>0</v>
+      </c>
+      <c r="R301" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S301" s="16">
+        <v>52.464285714289304</v>
+      </c>
+      <c r="T301" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U301" s="16">
+        <v>394</v>
+      </c>
+      <c r="V301" s="16">
+        <v>164</v>
+      </c>
+      <c r="W301" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A302" s="15">
+        <v>300</v>
+      </c>
+      <c r="B302" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C302" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E302" s="16">
+        <f t="shared" si="105"/>
+        <v>15263412.405813666</v>
+      </c>
+      <c r="F302" s="16">
+        <v>5</v>
+      </c>
+      <c r="G302" s="18">
+        <f t="shared" si="104"/>
+        <v>2.3153679148804726E+17</v>
+      </c>
+      <c r="H302" s="16">
+        <f t="shared" si="106"/>
+        <v>222017.52804868593</v>
+      </c>
+      <c r="I302" s="16">
+        <f t="shared" si="107"/>
+        <v>807830164384644.25</v>
+      </c>
+      <c r="J302" s="16">
+        <v>1</v>
+      </c>
+      <c r="K302" s="16">
+        <v>11</v>
+      </c>
+      <c r="L302" s="16">
+        <v>5</v>
+      </c>
+      <c r="M302" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N302" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O302" s="16">
+        <v>30</v>
+      </c>
+      <c r="P302" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q302" s="16">
+        <v>0</v>
+      </c>
+      <c r="R302" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S302" s="16">
+        <v>52.785714285717901</v>
+      </c>
+      <c r="T302" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U302" s="16">
+        <v>396</v>
+      </c>
+      <c r="V302" s="16">
+        <v>165</v>
+      </c>
+      <c r="W302" s="22">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB64DF42-1B2D-4184-8F3B-CA0237CDC3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0AC6E1-2A4D-4BE3-BAFB-C8D1C7625F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1202,8 +1202,8 @@
   <dimension ref="A1:Y302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G250" sqref="G250"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18493,8 +18493,8 @@
         <v>1.9000161854298256E+16</v>
       </c>
       <c r="H212" s="16">
-        <f>A212^2.146+50+50*A212</f>
-        <v>106818.14567933552</v>
+        <f>A212^2.145+50+50*A212</f>
+        <v>106304.76333111507</v>
       </c>
       <c r="I212" s="16">
         <f>A212^6.018+A212^4+1000*A212+100</f>
@@ -18565,8 +18565,8 @@
         <v>1.9643553565411292E+16</v>
       </c>
       <c r="H213" s="16">
-        <f t="shared" ref="H213:H276" si="102">A213^2.146+50+50*A213</f>
-        <v>107854.59934901509</v>
+        <f t="shared" ref="H213:H276" si="102">A213^2.145+50+50*A213</f>
+        <v>107335.49685096147</v>
       </c>
       <c r="I213" s="16">
         <f t="shared" ref="I213:I276" si="103">A213^6.018+A213^4+1000*A213+100</f>
@@ -18638,7 +18638,7 @@
       </c>
       <c r="H214" s="16">
         <f t="shared" si="102"/>
-        <v>108896.42530899418</v>
+        <v>108371.56683547657</v>
       </c>
       <c r="I214" s="16">
         <f t="shared" si="103"/>
@@ -18710,7 +18710,7 @@
       </c>
       <c r="H215" s="16">
         <f t="shared" si="102"/>
-        <v>109943.62726910344</v>
+        <v>109412.97694450269</v>
       </c>
       <c r="I215" s="16">
         <f t="shared" si="103"/>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="H216" s="16">
         <f t="shared" si="102"/>
-        <v>110996.20892425849</v>
+        <v>110459.73082315081</v>
       </c>
       <c r="I216" s="16">
         <f t="shared" si="103"/>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="H217" s="16">
         <f t="shared" si="102"/>
-        <v>112054.17395459089</v>
+        <v>111511.83210193006</v>
       </c>
       <c r="I217" s="16">
         <f t="shared" si="103"/>
@@ -18926,7 +18926,7 @@
       </c>
       <c r="H218" s="16">
         <f t="shared" si="102"/>
-        <v>113117.52602557463</v>
+        <v>112569.284396873</v>
       </c>
       <c r="I218" s="16">
         <f t="shared" si="103"/>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="H219" s="16">
         <f t="shared" si="102"/>
-        <v>114186.26878815246</v>
+        <v>113632.0913096599</v>
       </c>
       <c r="I219" s="16">
         <f t="shared" si="103"/>
@@ -19070,7 +19070,7 @@
       </c>
       <c r="H220" s="16">
         <f t="shared" si="102"/>
-        <v>115260.40587886114</v>
+        <v>114700.25642774311</v>
       </c>
       <c r="I220" s="16">
         <f t="shared" si="103"/>
@@ -19142,7 +19142,7 @@
       </c>
       <c r="H221" s="16">
         <f t="shared" si="102"/>
-        <v>116339.94091995439</v>
+        <v>115773.78332446792</v>
       </c>
       <c r="I221" s="16">
         <f t="shared" si="103"/>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="H222" s="16">
         <f t="shared" si="102"/>
-        <v>117424.87751952246</v>
+        <v>116852.6755591913</v>
       </c>
       <c r="I222" s="16">
         <f t="shared" si="103"/>
@@ -19286,7 +19286,7 @@
       </c>
       <c r="H223" s="16">
         <f t="shared" si="102"/>
-        <v>118515.21927161352</v>
+        <v>117936.93667740162</v>
       </c>
       <c r="I223" s="16">
         <f t="shared" si="103"/>
@@ -19358,7 +19358,7 @@
       </c>
       <c r="H224" s="16">
         <f t="shared" si="102"/>
-        <v>119610.96975635154</v>
+        <v>119026.57021083505</v>
       </c>
       <c r="I224" s="16">
         <f t="shared" si="103"/>
@@ -19430,7 +19430,7 @@
       </c>
       <c r="H225" s="16">
         <f t="shared" si="102"/>
-        <v>120712.13254005185</v>
+        <v>120121.57967758979</v>
       </c>
       <c r="I225" s="16">
         <f t="shared" si="103"/>
@@ -19501,8 +19501,8 @@
         <v>2.9870235395987588E+16</v>
       </c>
       <c r="H226" s="16">
-        <f t="shared" si="102"/>
-        <v>121818.71117533711</v>
+        <f>A226^2.1432+50+50*A226</f>
+        <v>120155.93623704654</v>
       </c>
       <c r="I226" s="16">
         <f t="shared" si="103"/>
@@ -19573,8 +19573,8 @@
         <v>3.081764783999416E+16</v>
       </c>
       <c r="H227" s="16">
-        <f t="shared" si="102"/>
-        <v>122930.70920125126</v>
+        <f t="shared" ref="H227:H290" si="104">A227^2.1432+50+50*A227</f>
+        <v>121250.59219467046</v>
       </c>
       <c r="I227" s="16">
         <f t="shared" si="103"/>
@@ -19645,8 +19645,8 @@
         <v>3.1790707561923456E+16</v>
       </c>
       <c r="H228" s="16">
-        <f t="shared" si="102"/>
-        <v>124048.13014337065</v>
+        <f t="shared" si="104"/>
+        <v>122350.56944765494</v>
       </c>
       <c r="I228" s="16">
         <f t="shared" si="103"/>
@@ -19717,8 +19717,8 @@
         <v>3.2789990745193528E+16</v>
       </c>
       <c r="H229" s="16">
-        <f t="shared" si="102"/>
-        <v>125170.97751391516</v>
+        <f t="shared" si="104"/>
+        <v>123455.87137628734</v>
       </c>
       <c r="I229" s="16">
         <f t="shared" si="103"/>
@@ -19789,8 +19789,8 @@
         <v>3.3816083887755656E+16</v>
       </c>
       <c r="H230" s="16">
-        <f t="shared" si="102"/>
-        <v>126299.25481185799</v>
+        <f t="shared" si="104"/>
+        <v>124566.50134806476</v>
       </c>
       <c r="I230" s="16">
         <f t="shared" si="103"/>
@@ -19861,8 +19861,8 @@
         <v>3.4869583940079652E+16</v>
       </c>
       <c r="H231" s="16">
-        <f t="shared" si="102"/>
-        <v>127432.96552303368</v>
+        <f t="shared" si="104"/>
+        <v>125682.46271779694</v>
       </c>
       <c r="I231" s="16">
         <f t="shared" si="103"/>
@@ -19933,8 +19933,8 @@
         <v>3.595109844436402E+16</v>
       </c>
       <c r="H232" s="16">
-        <f t="shared" si="102"/>
-        <v>128572.11312024422</v>
+        <f t="shared" si="104"/>
+        <v>126803.7588277107</v>
       </c>
       <c r="I232" s="16">
         <f t="shared" si="103"/>
@@ -20005,8 +20005,8 @@
         <v>3.7061245674983104E+16</v>
       </c>
       <c r="H233" s="16">
-        <f t="shared" si="102"/>
-        <v>129716.7010633641</v>
+        <f t="shared" si="104"/>
+        <v>127930.39300755062</v>
       </c>
       <c r="I233" s="16">
         <f t="shared" si="103"/>
@@ -20077,8 +20077,8 @@
         <v>3.8200654780169392E+16</v>
       </c>
       <c r="H234" s="16">
-        <f t="shared" si="102"/>
-        <v>130866.73279944605</v>
+        <f t="shared" si="104"/>
+        <v>129062.36857468123</v>
       </c>
       <c r="I234" s="16">
         <f t="shared" si="103"/>
@@ -20149,8 +20149,8 @@
         <v>3.9369965924938816E+16</v>
       </c>
       <c r="H235" s="16">
-        <f t="shared" si="102"/>
-        <v>132022.2117628213</v>
+        <f t="shared" si="104"/>
+        <v>130199.68883418398</v>
       </c>
       <c r="I235" s="16">
         <f t="shared" si="103"/>
@@ -20221,8 +20221,8 @@
         <v>4.0569830435269216E+16</v>
       </c>
       <c r="H236" s="16">
-        <f t="shared" si="102"/>
-        <v>133183.14137520327</v>
+        <f t="shared" si="104"/>
+        <v>131342.35707895787</v>
       </c>
       <c r="I236" s="16">
         <f t="shared" si="103"/>
@@ -20293,8 +20293,8 @@
         <v>4.1800910943526656E+16</v>
       </c>
       <c r="H237" s="16">
-        <f t="shared" si="102"/>
-        <v>134349.52504578573</v>
+        <f t="shared" si="104"/>
+        <v>132490.37658981411</v>
       </c>
       <c r="I237" s="16">
         <f t="shared" si="103"/>
@@ -20365,8 +20365,8 @@
         <v>4.3063881535159648E+16</v>
       </c>
       <c r="H238" s="16">
-        <f t="shared" si="102"/>
-        <v>135521.36617134404</v>
+        <f t="shared" si="104"/>
+        <v>133643.75063557399</v>
       </c>
       <c r="I238" s="16">
         <f t="shared" si="103"/>
@@ -20437,8 +20437,8 @@
         <v>4.435942789665184E+16</v>
       </c>
       <c r="H239" s="16">
-        <f t="shared" si="102"/>
-        <v>136698.66813633105</v>
+        <f t="shared" si="104"/>
+        <v>134802.48247316171</v>
       </c>
       <c r="I239" s="16">
         <f t="shared" si="103"/>
@@ -20509,8 +20509,8 @@
         <v>4.5688247464750816E+16</v>
       </c>
       <c r="H240" s="16">
-        <f t="shared" si="102"/>
-        <v>137881.43431297486</v>
+        <f t="shared" si="104"/>
+        <v>135966.57534769853</v>
       </c>
       <c r="I240" s="16">
         <f t="shared" si="103"/>
@@ -20581,8 +20581,8 @@
         <v>4.7051049576968912E+16</v>
       </c>
       <c r="H241" s="16">
-        <f t="shared" si="102"/>
-        <v>139069.66806137399</v>
+        <f t="shared" si="104"/>
+        <v>137136.03249259552</v>
       </c>
       <c r="I241" s="16">
         <f t="shared" si="103"/>
@@ -20649,12 +20649,12 @@
         <v>5</v>
       </c>
       <c r="G242" s="18">
-        <f t="shared" ref="G242:G302" si="104">A242^7.01+A242^4+100*A242+100</f>
+        <f t="shared" ref="G242:G302" si="105">A242^7.01+A242^4+100*A242+100</f>
         <v>4.8448555623369216E+16</v>
       </c>
       <c r="H242" s="16">
-        <f t="shared" si="102"/>
-        <v>140263.37272959109</v>
+        <f>A242^2.1415+50+50*A242</f>
+        <v>137139.93709576846</v>
       </c>
       <c r="I242" s="16">
         <f t="shared" si="103"/>
@@ -20721,12 +20721,12 @@
         <v>5</v>
       </c>
       <c r="G243" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4.9881499199637904E+16</v>
       </c>
       <c r="H243" s="16">
-        <f t="shared" si="102"/>
-        <v>141462.55165374718</v>
+        <f t="shared" ref="H243:H302" si="106">A243^2.1415+50+50*A243</f>
+        <v>138308.75908635493</v>
       </c>
       <c r="I243" s="16">
         <f t="shared" si="103"/>
@@ -20793,12 +20793,12 @@
         <v>5</v>
       </c>
       <c r="G244" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>5.1350626261448464E+16</v>
       </c>
       <c r="H244" s="16">
-        <f t="shared" si="102"/>
-        <v>142667.20815811347</v>
+        <f t="shared" si="106"/>
+        <v>139482.89297009032</v>
       </c>
       <c r="I244" s="16">
         <f t="shared" si="103"/>
@@ -20865,12 +20865,12 @@
         <v>5</v>
       </c>
       <c r="G245" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>5.285669528012384E+16</v>
       </c>
       <c r="H245" s="16">
-        <f t="shared" si="102"/>
-        <v>143877.34555520097</v>
+        <f t="shared" si="106"/>
+        <v>140662.34186024917</v>
       </c>
       <c r="I245" s="16">
         <f t="shared" si="103"/>
@@ -20930,19 +20930,19 @@
         <v>88</v>
       </c>
       <c r="E246" s="16">
-        <f t="shared" ref="E246:E302" si="105">A246^2.9</f>
+        <f t="shared" ref="E246:E302" si="107">A246^2.9</f>
         <v>8383598.9844874209</v>
       </c>
       <c r="F246" s="16">
         <v>5</v>
       </c>
       <c r="G246" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>5.440047739960608E+16</v>
       </c>
       <c r="H246" s="16">
-        <f t="shared" si="102"/>
-        <v>145092.96714585312</v>
+        <f t="shared" si="106"/>
+        <v>141847.10885908321</v>
       </c>
       <c r="I246" s="16">
         <f t="shared" si="103"/>
@@ -21002,19 +21002,19 @@
         <v>89</v>
       </c>
       <c r="E247" s="16">
+        <f t="shared" si="107"/>
+        <v>8483628.5439378768</v>
+      </c>
+      <c r="F247" s="16">
+        <v>5</v>
+      </c>
+      <c r="G247" s="18">
         <f t="shared" si="105"/>
-        <v>8483628.5439378768</v>
-      </c>
-      <c r="F247" s="16">
-        <v>5</v>
-      </c>
-      <c r="G247" s="18">
-        <f t="shared" si="104"/>
         <v>5.5982756594728768E+16</v>
       </c>
       <c r="H247" s="16">
-        <f t="shared" si="102"/>
-        <v>146314.07621933176</v>
+        <f t="shared" si="106"/>
+        <v>143037.19705790153</v>
       </c>
       <c r="I247" s="16">
         <f t="shared" si="103"/>
@@ -21074,19 +21074,19 @@
         <v>87</v>
       </c>
       <c r="E248" s="16">
+        <f t="shared" si="107"/>
+        <v>8584436.8586975392</v>
+      </c>
+      <c r="F248" s="16">
+        <v>5</v>
+      </c>
+      <c r="G248" s="18">
         <f t="shared" si="105"/>
-        <v>8584436.8586975392</v>
-      </c>
-      <c r="F248" s="16">
-        <v>5</v>
-      </c>
-      <c r="G248" s="18">
-        <f t="shared" si="104"/>
         <v>5.7604329830809552E+16</v>
       </c>
       <c r="H248" s="16">
-        <f t="shared" si="102"/>
-        <v>147540.67605340705</v>
+        <f t="shared" si="106"/>
+        <v>144232.60953715615</v>
       </c>
       <c r="I248" s="16">
         <f t="shared" si="103"/>
@@ -21146,19 +21146,19 @@
         <v>88</v>
       </c>
       <c r="E249" s="16">
+        <f t="shared" si="107"/>
+        <v>8686026.7889180873</v>
+      </c>
+      <c r="F249" s="16">
+        <v>5</v>
+      </c>
+      <c r="G249" s="18">
         <f t="shared" si="105"/>
-        <v>8686026.7889180873</v>
-      </c>
-      <c r="F249" s="16">
-        <v>5</v>
-      </c>
-      <c r="G249" s="18">
-        <f t="shared" si="104"/>
         <v>5.9266007224561968E+16</v>
       </c>
       <c r="H249" s="16">
-        <f t="shared" si="102"/>
-        <v>148772.76991444395</v>
+        <f t="shared" si="106"/>
+        <v>145433.34936652481</v>
       </c>
       <c r="I249" s="16">
         <f t="shared" si="103"/>
@@ -21218,19 +21218,19 @@
         <v>89</v>
       </c>
       <c r="E250" s="16">
+        <f t="shared" si="107"/>
+        <v>8788401.1935886815</v>
+      </c>
+      <c r="F250" s="16">
+        <v>5</v>
+      </c>
+      <c r="G250" s="18">
         <f t="shared" si="105"/>
-        <v>8788401.1935886815</v>
-      </c>
-      <c r="F250" s="16">
-        <v>5</v>
-      </c>
-      <c r="G250" s="18">
-        <f t="shared" si="104"/>
         <v>6.0968612206327184E+16</v>
       </c>
       <c r="H250" s="16">
-        <f t="shared" si="102"/>
-        <v>150010.36105748644</v>
+        <f t="shared" si="106"/>
+        <v>146639.41960498955</v>
       </c>
       <c r="I250" s="16">
         <f t="shared" si="103"/>
@@ -21290,19 +21290,19 @@
         <v>87</v>
       </c>
       <c r="E251" s="12">
+        <f t="shared" si="107"/>
+        <v>8891562.930541249</v>
+      </c>
+      <c r="F251" s="16">
+        <v>5</v>
+      </c>
+      <c r="G251" s="18">
         <f t="shared" si="105"/>
-        <v>8891562.930541249</v>
-      </c>
-      <c r="F251" s="16">
-        <v>5</v>
-      </c>
-      <c r="G251" s="18">
-        <f t="shared" si="104"/>
         <v>6.271298168364624E+16</v>
       </c>
       <c r="H251" s="16">
-        <f t="shared" si="102"/>
-        <v>151253.45272634458</v>
+        <f t="shared" si="106"/>
+        <v>147850.82330091967</v>
       </c>
       <c r="I251" s="16">
         <f t="shared" si="103"/>
@@ -21362,19 +21362,19 @@
         <v>88</v>
       </c>
       <c r="E252" s="12">
+        <f t="shared" si="107"/>
+        <v>8995514.8564556595</v>
+      </c>
+      <c r="F252" s="16">
+        <v>5</v>
+      </c>
+      <c r="G252" s="18">
         <f t="shared" si="105"/>
-        <v>8995514.8564556595</v>
-      </c>
-      <c r="F252" s="16">
-        <v>5</v>
-      </c>
-      <c r="G252" s="18">
-        <f t="shared" si="104"/>
         <v>6.4499966206160832E+16</v>
       </c>
       <c r="H252" s="16">
-        <f t="shared" si="102"/>
-        <v>152502.04815367685</v>
+        <f t="shared" si="106"/>
+        <v>149067.56349214964</v>
       </c>
       <c r="I252" s="16">
         <f t="shared" si="103"/>
@@ -21434,19 +21434,19 @@
         <v>89</v>
       </c>
       <c r="E253" s="16">
+        <f t="shared" si="107"/>
+        <v>9100259.8268646207</v>
+      </c>
+      <c r="F253" s="16">
+        <v>5</v>
+      </c>
+      <c r="G253" s="18">
         <f t="shared" si="105"/>
-        <v>9100259.8268646207</v>
-      </c>
-      <c r="F253" s="16">
-        <v>5</v>
-      </c>
-      <c r="G253" s="18">
-        <f t="shared" si="104"/>
         <v>6.6330430131858704E+16</v>
       </c>
       <c r="H253" s="16">
-        <f t="shared" si="102"/>
-        <v>153756.15056107394</v>
+        <f t="shared" si="106"/>
+        <v>150289.64320605854</v>
       </c>
       <c r="I253" s="16">
         <f t="shared" si="103"/>
@@ -21506,19 +21506,19 @@
         <v>87</v>
       </c>
       <c r="E254" s="16">
+        <f t="shared" si="107"/>
+        <v>9205800.696158966</v>
+      </c>
+      <c r="F254" s="16">
+        <v>5</v>
+      </c>
+      <c r="G254" s="18">
         <f t="shared" si="105"/>
-        <v>9205800.696158966</v>
-      </c>
-      <c r="F254" s="16">
-        <v>5</v>
-      </c>
-      <c r="G254" s="18">
-        <f t="shared" si="104"/>
         <v>6.820525179466888E+16</v>
       </c>
       <c r="H254" s="16">
-        <f t="shared" si="102"/>
-        <v>155015.76315913958</v>
+        <f t="shared" si="106"/>
+        <v>151517.06545964672</v>
       </c>
       <c r="I254" s="16">
         <f t="shared" si="103"/>
@@ -21578,19 +21578,19 @@
         <v>88</v>
       </c>
       <c r="E255" s="16">
+        <f t="shared" si="107"/>
+        <v>9312140.3175924718</v>
+      </c>
+      <c r="F255" s="16">
+        <v>5</v>
+      </c>
+      <c r="G255" s="18">
         <f t="shared" si="105"/>
-        <v>9312140.3175924718</v>
-      </c>
-      <c r="F255" s="16">
-        <v>5</v>
-      </c>
-      <c r="G255" s="18">
-        <f t="shared" si="104"/>
         <v>7.012532367340496E+16</v>
       </c>
       <c r="H255" s="16">
-        <f t="shared" si="102"/>
-        <v>156280.88914757283</v>
+        <f t="shared" si="106"/>
+        <v>152749.83325961267</v>
       </c>
       <c r="I255" s="16">
         <f t="shared" si="103"/>
@@ -21650,19 +21650,19 @@
         <v>89</v>
       </c>
       <c r="E256" s="16">
+        <f t="shared" si="107"/>
+        <v>9419281.5432868861</v>
+      </c>
+      <c r="F256" s="16">
+        <v>5</v>
+      </c>
+      <c r="G256" s="18">
         <f t="shared" si="105"/>
-        <v>9419281.5432868861</v>
-      </c>
-      <c r="F256" s="16">
-        <v>5</v>
-      </c>
-      <c r="G256" s="18">
-        <f t="shared" si="104"/>
         <v>7.2091552562070336E+16</v>
       </c>
       <c r="H256" s="16">
-        <f t="shared" si="102"/>
-        <v>157551.53171524734</v>
+        <f t="shared" si="106"/>
+        <v>153987.9496024301</v>
       </c>
       <c r="I256" s="16">
         <f t="shared" si="103"/>
@@ -21722,19 +21722,19 @@
         <v>87</v>
       </c>
       <c r="E257" s="16">
+        <f t="shared" si="107"/>
+        <v>9527227.2242368795</v>
+      </c>
+      <c r="F257" s="16">
+        <v>5</v>
+      </c>
+      <c r="G257" s="18">
         <f t="shared" si="105"/>
-        <v>9527227.2242368795</v>
-      </c>
-      <c r="F257" s="16">
-        <v>5</v>
-      </c>
-      <c r="G257" s="18">
-        <f t="shared" si="104"/>
         <v>7.4104859741526544E+16</v>
       </c>
       <c r="H257" s="16">
-        <f t="shared" si="102"/>
-        <v>158827.69404029101</v>
+        <f>A257^2.14+50+50*A257</f>
+        <v>154052.44896151559</v>
       </c>
       <c r="I257" s="16">
         <f t="shared" si="103"/>
@@ -21794,19 +21794,19 @@
         <v>88</v>
       </c>
       <c r="E258" s="16">
+        <f t="shared" si="107"/>
+        <v>9635980.2103149537</v>
+      </c>
+      <c r="F258" s="16">
+        <v>5</v>
+      </c>
+      <c r="G258" s="18">
         <f t="shared" si="105"/>
-        <v>9635980.2103149537</v>
-      </c>
-      <c r="F258" s="16">
-        <v>5</v>
-      </c>
-      <c r="G258" s="18">
-        <f t="shared" si="104"/>
         <v>7.6166181152530976E+16</v>
       </c>
       <c r="H258" s="16">
-        <f t="shared" si="102"/>
-        <v>160109.37929016366</v>
+        <f t="shared" ref="H258:H302" si="108">A258^2.14+50+50*A258</f>
+        <v>155290.51190101565</v>
       </c>
       <c r="I258" s="16">
         <f t="shared" si="103"/>
@@ -21866,19 +21866,19 @@
         <v>89</v>
       </c>
       <c r="E259" s="16">
+        <f t="shared" si="107"/>
+        <v>9745543.3502761442</v>
+      </c>
+      <c r="F259" s="16">
+        <v>5</v>
+      </c>
+      <c r="G259" s="18">
         <f t="shared" si="105"/>
-        <v>9745543.3502761442</v>
-      </c>
-      <c r="F259" s="16">
-        <v>5</v>
-      </c>
-      <c r="G259" s="18">
-        <f t="shared" si="104"/>
         <v>7.827646757014696E+16</v>
       </c>
       <c r="H259" s="16">
-        <f t="shared" si="102"/>
-        <v>161396.59062173523</v>
+        <f t="shared" si="108"/>
+        <v>156533.877236445</v>
       </c>
       <c r="I259" s="16">
         <f t="shared" si="103"/>
@@ -21938,19 +21938,19 @@
         <v>87</v>
       </c>
       <c r="E260" s="16">
+        <f t="shared" si="107"/>
+        <v>9855919.4917628486</v>
+      </c>
+      <c r="F260" s="16">
+        <v>5</v>
+      </c>
+      <c r="G260" s="18">
         <f t="shared" si="105"/>
-        <v>9855919.4917628486</v>
-      </c>
-      <c r="F260" s="16">
-        <v>5</v>
-      </c>
-      <c r="G260" s="18">
-        <f t="shared" si="104"/>
         <v>8.0436684779538304E+16</v>
       </c>
       <c r="H260" s="16">
-        <f t="shared" si="102"/>
-        <v>162689.33118136181</v>
+        <f t="shared" si="108"/>
+        <v>157782.54786269873</v>
       </c>
       <c r="I260" s="16">
         <f t="shared" si="103"/>
@@ -22010,19 +22010,19 @@
         <v>88</v>
       </c>
       <c r="E261" s="16">
+        <f t="shared" si="107"/>
+        <v>9967111.4813097883</v>
+      </c>
+      <c r="F261" s="16">
+        <v>5</v>
+      </c>
+      <c r="G261" s="18">
         <f t="shared" si="105"/>
-        <v>9967111.4813097883</v>
-      </c>
-      <c r="F261" s="16">
-        <v>5</v>
-      </c>
-      <c r="G261" s="18">
-        <f t="shared" si="104"/>
         <v>8.2647813753144672E+16</v>
       </c>
       <c r="H261" s="16">
-        <f t="shared" si="102"/>
-        <v>163987.60410496185</v>
+        <f t="shared" si="108"/>
+        <v>159036.52666500129</v>
       </c>
       <c r="I261" s="16">
         <f t="shared" si="103"/>
@@ -22082,19 +22082,19 @@
         <v>89</v>
       </c>
       <c r="E262" s="16">
+        <f t="shared" si="107"/>
+        <v>10079122.164348537</v>
+      </c>
+      <c r="F262" s="16">
+        <v>5</v>
+      </c>
+      <c r="G262" s="18">
         <f t="shared" si="105"/>
-        <v>10079122.164348537</v>
-      </c>
-      <c r="F262" s="16">
-        <v>5</v>
-      </c>
-      <c r="G262" s="18">
-        <f t="shared" si="104"/>
         <v>8.4910850829254096E+16</v>
       </c>
       <c r="H262" s="16">
-        <f t="shared" si="102"/>
-        <v>165291.41251809028</v>
+        <f t="shared" si="108"/>
+        <v>160295.81651897504</v>
       </c>
       <c r="I262" s="16">
         <f t="shared" si="103"/>
@@ -22154,19 +22154,19 @@
         <v>87</v>
       </c>
       <c r="E263" s="16">
+        <f t="shared" si="107"/>
+        <v>10191954.385212181</v>
+      </c>
+      <c r="F263" s="16">
+        <v>5</v>
+      </c>
+      <c r="G263" s="18">
         <f t="shared" si="105"/>
-        <v>10191954.385212181</v>
-      </c>
-      <c r="F263" s="16">
-        <v>5</v>
-      </c>
-      <c r="G263" s="18">
-        <f t="shared" si="104"/>
         <v>8.7226807891964512E+16</v>
       </c>
       <c r="H263" s="16">
-        <f t="shared" si="102"/>
-        <v>166600.75953601365</v>
+        <f t="shared" si="108"/>
+        <v>161560.42029071038</v>
       </c>
       <c r="I263" s="16">
         <f t="shared" si="103"/>
@@ -22226,19 +22226,19 @@
         <v>88</v>
       </c>
       <c r="E264" s="12">
+        <f t="shared" si="107"/>
+        <v>10305610.987140069</v>
+      </c>
+      <c r="F264" s="16">
+        <v>5</v>
+      </c>
+      <c r="G264" s="18">
         <f t="shared" si="105"/>
-        <v>10305610.987140069</v>
-      </c>
-      <c r="F264" s="16">
-        <v>5</v>
-      </c>
-      <c r="G264" s="18">
-        <f t="shared" si="104"/>
         <v>8.9596712552553024E+16</v>
       </c>
       <c r="H264" s="16">
-        <f t="shared" si="102"/>
-        <v>167915.64826378171</v>
+        <f t="shared" si="108"/>
+        <v>162830.34083683215</v>
       </c>
       <c r="I264" s="16">
         <f t="shared" si="103"/>
@@ -22298,19 +22298,19 @@
         <v>89</v>
       </c>
       <c r="E265" s="12">
+        <f t="shared" si="107"/>
+        <v>10420094.812282493</v>
+      </c>
+      <c r="F265" s="16">
+        <v>5</v>
+      </c>
+      <c r="G265" s="18">
         <f t="shared" si="105"/>
-        <v>10420094.812282493</v>
-      </c>
-      <c r="F265" s="16">
-        <v>5</v>
-      </c>
-      <c r="G265" s="18">
-        <f t="shared" si="104"/>
         <v>9.2021608332254448E+16</v>
       </c>
       <c r="H265" s="16">
-        <f t="shared" si="102"/>
-        <v>169236.08179630261</v>
+        <f t="shared" si="108"/>
+        <v>164105.5810045691</v>
       </c>
       <c r="I265" s="16">
         <f t="shared" si="103"/>
@@ -22370,19 +22370,19 @@
         <v>87</v>
       </c>
       <c r="E266" s="16">
+        <f t="shared" si="107"/>
+        <v>10535408.701704986</v>
+      </c>
+      <c r="F266" s="16">
+        <v>5</v>
+      </c>
+      <c r="G266" s="18">
         <f t="shared" si="105"/>
-        <v>10535408.701704986</v>
-      </c>
-      <c r="F266" s="16">
-        <v>5</v>
-      </c>
-      <c r="G266" s="18">
-        <f t="shared" si="104"/>
         <v>9.4502554846442704E+16</v>
       </c>
       <c r="H266" s="16">
-        <f t="shared" si="102"/>
-        <v>170562.06321841059</v>
+        <f t="shared" si="108"/>
+        <v>165386.1436318183</v>
       </c>
       <c r="I266" s="16">
         <f t="shared" si="103"/>
@@ -22442,19 +22442,19 @@
         <v>88</v>
       </c>
       <c r="E267" s="16">
+        <f t="shared" si="107"/>
+        <v>10651555.495393157</v>
+      </c>
+      <c r="F267" s="16">
+        <v>5</v>
+      </c>
+      <c r="G267" s="18">
         <f t="shared" si="105"/>
-        <v>10651555.495393157</v>
-      </c>
-      <c r="F267" s="16">
-        <v>5</v>
-      </c>
-      <c r="G267" s="18">
-        <f t="shared" si="104"/>
         <v>9.7040627990245024E+16</v>
       </c>
       <c r="H267" s="16">
-        <f t="shared" si="102"/>
-        <v>171893.59560494131</v>
+        <f t="shared" si="108"/>
+        <v>166672.03154721274</v>
       </c>
       <c r="I267" s="16">
         <f t="shared" si="103"/>
@@ -22514,19 +22514,19 @@
         <v>89</v>
       </c>
       <c r="E268" s="16">
+        <f t="shared" si="107"/>
+        <v>10768538.032256991</v>
+      </c>
+      <c r="F268" s="16">
+        <v>5</v>
+      </c>
+      <c r="G268" s="18">
         <f t="shared" si="105"/>
-        <v>10768538.032256991</v>
-      </c>
-      <c r="F268" s="16">
-        <v>5</v>
-      </c>
-      <c r="G268" s="18">
-        <f t="shared" si="104"/>
         <v>9.9636920125565952E+16</v>
       </c>
       <c r="H268" s="16">
-        <f t="shared" si="102"/>
-        <v>173230.68202079894</v>
+        <f t="shared" si="108"/>
+        <v>167963.24757018598</v>
       </c>
       <c r="I268" s="16">
         <f t="shared" si="103"/>
@@ -22586,19 +22586,19 @@
         <v>87</v>
       </c>
       <c r="E269" s="16">
+        <f t="shared" si="107"/>
+        <v>10886359.150135417</v>
+      </c>
+      <c r="F269" s="16">
+        <v>5</v>
+      </c>
+      <c r="G269" s="18">
         <f t="shared" si="105"/>
-        <v>10886359.150135417</v>
-      </c>
-      <c r="F269" s="16">
-        <v>5</v>
-      </c>
-      <c r="G269" s="18">
-        <f t="shared" si="104"/>
         <v>1.0229254026955309E+17</v>
       </c>
       <c r="H269" s="16">
-        <f t="shared" si="102"/>
-        <v>174573.3255210256</v>
+        <f t="shared" si="108"/>
+        <v>169259.79451103587</v>
       </c>
       <c r="I269" s="16">
         <f t="shared" si="103"/>
@@ -22658,19 +22658,19 @@
         <v>88</v>
       </c>
       <c r="E270" s="16">
+        <f t="shared" si="107"/>
+        <v>11005021.685800681</v>
+      </c>
+      <c r="F270" s="16">
+        <v>5</v>
+      </c>
+      <c r="G270" s="18">
         <f t="shared" si="105"/>
-        <v>11005021.685800681</v>
-      </c>
-      <c r="F270" s="16">
-        <v>5</v>
-      </c>
-      <c r="G270" s="18">
-        <f t="shared" si="104"/>
         <v>1.0500861428448675E+17</v>
       </c>
       <c r="H270" s="16">
-        <f t="shared" si="102"/>
-        <v>175921.529150872</v>
+        <f t="shared" si="108"/>
+        <v>170561.67517098895</v>
       </c>
       <c r="I270" s="16">
         <f t="shared" si="103"/>
@@ -22730,19 +22730,19 @@
         <v>89</v>
       </c>
       <c r="E271" s="16">
+        <f t="shared" si="107"/>
+        <v>11124528.474962797</v>
+      </c>
+      <c r="F271" s="16">
+        <v>5</v>
+      </c>
+      <c r="G271" s="18">
         <f t="shared" si="105"/>
-        <v>11124528.474962797</v>
-      </c>
-      <c r="F271" s="16">
-        <v>5</v>
-      </c>
-      <c r="G271" s="18">
-        <f t="shared" si="104"/>
         <v>1.0778628506912E+17</v>
       </c>
       <c r="H271" s="16">
-        <f t="shared" si="102"/>
-        <v>177275.29594586344</v>
+        <f t="shared" si="108"/>
+        <v>171868.89234226459</v>
       </c>
       <c r="I271" s="16">
         <f t="shared" si="103"/>
@@ -22802,19 +22802,19 @@
         <v>87</v>
       </c>
       <c r="E272" s="16">
+        <f t="shared" si="107"/>
+        <v>11244882.352273848</v>
+      </c>
+      <c r="F272" s="16">
+        <v>5</v>
+      </c>
+      <c r="G272" s="18">
         <f t="shared" si="105"/>
-        <v>11244882.352273848</v>
-      </c>
-      <c r="F272" s="16">
-        <v>5</v>
-      </c>
-      <c r="G272" s="18">
-        <f t="shared" si="104"/>
         <v>1.1062671275145728E+17</v>
       </c>
       <c r="H272" s="16">
-        <f t="shared" si="102"/>
-        <v>178634.62893186833</v>
+        <f t="shared" si="108"/>
+        <v>173181.44880813509</v>
       </c>
       <c r="I272" s="16">
         <f t="shared" si="103"/>
@@ -22874,19 +22874,19 @@
         <v>88</v>
       </c>
       <c r="E273" s="16">
+        <f t="shared" si="107"/>
+        <v>11366086.151332274</v>
+      </c>
+      <c r="F273" s="16">
+        <v>5</v>
+      </c>
+      <c r="G273" s="18">
         <f t="shared" si="105"/>
-        <v>11366086.151332274</v>
-      </c>
-      <c r="F273" s="16">
-        <v>5</v>
-      </c>
-      <c r="G273" s="18">
-        <f t="shared" si="104"/>
         <v>1.1353107488298509E+17</v>
       </c>
       <c r="H273" s="16">
-        <f t="shared" si="102"/>
-        <v>179999.53112516252</v>
+        <f t="shared" si="108"/>
+        <v>174499.34734298938</v>
       </c>
       <c r="I273" s="16">
         <f t="shared" si="103"/>
@@ -22946,19 +22946,19 @@
         <v>89</v>
       </c>
       <c r="E274" s="16">
+        <f t="shared" si="107"/>
+        <v>11488142.704687346</v>
+      </c>
+      <c r="F274" s="16">
+        <v>5</v>
+      </c>
+      <c r="G274" s="18">
         <f t="shared" si="105"/>
-        <v>11488142.704687346</v>
-      </c>
-      <c r="F274" s="16">
-        <v>5</v>
-      </c>
-      <c r="G274" s="18">
-        <f t="shared" si="104"/>
         <v>1.1650056663436638E+17</v>
       </c>
       <c r="H274" s="16">
-        <f t="shared" si="102"/>
-        <v>181370.00553249783</v>
+        <f t="shared" si="108"/>
+        <v>175822.5907123932</v>
       </c>
       <c r="I274" s="16">
         <f t="shared" si="103"/>
@@ -23018,19 +23018,19 @@
         <v>87</v>
       </c>
       <c r="E275" s="16">
+        <f t="shared" si="107"/>
+        <v>11611054.843843212</v>
+      </c>
+      <c r="F275" s="16">
+        <v>5</v>
+      </c>
+      <c r="G275" s="18">
         <f t="shared" si="105"/>
-        <v>11611054.843843212</v>
-      </c>
-      <c r="F275" s="16">
-        <v>5</v>
-      </c>
-      <c r="G275" s="18">
-        <f t="shared" si="104"/>
         <v>1.1953640099258648E+17</v>
       </c>
       <c r="H275" s="16">
-        <f t="shared" si="102"/>
-        <v>182746.05515116514</v>
+        <f t="shared" si="108"/>
+        <v>177151.18167314981</v>
       </c>
       <c r="I275" s="16">
         <f t="shared" si="103"/>
@@ -23090,19 +23090,19 @@
         <v>88</v>
       </c>
       <c r="E276" s="16">
+        <f t="shared" si="107"/>
+        <v>11734825.399263229</v>
+      </c>
+      <c r="F276" s="16">
+        <v>5</v>
+      </c>
+      <c r="G276" s="18">
         <f t="shared" si="105"/>
-        <v>11734825.399263229</v>
-      </c>
-      <c r="F276" s="16">
-        <v>5</v>
-      </c>
-      <c r="G276" s="18">
-        <f t="shared" si="104"/>
         <v>1.2263980895957462E+17</v>
       </c>
       <c r="H276" s="16">
-        <f t="shared" si="102"/>
-        <v>184127.68296906006</v>
+        <f t="shared" si="108"/>
+        <v>178485.12297335968</v>
       </c>
       <c r="I276" s="16">
         <f t="shared" si="103"/>
@@ -23162,22 +23162,22 @@
         <v>89</v>
       </c>
       <c r="E277" s="12">
+        <f t="shared" si="107"/>
+        <v>11859457.200374141</v>
+      </c>
+      <c r="F277" s="16">
+        <v>5</v>
+      </c>
+      <c r="G277" s="18">
         <f t="shared" si="105"/>
-        <v>11859457.200374141</v>
-      </c>
-      <c r="F277" s="16">
-        <v>5</v>
-      </c>
-      <c r="G277" s="18">
-        <f t="shared" si="104"/>
         <v>1.2581203975229741E+17</v>
       </c>
       <c r="H277" s="16">
-        <f t="shared" ref="H277:H302" si="106">A277^2.146+50+50*A277</f>
-        <v>185514.89196474513</v>
+        <f t="shared" si="108"/>
+        <v>179824.41735248058</v>
       </c>
       <c r="I277" s="16">
-        <f t="shared" ref="I277:I302" si="107">A277^6.018+A277^4+1000*A277+100</f>
+        <f t="shared" ref="I277:I302" si="109">A277^6.018+A277^4+1000*A277+100</f>
         <v>478530190022234.25</v>
       </c>
       <c r="J277" s="16">
@@ -23234,22 +23234,22 @@
         <v>87</v>
       </c>
       <c r="E278" s="12">
+        <f t="shared" si="107"/>
+        <v>11984953.07557027</v>
+      </c>
+      <c r="F278" s="16">
+        <v>5</v>
+      </c>
+      <c r="G278" s="18">
         <f t="shared" si="105"/>
-        <v>11984953.07557027</v>
-      </c>
-      <c r="F278" s="16">
-        <v>5</v>
-      </c>
-      <c r="G278" s="18">
-        <f t="shared" si="104"/>
         <v>1.290543610043259E+17</v>
       </c>
       <c r="H278" s="16">
-        <f t="shared" si="106"/>
-        <v>186907.68510751368</v>
+        <f t="shared" si="108"/>
+        <v>181169.06754138385</v>
       </c>
       <c r="I278" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>489098137167234.94</v>
       </c>
       <c r="J278" s="16">
@@ -23306,22 +23306,22 @@
         <v>88</v>
       </c>
       <c r="E279" s="16">
+        <f t="shared" si="107"/>
+        <v>12111315.852217589</v>
+      </c>
+      <c r="F279" s="16">
+        <v>5</v>
+      </c>
+      <c r="G279" s="18">
         <f t="shared" si="105"/>
-        <v>12111315.852217589</v>
-      </c>
-      <c r="F279" s="16">
-        <v>5</v>
-      </c>
-      <c r="G279" s="18">
-        <f t="shared" si="104"/>
         <v>1.3236805896889515E+17</v>
       </c>
       <c r="H279" s="16">
-        <f t="shared" si="106"/>
-        <v>188306.06535745368</v>
+        <f t="shared" si="108"/>
+        <v>182519.07626241609</v>
       </c>
       <c r="I279" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>499859977852675.06</v>
       </c>
       <c r="J279" s="16">
@@ -23378,22 +23378,22 @@
         <v>89</v>
       </c>
       <c r="E280" s="16">
+        <f t="shared" si="107"/>
+        <v>12238548.356657792</v>
+      </c>
+      <c r="F280" s="16">
+        <v>5</v>
+      </c>
+      <c r="G280" s="18">
         <f t="shared" si="105"/>
-        <v>12238548.356657792</v>
-      </c>
-      <c r="F280" s="16">
-        <v>5</v>
-      </c>
-      <c r="G280" s="18">
-        <f t="shared" si="104"/>
         <v>1.357544387234463E+17</v>
       </c>
       <c r="H280" s="16">
-        <f t="shared" si="106"/>
-        <v>189710.03566550647</v>
+        <f t="shared" si="108"/>
+        <v>183874.44622945218</v>
       </c>
       <c r="I280" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>510818550219968.25</v>
       </c>
       <c r="J280" s="16">
@@ -23450,22 +23450,22 @@
         <v>87</v>
       </c>
       <c r="E281" s="16">
+        <f t="shared" si="107"/>
+        <v>12366653.414212499</v>
+      </c>
+      <c r="F281" s="16">
+        <v>5</v>
+      </c>
+      <c r="G281" s="18">
         <f t="shared" si="105"/>
-        <v>12366653.414212499</v>
-      </c>
-      <c r="F281" s="16">
-        <v>5</v>
-      </c>
-      <c r="G281" s="18">
-        <f t="shared" si="104"/>
         <v>1.3921482437566506E+17</v>
       </c>
       <c r="H281" s="16">
-        <f t="shared" si="106"/>
-        <v>191119.59897353032</v>
+        <f t="shared" si="108"/>
+        <v>185235.18014795598</v>
       </c>
       <c r="I281" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>521976723501812.69</v>
       </c>
       <c r="J281" s="16">
@@ -23522,22 +23522,22 @@
         <v>88</v>
       </c>
       <c r="E282" s="16">
+        <f t="shared" si="107"/>
+        <v>12495633.849187199</v>
+      </c>
+      <c r="F282" s="16">
+        <v>5</v>
+      </c>
+      <c r="G282" s="18">
         <f t="shared" si="105"/>
-        <v>12495633.849187199</v>
-      </c>
-      <c r="F282" s="16">
-        <v>5</v>
-      </c>
-      <c r="G282" s="18">
-        <f t="shared" si="104"/>
         <v>1.4275055927102469E+17</v>
       </c>
       <c r="H282" s="16">
-        <f t="shared" si="106"/>
-        <v>192534.75821435996</v>
+        <f t="shared" si="108"/>
+        <v>186601.28071503324</v>
       </c>
       <c r="I282" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>533337398249084.44</v>
       </c>
       <c r="J282" s="16">
@@ -23594,22 +23594,22 @@
         <v>89</v>
       </c>
       <c r="E283" s="16">
+        <f t="shared" si="107"/>
+        <v>12625492.484875167</v>
+      </c>
+      <c r="F283" s="16">
+        <v>5</v>
+      </c>
+      <c r="G283" s="18">
         <f t="shared" si="105"/>
-        <v>12625492.484875167</v>
-      </c>
-      <c r="F283" s="16">
-        <v>5</v>
-      </c>
-      <c r="G283" s="18">
-        <f t="shared" si="104"/>
         <v>1.4636300620182886E+17</v>
       </c>
       <c r="H283" s="16">
-        <f t="shared" si="106"/>
-        <v>193955.51631186623</v>
+        <f t="shared" si="108"/>
+        <v>187972.75061949051</v>
       </c>
       <c r="I283" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>544903506558619.5</v>
       </c>
       <c r="J283" s="16">
@@ -23666,22 +23666,22 @@
         <v>87</v>
       </c>
       <c r="E284" s="16">
+        <f t="shared" si="107"/>
+        <v>12756232.143561665</v>
+      </c>
+      <c r="F284" s="16">
+        <v>5</v>
+      </c>
+      <c r="G284" s="18">
         <f t="shared" si="105"/>
-        <v>12756232.143561665</v>
-      </c>
-      <c r="F284" s="16">
-        <v>5</v>
-      </c>
-      <c r="G284" s="18">
-        <f t="shared" si="104"/>
         <v>1.5005354761777376E+17</v>
       </c>
       <c r="H284" s="16">
-        <f t="shared" si="106"/>
-        <v>195381.87618101633</v>
+        <f t="shared" si="108"/>
+        <v>189349.59254188731</v>
       </c>
       <c r="I284" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>556678012301766.44</v>
       </c>
       <c r="J284" s="16">
@@ -23738,22 +23738,22 @@
         <v>88</v>
       </c>
       <c r="E285" s="16">
+        <f t="shared" si="107"/>
+        <v>12887855.646527616</v>
+      </c>
+      <c r="F285" s="16">
+        <v>5</v>
+      </c>
+      <c r="G285" s="18">
         <f t="shared" si="105"/>
-        <v>12887855.646527616</v>
-      </c>
-      <c r="F285" s="16">
-        <v>5</v>
-      </c>
-      <c r="G285" s="18">
-        <f t="shared" si="104"/>
         <v>1.538235858380169E+17</v>
       </c>
       <c r="H285" s="16">
-        <f t="shared" si="106"/>
-        <v>196813.84072793086</v>
+        <f t="shared" si="108"/>
+        <v>190731.8091545917</v>
       </c>
       <c r="I285" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>568663911353831.63</v>
       </c>
       <c r="J285" s="16">
@@ -23810,22 +23810,22 @@
         <v>89</v>
       </c>
       <c r="E286" s="16">
+        <f t="shared" si="107"/>
+        <v>13020365.814053755</v>
+      </c>
+      <c r="F286" s="16">
+        <v>5</v>
+      </c>
+      <c r="G286" s="18">
         <f t="shared" si="105"/>
-        <v>13020365.814053755</v>
-      </c>
-      <c r="F286" s="16">
-        <v>5</v>
-      </c>
-      <c r="G286" s="18">
-        <f t="shared" si="104"/>
         <v>1.5767454326477878E+17</v>
       </c>
       <c r="H286" s="16">
-        <f t="shared" si="106"/>
-        <v>198251.41284994417</v>
+        <f t="shared" si="108"/>
+        <v>192119.40312183465</v>
       </c>
       <c r="I286" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>580864231824321.63</v>
       </c>
       <c r="J286" s="16">
@@ -23882,22 +23882,22 @@
         <v>87</v>
       </c>
       <c r="E287" s="16">
+        <f t="shared" si="107"/>
+        <v>13153765.465424472</v>
+      </c>
+      <c r="F287" s="16">
+        <v>5</v>
+      </c>
+      <c r="G287" s="18">
         <f t="shared" si="105"/>
-        <v>13153765.465424472</v>
-      </c>
-      <c r="F287" s="16">
-        <v>5</v>
-      </c>
-      <c r="G287" s="18">
-        <f t="shared" si="104"/>
         <v>1.6160786259846509E+17</v>
       </c>
       <c r="H287" s="16">
-        <f t="shared" si="106"/>
-        <v>199694.59543565934</v>
+        <f t="shared" si="108"/>
+        <v>193512.37709976366</v>
       </c>
       <c r="I287" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>593282034288033.63</v>
       </c>
       <c r="J287" s="16">
@@ -23954,22 +23954,22 @@
         <v>88</v>
       </c>
       <c r="E288" s="16">
+        <f t="shared" si="107"/>
+        <v>13288057.418931467</v>
+      </c>
+      <c r="F288" s="16">
+        <v>5</v>
+      </c>
+      <c r="G288" s="18">
         <f t="shared" si="105"/>
-        <v>13288057.418931467</v>
-      </c>
-      <c r="F288" s="16">
-        <v>5</v>
-      </c>
-      <c r="G288" s="18">
-        <f t="shared" si="104"/>
         <v>1.6562500705432522E+17</v>
       </c>
       <c r="H288" s="16">
-        <f t="shared" si="106"/>
-        <v>201143.39136500671</v>
+        <f t="shared" si="108"/>
+        <v>194910.73373649444</v>
       </c>
       <c r="I288" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>605920412016945.63</v>
       </c>
       <c r="J288" s="16">
@@ -24026,22 +24026,22 @@
         <v>89</v>
       </c>
       <c r="E289" s="16">
+        <f t="shared" si="107"/>
+        <v>13423244.491877869</v>
+      </c>
+      <c r="F289" s="16">
+        <v>5</v>
+      </c>
+      <c r="G289" s="18">
         <f t="shared" si="105"/>
-        <v>13423244.491877869</v>
-      </c>
-      <c r="F289" s="16">
-        <v>5</v>
-      </c>
-      <c r="G289" s="18">
-        <f t="shared" si="104"/>
         <v>1.6972746058065366E+17</v>
       </c>
       <c r="H289" s="16">
-        <f t="shared" si="106"/>
-        <v>202597.80350930063</v>
+        <f t="shared" si="108"/>
+        <v>196314.47567216403</v>
       </c>
       <c r="I289" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>618782491213017.38</v>
       </c>
       <c r="J289" s="16">
@@ -24098,22 +24098,22 @@
         <v>87</v>
       </c>
       <c r="E290" s="12">
+        <f t="shared" si="107"/>
+        <v>13559329.500581868</v>
+      </c>
+      <c r="F290" s="16">
+        <v>5</v>
+      </c>
+      <c r="G290" s="18">
         <f t="shared" si="105"/>
-        <v>13559329.500581868</v>
-      </c>
-      <c r="F290" s="16">
-        <v>5</v>
-      </c>
-      <c r="G290" s="18">
-        <f t="shared" si="104"/>
         <v>1.739167280785209E+17</v>
       </c>
       <c r="H290" s="16">
-        <f t="shared" si="106"/>
-        <v>204057.83473129259</v>
+        <f t="shared" si="108"/>
+        <v>197723.60553898197</v>
       </c>
       <c r="I290" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>631871431241717.38</v>
       </c>
       <c r="J290" s="16">
@@ -24170,22 +24170,22 @@
         <v>88</v>
       </c>
       <c r="E291" s="12">
+        <f t="shared" si="107"/>
+        <v>13696315.26038049</v>
+      </c>
+      <c r="F291" s="16">
+        <v>5</v>
+      </c>
+      <c r="G291" s="18">
         <f t="shared" si="105"/>
-        <v>13696315.26038049</v>
-      </c>
-      <c r="F291" s="16">
-        <v>5</v>
-      </c>
-      <c r="G291" s="18">
-        <f t="shared" si="104"/>
         <v>1.781943356230745E+17</v>
       </c>
       <c r="H291" s="16">
-        <f t="shared" si="106"/>
-        <v>205523.48788522993</v>
+        <f t="shared" si="108"/>
+        <v>199138.12596128331</v>
       </c>
       <c r="I291" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>645190424866466.75</v>
       </c>
       <c r="J291" s="16">
@@ -24242,22 +24242,22 @@
         <v>89</v>
       </c>
       <c r="E292" s="16">
+        <f t="shared" si="107"/>
+        <v>13834204.585633369</v>
+      </c>
+      <c r="F292" s="16">
+        <v>5</v>
+      </c>
+      <c r="G292" s="18">
         <f t="shared" si="105"/>
-        <v>13834204.585633369</v>
-      </c>
-      <c r="F292" s="16">
-        <v>5</v>
-      </c>
-      <c r="G292" s="18">
-        <f t="shared" si="104"/>
         <v>1.8256183068638173E+17</v>
       </c>
       <c r="H292" s="16">
-        <f t="shared" si="106"/>
-        <v>206994.76581690795</v>
+        <f t="shared" si="108"/>
+        <v>200558.03955557675</v>
       </c>
       <c r="I292" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>658742698483894.25</v>
       </c>
       <c r="J292" s="16">
@@ -24314,22 +24314,22 @@
         <v>87</v>
       </c>
       <c r="E293" s="16">
+        <f t="shared" si="107"/>
+        <v>13973000.289726567</v>
+      </c>
+      <c r="F293" s="16">
+        <v>5</v>
+      </c>
+      <c r="G293" s="18">
         <f t="shared" si="105"/>
-        <v>13973000.289726567</v>
-      </c>
-      <c r="F293" s="16">
-        <v>5</v>
-      </c>
-      <c r="G293" s="18">
-        <f t="shared" si="104"/>
         <v>1.8702078236183773E+17</v>
       </c>
       <c r="H293" s="16">
-        <f t="shared" si="106"/>
-        <v>208471.67136372547</v>
+        <f t="shared" si="108"/>
+        <v>201983.34893059797</v>
       </c>
       <c r="I293" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>672531512359894.5</v>
       </c>
       <c r="J293" s="16">
@@ -24386,22 +24386,22 @@
         <v>88</v>
       </c>
       <c r="E294" s="16">
+        <f t="shared" si="107"/>
+        <v>14112705.185076088</v>
+      </c>
+      <c r="F294" s="16">
+        <v>5</v>
+      </c>
+      <c r="G294" s="18">
         <f t="shared" si="105"/>
-        <v>14112705.185076088</v>
-      </c>
-      <c r="F294" s="16">
-        <v>5</v>
-      </c>
-      <c r="G294" s="18">
-        <f t="shared" si="104"/>
         <v>1.9157278159013386E+17</v>
       </c>
       <c r="H294" s="16">
-        <f t="shared" si="106"/>
-        <v>209954.20735473747</v>
+        <f t="shared" si="108"/>
+        <v>203414.05668735577</v>
       </c>
       <c r="I294" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>686560160866565.38</v>
       </c>
       <c r="J294" s="16">
@@ -24458,22 +24458,22 @@
         <v>89</v>
       </c>
       <c r="E295" s="16">
+        <f t="shared" si="107"/>
+        <v>14253322.083131695</v>
+      </c>
+      <c r="F295" s="16">
+        <v>5</v>
+      </c>
+      <c r="G295" s="18">
         <f t="shared" si="105"/>
-        <v>14253322.083131695</v>
-      </c>
-      <c r="F295" s="16">
-        <v>5</v>
-      </c>
-      <c r="G295" s="18">
-        <f t="shared" si="104"/>
         <v>1.962194413868081E+17</v>
       </c>
       <c r="H295" s="16">
-        <f t="shared" si="106"/>
-        <v>211442.3766107088</v>
+        <f t="shared" si="108"/>
+        <v>204850.16541918565</v>
       </c>
       <c r="I295" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>700831972719937.38</v>
       </c>
       <c r="J295" s="16">
@@ -24530,22 +24530,22 @@
         <v>87</v>
       </c>
       <c r="E296" s="16">
+        <f t="shared" si="107"/>
+        <v>14394853.79438041</v>
+      </c>
+      <c r="F296" s="16">
+        <v>5</v>
+      </c>
+      <c r="G296" s="18">
         <f t="shared" si="105"/>
-        <v>14394853.79438041</v>
-      </c>
-      <c r="F296" s="16">
-        <v>5</v>
-      </c>
-      <c r="G296" s="18">
-        <f t="shared" si="104"/>
         <v>2.0096239707136499E+17</v>
       </c>
       <c r="H296" s="16">
-        <f t="shared" si="106"/>
-        <v>212936.18194416599</v>
+        <f t="shared" si="108"/>
+        <v>206291.67771179436</v>
       </c>
       <c r="I296" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>715350311218560.88</v>
       </c>
       <c r="J296" s="16">
@@ -24602,22 +24602,22 @@
         <v>88</v>
       </c>
       <c r="E297" s="16">
+        <f t="shared" si="107"/>
+        <v>14537303.128350295</v>
+      </c>
+      <c r="F297" s="16">
+        <v>5</v>
+      </c>
+      <c r="G297" s="18">
         <f t="shared" si="105"/>
-        <v>14537303.128350295</v>
-      </c>
-      <c r="F297" s="16">
-        <v>5</v>
-      </c>
-      <c r="G297" s="18">
-        <f t="shared" si="104"/>
         <v>2.0580330649798365E+17</v>
       </c>
       <c r="H297" s="16">
-        <f t="shared" si="106"/>
-        <v>214435.62615945103</v>
+        <f t="shared" si="108"/>
+        <v>207738.59614331252</v>
       </c>
       <c r="I297" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>730118574482937.13</v>
       </c>
       <c r="J297" s="16">
@@ -24674,22 +24674,22 @@
         <v>89</v>
       </c>
       <c r="E298" s="16">
+        <f t="shared" si="107"/>
+        <v>14680672.893613806</v>
+      </c>
+      <c r="F298" s="16">
+        <v>5</v>
+      </c>
+      <c r="G298" s="18">
         <f t="shared" si="105"/>
-        <v>14680672.893613806</v>
-      </c>
-      <c r="F298" s="16">
-        <v>5</v>
-      </c>
-      <c r="G298" s="18">
-        <f t="shared" si="104"/>
         <v>2.1074385028779939E+17</v>
       </c>
       <c r="H298" s="16">
-        <f t="shared" si="106"/>
-        <v>215940.71205277002</v>
+        <f t="shared" si="108"/>
+        <v>209190.92328433724</v>
       </c>
       <c r="I298" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>745140195695720.25</v>
       </c>
       <c r="J298" s="16">
@@ -24746,22 +24746,22 @@
         <v>87</v>
       </c>
       <c r="E299" s="16">
+        <f t="shared" si="107"/>
+        <v>14824965.897791749</v>
+      </c>
+      <c r="F299" s="16">
+        <v>5</v>
+      </c>
+      <c r="G299" s="18">
         <f t="shared" si="105"/>
-        <v>14824965.897791749</v>
-      </c>
-      <c r="F299" s="16">
-        <v>5</v>
-      </c>
-      <c r="G299" s="18">
-        <f t="shared" si="104"/>
         <v>2.1578573206280746E+17</v>
       </c>
       <c r="H299" s="16">
-        <f t="shared" si="106"/>
-        <v>217451.44241224852</v>
+        <f t="shared" si="108"/>
+        <v>210648.66169798537</v>
       </c>
       <c r="I299" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>760418643342857</v>
       </c>
       <c r="J299" s="16">
@@ -24818,22 +24818,22 @@
         <v>88</v>
       </c>
       <c r="E300" s="16">
+        <f t="shared" si="107"/>
+        <v>14970184.94755628</v>
+      </c>
+      <c r="F300" s="16">
+        <v>5</v>
+      </c>
+      <c r="G300" s="18">
         <f t="shared" si="105"/>
-        <v>14970184.94755628</v>
-      </c>
-      <c r="F300" s="16">
-        <v>5</v>
-      </c>
-      <c r="G300" s="18">
-        <f t="shared" si="104"/>
         <v>2.2093067868132947E+17</v>
       </c>
       <c r="H300" s="16">
-        <f t="shared" si="106"/>
-        <v>218967.82001797677</v>
+        <f t="shared" si="108"/>
+        <v>212111.8139399364</v>
       </c>
       <c r="I300" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>775957421455451.63</v>
       </c>
       <c r="J300" s="16">
@@ -24890,22 +24890,22 @@
         <v>89</v>
       </c>
       <c r="E301" s="16">
+        <f t="shared" si="107"/>
+        <v>15116332.848634899</v>
+      </c>
+      <c r="F301" s="16">
+        <v>5</v>
+      </c>
+      <c r="G301" s="18">
         <f t="shared" si="105"/>
-        <v>15116332.848634899</v>
-      </c>
-      <c r="F301" s="16">
-        <v>5</v>
-      </c>
-      <c r="G301" s="18">
-        <f t="shared" si="104"/>
         <v>2.2618044047511773E+17</v>
       </c>
       <c r="H301" s="16">
-        <f t="shared" si="106"/>
-        <v>220489.84764206412</v>
+        <f t="shared" si="108"/>
+        <v>213580.38255848034</v>
       </c>
       <c r="I301" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>791760069852539.5</v>
       </c>
       <c r="J301" s="16">
@@ -24962,22 +24962,22 @@
         <v>89</v>
       </c>
       <c r="E302" s="16">
+        <f t="shared" si="107"/>
+        <v>15263412.405813666</v>
+      </c>
+      <c r="F302" s="16">
+        <v>5</v>
+      </c>
+      <c r="G302" s="18">
         <f t="shared" si="105"/>
-        <v>15263412.405813666</v>
-      </c>
-      <c r="F302" s="16">
-        <v>5</v>
-      </c>
-      <c r="G302" s="18">
-        <f t="shared" si="104"/>
         <v>2.3153679148804726E+17</v>
       </c>
       <c r="H302" s="16">
-        <f t="shared" si="106"/>
-        <v>222017.52804868593</v>
+        <f t="shared" si="108"/>
+        <v>215054.37009456303</v>
       </c>
       <c r="I302" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>807830164384644.25</v>
       </c>
       <c r="J302" s="16">

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0AC6E1-2A4D-4BE3-BAFB-C8D1C7625F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1C2964-745B-43E7-B2B5-2E85086EC456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="96">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,6 +603,27 @@
   </si>
   <si>
     <t>14-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-1</t>
+  </si>
+  <si>
+    <t>15-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-2</t>
+  </si>
+  <si>
+    <t>15-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-3</t>
+  </si>
+  <si>
+    <t>15-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,8 +1223,8 @@
   <dimension ref="A1:Y302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G290" sqref="G290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18479,7 +18500,7 @@
         <v>56</v>
       </c>
       <c r="C212" s="17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E212" s="12">
         <f t="shared" si="62"/>
@@ -18489,8 +18510,8 @@
         <v>5</v>
       </c>
       <c r="G212" s="18">
-        <f>A212^7.01+A212^4+100*A212+100</f>
-        <v>1.9000161854298256E+16</v>
+        <f>A212^7.02+A212^4+100*A212+100</f>
+        <v>2.0043773717699348E+16</v>
       </c>
       <c r="H212" s="16">
         <f>A212^2.145+50+50*A212</f>
@@ -18551,7 +18572,7 @@
         <v>56</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E213" s="12">
         <f t="shared" si="62"/>
@@ -18561,11 +18582,11 @@
         <v>5</v>
       </c>
       <c r="G213" s="18">
-        <f t="shared" ref="G213:G240" si="101">A213^7.01+A213^4+100*A213+100</f>
-        <v>1.9643553565411292E+16</v>
+        <f t="shared" ref="G213:G241" si="101">A213^7.02+A213^4+100*A213+100</f>
+        <v>2.072348913453392E+16</v>
       </c>
       <c r="H213" s="16">
-        <f t="shared" ref="H213:H276" si="102">A213^2.145+50+50*A213</f>
+        <f t="shared" ref="H213:H225" si="102">A213^2.145+50+50*A213</f>
         <v>107335.49685096147</v>
       </c>
       <c r="I213" s="16">
@@ -18623,7 +18644,7 @@
         <v>56</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E214" s="16">
         <f t="shared" si="62"/>
@@ -18634,7 +18655,7 @@
       </c>
       <c r="G214" s="18">
         <f t="shared" si="101"/>
-        <v>2.0305534614973924E+16</v>
+        <v>2.1422876525526812E+16</v>
       </c>
       <c r="H214" s="16">
         <f t="shared" si="102"/>
@@ -18695,7 +18716,7 @@
         <v>56</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E215" s="16">
         <f t="shared" si="62"/>
@@ -18706,7 +18727,7 @@
       </c>
       <c r="G215" s="18">
         <f t="shared" si="101"/>
-        <v>2.098655059711474E+16</v>
+        <v>2.214240838843668E+16</v>
       </c>
       <c r="H215" s="16">
         <f t="shared" si="102"/>
@@ -18767,7 +18788,7 @@
         <v>56</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E216" s="16">
         <f t="shared" si="62"/>
@@ -18778,7 +18799,7 @@
       </c>
       <c r="G216" s="18">
         <f t="shared" si="101"/>
-        <v>2.1687055614505988E+16</v>
+        <v>2.2882566265999832E+16</v>
       </c>
       <c r="H216" s="16">
         <f t="shared" si="102"/>
@@ -18839,7 +18860,7 @@
         <v>56</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E217" s="16">
         <f t="shared" si="62"/>
@@ -18850,7 +18871,7 @@
       </c>
       <c r="G217" s="18">
         <f t="shared" si="101"/>
-        <v>2.240751239974224E+16</v>
+        <v>2.3643840875391588E+16</v>
       </c>
       <c r="H217" s="16">
         <f t="shared" si="102"/>
@@ -18911,7 +18932,7 @@
         <v>56</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E218" s="16">
         <f t="shared" si="62"/>
@@ -18922,7 +18943,7 @@
       </c>
       <c r="G218" s="18">
         <f t="shared" si="101"/>
-        <v>2.3148392437867488E+16</v>
+        <v>2.4426732238920888E+16</v>
       </c>
       <c r="H218" s="16">
         <f t="shared" si="102"/>
@@ -18983,7 +19004,7 @@
         <v>56</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E219" s="16">
         <f t="shared" si="62"/>
@@ -18994,7 +19015,7 @@
       </c>
       <c r="G219" s="18">
         <f t="shared" si="101"/>
-        <v>2.391017609005838E+16</v>
+        <v>2.5231749815964316E+16</v>
       </c>
       <c r="H219" s="16">
         <f t="shared" si="102"/>
@@ -19055,7 +19076,7 @@
         <v>56</v>
       </c>
       <c r="C220" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E220" s="16">
         <f t="shared" si="62"/>
@@ -19066,7 +19087,7 @@
       </c>
       <c r="G220" s="18">
         <f t="shared" si="101"/>
-        <v>2.4693352718471884E+16</v>
+        <v>2.605941263614558E+16</v>
       </c>
       <c r="H220" s="16">
         <f t="shared" si="102"/>
@@ -19127,7 +19148,7 @@
         <v>56</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E221" s="16">
         <f t="shared" si="62"/>
@@ -19138,7 +19159,7 @@
       </c>
       <c r="G221" s="18">
         <f t="shared" si="101"/>
-        <v>2.5498420812257144E+16</v>
+        <v>2.6910249433767724E+16</v>
       </c>
       <c r="H221" s="16">
         <f t="shared" si="102"/>
@@ -19199,7 +19220,7 @@
         <v>56</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E222" s="16">
         <f t="shared" si="62"/>
@@ -19210,7 +19231,7 @@
       </c>
       <c r="G222" s="18">
         <f t="shared" si="101"/>
-        <v>2.632588811474114E+16</v>
+        <v>2.7784798783499616E+16</v>
       </c>
       <c r="H222" s="16">
         <f t="shared" si="102"/>
@@ -19271,7 +19292,7 @@
         <v>56</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E223" s="16">
         <f t="shared" si="62"/>
@@ -19282,7 +19303,7 @@
       </c>
       <c r="G223" s="18">
         <f t="shared" si="101"/>
-        <v>2.7176271751792404E+16</v>
+        <v>2.8683609237327612E+16</v>
       </c>
       <c r="H223" s="16">
         <f t="shared" si="102"/>
@@ -19343,7 +19364,7 @@
         <v>56</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E224" s="16">
         <f t="shared" si="62"/>
@@ -19354,7 +19375,7 @@
       </c>
       <c r="G224" s="18">
         <f t="shared" si="101"/>
-        <v>2.80500983613692E+16</v>
+        <v>2.9607239462777796E+16</v>
       </c>
       <c r="H224" s="16">
         <f t="shared" si="102"/>
@@ -19415,7 +19436,7 @@
         <v>56</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E225" s="12">
         <f t="shared" si="62"/>
@@ -19426,7 +19447,7 @@
       </c>
       <c r="G225" s="18">
         <f t="shared" si="101"/>
-        <v>2.8947904224254508E+16</v>
+        <v>3.055625838240786E+16</v>
       </c>
       <c r="H225" s="16">
         <f t="shared" si="102"/>
@@ -19487,7 +19508,7 @@
         <v>56</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E226" s="12">
         <f t="shared" si="62"/>
@@ -19498,7 +19519,7 @@
       </c>
       <c r="G226" s="18">
         <f t="shared" si="101"/>
-        <v>2.9870235395987588E+16</v>
+        <v>3.1531245314586332E+16</v>
       </c>
       <c r="H226" s="16">
         <f>A226^2.1432+50+50*A226</f>
@@ -19559,7 +19580,7 @@
         <v>56</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E227" s="16">
         <f t="shared" si="62"/>
@@ -19569,11 +19590,11 @@
         <v>5</v>
       </c>
       <c r="G227" s="18">
-        <f t="shared" si="101"/>
-        <v>3.081764783999416E+16</v>
+        <f>A227^7.03+A227^4+100*A227+100</f>
+        <v>3.4343387867967068E+16</v>
       </c>
       <c r="H227" s="16">
-        <f t="shared" ref="H227:H290" si="104">A227^2.1432+50+50*A227</f>
+        <f t="shared" ref="H227:H241" si="104">A227^2.1432+50+50*A227</f>
         <v>121250.59219467046</v>
       </c>
       <c r="I227" s="16">
@@ -19631,7 +19652,7 @@
         <v>56</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E228" s="16">
         <f t="shared" si="62"/>
@@ -19641,8 +19662,8 @@
         <v>5</v>
       </c>
       <c r="G228" s="18">
-        <f t="shared" si="101"/>
-        <v>3.1790707561923456E+16</v>
+        <f t="shared" ref="G228:G241" si="105">A228^7.03+A228^4+100*A228+100</f>
+        <v>3.5430914273244608E+16</v>
       </c>
       <c r="H228" s="16">
         <f t="shared" si="104"/>
@@ -19703,7 +19724,7 @@
         <v>56</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E229" s="16">
         <f t="shared" si="62"/>
@@ -19713,8 +19734,8 @@
         <v>5</v>
       </c>
       <c r="G229" s="18">
-        <f t="shared" si="101"/>
-        <v>3.2789990745193528E+16</v>
+        <f t="shared" si="105"/>
+        <v>3.6547847796128464E+16</v>
       </c>
       <c r="H229" s="16">
         <f t="shared" si="104"/>
@@ -19775,7 +19796,7 @@
         <v>56</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E230" s="16">
         <f t="shared" si="62"/>
@@ -19785,8 +19806,8 @@
         <v>5</v>
       </c>
       <c r="G230" s="18">
-        <f t="shared" si="101"/>
-        <v>3.3816083887755656E+16</v>
+        <f t="shared" si="105"/>
+        <v>3.7694848793059904E+16</v>
       </c>
       <c r="H230" s="16">
         <f t="shared" si="104"/>
@@ -19847,7 +19868,7 @@
         <v>56</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E231" s="16">
         <f t="shared" si="62"/>
@@ -19857,8 +19878,8 @@
         <v>5</v>
       </c>
       <c r="G231" s="18">
-        <f t="shared" si="101"/>
-        <v>3.4869583940079652E+16</v>
+        <f t="shared" si="105"/>
+        <v>3.8872589448517392E+16</v>
       </c>
       <c r="H231" s="16">
         <f t="shared" si="104"/>
@@ -19919,7 +19940,7 @@
         <v>56</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E232" s="16">
         <f t="shared" si="62"/>
@@ -19929,8 +19950,8 @@
         <v>5</v>
       </c>
       <c r="G232" s="18">
-        <f t="shared" si="101"/>
-        <v>3.595109844436402E+16</v>
+        <f t="shared" si="105"/>
+        <v>4.0081753933600784E+16</v>
       </c>
       <c r="H232" s="16">
         <f t="shared" si="104"/>
@@ -19991,7 +20012,7 @@
         <v>56</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E233" s="16">
         <f t="shared" si="62"/>
@@ -20001,8 +20022,8 @@
         <v>5</v>
       </c>
       <c r="G233" s="18">
-        <f t="shared" si="101"/>
-        <v>3.7061245674983104E+16</v>
+        <f t="shared" si="105"/>
+        <v>4.1323038566036272E+16</v>
       </c>
       <c r="H233" s="16">
         <f t="shared" si="104"/>
@@ -20063,7 +20084,7 @@
         <v>56</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E234" s="16">
         <f t="shared" si="62"/>
@@ -20073,8 +20094,8 @@
         <v>5</v>
       </c>
       <c r="G234" s="18">
-        <f t="shared" si="101"/>
-        <v>3.8200654780169392E+16</v>
+        <f t="shared" si="105"/>
+        <v>4.2597151971606272E+16</v>
       </c>
       <c r="H234" s="16">
         <f t="shared" si="104"/>
@@ -20135,7 +20156,7 @@
         <v>56</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E235" s="16">
         <f t="shared" si="62"/>
@@ -20145,8 +20166,8 @@
         <v>5</v>
       </c>
       <c r="G235" s="18">
-        <f t="shared" si="101"/>
-        <v>3.9369965924938816E+16</v>
+        <f t="shared" si="105"/>
+        <v>4.3904815247006112E+16</v>
       </c>
       <c r="H235" s="16">
         <f t="shared" si="104"/>
@@ -20207,7 +20228,7 @@
         <v>56</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E236" s="16">
         <f t="shared" si="62"/>
@@ -20217,8 +20238,8 @@
         <v>5</v>
       </c>
       <c r="G236" s="18">
-        <f t="shared" si="101"/>
-        <v>4.0569830435269216E+16</v>
+        <f t="shared" si="105"/>
+        <v>4.5246762124144976E+16</v>
       </c>
       <c r="H236" s="16">
         <f t="shared" si="104"/>
@@ -20279,7 +20300,7 @@
         <v>56</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E237" s="16">
         <f t="shared" si="62"/>
@@ -20289,8 +20310,8 @@
         <v>5</v>
       </c>
       <c r="G237" s="18">
-        <f t="shared" si="101"/>
-        <v>4.1800910943526656E+16</v>
+        <f t="shared" si="105"/>
+        <v>4.6623739135883616E+16</v>
       </c>
       <c r="H237" s="16">
         <f t="shared" si="104"/>
@@ -20351,7 +20372,7 @@
         <v>56</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E238" s="12">
         <f t="shared" si="62"/>
@@ -20361,8 +20382,8 @@
         <v>5</v>
       </c>
       <c r="G238" s="18">
-        <f t="shared" si="101"/>
-        <v>4.3063881535159648E+16</v>
+        <f t="shared" si="105"/>
+        <v>4.8036505783228704E+16</v>
       </c>
       <c r="H238" s="16">
         <f t="shared" si="104"/>
@@ -20423,7 +20444,7 @@
         <v>56</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E239" s="12">
         <f t="shared" si="62"/>
@@ -20433,8 +20454,8 @@
         <v>5</v>
       </c>
       <c r="G239" s="18">
-        <f t="shared" si="101"/>
-        <v>4.435942789665184E+16</v>
+        <f t="shared" si="105"/>
+        <v>4.9485834703979792E+16</v>
       </c>
       <c r="H239" s="16">
         <f t="shared" si="104"/>
@@ -20495,7 +20516,7 @@
         <v>56</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E240" s="16">
         <f t="shared" si="62"/>
@@ -20505,8 +20526,8 @@
         <v>5</v>
       </c>
       <c r="G240" s="18">
-        <f t="shared" si="101"/>
-        <v>4.5688247464750816E+16</v>
+        <f t="shared" si="105"/>
+        <v>5.0972511842839456E+16</v>
       </c>
       <c r="H240" s="16">
         <f t="shared" si="104"/>
@@ -20567,7 +20588,7 @@
         <v>56</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E241" s="16">
         <f t="shared" si="62"/>
@@ -20577,8 +20598,8 @@
         <v>5</v>
       </c>
       <c r="G241" s="18">
-        <f>A241^7.01+A241^4+100*A241+100</f>
-        <v>4.7051049576968912E+16</v>
+        <f t="shared" si="105"/>
+        <v>5.2497336622997072E+16</v>
       </c>
       <c r="H241" s="16">
         <f t="shared" si="104"/>
@@ -20639,7 +20660,7 @@
         <v>56</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E242" s="16">
         <f t="shared" si="62"/>
@@ -20649,8 +20670,8 @@
         <v>5</v>
       </c>
       <c r="G242" s="18">
-        <f t="shared" ref="G242:G302" si="105">A242^7.01+A242^4+100*A242+100</f>
-        <v>4.8448555623369216E+16</v>
+        <f>A242^7.04+A242^4+100*A242+100</f>
+        <v>5.7106713461935344E+16</v>
       </c>
       <c r="H242" s="16">
         <f>A242^2.1415+50+50*A242</f>
@@ -20711,7 +20732,7 @@
         <v>56</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E243" s="16">
         <f t="shared" si="62"/>
@@ -20721,11 +20742,11 @@
         <v>5</v>
       </c>
       <c r="G243" s="18">
-        <f t="shared" si="105"/>
-        <v>4.9881499199637904E+16</v>
+        <f t="shared" ref="G243:G256" si="106">A243^7.04+A243^4+100*A243+100</f>
+        <v>5.8803070576607392E+16</v>
       </c>
       <c r="H243" s="16">
-        <f t="shared" ref="H243:H302" si="106">A243^2.1415+50+50*A243</f>
+        <f t="shared" ref="H243:H256" si="107">A243^2.1415+50+50*A243</f>
         <v>138308.75908635493</v>
       </c>
       <c r="I243" s="16">
@@ -20783,7 +20804,7 @@
         <v>56</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E244" s="16">
         <f t="shared" si="62"/>
@@ -20793,11 +20814,11 @@
         <v>5</v>
       </c>
       <c r="G244" s="18">
-        <f t="shared" si="105"/>
-        <v>5.1350626261448464E+16</v>
+        <f t="shared" si="106"/>
+        <v>6.0542479181281424E+16</v>
       </c>
       <c r="H244" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>139482.89297009032</v>
       </c>
       <c r="I244" s="16">
@@ -20855,7 +20876,7 @@
         <v>56</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E245" s="16">
         <f t="shared" si="62"/>
@@ -20865,11 +20886,11 @@
         <v>5</v>
       </c>
       <c r="G245" s="18">
-        <f t="shared" si="105"/>
-        <v>5.285669528012384E+16</v>
+        <f t="shared" si="106"/>
+        <v>6.2325847173401728E+16</v>
       </c>
       <c r="H245" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>140662.34186024917</v>
       </c>
       <c r="I245" s="16">
@@ -20927,21 +20948,21 @@
         <v>56</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E246" s="16">
-        <f t="shared" ref="E246:E302" si="107">A246^2.9</f>
+        <f t="shared" ref="E246:E302" si="108">A246^2.9</f>
         <v>8383598.9844874209</v>
       </c>
       <c r="F246" s="16">
         <v>5</v>
       </c>
       <c r="G246" s="18">
-        <f t="shared" si="105"/>
-        <v>5.440047739960608E+16</v>
+        <f t="shared" si="106"/>
+        <v>6.4154097734093888E+16</v>
       </c>
       <c r="H246" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>141847.10885908321</v>
       </c>
       <c r="I246" s="16">
@@ -20999,21 +21020,21 @@
         <v>56</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E247" s="16">
+        <f t="shared" si="108"/>
+        <v>8483628.5439378768</v>
+      </c>
+      <c r="F247" s="16">
+        <v>5</v>
+      </c>
+      <c r="G247" s="18">
+        <f t="shared" si="106"/>
+        <v>6.602816952096088E+16</v>
+      </c>
+      <c r="H247" s="16">
         <f t="shared" si="107"/>
-        <v>8483628.5439378768</v>
-      </c>
-      <c r="F247" s="16">
-        <v>5</v>
-      </c>
-      <c r="G247" s="18">
-        <f t="shared" si="105"/>
-        <v>5.5982756594728768E+16</v>
-      </c>
-      <c r="H247" s="16">
-        <f t="shared" si="106"/>
         <v>143037.19705790153</v>
       </c>
       <c r="I247" s="16">
@@ -21071,21 +21092,21 @@
         <v>56</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E248" s="16">
+        <f t="shared" si="108"/>
+        <v>8584436.8586975392</v>
+      </c>
+      <c r="F248" s="16">
+        <v>5</v>
+      </c>
+      <c r="G248" s="18">
+        <f t="shared" si="106"/>
+        <v>6.7949016862511088E+16</v>
+      </c>
+      <c r="H248" s="16">
         <f t="shared" si="107"/>
-        <v>8584436.8586975392</v>
-      </c>
-      <c r="F248" s="16">
-        <v>5</v>
-      </c>
-      <c r="G248" s="18">
-        <f t="shared" si="105"/>
-        <v>5.7604329830809552E+16</v>
-      </c>
-      <c r="H248" s="16">
-        <f t="shared" si="106"/>
         <v>144232.60953715615</v>
       </c>
       <c r="I248" s="16">
@@ -21143,21 +21164,21 @@
         <v>56</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E249" s="16">
+        <f t="shared" si="108"/>
+        <v>8686026.7889180873</v>
+      </c>
+      <c r="F249" s="16">
+        <v>5</v>
+      </c>
+      <c r="G249" s="18">
+        <f t="shared" si="106"/>
+        <v>6.9917609954221824E+16</v>
+      </c>
+      <c r="H249" s="16">
         <f t="shared" si="107"/>
-        <v>8686026.7889180873</v>
-      </c>
-      <c r="F249" s="16">
-        <v>5</v>
-      </c>
-      <c r="G249" s="18">
-        <f t="shared" si="105"/>
-        <v>5.9266007224561968E+16</v>
-      </c>
-      <c r="H249" s="16">
-        <f t="shared" si="106"/>
         <v>145433.34936652481</v>
       </c>
       <c r="I249" s="16">
@@ -21215,21 +21236,21 @@
         <v>56</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E250" s="16">
+        <f t="shared" si="108"/>
+        <v>8788401.1935886815</v>
+      </c>
+      <c r="F250" s="16">
+        <v>5</v>
+      </c>
+      <c r="G250" s="18">
+        <f t="shared" si="106"/>
+        <v>7.1934935056229808E+16</v>
+      </c>
+      <c r="H250" s="16">
         <f t="shared" si="107"/>
-        <v>8788401.1935886815</v>
-      </c>
-      <c r="F250" s="16">
-        <v>5</v>
-      </c>
-      <c r="G250" s="18">
-        <f t="shared" si="105"/>
-        <v>6.0968612206327184E+16</v>
-      </c>
-      <c r="H250" s="16">
-        <f t="shared" si="106"/>
         <v>146639.41960498955</v>
       </c>
       <c r="I250" s="16">
@@ -21287,21 +21308,21 @@
         <v>56</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E251" s="12">
+        <f t="shared" si="108"/>
+        <v>8891562.930541249</v>
+      </c>
+      <c r="F251" s="16">
+        <v>5</v>
+      </c>
+      <c r="G251" s="18">
+        <f t="shared" si="106"/>
+        <v>7.4001994692683248E+16</v>
+      </c>
+      <c r="H251" s="16">
         <f t="shared" si="107"/>
-        <v>8891562.930541249</v>
-      </c>
-      <c r="F251" s="16">
-        <v>5</v>
-      </c>
-      <c r="G251" s="18">
-        <f t="shared" si="105"/>
-        <v>6.271298168364624E+16</v>
-      </c>
-      <c r="H251" s="16">
-        <f t="shared" si="106"/>
         <v>147850.82330091967</v>
       </c>
       <c r="I251" s="16">
@@ -21359,21 +21380,21 @@
         <v>56</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E252" s="12">
+        <f t="shared" si="108"/>
+        <v>8995514.8564556595</v>
+      </c>
+      <c r="F252" s="16">
+        <v>5</v>
+      </c>
+      <c r="G252" s="18">
+        <f t="shared" si="106"/>
+        <v>7.6119807852736896E+16</v>
+      </c>
+      <c r="H252" s="16">
         <f t="shared" si="107"/>
-        <v>8995514.8564556595</v>
-      </c>
-      <c r="F252" s="16">
-        <v>5</v>
-      </c>
-      <c r="G252" s="18">
-        <f t="shared" si="105"/>
-        <v>6.4499966206160832E+16</v>
-      </c>
-      <c r="H252" s="16">
-        <f t="shared" si="106"/>
         <v>149067.56349214964</v>
       </c>
       <c r="I252" s="16">
@@ -21431,21 +21452,21 @@
         <v>56</v>
       </c>
       <c r="C253" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E253" s="16">
+        <f t="shared" si="108"/>
+        <v>9100259.8268646207</v>
+      </c>
+      <c r="F253" s="16">
+        <v>5</v>
+      </c>
+      <c r="G253" s="18">
+        <f t="shared" si="106"/>
+        <v>7.8289410193209024E+16</v>
+      </c>
+      <c r="H253" s="16">
         <f t="shared" si="107"/>
-        <v>9100259.8268646207</v>
-      </c>
-      <c r="F253" s="16">
-        <v>5</v>
-      </c>
-      <c r="G253" s="18">
-        <f t="shared" si="105"/>
-        <v>6.6330430131858704E+16</v>
-      </c>
-      <c r="H253" s="16">
-        <f t="shared" si="106"/>
         <v>150289.64320605854</v>
       </c>
       <c r="I253" s="16">
@@ -21503,21 +21524,21 @@
         <v>56</v>
       </c>
       <c r="C254" s="17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E254" s="16">
+        <f t="shared" si="108"/>
+        <v>9205800.696158966</v>
+      </c>
+      <c r="F254" s="16">
+        <v>5</v>
+      </c>
+      <c r="G254" s="18">
+        <f t="shared" si="106"/>
+        <v>8.0511854242908016E+16</v>
+      </c>
+      <c r="H254" s="16">
         <f t="shared" si="107"/>
-        <v>9205800.696158966</v>
-      </c>
-      <c r="F254" s="16">
-        <v>5</v>
-      </c>
-      <c r="G254" s="18">
-        <f t="shared" si="105"/>
-        <v>6.820525179466888E+16</v>
-      </c>
-      <c r="H254" s="16">
-        <f t="shared" si="106"/>
         <v>151517.06545964672</v>
       </c>
       <c r="I254" s="16">
@@ -21575,21 +21596,21 @@
         <v>56</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E255" s="16">
+        <f t="shared" si="108"/>
+        <v>9312140.3175924718</v>
+      </c>
+      <c r="F255" s="16">
+        <v>5</v>
+      </c>
+      <c r="G255" s="18">
+        <f t="shared" si="106"/>
+        <v>8.278820960863256E+16</v>
+      </c>
+      <c r="H255" s="16">
         <f t="shared" si="107"/>
-        <v>9312140.3175924718</v>
-      </c>
-      <c r="F255" s="16">
-        <v>5</v>
-      </c>
-      <c r="G255" s="18">
-        <f t="shared" si="105"/>
-        <v>7.012532367340496E+16</v>
-      </c>
-      <c r="H255" s="16">
-        <f t="shared" si="106"/>
         <v>152749.83325961267</v>
       </c>
       <c r="I255" s="16">
@@ -21647,21 +21668,21 @@
         <v>56</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E256" s="16">
+        <f t="shared" si="108"/>
+        <v>9419281.5432868861</v>
+      </c>
+      <c r="F256" s="16">
+        <v>5</v>
+      </c>
+      <c r="G256" s="18">
+        <f t="shared" si="106"/>
+        <v>8.5119563182849344E+16</v>
+      </c>
+      <c r="H256" s="16">
         <f t="shared" si="107"/>
-        <v>9419281.5432868861</v>
-      </c>
-      <c r="F256" s="16">
-        <v>5</v>
-      </c>
-      <c r="G256" s="18">
-        <f t="shared" si="105"/>
-        <v>7.2091552562070336E+16</v>
-      </c>
-      <c r="H256" s="16">
-        <f t="shared" si="106"/>
         <v>153987.9496024301</v>
       </c>
       <c r="I256" s="16">
@@ -21719,18 +21740,18 @@
         <v>56</v>
       </c>
       <c r="C257" s="17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E257" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>9527227.2242368795</v>
       </c>
       <c r="F257" s="16">
         <v>5</v>
       </c>
       <c r="G257" s="18">
-        <f t="shared" si="105"/>
-        <v>7.4104859741526544E+16</v>
+        <f>A257^7.05+A257^4+100*A257+100</f>
+        <v>9.249287774206328E+16</v>
       </c>
       <c r="H257" s="16">
         <f>A257^2.14+50+50*A257</f>
@@ -21791,21 +21812,21 @@
         <v>56</v>
       </c>
       <c r="C258" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E258" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>9635980.2103149537</v>
       </c>
       <c r="F258" s="16">
         <v>5</v>
       </c>
       <c r="G258" s="18">
-        <f t="shared" si="105"/>
-        <v>7.6166181152530976E+16</v>
+        <f t="shared" ref="G258:G271" si="109">A258^7.05+A258^4+100*A258+100</f>
+        <v>9.5080569659300096E+16</v>
       </c>
       <c r="H258" s="16">
-        <f t="shared" ref="H258:H302" si="108">A258^2.14+50+50*A258</f>
+        <f t="shared" ref="H258:H302" si="110">A258^2.14+50+50*A258</f>
         <v>155290.51190101565</v>
       </c>
       <c r="I258" s="16">
@@ -21863,21 +21884,21 @@
         <v>56</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E259" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>9745543.3502761442</v>
       </c>
       <c r="F259" s="16">
         <v>5</v>
       </c>
       <c r="G259" s="18">
-        <f t="shared" si="105"/>
-        <v>7.827646757014696E+16</v>
+        <f t="shared" si="109"/>
+        <v>9.7730144043185728E+16</v>
       </c>
       <c r="H259" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>156533.877236445</v>
       </c>
       <c r="I259" s="16">
@@ -21935,21 +21956,21 @@
         <v>56</v>
       </c>
       <c r="C260" s="17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E260" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>9855919.4917628486</v>
       </c>
       <c r="F260" s="16">
         <v>5</v>
       </c>
       <c r="G260" s="18">
-        <f t="shared" si="105"/>
-        <v>8.0436684779538304E+16</v>
+        <f t="shared" si="109"/>
+        <v>1.00442831303884E+17</v>
       </c>
       <c r="H260" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>157782.54786269873</v>
       </c>
       <c r="I260" s="16">
@@ -22007,21 +22028,21 @@
         <v>56</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E261" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>9967111.4813097883</v>
       </c>
       <c r="F261" s="16">
         <v>5</v>
       </c>
       <c r="G261" s="18">
-        <f t="shared" si="105"/>
-        <v>8.2647813753144672E+16</v>
+        <f t="shared" si="109"/>
+        <v>1.0321988139467538E+17</v>
       </c>
       <c r="H261" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>159036.52666500129</v>
       </c>
       <c r="I261" s="16">
@@ -22079,21 +22100,21 @@
         <v>56</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E262" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>10079122.164348537</v>
       </c>
       <c r="F262" s="16">
         <v>5</v>
       </c>
       <c r="G262" s="18">
-        <f t="shared" si="105"/>
-        <v>8.4910850829254096E+16</v>
+        <f t="shared" si="109"/>
+        <v>1.0606256404480944E+17</v>
       </c>
       <c r="H262" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>160295.81651897504</v>
       </c>
       <c r="I262" s="16">
@@ -22151,21 +22172,21 @@
         <v>56</v>
       </c>
       <c r="C263" s="17" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E263" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>10191954.385212181</v>
       </c>
       <c r="F263" s="16">
         <v>5</v>
       </c>
       <c r="G263" s="18">
-        <f t="shared" si="105"/>
-        <v>8.7226807891964512E+16</v>
+        <f t="shared" si="109"/>
+        <v>1.0897216899421917E+17</v>
       </c>
       <c r="H263" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>161560.42029071038</v>
       </c>
       <c r="I263" s="16">
@@ -22223,21 +22244,21 @@
         <v>56</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E264" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>10305610.987140069</v>
       </c>
       <c r="F264" s="16">
         <v>5</v>
       </c>
       <c r="G264" s="18">
-        <f t="shared" si="105"/>
-        <v>8.9596712552553024E+16</v>
+        <f t="shared" si="109"/>
+        <v>1.1195000623009811E+17</v>
       </c>
       <c r="H264" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>162830.34083683215</v>
       </c>
       <c r="I264" s="16">
@@ -22295,21 +22316,21 @@
         <v>56</v>
       </c>
       <c r="C265" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E265" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>10420094.812282493</v>
       </c>
       <c r="F265" s="16">
         <v>5</v>
       </c>
       <c r="G265" s="18">
-        <f t="shared" si="105"/>
-        <v>9.2021608332254448E+16</v>
+        <f t="shared" si="109"/>
+        <v>1.1499740622535594E+17</v>
       </c>
       <c r="H265" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>164105.5810045691</v>
       </c>
       <c r="I265" s="16">
@@ -22367,21 +22388,21 @@
         <v>56</v>
       </c>
       <c r="C266" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E266" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>10535408.701704986</v>
       </c>
       <c r="F266" s="16">
         <v>5</v>
       </c>
       <c r="G266" s="18">
-        <f t="shared" si="105"/>
-        <v>9.4502554846442704E+16</v>
+        <f t="shared" si="109"/>
+        <v>1.1811572017894306E+17</v>
       </c>
       <c r="H266" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>165386.1436318183</v>
       </c>
       <c r="I266" s="16">
@@ -22439,21 +22460,21 @@
         <v>56</v>
       </c>
       <c r="C267" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E267" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>10651555.495393157</v>
       </c>
       <c r="F267" s="16">
         <v>5</v>
       </c>
       <c r="G267" s="18">
-        <f t="shared" si="105"/>
-        <v>9.7040627990245024E+16</v>
+        <f t="shared" si="109"/>
+        <v>1.2130632025807672E+17</v>
       </c>
       <c r="H267" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>166672.03154721274</v>
       </c>
       <c r="I267" s="16">
@@ -22511,21 +22532,21 @@
         <v>56</v>
       </c>
       <c r="C268" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E268" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>10768538.032256991</v>
       </c>
       <c r="F268" s="16">
         <v>5</v>
       </c>
       <c r="G268" s="18">
-        <f t="shared" si="105"/>
-        <v>9.9636920125565952E+16</v>
+        <f t="shared" si="109"/>
+        <v>1.2457059984235114E+17</v>
       </c>
       <c r="H268" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>167963.24757018598</v>
       </c>
       <c r="I268" s="16">
@@ -22583,21 +22604,21 @@
         <v>56</v>
       </c>
       <c r="C269" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E269" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>10886359.150135417</v>
       </c>
       <c r="F269" s="16">
         <v>5</v>
       </c>
       <c r="G269" s="18">
-        <f t="shared" si="105"/>
-        <v>1.0229254026955309E+17</v>
+        <f t="shared" si="109"/>
+        <v>1.279099737697549E+17</v>
       </c>
       <c r="H269" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>169259.79451103587</v>
       </c>
       <c r="I269" s="16">
@@ -22655,21 +22676,21 @@
         <v>56</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E270" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>11005021.685800681</v>
       </c>
       <c r="F270" s="16">
         <v>5</v>
       </c>
       <c r="G270" s="18">
-        <f t="shared" si="105"/>
-        <v>1.0500861428448675E+17</v>
+        <f t="shared" si="109"/>
+        <v>1.3132587858460362E+17</v>
       </c>
       <c r="H270" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>170561.67517098895</v>
       </c>
       <c r="I270" s="16">
@@ -22727,21 +22748,21 @@
         <v>56</v>
       </c>
       <c r="C271" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E271" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>11124528.474962797</v>
       </c>
       <c r="F271" s="16">
         <v>5</v>
       </c>
       <c r="G271" s="18">
-        <f t="shared" si="105"/>
-        <v>1.0778628506912E+17</v>
+        <f t="shared" si="109"/>
+        <v>1.3481977278738086E+17</v>
       </c>
       <c r="H271" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>171868.89234226459</v>
       </c>
       <c r="I271" s="16">
@@ -22799,21 +22820,21 @@
         <v>56</v>
       </c>
       <c r="C272" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E272" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>11244882.352273848</v>
       </c>
       <c r="F272" s="16">
         <v>5</v>
       </c>
       <c r="G272" s="18">
-        <f t="shared" si="105"/>
-        <v>1.1062671275145728E+17</v>
+        <f>A272^7.06+A272^4+100*A272+100</f>
+        <v>1.4636195125189891E+17</v>
       </c>
       <c r="H272" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>173181.44880813509</v>
       </c>
       <c r="I272" s="16">
@@ -22871,21 +22892,21 @@
         <v>56</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E273" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>11366086.151332274</v>
       </c>
       <c r="F273" s="16">
         <v>5</v>
       </c>
       <c r="G273" s="18">
-        <f t="shared" si="105"/>
-        <v>1.1353107488298509E+17</v>
+        <f t="shared" ref="G273:G286" si="111">A273^7.06+A273^4+100*A273+100</f>
+        <v>1.5023226298072864E+17</v>
       </c>
       <c r="H273" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>174499.34734298938</v>
       </c>
       <c r="I273" s="16">
@@ -22943,21 +22964,21 @@
         <v>56</v>
       </c>
       <c r="C274" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E274" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>11488142.704687346</v>
       </c>
       <c r="F274" s="16">
         <v>5</v>
       </c>
       <c r="G274" s="18">
-        <f t="shared" si="105"/>
-        <v>1.1650056663436638E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.5419009566801952E+17</v>
       </c>
       <c r="H274" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>175822.5907123932</v>
       </c>
       <c r="I274" s="16">
@@ -23015,21 +23036,21 @@
         <v>56</v>
       </c>
       <c r="C275" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E275" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>11611054.843843212</v>
       </c>
       <c r="F275" s="16">
         <v>5</v>
       </c>
       <c r="G275" s="18">
-        <f t="shared" si="105"/>
-        <v>1.1953640099258648E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.5823709574092147E+17</v>
       </c>
       <c r="H275" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>177151.18167314981</v>
       </c>
       <c r="I275" s="16">
@@ -23087,21 +23108,21 @@
         <v>56</v>
       </c>
       <c r="C276" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E276" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>11734825.399263229</v>
       </c>
       <c r="F276" s="16">
         <v>5</v>
       </c>
       <c r="G276" s="18">
-        <f t="shared" si="105"/>
-        <v>1.2263980895957462E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.6237493438602755E+17</v>
       </c>
       <c r="H276" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>178485.12297335968</v>
       </c>
       <c r="I276" s="16">
@@ -23159,25 +23180,25 @@
         <v>56</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E277" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>11859457.200374141</v>
       </c>
       <c r="F277" s="16">
         <v>5</v>
       </c>
       <c r="G277" s="18">
-        <f t="shared" si="105"/>
-        <v>1.2581203975229741E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.6660530782897258E+17</v>
       </c>
       <c r="H277" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>179824.41735248058</v>
       </c>
       <c r="I277" s="16">
-        <f t="shared" ref="I277:I302" si="109">A277^6.018+A277^4+1000*A277+100</f>
+        <f t="shared" ref="I277:I302" si="112">A277^6.018+A277^4+1000*A277+100</f>
         <v>478530190022234.25</v>
       </c>
       <c r="J277" s="16">
@@ -23231,25 +23252,25 @@
         <v>56</v>
       </c>
       <c r="C278" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E278" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>11984953.07557027</v>
       </c>
       <c r="F278" s="16">
         <v>5</v>
       </c>
       <c r="G278" s="18">
-        <f t="shared" si="105"/>
-        <v>1.290543610043259E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.7092993761614922E+17</v>
       </c>
       <c r="H278" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>181169.06754138385</v>
       </c>
       <c r="I278" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>489098137167234.94</v>
       </c>
       <c r="J278" s="16">
@@ -23303,25 +23324,25 @@
         <v>56</v>
       </c>
       <c r="C279" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E279" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>12111315.852217589</v>
       </c>
       <c r="F279" s="16">
         <v>5</v>
       </c>
       <c r="G279" s="18">
-        <f t="shared" si="105"/>
-        <v>1.3236805896889515E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.7535057089854576E+17</v>
       </c>
       <c r="H279" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>182519.07626241609</v>
       </c>
       <c r="I279" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>499859977852675.06</v>
       </c>
       <c r="J279" s="16">
@@ -23375,25 +23396,25 @@
         <v>56</v>
       </c>
       <c r="C280" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E280" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>12238548.356657792</v>
       </c>
       <c r="F280" s="16">
         <v>5</v>
       </c>
       <c r="G280" s="18">
-        <f t="shared" si="105"/>
-        <v>1.357544387234463E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.798689807177255E+17</v>
       </c>
       <c r="H280" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>183874.44622945218</v>
       </c>
       <c r="I280" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>510818550219968.25</v>
       </c>
       <c r="J280" s="16">
@@ -23447,25 +23468,25 @@
         <v>56</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E281" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>12366653.414212499</v>
       </c>
       <c r="F281" s="16">
         <v>5</v>
       </c>
       <c r="G281" s="18">
-        <f t="shared" si="105"/>
-        <v>1.3921482437566506E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.8448696629393891E+17</v>
       </c>
       <c r="H281" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>185235.18014795598</v>
       </c>
       <c r="I281" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>521976723501812.69</v>
       </c>
       <c r="J281" s="16">
@@ -23519,25 +23540,25 @@
         <v>56</v>
       </c>
       <c r="C282" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E282" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>12495633.849187199</v>
       </c>
       <c r="F282" s="16">
         <v>5</v>
       </c>
       <c r="G282" s="18">
-        <f t="shared" si="105"/>
-        <v>1.4275055927102469E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.8920635331639731E+17</v>
       </c>
       <c r="H282" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>186601.28071503324</v>
       </c>
       <c r="I282" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>533337398249084.44</v>
       </c>
       <c r="J282" s="16">
@@ -23591,25 +23612,25 @@
         <v>56</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E283" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>12625492.484875167</v>
       </c>
       <c r="F283" s="16">
         <v>5</v>
       </c>
       <c r="G283" s="18">
-        <f t="shared" si="105"/>
-        <v>1.4636300620182886E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.9402899423569584E+17</v>
       </c>
       <c r="H283" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>187972.75061949051</v>
       </c>
       <c r="I283" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>544903506558619.5</v>
       </c>
       <c r="J283" s="16">
@@ -23663,25 +23684,25 @@
         <v>56</v>
       </c>
       <c r="C284" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E284" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>12756232.143561665</v>
       </c>
       <c r="F284" s="16">
         <v>5</v>
       </c>
       <c r="G284" s="18">
-        <f t="shared" si="105"/>
-        <v>1.5005354761777376E+17</v>
+        <f t="shared" si="111"/>
+        <v>1.9895676855841555E+17</v>
       </c>
       <c r="H284" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>189349.59254188731</v>
       </c>
       <c r="I284" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>556678012301766.44</v>
       </c>
       <c r="J284" s="16">
@@ -23735,25 +23756,25 @@
         <v>56</v>
       </c>
       <c r="C285" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E285" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>12887855.646527616</v>
       </c>
       <c r="F285" s="16">
         <v>5</v>
       </c>
       <c r="G285" s="18">
-        <f t="shared" si="105"/>
-        <v>1.538235858380169E+17</v>
+        <f t="shared" si="111"/>
+        <v>2.0399158314387779E+17</v>
       </c>
       <c r="H285" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>190731.8091545917</v>
       </c>
       <c r="I285" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>568663911353831.63</v>
       </c>
       <c r="J285" s="16">
@@ -23807,25 +23828,25 @@
         <v>56</v>
       </c>
       <c r="C286" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E286" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>13020365.814053755</v>
       </c>
       <c r="F286" s="16">
         <v>5</v>
       </c>
       <c r="G286" s="18">
-        <f t="shared" si="105"/>
-        <v>1.5767454326477878E+17</v>
+        <f t="shared" si="111"/>
+        <v>2.0913537250311606E+17</v>
       </c>
       <c r="H286" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>192119.40312183465</v>
       </c>
       <c r="I286" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>580864231824321.63</v>
       </c>
       <c r="J286" s="16">
@@ -23879,25 +23900,25 @@
         <v>56</v>
       </c>
       <c r="C287" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E287" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>13153765.465424472</v>
       </c>
       <c r="F287" s="16">
         <v>5</v>
       </c>
       <c r="G287" s="18">
-        <f t="shared" si="105"/>
-        <v>1.6160786259846509E+17</v>
+        <f>A287^7.07+A287^4+100*A287+100</f>
+        <v>2.2685751624597066E+17</v>
       </c>
       <c r="H287" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>193512.37709976366</v>
       </c>
       <c r="I287" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>593282034288033.63</v>
       </c>
       <c r="J287" s="16">
@@ -23951,25 +23972,25 @@
         <v>56</v>
       </c>
       <c r="C288" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E288" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>13288057.418931467</v>
       </c>
       <c r="F288" s="16">
         <v>5</v>
       </c>
       <c r="G288" s="18">
-        <f t="shared" si="105"/>
-        <v>1.6562500705432522E+17</v>
+        <f t="shared" ref="G288:G302" si="113">A288^7.07+A288^4+100*A288+100</f>
+        <v>2.3254546082801091E+17</v>
       </c>
       <c r="H288" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>194910.73373649444</v>
       </c>
       <c r="I288" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>605920412016945.63</v>
       </c>
       <c r="J288" s="16">
@@ -24023,25 +24044,25 @@
         <v>56</v>
       </c>
       <c r="C289" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E289" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>13423244.491877869</v>
       </c>
       <c r="F289" s="16">
         <v>5</v>
       </c>
       <c r="G289" s="18">
-        <f t="shared" si="105"/>
-        <v>1.6972746058065366E+17</v>
+        <f t="shared" si="113"/>
+        <v>2.3835541473557386E+17</v>
       </c>
       <c r="H289" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>196314.47567216403</v>
       </c>
       <c r="I289" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>618782491213017.38</v>
       </c>
       <c r="J289" s="16">
@@ -24095,25 +24116,25 @@
         <v>56</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E290" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>13559329.500581868</v>
       </c>
       <c r="F290" s="16">
         <v>5</v>
       </c>
       <c r="G290" s="18">
-        <f t="shared" si="105"/>
-        <v>1.739167280785209E+17</v>
+        <f t="shared" si="113"/>
+        <v>2.4428955628805427E+17</v>
       </c>
       <c r="H290" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>197723.60553898197</v>
       </c>
       <c r="I290" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>631871431241717.38</v>
       </c>
       <c r="J290" s="16">
@@ -24167,25 +24188,25 @@
         <v>56</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E291" s="12">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>13696315.26038049</v>
       </c>
       <c r="F291" s="16">
         <v>5</v>
       </c>
       <c r="G291" s="18">
-        <f t="shared" si="105"/>
-        <v>1.781943356230745E+17</v>
+        <f t="shared" si="113"/>
+        <v>2.5035009491581056E+17</v>
       </c>
       <c r="H291" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>199138.12596128331</v>
       </c>
       <c r="I291" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>645190424866466.75</v>
       </c>
       <c r="J291" s="16">
@@ -24239,25 +24260,25 @@
         <v>56</v>
       </c>
       <c r="C292" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E292" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>13834204.585633369</v>
       </c>
       <c r="F292" s="16">
         <v>5</v>
       </c>
       <c r="G292" s="18">
-        <f t="shared" si="105"/>
-        <v>1.8256183068638173E+17</v>
+        <f t="shared" si="113"/>
+        <v>2.5653927149415741E+17</v>
       </c>
       <c r="H292" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>200558.03955557675</v>
       </c>
       <c r="I292" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>658742698483894.25</v>
       </c>
       <c r="J292" s="16">
@@ -24311,25 +24332,25 @@
         <v>56</v>
       </c>
       <c r="C293" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E293" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>13973000.289726567</v>
       </c>
       <c r="F293" s="16">
         <v>5</v>
       </c>
       <c r="G293" s="18">
-        <f t="shared" si="105"/>
-        <v>1.8702078236183773E+17</v>
+        <f t="shared" si="113"/>
+        <v>2.6285935867975952E+17</v>
       </c>
       <c r="H293" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>201983.34893059797</v>
       </c>
       <c r="I293" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>672531512359894.5</v>
       </c>
       <c r="J293" s="16">
@@ -24383,25 +24404,25 @@
         <v>56</v>
       </c>
       <c r="C294" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E294" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>14112705.185076088</v>
       </c>
       <c r="F294" s="16">
         <v>5</v>
       </c>
       <c r="G294" s="18">
-        <f t="shared" si="105"/>
-        <v>1.9157278159013386E+17</v>
+        <f t="shared" si="113"/>
+        <v>2.6931266124944854E+17</v>
       </c>
       <c r="H294" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>203414.05668735577</v>
       </c>
       <c r="I294" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>686560160866565.38</v>
       </c>
       <c r="J294" s="16">
@@ -24455,25 +24476,25 @@
         <v>56</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E295" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>14253322.083131695</v>
       </c>
       <c r="F295" s="16">
         <v>5</v>
       </c>
       <c r="G295" s="18">
-        <f t="shared" si="105"/>
-        <v>1.962194413868081E+17</v>
+        <f t="shared" si="113"/>
+        <v>2.7590151644146685E+17</v>
       </c>
       <c r="H295" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>204850.16541918565</v>
       </c>
       <c r="I295" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>700831972719937.38</v>
       </c>
       <c r="J295" s="16">
@@ -24527,25 +24548,25 @@
         <v>56</v>
       </c>
       <c r="C296" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E296" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>14394853.79438041</v>
       </c>
       <c r="F296" s="16">
         <v>5</v>
       </c>
       <c r="G296" s="18">
-        <f t="shared" si="105"/>
-        <v>2.0096239707136499E+17</v>
+        <f t="shared" si="113"/>
+        <v>2.8262829429914445E+17</v>
       </c>
       <c r="H296" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>206291.67771179436</v>
       </c>
       <c r="I296" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>715350311218560.88</v>
       </c>
       <c r="J296" s="16">
@@ -24599,25 +24620,25 @@
         <v>56</v>
       </c>
       <c r="C297" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E297" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>14537303.128350295</v>
       </c>
       <c r="F297" s="16">
         <v>5</v>
       </c>
       <c r="G297" s="18">
-        <f t="shared" si="105"/>
-        <v>2.0580330649798365E+17</v>
+        <f t="shared" si="113"/>
+        <v>2.8949539801702893E+17</v>
       </c>
       <c r="H297" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>207738.59614331252</v>
       </c>
       <c r="I297" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>730118574482937.13</v>
       </c>
       <c r="J297" s="16">
@@ -24671,25 +24692,25 @@
         <v>56</v>
       </c>
       <c r="C298" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E298" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>14680672.893613806</v>
       </c>
       <c r="F298" s="16">
         <v>5</v>
       </c>
       <c r="G298" s="18">
-        <f t="shared" si="105"/>
-        <v>2.1074385028779939E+17</v>
+        <f t="shared" si="113"/>
+        <v>2.9650526428945344E+17</v>
       </c>
       <c r="H298" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>209190.92328433724</v>
       </c>
       <c r="I298" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>745140195695720.25</v>
       </c>
       <c r="J298" s="16">
@@ -24743,25 +24764,25 @@
         <v>56</v>
       </c>
       <c r="C299" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E299" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>14824965.897791749</v>
       </c>
       <c r="F299" s="16">
         <v>5</v>
       </c>
       <c r="G299" s="18">
-        <f t="shared" si="105"/>
-        <v>2.1578573206280746E+17</v>
+        <f t="shared" si="113"/>
+        <v>3.0366036366158714E+17</v>
       </c>
       <c r="H299" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>210648.66169798537</v>
       </c>
       <c r="I299" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>760418643342857</v>
       </c>
       <c r="J299" s="16">
@@ -24815,25 +24836,25 @@
         <v>56</v>
       </c>
       <c r="C300" s="17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E300" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>14970184.94755628</v>
       </c>
       <c r="F300" s="16">
         <v>5</v>
       </c>
       <c r="G300" s="18">
-        <f t="shared" si="105"/>
-        <v>2.2093067868132947E+17</v>
+        <f t="shared" si="113"/>
+        <v>3.1096320088294035E+17</v>
       </c>
       <c r="H300" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>212111.8139399364</v>
       </c>
       <c r="I300" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>775957421455451.63</v>
       </c>
       <c r="J300" s="16">
@@ -24887,25 +24908,25 @@
         <v>56</v>
       </c>
       <c r="C301" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E301" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>15116332.848634899</v>
       </c>
       <c r="F301" s="16">
         <v>5</v>
       </c>
       <c r="G301" s="18">
-        <f t="shared" si="105"/>
-        <v>2.2618044047511773E+17</v>
+        <f t="shared" si="113"/>
+        <v>3.1841631526336493E+17</v>
       </c>
       <c r="H301" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>213580.38255848034</v>
       </c>
       <c r="I301" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>791760069852539.5</v>
       </c>
       <c r="J301" s="16">
@@ -24959,25 +24980,25 @@
         <v>56</v>
       </c>
       <c r="C302" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E302" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>15263412.405813666</v>
       </c>
       <c r="F302" s="16">
         <v>5</v>
       </c>
       <c r="G302" s="18">
-        <f t="shared" si="105"/>
-        <v>2.3153679148804726E+17</v>
+        <f t="shared" si="113"/>
+        <v>3.2602228103153562E+17</v>
       </c>
       <c r="H302" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>215054.37009456303</v>
       </c>
       <c r="I302" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>807830164384644.25</v>
       </c>
       <c r="J302" s="16">

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1C2964-745B-43E7-B2B5-2E85086EC456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50302A6-93C6-4AD2-B332-27DAC5A11F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1223,8 +1223,8 @@
   <dimension ref="A1:Y302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G290" sqref="G290"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V281" sqref="V281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18582,7 +18582,7 @@
         <v>5</v>
       </c>
       <c r="G213" s="18">
-        <f t="shared" ref="G213:G241" si="101">A213^7.02+A213^4+100*A213+100</f>
+        <f t="shared" ref="G213:G226" si="101">A213^7.02+A213^4+100*A213+100</f>
         <v>2.072348913453392E+16</v>
       </c>
       <c r="H213" s="16">
@@ -22950,7 +22950,7 @@
         <v>338</v>
       </c>
       <c r="V273" s="16">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W273" s="22">
         <v>1.05</v>
@@ -23022,7 +23022,7 @@
         <v>340</v>
       </c>
       <c r="V274" s="16">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W274" s="22">
         <v>1.05</v>
@@ -23094,7 +23094,7 @@
         <v>342</v>
       </c>
       <c r="V275" s="16">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W275" s="22">
         <v>1.05</v>
@@ -23166,7 +23166,7 @@
         <v>344</v>
       </c>
       <c r="V276" s="16">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="W276" s="22">
         <v>1.05</v>
@@ -23238,7 +23238,7 @@
         <v>346</v>
       </c>
       <c r="V277" s="16">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="W277" s="22">
         <v>1.05</v>
@@ -23310,7 +23310,7 @@
         <v>348</v>
       </c>
       <c r="V278" s="16">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="W278" s="22">
         <v>1.05</v>
@@ -23382,7 +23382,7 @@
         <v>350</v>
       </c>
       <c r="V279" s="16">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="W279" s="22">
         <v>1.05</v>
@@ -23454,7 +23454,7 @@
         <v>352</v>
       </c>
       <c r="V280" s="16">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="W280" s="22">
         <v>1.05</v>
@@ -23526,7 +23526,7 @@
         <v>354</v>
       </c>
       <c r="V281" s="16">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="W281" s="22">
         <v>1.06</v>
@@ -23598,7 +23598,7 @@
         <v>356</v>
       </c>
       <c r="V282" s="16">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="W282" s="22">
         <v>1.07</v>
@@ -23670,7 +23670,7 @@
         <v>358</v>
       </c>
       <c r="V283" s="16">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="W283" s="22">
         <v>1.07</v>
@@ -23742,7 +23742,7 @@
         <v>360</v>
       </c>
       <c r="V284" s="16">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="W284" s="22">
         <v>1.07</v>
@@ -23814,7 +23814,7 @@
         <v>362</v>
       </c>
       <c r="V285" s="16">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="W285" s="22">
         <v>1.07</v>
@@ -23886,7 +23886,7 @@
         <v>364</v>
       </c>
       <c r="V286" s="16">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="W286" s="22">
         <v>1.07</v>
@@ -23958,7 +23958,7 @@
         <v>366</v>
       </c>
       <c r="V287" s="16">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="W287" s="22">
         <v>1.07</v>
@@ -24030,7 +24030,7 @@
         <v>368</v>
       </c>
       <c r="V288" s="16">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="W288" s="22">
         <v>1.07</v>
@@ -24102,7 +24102,7 @@
         <v>370</v>
       </c>
       <c r="V289" s="16">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="W289" s="22">
         <v>1.07</v>
@@ -24174,7 +24174,7 @@
         <v>372</v>
       </c>
       <c r="V290" s="16">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="W290" s="22">
         <v>1.07</v>
@@ -24246,7 +24246,7 @@
         <v>374</v>
       </c>
       <c r="V291" s="16">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="W291" s="22">
         <v>1.07</v>
@@ -24318,7 +24318,7 @@
         <v>376</v>
       </c>
       <c r="V292" s="16">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="W292" s="22">
         <v>1.07</v>
@@ -24390,7 +24390,7 @@
         <v>378</v>
       </c>
       <c r="V293" s="16">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="W293" s="22">
         <v>1.07</v>
@@ -24462,7 +24462,7 @@
         <v>380</v>
       </c>
       <c r="V294" s="16">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="W294" s="22">
         <v>1.07</v>
@@ -24534,7 +24534,7 @@
         <v>382</v>
       </c>
       <c r="V295" s="16">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="W295" s="22">
         <v>1.07</v>
@@ -24606,7 +24606,7 @@
         <v>384</v>
       </c>
       <c r="V296" s="16">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="W296" s="22">
         <v>1.07</v>
@@ -24678,7 +24678,7 @@
         <v>386</v>
       </c>
       <c r="V297" s="16">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="W297" s="22">
         <v>1.07</v>
@@ -24750,7 +24750,7 @@
         <v>388</v>
       </c>
       <c r="V298" s="16">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="W298" s="22">
         <v>1.07</v>
@@ -24822,7 +24822,7 @@
         <v>390</v>
       </c>
       <c r="V299" s="16">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="W299" s="22">
         <v>1.07</v>
@@ -24894,7 +24894,7 @@
         <v>392</v>
       </c>
       <c r="V300" s="16">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="W300" s="22">
         <v>1.07</v>
@@ -24966,7 +24966,7 @@
         <v>394</v>
       </c>
       <c r="V301" s="16">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="W301" s="22">
         <v>1.07</v>
@@ -25038,7 +25038,7 @@
         <v>396</v>
       </c>
       <c r="V302" s="16">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="W302" s="22">
         <v>1.07</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50302A6-93C6-4AD2-B332-27DAC5A11F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DA1976-FAEF-4713-BCF7-BE221867E14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="96">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,11 +1220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Y302"/>
+  <dimension ref="A1:Y402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V281" sqref="V281"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G305" sqref="G305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20951,7 +20951,7 @@
         <v>92</v>
       </c>
       <c r="E246" s="16">
-        <f t="shared" ref="E246:E302" si="108">A246^2.9</f>
+        <f t="shared" ref="E246:E309" si="108">A246^2.9</f>
         <v>8383598.9844874209</v>
       </c>
       <c r="F246" s="16">
@@ -21826,7 +21826,7 @@
         <v>9.5080569659300096E+16</v>
       </c>
       <c r="H258" s="16">
-        <f t="shared" ref="H258:H302" si="110">A258^2.14+50+50*A258</f>
+        <f t="shared" ref="H258:H321" si="110">A258^2.14+50+50*A258</f>
         <v>155290.51190101565</v>
       </c>
       <c r="I258" s="16">
@@ -23198,7 +23198,7 @@
         <v>179824.41735248058</v>
       </c>
       <c r="I277" s="16">
-        <f t="shared" ref="I277:I302" si="112">A277^6.018+A277^4+1000*A277+100</f>
+        <f t="shared" ref="I277:I340" si="112">A277^6.018+A277^4+1000*A277+100</f>
         <v>478530190022234.25</v>
       </c>
       <c r="J277" s="16">
@@ -23982,7 +23982,7 @@
         <v>5</v>
       </c>
       <c r="G288" s="18">
-        <f t="shared" ref="G288:G302" si="113">A288^7.07+A288^4+100*A288+100</f>
+        <f t="shared" ref="G288:G351" si="113">A288^7.07+A288^4+100*A288+100</f>
         <v>2.3254546082801091E+17</v>
       </c>
       <c r="H288" s="16">
@@ -25041,6 +25041,7206 @@
         <v>195</v>
       </c>
       <c r="W302" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A303" s="21">
+        <v>301</v>
+      </c>
+      <c r="B303" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C303" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E303" s="16">
+        <f t="shared" si="108"/>
+        <v>15411426.422940711</v>
+      </c>
+      <c r="F303" s="16">
+        <v>5</v>
+      </c>
+      <c r="G303" s="18">
+        <f t="shared" si="113"/>
+        <v>3.337837076959271E+17</v>
+      </c>
+      <c r="H303" s="16">
+        <f t="shared" si="110"/>
+        <v>216533.77908183335</v>
+      </c>
+      <c r="I303" s="16">
+        <f t="shared" si="112"/>
+        <v>824171317178238.5</v>
+      </c>
+      <c r="J303" s="16">
+        <v>1</v>
+      </c>
+      <c r="K303" s="16">
+        <v>11</v>
+      </c>
+      <c r="L303" s="16">
+        <v>5</v>
+      </c>
+      <c r="M303" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N303" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O303" s="16">
+        <v>30</v>
+      </c>
+      <c r="P303" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q303" s="16">
+        <v>0</v>
+      </c>
+      <c r="R303" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S303" s="16">
+        <v>53.107142857146499</v>
+      </c>
+      <c r="T303" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U303" s="18">
+        <v>400</v>
+      </c>
+      <c r="V303" s="16">
+        <v>197</v>
+      </c>
+      <c r="W303" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A304" s="19">
+        <v>302</v>
+      </c>
+      <c r="B304" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C304" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E304" s="16">
+        <f t="shared" si="108"/>
+        <v>15560377.702929765</v>
+      </c>
+      <c r="F304" s="16">
+        <v>5</v>
+      </c>
+      <c r="G304" s="18">
+        <f t="shared" si="113"/>
+        <v>3.4170324040831488E+17</v>
+      </c>
+      <c r="H304" s="16">
+        <f t="shared" si="110"/>
+        <v>218018.61204668743</v>
+      </c>
+      <c r="I304" s="16">
+        <f t="shared" si="112"/>
+        <v>840787176880942.5</v>
+      </c>
+      <c r="J304" s="16">
+        <v>1</v>
+      </c>
+      <c r="K304" s="16">
+        <v>11</v>
+      </c>
+      <c r="L304" s="16">
+        <v>5</v>
+      </c>
+      <c r="M304" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N304" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O304" s="16">
+        <v>30</v>
+      </c>
+      <c r="P304" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q304" s="16">
+        <v>0</v>
+      </c>
+      <c r="R304" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S304" s="16">
+        <v>53.428571428575097</v>
+      </c>
+      <c r="T304" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U304" s="18">
+        <v>404</v>
+      </c>
+      <c r="V304" s="16">
+        <v>199</v>
+      </c>
+      <c r="W304" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A305" s="15">
+        <v>303</v>
+      </c>
+      <c r="B305" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C305" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E305" s="16">
+        <f t="shared" si="108"/>
+        <v>15710269.047763498</v>
+      </c>
+      <c r="F305" s="16">
+        <v>5</v>
+      </c>
+      <c r="G305" s="18">
+        <f t="shared" si="113"/>
+        <v>3.497835603297687E+17</v>
+      </c>
+      <c r="H305" s="16">
+        <f t="shared" si="110"/>
+        <v>219508.87150831209</v>
+      </c>
+      <c r="I305" s="16">
+        <f t="shared" si="112"/>
+        <v>857681428907614.88</v>
+      </c>
+      <c r="J305" s="16">
+        <v>1</v>
+      </c>
+      <c r="K305" s="16">
+        <v>11</v>
+      </c>
+      <c r="L305" s="16">
+        <v>5</v>
+      </c>
+      <c r="M305" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N305" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O305" s="16">
+        <v>30</v>
+      </c>
+      <c r="P305" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q305" s="16">
+        <v>0</v>
+      </c>
+      <c r="R305" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S305" s="16">
+        <v>53.750000000003702</v>
+      </c>
+      <c r="T305" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U305" s="18">
+        <v>408</v>
+      </c>
+      <c r="V305" s="16">
+        <v>201</v>
+      </c>
+      <c r="W305" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A306" s="19">
+        <v>304</v>
+      </c>
+      <c r="B306" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E306" s="16">
+        <f t="shared" si="108"/>
+        <v>15861103.258496903</v>
+      </c>
+      <c r="F306" s="16">
+        <v>5</v>
+      </c>
+      <c r="G306" s="18">
+        <f t="shared" si="113"/>
+        <v>3.5802738499919795E+17</v>
+      </c>
+      <c r="H306" s="16">
+        <f t="shared" si="110"/>
+        <v>221004.55997873234</v>
+      </c>
+      <c r="I306" s="16">
+        <f t="shared" si="112"/>
+        <v>874857795687300.25</v>
+      </c>
+      <c r="J306" s="16">
+        <v>1</v>
+      </c>
+      <c r="K306" s="16">
+        <v>11</v>
+      </c>
+      <c r="L306" s="16">
+        <v>5</v>
+      </c>
+      <c r="M306" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N306" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O306" s="16">
+        <v>30</v>
+      </c>
+      <c r="P306" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q306" s="16">
+        <v>0</v>
+      </c>
+      <c r="R306" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S306" s="16">
+        <v>54.0714285714323</v>
+      </c>
+      <c r="T306" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U306" s="18">
+        <v>412</v>
+      </c>
+      <c r="V306" s="16">
+        <v>203</v>
+      </c>
+      <c r="W306" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A307" s="15">
+        <v>305</v>
+      </c>
+      <c r="B307" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C307" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E307" s="16">
+        <f t="shared" si="108"/>
+        <v>16012883.135260664</v>
+      </c>
+      <c r="F307" s="16">
+        <v>5</v>
+      </c>
+      <c r="G307" s="18">
+        <f t="shared" si="113"/>
+        <v>3.6643746870440454E+17</v>
+      </c>
+      <c r="H307" s="16">
+        <f t="shared" si="110"/>
+        <v>222505.67996285154</v>
+      </c>
+      <c r="I307" s="16">
+        <f t="shared" si="112"/>
+        <v>892320036910932.88</v>
+      </c>
+      <c r="J307" s="16">
+        <v>1</v>
+      </c>
+      <c r="K307" s="16">
+        <v>11</v>
+      </c>
+      <c r="L307" s="16">
+        <v>5</v>
+      </c>
+      <c r="M307" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N307" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O307" s="16">
+        <v>30</v>
+      </c>
+      <c r="P307" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q307" s="16">
+        <v>0</v>
+      </c>
+      <c r="R307" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S307" s="16">
+        <v>54.392857142860898</v>
+      </c>
+      <c r="T307" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U307" s="18">
+        <v>416</v>
+      </c>
+      <c r="V307" s="16">
+        <v>205</v>
+      </c>
+      <c r="W307" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A308" s="19">
+        <v>306</v>
+      </c>
+      <c r="B308" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C308" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E308" s="16">
+        <f t="shared" si="108"/>
+        <v>16165611.477264496</v>
+      </c>
+      <c r="F308" s="16">
+        <v>5</v>
+      </c>
+      <c r="G308" s="18">
+        <f t="shared" si="113"/>
+        <v>3.7501660285571123E+17</v>
+      </c>
+      <c r="H308" s="16">
+        <f t="shared" si="110"/>
+        <v>224012.23395849785</v>
+      </c>
+      <c r="I308" s="16">
+        <f t="shared" si="112"/>
+        <v>910071949779947.25</v>
+      </c>
+      <c r="J308" s="16">
+        <v>1</v>
+      </c>
+      <c r="K308" s="16">
+        <v>11</v>
+      </c>
+      <c r="L308" s="16">
+        <v>5</v>
+      </c>
+      <c r="M308" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N308" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O308" s="16">
+        <v>30</v>
+      </c>
+      <c r="P308" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q308" s="16">
+        <v>0</v>
+      </c>
+      <c r="R308" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S308" s="16">
+        <v>54.714285714289502</v>
+      </c>
+      <c r="T308" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U308" s="18">
+        <v>420</v>
+      </c>
+      <c r="V308" s="16">
+        <v>207</v>
+      </c>
+      <c r="W308" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A309" s="15">
+        <v>307</v>
+      </c>
+      <c r="B309" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C309" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E309" s="16">
+        <f t="shared" si="108"/>
+        <v>16319291.082800625</v>
+      </c>
+      <c r="F309" s="16">
+        <v>5</v>
+      </c>
+      <c r="G309" s="18">
+        <f t="shared" si="113"/>
+        <v>3.8376761636211053E+17</v>
+      </c>
+      <c r="H309" s="16">
+        <f t="shared" si="110"/>
+        <v>225524.22445646601</v>
+      </c>
+      <c r="I309" s="16">
+        <f t="shared" si="112"/>
+        <v>928117369255706.13</v>
+      </c>
+      <c r="J309" s="16">
+        <v>1</v>
+      </c>
+      <c r="K309" s="16">
+        <v>11</v>
+      </c>
+      <c r="L309" s="16">
+        <v>5</v>
+      </c>
+      <c r="M309" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N309" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O309" s="16">
+        <v>30</v>
+      </c>
+      <c r="P309" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q309" s="16">
+        <v>0</v>
+      </c>
+      <c r="R309" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S309" s="16">
+        <v>55.0357142857181</v>
+      </c>
+      <c r="T309" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U309" s="18">
+        <v>424</v>
+      </c>
+      <c r="V309" s="16">
+        <v>209</v>
+      </c>
+      <c r="W309" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A310" s="15">
+        <v>308</v>
+      </c>
+      <c r="B310" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C310" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E310" s="16">
+        <f t="shared" ref="E310:E373" si="114">A310^2.9</f>
+        <v>16473924.749246776</v>
+      </c>
+      <c r="F310" s="16">
+        <v>5</v>
+      </c>
+      <c r="G310" s="18">
+        <f t="shared" si="113"/>
+        <v>3.9269337600999782E+17</v>
+      </c>
+      <c r="H310" s="16">
+        <f t="shared" si="110"/>
+        <v>227041.65394056009</v>
+      </c>
+      <c r="I310" s="16">
+        <f t="shared" si="112"/>
+        <v>946460168309710.88</v>
+      </c>
+      <c r="J310" s="16">
+        <v>1</v>
+      </c>
+      <c r="K310" s="16">
+        <v>11</v>
+      </c>
+      <c r="L310" s="16">
+        <v>5</v>
+      </c>
+      <c r="M310" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N310" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O310" s="16">
+        <v>30</v>
+      </c>
+      <c r="P310" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q310" s="16">
+        <v>0</v>
+      </c>
+      <c r="R310" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S310" s="16">
+        <v>55.357142857146698</v>
+      </c>
+      <c r="T310" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U310" s="18">
+        <v>428</v>
+      </c>
+      <c r="V310" s="16">
+        <v>211</v>
+      </c>
+      <c r="W310" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A311" s="19">
+        <v>309</v>
+      </c>
+      <c r="B311" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C311" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E311" s="16">
+        <f t="shared" si="114"/>
+        <v>16629515.273069788</v>
+      </c>
+      <c r="F311" s="16">
+        <v>5</v>
+      </c>
+      <c r="G311" s="18">
+        <f t="shared" si="113"/>
+        <v>4.0179678684446848E+17</v>
+      </c>
+      <c r="H311" s="16">
+        <f t="shared" si="110"/>
+        <v>228564.52488763735</v>
+      </c>
+      <c r="I311" s="16">
+        <f t="shared" si="112"/>
+        <v>965104258174721.75</v>
+      </c>
+      <c r="J311" s="16">
+        <v>1</v>
+      </c>
+      <c r="K311" s="16">
+        <v>11</v>
+      </c>
+      <c r="L311" s="16">
+        <v>5</v>
+      </c>
+      <c r="M311" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N311" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O311" s="16">
+        <v>30</v>
+      </c>
+      <c r="P311" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q311" s="16">
+        <v>0</v>
+      </c>
+      <c r="R311" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S311" s="16">
+        <v>55.678571428575303</v>
+      </c>
+      <c r="T311" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U311" s="18">
+        <v>432</v>
+      </c>
+      <c r="V311" s="16">
+        <v>213</v>
+      </c>
+      <c r="W311" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A312" s="15">
+        <v>310</v>
+      </c>
+      <c r="B312" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C312" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E312" s="16">
+        <f t="shared" si="114"/>
+        <v>16786065.449828446</v>
+      </c>
+      <c r="F312" s="16">
+        <v>5</v>
+      </c>
+      <c r="G312" s="18">
+        <f t="shared" si="113"/>
+        <v>4.1108079255317357E+17</v>
+      </c>
+      <c r="H312" s="16">
+        <f t="shared" si="110"/>
+        <v>230092.83976764628</v>
+      </c>
+      <c r="I312" s="16">
+        <f t="shared" si="112"/>
+        <v>984053588596650.5</v>
+      </c>
+      <c r="J312" s="16">
+        <v>1</v>
+      </c>
+      <c r="K312" s="16">
+        <v>11</v>
+      </c>
+      <c r="L312" s="16">
+        <v>5</v>
+      </c>
+      <c r="M312" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N312" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O312" s="16">
+        <v>30</v>
+      </c>
+      <c r="P312" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q312" s="16">
+        <v>0</v>
+      </c>
+      <c r="R312" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S312" s="16">
+        <v>56.000000000003901</v>
+      </c>
+      <c r="T312" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U312" s="18">
+        <v>436</v>
+      </c>
+      <c r="V312" s="16">
+        <v>215</v>
+      </c>
+      <c r="W312" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A313" s="19">
+        <v>311</v>
+      </c>
+      <c r="B313" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C313" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E313" s="16">
+        <f t="shared" si="114"/>
+        <v>16943578.074177232</v>
+      </c>
+      <c r="F313" s="16">
+        <v>5</v>
+      </c>
+      <c r="G313" s="18">
+        <f t="shared" si="113"/>
+        <v>4.2054837585282029E+17</v>
+      </c>
+      <c r="H313" s="16">
+        <f t="shared" si="110"/>
+        <v>231626.60104367239</v>
+      </c>
+      <c r="I313" s="16">
+        <f t="shared" si="112"/>
+        <v>1003312148087333</v>
+      </c>
+      <c r="J313" s="16">
+        <v>1</v>
+      </c>
+      <c r="K313" s="16">
+        <v>11</v>
+      </c>
+      <c r="L313" s="16">
+        <v>5</v>
+      </c>
+      <c r="M313" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N313" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O313" s="16">
+        <v>30</v>
+      </c>
+      <c r="P313" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q313" s="16">
+        <v>0</v>
+      </c>
+      <c r="R313" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S313" s="16">
+        <v>56.321428571432499</v>
+      </c>
+      <c r="T313" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U313" s="18">
+        <v>440</v>
+      </c>
+      <c r="V313" s="16">
+        <v>217</v>
+      </c>
+      <c r="W313" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A314" s="15">
+        <v>312</v>
+      </c>
+      <c r="B314" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C314" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E314" s="16">
+        <f t="shared" si="114"/>
+        <v>17102055.93986918</v>
+      </c>
+      <c r="F314" s="16">
+        <v>5</v>
+      </c>
+      <c r="G314" s="18">
+        <f t="shared" si="113"/>
+        <v>4.3020255887820634E+17</v>
+      </c>
+      <c r="H314" s="16">
+        <f t="shared" si="110"/>
+        <v>233165.81117197749</v>
+      </c>
+      <c r="I314" s="16">
+        <f t="shared" si="112"/>
+        <v>1022883964178115.9</v>
+      </c>
+      <c r="J314" s="16">
+        <v>1</v>
+      </c>
+      <c r="K314" s="16">
+        <v>11</v>
+      </c>
+      <c r="L314" s="16">
+        <v>5</v>
+      </c>
+      <c r="M314" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N314" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O314" s="16">
+        <v>30</v>
+      </c>
+      <c r="P314" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q314" s="16">
+        <v>0</v>
+      </c>
+      <c r="R314" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S314" s="16">
+        <v>56.642857142861097</v>
+      </c>
+      <c r="T314" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U314" s="18">
+        <v>444</v>
+      </c>
+      <c r="V314" s="16">
+        <v>219</v>
+      </c>
+      <c r="W314" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A315" s="19">
+        <v>313</v>
+      </c>
+      <c r="B315" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C315" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E315" s="16">
+        <f t="shared" si="114"/>
+        <v>17261501.839759044</v>
+      </c>
+      <c r="F315" s="16">
+        <v>5</v>
+      </c>
+      <c r="G315" s="18">
+        <f t="shared" si="113"/>
+        <v>4.4004640357388544E+17</v>
+      </c>
+      <c r="H315" s="16">
+        <f t="shared" si="110"/>
+        <v>234710.47260203911</v>
+      </c>
+      <c r="I315" s="16">
+        <f t="shared" si="112"/>
+        <v>1042773103674236.8</v>
+      </c>
+      <c r="J315" s="16">
+        <v>1</v>
+      </c>
+      <c r="K315" s="16">
+        <v>11</v>
+      </c>
+      <c r="L315" s="16">
+        <v>5</v>
+      </c>
+      <c r="M315" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N315" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O315" s="16">
+        <v>30</v>
+      </c>
+      <c r="P315" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q315" s="16">
+        <v>0</v>
+      </c>
+      <c r="R315" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S315" s="16">
+        <v>56.964285714289701</v>
+      </c>
+      <c r="T315" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U315" s="18">
+        <v>448</v>
+      </c>
+      <c r="V315" s="16">
+        <v>221</v>
+      </c>
+      <c r="W315" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A316" s="15">
+        <v>314</v>
+      </c>
+      <c r="B316" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C316" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E316" s="16">
+        <f t="shared" si="114"/>
+        <v>17421918.565806821</v>
+      </c>
+      <c r="F316" s="16">
+        <v>5</v>
+      </c>
+      <c r="G316" s="18">
+        <f t="shared" si="113"/>
+        <v>4.5008301208847878E+17</v>
+      </c>
+      <c r="H316" s="16">
+        <f t="shared" si="110"/>
+        <v>236260.58777659386</v>
+      </c>
+      <c r="I316" s="16">
+        <f t="shared" si="112"/>
+        <v>1062983672910148.5</v>
+      </c>
+      <c r="J316" s="16">
+        <v>1</v>
+      </c>
+      <c r="K316" s="16">
+        <v>11</v>
+      </c>
+      <c r="L316" s="16">
+        <v>5</v>
+      </c>
+      <c r="M316" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N316" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O316" s="16">
+        <v>30</v>
+      </c>
+      <c r="P316" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q316" s="16">
+        <v>0</v>
+      </c>
+      <c r="R316" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S316" s="16">
+        <v>57.285714285718299</v>
+      </c>
+      <c r="T316" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U316" s="18">
+        <v>452</v>
+      </c>
+      <c r="V316" s="16">
+        <v>223</v>
+      </c>
+      <c r="W316" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A317" s="15">
+        <v>315</v>
+      </c>
+      <c r="B317" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C317" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E317" s="16">
+        <f t="shared" si="114"/>
+        <v>17583308.909080397</v>
+      </c>
+      <c r="F317" s="16">
+        <v>5</v>
+      </c>
+      <c r="G317" s="18">
+        <f t="shared" si="113"/>
+        <v>4.6031552717154867E+17</v>
+      </c>
+      <c r="H317" s="16">
+        <f t="shared" si="110"/>
+        <v>237816.15913167549</v>
+      </c>
+      <c r="I317" s="16">
+        <f t="shared" si="112"/>
+        <v>1083519818005543.3</v>
+      </c>
+      <c r="J317" s="16">
+        <v>1</v>
+      </c>
+      <c r="K317" s="16">
+        <v>11</v>
+      </c>
+      <c r="L317" s="16">
+        <v>5</v>
+      </c>
+      <c r="M317" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N317" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O317" s="16">
+        <v>30</v>
+      </c>
+      <c r="P317" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q317" s="16">
+        <v>0</v>
+      </c>
+      <c r="R317" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S317" s="16">
+        <v>57.607142857146897</v>
+      </c>
+      <c r="T317" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U317" s="18">
+        <v>456</v>
+      </c>
+      <c r="V317" s="16">
+        <v>225</v>
+      </c>
+      <c r="W317" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A318" s="19">
+        <v>316</v>
+      </c>
+      <c r="B318" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C318" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E318" s="16">
+        <f t="shared" si="114"/>
+        <v>17745675.659759015</v>
+      </c>
+      <c r="F318" s="16">
+        <v>5</v>
+      </c>
+      <c r="G318" s="18">
+        <f t="shared" si="113"/>
+        <v>4.7074713257317018E+17</v>
+      </c>
+      <c r="H318" s="16">
+        <f t="shared" si="110"/>
+        <v>239377.18909665427</v>
+      </c>
+      <c r="I318" s="16">
+        <f t="shared" si="112"/>
+        <v>1104385725122311.8</v>
+      </c>
+      <c r="J318" s="16">
+        <v>1</v>
+      </c>
+      <c r="K318" s="16">
+        <v>11</v>
+      </c>
+      <c r="L318" s="16">
+        <v>5</v>
+      </c>
+      <c r="M318" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N318" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O318" s="16">
+        <v>30</v>
+      </c>
+      <c r="P318" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q318" s="16">
+        <v>0</v>
+      </c>
+      <c r="R318" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S318" s="16">
+        <v>57.928571428575502</v>
+      </c>
+      <c r="T318" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U318" s="18">
+        <v>460</v>
+      </c>
+      <c r="V318" s="16">
+        <v>227</v>
+      </c>
+      <c r="W318" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A319" s="15">
+        <v>317</v>
+      </c>
+      <c r="B319" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C319" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E319" s="16">
+        <f t="shared" si="114"/>
+        <v>17909021.607136242</v>
+      </c>
+      <c r="F319" s="16">
+        <v>5</v>
+      </c>
+      <c r="G319" s="18">
+        <f t="shared" si="113"/>
+        <v>4.8138105344609786E+17</v>
+      </c>
+      <c r="H319" s="16">
+        <f t="shared" si="110"/>
+        <v>240943.6800942769</v>
+      </c>
+      <c r="I319" s="16">
+        <f t="shared" si="112"/>
+        <v>1125585620722286.6</v>
+      </c>
+      <c r="J319" s="16">
+        <v>1</v>
+      </c>
+      <c r="K319" s="16">
+        <v>11</v>
+      </c>
+      <c r="L319" s="16">
+        <v>5</v>
+      </c>
+      <c r="M319" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N319" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O319" s="16">
+        <v>30</v>
+      </c>
+      <c r="P319" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q319" s="16">
+        <v>0</v>
+      </c>
+      <c r="R319" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S319" s="16">
+        <v>58.2500000000041</v>
+      </c>
+      <c r="T319" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U319" s="18">
+        <v>464</v>
+      </c>
+      <c r="V319" s="16">
+        <v>229</v>
+      </c>
+      <c r="W319" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A320" s="19">
+        <v>318</v>
+      </c>
+      <c r="B320" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C320" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E320" s="16">
+        <f t="shared" si="114"/>
+        <v>18073349.539623208</v>
+      </c>
+      <c r="F320" s="16">
+        <v>5</v>
+      </c>
+      <c r="G320" s="18">
+        <f t="shared" si="113"/>
+        <v>4.9222055675060966E+17</v>
+      </c>
+      <c r="H320" s="16">
+        <f t="shared" si="110"/>
+        <v>242515.63454070661</v>
+      </c>
+      <c r="I320" s="16">
+        <f t="shared" si="112"/>
+        <v>1147123771825851.8</v>
+      </c>
+      <c r="J320" s="16">
+        <v>1</v>
+      </c>
+      <c r="K320" s="16">
+        <v>11</v>
+      </c>
+      <c r="L320" s="16">
+        <v>5</v>
+      </c>
+      <c r="M320" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N320" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O320" s="16">
+        <v>30</v>
+      </c>
+      <c r="P320" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q320" s="16">
+        <v>0</v>
+      </c>
+      <c r="R320" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S320" s="16">
+        <v>58.571428571432698</v>
+      </c>
+      <c r="T320" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U320" s="18">
+        <v>468</v>
+      </c>
+      <c r="V320" s="16">
+        <v>231</v>
+      </c>
+      <c r="W320" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A321" s="15">
+        <v>319</v>
+      </c>
+      <c r="B321" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C321" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E321" s="16">
+        <f t="shared" si="114"/>
+        <v>18238662.24475145</v>
+      </c>
+      <c r="F321" s="16">
+        <v>5</v>
+      </c>
+      <c r="G321" s="18">
+        <f t="shared" si="113"/>
+        <v>5.032689516620016E+17</v>
+      </c>
+      <c r="H321" s="16">
+        <f t="shared" si="110"/>
+        <v>244093.05484555947</v>
+      </c>
+      <c r="I321" s="16">
+        <f t="shared" si="112"/>
+        <v>1169004486271328.8</v>
+      </c>
+      <c r="J321" s="16">
+        <v>1</v>
+      </c>
+      <c r="K321" s="16">
+        <v>11</v>
+      </c>
+      <c r="L321" s="16">
+        <v>5</v>
+      </c>
+      <c r="M321" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N321" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O321" s="16">
+        <v>30</v>
+      </c>
+      <c r="P321" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q321" s="16">
+        <v>0</v>
+      </c>
+      <c r="R321" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S321" s="16">
+        <v>58.892857142861303</v>
+      </c>
+      <c r="T321" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U321" s="18">
+        <v>472</v>
+      </c>
+      <c r="V321" s="16">
+        <v>233</v>
+      </c>
+      <c r="W321" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A322" s="19">
+        <v>320</v>
+      </c>
+      <c r="B322" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C322" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E322" s="16">
+        <f t="shared" si="114"/>
+        <v>18404962.509176135</v>
+      </c>
+      <c r="F322" s="16">
+        <v>5</v>
+      </c>
+      <c r="G322" s="18">
+        <f t="shared" si="113"/>
+        <v>5.1452958998075821E+17</v>
+      </c>
+      <c r="H322" s="16">
+        <f t="shared" ref="H322:H385" si="115">A322^2.14+50+50*A322</f>
+        <v>245675.94341194426</v>
+      </c>
+      <c r="I322" s="16">
+        <f t="shared" si="112"/>
+        <v>1191232112975291.3</v>
+      </c>
+      <c r="J322" s="16">
+        <v>1</v>
+      </c>
+      <c r="K322" s="16">
+        <v>11</v>
+      </c>
+      <c r="L322" s="16">
+        <v>5</v>
+      </c>
+      <c r="M322" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N322" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O322" s="16">
+        <v>30</v>
+      </c>
+      <c r="P322" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q322" s="16">
+        <v>0</v>
+      </c>
+      <c r="R322" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S322" s="16">
+        <v>59.2142857142899</v>
+      </c>
+      <c r="T322" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U322" s="18">
+        <v>476</v>
+      </c>
+      <c r="V322" s="16">
+        <v>235</v>
+      </c>
+      <c r="W322" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A323" s="15">
+        <v>321</v>
+      </c>
+      <c r="B323" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C323" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E323" s="16">
+        <f t="shared" si="114"/>
+        <v>18572253.118678909</v>
+      </c>
+      <c r="F323" s="16">
+        <v>5</v>
+      </c>
+      <c r="G323" s="18">
+        <f t="shared" si="113"/>
+        <v>5.2600586654538874E+17</v>
+      </c>
+      <c r="H323" s="16">
+        <f t="shared" si="115"/>
+        <v>247264.30263649949</v>
+      </c>
+      <c r="I323" s="16">
+        <f t="shared" si="112"/>
+        <v>1213811042193606.3</v>
+      </c>
+      <c r="J323" s="16">
+        <v>1</v>
+      </c>
+      <c r="K323" s="16">
+        <v>11</v>
+      </c>
+      <c r="L323" s="16">
+        <v>5</v>
+      </c>
+      <c r="M323" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N323" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O323" s="16">
+        <v>30</v>
+      </c>
+      <c r="P323" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q323" s="16">
+        <v>0</v>
+      </c>
+      <c r="R323" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S323" s="16">
+        <v>59.535714285718498</v>
+      </c>
+      <c r="T323" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U323" s="18">
+        <v>480</v>
+      </c>
+      <c r="V323" s="16">
+        <v>237</v>
+      </c>
+      <c r="W323" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A324" s="15">
+        <v>322</v>
+      </c>
+      <c r="B324" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C324" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E324" s="16">
+        <f t="shared" si="114"/>
+        <v>18740536.858171053</v>
+      </c>
+      <c r="F324" s="16">
+        <v>5</v>
+      </c>
+      <c r="G324" s="18">
+        <f t="shared" si="113"/>
+        <v>5.3770121964796992E+17</v>
+      </c>
+      <c r="H324" s="16">
+        <f t="shared" si="115"/>
+        <v>248858.13490943145</v>
+      </c>
+      <c r="I324" s="16">
+        <f t="shared" si="112"/>
+        <v>1236745705783407.8</v>
+      </c>
+      <c r="J324" s="16">
+        <v>1</v>
+      </c>
+      <c r="K324" s="16">
+        <v>11</v>
+      </c>
+      <c r="L324" s="16">
+        <v>5</v>
+      </c>
+      <c r="M324" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N324" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O324" s="16">
+        <v>30</v>
+      </c>
+      <c r="P324" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q324" s="16">
+        <v>0</v>
+      </c>
+      <c r="R324" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S324" s="16">
+        <v>59.857142857146997</v>
+      </c>
+      <c r="T324" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U324" s="18">
+        <v>484</v>
+      </c>
+      <c r="V324" s="16">
+        <v>239</v>
+      </c>
+      <c r="W324" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A325" s="19">
+        <v>323</v>
+      </c>
+      <c r="B325" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C325" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E325" s="16">
+        <f t="shared" si="114"/>
+        <v>18909816.511696447</v>
+      </c>
+      <c r="F325" s="16">
+        <v>5</v>
+      </c>
+      <c r="G325" s="18">
+        <f t="shared" si="113"/>
+        <v>5.4961913145236902E+17</v>
+      </c>
+      <c r="H325" s="16">
+        <f t="shared" si="115"/>
+        <v>250457.44261455155</v>
+      </c>
+      <c r="I325" s="16">
+        <f t="shared" si="112"/>
+        <v>1260040577465834</v>
+      </c>
+      <c r="J325" s="16">
+        <v>1</v>
+      </c>
+      <c r="K325" s="16">
+        <v>11</v>
+      </c>
+      <c r="L325" s="16">
+        <v>5</v>
+      </c>
+      <c r="M325" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N325" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O325" s="16">
+        <v>30</v>
+      </c>
+      <c r="P325" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q325" s="16">
+        <v>0</v>
+      </c>
+      <c r="R325" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S325" s="16">
+        <v>60.178571428575601</v>
+      </c>
+      <c r="T325" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U325" s="18">
+        <v>488</v>
+      </c>
+      <c r="V325" s="16">
+        <v>241</v>
+      </c>
+      <c r="W325" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A326" s="15">
+        <v>324</v>
+      </c>
+      <c r="B326" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E326" s="16">
+        <f t="shared" si="114"/>
+        <v>19080094.862434316</v>
+      </c>
+      <c r="F326" s="16">
+        <v>5</v>
+      </c>
+      <c r="G326" s="18">
+        <f t="shared" si="113"/>
+        <v>5.6176312841518662E+17</v>
+      </c>
+      <c r="H326" s="16">
+        <f t="shared" si="115"/>
+        <v>252062.22812931216</v>
+      </c>
+      <c r="I326" s="16">
+        <f t="shared" si="112"/>
+        <v>1283700173089650</v>
+      </c>
+      <c r="J326" s="16">
+        <v>1</v>
+      </c>
+      <c r="K326" s="16">
+        <v>11</v>
+      </c>
+      <c r="L326" s="16">
+        <v>5</v>
+      </c>
+      <c r="M326" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N326" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O326" s="16">
+        <v>30</v>
+      </c>
+      <c r="P326" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q326" s="16">
+        <v>0</v>
+      </c>
+      <c r="R326" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S326" s="16">
+        <v>60.500000000004199</v>
+      </c>
+      <c r="T326" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U326" s="18">
+        <v>492</v>
+      </c>
+      <c r="V326" s="16">
+        <v>243</v>
+      </c>
+      <c r="W326" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A327" s="19">
+        <v>325</v>
+      </c>
+      <c r="B327" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C327" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E327" s="16">
+        <f t="shared" si="114"/>
+        <v>19251374.69270267</v>
+      </c>
+      <c r="F327" s="16">
+        <v>5</v>
+      </c>
+      <c r="G327" s="18">
+        <f t="shared" si="113"/>
+        <v>5.7413678170940109E+17</v>
+      </c>
+      <c r="H327" s="16">
+        <f t="shared" si="115"/>
+        <v>253672.49382484608</v>
+      </c>
+      <c r="I327" s="16">
+        <f t="shared" si="112"/>
+        <v>1307729050895635.5</v>
+      </c>
+      <c r="J327" s="16">
+        <v>1</v>
+      </c>
+      <c r="K327" s="16">
+        <v>11</v>
+      </c>
+      <c r="L327" s="16">
+        <v>5</v>
+      </c>
+      <c r="M327" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N327" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O327" s="16">
+        <v>30</v>
+      </c>
+      <c r="P327" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q327" s="16">
+        <v>0</v>
+      </c>
+      <c r="R327" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S327" s="16">
+        <v>60.821428571432797</v>
+      </c>
+      <c r="T327" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U327" s="18">
+        <v>496</v>
+      </c>
+      <c r="V327" s="16">
+        <v>245</v>
+      </c>
+      <c r="W327" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A328" s="15">
+        <v>326</v>
+      </c>
+      <c r="B328" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C328" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E328" s="16">
+        <f t="shared" si="114"/>
+        <v>19423658.783960566</v>
+      </c>
+      <c r="F328" s="16">
+        <v>5</v>
+      </c>
+      <c r="G328" s="18">
+        <f t="shared" si="113"/>
+        <v>5.867437076507392E+17</v>
+      </c>
+      <c r="H328" s="16">
+        <f t="shared" si="115"/>
+        <v>255288.24206599753</v>
+      </c>
+      <c r="I328" s="16">
+        <f t="shared" si="112"/>
+        <v>1332131811781921.3</v>
+      </c>
+      <c r="J328" s="16">
+        <v>1</v>
+      </c>
+      <c r="K328" s="16">
+        <v>11</v>
+      </c>
+      <c r="L328" s="16">
+        <v>5</v>
+      </c>
+      <c r="M328" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N328" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O328" s="16">
+        <v>30</v>
+      </c>
+      <c r="P328" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q328" s="16">
+        <v>0</v>
+      </c>
+      <c r="R328" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S328" s="16">
+        <v>61.142857142861402</v>
+      </c>
+      <c r="T328" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U328" s="18">
+        <v>500</v>
+      </c>
+      <c r="V328" s="16">
+        <v>247</v>
+      </c>
+      <c r="W328" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A329" s="19">
+        <v>327</v>
+      </c>
+      <c r="B329" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C329" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E329" s="16">
+        <f t="shared" si="114"/>
+        <v>19596949.916811533</v>
+      </c>
+      <c r="F329" s="16">
+        <v>5</v>
+      </c>
+      <c r="G329" s="18">
+        <f t="shared" si="113"/>
+        <v>5.9958756812679462E+17</v>
+      </c>
+      <c r="H329" s="16">
+        <f t="shared" si="115"/>
+        <v>256909.47521136413</v>
+      </c>
+      <c r="I329" s="16">
+        <f t="shared" si="112"/>
+        <v>1356913099570020</v>
+      </c>
+      <c r="J329" s="16">
+        <v>1</v>
+      </c>
+      <c r="K329" s="16">
+        <v>11</v>
+      </c>
+      <c r="L329" s="16">
+        <v>5</v>
+      </c>
+      <c r="M329" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N329" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O329" s="16">
+        <v>30</v>
+      </c>
+      <c r="P329" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q329" s="16">
+        <v>0</v>
+      </c>
+      <c r="R329" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S329" s="16">
+        <v>61.46428571429</v>
+      </c>
+      <c r="T329" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U329" s="18">
+        <v>504</v>
+      </c>
+      <c r="V329" s="16">
+        <v>249</v>
+      </c>
+      <c r="W329" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A330" s="15">
+        <v>328</v>
+      </c>
+      <c r="B330" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C330" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E330" s="16">
+        <f t="shared" si="114"/>
+        <v>19771250.871006291</v>
+      </c>
+      <c r="F330" s="16">
+        <v>5</v>
+      </c>
+      <c r="G330" s="18">
+        <f t="shared" si="113"/>
+        <v>6.1267207102885914E+17</v>
+      </c>
+      <c r="H330" s="16">
+        <f t="shared" si="115"/>
+        <v>258536.19561332781</v>
+      </c>
+      <c r="I330" s="16">
+        <f t="shared" si="112"/>
+        <v>1382077601271826.8</v>
+      </c>
+      <c r="J330" s="16">
+        <v>1</v>
+      </c>
+      <c r="K330" s="16">
+        <v>11</v>
+      </c>
+      <c r="L330" s="16">
+        <v>5</v>
+      </c>
+      <c r="M330" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N330" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O330" s="16">
+        <v>30</v>
+      </c>
+      <c r="P330" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q330" s="16">
+        <v>0</v>
+      </c>
+      <c r="R330" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S330" s="16">
+        <v>61.785714285718598</v>
+      </c>
+      <c r="T330" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U330" s="18">
+        <v>508</v>
+      </c>
+      <c r="V330" s="16">
+        <v>251</v>
+      </c>
+      <c r="W330" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A331" s="15">
+        <v>329</v>
+      </c>
+      <c r="B331" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C331" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E331" s="16">
+        <f t="shared" si="114"/>
+        <v>19946564.425445512</v>
+      </c>
+      <c r="F331" s="16">
+        <v>5</v>
+      </c>
+      <c r="G331" s="18">
+        <f t="shared" si="113"/>
+        <v>6.2600097068653184E+17</v>
+      </c>
+      <c r="H331" s="16">
+        <f t="shared" si="115"/>
+        <v>260168.40561809164</v>
+      </c>
+      <c r="I331" s="16">
+        <f t="shared" si="112"/>
+        <v>1407630047357325.3</v>
+      </c>
+      <c r="J331" s="16">
+        <v>1</v>
+      </c>
+      <c r="K331" s="16">
+        <v>11</v>
+      </c>
+      <c r="L331" s="16">
+        <v>5</v>
+      </c>
+      <c r="M331" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N331" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O331" s="16">
+        <v>30</v>
+      </c>
+      <c r="P331" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q331" s="16">
+        <v>0</v>
+      </c>
+      <c r="R331" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S331" s="16">
+        <v>62.107142857147203</v>
+      </c>
+      <c r="T331" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U331" s="18">
+        <v>512</v>
+      </c>
+      <c r="V331" s="16">
+        <v>253</v>
+      </c>
+      <c r="W331" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A332" s="19">
+        <v>330</v>
+      </c>
+      <c r="B332" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C332" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E332" s="16">
+        <f t="shared" si="114"/>
+        <v>20122893.358182862</v>
+      </c>
+      <c r="F332" s="16">
+        <v>5</v>
+      </c>
+      <c r="G332" s="18">
+        <f t="shared" si="113"/>
+        <v>6.3957806830508429E+17</v>
+      </c>
+      <c r="H332" s="16">
+        <f t="shared" si="115"/>
+        <v>261806.10756571736</v>
+      </c>
+      <c r="I332" s="16">
+        <f t="shared" si="112"/>
+        <v>1433575212023288.8</v>
+      </c>
+      <c r="J332" s="16">
+        <v>1</v>
+      </c>
+      <c r="K332" s="16">
+        <v>11</v>
+      </c>
+      <c r="L332" s="16">
+        <v>5</v>
+      </c>
+      <c r="M332" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N332" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O332" s="16">
+        <v>30</v>
+      </c>
+      <c r="P332" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q332" s="16">
+        <v>0</v>
+      </c>
+      <c r="R332" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S332" s="16">
+        <v>62.4285714285758</v>
+      </c>
+      <c r="T332" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U332" s="18">
+        <v>516</v>
+      </c>
+      <c r="V332" s="16">
+        <v>255</v>
+      </c>
+      <c r="W332" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A333" s="15">
+        <v>331</v>
+      </c>
+      <c r="B333" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C333" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E333" s="16">
+        <f t="shared" si="114"/>
+        <v>20300240.446427748</v>
+      </c>
+      <c r="F333" s="16">
+        <v>5</v>
+      </c>
+      <c r="G333" s="18">
+        <f t="shared" si="113"/>
+        <v>6.5340721240558835E+17</v>
+      </c>
+      <c r="H333" s="16">
+        <f t="shared" si="115"/>
+        <v>263449.30379015557</v>
+      </c>
+      <c r="I333" s="16">
+        <f t="shared" si="112"/>
+        <v>1459917913462623</v>
+      </c>
+      <c r="J333" s="16">
+        <v>1</v>
+      </c>
+      <c r="K333" s="16">
+        <v>11</v>
+      </c>
+      <c r="L333" s="16">
+        <v>5</v>
+      </c>
+      <c r="M333" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N333" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O333" s="16">
+        <v>30</v>
+      </c>
+      <c r="P333" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q333" s="16">
+        <v>0</v>
+      </c>
+      <c r="R333" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S333" s="16">
+        <v>62.750000000004398</v>
+      </c>
+      <c r="T333" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U333" s="18">
+        <v>520</v>
+      </c>
+      <c r="V333" s="16">
+        <v>257</v>
+      </c>
+      <c r="W333" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A334" s="19">
+        <v>332</v>
+      </c>
+      <c r="B334" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C334" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E334" s="16">
+        <f t="shared" si="114"/>
+        <v>20478608.466548018</v>
+      </c>
+      <c r="F334" s="16">
+        <v>5</v>
+      </c>
+      <c r="G334" s="18">
+        <f t="shared" si="113"/>
+        <v>6.6749229926779187E+17</v>
+      </c>
+      <c r="H334" s="16">
+        <f t="shared" si="115"/>
+        <v>265097.99661928322</v>
+      </c>
+      <c r="I334" s="16">
+        <f t="shared" si="112"/>
+        <v>1486663014134704.5</v>
+      </c>
+      <c r="J334" s="16">
+        <v>1</v>
+      </c>
+      <c r="K334" s="16">
+        <v>11</v>
+      </c>
+      <c r="L334" s="16">
+        <v>5</v>
+      </c>
+      <c r="M334" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N334" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O334" s="16">
+        <v>30</v>
+      </c>
+      <c r="P334" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q334" s="16">
+        <v>0</v>
+      </c>
+      <c r="R334" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S334" s="16">
+        <v>63.071428571433003</v>
+      </c>
+      <c r="T334" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U334" s="18">
+        <v>524</v>
+      </c>
+      <c r="V334" s="16">
+        <v>259</v>
+      </c>
+      <c r="W334" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A335" s="15">
+        <v>333</v>
+      </c>
+      <c r="B335" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C335" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E335" s="16">
+        <f t="shared" si="114"/>
+        <v>20658000.194073036</v>
+      </c>
+      <c r="F335" s="16">
+        <v>5</v>
+      </c>
+      <c r="G335" s="18">
+        <f t="shared" si="113"/>
+        <v>6.8183727337585997E+17</v>
+      </c>
+      <c r="H335" s="16">
+        <f t="shared" si="115"/>
+        <v>266752.1883749367</v>
+      </c>
+      <c r="I335" s="16">
+        <f t="shared" si="112"/>
+        <v>1513815421036494</v>
+      </c>
+      <c r="J335" s="16">
+        <v>1</v>
+      </c>
+      <c r="K335" s="16">
+        <v>11</v>
+      </c>
+      <c r="L335" s="16">
+        <v>5</v>
+      </c>
+      <c r="M335" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N335" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O335" s="16">
+        <v>30</v>
+      </c>
+      <c r="P335" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q335" s="16">
+        <v>0</v>
+      </c>
+      <c r="R335" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S335" s="16">
+        <v>63.392857142861601</v>
+      </c>
+      <c r="T335" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U335" s="18">
+        <v>528</v>
+      </c>
+      <c r="V335" s="16">
+        <v>261</v>
+      </c>
+      <c r="W335" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A336" s="19">
+        <v>334</v>
+      </c>
+      <c r="B336" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C336" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E336" s="16">
+        <f t="shared" si="114"/>
+        <v>20838418.403696097</v>
+      </c>
+      <c r="F336" s="16">
+        <v>5</v>
+      </c>
+      <c r="G336" s="18">
+        <f t="shared" si="113"/>
+        <v>6.9644612786682906E+17</v>
+      </c>
+      <c r="H336" s="16">
+        <f t="shared" si="115"/>
+        <v>268411.88137294597</v>
+      </c>
+      <c r="I336" s="16">
+        <f t="shared" si="112"/>
+        <v>1541380085974421.3</v>
+      </c>
+      <c r="J336" s="16">
+        <v>1</v>
+      </c>
+      <c r="K336" s="16">
+        <v>11</v>
+      </c>
+      <c r="L336" s="16">
+        <v>5</v>
+      </c>
+      <c r="M336" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N336" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O336" s="16">
+        <v>30</v>
+      </c>
+      <c r="P336" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q336" s="16">
+        <v>0</v>
+      </c>
+      <c r="R336" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S336" s="16">
+        <v>63.714285714290199</v>
+      </c>
+      <c r="T336" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U336" s="18">
+        <v>532</v>
+      </c>
+      <c r="V336" s="16">
+        <v>263</v>
+      </c>
+      <c r="W336" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A337" s="15">
+        <v>335</v>
+      </c>
+      <c r="B337" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C337" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E337" s="16">
+        <f t="shared" si="114"/>
+        <v>21019865.86927741</v>
+      </c>
+      <c r="F337" s="16">
+        <v>5</v>
+      </c>
+      <c r="G337" s="18">
+        <f t="shared" si="113"/>
+        <v>7.1132290498189402E+17</v>
+      </c>
+      <c r="H337" s="16">
+        <f t="shared" si="115"/>
+        <v>270077.07792316657</v>
+      </c>
+      <c r="I337" s="16">
+        <f t="shared" si="112"/>
+        <v>1569362005837241.8</v>
+      </c>
+      <c r="J337" s="16">
+        <v>1</v>
+      </c>
+      <c r="K337" s="16">
+        <v>11</v>
+      </c>
+      <c r="L337" s="16">
+        <v>5</v>
+      </c>
+      <c r="M337" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N337" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O337" s="16">
+        <v>30</v>
+      </c>
+      <c r="P337" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q337" s="16">
+        <v>0</v>
+      </c>
+      <c r="R337" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S337" s="16">
+        <v>64.035714285718797</v>
+      </c>
+      <c r="T337" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U337" s="18">
+        <v>536</v>
+      </c>
+      <c r="V337" s="16">
+        <v>265</v>
+      </c>
+      <c r="W337" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A338" s="15">
+        <v>336</v>
+      </c>
+      <c r="B338" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C338" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E338" s="16">
+        <f t="shared" si="114"/>
+        <v>21202345.363846954</v>
+      </c>
+      <c r="F338" s="16">
+        <v>5</v>
+      </c>
+      <c r="G338" s="18">
+        <f t="shared" si="113"/>
+        <v>7.2647169652056563E+17</v>
+      </c>
+      <c r="H338" s="16">
+        <f t="shared" si="115"/>
+        <v>271747.78032951697</v>
+      </c>
+      <c r="I338" s="16">
+        <f t="shared" si="112"/>
+        <v>1597766222869642.3</v>
+      </c>
+      <c r="J338" s="16">
+        <v>1</v>
+      </c>
+      <c r="K338" s="16">
+        <v>11</v>
+      </c>
+      <c r="L338" s="16">
+        <v>5</v>
+      </c>
+      <c r="M338" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N338" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O338" s="16">
+        <v>30</v>
+      </c>
+      <c r="P338" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q338" s="16">
+        <v>0</v>
+      </c>
+      <c r="R338" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S338" s="16">
+        <v>64.357142857147394</v>
+      </c>
+      <c r="T338" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U338" s="18">
+        <v>540</v>
+      </c>
+      <c r="V338" s="16">
+        <v>267</v>
+      </c>
+      <c r="W338" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A339" s="19">
+        <v>337</v>
+      </c>
+      <c r="B339" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C339" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E339" s="16">
+        <f t="shared" si="114"/>
+        <v>21385859.659606919</v>
+      </c>
+      <c r="F339" s="16">
+        <v>5</v>
+      </c>
+      <c r="G339" s="18">
+        <f t="shared" si="113"/>
+        <v>7.4189664429754432E+17</v>
+      </c>
+      <c r="H339" s="16">
+        <f t="shared" si="115"/>
+        <v>273423.99089000514</v>
+      </c>
+      <c r="I339" s="16">
+        <f t="shared" si="112"/>
+        <v>1626597824946657.5</v>
+      </c>
+      <c r="J339" s="16">
+        <v>1</v>
+      </c>
+      <c r="K339" s="16">
+        <v>11</v>
+      </c>
+      <c r="L339" s="16">
+        <v>5</v>
+      </c>
+      <c r="M339" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N339" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O339" s="16">
+        <v>30</v>
+      </c>
+      <c r="P339" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q339" s="16">
+        <v>0</v>
+      </c>
+      <c r="R339" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S339" s="16">
+        <v>64.678571428576006</v>
+      </c>
+      <c r="T339" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U339" s="18">
+        <v>544</v>
+      </c>
+      <c r="V339" s="16">
+        <v>269</v>
+      </c>
+      <c r="W339" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A340" s="15">
+        <v>338</v>
+      </c>
+      <c r="B340" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C340" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E340" s="16">
+        <f t="shared" si="114"/>
+        <v>21570411.527934588</v>
+      </c>
+      <c r="F340" s="16">
+        <v>5</v>
+      </c>
+      <c r="G340" s="18">
+        <f t="shared" si="113"/>
+        <v>7.5760194060251674E+17</v>
+      </c>
+      <c r="H340" s="16">
+        <f t="shared" si="115"/>
+        <v>275105.71189676772</v>
+      </c>
+      <c r="I340" s="16">
+        <f t="shared" si="112"/>
+        <v>1655861945849002</v>
+      </c>
+      <c r="J340" s="16">
+        <v>1</v>
+      </c>
+      <c r="K340" s="16">
+        <v>11</v>
+      </c>
+      <c r="L340" s="16">
+        <v>5</v>
+      </c>
+      <c r="M340" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N340" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O340" s="16">
+        <v>30</v>
+      </c>
+      <c r="P340" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q340" s="16">
+        <v>0</v>
+      </c>
+      <c r="R340" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S340" s="16">
+        <v>65.000000000004604</v>
+      </c>
+      <c r="T340" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U340" s="18">
+        <v>548</v>
+      </c>
+      <c r="V340" s="16">
+        <v>271</v>
+      </c>
+      <c r="W340" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A341" s="19">
+        <v>339</v>
+      </c>
+      <c r="B341" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C341" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E341" s="16">
+        <f t="shared" si="114"/>
+        <v>21756003.739384945</v>
+      </c>
+      <c r="F341" s="16">
+        <v>5</v>
+      </c>
+      <c r="G341" s="18">
+        <f t="shared" si="113"/>
+        <v>7.7359182866274304E+17</v>
+      </c>
+      <c r="H341" s="16">
+        <f t="shared" si="115"/>
+        <v>276792.94563609746</v>
+      </c>
+      <c r="I341" s="16">
+        <f t="shared" ref="I341:I402" si="116">A341^6.018+A341^4+1000*A341+100</f>
+        <v>1685563765539115.3</v>
+      </c>
+      <c r="J341" s="16">
+        <v>1</v>
+      </c>
+      <c r="K341" s="16">
+        <v>11</v>
+      </c>
+      <c r="L341" s="16">
+        <v>5</v>
+      </c>
+      <c r="M341" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N341" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O341" s="16">
+        <v>30</v>
+      </c>
+      <c r="P341" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q341" s="16">
+        <v>0</v>
+      </c>
+      <c r="R341" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S341" s="16">
+        <v>65.321428571433202</v>
+      </c>
+      <c r="T341" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U341" s="18">
+        <v>552</v>
+      </c>
+      <c r="V341" s="16">
+        <v>273</v>
+      </c>
+      <c r="W341" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A342" s="15">
+        <v>340</v>
+      </c>
+      <c r="B342" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C342" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E342" s="16">
+        <f t="shared" si="114"/>
+        <v>21942639.063693658</v>
+      </c>
+      <c r="F342" s="16">
+        <v>5</v>
+      </c>
+      <c r="G342" s="18">
+        <f t="shared" si="113"/>
+        <v>7.8987060310853389E+17</v>
+      </c>
+      <c r="H342" s="16">
+        <f t="shared" si="115"/>
+        <v>278485.69438847876</v>
+      </c>
+      <c r="I342" s="16">
+        <f t="shared" si="116"/>
+        <v>1715708510438259.8</v>
+      </c>
+      <c r="J342" s="16">
+        <v>1</v>
+      </c>
+      <c r="K342" s="16">
+        <v>11</v>
+      </c>
+      <c r="L342" s="16">
+        <v>5</v>
+      </c>
+      <c r="M342" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N342" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O342" s="16">
+        <v>30</v>
+      </c>
+      <c r="P342" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q342" s="16">
+        <v>0</v>
+      </c>
+      <c r="R342" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S342" s="16">
+        <v>65.6428571428618</v>
+      </c>
+      <c r="T342" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U342" s="18">
+        <v>556</v>
+      </c>
+      <c r="V342" s="16">
+        <v>275</v>
+      </c>
+      <c r="W342" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A343" s="19">
+        <v>341</v>
+      </c>
+      <c r="B343" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C343" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E343" s="16">
+        <f t="shared" si="114"/>
+        <v>22130320.269779082</v>
+      </c>
+      <c r="F343" s="16">
+        <v>5</v>
+      </c>
+      <c r="G343" s="18">
+        <f t="shared" si="113"/>
+        <v>8.0644261044153446E+17</v>
+      </c>
+      <c r="H343" s="16">
+        <f t="shared" si="115"/>
+        <v>280183.96042861615</v>
+      </c>
+      <c r="I343" s="16">
+        <f t="shared" si="116"/>
+        <v>1746301453704160.8</v>
+      </c>
+      <c r="J343" s="16">
+        <v>1</v>
+      </c>
+      <c r="K343" s="16">
+        <v>11</v>
+      </c>
+      <c r="L343" s="16">
+        <v>5</v>
+      </c>
+      <c r="M343" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N343" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O343" s="16">
+        <v>30</v>
+      </c>
+      <c r="P343" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q343" s="16">
+        <v>0</v>
+      </c>
+      <c r="R343" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S343" s="16">
+        <v>65.964285714290398</v>
+      </c>
+      <c r="T343" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U343" s="18">
+        <v>560</v>
+      </c>
+      <c r="V343" s="16">
+        <v>277</v>
+      </c>
+      <c r="W343" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A344" s="15">
+        <v>342</v>
+      </c>
+      <c r="B344" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C344" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E344" s="16">
+        <f t="shared" si="114"/>
+        <v>22319050.125745539</v>
+      </c>
+      <c r="F344" s="16">
+        <v>5</v>
+      </c>
+      <c r="G344" s="18">
+        <f t="shared" si="113"/>
+        <v>8.233122495059223E+17</v>
+      </c>
+      <c r="H344" s="16">
+        <f t="shared" si="115"/>
+        <v>281887.74602546939</v>
+      </c>
+      <c r="I344" s="16">
+        <f t="shared" si="116"/>
+        <v>1777347915509754.8</v>
+      </c>
+      <c r="J344" s="16">
+        <v>1</v>
+      </c>
+      <c r="K344" s="16">
+        <v>11</v>
+      </c>
+      <c r="L344" s="16">
+        <v>5</v>
+      </c>
+      <c r="M344" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N344" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O344" s="16">
+        <v>30</v>
+      </c>
+      <c r="P344" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q344" s="16">
+        <v>0</v>
+      </c>
+      <c r="R344" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S344" s="16">
+        <v>66.285714285718996</v>
+      </c>
+      <c r="T344" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U344" s="18">
+        <v>564</v>
+      </c>
+      <c r="V344" s="16">
+        <v>279</v>
+      </c>
+      <c r="W344" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A345" s="15">
+        <v>343</v>
+      </c>
+      <c r="B345" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C345" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E345" s="16">
+        <f t="shared" si="114"/>
+        <v>22508831.398885839</v>
+      </c>
+      <c r="F345" s="16">
+        <v>5</v>
+      </c>
+      <c r="G345" s="18">
+        <f t="shared" si="113"/>
+        <v>8.4048397196248627E+17</v>
+      </c>
+      <c r="H345" s="16">
+        <f t="shared" si="115"/>
+        <v>283597.05344228307</v>
+      </c>
+      <c r="I345" s="16">
+        <f t="shared" si="116"/>
+        <v>1808853263322591</v>
+      </c>
+      <c r="J345" s="16">
+        <v>1</v>
+      </c>
+      <c r="K345" s="16">
+        <v>11</v>
+      </c>
+      <c r="L345" s="16">
+        <v>5</v>
+      </c>
+      <c r="M345" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N345" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O345" s="16">
+        <v>30</v>
+      </c>
+      <c r="P345" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q345" s="16">
+        <v>0</v>
+      </c>
+      <c r="R345" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S345" s="16">
+        <v>66.607142857147593</v>
+      </c>
+      <c r="T345" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U345" s="18">
+        <v>568</v>
+      </c>
+      <c r="V345" s="16">
+        <v>281</v>
+      </c>
+      <c r="W345" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A346" s="19">
+        <v>344</v>
+      </c>
+      <c r="B346" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C346" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E346" s="16">
+        <f t="shared" si="114"/>
+        <v>22699666.855683401</v>
+      </c>
+      <c r="F346" s="16">
+        <v>5</v>
+      </c>
+      <c r="G346" s="18">
+        <f t="shared" si="113"/>
+        <v>8.5796228276553434E+17</v>
+      </c>
+      <c r="H346" s="16">
+        <f t="shared" si="115"/>
+        <v>285311.88493661658</v>
+      </c>
+      <c r="I346" s="16">
+        <f t="shared" si="116"/>
+        <v>1840822912185161</v>
+      </c>
+      <c r="J346" s="16">
+        <v>1</v>
+      </c>
+      <c r="K346" s="16">
+        <v>11</v>
+      </c>
+      <c r="L346" s="16">
+        <v>5</v>
+      </c>
+      <c r="M346" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N346" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O346" s="16">
+        <v>30</v>
+      </c>
+      <c r="P346" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q346" s="16">
+        <v>0</v>
+      </c>
+      <c r="R346" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S346" s="16">
+        <v>66.928571428576205</v>
+      </c>
+      <c r="T346" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U346" s="18">
+        <v>572</v>
+      </c>
+      <c r="V346" s="16">
+        <v>283</v>
+      </c>
+      <c r="W346" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A347" s="15">
+        <v>345</v>
+      </c>
+      <c r="B347" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C347" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E347" s="16">
+        <f t="shared" si="114"/>
+        <v>22891559.261815488</v>
+      </c>
+      <c r="F347" s="16">
+        <v>5</v>
+      </c>
+      <c r="G347" s="18">
+        <f t="shared" si="113"/>
+        <v>8.7575174064276339E+17</v>
+      </c>
+      <c r="H347" s="16">
+        <f t="shared" si="115"/>
+        <v>287032.24276037724</v>
+      </c>
+      <c r="I347" s="16">
+        <f t="shared" si="116"/>
+        <v>1873262324996009</v>
+      </c>
+      <c r="J347" s="16">
+        <v>1</v>
+      </c>
+      <c r="K347" s="16">
+        <v>11</v>
+      </c>
+      <c r="L347" s="16">
+        <v>5</v>
+      </c>
+      <c r="M347" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N347" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O347" s="16">
+        <v>30</v>
+      </c>
+      <c r="P347" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q347" s="16">
+        <v>0</v>
+      </c>
+      <c r="R347" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S347" s="16">
+        <v>67.250000000004803</v>
+      </c>
+      <c r="T347" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U347" s="18">
+        <v>576</v>
+      </c>
+      <c r="V347" s="16">
+        <v>285</v>
+      </c>
+      <c r="W347" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A348" s="19">
+        <v>346</v>
+      </c>
+      <c r="B348" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C348" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E348" s="16">
+        <f t="shared" si="114"/>
+        <v>23084511.382155422</v>
+      </c>
+      <c r="F348" s="16">
+        <v>5</v>
+      </c>
+      <c r="G348" s="18">
+        <f t="shared" si="113"/>
+        <v>8.9385695857797594E+17</v>
+      </c>
+      <c r="H348" s="16">
+        <f t="shared" si="115"/>
+        <v>288758.12915984838</v>
+      </c>
+      <c r="I348" s="16">
+        <f t="shared" si="116"/>
+        <v>1906177012791732.8</v>
+      </c>
+      <c r="J348" s="16">
+        <v>1</v>
+      </c>
+      <c r="K348" s="16">
+        <v>11</v>
+      </c>
+      <c r="L348" s="16">
+        <v>5</v>
+      </c>
+      <c r="M348" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N348" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O348" s="16">
+        <v>30</v>
+      </c>
+      <c r="P348" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q348" s="16">
+        <v>0</v>
+      </c>
+      <c r="R348" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S348" s="16">
+        <v>67.571428571433401</v>
+      </c>
+      <c r="T348" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U348" s="18">
+        <v>580</v>
+      </c>
+      <c r="V348" s="16">
+        <v>287</v>
+      </c>
+      <c r="W348" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A349" s="15">
+        <v>347</v>
+      </c>
+      <c r="B349" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C349" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E349" s="16">
+        <f t="shared" si="114"/>
+        <v>23278525.980775077</v>
+      </c>
+      <c r="F349" s="16">
+        <v>5</v>
+      </c>
+      <c r="G349" s="18">
+        <f t="shared" si="113"/>
+        <v>9.1228260429679194E+17</v>
+      </c>
+      <c r="H349" s="16">
+        <f t="shared" si="115"/>
+        <v>290489.54637572158</v>
+      </c>
+      <c r="I349" s="16">
+        <f t="shared" si="116"/>
+        <v>1939572535029787</v>
+      </c>
+      <c r="J349" s="16">
+        <v>1</v>
+      </c>
+      <c r="K349" s="16">
+        <v>11</v>
+      </c>
+      <c r="L349" s="16">
+        <v>5</v>
+      </c>
+      <c r="M349" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N349" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O349" s="16">
+        <v>30</v>
+      </c>
+      <c r="P349" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q349" s="16">
+        <v>0</v>
+      </c>
+      <c r="R349" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S349" s="16">
+        <v>67.892857142861999</v>
+      </c>
+      <c r="T349" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U349" s="18">
+        <v>584</v>
+      </c>
+      <c r="V349" s="16">
+        <v>289</v>
+      </c>
+      <c r="W349" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A350" s="19">
+        <v>348</v>
+      </c>
+      <c r="B350" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C350" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E350" s="16">
+        <f t="shared" si="114"/>
+        <v>23473605.820947874</v>
+      </c>
+      <c r="F350" s="16">
+        <v>5</v>
+      </c>
+      <c r="G350" s="18">
+        <f t="shared" si="113"/>
+        <v>9.310334007551753E+17</v>
+      </c>
+      <c r="H350" s="16">
+        <f t="shared" si="115"/>
+        <v>292226.49664312589</v>
+      </c>
+      <c r="I350" s="16">
+        <f t="shared" si="116"/>
+        <v>1973454499872100.3</v>
+      </c>
+      <c r="J350" s="16">
+        <v>1</v>
+      </c>
+      <c r="K350" s="16">
+        <v>11</v>
+      </c>
+      <c r="L350" s="16">
+        <v>5</v>
+      </c>
+      <c r="M350" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N350" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O350" s="16">
+        <v>30</v>
+      </c>
+      <c r="P350" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q350" s="16">
+        <v>0</v>
+      </c>
+      <c r="R350" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S350" s="16">
+        <v>68.214285714290597</v>
+      </c>
+      <c r="T350" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U350" s="18">
+        <v>588</v>
+      </c>
+      <c r="V350" s="16">
+        <v>291</v>
+      </c>
+      <c r="W350" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A351" s="15">
+        <v>349</v>
+      </c>
+      <c r="B351" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C351" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E351" s="16">
+        <f t="shared" si="114"/>
+        <v>23669753.665150721</v>
+      </c>
+      <c r="F351" s="16">
+        <v>5</v>
+      </c>
+      <c r="G351" s="18">
+        <f t="shared" si="113"/>
+        <v>9.5011412663098445E+17</v>
+      </c>
+      <c r="H351" s="16">
+        <f t="shared" si="115"/>
+        <v>293968.982191658</v>
+      </c>
+      <c r="I351" s="16">
+        <f t="shared" si="116"/>
+        <v>2007828564469595.3</v>
+      </c>
+      <c r="J351" s="16">
+        <v>1</v>
+      </c>
+      <c r="K351" s="16">
+        <v>11</v>
+      </c>
+      <c r="L351" s="16">
+        <v>5</v>
+      </c>
+      <c r="M351" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N351" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O351" s="16">
+        <v>30</v>
+      </c>
+      <c r="P351" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q351" s="16">
+        <v>0</v>
+      </c>
+      <c r="R351" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S351" s="16">
+        <v>68.535714285719195</v>
+      </c>
+      <c r="T351" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U351" s="18">
+        <v>592</v>
+      </c>
+      <c r="V351" s="16">
+        <v>293</v>
+      </c>
+      <c r="W351" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A352" s="15">
+        <v>350</v>
+      </c>
+      <c r="B352" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C352" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E352" s="16">
+        <f t="shared" si="114"/>
+        <v>23866972.275067057</v>
+      </c>
+      <c r="F352" s="16">
+        <v>5</v>
+      </c>
+      <c r="G352" s="18">
+        <f t="shared" ref="G352:G402" si="117">A352^7.07+A352^4+100*A352+100</f>
+        <v>9.6952961681841549E+17</v>
+      </c>
+      <c r="H352" s="16">
+        <f t="shared" si="115"/>
+        <v>295717.00524541072</v>
+      </c>
+      <c r="I352" s="16">
+        <f t="shared" si="116"/>
+        <v>2042700435247469.5</v>
+      </c>
+      <c r="J352" s="16">
+        <v>1</v>
+      </c>
+      <c r="K352" s="16">
+        <v>11</v>
+      </c>
+      <c r="L352" s="16">
+        <v>5</v>
+      </c>
+      <c r="M352" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N352" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O352" s="16">
+        <v>30</v>
+      </c>
+      <c r="P352" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q352" s="16">
+        <v>0</v>
+      </c>
+      <c r="R352" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S352" s="16">
+        <v>68.857142857147807</v>
+      </c>
+      <c r="T352" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U352" s="18">
+        <v>596</v>
+      </c>
+      <c r="V352" s="16">
+        <v>295</v>
+      </c>
+      <c r="W352" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A353" s="19">
+        <v>351</v>
+      </c>
+      <c r="B353" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C353" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E353" s="16">
+        <f t="shared" si="114"/>
+        <v>24065264.411589038</v>
+      </c>
+      <c r="F353" s="16">
+        <v>5</v>
+      </c>
+      <c r="G353" s="18">
+        <f t="shared" si="117"/>
+        <v>9.8928476292540301E+17</v>
+      </c>
+      <c r="H353" s="16">
+        <f t="shared" si="115"/>
+        <v>297470.56802300335</v>
+      </c>
+      <c r="I353" s="16">
+        <f t="shared" si="116"/>
+        <v>2078075868191367.8</v>
+      </c>
+      <c r="J353" s="16">
+        <v>1</v>
+      </c>
+      <c r="K353" s="16">
+        <v>11</v>
+      </c>
+      <c r="L353" s="16">
+        <v>5</v>
+      </c>
+      <c r="M353" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N353" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O353" s="16">
+        <v>30</v>
+      </c>
+      <c r="P353" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q353" s="16">
+        <v>0</v>
+      </c>
+      <c r="R353" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S353" s="16">
+        <v>69.178571428576404</v>
+      </c>
+      <c r="T353" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U353" s="18">
+        <v>600</v>
+      </c>
+      <c r="V353" s="16">
+        <v>297</v>
+      </c>
+      <c r="W353" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A354" s="15">
+        <v>352</v>
+      </c>
+      <c r="B354" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C354" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E354" s="16">
+        <f t="shared" si="114"/>
+        <v>24264632.834819987</v>
+      </c>
+      <c r="F354" s="16">
+        <v>5</v>
+      </c>
+      <c r="G354" s="18">
+        <f t="shared" si="117"/>
+        <v>1.0093845137739859E+18</v>
+      </c>
+      <c r="H354" s="16">
+        <f t="shared" si="115"/>
+        <v>299229.67273761122</v>
+      </c>
+      <c r="I354" s="16">
+        <f t="shared" si="116"/>
+        <v>2113960669134338</v>
+      </c>
+      <c r="J354" s="16">
+        <v>1</v>
+      </c>
+      <c r="K354" s="16">
+        <v>11</v>
+      </c>
+      <c r="L354" s="16">
+        <v>5</v>
+      </c>
+      <c r="M354" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N354" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O354" s="16">
+        <v>30</v>
+      </c>
+      <c r="P354" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q354" s="16">
+        <v>0</v>
+      </c>
+      <c r="R354" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S354" s="16">
+        <v>69.500000000005002</v>
+      </c>
+      <c r="T354" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U354" s="18">
+        <v>604</v>
+      </c>
+      <c r="V354" s="16">
+        <v>299</v>
+      </c>
+      <c r="W354" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A355" s="19">
+        <v>353</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C355" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E355" s="16">
+        <f t="shared" si="114"/>
+        <v>24465080.3040771</v>
+      </c>
+      <c r="F355" s="16">
+        <v>5</v>
+      </c>
+      <c r="G355" s="18">
+        <f t="shared" si="117"/>
+        <v>1.0298338759036495E+18</v>
+      </c>
+      <c r="H355" s="16">
+        <f t="shared" si="115"/>
+        <v>300994.32159699174</v>
+      </c>
+      <c r="I355" s="16">
+        <f t="shared" si="116"/>
+        <v>2150360694044731</v>
+      </c>
+      <c r="J355" s="16">
+        <v>1</v>
+      </c>
+      <c r="K355" s="16">
+        <v>11</v>
+      </c>
+      <c r="L355" s="16">
+        <v>5</v>
+      </c>
+      <c r="M355" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N355" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O355" s="16">
+        <v>30</v>
+      </c>
+      <c r="P355" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q355" s="16">
+        <v>0</v>
+      </c>
+      <c r="R355" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S355" s="16">
+        <v>69.8214285714336</v>
+      </c>
+      <c r="T355" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U355" s="18">
+        <v>608</v>
+      </c>
+      <c r="V355" s="16">
+        <v>301</v>
+      </c>
+      <c r="W355" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A356" s="15">
+        <v>354</v>
+      </c>
+      <c r="B356" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C356" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E356" s="16">
+        <f t="shared" si="114"/>
+        <v>24666609.577893775</v>
+      </c>
+      <c r="F356" s="16">
+        <v>5</v>
+      </c>
+      <c r="G356" s="18">
+        <f t="shared" si="117"/>
+        <v>1.0506379140776305E+18</v>
+      </c>
+      <c r="H356" s="16">
+        <f t="shared" si="115"/>
+        <v>302764.51680351736</v>
+      </c>
+      <c r="I356" s="16">
+        <f t="shared" si="116"/>
+        <v>2187281849314746.3</v>
+      </c>
+      <c r="J356" s="16">
+        <v>1</v>
+      </c>
+      <c r="K356" s="16">
+        <v>11</v>
+      </c>
+      <c r="L356" s="16">
+        <v>5</v>
+      </c>
+      <c r="M356" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N356" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O356" s="16">
+        <v>30</v>
+      </c>
+      <c r="P356" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q356" s="16">
+        <v>0</v>
+      </c>
+      <c r="R356" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S356" s="16">
+        <v>70.142857142862198</v>
+      </c>
+      <c r="T356" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U356" s="18">
+        <v>612</v>
+      </c>
+      <c r="V356" s="16">
+        <v>303</v>
+      </c>
+      <c r="W356" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A357" s="19">
+        <v>355</v>
+      </c>
+      <c r="B357" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C357" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E357" s="16">
+        <f t="shared" si="114"/>
+        <v>24869223.414022073</v>
+      </c>
+      <c r="F357" s="16">
+        <v>5</v>
+      </c>
+      <c r="G357" s="18">
+        <f t="shared" si="117"/>
+        <v>1.0718017517921961E+18</v>
+      </c>
+      <c r="H357" s="16">
+        <f t="shared" si="115"/>
+        <v>304540.26055419899</v>
+      </c>
+      <c r="I357" s="16">
+        <f t="shared" si="116"/>
+        <v>2224730092050032.5</v>
+      </c>
+      <c r="J357" s="16">
+        <v>1</v>
+      </c>
+      <c r="K357" s="16">
+        <v>11</v>
+      </c>
+      <c r="L357" s="16">
+        <v>5</v>
+      </c>
+      <c r="M357" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N357" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O357" s="16">
+        <v>30</v>
+      </c>
+      <c r="P357" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q357" s="16">
+        <v>0</v>
+      </c>
+      <c r="R357" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S357" s="16">
+        <v>70.464285714290796</v>
+      </c>
+      <c r="T357" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U357" s="18">
+        <v>616</v>
+      </c>
+      <c r="V357" s="16">
+        <v>305</v>
+      </c>
+      <c r="W357" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A358" s="15">
+        <v>356</v>
+      </c>
+      <c r="B358" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C358" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E358" s="16">
+        <f t="shared" si="114"/>
+        <v>25072924.569435056</v>
+      </c>
+      <c r="F358" s="16">
+        <v>5</v>
+      </c>
+      <c r="G358" s="18">
+        <f t="shared" si="117"/>
+        <v>1.0933305717889564E+18</v>
+      </c>
+      <c r="H358" s="16">
+        <f t="shared" si="115"/>
+        <v>306321.55504071852</v>
+      </c>
+      <c r="I358" s="16">
+        <f t="shared" si="116"/>
+        <v>2262711430359932.5</v>
+      </c>
+      <c r="J358" s="16">
+        <v>1</v>
+      </c>
+      <c r="K358" s="16">
+        <v>11</v>
+      </c>
+      <c r="L358" s="16">
+        <v>5</v>
+      </c>
+      <c r="M358" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N358" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O358" s="16">
+        <v>30</v>
+      </c>
+      <c r="P358" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q358" s="16">
+        <v>0</v>
+      </c>
+      <c r="R358" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S358" s="16">
+        <v>70.785714285719394</v>
+      </c>
+      <c r="T358" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U358" s="18">
+        <v>620</v>
+      </c>
+      <c r="V358" s="16">
+        <v>307</v>
+      </c>
+      <c r="W358" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A359" s="15">
+        <v>357</v>
+      </c>
+      <c r="B359" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C359" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E359" s="16">
+        <f t="shared" si="114"/>
+        <v>25277715.800329335</v>
+      </c>
+      <c r="F359" s="16">
+        <v>5</v>
+      </c>
+      <c r="G359" s="18">
+        <f t="shared" si="117"/>
+        <v>1.1152296165701537E+18</v>
+      </c>
+      <c r="H359" s="16">
+        <f t="shared" si="115"/>
+        <v>308108.40244945395</v>
+      </c>
+      <c r="I359" s="16">
+        <f t="shared" si="116"/>
+        <v>2301231923648731.5</v>
+      </c>
+      <c r="J359" s="16">
+        <v>1</v>
+      </c>
+      <c r="K359" s="16">
+        <v>11</v>
+      </c>
+      <c r="L359" s="16">
+        <v>5</v>
+      </c>
+      <c r="M359" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N359" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O359" s="16">
+        <v>30</v>
+      </c>
+      <c r="P359" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q359" s="16">
+        <v>0</v>
+      </c>
+      <c r="R359" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S359" s="16">
+        <v>71.107142857148006</v>
+      </c>
+      <c r="T359" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U359" s="18">
+        <v>624</v>
+      </c>
+      <c r="V359" s="16">
+        <v>309</v>
+      </c>
+      <c r="W359" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A360" s="19">
+        <v>358</v>
+      </c>
+      <c r="B360" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C360" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E360" s="16">
+        <f t="shared" si="114"/>
+        <v>25483599.862127528</v>
+      </c>
+      <c r="F360" s="16">
+        <v>5</v>
+      </c>
+      <c r="G360" s="18">
+        <f t="shared" si="117"/>
+        <v>1.1375041889169728E+18</v>
+      </c>
+      <c r="H360" s="16">
+        <f t="shared" si="115"/>
+        <v>309900.80496150849</v>
+      </c>
+      <c r="I360" s="16">
+        <f t="shared" si="116"/>
+        <v>2340297682907611</v>
+      </c>
+      <c r="J360" s="16">
+        <v>1</v>
+      </c>
+      <c r="K360" s="16">
+        <v>11</v>
+      </c>
+      <c r="L360" s="16">
+        <v>5</v>
+      </c>
+      <c r="M360" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N360" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O360" s="16">
+        <v>30</v>
+      </c>
+      <c r="P360" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q360" s="16">
+        <v>0</v>
+      </c>
+      <c r="R360" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S360" s="16">
+        <v>71.428571428576603</v>
+      </c>
+      <c r="T360" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U360" s="18">
+        <v>628</v>
+      </c>
+      <c r="V360" s="16">
+        <v>311</v>
+      </c>
+      <c r="W360" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A361" s="15">
+        <v>359</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C361" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E361" s="16">
+        <f t="shared" si="114"/>
+        <v>25690579.509480342</v>
+      </c>
+      <c r="F361" s="16">
+        <v>5</v>
+      </c>
+      <c r="G361" s="18">
+        <f t="shared" si="117"/>
+        <v>1.1601596524108449E+18</v>
+      </c>
+      <c r="H361" s="16">
+        <f t="shared" si="115"/>
+        <v>311698.76475273666</v>
+      </c>
+      <c r="I361" s="16">
+        <f t="shared" si="116"/>
+        <v>2379914871007468.5</v>
+      </c>
+      <c r="J361" s="16">
+        <v>1</v>
+      </c>
+      <c r="K361" s="16">
+        <v>11</v>
+      </c>
+      <c r="L361" s="16">
+        <v>5</v>
+      </c>
+      <c r="M361" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N361" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O361" s="16">
+        <v>30</v>
+      </c>
+      <c r="P361" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q361" s="16">
+        <v>0</v>
+      </c>
+      <c r="R361" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S361" s="16">
+        <v>71.750000000005201</v>
+      </c>
+      <c r="T361" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U361" s="18">
+        <v>632</v>
+      </c>
+      <c r="V361" s="16">
+        <v>313</v>
+      </c>
+      <c r="W361" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A362" s="19">
+        <v>360</v>
+      </c>
+      <c r="B362" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C362" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E362" s="16">
+        <f t="shared" si="114"/>
+        <v>25898657.496269222</v>
+      </c>
+      <c r="F362" s="16">
+        <v>5</v>
+      </c>
+      <c r="G362" s="18">
+        <f t="shared" si="117"/>
+        <v>1.1832014319578719E+18</v>
+      </c>
+      <c r="H362" s="16">
+        <f t="shared" si="115"/>
+        <v>313502.28399377293</v>
+      </c>
+      <c r="I362" s="16">
+        <f t="shared" si="116"/>
+        <v>2420089702992658</v>
+      </c>
+      <c r="J362" s="16">
+        <v>1</v>
+      </c>
+      <c r="K362" s="16">
+        <v>11</v>
+      </c>
+      <c r="L362" s="16">
+        <v>5</v>
+      </c>
+      <c r="M362" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N362" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O362" s="16">
+        <v>30</v>
+      </c>
+      <c r="P362" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q362" s="16">
+        <v>0</v>
+      </c>
+      <c r="R362" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S362" s="16">
+        <v>72.071428571433799</v>
+      </c>
+      <c r="T362" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U362" s="18">
+        <v>636</v>
+      </c>
+      <c r="V362" s="16">
+        <v>315</v>
+      </c>
+      <c r="W362" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A363" s="15">
+        <v>361</v>
+      </c>
+      <c r="B363" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C363" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E363" s="16">
+        <f t="shared" si="114"/>
+        <v>26107836.575608566</v>
+      </c>
+      <c r="F363" s="16">
+        <v>5</v>
+      </c>
+      <c r="G363" s="18">
+        <f t="shared" si="117"/>
+        <v>1.2066350143161533E+18</v>
+      </c>
+      <c r="H363" s="16">
+        <f t="shared" si="115"/>
+        <v>315311.36485005729</v>
+      </c>
+      <c r="I363" s="16">
+        <f t="shared" si="116"/>
+        <v>2460828446375455.5</v>
+      </c>
+      <c r="J363" s="16">
+        <v>1</v>
+      </c>
+      <c r="K363" s="16">
+        <v>11</v>
+      </c>
+      <c r="L363" s="16">
+        <v>5</v>
+      </c>
+      <c r="M363" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N363" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O363" s="16">
+        <v>30</v>
+      </c>
+      <c r="P363" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q363" s="16">
+        <v>0</v>
+      </c>
+      <c r="R363" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S363" s="16">
+        <v>72.392857142862397</v>
+      </c>
+      <c r="T363" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U363" s="18">
+        <v>640</v>
+      </c>
+      <c r="V363" s="16">
+        <v>317</v>
+      </c>
+      <c r="W363" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A364" s="19">
+        <v>362</v>
+      </c>
+      <c r="B364" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C364" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E364" s="16">
+        <f t="shared" si="114"/>
+        <v>26318119.499848299</v>
+      </c>
+      <c r="F364" s="16">
+        <v>5</v>
+      </c>
+      <c r="G364" s="18">
+        <f t="shared" si="117"/>
+        <v>1.2304659486263191E+18</v>
+      </c>
+      <c r="H364" s="16">
+        <f t="shared" si="115"/>
+        <v>317126.00948186545</v>
+      </c>
+      <c r="I364" s="16">
+        <f t="shared" si="116"/>
+        <v>2502137421431419.5</v>
+      </c>
+      <c r="J364" s="16">
+        <v>1</v>
+      </c>
+      <c r="K364" s="16">
+        <v>11</v>
+      </c>
+      <c r="L364" s="16">
+        <v>5</v>
+      </c>
+      <c r="M364" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N364" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O364" s="16">
+        <v>30</v>
+      </c>
+      <c r="P364" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q364" s="16">
+        <v>0</v>
+      </c>
+      <c r="R364" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S364" s="16">
+        <v>72.714285714290995</v>
+      </c>
+      <c r="T364" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U364" s="18">
+        <v>644</v>
+      </c>
+      <c r="V364" s="16">
+        <v>319</v>
+      </c>
+      <c r="W364" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A365" s="15">
+        <v>363</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C365" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E365" s="16">
+        <f t="shared" si="114"/>
+        <v>26529509.020575654</v>
+      </c>
+      <c r="F365" s="16">
+        <v>5</v>
+      </c>
+      <c r="G365" s="18">
+        <f t="shared" si="117"/>
+        <v>1.2546998469449408E+18</v>
+      </c>
+      <c r="H365" s="16">
+        <f t="shared" si="115"/>
+        <v>318946.22004432825</v>
+      </c>
+      <c r="I365" s="16">
+        <f t="shared" si="116"/>
+        <v>2544023001495546.5</v>
+      </c>
+      <c r="J365" s="16">
+        <v>1</v>
+      </c>
+      <c r="K365" s="16">
+        <v>11</v>
+      </c>
+      <c r="L365" s="16">
+        <v>5</v>
+      </c>
+      <c r="M365" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N365" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O365" s="16">
+        <v>30</v>
+      </c>
+      <c r="P365" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q365" s="16">
+        <v>0</v>
+      </c>
+      <c r="R365" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S365" s="16">
+        <v>73.035714285719607</v>
+      </c>
+      <c r="T365" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U365" s="18">
+        <v>648</v>
+      </c>
+      <c r="V365" s="16">
+        <v>321</v>
+      </c>
+      <c r="W365" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A366" s="15">
+        <v>364</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C366" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E366" s="16">
+        <f t="shared" si="114"/>
+        <v>26742007.888618402</v>
+      </c>
+      <c r="F366" s="16">
+        <v>5</v>
+      </c>
+      <c r="G366" s="18">
+        <f t="shared" si="117"/>
+        <v>1.2793423847812326E+18</v>
+      </c>
+      <c r="H366" s="16">
+        <f t="shared" si="115"/>
+        <v>320771.9986874673</v>
+      </c>
+      <c r="I366" s="16">
+        <f t="shared" si="116"/>
+        <v>2586491613259366.5</v>
+      </c>
+      <c r="J366" s="16">
+        <v>1</v>
+      </c>
+      <c r="K366" s="16">
+        <v>11</v>
+      </c>
+      <c r="L366" s="16">
+        <v>5</v>
+      </c>
+      <c r="M366" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N366" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O366" s="16">
+        <v>30</v>
+      </c>
+      <c r="P366" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q366" s="16">
+        <v>0</v>
+      </c>
+      <c r="R366" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S366" s="16">
+        <v>73.357142857148204</v>
+      </c>
+      <c r="T366" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U366" s="18">
+        <v>652</v>
+      </c>
+      <c r="V366" s="16">
+        <v>323</v>
+      </c>
+      <c r="W366" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A367" s="19">
+        <v>365</v>
+      </c>
+      <c r="B367" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C367" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E367" s="16">
+        <f t="shared" si="114"/>
+        <v>26955618.854046118</v>
+      </c>
+      <c r="F367" s="16">
+        <v>5</v>
+      </c>
+      <c r="G367" s="18">
+        <f t="shared" si="117"/>
+        <v>1.3043993016366203E+18</v>
+      </c>
+      <c r="H367" s="16">
+        <f t="shared" si="115"/>
+        <v>322603.34755621396</v>
+      </c>
+      <c r="I367" s="16">
+        <f t="shared" si="116"/>
+        <v>2629549737068742</v>
+      </c>
+      <c r="J367" s="16">
+        <v>1</v>
+      </c>
+      <c r="K367" s="16">
+        <v>11</v>
+      </c>
+      <c r="L367" s="16">
+        <v>5</v>
+      </c>
+      <c r="M367" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N367" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O367" s="16">
+        <v>30</v>
+      </c>
+      <c r="P367" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q367" s="16">
+        <v>0</v>
+      </c>
+      <c r="R367" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S367" s="16">
+        <v>73.678571428576703</v>
+      </c>
+      <c r="T367" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U367" s="18">
+        <v>656</v>
+      </c>
+      <c r="V367" s="16">
+        <v>325</v>
+      </c>
+      <c r="W367" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A368" s="15">
+        <v>366</v>
+      </c>
+      <c r="B368" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C368" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E368" s="16">
+        <f t="shared" si="114"/>
+        <v>27170344.666173127</v>
+      </c>
+      <c r="F368" s="16">
+        <v>5</v>
+      </c>
+      <c r="G368" s="18">
+        <f t="shared" si="117"/>
+        <v>1.3298764015475072E+18</v>
+      </c>
+      <c r="H368" s="16">
+        <f t="shared" si="115"/>
+        <v>324440.26879043848</v>
+      </c>
+      <c r="I368" s="16">
+        <f t="shared" si="116"/>
+        <v>2673203907222557.5</v>
+      </c>
+      <c r="J368" s="16">
+        <v>1</v>
+      </c>
+      <c r="K368" s="16">
+        <v>11</v>
+      </c>
+      <c r="L368" s="16">
+        <v>5</v>
+      </c>
+      <c r="M368" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N368" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O368" s="16">
+        <v>30</v>
+      </c>
+      <c r="P368" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q368" s="16">
+        <v>0</v>
+      </c>
+      <c r="R368" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S368" s="16">
+        <v>74.000000000005301</v>
+      </c>
+      <c r="T368" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U368" s="18">
+        <v>660</v>
+      </c>
+      <c r="V368" s="16">
+        <v>327</v>
+      </c>
+      <c r="W368" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A369" s="19">
+        <v>367</v>
+      </c>
+      <c r="B369" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C369" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E369" s="16">
+        <f t="shared" si="114"/>
+        <v>27386188.07356089</v>
+      </c>
+      <c r="F369" s="16">
+        <v>5</v>
+      </c>
+      <c r="G369" s="18">
+        <f t="shared" si="117"/>
+        <v>1.3557795536311283E+18</v>
+      </c>
+      <c r="H369" s="16">
+        <f t="shared" si="115"/>
+        <v>326282.7645249755</v>
+      </c>
+      <c r="I369" s="16">
+        <f t="shared" si="116"/>
+        <v>2717460712272276.5</v>
+      </c>
+      <c r="J369" s="16">
+        <v>1</v>
+      </c>
+      <c r="K369" s="16">
+        <v>11</v>
+      </c>
+      <c r="L369" s="16">
+        <v>5</v>
+      </c>
+      <c r="M369" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N369" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O369" s="16">
+        <v>30</v>
+      </c>
+      <c r="P369" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q369" s="16">
+        <v>0</v>
+      </c>
+      <c r="R369" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S369" s="16">
+        <v>74.321428571433898</v>
+      </c>
+      <c r="T369" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U369" s="18">
+        <v>664</v>
+      </c>
+      <c r="V369" s="16">
+        <v>329</v>
+      </c>
+      <c r="W369" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A370" s="15">
+        <v>368</v>
+      </c>
+      <c r="B370" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C370" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E370" s="16">
+        <f t="shared" si="114"/>
+        <v>27603151.824019525</v>
+      </c>
+      <c r="F370" s="16">
+        <v>5</v>
+      </c>
+      <c r="G370" s="18">
+        <f t="shared" si="117"/>
+        <v>1.3821146926344799E+18</v>
+      </c>
+      <c r="H370" s="16">
+        <f t="shared" si="115"/>
+        <v>328130.83688964817</v>
+      </c>
+      <c r="I370" s="16">
+        <f t="shared" si="116"/>
+        <v>2762326795322307</v>
+      </c>
+      <c r="J370" s="16">
+        <v>1</v>
+      </c>
+      <c r="K370" s="16">
+        <v>11</v>
+      </c>
+      <c r="L370" s="16">
+        <v>5</v>
+      </c>
+      <c r="M370" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N370" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O370" s="16">
+        <v>30</v>
+      </c>
+      <c r="P370" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q370" s="16">
+        <v>0</v>
+      </c>
+      <c r="R370" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S370" s="16">
+        <v>74.642857142862496</v>
+      </c>
+      <c r="T370" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U370" s="18">
+        <v>668</v>
+      </c>
+      <c r="V370" s="16">
+        <v>331</v>
+      </c>
+      <c r="W370" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A371" s="19">
+        <v>369</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C371" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E371" s="16">
+        <f t="shared" si="114"/>
+        <v>27821238.664610878</v>
+      </c>
+      <c r="F371" s="16">
+        <v>5</v>
+      </c>
+      <c r="G371" s="18">
+        <f t="shared" si="117"/>
+        <v>1.4088878194863514E+18</v>
+      </c>
+      <c r="H371" s="16">
+        <f t="shared" si="115"/>
+        <v>329984.48800929525</v>
+      </c>
+      <c r="I371" s="16">
+        <f t="shared" si="116"/>
+        <v>2807808854331178</v>
+      </c>
+      <c r="J371" s="16">
+        <v>1</v>
+      </c>
+      <c r="K371" s="16">
+        <v>11</v>
+      </c>
+      <c r="L371" s="16">
+        <v>5</v>
+      </c>
+      <c r="M371" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N371" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O371" s="16">
+        <v>30</v>
+      </c>
+      <c r="P371" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q371" s="16">
+        <v>0</v>
+      </c>
+      <c r="R371" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S371" s="16">
+        <v>74.964285714291094</v>
+      </c>
+      <c r="T371" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U371" s="18">
+        <v>672</v>
+      </c>
+      <c r="V371" s="16">
+        <v>333</v>
+      </c>
+      <c r="W371" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A372" s="15">
+        <v>370</v>
+      </c>
+      <c r="B372" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C372" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E372" s="16">
+        <f t="shared" si="114"/>
+        <v>28040451.341650169</v>
+      </c>
+      <c r="F372" s="16">
+        <v>5</v>
+      </c>
+      <c r="G372" s="18">
+        <f t="shared" si="117"/>
+        <v>1.4361050018525873E+18</v>
+      </c>
+      <c r="H372" s="16">
+        <f t="shared" si="115"/>
+        <v>331843.72000379639</v>
+      </c>
+      <c r="I372" s="16">
+        <f t="shared" si="116"/>
+        <v>2853913642413630</v>
+      </c>
+      <c r="J372" s="16">
+        <v>1</v>
+      </c>
+      <c r="K372" s="16">
+        <v>11</v>
+      </c>
+      <c r="L372" s="16">
+        <v>5</v>
+      </c>
+      <c r="M372" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N372" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O372" s="16">
+        <v>30</v>
+      </c>
+      <c r="P372" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q372" s="16">
+        <v>0</v>
+      </c>
+      <c r="R372" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S372" s="16">
+        <v>75.285714285719706</v>
+      </c>
+      <c r="T372" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U372" s="18">
+        <v>676</v>
+      </c>
+      <c r="V372" s="16">
+        <v>335</v>
+      </c>
+      <c r="W372" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A373" s="15">
+        <v>371</v>
+      </c>
+      <c r="B373" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C373" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E373" s="16">
+        <f t="shared" si="114"/>
+        <v>28260792.600708727</v>
+      </c>
+      <c r="F373" s="16">
+        <v>5</v>
+      </c>
+      <c r="G373" s="18">
+        <f t="shared" si="117"/>
+        <v>1.4637723746943025E+18</v>
+      </c>
+      <c r="H373" s="16">
+        <f t="shared" si="115"/>
+        <v>333708.53498809517</v>
+      </c>
+      <c r="I373" s="16">
+        <f t="shared" si="116"/>
+        <v>2900647968143462</v>
+      </c>
+      <c r="J373" s="16">
+        <v>1</v>
+      </c>
+      <c r="K373" s="16">
+        <v>11</v>
+      </c>
+      <c r="L373" s="16">
+        <v>5</v>
+      </c>
+      <c r="M373" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N373" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O373" s="16">
+        <v>30</v>
+      </c>
+      <c r="P373" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q373" s="16">
+        <v>0</v>
+      </c>
+      <c r="R373" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S373" s="16">
+        <v>75.607142857148304</v>
+      </c>
+      <c r="T373" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U373" s="18">
+        <v>680</v>
+      </c>
+      <c r="V373" s="16">
+        <v>337</v>
+      </c>
+      <c r="W373" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A374" s="19">
+        <v>372</v>
+      </c>
+      <c r="B374" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C374" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E374" s="16">
+        <f t="shared" ref="E374:E402" si="118">A374^2.9</f>
+        <v>28482265.186615631</v>
+      </c>
+      <c r="F374" s="16">
+        <v>5</v>
+      </c>
+      <c r="G374" s="18">
+        <f t="shared" si="117"/>
+        <v>1.4918961408293599E+18</v>
+      </c>
+      <c r="H374" s="16">
+        <f t="shared" si="115"/>
+        <v>335578.93507222511</v>
+      </c>
+      <c r="I374" s="16">
+        <f t="shared" si="116"/>
+        <v>2948018695857175</v>
+      </c>
+      <c r="J374" s="16">
+        <v>1</v>
+      </c>
+      <c r="K374" s="16">
+        <v>11</v>
+      </c>
+      <c r="L374" s="16">
+        <v>5</v>
+      </c>
+      <c r="M374" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N374" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O374" s="16">
+        <v>30</v>
+      </c>
+      <c r="P374" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q374" s="16">
+        <v>0</v>
+      </c>
+      <c r="R374" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S374" s="16">
+        <v>75.928571428576902</v>
+      </c>
+      <c r="T374" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U374" s="18">
+        <v>684</v>
+      </c>
+      <c r="V374" s="16">
+        <v>339</v>
+      </c>
+      <c r="W374" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A375" s="15">
+        <v>373</v>
+      </c>
+      <c r="B375" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C375" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E375" s="16">
+        <f t="shared" si="118"/>
+        <v>28704871.843460597</v>
+      </c>
+      <c r="F375" s="16">
+        <v>5</v>
+      </c>
+      <c r="G375" s="18">
+        <f t="shared" si="117"/>
+        <v>1.5204825714970391E+18</v>
+      </c>
+      <c r="H375" s="16">
+        <f t="shared" si="115"/>
+        <v>337454.92236133618</v>
+      </c>
+      <c r="I375" s="16">
+        <f t="shared" si="116"/>
+        <v>2996032745958735</v>
+      </c>
+      <c r="J375" s="16">
+        <v>1</v>
+      </c>
+      <c r="K375" s="16">
+        <v>11</v>
+      </c>
+      <c r="L375" s="16">
+        <v>5</v>
+      </c>
+      <c r="M375" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N375" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O375" s="16">
+        <v>30</v>
+      </c>
+      <c r="P375" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q375" s="16">
+        <v>0</v>
+      </c>
+      <c r="R375" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S375" s="16">
+        <v>76.2500000000055</v>
+      </c>
+      <c r="T375" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U375" s="18">
+        <v>688</v>
+      </c>
+      <c r="V375" s="16">
+        <v>341</v>
+      </c>
+      <c r="W375" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A376" s="19">
+        <v>374</v>
+      </c>
+      <c r="B376" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C376" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E376" s="16">
+        <f t="shared" si="118"/>
+        <v>28928615.31459529</v>
+      </c>
+      <c r="F376" s="16">
+        <v>5</v>
+      </c>
+      <c r="G376" s="18">
+        <f t="shared" si="117"/>
+        <v>1.5495380069256786E+18</v>
+      </c>
+      <c r="H376" s="16">
+        <f t="shared" si="115"/>
+        <v>339336.49895571347</v>
+      </c>
+      <c r="I376" s="16">
+        <f t="shared" si="116"/>
+        <v>3044697095224651.5</v>
+      </c>
+      <c r="J376" s="16">
+        <v>1</v>
+      </c>
+      <c r="K376" s="16">
+        <v>11</v>
+      </c>
+      <c r="L376" s="16">
+        <v>5</v>
+      </c>
+      <c r="M376" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N376" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O376" s="16">
+        <v>30</v>
+      </c>
+      <c r="P376" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q376" s="16">
+        <v>0</v>
+      </c>
+      <c r="R376" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S376" s="16">
+        <v>76.571428571434097</v>
+      </c>
+      <c r="T376" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U376" s="18">
+        <v>692</v>
+      </c>
+      <c r="V376" s="16">
+        <v>343</v>
+      </c>
+      <c r="W376" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A377" s="15">
+        <v>375</v>
+      </c>
+      <c r="B377" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C377" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E377" s="16">
+        <f t="shared" si="118"/>
+        <v>29153498.342636328</v>
+      </c>
+      <c r="F377" s="16">
+        <v>5</v>
+      </c>
+      <c r="G377" s="18">
+        <f t="shared" si="117"/>
+        <v>1.579068856903703E+18</v>
+      </c>
+      <c r="H377" s="16">
+        <f t="shared" si="115"/>
+        <v>341223.66695080808</v>
+      </c>
+      <c r="I377" s="16">
+        <f t="shared" si="116"/>
+        <v>3094018777110468.5</v>
+      </c>
+      <c r="J377" s="16">
+        <v>1</v>
+      </c>
+      <c r="K377" s="16">
+        <v>11</v>
+      </c>
+      <c r="L377" s="16">
+        <v>5</v>
+      </c>
+      <c r="M377" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N377" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O377" s="16">
+        <v>30</v>
+      </c>
+      <c r="P377" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q377" s="16">
+        <v>0</v>
+      </c>
+      <c r="R377" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S377" s="16">
+        <v>76.892857142862695</v>
+      </c>
+      <c r="T377" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U377" s="18">
+        <v>696</v>
+      </c>
+      <c r="V377" s="16">
+        <v>345</v>
+      </c>
+      <c r="W377" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A378" s="19">
+        <v>376</v>
+      </c>
+      <c r="B378" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C378" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E378" s="16">
+        <f t="shared" si="118"/>
+        <v>29379523.669467218</v>
+      </c>
+      <c r="F378" s="16">
+        <v>5</v>
+      </c>
+      <c r="G378" s="18">
+        <f t="shared" si="117"/>
+        <v>1.6090816013537139E+18</v>
+      </c>
+      <c r="H378" s="16">
+        <f t="shared" si="115"/>
+        <v>343116.42843725829</v>
+      </c>
+      <c r="I378" s="16">
+        <f t="shared" si="116"/>
+        <v>3144004882057726</v>
+      </c>
+      <c r="J378" s="16">
+        <v>1</v>
+      </c>
+      <c r="K378" s="16">
+        <v>11</v>
+      </c>
+      <c r="L378" s="16">
+        <v>5</v>
+      </c>
+      <c r="M378" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N378" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O378" s="16">
+        <v>30</v>
+      </c>
+      <c r="P378" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q378" s="16">
+        <v>0</v>
+      </c>
+      <c r="R378" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S378" s="16">
+        <v>77.214285714291293</v>
+      </c>
+      <c r="T378" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U378" s="18">
+        <v>700</v>
+      </c>
+      <c r="V378" s="16">
+        <v>347</v>
+      </c>
+      <c r="W378" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A379" s="15">
+        <v>377</v>
+      </c>
+      <c r="B379" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C379" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E379" s="16">
+        <f t="shared" si="118"/>
+        <v>29606694.036239929</v>
+      </c>
+      <c r="F379" s="16">
+        <v>5</v>
+      </c>
+      <c r="G379" s="18">
+        <f t="shared" si="117"/>
+        <v>1.6395827909097016E+18</v>
+      </c>
+      <c r="H379" s="16">
+        <f t="shared" si="115"/>
+        <v>345014.78550091101</v>
+      </c>
+      <c r="I379" s="16">
+        <f t="shared" si="116"/>
+        <v>3194662557801849.5</v>
+      </c>
+      <c r="J379" s="16">
+        <v>1</v>
+      </c>
+      <c r="K379" s="16">
+        <v>11</v>
+      </c>
+      <c r="L379" s="16">
+        <v>5</v>
+      </c>
+      <c r="M379" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N379" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O379" s="16">
+        <v>30</v>
+      </c>
+      <c r="P379" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q379" s="16">
+        <v>0</v>
+      </c>
+      <c r="R379" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S379" s="16">
+        <v>77.535714285719905</v>
+      </c>
+      <c r="T379" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U379" s="18">
+        <v>704</v>
+      </c>
+      <c r="V379" s="16">
+        <v>349</v>
+      </c>
+      <c r="W379" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A380" s="15">
+        <v>378</v>
+      </c>
+      <c r="B380" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C380" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E380" s="16">
+        <f t="shared" si="118"/>
+        <v>29835012.183377922</v>
+      </c>
+      <c r="F380" s="16">
+        <v>5</v>
+      </c>
+      <c r="G380" s="18">
+        <f t="shared" si="117"/>
+        <v>1.6705790474976614E+18</v>
+      </c>
+      <c r="H380" s="16">
+        <f t="shared" si="115"/>
+        <v>346918.74022284994</v>
+      </c>
+      <c r="I380" s="16">
+        <f t="shared" si="116"/>
+        <v>3245999009680883.5</v>
+      </c>
+      <c r="J380" s="16">
+        <v>1</v>
+      </c>
+      <c r="K380" s="16">
+        <v>11</v>
+      </c>
+      <c r="L380" s="16">
+        <v>5</v>
+      </c>
+      <c r="M380" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N380" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O380" s="16">
+        <v>30</v>
+      </c>
+      <c r="P380" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q380" s="16">
+        <v>0</v>
+      </c>
+      <c r="R380" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S380" s="16">
+        <v>77.857142857148503</v>
+      </c>
+      <c r="T380" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U380" s="18">
+        <v>708</v>
+      </c>
+      <c r="V380" s="16">
+        <v>351</v>
+      </c>
+      <c r="W380" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A381" s="19">
+        <v>379</v>
+      </c>
+      <c r="B381" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C381" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E381" s="16">
+        <f t="shared" si="118"/>
+        <v>30064480.850577593</v>
+      </c>
+      <c r="F381" s="16">
+        <v>5</v>
+      </c>
+      <c r="G381" s="18">
+        <f t="shared" si="117"/>
+        <v>1.702077064919158E+18</v>
+      </c>
+      <c r="H381" s="16">
+        <f t="shared" si="115"/>
+        <v>348828.29467941576</v>
+      </c>
+      <c r="I381" s="16">
+        <f t="shared" si="116"/>
+        <v>3298021500945039</v>
+      </c>
+      <c r="J381" s="16">
+        <v>1</v>
+      </c>
+      <c r="K381" s="16">
+        <v>11</v>
+      </c>
+      <c r="L381" s="16">
+        <v>5</v>
+      </c>
+      <c r="M381" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N381" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O381" s="16">
+        <v>30</v>
+      </c>
+      <c r="P381" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q381" s="16">
+        <v>0</v>
+      </c>
+      <c r="R381" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S381" s="16">
+        <v>78.178571428577101</v>
+      </c>
+      <c r="T381" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U381" s="18">
+        <v>712</v>
+      </c>
+      <c r="V381" s="16">
+        <v>353</v>
+      </c>
+      <c r="W381" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A382" s="15">
+        <v>380</v>
+      </c>
+      <c r="B382" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C382" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E382" s="16">
+        <f t="shared" si="118"/>
+        <v>30295102.776810847</v>
+      </c>
+      <c r="F382" s="16">
+        <v>5</v>
+      </c>
+      <c r="G382" s="18">
+        <f t="shared" si="117"/>
+        <v>1.7340836094383273E+18</v>
+      </c>
+      <c r="H382" s="16">
+        <f t="shared" si="115"/>
+        <v>350743.45094223158</v>
+      </c>
+      <c r="I382" s="16">
+        <f t="shared" si="116"/>
+        <v>3350737353067229.5</v>
+      </c>
+      <c r="J382" s="16">
+        <v>1</v>
+      </c>
+      <c r="K382" s="16">
+        <v>11</v>
+      </c>
+      <c r="L382" s="16">
+        <v>5</v>
+      </c>
+      <c r="M382" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N382" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O382" s="16">
+        <v>30</v>
+      </c>
+      <c r="P382" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q382" s="16">
+        <v>0</v>
+      </c>
+      <c r="R382" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S382" s="16">
+        <v>78.500000000005699</v>
+      </c>
+      <c r="T382" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U382" s="18">
+        <v>716</v>
+      </c>
+      <c r="V382" s="16">
+        <v>355</v>
+      </c>
+      <c r="W382" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A383" s="19">
+        <v>381</v>
+      </c>
+      <c r="B383" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C383" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E383" s="16">
+        <f t="shared" si="118"/>
+        <v>30526880.700326893</v>
+      </c>
+      <c r="F383" s="16">
+        <v>5</v>
+      </c>
+      <c r="G383" s="18">
+        <f t="shared" si="117"/>
+        <v>1.7666055203719647E+18</v>
+      </c>
+      <c r="H383" s="16">
+        <f t="shared" si="115"/>
+        <v>352664.21107822371</v>
+      </c>
+      <c r="I383" s="16">
+        <f t="shared" si="116"/>
+        <v>3404153946054161</v>
+      </c>
+      <c r="J383" s="16">
+        <v>1</v>
+      </c>
+      <c r="K383" s="16">
+        <v>11</v>
+      </c>
+      <c r="L383" s="16">
+        <v>5</v>
+      </c>
+      <c r="M383" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N383" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O383" s="16">
+        <v>30</v>
+      </c>
+      <c r="P383" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q383" s="16">
+        <v>0</v>
+      </c>
+      <c r="R383" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S383" s="16">
+        <v>78.821428571434296</v>
+      </c>
+      <c r="T383" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U383" s="18">
+        <v>720</v>
+      </c>
+      <c r="V383" s="16">
+        <v>357</v>
+      </c>
+      <c r="W383" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A384" s="15">
+        <v>382</v>
+      </c>
+      <c r="B384" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C384" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E384" s="16">
+        <f t="shared" si="118"/>
+        <v>30759817.358654346</v>
+      </c>
+      <c r="F384" s="16">
+        <v>5</v>
+      </c>
+      <c r="G384" s="18">
+        <f t="shared" si="117"/>
+        <v>1.7996497106828636E+18</v>
+      </c>
+      <c r="H384" s="16">
+        <f t="shared" si="115"/>
+        <v>354590.57714964729</v>
+      </c>
+      <c r="I384" s="16">
+        <f t="shared" si="116"/>
+        <v>3458278718758448.5</v>
+      </c>
+      <c r="J384" s="16">
+        <v>1</v>
+      </c>
+      <c r="K384" s="16">
+        <v>11</v>
+      </c>
+      <c r="L384" s="16">
+        <v>5</v>
+      </c>
+      <c r="M384" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N384" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O384" s="16">
+        <v>30</v>
+      </c>
+      <c r="P384" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q384" s="16">
+        <v>0</v>
+      </c>
+      <c r="R384" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S384" s="16">
+        <v>79.142857142862894</v>
+      </c>
+      <c r="T384" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U384" s="18">
+        <v>724</v>
+      </c>
+      <c r="V384" s="16">
+        <v>359</v>
+      </c>
+      <c r="W384" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A385" s="19">
+        <v>383</v>
+      </c>
+      <c r="B385" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C385" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E385" s="16">
+        <f t="shared" si="118"/>
+        <v>30993915.488603581</v>
+      </c>
+      <c r="F385" s="16">
+        <v>5</v>
+      </c>
+      <c r="G385" s="18">
+        <f t="shared" si="117"/>
+        <v>1.8332231675764626E+18</v>
+      </c>
+      <c r="H385" s="16">
+        <f t="shared" si="115"/>
+        <v>356522.55121410545</v>
+      </c>
+      <c r="I385" s="16">
+        <f t="shared" si="116"/>
+        <v>3513119169191666</v>
+      </c>
+      <c r="J385" s="16">
+        <v>1</v>
+      </c>
+      <c r="K385" s="16">
+        <v>11</v>
+      </c>
+      <c r="L385" s="16">
+        <v>5</v>
+      </c>
+      <c r="M385" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N385" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O385" s="16">
+        <v>30</v>
+      </c>
+      <c r="P385" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q385" s="16">
+        <v>0</v>
+      </c>
+      <c r="R385" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S385" s="16">
+        <v>79.464285714291506</v>
+      </c>
+      <c r="T385" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U385" s="18">
+        <v>728</v>
+      </c>
+      <c r="V385" s="16">
+        <v>361</v>
+      </c>
+      <c r="W385" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A386" s="15">
+        <v>384</v>
+      </c>
+      <c r="B386" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C386" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E386" s="16">
+        <f t="shared" si="118"/>
+        <v>31229177.82626855</v>
+      </c>
+      <c r="F386" s="16">
+        <v>5</v>
+      </c>
+      <c r="G386" s="18">
+        <f t="shared" si="117"/>
+        <v>1.8673329531006961E+18</v>
+      </c>
+      <c r="H386" s="16">
+        <f t="shared" ref="H386:H402" si="119">A386^2.14+50+50*A386</f>
+        <v>358460.13532457844</v>
+      </c>
+      <c r="I386" s="16">
+        <f t="shared" si="116"/>
+        <v>3568682854837921.5</v>
+      </c>
+      <c r="J386" s="16">
+        <v>1</v>
+      </c>
+      <c r="K386" s="16">
+        <v>11</v>
+      </c>
+      <c r="L386" s="16">
+        <v>5</v>
+      </c>
+      <c r="M386" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N386" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O386" s="16">
+        <v>30</v>
+      </c>
+      <c r="P386" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q386" s="16">
+        <v>0</v>
+      </c>
+      <c r="R386" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S386" s="16">
+        <v>79.785714285720104</v>
+      </c>
+      <c r="T386" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U386" s="18">
+        <v>732</v>
+      </c>
+      <c r="V386" s="16">
+        <v>363</v>
+      </c>
+      <c r="W386" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A387" s="15">
+        <v>385</v>
+      </c>
+      <c r="B387" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C387" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E387" s="16">
+        <f t="shared" si="118"/>
+        <v>31465607.107028872</v>
+      </c>
+      <c r="F387" s="16">
+        <v>5</v>
+      </c>
+      <c r="G387" s="18">
+        <f t="shared" si="117"/>
+        <v>1.9019862047490437E+18</v>
+      </c>
+      <c r="H387" s="16">
+        <f t="shared" si="119"/>
+        <v>360403.33152943745</v>
+      </c>
+      <c r="I387" s="16">
+        <f t="shared" si="116"/>
+        <v>3624977392968609</v>
+      </c>
+      <c r="J387" s="16">
+        <v>1</v>
+      </c>
+      <c r="K387" s="16">
+        <v>11</v>
+      </c>
+      <c r="L387" s="16">
+        <v>5</v>
+      </c>
+      <c r="M387" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N387" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O387" s="16">
+        <v>30</v>
+      </c>
+      <c r="P387" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q387" s="16">
+        <v>0</v>
+      </c>
+      <c r="R387" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S387" s="16">
+        <v>80.107142857148702</v>
+      </c>
+      <c r="T387" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U387" s="18">
+        <v>736</v>
+      </c>
+      <c r="V387" s="16">
+        <v>365</v>
+      </c>
+      <c r="W387" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A388" s="19">
+        <v>386</v>
+      </c>
+      <c r="B388" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C388" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E388" s="16">
+        <f t="shared" si="118"/>
+        <v>31703206.065551996</v>
+      </c>
+      <c r="F388" s="16">
+        <v>5</v>
+      </c>
+      <c r="G388" s="18">
+        <f t="shared" si="117"/>
+        <v>1.9371901360669757E+18</v>
+      </c>
+      <c r="H388" s="16">
+        <f t="shared" si="119"/>
+        <v>362352.1418724723</v>
+      </c>
+      <c r="I388" s="16">
+        <f t="shared" si="116"/>
+        <v>3682010460957699</v>
+      </c>
+      <c r="J388" s="16">
+        <v>1</v>
+      </c>
+      <c r="K388" s="16">
+        <v>11</v>
+      </c>
+      <c r="L388" s="16">
+        <v>5</v>
+      </c>
+      <c r="M388" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N388" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O388" s="16">
+        <v>30</v>
+      </c>
+      <c r="P388" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q388" s="16">
+        <v>0</v>
+      </c>
+      <c r="R388" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S388" s="16">
+        <v>80.4285714285773</v>
+      </c>
+      <c r="T388" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U388" s="18">
+        <v>740</v>
+      </c>
+      <c r="V388" s="16">
+        <v>367</v>
+      </c>
+      <c r="W388" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A389" s="15">
+        <v>387</v>
+      </c>
+      <c r="B389" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C389" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E389" s="16">
+        <f t="shared" si="118"/>
+        <v>31941977.435795102</v>
+      </c>
+      <c r="F389" s="16">
+        <v>5</v>
+      </c>
+      <c r="G389" s="18">
+        <f t="shared" si="117"/>
+        <v>1.9729520372615869E+18</v>
+      </c>
+      <c r="H389" s="16">
+        <f t="shared" si="119"/>
+        <v>364306.56839291536</v>
+      </c>
+      <c r="I389" s="16">
+        <f t="shared" si="116"/>
+        <v>3739789796598112</v>
+      </c>
+      <c r="J389" s="16">
+        <v>1</v>
+      </c>
+      <c r="K389" s="16">
+        <v>11</v>
+      </c>
+      <c r="L389" s="16">
+        <v>5</v>
+      </c>
+      <c r="M389" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N389" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O389" s="16">
+        <v>30</v>
+      </c>
+      <c r="P389" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q389" s="16">
+        <v>0</v>
+      </c>
+      <c r="R389" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S389" s="16">
+        <v>80.750000000005898</v>
+      </c>
+      <c r="T389" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U389" s="18">
+        <v>744</v>
+      </c>
+      <c r="V389" s="16">
+        <v>369</v>
+      </c>
+      <c r="W389" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A390" s="19">
+        <v>388</v>
+      </c>
+      <c r="B390" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C390" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E390" s="16">
+        <f t="shared" si="118"/>
+        <v>32181923.951007109</v>
+      </c>
+      <c r="F390" s="16">
+        <v>5</v>
+      </c>
+      <c r="G390" s="18">
+        <f t="shared" si="117"/>
+        <v>2.009279275814528E+18</v>
+      </c>
+      <c r="H390" s="16">
+        <f t="shared" si="119"/>
+        <v>366266.61312545702</v>
+      </c>
+      <c r="I390" s="16">
+        <f t="shared" si="116"/>
+        <v>3798323198418814</v>
+      </c>
+      <c r="J390" s="16">
+        <v>1</v>
+      </c>
+      <c r="K390" s="16">
+        <v>11</v>
+      </c>
+      <c r="L390" s="16">
+        <v>5</v>
+      </c>
+      <c r="M390" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N390" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O390" s="16">
+        <v>30</v>
+      </c>
+      <c r="P390" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q390" s="16">
+        <v>0</v>
+      </c>
+      <c r="R390" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S390" s="16">
+        <v>81.071428571434495</v>
+      </c>
+      <c r="T390" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U390" s="18">
+        <v>748</v>
+      </c>
+      <c r="V390" s="16">
+        <v>371</v>
+      </c>
+      <c r="W390" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A391" s="15">
+        <v>389</v>
+      </c>
+      <c r="B391" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C391" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E391" s="16">
+        <f t="shared" si="118"/>
+        <v>32423048.343730863</v>
+      </c>
+      <c r="F391" s="16">
+        <v>5</v>
+      </c>
+      <c r="G391" s="18">
+        <f t="shared" si="117"/>
+        <v>2.0461792970982717E+18</v>
+      </c>
+      <c r="H391" s="16">
+        <f t="shared" si="119"/>
+        <v>368232.27810027351</v>
+      </c>
+      <c r="I391" s="16">
+        <f t="shared" si="116"/>
+        <v>3857618526002680</v>
+      </c>
+      <c r="J391" s="16">
+        <v>1</v>
+      </c>
+      <c r="K391" s="16">
+        <v>11</v>
+      </c>
+      <c r="L391" s="16">
+        <v>5</v>
+      </c>
+      <c r="M391" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N391" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O391" s="16">
+        <v>30</v>
+      </c>
+      <c r="P391" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q391" s="16">
+        <v>0</v>
+      </c>
+      <c r="R391" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S391" s="16">
+        <v>81.392857142863093</v>
+      </c>
+      <c r="T391" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U391" s="18">
+        <v>752</v>
+      </c>
+      <c r="V391" s="16">
+        <v>373</v>
+      </c>
+      <c r="W391" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A392" s="19">
+        <v>390</v>
+      </c>
+      <c r="B392" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C392" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E392" s="16">
+        <f t="shared" si="118"/>
+        <v>32665353.345805302</v>
+      </c>
+      <c r="F392" s="16">
+        <v>5</v>
+      </c>
+      <c r="G392" s="18">
+        <f t="shared" si="117"/>
+        <v>2.0836596249956416E+18</v>
+      </c>
+      <c r="H392" s="16">
+        <f t="shared" si="119"/>
+        <v>370203.56534304563</v>
+      </c>
+      <c r="I392" s="16">
+        <f t="shared" si="116"/>
+        <v>3917683700305420.5</v>
+      </c>
+      <c r="J392" s="16">
+        <v>1</v>
+      </c>
+      <c r="K392" s="16">
+        <v>11</v>
+      </c>
+      <c r="L392" s="16">
+        <v>5</v>
+      </c>
+      <c r="M392" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N392" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O392" s="16">
+        <v>30</v>
+      </c>
+      <c r="P392" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q392" s="16">
+        <v>0</v>
+      </c>
+      <c r="R392" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S392" s="16">
+        <v>81.714285714291705</v>
+      </c>
+      <c r="T392" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U392" s="18">
+        <v>756</v>
+      </c>
+      <c r="V392" s="16">
+        <v>375</v>
+      </c>
+      <c r="W392" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A393" s="15">
+        <v>391</v>
+      </c>
+      <c r="B393" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C393" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E393" s="16">
+        <f t="shared" si="118"/>
+        <v>32908841.68836648</v>
+      </c>
+      <c r="F393" s="16">
+        <v>5</v>
+      </c>
+      <c r="G393" s="18">
+        <f t="shared" si="117"/>
+        <v>2.1217278625226775E+18</v>
+      </c>
+      <c r="H393" s="16">
+        <f t="shared" si="119"/>
+        <v>372180.47687497962</v>
+      </c>
+      <c r="I393" s="16">
+        <f t="shared" si="116"/>
+        <v>3978526703975043</v>
+      </c>
+      <c r="J393" s="16">
+        <v>1</v>
+      </c>
+      <c r="K393" s="16">
+        <v>11</v>
+      </c>
+      <c r="L393" s="16">
+        <v>5</v>
+      </c>
+      <c r="M393" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N393" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O393" s="16">
+        <v>30</v>
+      </c>
+      <c r="P393" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q393" s="16">
+        <v>0</v>
+      </c>
+      <c r="R393" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S393" s="16">
+        <v>82.035714285720303</v>
+      </c>
+      <c r="T393" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U393" s="18">
+        <v>760</v>
+      </c>
+      <c r="V393" s="16">
+        <v>377</v>
+      </c>
+      <c r="W393" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A394" s="15">
+        <v>392</v>
+      </c>
+      <c r="B394" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C394" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E394" s="16">
+        <f t="shared" si="118"/>
+        <v>33153516.101850864</v>
+      </c>
+      <c r="F394" s="16">
+        <v>5</v>
+      </c>
+      <c r="G394" s="18">
+        <f t="shared" si="117"/>
+        <v>2.1603916924547584E+18</v>
+      </c>
+      <c r="H394" s="16">
+        <f t="shared" si="119"/>
+        <v>374163.01471283019</v>
+      </c>
+      <c r="I394" s="16">
+        <f t="shared" si="116"/>
+        <v>4040155581672401.5</v>
+      </c>
+      <c r="J394" s="16">
+        <v>1</v>
+      </c>
+      <c r="K394" s="16">
+        <v>11</v>
+      </c>
+      <c r="L394" s="16">
+        <v>5</v>
+      </c>
+      <c r="M394" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N394" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O394" s="16">
+        <v>30</v>
+      </c>
+      <c r="P394" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q394" s="16">
+        <v>0</v>
+      </c>
+      <c r="R394" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S394" s="16">
+        <v>82.357142857148901</v>
+      </c>
+      <c r="T394" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U394" s="18">
+        <v>764</v>
+      </c>
+      <c r="V394" s="16">
+        <v>379</v>
+      </c>
+      <c r="W394" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A395" s="19">
+        <v>393</v>
+      </c>
+      <c r="B395" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C395" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E395" s="16">
+        <f t="shared" si="118"/>
+        <v>33399379.315996431</v>
+      </c>
+      <c r="F395" s="16">
+        <v>5</v>
+      </c>
+      <c r="G395" s="18">
+        <f t="shared" si="117"/>
+        <v>2.1996588779562696E+18</v>
+      </c>
+      <c r="H395" s="16">
+        <f t="shared" si="119"/>
+        <v>376151.18086892331</v>
+      </c>
+      <c r="I395" s="16">
+        <f t="shared" si="116"/>
+        <v>4102578440392504</v>
+      </c>
+      <c r="J395" s="16">
+        <v>1</v>
+      </c>
+      <c r="K395" s="16">
+        <v>11</v>
+      </c>
+      <c r="L395" s="16">
+        <v>5</v>
+      </c>
+      <c r="M395" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N395" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O395" s="16">
+        <v>30</v>
+      </c>
+      <c r="P395" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q395" s="16">
+        <v>0</v>
+      </c>
+      <c r="R395" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S395" s="16">
+        <v>82.678571428577499</v>
+      </c>
+      <c r="T395" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U395" s="18">
+        <v>768</v>
+      </c>
+      <c r="V395" s="16">
+        <v>381</v>
+      </c>
+      <c r="W395" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A396" s="15">
+        <v>394</v>
+      </c>
+      <c r="B396" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C396" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E396" s="16">
+        <f t="shared" si="118"/>
+        <v>33646434.059845097</v>
+      </c>
+      <c r="F396" s="16">
+        <v>5</v>
+      </c>
+      <c r="G396" s="18">
+        <f t="shared" si="117"/>
+        <v>2.2395372632132815E+18</v>
+      </c>
+      <c r="H396" s="16">
+        <f t="shared" si="119"/>
+        <v>378144.97735117102</v>
+      </c>
+      <c r="I396" s="16">
+        <f t="shared" si="116"/>
+        <v>4165803449786551</v>
+      </c>
+      <c r="J396" s="16">
+        <v>1</v>
+      </c>
+      <c r="K396" s="16">
+        <v>11</v>
+      </c>
+      <c r="L396" s="16">
+        <v>5</v>
+      </c>
+      <c r="M396" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N396" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O396" s="16">
+        <v>30</v>
+      </c>
+      <c r="P396" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q396" s="16">
+        <v>0</v>
+      </c>
+      <c r="R396" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S396" s="16">
+        <v>83.000000000006096</v>
+      </c>
+      <c r="T396" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U396" s="18">
+        <v>772</v>
+      </c>
+      <c r="V396" s="16">
+        <v>383</v>
+      </c>
+      <c r="W396" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A397" s="19">
+        <v>395</v>
+      </c>
+      <c r="B397" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C397" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E397" s="16">
+        <f t="shared" si="118"/>
+        <v>33894683.061744034</v>
+      </c>
+      <c r="F397" s="16">
+        <v>5</v>
+      </c>
+      <c r="G397" s="18">
+        <f t="shared" si="117"/>
+        <v>2.2800347740698714E+18</v>
+      </c>
+      <c r="H397" s="16">
+        <f t="shared" si="119"/>
+        <v>380144.40616309887</v>
+      </c>
+      <c r="I397" s="16">
+        <f t="shared" si="116"/>
+        <v>4229838842485046</v>
+      </c>
+      <c r="J397" s="16">
+        <v>1</v>
+      </c>
+      <c r="K397" s="16">
+        <v>11</v>
+      </c>
+      <c r="L397" s="16">
+        <v>5</v>
+      </c>
+      <c r="M397" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N397" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O397" s="16">
+        <v>30</v>
+      </c>
+      <c r="P397" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q397" s="16">
+        <v>0</v>
+      </c>
+      <c r="R397" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S397" s="16">
+        <v>83.321428571434694</v>
+      </c>
+      <c r="T397" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U397" s="18">
+        <v>776</v>
+      </c>
+      <c r="V397" s="16">
+        <v>385</v>
+      </c>
+      <c r="W397" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A398" s="15">
+        <v>396</v>
+      </c>
+      <c r="B398" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C398" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E398" s="16">
+        <f t="shared" si="118"/>
+        <v>34144129.049348503</v>
+      </c>
+      <c r="F398" s="16">
+        <v>5</v>
+      </c>
+      <c r="G398" s="18">
+        <f t="shared" si="117"/>
+        <v>2.3211594186676198E+18</v>
+      </c>
+      <c r="H398" s="16">
+        <f t="shared" si="119"/>
+        <v>382149.4693038633</v>
+      </c>
+      <c r="I398" s="16">
+        <f t="shared" si="116"/>
+        <v>4294692914421438</v>
+      </c>
+      <c r="J398" s="16">
+        <v>1</v>
+      </c>
+      <c r="K398" s="16">
+        <v>11</v>
+      </c>
+      <c r="L398" s="16">
+        <v>5</v>
+      </c>
+      <c r="M398" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N398" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O398" s="16">
+        <v>30</v>
+      </c>
+      <c r="P398" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q398" s="16">
+        <v>0</v>
+      </c>
+      <c r="R398" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S398" s="16">
+        <v>83.642857142863306</v>
+      </c>
+      <c r="T398" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U398" s="18">
+        <v>780</v>
+      </c>
+      <c r="V398" s="16">
+        <v>387</v>
+      </c>
+      <c r="W398" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A399" s="19">
+        <v>397</v>
+      </c>
+      <c r="B399" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C399" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E399" s="16">
+        <f t="shared" si="118"/>
+        <v>34394774.749623038</v>
+      </c>
+      <c r="F399" s="16">
+        <v>5</v>
+      </c>
+      <c r="G399" s="18">
+        <f t="shared" si="117"/>
+        <v>2.3629192880886241E+18</v>
+      </c>
+      <c r="H399" s="16">
+        <f t="shared" si="119"/>
+        <v>384160.16876827361</v>
+      </c>
+      <c r="I399" s="16">
+        <f t="shared" si="116"/>
+        <v>4360374025156932.5</v>
+      </c>
+      <c r="J399" s="16">
+        <v>1</v>
+      </c>
+      <c r="K399" s="16">
+        <v>11</v>
+      </c>
+      <c r="L399" s="16">
+        <v>5</v>
+      </c>
+      <c r="M399" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N399" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O399" s="16">
+        <v>30</v>
+      </c>
+      <c r="P399" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q399" s="16">
+        <v>0</v>
+      </c>
+      <c r="R399" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S399" s="16">
+        <v>83.964285714291904</v>
+      </c>
+      <c r="T399" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U399" s="18">
+        <v>784</v>
+      </c>
+      <c r="V399" s="16">
+        <v>389</v>
+      </c>
+      <c r="W399" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A400" s="15">
+        <v>398</v>
+      </c>
+      <c r="B400" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C400" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E400" s="16">
+        <f t="shared" si="118"/>
+        <v>34646622.888843499</v>
+      </c>
+      <c r="F400" s="16">
+        <v>5</v>
+      </c>
+      <c r="G400" s="18">
+        <f t="shared" si="117"/>
+        <v>2.4053225570017137E+18</v>
+      </c>
+      <c r="H400" s="16">
+        <f t="shared" si="119"/>
+        <v>386176.50654680986</v>
+      </c>
+      <c r="I400" s="16">
+        <f t="shared" si="116"/>
+        <v>4426890598205803.5</v>
+      </c>
+      <c r="J400" s="16">
+        <v>1</v>
+      </c>
+      <c r="K400" s="16">
+        <v>11</v>
+      </c>
+      <c r="L400" s="16">
+        <v>5</v>
+      </c>
+      <c r="M400" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N400" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O400" s="16">
+        <v>30</v>
+      </c>
+      <c r="P400" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q400" s="16">
+        <v>0</v>
+      </c>
+      <c r="R400" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S400" s="16">
+        <v>84.285714285720502</v>
+      </c>
+      <c r="T400" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U400" s="18">
+        <v>788</v>
+      </c>
+      <c r="V400" s="16">
+        <v>391</v>
+      </c>
+      <c r="W400" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="401" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A401" s="15">
+        <v>399</v>
+      </c>
+      <c r="B401" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C401" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E401" s="16">
+        <f t="shared" si="118"/>
+        <v>34899676.192599595</v>
+      </c>
+      <c r="F401" s="16">
+        <v>5</v>
+      </c>
+      <c r="G401" s="18">
+        <f t="shared" si="117"/>
+        <v>2.4483774843122883E+18</v>
+      </c>
+      <c r="H401" s="16">
+        <f t="shared" si="119"/>
+        <v>388198.48462564655</v>
+      </c>
+      <c r="I401" s="16">
+        <f t="shared" si="116"/>
+        <v>4494251121361918.5</v>
+      </c>
+      <c r="J401" s="16">
+        <v>1</v>
+      </c>
+      <c r="K401" s="16">
+        <v>11</v>
+      </c>
+      <c r="L401" s="16">
+        <v>5</v>
+      </c>
+      <c r="M401" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N401" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O401" s="16">
+        <v>30</v>
+      </c>
+      <c r="P401" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q401" s="16">
+        <v>0</v>
+      </c>
+      <c r="R401" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S401" s="16">
+        <v>84.6071428571491</v>
+      </c>
+      <c r="T401" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U401" s="18">
+        <v>792</v>
+      </c>
+      <c r="V401" s="16">
+        <v>393</v>
+      </c>
+      <c r="W401" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="402" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A402" s="19">
+        <v>400</v>
+      </c>
+      <c r="B402" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C402" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E402" s="16">
+        <f t="shared" si="118"/>
+        <v>35153937.385795772</v>
+      </c>
+      <c r="F402" s="16">
+        <v>5</v>
+      </c>
+      <c r="G402" s="18">
+        <f t="shared" si="117"/>
+        <v>2.4920924138152192E+18</v>
+      </c>
+      <c r="H402" s="16">
+        <f t="shared" si="119"/>
+        <v>390226.10498667031</v>
+      </c>
+      <c r="I402" s="16">
+        <f t="shared" si="116"/>
+        <v>4562464147025670</v>
+      </c>
+      <c r="J402" s="16">
+        <v>1</v>
+      </c>
+      <c r="K402" s="16">
+        <v>11</v>
+      </c>
+      <c r="L402" s="16">
+        <v>5</v>
+      </c>
+      <c r="M402" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N402" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O402" s="16">
+        <v>30</v>
+      </c>
+      <c r="P402" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q402" s="16">
+        <v>0</v>
+      </c>
+      <c r="R402" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S402" s="16">
+        <v>84.928571428577698</v>
+      </c>
+      <c r="T402" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U402" s="18">
+        <v>796</v>
+      </c>
+      <c r="V402" s="16">
+        <v>395</v>
+      </c>
+      <c r="W402" s="22">
         <v>1.07</v>
       </c>
     </row>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DA1976-FAEF-4713-BCF7-BE221867E14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C6F602-6931-48F2-A651-4F7E7AA38127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="102">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,6 +624,27 @@
   </si>
   <si>
     <t>15-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-1</t>
+  </si>
+  <si>
+    <t>16-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-2</t>
+  </si>
+  <si>
+    <t>16-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-3</t>
+  </si>
+  <si>
+    <t>16-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,9 +1243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Y402"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G305" sqref="G305"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T365" sqref="T365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20951,7 +20972,7 @@
         <v>92</v>
       </c>
       <c r="E246" s="16">
-        <f t="shared" ref="E246:E309" si="108">A246^2.9</f>
+        <f t="shared" ref="E246:E302" si="108">A246^2.9</f>
         <v>8383598.9844874209</v>
       </c>
       <c r="F246" s="16">
@@ -23982,7 +24003,7 @@
         <v>5</v>
       </c>
       <c r="G288" s="18">
-        <f t="shared" ref="G288:G351" si="113">A288^7.07+A288^4+100*A288+100</f>
+        <f t="shared" ref="G288:G302" si="113">A288^7.07+A288^4+100*A288+100</f>
         <v>2.3254546082801091E+17</v>
       </c>
       <c r="H288" s="16">
@@ -25052,18 +25073,18 @@
         <v>56</v>
       </c>
       <c r="C303" s="17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E303" s="16">
-        <f t="shared" si="108"/>
-        <v>15411426.422940711</v>
+        <f>A303^2.899</f>
+        <v>15323722.219838625</v>
       </c>
       <c r="F303" s="16">
         <v>5</v>
       </c>
       <c r="G303" s="18">
-        <f t="shared" si="113"/>
-        <v>3.337837076959271E+17</v>
+        <f>A303^7.066+A303^4+100*A303+100</f>
+        <v>3.2625026175971776E+17</v>
       </c>
       <c r="H303" s="16">
         <f t="shared" si="110"/>
@@ -25107,7 +25128,7 @@
         <v>59</v>
       </c>
       <c r="U303" s="18">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="V303" s="16">
         <v>197</v>
@@ -25124,18 +25145,18 @@
         <v>56</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E304" s="16">
-        <f t="shared" si="108"/>
-        <v>15560377.702929765</v>
+        <f t="shared" ref="E304:E367" si="114">A304^2.899</f>
+        <v>15471774.523460811</v>
       </c>
       <c r="F304" s="16">
         <v>5</v>
       </c>
       <c r="G304" s="18">
-        <f t="shared" si="113"/>
-        <v>3.4170324040831488E+17</v>
+        <f t="shared" ref="G304:G367" si="115">A304^7.066+A304^4+100*A304+100</f>
+        <v>3.3398662082557779E+17</v>
       </c>
       <c r="H304" s="16">
         <f t="shared" si="110"/>
@@ -25179,7 +25200,7 @@
         <v>59</v>
       </c>
       <c r="U304" s="18">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="V304" s="16">
         <v>199</v>
@@ -25196,18 +25217,18 @@
         <v>56</v>
       </c>
       <c r="C305" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E305" s="16">
-        <f t="shared" si="108"/>
-        <v>15710269.047763498</v>
+        <f t="shared" si="114"/>
+        <v>15620760.724954948</v>
       </c>
       <c r="F305" s="16">
         <v>5</v>
       </c>
       <c r="G305" s="18">
-        <f t="shared" si="113"/>
-        <v>3.497835603297687E+17</v>
+        <f t="shared" si="115"/>
+        <v>3.41879943649744E+17</v>
       </c>
       <c r="H305" s="16">
         <f t="shared" si="110"/>
@@ -25251,7 +25272,7 @@
         <v>59</v>
       </c>
       <c r="U305" s="18">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="V305" s="16">
         <v>201</v>
@@ -25268,18 +25289,18 @@
         <v>56</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E306" s="16">
-        <f t="shared" si="108"/>
-        <v>15861103.258496903</v>
+        <f t="shared" si="114"/>
+        <v>15770683.60390419</v>
       </c>
       <c r="F306" s="16">
         <v>5</v>
       </c>
       <c r="G306" s="18">
-        <f t="shared" si="113"/>
-        <v>3.5802738499919795E+17</v>
+        <f t="shared" si="115"/>
+        <v>3.4993288103863418E+17</v>
       </c>
       <c r="H306" s="16">
         <f t="shared" si="110"/>
@@ -25323,7 +25344,7 @@
         <v>59</v>
       </c>
       <c r="U306" s="18">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="V306" s="16">
         <v>203</v>
@@ -25340,18 +25361,18 @@
         <v>56</v>
       </c>
       <c r="C307" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E307" s="16">
-        <f t="shared" si="108"/>
-        <v>16012883.135260664</v>
+        <f t="shared" si="114"/>
+        <v>15921545.938965337</v>
       </c>
       <c r="F307" s="16">
         <v>5</v>
       </c>
       <c r="G307" s="18">
-        <f t="shared" si="113"/>
-        <v>3.6643746870440454E+17</v>
+        <f t="shared" si="115"/>
+        <v>3.5814811960967654E+17</v>
       </c>
       <c r="H307" s="16">
         <f t="shared" si="110"/>
@@ -25395,7 +25416,7 @@
         <v>59</v>
       </c>
       <c r="U307" s="18">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="V307" s="16">
         <v>205</v>
@@ -25412,18 +25433,18 @@
         <v>56</v>
       </c>
       <c r="C308" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E308" s="16">
-        <f t="shared" si="108"/>
-        <v>16165611.477264496</v>
+        <f t="shared" si="114"/>
+        <v>16073350.507872155</v>
       </c>
       <c r="F308" s="16">
         <v>5</v>
       </c>
       <c r="G308" s="18">
-        <f t="shared" si="113"/>
-        <v>3.7501660285571123E+17</v>
+        <f t="shared" si="115"/>
+        <v>3.6652838215492371E+17</v>
       </c>
       <c r="H308" s="16">
         <f t="shared" si="110"/>
@@ -25467,7 +25488,7 @@
         <v>59</v>
       </c>
       <c r="U308" s="18">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="V308" s="16">
         <v>207</v>
@@ -25484,18 +25505,18 @@
         <v>56</v>
       </c>
       <c r="C309" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E309" s="16">
-        <f t="shared" si="108"/>
-        <v>16319291.082800625</v>
+        <f t="shared" si="114"/>
+        <v>16226100.087438792</v>
       </c>
       <c r="F309" s="16">
         <v>5</v>
       </c>
       <c r="G309" s="18">
-        <f t="shared" si="113"/>
-        <v>3.8376761636211053E+17</v>
+        <f t="shared" si="115"/>
+        <v>3.7507642800711936E+17</v>
       </c>
       <c r="H309" s="16">
         <f t="shared" si="110"/>
@@ -25539,7 +25560,7 @@
         <v>59</v>
       </c>
       <c r="U309" s="18">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="V309" s="16">
         <v>209</v>
@@ -25556,18 +25577,18 @@
         <v>56</v>
       </c>
       <c r="C310" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E310" s="16">
-        <f t="shared" ref="E310:E373" si="114">A310^2.9</f>
-        <v>16473924.749246776</v>
+        <f t="shared" si="114"/>
+        <v>16379797.453562861</v>
       </c>
       <c r="F310" s="16">
         <v>5</v>
       </c>
       <c r="G310" s="18">
-        <f t="shared" si="113"/>
-        <v>3.9269337600999782E+17</v>
+        <f t="shared" si="115"/>
+        <v>3.8379505340828403E+17</v>
       </c>
       <c r="H310" s="16">
         <f t="shared" si="110"/>
@@ -25611,7 +25632,7 @@
         <v>59</v>
       </c>
       <c r="U310" s="18">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="V310" s="16">
         <v>211</v>
@@ -25628,18 +25649,18 @@
         <v>56</v>
       </c>
       <c r="C311" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E311" s="16">
         <f t="shared" si="114"/>
-        <v>16629515.273069788</v>
+        <v>16534445.381229097</v>
       </c>
       <c r="F311" s="16">
         <v>5</v>
       </c>
       <c r="G311" s="18">
-        <f t="shared" si="113"/>
-        <v>4.0179678684446848E+17</v>
+        <f t="shared" si="115"/>
+        <v>3.9268709188075814E+17</v>
       </c>
       <c r="H311" s="16">
         <f t="shared" si="110"/>
@@ -25683,7 +25704,7 @@
         <v>59</v>
       </c>
       <c r="U311" s="18">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="V311" s="16">
         <v>213</v>
@@ -25700,18 +25721,18 @@
         <v>56</v>
       </c>
       <c r="C312" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E312" s="16">
         <f t="shared" si="114"/>
-        <v>16786065.449828446</v>
+        <v>16690046.644512113</v>
       </c>
       <c r="F312" s="16">
         <v>5</v>
       </c>
       <c r="G312" s="18">
-        <f t="shared" si="113"/>
-        <v>4.1108079255317357E+17</v>
+        <f t="shared" si="115"/>
+        <v>4.0175541460077344E+17</v>
       </c>
       <c r="H312" s="16">
         <f t="shared" si="110"/>
@@ -25755,7 +25776,7 @@
         <v>59</v>
       </c>
       <c r="U312" s="18">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="V312" s="16">
         <v>215</v>
@@ -25772,18 +25793,18 @@
         <v>56</v>
       </c>
       <c r="C313" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E313" s="16">
         <f t="shared" si="114"/>
-        <v>16943578.074177232</v>
+        <v>16846604.016580168</v>
       </c>
       <c r="F313" s="16">
         <v>5</v>
       </c>
       <c r="G313" s="18">
-        <f t="shared" si="113"/>
-        <v>4.2054837585282029E+17</v>
+        <f t="shared" si="115"/>
+        <v>4.1100293077455194E+17</v>
       </c>
       <c r="H313" s="16">
         <f t="shared" si="110"/>
@@ -25827,7 +25848,7 @@
         <v>59</v>
       </c>
       <c r="U313" s="18">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="V313" s="16">
         <v>217</v>
@@ -25844,18 +25865,18 @@
         <v>56</v>
       </c>
       <c r="C314" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E314" s="16">
         <f t="shared" si="114"/>
-        <v>17102055.93986918</v>
+        <v>17004120.269698143</v>
       </c>
       <c r="F314" s="16">
         <v>5</v>
       </c>
       <c r="G314" s="18">
-        <f t="shared" si="113"/>
-        <v>4.3020255887820634E+17</v>
+        <f t="shared" si="115"/>
+        <v>4.2043258801689818E+17</v>
       </c>
       <c r="H314" s="16">
         <f t="shared" si="110"/>
@@ -25899,7 +25920,7 @@
         <v>59</v>
       </c>
       <c r="U314" s="18">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="V314" s="16">
         <v>219</v>
@@ -25916,18 +25937,18 @@
         <v>56</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E315" s="16">
         <f t="shared" si="114"/>
-        <v>17261501.839759044</v>
+        <v>17162598.1752306</v>
       </c>
       <c r="F315" s="16">
         <v>5</v>
       </c>
       <c r="G315" s="18">
-        <f t="shared" si="113"/>
-        <v>4.4004640357388544E+17</v>
+        <f t="shared" si="115"/>
+        <v>4.3004737273233747E+17</v>
       </c>
       <c r="H315" s="16">
         <f t="shared" si="110"/>
@@ -25971,7 +25992,7 @@
         <v>59</v>
       </c>
       <c r="U315" s="18">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="V315" s="16">
         <v>221</v>
@@ -25988,18 +26009,18 @@
         <v>56</v>
       </c>
       <c r="C316" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E316" s="16">
         <f t="shared" si="114"/>
-        <v>17421918.565806821</v>
+        <v>17322040.503645141</v>
       </c>
       <c r="F316" s="16">
         <v>5</v>
       </c>
       <c r="G316" s="18">
-        <f t="shared" si="113"/>
-        <v>4.5008301208847878E+17</v>
+        <f t="shared" si="115"/>
+        <v>4.398503104988039E+17</v>
       </c>
       <c r="H316" s="16">
         <f t="shared" si="110"/>
@@ -26043,7 +26064,7 @@
         <v>59</v>
       </c>
       <c r="U316" s="18">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="V316" s="16">
         <v>223</v>
@@ -26060,18 +26081,18 @@
         <v>56</v>
       </c>
       <c r="C317" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E317" s="16">
         <f t="shared" si="114"/>
-        <v>17583308.909080397</v>
+        <v>17482450.024515659</v>
       </c>
       <c r="F317" s="16">
         <v>5</v>
       </c>
       <c r="G317" s="18">
-        <f t="shared" si="113"/>
-        <v>4.6031552717154867E+17</v>
+        <f t="shared" si="115"/>
+        <v>4.4984446645386042E+17</v>
       </c>
       <c r="H317" s="16">
         <f t="shared" si="110"/>
@@ -26115,7 +26136,7 @@
         <v>59</v>
       </c>
       <c r="U317" s="18">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="V317" s="16">
         <v>225</v>
@@ -26132,18 +26153,18 @@
         <v>56</v>
       </c>
       <c r="C318" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E318" s="16">
         <f t="shared" si="114"/>
-        <v>17745675.659759015</v>
+        <v>17643829.506525189</v>
       </c>
       <c r="F318" s="16">
         <v>5</v>
       </c>
       <c r="G318" s="18">
-        <f t="shared" si="113"/>
-        <v>4.7074713257317018E+17</v>
+        <f t="shared" si="115"/>
+        <v>4.6003294568347955E+17</v>
       </c>
       <c r="H318" s="16">
         <f t="shared" si="110"/>
@@ -26187,7 +26208,7 @@
         <v>59</v>
       </c>
       <c r="U318" s="18">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="V318" s="16">
         <v>227</v>
@@ -26204,18 +26225,18 @@
         <v>56</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E319" s="16">
         <f t="shared" si="114"/>
-        <v>17909021.607136242</v>
+        <v>17806181.717469174</v>
       </c>
       <c r="F319" s="16">
         <v>5</v>
       </c>
       <c r="G319" s="18">
-        <f t="shared" si="113"/>
-        <v>4.8138105344609786E+17</v>
+        <f t="shared" si="115"/>
+        <v>4.7041889361340032E+17</v>
       </c>
       <c r="H319" s="16">
         <f t="shared" si="110"/>
@@ -26259,7 +26280,7 @@
         <v>59</v>
       </c>
       <c r="U319" s="18">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="V319" s="16">
         <v>229</v>
@@ -26276,18 +26297,18 @@
         <v>56</v>
       </c>
       <c r="C320" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E320" s="16">
         <f t="shared" si="114"/>
-        <v>18073349.539623208</v>
+        <v>17969509.424258683</v>
       </c>
       <c r="F320" s="16">
         <v>5</v>
       </c>
       <c r="G320" s="18">
-        <f t="shared" si="113"/>
-        <v>4.9222055675060966E+17</v>
+        <f t="shared" si="115"/>
+        <v>4.810054964030672E+17</v>
       </c>
       <c r="H320" s="16">
         <f t="shared" si="110"/>
@@ -26331,7 +26352,7 @@
         <v>59</v>
       </c>
       <c r="U320" s="18">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="V320" s="16">
         <v>231</v>
@@ -26348,18 +26369,18 @@
         <v>56</v>
       </c>
       <c r="C321" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E321" s="16">
         <f t="shared" si="114"/>
-        <v>18238662.24475145</v>
+        <v>18133815.392923109</v>
       </c>
       <c r="F321" s="16">
         <v>5</v>
       </c>
       <c r="G321" s="18">
-        <f t="shared" si="113"/>
-        <v>5.032689516620016E+17</v>
+        <f t="shared" si="115"/>
+        <v>4.9179598134210586E+17</v>
       </c>
       <c r="H321" s="16">
         <f t="shared" si="110"/>
@@ -26403,7 +26424,7 @@
         <v>59</v>
       </c>
       <c r="U321" s="18">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="V321" s="16">
         <v>233</v>
@@ -26420,21 +26441,21 @@
         <v>56</v>
       </c>
       <c r="C322" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E322" s="16">
         <f t="shared" si="114"/>
-        <v>18404962.509176135</v>
+        <v>18299102.388613798</v>
       </c>
       <c r="F322" s="16">
         <v>5</v>
       </c>
       <c r="G322" s="18">
-        <f t="shared" si="113"/>
-        <v>5.1452958998075821E+17</v>
+        <f t="shared" si="115"/>
+        <v>5.0279361724947123E+17</v>
       </c>
       <c r="H322" s="16">
-        <f t="shared" ref="H322:H385" si="115">A322^2.14+50+50*A322</f>
+        <f t="shared" ref="H322:H385" si="116">A322^2.14+50+50*A322</f>
         <v>245675.94341194426</v>
       </c>
       <c r="I322" s="16">
@@ -26475,7 +26496,7 @@
         <v>59</v>
       </c>
       <c r="U322" s="18">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="V322" s="16">
         <v>235</v>
@@ -26492,21 +26513,21 @@
         <v>56</v>
       </c>
       <c r="C323" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E323" s="16">
         <f t="shared" si="114"/>
-        <v>18572253.118678909</v>
+        <v>18465373.175606504</v>
       </c>
       <c r="F323" s="16">
         <v>5</v>
       </c>
       <c r="G323" s="18">
-        <f t="shared" si="113"/>
-        <v>5.2600586654538874E+17</v>
+        <f t="shared" si="115"/>
+        <v>5.1400171487511629E+17</v>
       </c>
       <c r="H323" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>247264.30263649949</v>
       </c>
       <c r="I323" s="16">
@@ -26547,7 +26568,7 @@
         <v>59</v>
       </c>
       <c r="U323" s="18">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="V323" s="16">
         <v>237</v>
@@ -26564,21 +26585,21 @@
         <v>56</v>
       </c>
       <c r="C324" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E324" s="16">
         <f t="shared" si="114"/>
-        <v>18740536.858171053</v>
+        <v>18632630.517304707</v>
       </c>
       <c r="F324" s="16">
         <v>5</v>
       </c>
       <c r="G324" s="18">
-        <f t="shared" si="113"/>
-        <v>5.3770121964796992E+17</v>
+        <f t="shared" si="115"/>
+        <v>5.254236273043273E+17</v>
       </c>
       <c r="H324" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>248858.13490943145</v>
       </c>
       <c r="I324" s="16">
@@ -26619,7 +26640,7 @@
         <v>59</v>
       </c>
       <c r="U324" s="18">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="V324" s="16">
         <v>239</v>
@@ -26636,21 +26657,21 @@
         <v>56</v>
       </c>
       <c r="C325" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E325" s="16">
         <f t="shared" si="114"/>
-        <v>18909816.511696447</v>
+        <v>18800877.176242419</v>
       </c>
       <c r="F325" s="16">
         <v>5</v>
       </c>
       <c r="G325" s="18">
-        <f t="shared" si="113"/>
-        <v>5.4961913145236902E+17</v>
+        <f t="shared" si="115"/>
+        <v>5.370627503646432E+17</v>
       </c>
       <c r="H325" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>250457.44261455155</v>
       </c>
       <c r="I325" s="16">
@@ -26691,7 +26712,7 @@
         <v>59</v>
       </c>
       <c r="U325" s="18">
-        <v>488</v>
+        <v>420</v>
       </c>
       <c r="V325" s="16">
         <v>241</v>
@@ -26708,21 +26729,21 @@
         <v>56</v>
       </c>
       <c r="C326" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E326" s="16">
         <f t="shared" si="114"/>
-        <v>19080094.862434316</v>
+        <v>18970115.914087519</v>
       </c>
       <c r="F326" s="16">
         <v>5</v>
       </c>
       <c r="G326" s="18">
-        <f t="shared" si="113"/>
-        <v>5.6176312841518662E+17</v>
+        <f t="shared" si="115"/>
+        <v>5.4892252303542726E+17</v>
       </c>
       <c r="H326" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>252062.22812931216</v>
       </c>
       <c r="I326" s="16">
@@ -26763,7 +26784,7 @@
         <v>59</v>
       </c>
       <c r="U326" s="18">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="V326" s="16">
         <v>243</v>
@@ -26780,21 +26801,21 @@
         <v>56</v>
       </c>
       <c r="C327" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E327" s="16">
         <f t="shared" si="114"/>
-        <v>19251374.69270267</v>
+        <v>19140349.491644356</v>
       </c>
       <c r="F327" s="16">
         <v>5</v>
       </c>
       <c r="G327" s="18">
-        <f t="shared" si="113"/>
-        <v>5.7413678170940109E+17</v>
+        <f t="shared" si="115"/>
+        <v>5.6100642786006176E+17</v>
       </c>
       <c r="H327" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>253672.49382484608</v>
       </c>
       <c r="I327" s="16">
@@ -26835,7 +26856,7 @@
         <v>59</v>
       </c>
       <c r="U327" s="18">
-        <v>496</v>
+        <v>422</v>
       </c>
       <c r="V327" s="16">
         <v>245</v>
@@ -26852,21 +26873,21 @@
         <v>56</v>
       </c>
       <c r="C328" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E328" s="16">
         <f t="shared" si="114"/>
-        <v>19423658.783960566</v>
+        <v>19311580.668856695</v>
       </c>
       <c r="F328" s="16">
         <v>5</v>
       </c>
       <c r="G328" s="18">
-        <f t="shared" si="113"/>
-        <v>5.867437076507392E+17</v>
+        <f t="shared" si="115"/>
+        <v>5.7331799136079142E+17</v>
       </c>
       <c r="H328" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>255288.24206599753</v>
       </c>
       <c r="I328" s="16">
@@ -26907,7 +26928,7 @@
         <v>59</v>
       </c>
       <c r="U328" s="18">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="V328" s="16">
         <v>247</v>
@@ -26924,21 +26945,21 @@
         <v>56</v>
       </c>
       <c r="C329" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E329" s="16">
         <f t="shared" si="114"/>
-        <v>19596949.916811533</v>
+        <v>19483812.20481075</v>
       </c>
       <c r="F329" s="16">
         <v>5</v>
       </c>
       <c r="G329" s="18">
-        <f t="shared" si="113"/>
-        <v>5.9958756812679462E+17</v>
+        <f t="shared" si="115"/>
+        <v>5.858607844562048E+17</v>
       </c>
       <c r="H329" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>256909.47521136413</v>
       </c>
       <c r="I329" s="16">
@@ -26979,7 +27000,7 @@
         <v>59</v>
       </c>
       <c r="U329" s="18">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="V329" s="16">
         <v>249</v>
@@ -26996,21 +27017,21 @@
         <v>56</v>
       </c>
       <c r="C330" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E330" s="16">
         <f t="shared" si="114"/>
-        <v>19771250.871006291</v>
+        <v>19657046.85773816</v>
       </c>
       <c r="F330" s="16">
         <v>5</v>
       </c>
       <c r="G330" s="18">
-        <f t="shared" si="113"/>
-        <v>6.1267207102885914E+17</v>
+        <f t="shared" si="115"/>
+        <v>5.9863842288142374E+17</v>
       </c>
       <c r="H330" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>258536.19561332781</v>
       </c>
       <c r="I330" s="16">
@@ -27051,7 +27072,7 @@
         <v>59</v>
       </c>
       <c r="U330" s="18">
-        <v>508</v>
+        <v>425</v>
       </c>
       <c r="V330" s="16">
         <v>251</v>
@@ -27068,21 +27089,21 @@
         <v>56</v>
       </c>
       <c r="C331" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E331" s="16">
         <f t="shared" si="114"/>
-        <v>19946564.425445512</v>
+        <v>19831287.38501868</v>
       </c>
       <c r="F331" s="16">
         <v>5</v>
       </c>
       <c r="G331" s="18">
-        <f t="shared" si="113"/>
-        <v>6.2600097068653184E+17</v>
+        <f t="shared" si="115"/>
+        <v>6.1165456761089702E+17</v>
       </c>
       <c r="H331" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>260168.40561809164</v>
       </c>
       <c r="I331" s="16">
@@ -27123,7 +27144,7 @@
         <v>59</v>
       </c>
       <c r="U331" s="18">
-        <v>512</v>
+        <v>426</v>
       </c>
       <c r="V331" s="16">
         <v>253</v>
@@ -27140,21 +27161,21 @@
         <v>56</v>
       </c>
       <c r="C332" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E332" s="16">
         <f t="shared" si="114"/>
-        <v>20122893.358182862</v>
+        <v>20006536.543183234</v>
       </c>
       <c r="F332" s="16">
         <v>5</v>
       </c>
       <c r="G332" s="18">
-        <f t="shared" si="113"/>
-        <v>6.3957806830508429E+17</v>
+        <f t="shared" si="115"/>
+        <v>6.2491292528393293E+17</v>
       </c>
       <c r="H332" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>261806.10756571736</v>
       </c>
       <c r="I332" s="16">
@@ -27195,7 +27216,7 @@
         <v>59</v>
       </c>
       <c r="U332" s="18">
-        <v>516</v>
+        <v>427</v>
       </c>
       <c r="V332" s="16">
         <v>255</v>
@@ -27212,21 +27233,21 @@
         <v>56</v>
       </c>
       <c r="C333" s="17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E333" s="16">
         <f t="shared" si="114"/>
-        <v>20300240.446427748</v>
+        <v>20182797.08791649</v>
       </c>
       <c r="F333" s="16">
         <v>5</v>
       </c>
       <c r="G333" s="18">
-        <f t="shared" si="113"/>
-        <v>6.5340721240558835E+17</v>
+        <f t="shared" si="115"/>
+        <v>6.384172486328919E+17</v>
       </c>
       <c r="H333" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>263449.30379015557</v>
       </c>
       <c r="I333" s="16">
@@ -27267,7 +27288,7 @@
         <v>59</v>
       </c>
       <c r="U333" s="18">
-        <v>520</v>
+        <v>428</v>
       </c>
       <c r="V333" s="16">
         <v>257</v>
@@ -27284,21 +27305,21 @@
         <v>56</v>
       </c>
       <c r="C334" s="17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E334" s="16">
         <f t="shared" si="114"/>
-        <v>20478608.466548018</v>
+        <v>20360071.774059769</v>
       </c>
       <c r="F334" s="16">
         <v>5</v>
       </c>
       <c r="G334" s="18">
-        <f t="shared" si="113"/>
-        <v>6.6749229926779187E+17</v>
+        <f t="shared" si="115"/>
+        <v>6.5217133691408038E+17</v>
       </c>
       <c r="H334" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>265097.99661928322</v>
       </c>
       <c r="I334" s="16">
@@ -27339,7 +27360,7 @@
         <v>59</v>
       </c>
       <c r="U334" s="18">
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="V334" s="16">
         <v>259</v>
@@ -27356,21 +27377,21 @@
         <v>56</v>
       </c>
       <c r="C335" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E335" s="16">
         <f t="shared" si="114"/>
-        <v>20658000.194073036</v>
+        <v>20538363.355614338</v>
       </c>
       <c r="F335" s="16">
         <v>5</v>
       </c>
       <c r="G335" s="18">
-        <f t="shared" si="113"/>
-        <v>6.8183727337585997E+17</v>
+        <f t="shared" si="115"/>
+        <v>6.661790363413536E+17</v>
       </c>
       <c r="H335" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>266752.1883749367</v>
       </c>
       <c r="I335" s="16">
@@ -27411,7 +27432,7 @@
         <v>59</v>
       </c>
       <c r="U335" s="18">
-        <v>528</v>
+        <v>430</v>
       </c>
       <c r="V335" s="16">
         <v>261</v>
@@ -27428,21 +27449,21 @@
         <v>56</v>
       </c>
       <c r="C336" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E336" s="16">
         <f t="shared" si="114"/>
-        <v>20838418.403696097</v>
+        <v>20717674.585743282</v>
       </c>
       <c r="F336" s="16">
         <v>5</v>
       </c>
       <c r="G336" s="18">
-        <f t="shared" si="113"/>
-        <v>6.9644612786682906E+17</v>
+        <f t="shared" si="115"/>
+        <v>6.8044424052243072E+17</v>
       </c>
       <c r="H336" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>268411.88137294597</v>
       </c>
       <c r="I336" s="16">
@@ -27483,7 +27504,7 @@
         <v>59</v>
       </c>
       <c r="U336" s="18">
-        <v>532</v>
+        <v>431</v>
       </c>
       <c r="V336" s="16">
         <v>263</v>
@@ -27500,21 +27521,21 @@
         <v>56</v>
       </c>
       <c r="C337" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E337" s="16">
         <f t="shared" si="114"/>
-        <v>21019865.86927741</v>
+        <v>20898008.216774937</v>
       </c>
       <c r="F337" s="16">
         <v>5</v>
       </c>
       <c r="G337" s="18">
-        <f t="shared" si="113"/>
-        <v>7.1132290498189402E+17</v>
+        <f t="shared" si="115"/>
+        <v>6.9497089089792973E+17</v>
       </c>
       <c r="H337" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>270077.07792316657</v>
       </c>
       <c r="I337" s="16">
@@ -27555,7 +27576,7 @@
         <v>59</v>
       </c>
       <c r="U337" s="18">
-        <v>536</v>
+        <v>432</v>
       </c>
       <c r="V337" s="16">
         <v>265</v>
@@ -27572,21 +27593,21 @@
         <v>56</v>
       </c>
       <c r="C338" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E338" s="16">
         <f t="shared" si="114"/>
-        <v>21202345.363846954</v>
+        <v>21079367.000205617</v>
       </c>
       <c r="F338" s="16">
         <v>5</v>
       </c>
       <c r="G338" s="18">
-        <f t="shared" si="113"/>
-        <v>7.2647169652056563E+17</v>
+        <f t="shared" si="115"/>
+        <v>7.0976297718316224E+17</v>
       </c>
       <c r="H338" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>271747.78032951697</v>
       </c>
       <c r="I338" s="16">
@@ -27627,7 +27648,7 @@
         <v>59</v>
       </c>
       <c r="U338" s="18">
-        <v>540</v>
+        <v>433</v>
       </c>
       <c r="V338" s="16">
         <v>267</v>
@@ -27644,21 +27665,21 @@
         <v>56</v>
       </c>
       <c r="C339" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E339" s="16">
         <f t="shared" si="114"/>
-        <v>21385859.659606919</v>
+        <v>21261753.686702073</v>
       </c>
       <c r="F339" s="16">
         <v>5</v>
       </c>
       <c r="G339" s="18">
-        <f t="shared" si="113"/>
-        <v>7.4189664429754432E+17</v>
+        <f t="shared" si="115"/>
+        <v>7.2482453781261018E+17</v>
       </c>
       <c r="H339" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>273423.99089000514</v>
       </c>
       <c r="I339" s="16">
@@ -27699,7 +27720,7 @@
         <v>59</v>
       </c>
       <c r="U339" s="18">
-        <v>544</v>
+        <v>434</v>
       </c>
       <c r="V339" s="16">
         <v>269</v>
@@ -27716,21 +27737,21 @@
         <v>56</v>
       </c>
       <c r="C340" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E340" s="16">
         <f t="shared" si="114"/>
-        <v>21570411.527934588</v>
+        <v>21445171.026104331</v>
       </c>
       <c r="F340" s="16">
         <v>5</v>
       </c>
       <c r="G340" s="18">
-        <f t="shared" si="113"/>
-        <v>7.5760194060251674E+17</v>
+        <f t="shared" si="115"/>
+        <v>7.4015966038721766E+17</v>
       </c>
       <c r="H340" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>275105.71189676772</v>
       </c>
       <c r="I340" s="16">
@@ -27771,7 +27792,7 @@
         <v>59</v>
       </c>
       <c r="U340" s="18">
-        <v>548</v>
+        <v>435</v>
       </c>
       <c r="V340" s="16">
         <v>271</v>
@@ -27788,25 +27809,25 @@
         <v>56</v>
       </c>
       <c r="C341" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E341" s="16">
         <f t="shared" si="114"/>
-        <v>21756003.739384945</v>
+        <v>21629621.767428353</v>
       </c>
       <c r="F341" s="16">
         <v>5</v>
       </c>
       <c r="G341" s="18">
-        <f t="shared" si="113"/>
-        <v>7.7359182866274304E+17</v>
+        <f t="shared" si="115"/>
+        <v>7.5577248212440794E+17</v>
       </c>
       <c r="H341" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>276792.94563609746</v>
       </c>
       <c r="I341" s="16">
-        <f t="shared" ref="I341:I402" si="116">A341^6.018+A341^4+1000*A341+100</f>
+        <f t="shared" ref="I341:I402" si="117">A341^6.018+A341^4+1000*A341+100</f>
         <v>1685563765539115.3</v>
       </c>
       <c r="J341" s="16">
@@ -27843,7 +27864,7 @@
         <v>59</v>
       </c>
       <c r="U341" s="18">
-        <v>552</v>
+        <v>436</v>
       </c>
       <c r="V341" s="16">
         <v>273</v>
@@ -27860,25 +27881,25 @@
         <v>56</v>
       </c>
       <c r="C342" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E342" s="16">
         <f t="shared" si="114"/>
-        <v>21942639.063693658</v>
+        <v>21815108.658869069</v>
       </c>
       <c r="F342" s="16">
         <v>5</v>
       </c>
       <c r="G342" s="18">
-        <f t="shared" si="113"/>
-        <v>7.8987060310853389E+17</v>
+        <f t="shared" si="115"/>
+        <v>7.7166719031087475E+17</v>
       </c>
       <c r="H342" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>278485.69438847876</v>
       </c>
       <c r="I342" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1715708510438259.8</v>
       </c>
       <c r="J342" s="16">
@@ -27915,7 +27936,7 @@
         <v>59</v>
       </c>
       <c r="U342" s="18">
-        <v>556</v>
+        <v>437</v>
       </c>
       <c r="V342" s="16">
         <v>275</v>
@@ -27932,25 +27953,25 @@
         <v>56</v>
       </c>
       <c r="C343" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E343" s="16">
         <f t="shared" si="114"/>
-        <v>22130320.269779082</v>
+        <v>22001634.447802279</v>
       </c>
       <c r="F343" s="16">
         <v>5</v>
       </c>
       <c r="G343" s="18">
-        <f t="shared" si="113"/>
-        <v>8.0644261044153446E+17</v>
+        <f t="shared" si="115"/>
+        <v>7.8784802275811648E+17</v>
       </c>
       <c r="H343" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>280183.96042861615</v>
       </c>
       <c r="I343" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1746301453704160.8</v>
       </c>
       <c r="J343" s="16">
@@ -27987,7 +28008,7 @@
         <v>59</v>
       </c>
       <c r="U343" s="18">
-        <v>560</v>
+        <v>438</v>
       </c>
       <c r="V343" s="16">
         <v>277</v>
@@ -28004,25 +28025,25 @@
         <v>56</v>
       </c>
       <c r="C344" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E344" s="16">
         <f t="shared" si="114"/>
-        <v>22319050.125745539</v>
+        <v>22189201.880788054</v>
       </c>
       <c r="F344" s="16">
         <v>5</v>
       </c>
       <c r="G344" s="18">
-        <f t="shared" si="113"/>
-        <v>8.233122495059223E+17</v>
+        <f t="shared" si="115"/>
+        <v>8.0431926826084186E+17</v>
       </c>
       <c r="H344" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>281887.74602546939</v>
       </c>
       <c r="I344" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1777347915509754.8</v>
       </c>
       <c r="J344" s="16">
@@ -28059,7 +28080,7 @@
         <v>59</v>
       </c>
       <c r="U344" s="18">
-        <v>564</v>
+        <v>439</v>
       </c>
       <c r="V344" s="16">
         <v>279</v>
@@ -28076,25 +28097,25 @@
         <v>56</v>
       </c>
       <c r="C345" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E345" s="16">
         <f t="shared" si="114"/>
-        <v>22508831.398885839</v>
+        <v>22377813.703573152</v>
       </c>
       <c r="F345" s="16">
         <v>5</v>
       </c>
       <c r="G345" s="18">
-        <f t="shared" si="113"/>
-        <v>8.4048397196248627E+17</v>
+        <f t="shared" si="115"/>
+        <v>8.2108526705806464E+17</v>
       </c>
       <c r="H345" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>283597.05344228307</v>
       </c>
       <c r="I345" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1808853263322591</v>
       </c>
       <c r="J345" s="16">
@@ -28131,7 +28152,7 @@
         <v>59</v>
       </c>
       <c r="U345" s="18">
-        <v>568</v>
+        <v>440</v>
       </c>
       <c r="V345" s="16">
         <v>281</v>
@@ -28148,25 +28169,25 @@
         <v>56</v>
       </c>
       <c r="C346" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E346" s="16">
         <f t="shared" si="114"/>
-        <v>22699666.855683401</v>
+        <v>22567472.661093406</v>
       </c>
       <c r="F346" s="16">
         <v>5</v>
       </c>
       <c r="G346" s="18">
-        <f t="shared" si="113"/>
-        <v>8.5796228276553434E+17</v>
+        <f t="shared" si="115"/>
+        <v>8.3815041129707968E+17</v>
       </c>
       <c r="H346" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>285311.88493661658</v>
       </c>
       <c r="I346" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1840822912185161</v>
       </c>
       <c r="J346" s="16">
@@ -28203,7 +28224,7 @@
         <v>59</v>
       </c>
       <c r="U346" s="18">
-        <v>572</v>
+        <v>441</v>
       </c>
       <c r="V346" s="16">
         <v>283</v>
@@ -28220,25 +28241,25 @@
         <v>56</v>
       </c>
       <c r="C347" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E347" s="16">
         <f t="shared" si="114"/>
-        <v>22891559.261815488</v>
+        <v>22758181.497476544</v>
       </c>
       <c r="F347" s="16">
         <v>5</v>
       </c>
       <c r="G347" s="18">
-        <f t="shared" si="113"/>
-        <v>8.7575174064276339E+17</v>
+        <f t="shared" si="115"/>
+        <v>8.5551914550020736E+17</v>
       </c>
       <c r="H347" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>287032.24276037724</v>
       </c>
       <c r="I347" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1873262324996009</v>
       </c>
       <c r="J347" s="16">
@@ -28275,7 +28296,7 @@
         <v>59</v>
       </c>
       <c r="U347" s="18">
-        <v>576</v>
+        <v>442</v>
       </c>
       <c r="V347" s="16">
         <v>285</v>
@@ -28292,25 +28313,25 @@
         <v>56</v>
       </c>
       <c r="C348" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E348" s="16">
         <f t="shared" si="114"/>
-        <v>23084511.382155422</v>
+        <v>22949942.956044663</v>
       </c>
       <c r="F348" s="16">
         <v>5</v>
       </c>
       <c r="G348" s="18">
-        <f t="shared" si="113"/>
-        <v>8.9385695857797594E+17</v>
+        <f t="shared" si="115"/>
+        <v>8.7319596703437018E+17</v>
       </c>
       <c r="H348" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>288758.12915984838</v>
       </c>
       <c r="I348" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1906177012791732.8</v>
       </c>
       <c r="J348" s="16">
@@ -28347,7 +28368,7 @@
         <v>59</v>
       </c>
       <c r="U348" s="18">
-        <v>580</v>
+        <v>443</v>
       </c>
       <c r="V348" s="16">
         <v>287</v>
@@ -28364,25 +28385,25 @@
         <v>56</v>
       </c>
       <c r="C349" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E349" s="16">
         <f t="shared" si="114"/>
-        <v>23278525.980775077</v>
+        <v>23142759.779317014</v>
       </c>
       <c r="F349" s="16">
         <v>5</v>
       </c>
       <c r="G349" s="18">
-        <f t="shared" si="113"/>
-        <v>9.1228260429679194E+17</v>
+        <f t="shared" si="115"/>
+        <v>8.911854265834944E+17</v>
       </c>
       <c r="H349" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>290489.54637572158</v>
       </c>
       <c r="I349" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1939572535029787</v>
       </c>
       <c r="J349" s="16">
@@ -28419,7 +28440,7 @@
         <v>59</v>
       </c>
       <c r="U349" s="18">
-        <v>584</v>
+        <v>444</v>
       </c>
       <c r="V349" s="16">
         <v>289</v>
@@ -28436,25 +28457,25 @@
         <v>56</v>
       </c>
       <c r="C350" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E350" s="16">
         <f t="shared" si="114"/>
-        <v>23473605.820947874</v>
+        <v>23336634.70901224</v>
       </c>
       <c r="F350" s="16">
         <v>5</v>
       </c>
       <c r="G350" s="18">
-        <f t="shared" si="113"/>
-        <v>9.310334007551753E+17</v>
+        <f t="shared" si="115"/>
+        <v>9.0949212862378803E+17</v>
       </c>
       <c r="H350" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>292226.49664312589</v>
       </c>
       <c r="I350" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1973454499872100.3</v>
       </c>
       <c r="J350" s="16">
@@ -28491,7 +28512,7 @@
         <v>59</v>
       </c>
       <c r="U350" s="18">
-        <v>588</v>
+        <v>445</v>
       </c>
       <c r="V350" s="16">
         <v>291</v>
@@ -28508,25 +28529,25 @@
         <v>56</v>
       </c>
       <c r="C351" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E351" s="16">
         <f t="shared" si="114"/>
-        <v>23669753.665150721</v>
+        <v>23531570.486051049</v>
       </c>
       <c r="F351" s="16">
         <v>5</v>
       </c>
       <c r="G351" s="18">
-        <f t="shared" si="113"/>
-        <v>9.5011412663098445E+17</v>
+        <f t="shared" si="115"/>
+        <v>9.2812073190177139E+17</v>
       </c>
       <c r="H351" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>293968.982191658</v>
       </c>
       <c r="I351" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2007828564469595.3</v>
       </c>
       <c r="J351" s="16">
@@ -28563,7 +28584,7 @@
         <v>59</v>
       </c>
       <c r="U351" s="18">
-        <v>592</v>
+        <v>446</v>
       </c>
       <c r="V351" s="16">
         <v>293</v>
@@ -28580,25 +28601,25 @@
         <v>56</v>
       </c>
       <c r="C352" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E352" s="16">
         <f t="shared" si="114"/>
-        <v>23866972.275067057</v>
+        <v>23727569.850559089</v>
       </c>
       <c r="F352" s="16">
         <v>5</v>
       </c>
       <c r="G352" s="18">
-        <f t="shared" ref="G352:G402" si="117">A352^7.07+A352^4+100*A352+100</f>
-        <v>9.6952961681841549E+17</v>
+        <f t="shared" si="115"/>
+        <v>9.4707594991526989E+17</v>
       </c>
       <c r="H352" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>295717.00524541072</v>
       </c>
       <c r="I352" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>2042700435247469.5</v>
       </c>
       <c r="J352" s="16">
@@ -28635,7 +28656,7 @@
         <v>59</v>
       </c>
       <c r="U352" s="18">
-        <v>596</v>
+        <v>447</v>
       </c>
       <c r="V352" s="16">
         <v>295</v>
@@ -28652,25 +28673,25 @@
         <v>56</v>
       </c>
       <c r="C353" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E353" s="16">
         <f t="shared" si="114"/>
-        <v>24065264.411589038</v>
+        <v>23924635.541868713</v>
       </c>
       <c r="F353" s="16">
         <v>5</v>
       </c>
       <c r="G353" s="18">
+        <f t="shared" si="115"/>
+        <v>9.6636255139721101E+17</v>
+      </c>
+      <c r="H353" s="16">
+        <f t="shared" si="116"/>
+        <v>297470.56802300335</v>
+      </c>
+      <c r="I353" s="16">
         <f t="shared" si="117"/>
-        <v>9.8928476292540301E+17</v>
-      </c>
-      <c r="H353" s="16">
-        <f t="shared" si="115"/>
-        <v>297470.56802300335</v>
-      </c>
-      <c r="I353" s="16">
-        <f t="shared" si="116"/>
         <v>2078075868191367.8</v>
       </c>
       <c r="J353" s="16">
@@ -28707,7 +28728,7 @@
         <v>59</v>
       </c>
       <c r="U353" s="18">
-        <v>600</v>
+        <v>448</v>
       </c>
       <c r="V353" s="16">
         <v>297</v>
@@ -28724,25 +28745,25 @@
         <v>56</v>
       </c>
       <c r="C354" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E354" s="16">
         <f t="shared" si="114"/>
-        <v>24264632.834819987</v>
+        <v>24122770.298522163</v>
       </c>
       <c r="F354" s="16">
         <v>5</v>
       </c>
       <c r="G354" s="18">
+        <f t="shared" si="115"/>
+        <v>9.8598536080229018E+17</v>
+      </c>
+      <c r="H354" s="16">
+        <f t="shared" si="116"/>
+        <v>299229.67273761122</v>
+      </c>
+      <c r="I354" s="16">
         <f t="shared" si="117"/>
-        <v>1.0093845137739859E+18</v>
-      </c>
-      <c r="H354" s="16">
-        <f t="shared" si="115"/>
-        <v>299229.67273761122</v>
-      </c>
-      <c r="I354" s="16">
-        <f t="shared" si="116"/>
         <v>2113960669134338</v>
       </c>
       <c r="J354" s="16">
@@ -28779,7 +28800,7 @@
         <v>59</v>
       </c>
       <c r="U354" s="18">
-        <v>604</v>
+        <v>449</v>
       </c>
       <c r="V354" s="16">
         <v>299</v>
@@ -28796,25 +28817,25 @@
         <v>56</v>
       </c>
       <c r="C355" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E355" s="16">
         <f t="shared" si="114"/>
-        <v>24465080.3040771</v>
+        <v>24321976.858273614</v>
       </c>
       <c r="F355" s="16">
         <v>5</v>
       </c>
       <c r="G355" s="18">
+        <f t="shared" si="115"/>
+        <v>1.0059492587965468E+18</v>
+      </c>
+      <c r="H355" s="16">
+        <f t="shared" si="116"/>
+        <v>300994.32159699174</v>
+      </c>
+      <c r="I355" s="16">
         <f t="shared" si="117"/>
-        <v>1.0298338759036495E+18</v>
-      </c>
-      <c r="H355" s="16">
-        <f t="shared" si="115"/>
-        <v>300994.32159699174</v>
-      </c>
-      <c r="I355" s="16">
-        <f t="shared" si="116"/>
         <v>2150360694044731</v>
       </c>
       <c r="J355" s="16">
@@ -28851,7 +28872,7 @@
         <v>59</v>
       </c>
       <c r="U355" s="18">
-        <v>608</v>
+        <v>450</v>
       </c>
       <c r="V355" s="16">
         <v>301</v>
@@ -28868,25 +28889,25 @@
         <v>56</v>
       </c>
       <c r="C356" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E356" s="16">
         <f t="shared" si="114"/>
-        <v>24666609.577893775</v>
+        <v>24522257.958091963</v>
       </c>
       <c r="F356" s="16">
         <v>5</v>
       </c>
       <c r="G356" s="18">
+        <f t="shared" si="115"/>
+        <v>1.0262591827498068E+18</v>
+      </c>
+      <c r="H356" s="16">
+        <f t="shared" si="116"/>
+        <v>302764.51680351736</v>
+      </c>
+      <c r="I356" s="16">
         <f t="shared" si="117"/>
-        <v>1.0506379140776305E+18</v>
-      </c>
-      <c r="H356" s="16">
-        <f t="shared" si="115"/>
-        <v>302764.51680351736</v>
-      </c>
-      <c r="I356" s="16">
-        <f t="shared" si="116"/>
         <v>2187281849314746.3</v>
       </c>
       <c r="J356" s="16">
@@ -28923,7 +28944,7 @@
         <v>59</v>
       </c>
       <c r="U356" s="18">
-        <v>612</v>
+        <v>451</v>
       </c>
       <c r="V356" s="16">
         <v>303</v>
@@ -28940,25 +28961,25 @@
         <v>56</v>
       </c>
       <c r="C357" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E357" s="16">
         <f t="shared" si="114"/>
-        <v>24869223.414022073</v>
+        <v>24723616.334163066</v>
       </c>
       <c r="F357" s="16">
         <v>5</v>
       </c>
       <c r="G357" s="18">
+        <f t="shared" si="115"/>
+        <v>1.0469201272310523E+18</v>
+      </c>
+      <c r="H357" s="16">
+        <f t="shared" si="116"/>
+        <v>304540.26055419899</v>
+      </c>
+      <c r="I357" s="16">
         <f t="shared" si="117"/>
-        <v>1.0718017517921961E+18</v>
-      </c>
-      <c r="H357" s="16">
-        <f t="shared" si="115"/>
-        <v>304540.26055419899</v>
-      </c>
-      <c r="I357" s="16">
-        <f t="shared" si="116"/>
         <v>2224730092050032.5</v>
       </c>
       <c r="J357" s="16">
@@ -28995,7 +29016,7 @@
         <v>59</v>
       </c>
       <c r="U357" s="18">
-        <v>616</v>
+        <v>452</v>
       </c>
       <c r="V357" s="16">
         <v>305</v>
@@ -29012,25 +29033,25 @@
         <v>56</v>
       </c>
       <c r="C358" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E358" s="16">
         <f t="shared" si="114"/>
-        <v>25072924.569435056</v>
+        <v>24926054.721891999</v>
       </c>
       <c r="F358" s="16">
         <v>5</v>
       </c>
       <c r="G358" s="18">
+        <f t="shared" si="115"/>
+        <v>1.0679371445066519E+18</v>
+      </c>
+      <c r="H358" s="16">
+        <f t="shared" si="116"/>
+        <v>306321.55504071852</v>
+      </c>
+      <c r="I358" s="16">
         <f t="shared" si="117"/>
-        <v>1.0933305717889564E+18</v>
-      </c>
-      <c r="H358" s="16">
-        <f t="shared" si="115"/>
-        <v>306321.55504071852</v>
-      </c>
-      <c r="I358" s="16">
-        <f t="shared" si="116"/>
         <v>2262711430359932.5</v>
       </c>
       <c r="J358" s="16">
@@ -29067,7 +29088,7 @@
         <v>59</v>
       </c>
       <c r="U358" s="18">
-        <v>620</v>
+        <v>453</v>
       </c>
       <c r="V358" s="16">
         <v>307</v>
@@ -29084,25 +29105,25 @@
         <v>56</v>
       </c>
       <c r="C359" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E359" s="16">
         <f t="shared" si="114"/>
-        <v>25277715.800329335</v>
+        <v>25129575.855906092</v>
       </c>
       <c r="F359" s="16">
         <v>5</v>
       </c>
       <c r="G359" s="18">
+        <f t="shared" si="115"/>
+        <v>1.0893153450415644E+18</v>
+      </c>
+      <c r="H359" s="16">
+        <f t="shared" si="116"/>
+        <v>308108.40244945395</v>
+      </c>
+      <c r="I359" s="16">
         <f t="shared" si="117"/>
-        <v>1.1152296165701537E+18</v>
-      </c>
-      <c r="H359" s="16">
-        <f t="shared" si="115"/>
-        <v>308108.40244945395</v>
-      </c>
-      <c r="I359" s="16">
-        <f t="shared" si="116"/>
         <v>2301231923648731.5</v>
       </c>
       <c r="J359" s="16">
@@ -29139,7 +29160,7 @@
         <v>59</v>
       </c>
       <c r="U359" s="18">
-        <v>624</v>
+        <v>454</v>
       </c>
       <c r="V359" s="16">
         <v>309</v>
@@ -29156,25 +29177,25 @@
         <v>56</v>
       </c>
       <c r="C360" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E360" s="16">
         <f t="shared" si="114"/>
-        <v>25483599.862127528</v>
+        <v>25334182.470056683</v>
       </c>
       <c r="F360" s="16">
         <v>5</v>
       </c>
       <c r="G360" s="18">
+        <f t="shared" si="115"/>
+        <v>1.1110598980034269E+18</v>
+      </c>
+      <c r="H360" s="16">
+        <f t="shared" si="116"/>
+        <v>309900.80496150849</v>
+      </c>
+      <c r="I360" s="16">
         <f t="shared" si="117"/>
-        <v>1.1375041889169728E+18</v>
-      </c>
-      <c r="H360" s="16">
-        <f t="shared" si="115"/>
-        <v>309900.80496150849</v>
-      </c>
-      <c r="I360" s="16">
-        <f t="shared" si="116"/>
         <v>2340297682907611</v>
       </c>
       <c r="J360" s="16">
@@ -29211,7 +29232,7 @@
         <v>59</v>
       </c>
       <c r="U360" s="18">
-        <v>628</v>
+        <v>455</v>
       </c>
       <c r="V360" s="16">
         <v>311</v>
@@ -29228,25 +29249,25 @@
         <v>56</v>
       </c>
       <c r="C361" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E361" s="16">
         <f t="shared" si="114"/>
-        <v>25690579.509480342</v>
+        <v>25539877.297421858</v>
       </c>
       <c r="F361" s="16">
         <v>5</v>
       </c>
       <c r="G361" s="18">
+        <f t="shared" si="115"/>
+        <v>1.1331760317695666E+18</v>
+      </c>
+      <c r="H361" s="16">
+        <f t="shared" si="116"/>
+        <v>311698.76475273666</v>
+      </c>
+      <c r="I361" s="16">
         <f t="shared" si="117"/>
-        <v>1.1601596524108449E+18</v>
-      </c>
-      <c r="H361" s="16">
-        <f t="shared" si="115"/>
-        <v>311698.76475273666</v>
-      </c>
-      <c r="I361" s="16">
-        <f t="shared" si="116"/>
         <v>2379914871007468.5</v>
       </c>
       <c r="J361" s="16">
@@ -29283,7 +29304,7 @@
         <v>59</v>
       </c>
       <c r="U361" s="18">
-        <v>632</v>
+        <v>456</v>
       </c>
       <c r="V361" s="16">
         <v>313</v>
@@ -29300,25 +29321,25 @@
         <v>56</v>
       </c>
       <c r="C362" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E362" s="16">
         <f t="shared" si="114"/>
-        <v>25898657.496269222</v>
+        <v>25746663.070308764</v>
       </c>
       <c r="F362" s="16">
         <v>5</v>
       </c>
       <c r="G362" s="18">
+        <f t="shared" si="115"/>
+        <v>1.1556690344370299E+18</v>
+      </c>
+      <c r="H362" s="16">
+        <f t="shared" si="116"/>
+        <v>313502.28399377293</v>
+      </c>
+      <c r="I362" s="16">
         <f t="shared" si="117"/>
-        <v>1.1832014319578719E+18</v>
-      </c>
-      <c r="H362" s="16">
-        <f t="shared" si="115"/>
-        <v>313502.28399377293</v>
-      </c>
-      <c r="I362" s="16">
-        <f t="shared" si="116"/>
         <v>2420089702992658</v>
       </c>
       <c r="J362" s="16">
@@ -29355,7 +29376,7 @@
         <v>59</v>
       </c>
       <c r="U362" s="18">
-        <v>636</v>
+        <v>457</v>
       </c>
       <c r="V362" s="16">
         <v>315</v>
@@ -29372,25 +29393,25 @@
         <v>56</v>
       </c>
       <c r="C363" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E363" s="16">
         <f t="shared" si="114"/>
-        <v>26107836.575608566</v>
+        <v>25954542.520255834</v>
       </c>
       <c r="F363" s="16">
         <v>5</v>
       </c>
       <c r="G363" s="18">
+        <f t="shared" si="115"/>
+        <v>1.1785442543354596E+18</v>
+      </c>
+      <c r="H363" s="16">
+        <f t="shared" si="116"/>
+        <v>315311.36485005729</v>
+      </c>
+      <c r="I363" s="16">
         <f t="shared" si="117"/>
-        <v>1.2066350143161533E+18</v>
-      </c>
-      <c r="H363" s="16">
-        <f t="shared" si="115"/>
-        <v>315311.36485005729</v>
-      </c>
-      <c r="I363" s="16">
-        <f t="shared" si="116"/>
         <v>2460828446375455.5</v>
       </c>
       <c r="J363" s="16">
@@ -29427,7 +29448,7 @@
         <v>59</v>
       </c>
       <c r="U363" s="18">
-        <v>640</v>
+        <v>458</v>
       </c>
       <c r="V363" s="16">
         <v>317</v>
@@ -29444,25 +29465,25 @@
         <v>56</v>
       </c>
       <c r="C364" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E364" s="16">
         <f t="shared" si="114"/>
-        <v>26318119.499848299</v>
+        <v>26163518.378035568</v>
       </c>
       <c r="F364" s="16">
         <v>5</v>
       </c>
       <c r="G364" s="18">
+        <f t="shared" si="115"/>
+        <v>1.2018071005430157E+18</v>
+      </c>
+      <c r="H364" s="16">
+        <f t="shared" si="116"/>
+        <v>317126.00948186545</v>
+      </c>
+      <c r="I364" s="16">
         <f t="shared" si="117"/>
-        <v>1.2304659486263191E+18</v>
-      </c>
-      <c r="H364" s="16">
-        <f t="shared" si="115"/>
-        <v>317126.00948186545</v>
-      </c>
-      <c r="I364" s="16">
-        <f t="shared" si="116"/>
         <v>2502137421431419.5</v>
       </c>
       <c r="J364" s="16">
@@ -29499,7 +29520,7 @@
         <v>59</v>
       </c>
       <c r="U364" s="18">
-        <v>644</v>
+        <v>459</v>
       </c>
       <c r="V364" s="16">
         <v>319</v>
@@ -29516,25 +29537,25 @@
         <v>56</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E365" s="16">
         <f t="shared" si="114"/>
-        <v>26529509.020575654</v>
+        <v>26373593.373655975</v>
       </c>
       <c r="F365" s="16">
         <v>5</v>
       </c>
       <c r="G365" s="18">
+        <f t="shared" si="115"/>
+        <v>1.2254630434052106E+18</v>
+      </c>
+      <c r="H365" s="16">
+        <f t="shared" si="116"/>
+        <v>318946.22004432825</v>
+      </c>
+      <c r="I365" s="16">
         <f t="shared" si="117"/>
-        <v>1.2546998469449408E+18</v>
-      </c>
-      <c r="H365" s="16">
-        <f t="shared" si="115"/>
-        <v>318946.22004432825</v>
-      </c>
-      <c r="I365" s="16">
-        <f t="shared" si="116"/>
         <v>2544023001495546.5</v>
       </c>
       <c r="J365" s="16">
@@ -29571,7 +29592,7 @@
         <v>59</v>
       </c>
       <c r="U365" s="18">
-        <v>648</v>
+        <v>460</v>
       </c>
       <c r="V365" s="16">
         <v>321</v>
@@ -29588,25 +29609,25 @@
         <v>56</v>
       </c>
       <c r="C366" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E366" s="16">
         <f t="shared" si="114"/>
-        <v>26742007.888618402</v>
+        <v>26584770.236364253</v>
       </c>
       <c r="F366" s="16">
         <v>5</v>
       </c>
       <c r="G366" s="18">
+        <f t="shared" si="115"/>
+        <v>1.2495176150567662E+18</v>
+      </c>
+      <c r="H366" s="16">
+        <f t="shared" si="116"/>
+        <v>320771.9986874673</v>
+      </c>
+      <c r="I366" s="16">
         <f t="shared" si="117"/>
-        <v>1.2793423847812326E+18</v>
-      </c>
-      <c r="H366" s="16">
-        <f t="shared" si="115"/>
-        <v>320771.9986874673</v>
-      </c>
-      <c r="I366" s="16">
-        <f t="shared" si="116"/>
         <v>2586491613259366.5</v>
       </c>
       <c r="J366" s="16">
@@ -29643,7 +29664,7 @@
         <v>59</v>
       </c>
       <c r="U366" s="18">
-        <v>652</v>
+        <v>461</v>
       </c>
       <c r="V366" s="16">
         <v>323</v>
@@ -29660,25 +29681,25 @@
         <v>56</v>
       </c>
       <c r="C367" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E367" s="16">
         <f t="shared" si="114"/>
-        <v>26955618.854046118</v>
+        <v>26797051.694647621</v>
       </c>
       <c r="F367" s="16">
         <v>5</v>
       </c>
       <c r="G367" s="18">
+        <f t="shared" si="115"/>
+        <v>1.2739764099464404E+18</v>
+      </c>
+      <c r="H367" s="16">
+        <f t="shared" si="116"/>
+        <v>322603.34755621396</v>
+      </c>
+      <c r="I367" s="16">
         <f t="shared" si="117"/>
-        <v>1.3043993016366203E+18</v>
-      </c>
-      <c r="H367" s="16">
-        <f t="shared" si="115"/>
-        <v>322603.34755621396</v>
-      </c>
-      <c r="I367" s="16">
-        <f t="shared" si="116"/>
         <v>2629549737068742</v>
       </c>
       <c r="J367" s="16">
@@ -29715,7 +29736,7 @@
         <v>59</v>
       </c>
       <c r="U367" s="18">
-        <v>656</v>
+        <v>462</v>
       </c>
       <c r="V367" s="16">
         <v>325</v>
@@ -29732,25 +29753,25 @@
         <v>56</v>
       </c>
       <c r="C368" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E368" s="16">
-        <f t="shared" si="114"/>
-        <v>27170344.666173127</v>
+        <f t="shared" ref="E368:E402" si="118">A368^2.899</f>
+        <v>27010440.476236761</v>
       </c>
       <c r="F368" s="16">
         <v>5</v>
       </c>
       <c r="G368" s="18">
+        <f t="shared" ref="G368:G402" si="119">A368^7.066+A368^4+100*A368+100</f>
+        <v>1.2988450853647982E+18</v>
+      </c>
+      <c r="H368" s="16">
+        <f t="shared" si="116"/>
+        <v>324440.26879043848</v>
+      </c>
+      <c r="I368" s="16">
         <f t="shared" si="117"/>
-        <v>1.3298764015475072E+18</v>
-      </c>
-      <c r="H368" s="16">
-        <f t="shared" si="115"/>
-        <v>324440.26879043848</v>
-      </c>
-      <c r="I368" s="16">
-        <f t="shared" si="116"/>
         <v>2673203907222557.5</v>
       </c>
       <c r="J368" s="16">
@@ -29787,7 +29808,7 @@
         <v>59</v>
       </c>
       <c r="U368" s="18">
-        <v>660</v>
+        <v>463</v>
       </c>
       <c r="V368" s="16">
         <v>327</v>
@@ -29804,25 +29825,25 @@
         <v>56</v>
       </c>
       <c r="C369" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E369" s="16">
-        <f t="shared" si="114"/>
-        <v>27386188.07356089</v>
+        <f t="shared" si="118"/>
+        <v>27224939.308107518</v>
       </c>
       <c r="F369" s="16">
         <v>5</v>
       </c>
       <c r="G369" s="18">
+        <f t="shared" si="119"/>
+        <v>1.3241293619751119E+18</v>
+      </c>
+      <c r="H369" s="16">
+        <f t="shared" si="116"/>
+        <v>326282.7645249755</v>
+      </c>
+      <c r="I369" s="16">
         <f t="shared" si="117"/>
-        <v>1.3557795536311283E+18</v>
-      </c>
-      <c r="H369" s="16">
-        <f t="shared" si="115"/>
-        <v>326282.7645249755</v>
-      </c>
-      <c r="I369" s="16">
-        <f t="shared" si="116"/>
         <v>2717460712272276.5</v>
       </c>
       <c r="J369" s="16">
@@ -29859,7 +29880,7 @@
         <v>59</v>
       </c>
       <c r="U369" s="18">
-        <v>664</v>
+        <v>464</v>
       </c>
       <c r="V369" s="16">
         <v>329</v>
@@ -29876,25 +29897,25 @@
         <v>56</v>
       </c>
       <c r="C370" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E370" s="16">
-        <f t="shared" si="114"/>
-        <v>27603151.824019525</v>
+        <f t="shared" si="118"/>
+        <v>27440550.916483324</v>
       </c>
       <c r="F370" s="16">
         <v>5</v>
       </c>
       <c r="G370" s="18">
+        <f t="shared" si="119"/>
+        <v>1.349835024347104E+18</v>
+      </c>
+      <c r="H370" s="16">
+        <f t="shared" si="116"/>
+        <v>328130.83688964817</v>
+      </c>
+      <c r="I370" s="16">
         <f t="shared" si="117"/>
-        <v>1.3821146926344799E+18</v>
-      </c>
-      <c r="H370" s="16">
-        <f t="shared" si="115"/>
-        <v>328130.83688964817</v>
-      </c>
-      <c r="I370" s="16">
-        <f t="shared" si="116"/>
         <v>2762326795322307</v>
       </c>
       <c r="J370" s="16">
@@ -29931,7 +29952,7 @@
         <v>59</v>
       </c>
       <c r="U370" s="18">
-        <v>668</v>
+        <v>465</v>
       </c>
       <c r="V370" s="16">
         <v>331</v>
@@ -29948,25 +29969,25 @@
         <v>56</v>
       </c>
       <c r="C371" s="17" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E371" s="16">
-        <f t="shared" si="114"/>
-        <v>27821238.664610878</v>
+        <f t="shared" si="118"/>
+        <v>27657278.026837289</v>
       </c>
       <c r="F371" s="16">
         <v>5</v>
       </c>
       <c r="G371" s="18">
+        <f t="shared" si="119"/>
+        <v>1.3759679214938806E+18</v>
+      </c>
+      <c r="H371" s="16">
+        <f t="shared" si="116"/>
+        <v>329984.48800929525</v>
+      </c>
+      <c r="I371" s="16">
         <f t="shared" si="117"/>
-        <v>1.4088878194863514E+18</v>
-      </c>
-      <c r="H371" s="16">
-        <f t="shared" si="115"/>
-        <v>329984.48800929525</v>
-      </c>
-      <c r="I371" s="16">
-        <f t="shared" si="116"/>
         <v>2807808854331178</v>
       </c>
       <c r="J371" s="16">
@@ -30003,7 +30024,7 @@
         <v>59</v>
       </c>
       <c r="U371" s="18">
-        <v>672</v>
+        <v>466</v>
       </c>
       <c r="V371" s="16">
         <v>333</v>
@@ -30020,25 +30041,25 @@
         <v>56</v>
       </c>
       <c r="C372" s="17" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E372" s="16">
-        <f t="shared" si="114"/>
-        <v>28040451.341650169</v>
+        <f t="shared" si="118"/>
+        <v>27875123.363894954</v>
       </c>
       <c r="F372" s="16">
         <v>5</v>
       </c>
       <c r="G372" s="18">
+        <f t="shared" si="119"/>
+        <v>1.402533967411819E+18</v>
+      </c>
+      <c r="H372" s="16">
+        <f t="shared" si="116"/>
+        <v>331843.72000379639</v>
+      </c>
+      <c r="I372" s="16">
         <f t="shared" si="117"/>
-        <v>1.4361050018525873E+18</v>
-      </c>
-      <c r="H372" s="16">
-        <f t="shared" si="115"/>
-        <v>331843.72000379639</v>
-      </c>
-      <c r="I372" s="16">
-        <f t="shared" si="116"/>
         <v>2853913642413630</v>
       </c>
       <c r="J372" s="16">
@@ -30075,7 +30096,7 @@
         <v>59</v>
       </c>
       <c r="U372" s="18">
-        <v>676</v>
+        <v>467</v>
       </c>
       <c r="V372" s="16">
         <v>335</v>
@@ -30092,25 +30113,25 @@
         <v>56</v>
       </c>
       <c r="C373" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E373" s="16">
-        <f t="shared" si="114"/>
-        <v>28260792.600708727</v>
+        <f t="shared" si="118"/>
+        <v>28094089.651635814</v>
       </c>
       <c r="F373" s="16">
         <v>5</v>
       </c>
       <c r="G373" s="18">
+        <f t="shared" si="119"/>
+        <v>1.4295391416234189E+18</v>
+      </c>
+      <c r="H373" s="16">
+        <f t="shared" si="116"/>
+        <v>333708.53498809517</v>
+      </c>
+      <c r="I373" s="16">
         <f t="shared" si="117"/>
-        <v>1.4637723746943025E+18</v>
-      </c>
-      <c r="H373" s="16">
-        <f t="shared" si="115"/>
-        <v>333708.53498809517</v>
-      </c>
-      <c r="I373" s="16">
-        <f t="shared" si="116"/>
         <v>2900647968143462</v>
       </c>
       <c r="J373" s="16">
@@ -30147,7 +30168,7 @@
         <v>59</v>
       </c>
       <c r="U373" s="18">
-        <v>680</v>
+        <v>468</v>
       </c>
       <c r="V373" s="16">
         <v>337</v>
@@ -30164,25 +30185,25 @@
         <v>56</v>
       </c>
       <c r="C374" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E374" s="16">
-        <f t="shared" ref="E374:E402" si="118">A374^2.9</f>
-        <v>28482265.186615631</v>
+        <f t="shared" si="118"/>
+        <v>28314179.613296092</v>
       </c>
       <c r="F374" s="16">
         <v>5</v>
       </c>
       <c r="G374" s="18">
+        <f t="shared" si="119"/>
+        <v>1.4569894897233649E+18</v>
+      </c>
+      <c r="H374" s="16">
+        <f t="shared" si="116"/>
+        <v>335578.93507222511</v>
+      </c>
+      <c r="I374" s="16">
         <f t="shared" si="117"/>
-        <v>1.4918961408293599E+18</v>
-      </c>
-      <c r="H374" s="16">
-        <f t="shared" si="115"/>
-        <v>335578.93507222511</v>
-      </c>
-      <c r="I374" s="16">
-        <f t="shared" si="116"/>
         <v>2948018695857175</v>
       </c>
       <c r="J374" s="16">
@@ -30219,7 +30240,7 @@
         <v>59</v>
       </c>
       <c r="U374" s="18">
-        <v>684</v>
+        <v>469</v>
       </c>
       <c r="V374" s="16">
         <v>339</v>
@@ -30236,25 +30257,25 @@
         <v>56</v>
       </c>
       <c r="C375" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E375" s="16">
         <f t="shared" si="118"/>
-        <v>28704871.843460597</v>
+        <v>28535395.971370801</v>
       </c>
       <c r="F375" s="16">
         <v>5</v>
       </c>
       <c r="G375" s="18">
+        <f t="shared" si="119"/>
+        <v>1.4848911239275116E+18</v>
+      </c>
+      <c r="H375" s="16">
+        <f t="shared" si="116"/>
+        <v>337454.92236133618</v>
+      </c>
+      <c r="I375" s="16">
         <f t="shared" si="117"/>
-        <v>1.5204825714970391E+18</v>
-      </c>
-      <c r="H375" s="16">
-        <f t="shared" si="115"/>
-        <v>337454.92236133618</v>
-      </c>
-      <c r="I375" s="16">
-        <f t="shared" si="116"/>
         <v>2996032745958735</v>
       </c>
       <c r="J375" s="16">
@@ -30291,7 +30312,7 @@
         <v>59</v>
       </c>
       <c r="U375" s="18">
-        <v>688</v>
+        <v>470</v>
       </c>
       <c r="V375" s="16">
         <v>341</v>
@@ -30308,25 +30329,25 @@
         <v>56</v>
       </c>
       <c r="C376" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E376" s="16">
         <f t="shared" si="118"/>
-        <v>28928615.31459529</v>
+        <v>28757741.447615486</v>
       </c>
       <c r="F376" s="16">
         <v>5</v>
       </c>
       <c r="G376" s="18">
+        <f t="shared" si="119"/>
+        <v>1.5132502236249917E+18</v>
+      </c>
+      <c r="H376" s="16">
+        <f t="shared" si="116"/>
+        <v>339336.49895571347</v>
+      </c>
+      <c r="I376" s="16">
         <f t="shared" si="117"/>
-        <v>1.5495380069256786E+18</v>
-      </c>
-      <c r="H376" s="16">
-        <f t="shared" si="115"/>
-        <v>339336.49895571347</v>
-      </c>
-      <c r="I376" s="16">
-        <f t="shared" si="116"/>
         <v>3044697095224651.5</v>
       </c>
       <c r="J376" s="16">
@@ -30363,7 +30384,7 @@
         <v>59</v>
       </c>
       <c r="U376" s="18">
-        <v>692</v>
+        <v>471</v>
       </c>
       <c r="V376" s="16">
         <v>343</v>
@@ -30380,25 +30401,25 @@
         <v>56</v>
       </c>
       <c r="C377" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E377" s="16">
         <f t="shared" si="118"/>
-        <v>29153498.342636328</v>
+        <v>28981218.763049304</v>
       </c>
       <c r="F377" s="16">
         <v>5</v>
       </c>
       <c r="G377" s="18">
+        <f t="shared" si="119"/>
+        <v>1.5420730359333919E+18</v>
+      </c>
+      <c r="H377" s="16">
+        <f t="shared" si="116"/>
+        <v>341223.66695080808</v>
+      </c>
+      <c r="I377" s="16">
         <f t="shared" si="117"/>
-        <v>1.579068856903703E+18</v>
-      </c>
-      <c r="H377" s="16">
-        <f t="shared" si="115"/>
-        <v>341223.66695080808</v>
-      </c>
-      <c r="I377" s="16">
-        <f t="shared" si="116"/>
         <v>3094018777110468.5</v>
       </c>
       <c r="J377" s="16">
@@ -30435,7 +30456,7 @@
         <v>59</v>
       </c>
       <c r="U377" s="18">
-        <v>696</v>
+        <v>472</v>
       </c>
       <c r="V377" s="16">
         <v>345</v>
@@ -30452,25 +30473,25 @@
         <v>56</v>
       </c>
       <c r="C378" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E378" s="16">
         <f t="shared" si="118"/>
-        <v>29379523.669467218</v>
+        <v>29205830.637956366</v>
       </c>
       <c r="F378" s="16">
         <v>5</v>
       </c>
       <c r="G378" s="18">
+        <f t="shared" si="119"/>
+        <v>1.5713658762570332E+18</v>
+      </c>
+      <c r="H378" s="16">
+        <f t="shared" si="116"/>
+        <v>343116.42843725829</v>
+      </c>
+      <c r="I378" s="16">
         <f t="shared" si="117"/>
-        <v>1.6090816013537139E+18</v>
-      </c>
-      <c r="H378" s="16">
-        <f t="shared" si="115"/>
-        <v>343116.42843725829</v>
-      </c>
-      <c r="I378" s="16">
-        <f t="shared" si="116"/>
         <v>3144004882057726</v>
       </c>
       <c r="J378" s="16">
@@ -30507,7 +30528,7 @@
         <v>59</v>
       </c>
       <c r="U378" s="18">
-        <v>700</v>
+        <v>473</v>
       </c>
       <c r="V378" s="16">
         <v>347</v>
@@ -30524,25 +30545,25 @@
         <v>56</v>
       </c>
       <c r="C379" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E379" s="16">
         <f t="shared" si="118"/>
-        <v>29606694.036239929</v>
+        <v>29431579.791888423</v>
       </c>
       <c r="F379" s="16">
         <v>5</v>
       </c>
       <c r="G379" s="18">
+        <f t="shared" si="119"/>
+        <v>1.6011351288482775E+18</v>
+      </c>
+      <c r="H379" s="16">
+        <f t="shared" si="116"/>
+        <v>345014.78550091101</v>
+      </c>
+      <c r="I379" s="16">
         <f t="shared" si="117"/>
-        <v>1.6395827909097016E+18</v>
-      </c>
-      <c r="H379" s="16">
-        <f t="shared" si="115"/>
-        <v>345014.78550091101</v>
-      </c>
-      <c r="I379" s="16">
-        <f t="shared" si="116"/>
         <v>3194662557801849.5</v>
       </c>
       <c r="J379" s="16">
@@ -30579,7 +30600,7 @@
         <v>59</v>
       </c>
       <c r="U379" s="18">
-        <v>704</v>
+        <v>474</v>
       </c>
       <c r="V379" s="16">
         <v>349</v>
@@ -30596,25 +30617,25 @@
         <v>56</v>
       </c>
       <c r="C380" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E380" s="16">
         <f t="shared" si="118"/>
-        <v>29835012.183377922</v>
+        <v>29658468.943666682</v>
       </c>
       <c r="F380" s="16">
         <v>5</v>
       </c>
       <c r="G380" s="18">
+        <f t="shared" si="119"/>
+        <v>1.6313872473720113E+18</v>
+      </c>
+      <c r="H380" s="16">
+        <f t="shared" si="116"/>
+        <v>346918.74022284994</v>
+      </c>
+      <c r="I380" s="16">
         <f t="shared" si="117"/>
-        <v>1.6705790474976614E+18</v>
-      </c>
-      <c r="H380" s="16">
-        <f t="shared" si="115"/>
-        <v>346918.74022284994</v>
-      </c>
-      <c r="I380" s="16">
-        <f t="shared" si="116"/>
         <v>3245999009680883.5</v>
       </c>
       <c r="J380" s="16">
@@ -30651,7 +30672,7 @@
         <v>59</v>
       </c>
       <c r="U380" s="18">
-        <v>708</v>
+        <v>475</v>
       </c>
       <c r="V380" s="16">
         <v>351</v>
@@ -30668,25 +30689,25 @@
         <v>56</v>
       </c>
       <c r="C381" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E381" s="16">
         <f t="shared" si="118"/>
-        <v>30064480.850577593</v>
+        <v>29886500.811383925</v>
       </c>
       <c r="F381" s="16">
         <v>5</v>
       </c>
       <c r="G381" s="18">
+        <f t="shared" si="119"/>
+        <v>1.6621287554731817E+18</v>
+      </c>
+      <c r="H381" s="16">
+        <f t="shared" si="116"/>
+        <v>348828.29467941576</v>
+      </c>
+      <c r="I381" s="16">
         <f t="shared" si="117"/>
-        <v>1.702077064919158E+18</v>
-      </c>
-      <c r="H381" s="16">
-        <f t="shared" si="115"/>
-        <v>348828.29467941576</v>
-      </c>
-      <c r="I381" s="16">
-        <f t="shared" si="116"/>
         <v>3298021500945039</v>
       </c>
       <c r="J381" s="16">
@@ -30723,7 +30744,7 @@
         <v>59</v>
       </c>
       <c r="U381" s="18">
-        <v>712</v>
+        <v>476</v>
       </c>
       <c r="V381" s="16">
         <v>353</v>
@@ -30740,25 +30761,25 @@
         <v>56</v>
       </c>
       <c r="C382" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E382" s="16">
         <f t="shared" si="118"/>
-        <v>30295102.776810847</v>
+        <v>30115678.112407014</v>
       </c>
       <c r="F382" s="16">
         <v>5</v>
       </c>
       <c r="G382" s="18">
+        <f t="shared" si="119"/>
+        <v>1.69336624734751E+18</v>
+      </c>
+      <c r="H382" s="16">
+        <f t="shared" si="116"/>
+        <v>350743.45094223158</v>
+      </c>
+      <c r="I382" s="16">
         <f t="shared" si="117"/>
-        <v>1.7340836094383273E+18</v>
-      </c>
-      <c r="H382" s="16">
-        <f t="shared" si="115"/>
-        <v>350743.45094223158</v>
-      </c>
-      <c r="I382" s="16">
-        <f t="shared" si="116"/>
         <v>3350737353067229.5</v>
       </c>
       <c r="J382" s="16">
@@ -30795,7 +30816,7 @@
         <v>59</v>
       </c>
       <c r="U382" s="18">
-        <v>716</v>
+        <v>477</v>
       </c>
       <c r="V382" s="16">
         <v>355</v>
@@ -30812,25 +30833,25 @@
         <v>56</v>
       </c>
       <c r="C383" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E383" s="16">
         <f t="shared" si="118"/>
-        <v>30526880.700326893</v>
+        <v>30346003.563378759</v>
       </c>
       <c r="F383" s="16">
         <v>5</v>
       </c>
       <c r="G383" s="18">
+        <f t="shared" si="119"/>
+        <v>1.7251063883152812E+18</v>
+      </c>
+      <c r="H383" s="16">
+        <f t="shared" si="116"/>
+        <v>352664.21107822371</v>
+      </c>
+      <c r="I383" s="16">
         <f t="shared" si="117"/>
-        <v>1.7666055203719647E+18</v>
-      </c>
-      <c r="H383" s="16">
-        <f t="shared" si="115"/>
-        <v>352664.21107822371</v>
-      </c>
-      <c r="I383" s="16">
-        <f t="shared" si="116"/>
         <v>3404153946054161</v>
       </c>
       <c r="J383" s="16">
@@ -30867,7 +30888,7 @@
         <v>59</v>
       </c>
       <c r="U383" s="18">
-        <v>720</v>
+        <v>478</v>
       </c>
       <c r="V383" s="16">
         <v>357</v>
@@ -30884,25 +30905,25 @@
         <v>56</v>
       </c>
       <c r="C384" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E384" s="16">
         <f t="shared" si="118"/>
-        <v>30759817.358654346</v>
+        <v>30577479.880219702</v>
       </c>
       <c r="F384" s="16">
         <v>5</v>
       </c>
       <c r="G384" s="18">
+        <f t="shared" si="119"/>
+        <v>1.7573559153982492E+18</v>
+      </c>
+      <c r="H384" s="16">
+        <f t="shared" si="116"/>
+        <v>354590.57714964729</v>
+      </c>
+      <c r="I384" s="16">
         <f t="shared" si="117"/>
-        <v>1.7996497106828636E+18</v>
-      </c>
-      <c r="H384" s="16">
-        <f t="shared" si="115"/>
-        <v>354590.57714964729</v>
-      </c>
-      <c r="I384" s="16">
-        <f t="shared" si="116"/>
         <v>3458278718758448.5</v>
       </c>
       <c r="J384" s="16">
@@ -30939,7 +30960,7 @@
         <v>59</v>
       </c>
       <c r="U384" s="18">
-        <v>724</v>
+        <v>479</v>
       </c>
       <c r="V384" s="16">
         <v>359</v>
@@ -30956,25 +30977,25 @@
         <v>56</v>
       </c>
       <c r="C385" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E385" s="16">
         <f t="shared" si="118"/>
-        <v>30993915.488603581</v>
+        <v>30810109.778130893</v>
       </c>
       <c r="F385" s="16">
         <v>5</v>
       </c>
       <c r="G385" s="18">
+        <f t="shared" si="119"/>
+        <v>1.7901216378998175E+18</v>
+      </c>
+      <c r="H385" s="16">
+        <f t="shared" si="116"/>
+        <v>356522.55121410545</v>
+      </c>
+      <c r="I385" s="16">
         <f t="shared" si="117"/>
-        <v>1.8332231675764626E+18</v>
-      </c>
-      <c r="H385" s="16">
-        <f t="shared" si="115"/>
-        <v>356522.55121410545</v>
-      </c>
-      <c r="I385" s="16">
-        <f t="shared" si="116"/>
         <v>3513119169191666</v>
       </c>
       <c r="J385" s="16">
@@ -31011,7 +31032,7 @@
         <v>59</v>
       </c>
       <c r="U385" s="18">
-        <v>728</v>
+        <v>480</v>
       </c>
       <c r="V385" s="16">
         <v>361</v>
@@ -31028,25 +31049,25 @@
         <v>56</v>
       </c>
       <c r="C386" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E386" s="16">
         <f t="shared" si="118"/>
-        <v>31229177.82626855</v>
+        <v>31043895.971595373</v>
       </c>
       <c r="F386" s="16">
         <v>5</v>
       </c>
       <c r="G386" s="18">
+        <f t="shared" si="119"/>
+        <v>1.823410437988215E+18</v>
+      </c>
+      <c r="H386" s="16">
+        <f t="shared" ref="H386:H402" si="120">A386^2.14+50+50*A386</f>
+        <v>358460.13532457844</v>
+      </c>
+      <c r="I386" s="16">
         <f t="shared" si="117"/>
-        <v>1.8673329531006961E+18</v>
-      </c>
-      <c r="H386" s="16">
-        <f t="shared" ref="H386:H402" si="119">A386^2.14+50+50*A386</f>
-        <v>358460.13532457844</v>
-      </c>
-      <c r="I386" s="16">
-        <f t="shared" si="116"/>
         <v>3568682854837921.5</v>
       </c>
       <c r="J386" s="16">
@@ -31083,7 +31104,7 @@
         <v>59</v>
       </c>
       <c r="U386" s="18">
-        <v>732</v>
+        <v>481</v>
       </c>
       <c r="V386" s="16">
         <v>363</v>
@@ -31100,25 +31121,25 @@
         <v>56</v>
       </c>
       <c r="C387" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E387" s="16">
         <f t="shared" si="118"/>
-        <v>31465607.107028872</v>
+        <v>31278841.174380444</v>
       </c>
       <c r="F387" s="16">
         <v>5</v>
       </c>
       <c r="G387" s="18">
+        <f t="shared" si="119"/>
+        <v>1.8572292712828759E+18</v>
+      </c>
+      <c r="H387" s="16">
+        <f t="shared" si="120"/>
+        <v>360403.33152943745</v>
+      </c>
+      <c r="I387" s="16">
         <f t="shared" si="117"/>
-        <v>1.9019862047490437E+18</v>
-      </c>
-      <c r="H387" s="16">
-        <f t="shared" si="119"/>
-        <v>360403.33152943745</v>
-      </c>
-      <c r="I387" s="16">
-        <f t="shared" si="116"/>
         <v>3624977392968609</v>
       </c>
       <c r="J387" s="16">
@@ -31155,7 +31176,7 @@
         <v>59</v>
       </c>
       <c r="U387" s="18">
-        <v>736</v>
+        <v>482</v>
       </c>
       <c r="V387" s="16">
         <v>365</v>
@@ -31172,25 +31193,25 @@
         <v>56</v>
       </c>
       <c r="C388" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E388" s="16">
         <f t="shared" si="118"/>
-        <v>31703206.065551996</v>
+        <v>31514948.099539738</v>
       </c>
       <c r="F388" s="16">
         <v>5</v>
       </c>
       <c r="G388" s="18">
+        <f t="shared" si="119"/>
+        <v>1.8915851674441004E+18</v>
+      </c>
+      <c r="H388" s="16">
+        <f t="shared" si="120"/>
+        <v>362352.1418724723</v>
+      </c>
+      <c r="I388" s="16">
         <f t="shared" si="117"/>
-        <v>1.9371901360669757E+18</v>
-      </c>
-      <c r="H388" s="16">
-        <f t="shared" si="119"/>
-        <v>362352.1418724723</v>
-      </c>
-      <c r="I388" s="16">
-        <f t="shared" si="116"/>
         <v>3682010460957699</v>
       </c>
       <c r="J388" s="16">
@@ -31227,7 +31248,7 @@
         <v>59</v>
       </c>
       <c r="U388" s="18">
-        <v>740</v>
+        <v>483</v>
       </c>
       <c r="V388" s="16">
         <v>367</v>
@@ -31244,25 +31265,25 @@
         <v>56</v>
       </c>
       <c r="C389" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E389" s="16">
         <f t="shared" si="118"/>
-        <v>31941977.435795102</v>
+        <v>31752219.459415197</v>
       </c>
       <c r="F389" s="16">
         <v>5</v>
       </c>
       <c r="G389" s="18">
+        <f t="shared" si="119"/>
+        <v>1.92648523076575E+18</v>
+      </c>
+      <c r="H389" s="16">
+        <f t="shared" si="120"/>
+        <v>364306.56839291536</v>
+      </c>
+      <c r="I389" s="16">
         <f t="shared" si="117"/>
-        <v>1.9729520372615869E+18</v>
-      </c>
-      <c r="H389" s="16">
-        <f t="shared" si="119"/>
-        <v>364306.56839291536</v>
-      </c>
-      <c r="I389" s="16">
-        <f t="shared" si="116"/>
         <v>3739789796598112</v>
       </c>
       <c r="J389" s="16">
@@ -31299,7 +31320,7 @@
         <v>59</v>
       </c>
       <c r="U389" s="18">
-        <v>744</v>
+        <v>484</v>
       </c>
       <c r="V389" s="16">
         <v>369</v>
@@ -31316,25 +31337,25 @@
         <v>56</v>
       </c>
       <c r="C390" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E390" s="16">
         <f t="shared" si="118"/>
-        <v>32181923.951007109</v>
+        <v>31990657.965639409</v>
       </c>
       <c r="F390" s="16">
         <v>5</v>
       </c>
       <c r="G390" s="18">
+        <f t="shared" si="119"/>
+        <v>1.9619366407712435E+18</v>
+      </c>
+      <c r="H390" s="16">
+        <f t="shared" si="120"/>
+        <v>366266.61312545702</v>
+      </c>
+      <c r="I390" s="16">
         <f t="shared" si="117"/>
-        <v>2.009279275814528E+18</v>
-      </c>
-      <c r="H390" s="16">
-        <f t="shared" si="119"/>
-        <v>366266.61312545702</v>
-      </c>
-      <c r="I390" s="16">
-        <f t="shared" si="116"/>
         <v>3798323198418814</v>
       </c>
       <c r="J390" s="16">
@@ -31371,7 +31392,7 @@
         <v>59</v>
       </c>
       <c r="U390" s="18">
-        <v>748</v>
+        <v>485</v>
       </c>
       <c r="V390" s="16">
         <v>371</v>
@@ -31388,25 +31409,25 @@
         <v>56</v>
       </c>
       <c r="C391" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E391" s="16">
         <f t="shared" si="118"/>
-        <v>32423048.343730863</v>
+        <v>32230266.329136971</v>
       </c>
       <c r="F391" s="16">
         <v>5</v>
       </c>
       <c r="G391" s="18">
+        <f t="shared" si="119"/>
+        <v>1.9979466528126272E+18</v>
+      </c>
+      <c r="H391" s="16">
+        <f t="shared" si="120"/>
+        <v>368232.27810027351</v>
+      </c>
+      <c r="I391" s="16">
         <f t="shared" si="117"/>
-        <v>2.0461792970982717E+18</v>
-      </c>
-      <c r="H391" s="16">
-        <f t="shared" si="119"/>
-        <v>368232.27810027351</v>
-      </c>
-      <c r="I391" s="16">
-        <f t="shared" si="116"/>
         <v>3857618526002680</v>
       </c>
       <c r="J391" s="16">
@@ -31443,7 +31464,7 @@
         <v>59</v>
       </c>
       <c r="U391" s="18">
-        <v>752</v>
+        <v>486</v>
       </c>
       <c r="V391" s="16">
         <v>373</v>
@@ -31460,25 +31481,25 @@
         <v>56</v>
       </c>
       <c r="C392" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E392" s="16">
         <f t="shared" si="118"/>
-        <v>32665353.345805302</v>
+        <v>32471047.260127235</v>
       </c>
       <c r="F392" s="16">
         <v>5</v>
       </c>
       <c r="G392" s="18">
+        <f t="shared" si="119"/>
+        <v>2.0345225986730604E+18</v>
+      </c>
+      <c r="H392" s="16">
+        <f t="shared" si="120"/>
+        <v>370203.56534304563</v>
+      </c>
+      <c r="I392" s="16">
         <f t="shared" si="117"/>
-        <v>2.0836596249956416E+18</v>
-      </c>
-      <c r="H392" s="16">
-        <f t="shared" si="119"/>
-        <v>370203.56534304563</v>
-      </c>
-      <c r="I392" s="16">
-        <f t="shared" si="116"/>
         <v>3917683700305420.5</v>
       </c>
       <c r="J392" s="16">
@@ -31515,7 +31536,7 @@
         <v>59</v>
       </c>
       <c r="U392" s="18">
-        <v>756</v>
+        <v>487</v>
       </c>
       <c r="V392" s="16">
         <v>375</v>
@@ -31532,25 +31553,25 @@
         <v>56</v>
       </c>
       <c r="C393" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E393" s="16">
         <f t="shared" si="118"/>
-        <v>32908841.68836648</v>
+        <v>32713003.468125604</v>
       </c>
       <c r="F393" s="16">
         <v>5</v>
       </c>
       <c r="G393" s="18">
+        <f t="shared" si="119"/>
+        <v>2.0716718871721994E+18</v>
+      </c>
+      <c r="H393" s="16">
+        <f t="shared" si="120"/>
+        <v>372180.47687497962</v>
+      </c>
+      <c r="I393" s="16">
         <f t="shared" si="117"/>
-        <v>2.1217278625226775E+18</v>
-      </c>
-      <c r="H393" s="16">
-        <f t="shared" si="119"/>
-        <v>372180.47687497962</v>
-      </c>
-      <c r="I393" s="16">
-        <f t="shared" si="116"/>
         <v>3978526703975043</v>
       </c>
       <c r="J393" s="16">
@@ -31587,7 +31608,7 @@
         <v>59</v>
       </c>
       <c r="U393" s="18">
-        <v>760</v>
+        <v>488</v>
       </c>
       <c r="V393" s="16">
         <v>377</v>
@@ -31604,25 +31625,25 @@
         <v>56</v>
       </c>
       <c r="C394" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E394" s="16">
         <f t="shared" si="118"/>
-        <v>33153516.101850864</v>
+        <v>32956137.661946394</v>
       </c>
       <c r="F394" s="16">
         <v>5</v>
       </c>
       <c r="G394" s="18">
+        <f t="shared" si="119"/>
+        <v>2.1094020047751583E+18</v>
+      </c>
+      <c r="H394" s="16">
+        <f t="shared" si="120"/>
+        <v>374163.01471283019</v>
+      </c>
+      <c r="I394" s="16">
         <f t="shared" si="117"/>
-        <v>2.1603916924547584E+18</v>
-      </c>
-      <c r="H394" s="16">
-        <f t="shared" si="119"/>
-        <v>374163.01471283019</v>
-      </c>
-      <c r="I394" s="16">
-        <f t="shared" si="116"/>
         <v>4040155581672401.5</v>
       </c>
       <c r="J394" s="16">
@@ -31659,7 +31680,7 @@
         <v>59</v>
       </c>
       <c r="U394" s="18">
-        <v>764</v>
+        <v>489</v>
       </c>
       <c r="V394" s="16">
         <v>379</v>
@@ -31676,25 +31697,25 @@
         <v>56</v>
       </c>
       <c r="C395" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E395" s="16">
         <f t="shared" si="118"/>
-        <v>33399379.315996431</v>
+        <v>33200452.549703777</v>
       </c>
       <c r="F395" s="16">
         <v>5</v>
       </c>
       <c r="G395" s="18">
+        <f t="shared" si="119"/>
+        <v>2.1477205162044879E+18</v>
+      </c>
+      <c r="H395" s="16">
+        <f t="shared" si="120"/>
+        <v>376151.18086892331</v>
+      </c>
+      <c r="I395" s="16">
         <f t="shared" si="117"/>
-        <v>2.1996588779562696E+18</v>
-      </c>
-      <c r="H395" s="16">
-        <f t="shared" si="119"/>
-        <v>376151.18086892331</v>
-      </c>
-      <c r="I395" s="16">
-        <f t="shared" si="116"/>
         <v>4102578440392504</v>
       </c>
       <c r="J395" s="16">
@@ -31731,7 +31752,7 @@
         <v>59</v>
       </c>
       <c r="U395" s="18">
-        <v>768</v>
+        <v>490</v>
       </c>
       <c r="V395" s="16">
         <v>381</v>
@@ -31748,25 +31769,25 @@
         <v>56</v>
       </c>
       <c r="C396" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E396" s="16">
         <f t="shared" si="118"/>
-        <v>33646434.059845097</v>
+        <v>33445950.838814508</v>
       </c>
       <c r="F396" s="16">
         <v>5</v>
       </c>
       <c r="G396" s="18">
+        <f t="shared" si="119"/>
+        <v>2.1866350650553838E+18</v>
+      </c>
+      <c r="H396" s="16">
+        <f t="shared" si="120"/>
+        <v>378144.97735117102</v>
+      </c>
+      <c r="I396" s="16">
         <f t="shared" si="117"/>
-        <v>2.2395372632132815E+18</v>
-      </c>
-      <c r="H396" s="16">
-        <f t="shared" si="119"/>
-        <v>378144.97735117102</v>
-      </c>
-      <c r="I396" s="16">
-        <f t="shared" si="116"/>
         <v>4165803449786551</v>
       </c>
       <c r="J396" s="16">
@@ -31803,7 +31824,7 @@
         <v>59</v>
       </c>
       <c r="U396" s="18">
-        <v>772</v>
+        <v>491</v>
       </c>
       <c r="V396" s="16">
         <v>383</v>
@@ -31820,25 +31841,25 @@
         <v>56</v>
       </c>
       <c r="C397" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E397" s="16">
         <f t="shared" si="118"/>
-        <v>33894683.061744034</v>
+        <v>33692635.235999487</v>
       </c>
       <c r="F397" s="16">
         <v>5</v>
       </c>
       <c r="G397" s="18">
+        <f t="shared" si="119"/>
+        <v>2.2261533744142804E+18</v>
+      </c>
+      <c r="H397" s="16">
+        <f t="shared" si="120"/>
+        <v>380144.40616309887</v>
+      </c>
+      <c r="I397" s="16">
         <f t="shared" si="117"/>
-        <v>2.2800347740698714E+18</v>
-      </c>
-      <c r="H397" s="16">
-        <f t="shared" si="119"/>
-        <v>380144.40616309887</v>
-      </c>
-      <c r="I397" s="16">
-        <f t="shared" si="116"/>
         <v>4229838842485046</v>
       </c>
       <c r="J397" s="16">
@@ -31875,7 +31896,7 @@
         <v>59</v>
       </c>
       <c r="U397" s="18">
-        <v>776</v>
+        <v>492</v>
       </c>
       <c r="V397" s="16">
         <v>385</v>
@@ -31892,25 +31913,25 @@
         <v>56</v>
       </c>
       <c r="C398" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E398" s="16">
         <f t="shared" si="118"/>
-        <v>34144129.049348503</v>
+        <v>33940508.447286077</v>
       </c>
       <c r="F398" s="16">
         <v>5</v>
       </c>
       <c r="G398" s="18">
+        <f t="shared" si="119"/>
+        <v>2.2662832474805893E+18</v>
+      </c>
+      <c r="H398" s="16">
+        <f t="shared" si="120"/>
+        <v>382149.4693038633</v>
+      </c>
+      <c r="I398" s="16">
         <f t="shared" si="117"/>
-        <v>2.3211594186676198E+18</v>
-      </c>
-      <c r="H398" s="16">
-        <f t="shared" si="119"/>
-        <v>382149.4693038633</v>
-      </c>
-      <c r="I398" s="16">
-        <f t="shared" si="116"/>
         <v>4294692914421438</v>
       </c>
       <c r="J398" s="16">
@@ -31947,7 +31968,7 @@
         <v>59</v>
       </c>
       <c r="U398" s="18">
-        <v>780</v>
+        <v>493</v>
       </c>
       <c r="V398" s="16">
         <v>387</v>
@@ -31964,25 +31985,25 @@
         <v>56</v>
       </c>
       <c r="C399" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E399" s="16">
         <f t="shared" si="118"/>
-        <v>34394774.749623038</v>
+        <v>34189573.178009719</v>
       </c>
       <c r="F399" s="16">
         <v>5</v>
       </c>
       <c r="G399" s="18">
+        <f t="shared" si="119"/>
+        <v>2.3070325681917967E+18</v>
+      </c>
+      <c r="H399" s="16">
+        <f t="shared" si="120"/>
+        <v>384160.16876827361</v>
+      </c>
+      <c r="I399" s="16">
         <f t="shared" si="117"/>
-        <v>2.3629192880886241E+18</v>
-      </c>
-      <c r="H399" s="16">
-        <f t="shared" si="119"/>
-        <v>384160.16876827361</v>
-      </c>
-      <c r="I399" s="16">
-        <f t="shared" si="116"/>
         <v>4360374025156932.5</v>
       </c>
       <c r="J399" s="16">
@@ -32019,7 +32040,7 @@
         <v>59</v>
       </c>
       <c r="U399" s="18">
-        <v>784</v>
+        <v>494</v>
       </c>
       <c r="V399" s="16">
         <v>389</v>
@@ -32036,25 +32057,25 @@
         <v>56</v>
       </c>
       <c r="C400" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E400" s="16">
         <f t="shared" si="118"/>
-        <v>34646622.888843499</v>
+        <v>34439832.132815748</v>
       </c>
       <c r="F400" s="16">
         <v>5</v>
       </c>
       <c r="G400" s="18">
+        <f t="shared" si="119"/>
+        <v>2.3484093018517386E+18</v>
+      </c>
+      <c r="H400" s="16">
+        <f t="shared" si="120"/>
+        <v>386176.50654680986</v>
+      </c>
+      <c r="I400" s="16">
         <f t="shared" si="117"/>
-        <v>2.4053225570017137E+18</v>
-      </c>
-      <c r="H400" s="16">
-        <f t="shared" si="119"/>
-        <v>386176.50654680986</v>
-      </c>
-      <c r="I400" s="16">
-        <f t="shared" si="116"/>
         <v>4426890598205803.5</v>
       </c>
       <c r="J400" s="16">
@@ -32091,7 +32112,7 @@
         <v>59</v>
       </c>
       <c r="U400" s="18">
-        <v>788</v>
+        <v>495</v>
       </c>
       <c r="V400" s="16">
         <v>391</v>
@@ -32108,25 +32129,25 @@
         <v>56</v>
       </c>
       <c r="C401" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E401" s="16">
         <f t="shared" si="118"/>
-        <v>34899676.192599595</v>
+        <v>34691288.015661851</v>
       </c>
       <c r="F401" s="16">
         <v>5</v>
       </c>
       <c r="G401" s="18">
+        <f t="shared" si="119"/>
+        <v>2.3904214957622548E+18</v>
+      </c>
+      <c r="H401" s="16">
+        <f t="shared" si="120"/>
+        <v>388198.48462564655</v>
+      </c>
+      <c r="I401" s="16">
         <f t="shared" si="117"/>
-        <v>2.4483774843122883E+18</v>
-      </c>
-      <c r="H401" s="16">
-        <f t="shared" si="119"/>
-        <v>388198.48462564655</v>
-      </c>
-      <c r="I401" s="16">
-        <f t="shared" si="116"/>
         <v>4494251121361918.5</v>
       </c>
       <c r="J401" s="16">
@@ -32163,7 +32184,7 @@
         <v>59</v>
       </c>
       <c r="U401" s="18">
-        <v>792</v>
+        <v>496</v>
       </c>
       <c r="V401" s="16">
         <v>393</v>
@@ -32180,25 +32201,25 @@
         <v>56</v>
       </c>
       <c r="C402" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E402" s="16">
         <f t="shared" si="118"/>
-        <v>35153937.385795772</v>
+        <v>34943943.529819191</v>
       </c>
       <c r="F402" s="16">
         <v>5</v>
       </c>
       <c r="G402" s="18">
+        <f t="shared" si="119"/>
+        <v>2.4330772798580644E+18</v>
+      </c>
+      <c r="H402" s="16">
+        <f t="shared" si="120"/>
+        <v>390226.10498667031</v>
+      </c>
+      <c r="I402" s="16">
         <f t="shared" si="117"/>
-        <v>2.4920924138152192E+18</v>
-      </c>
-      <c r="H402" s="16">
-        <f t="shared" si="119"/>
-        <v>390226.10498667031</v>
-      </c>
-      <c r="I402" s="16">
-        <f t="shared" si="116"/>
         <v>4562464147025670</v>
       </c>
       <c r="J402" s="16">
@@ -32235,7 +32256,7 @@
         <v>59</v>
       </c>
       <c r="U402" s="18">
-        <v>796</v>
+        <v>497</v>
       </c>
       <c r="V402" s="16">
         <v>395</v>

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C6F602-6931-48F2-A651-4F7E7AA38127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D675C77-9405-48D0-81A8-88D9BE8B48D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5400" yWindow="2670" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -1243,9 +1243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:Y402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T365" sqref="T365"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G394" sqref="G394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25155,7 +25155,7 @@
         <v>5</v>
       </c>
       <c r="G304" s="18">
-        <f t="shared" ref="G304:G367" si="115">A304^7.066+A304^4+100*A304+100</f>
+        <f t="shared" ref="G304:G361" si="115">A304^7.066+A304^4+100*A304+100</f>
         <v>3.3398662082557779E+17</v>
       </c>
       <c r="H304" s="16">
@@ -29331,8 +29331,8 @@
         <v>5</v>
       </c>
       <c r="G362" s="18">
-        <f t="shared" si="115"/>
-        <v>1.1556690344370299E+18</v>
+        <f>A362^7.096+A362^4+100*A362+100</f>
+        <v>1.3788675487881544E+18</v>
       </c>
       <c r="H362" s="16">
         <f t="shared" si="116"/>
@@ -29403,8 +29403,8 @@
         <v>5</v>
       </c>
       <c r="G363" s="18">
-        <f t="shared" si="115"/>
-        <v>1.1785442543354596E+18</v>
+        <f t="shared" ref="G363:G381" si="118">A363^7.096+A363^4+100*A363+100</f>
+        <v>1.4062777646323988E+18</v>
       </c>
       <c r="H363" s="16">
         <f t="shared" si="116"/>
@@ -29475,8 +29475,8 @@
         <v>5</v>
       </c>
       <c r="G364" s="18">
-        <f t="shared" si="115"/>
-        <v>1.2018071005430157E+18</v>
+        <f t="shared" si="118"/>
+        <v>1.4341547699613194E+18</v>
       </c>
       <c r="H364" s="16">
         <f t="shared" si="116"/>
@@ -29547,8 +29547,8 @@
         <v>5</v>
       </c>
       <c r="G365" s="18">
-        <f t="shared" si="115"/>
-        <v>1.2254630434052106E+18</v>
+        <f t="shared" si="118"/>
+        <v>1.4625051915900357E+18</v>
       </c>
       <c r="H365" s="16">
         <f t="shared" si="116"/>
@@ -29619,8 +29619,8 @@
         <v>5</v>
       </c>
       <c r="G366" s="18">
-        <f t="shared" si="115"/>
-        <v>1.2495176150567662E+18</v>
+        <f t="shared" si="118"/>
+        <v>1.4913357317409879E+18</v>
       </c>
       <c r="H366" s="16">
         <f t="shared" si="116"/>
@@ -29691,8 +29691,8 @@
         <v>5</v>
       </c>
       <c r="G367" s="18">
-        <f t="shared" si="115"/>
-        <v>1.2739764099464404E+18</v>
+        <f t="shared" si="118"/>
+        <v>1.5206531686906616E+18</v>
       </c>
       <c r="H367" s="16">
         <f t="shared" si="116"/>
@@ -29756,15 +29756,15 @@
         <v>98</v>
       </c>
       <c r="E368" s="16">
-        <f t="shared" ref="E368:E402" si="118">A368^2.899</f>
+        <f t="shared" ref="E368:E402" si="119">A368^2.899</f>
         <v>27010440.476236761</v>
       </c>
       <c r="F368" s="16">
         <v>5</v>
       </c>
       <c r="G368" s="18">
-        <f t="shared" ref="G368:G402" si="119">A368^7.066+A368^4+100*A368+100</f>
-        <v>1.2988450853647982E+18</v>
+        <f t="shared" si="118"/>
+        <v>1.5504643574201252E+18</v>
       </c>
       <c r="H368" s="16">
         <f t="shared" si="116"/>
@@ -29828,15 +29828,15 @@
         <v>98</v>
       </c>
       <c r="E369" s="16">
+        <f t="shared" si="119"/>
+        <v>27224939.308107518</v>
+      </c>
+      <c r="F369" s="16">
+        <v>5</v>
+      </c>
+      <c r="G369" s="18">
         <f t="shared" si="118"/>
-        <v>27224939.308107518</v>
-      </c>
-      <c r="F369" s="16">
-        <v>5</v>
-      </c>
-      <c r="G369" s="18">
-        <f t="shared" si="119"/>
-        <v>1.3241293619751119E+18</v>
+        <v>1.5807762302693486E+18</v>
       </c>
       <c r="H369" s="16">
         <f t="shared" si="116"/>
@@ -29900,15 +29900,15 @@
         <v>98</v>
       </c>
       <c r="E370" s="16">
+        <f t="shared" si="119"/>
+        <v>27440550.916483324</v>
+      </c>
+      <c r="F370" s="16">
+        <v>5</v>
+      </c>
+      <c r="G370" s="18">
         <f t="shared" si="118"/>
-        <v>27440550.916483324</v>
-      </c>
-      <c r="F370" s="16">
-        <v>5</v>
-      </c>
-      <c r="G370" s="18">
-        <f t="shared" si="119"/>
-        <v>1.349835024347104E+18</v>
+        <v>1.6115957975952195E+18</v>
       </c>
       <c r="H370" s="16">
         <f t="shared" si="116"/>
@@ -29972,15 +29972,15 @@
         <v>101</v>
       </c>
       <c r="E371" s="16">
+        <f t="shared" si="119"/>
+        <v>27657278.026837289</v>
+      </c>
+      <c r="F371" s="16">
+        <v>5</v>
+      </c>
+      <c r="G371" s="18">
         <f t="shared" si="118"/>
-        <v>27657278.026837289</v>
-      </c>
-      <c r="F371" s="16">
-        <v>5</v>
-      </c>
-      <c r="G371" s="18">
-        <f t="shared" si="119"/>
-        <v>1.3759679214938806E+18</v>
+        <v>1.6429301484333862E+18</v>
       </c>
       <c r="H371" s="16">
         <f t="shared" si="116"/>
@@ -30044,15 +30044,15 @@
         <v>101</v>
       </c>
       <c r="E372" s="16">
+        <f t="shared" si="119"/>
+        <v>27875123.363894954</v>
+      </c>
+      <c r="F372" s="16">
+        <v>5</v>
+      </c>
+      <c r="G372" s="18">
         <f t="shared" si="118"/>
-        <v>27875123.363894954</v>
-      </c>
-      <c r="F372" s="16">
-        <v>5</v>
-      </c>
-      <c r="G372" s="18">
-        <f t="shared" si="119"/>
-        <v>1.402533967411819E+18</v>
+        <v>1.6747864511639025E+18</v>
       </c>
       <c r="H372" s="16">
         <f t="shared" si="116"/>
@@ -30116,15 +30116,15 @@
         <v>100</v>
       </c>
       <c r="E373" s="16">
+        <f t="shared" si="119"/>
+        <v>28094089.651635814</v>
+      </c>
+      <c r="F373" s="16">
+        <v>5</v>
+      </c>
+      <c r="G373" s="18">
         <f t="shared" si="118"/>
-        <v>28094089.651635814</v>
-      </c>
-      <c r="F373" s="16">
-        <v>5</v>
-      </c>
-      <c r="G373" s="18">
-        <f t="shared" si="119"/>
-        <v>1.4295391416234189E+18</v>
+        <v>1.7071719541806694E+18</v>
       </c>
       <c r="H373" s="16">
         <f t="shared" si="116"/>
@@ -30188,15 +30188,15 @@
         <v>100</v>
       </c>
       <c r="E374" s="16">
+        <f t="shared" si="119"/>
+        <v>28314179.613296092</v>
+      </c>
+      <c r="F374" s="16">
+        <v>5</v>
+      </c>
+      <c r="G374" s="18">
         <f t="shared" si="118"/>
-        <v>28314179.613296092</v>
-      </c>
-      <c r="F374" s="16">
-        <v>5</v>
-      </c>
-      <c r="G374" s="18">
-        <f t="shared" si="119"/>
-        <v>1.4569894897233649E+18</v>
+        <v>1.7400939865645944E+18</v>
       </c>
       <c r="H374" s="16">
         <f t="shared" si="116"/>
@@ -30260,15 +30260,15 @@
         <v>100</v>
       </c>
       <c r="E375" s="16">
+        <f t="shared" si="119"/>
+        <v>28535395.971370801</v>
+      </c>
+      <c r="F375" s="16">
+        <v>5</v>
+      </c>
+      <c r="G375" s="18">
         <f t="shared" si="118"/>
-        <v>28535395.971370801</v>
-      </c>
-      <c r="F375" s="16">
-        <v>5</v>
-      </c>
-      <c r="G375" s="18">
-        <f t="shared" si="119"/>
-        <v>1.4848911239275116E+18</v>
+        <v>1.7735599587607603E+18</v>
       </c>
       <c r="H375" s="16">
         <f t="shared" si="116"/>
@@ -30332,15 +30332,15 @@
         <v>100</v>
       </c>
       <c r="E376" s="16">
+        <f t="shared" si="119"/>
+        <v>28757741.447615486</v>
+      </c>
+      <c r="F376" s="16">
+        <v>5</v>
+      </c>
+      <c r="G376" s="18">
         <f t="shared" si="118"/>
-        <v>28757741.447615486</v>
-      </c>
-      <c r="F376" s="16">
-        <v>5</v>
-      </c>
-      <c r="G376" s="18">
-        <f t="shared" si="119"/>
-        <v>1.5132502236249917E+18</v>
+        <v>1.8075773632592476E+18</v>
       </c>
       <c r="H376" s="16">
         <f t="shared" si="116"/>
@@ -30404,15 +30404,15 @@
         <v>100</v>
       </c>
       <c r="E377" s="16">
+        <f t="shared" si="119"/>
+        <v>28981218.763049304</v>
+      </c>
+      <c r="F377" s="16">
+        <v>5</v>
+      </c>
+      <c r="G377" s="18">
         <f t="shared" si="118"/>
-        <v>28981218.763049304</v>
-      </c>
-      <c r="F377" s="16">
-        <v>5</v>
-      </c>
-      <c r="G377" s="18">
-        <f t="shared" si="119"/>
-        <v>1.5420730359333919E+18</v>
+        <v>1.8421537752799066E+18</v>
       </c>
       <c r="H377" s="16">
         <f t="shared" si="116"/>
@@ -30476,15 +30476,15 @@
         <v>100</v>
       </c>
       <c r="E378" s="16">
+        <f t="shared" si="119"/>
+        <v>29205830.637956366</v>
+      </c>
+      <c r="F378" s="16">
+        <v>5</v>
+      </c>
+      <c r="G378" s="18">
         <f t="shared" si="118"/>
-        <v>29205830.637956366</v>
-      </c>
-      <c r="F378" s="16">
-        <v>5</v>
-      </c>
-      <c r="G378" s="18">
-        <f t="shared" si="119"/>
-        <v>1.5713658762570332E+18</v>
+        <v>1.877296853461035E+18</v>
       </c>
       <c r="H378" s="16">
         <f t="shared" si="116"/>
@@ -30548,15 +30548,15 @@
         <v>100</v>
       </c>
       <c r="E379" s="16">
+        <f t="shared" si="119"/>
+        <v>29431579.791888423</v>
+      </c>
+      <c r="F379" s="16">
+        <v>5</v>
+      </c>
+      <c r="G379" s="18">
         <f t="shared" si="118"/>
-        <v>29431579.791888423</v>
-      </c>
-      <c r="F379" s="16">
-        <v>5</v>
-      </c>
-      <c r="G379" s="18">
-        <f t="shared" si="119"/>
-        <v>1.6011351288482775E+18</v>
+        <v>1.913014340551713E+18</v>
       </c>
       <c r="H379" s="16">
         <f t="shared" si="116"/>
@@ -30620,15 +30620,15 @@
         <v>100</v>
       </c>
       <c r="E380" s="16">
+        <f t="shared" si="119"/>
+        <v>29658468.943666682</v>
+      </c>
+      <c r="F380" s="16">
+        <v>5</v>
+      </c>
+      <c r="G380" s="18">
         <f t="shared" si="118"/>
-        <v>29658468.943666682</v>
-      </c>
-      <c r="F380" s="16">
-        <v>5</v>
-      </c>
-      <c r="G380" s="18">
-        <f t="shared" si="119"/>
-        <v>1.6313872473720113E+18</v>
+        <v>1.9493140641082847E+18</v>
       </c>
       <c r="H380" s="16">
         <f t="shared" si="116"/>
@@ -30692,15 +30692,15 @@
         <v>100</v>
       </c>
       <c r="E381" s="16">
+        <f t="shared" si="119"/>
+        <v>29886500.811383925</v>
+      </c>
+      <c r="F381" s="16">
+        <v>5</v>
+      </c>
+      <c r="G381" s="18">
         <f t="shared" si="118"/>
-        <v>29886500.811383925</v>
-      </c>
-      <c r="F381" s="16">
-        <v>5</v>
-      </c>
-      <c r="G381" s="18">
-        <f t="shared" si="119"/>
-        <v>1.6621287554731817E+18</v>
+        <v>1.9862039371945344E+18</v>
       </c>
       <c r="H381" s="16">
         <f t="shared" si="116"/>
@@ -30764,15 +30764,15 @@
         <v>100</v>
       </c>
       <c r="E382" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>30115678.112407014</v>
       </c>
       <c r="F382" s="16">
         <v>5</v>
       </c>
       <c r="G382" s="18">
-        <f t="shared" si="119"/>
-        <v>1.69336624734751E+18</v>
+        <f>A382^7.15+A382^4+100*A382+100</f>
+        <v>2.7890270029195356E+18</v>
       </c>
       <c r="H382" s="16">
         <f t="shared" si="116"/>
@@ -30836,15 +30836,15 @@
         <v>100</v>
       </c>
       <c r="E383" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>30346003.563378759</v>
       </c>
       <c r="F383" s="16">
         <v>5</v>
       </c>
       <c r="G383" s="18">
-        <f t="shared" si="119"/>
-        <v>1.7251063883152812E+18</v>
+        <f t="shared" ref="G383:G390" si="120">A383^7.15+A383^4+100*A383+100</f>
+        <v>2.8419313267495895E+18</v>
       </c>
       <c r="H383" s="16">
         <f t="shared" si="116"/>
@@ -30908,15 +30908,15 @@
         <v>100</v>
       </c>
       <c r="E384" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>30577479.880219702</v>
       </c>
       <c r="F384" s="16">
         <v>5</v>
       </c>
       <c r="G384" s="18">
-        <f t="shared" si="119"/>
-        <v>1.7573559153982492E+18</v>
+        <f t="shared" si="120"/>
+        <v>2.8956965454334152E+18</v>
       </c>
       <c r="H384" s="16">
         <f t="shared" si="116"/>
@@ -30980,15 +30980,15 @@
         <v>100</v>
       </c>
       <c r="E385" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>30810109.778130893</v>
       </c>
       <c r="F385" s="16">
         <v>5</v>
       </c>
       <c r="G385" s="18">
-        <f t="shared" si="119"/>
-        <v>1.7901216378998175E+18</v>
+        <f t="shared" si="120"/>
+        <v>2.9503343592336748E+18</v>
       </c>
       <c r="H385" s="16">
         <f t="shared" si="116"/>
@@ -31052,18 +31052,18 @@
         <v>100</v>
       </c>
       <c r="E386" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>31043895.971595373</v>
       </c>
       <c r="F386" s="16">
         <v>5</v>
       </c>
       <c r="G386" s="18">
-        <f t="shared" si="119"/>
-        <v>1.823410437988215E+18</v>
+        <f t="shared" si="120"/>
+        <v>3.0058565962156616E+18</v>
       </c>
       <c r="H386" s="16">
-        <f t="shared" ref="H386:H402" si="120">A386^2.14+50+50*A386</f>
+        <f t="shared" ref="H386:H402" si="121">A386^2.14+50+50*A386</f>
         <v>358460.13532457844</v>
       </c>
       <c r="I386" s="16">
@@ -31124,18 +31124,18 @@
         <v>100</v>
       </c>
       <c r="E387" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>31278841.174380444</v>
       </c>
       <c r="F387" s="16">
         <v>5</v>
       </c>
       <c r="G387" s="18">
-        <f t="shared" si="119"/>
-        <v>1.8572292712828759E+18</v>
+        <f t="shared" si="120"/>
+        <v>3.0622752133039488E+18</v>
       </c>
       <c r="H387" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>360403.33152943745</v>
       </c>
       <c r="I387" s="16">
@@ -31196,18 +31196,18 @@
         <v>100</v>
       </c>
       <c r="E388" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>31514948.099539738</v>
       </c>
       <c r="F388" s="16">
         <v>5</v>
       </c>
       <c r="G388" s="18">
-        <f t="shared" si="119"/>
-        <v>1.8915851674441004E+18</v>
+        <f t="shared" si="120"/>
+        <v>3.1196022973452841E+18</v>
       </c>
       <c r="H388" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>362352.1418724723</v>
       </c>
       <c r="I388" s="16">
@@ -31268,18 +31268,18 @@
         <v>100</v>
       </c>
       <c r="E389" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>31752219.459415197</v>
       </c>
       <c r="F389" s="16">
         <v>5</v>
       </c>
       <c r="G389" s="18">
-        <f t="shared" si="119"/>
-        <v>1.92648523076575E+18</v>
+        <f t="shared" si="120"/>
+        <v>3.177850066177282E+18</v>
       </c>
       <c r="H389" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>364306.56839291536</v>
       </c>
       <c r="I389" s="16">
@@ -31340,18 +31340,18 @@
         <v>100</v>
       </c>
       <c r="E390" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>31990657.965639409</v>
       </c>
       <c r="F390" s="16">
         <v>5</v>
       </c>
       <c r="G390" s="18">
-        <f t="shared" si="119"/>
-        <v>1.9619366407712435E+18</v>
+        <f t="shared" si="120"/>
+        <v>3.2370308697032253E+18</v>
       </c>
       <c r="H390" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>366266.61312545702</v>
       </c>
       <c r="I390" s="16">
@@ -31412,18 +31412,18 @@
         <v>100</v>
       </c>
       <c r="E391" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>32230266.329136971</v>
       </c>
       <c r="F391" s="16">
         <v>5</v>
       </c>
       <c r="G391" s="18">
-        <f t="shared" si="119"/>
-        <v>1.9979466528126272E+18</v>
+        <f>A391^7.2+A391^4+100*A391+100</f>
+        <v>4.4425991766655258E+18</v>
       </c>
       <c r="H391" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>368232.27810027351</v>
       </c>
       <c r="I391" s="16">
@@ -31484,18 +31484,18 @@
         <v>100</v>
       </c>
       <c r="E392" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>32471047.260127235</v>
       </c>
       <c r="F392" s="16">
         <v>5</v>
       </c>
       <c r="G392" s="18">
-        <f t="shared" si="119"/>
-        <v>2.0345225986730604E+18</v>
+        <f>A392^7.25+A392^4+100*A392+100</f>
+        <v>6.0984350467244401E+18</v>
       </c>
       <c r="H392" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>370203.56534304563</v>
       </c>
       <c r="I392" s="16">
@@ -31556,18 +31556,18 @@
         <v>100</v>
       </c>
       <c r="E393" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>32713003.468125604</v>
       </c>
       <c r="F393" s="16">
         <v>5</v>
       </c>
       <c r="G393" s="18">
-        <f t="shared" si="119"/>
-        <v>2.0716718871721994E+18</v>
+        <f t="shared" ref="G393:G402" si="122">A393^7.25+A393^4+100*A393+100</f>
+        <v>6.2127158778153953E+18</v>
       </c>
       <c r="H393" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>372180.47687497962</v>
       </c>
       <c r="I393" s="16">
@@ -31628,18 +31628,18 @@
         <v>100</v>
       </c>
       <c r="E394" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>32956137.661946394</v>
       </c>
       <c r="F394" s="16">
         <v>5</v>
       </c>
       <c r="G394" s="18">
-        <f t="shared" si="119"/>
-        <v>2.1094020047751583E+18</v>
+        <f t="shared" si="122"/>
+        <v>6.3288381222361815E+18</v>
       </c>
       <c r="H394" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>374163.01471283019</v>
       </c>
       <c r="I394" s="16">
@@ -31700,18 +31700,18 @@
         <v>100</v>
       </c>
       <c r="E395" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>33200452.549703777</v>
       </c>
       <c r="F395" s="16">
         <v>5</v>
       </c>
       <c r="G395" s="18">
-        <f t="shared" si="119"/>
-        <v>2.1477205162044879E+18</v>
+        <f t="shared" si="122"/>
+        <v>6.4468266394774927E+18</v>
       </c>
       <c r="H395" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>376151.18086892331</v>
       </c>
       <c r="I395" s="16">
@@ -31772,18 +31772,18 @@
         <v>100</v>
       </c>
       <c r="E396" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>33445950.838814508</v>
       </c>
       <c r="F396" s="16">
         <v>5</v>
       </c>
       <c r="G396" s="18">
-        <f t="shared" si="119"/>
-        <v>2.1866350650553838E+18</v>
+        <f t="shared" si="122"/>
+        <v>6.5667065600175811E+18</v>
       </c>
       <c r="H396" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>378144.97735117102</v>
       </c>
       <c r="I396" s="16">
@@ -31844,18 +31844,18 @@
         <v>100</v>
       </c>
       <c r="E397" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>33692635.235999487</v>
       </c>
       <c r="F397" s="16">
         <v>5</v>
       </c>
       <c r="G397" s="18">
-        <f t="shared" si="119"/>
-        <v>2.2261533744142804E+18</v>
+        <f t="shared" si="122"/>
+        <v>6.688503287575554E+18</v>
       </c>
       <c r="H397" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>380144.40616309887</v>
       </c>
       <c r="I397" s="16">
@@ -31916,18 +31916,18 @@
         <v>100</v>
       </c>
       <c r="E398" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>33940508.447286077</v>
       </c>
       <c r="F398" s="16">
         <v>5</v>
       </c>
       <c r="G398" s="18">
-        <f t="shared" si="119"/>
-        <v>2.2662832474805893E+18</v>
+        <f t="shared" si="122"/>
+        <v>6.8122425013772411E+18</v>
       </c>
       <c r="H398" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>382149.4693038633</v>
       </c>
       <c r="I398" s="16">
@@ -31988,18 +31988,18 @@
         <v>100</v>
       </c>
       <c r="E399" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>34189573.178009719</v>
       </c>
       <c r="F399" s="16">
         <v>5</v>
       </c>
       <c r="G399" s="18">
-        <f t="shared" si="119"/>
-        <v>2.3070325681917967E+18</v>
+        <f t="shared" si="122"/>
+        <v>6.9379501584345078E+18</v>
       </c>
       <c r="H399" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>384160.16876827361</v>
       </c>
       <c r="I399" s="16">
@@ -32060,18 +32060,18 @@
         <v>100</v>
       </c>
       <c r="E400" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>34439832.132815748</v>
       </c>
       <c r="F400" s="16">
         <v>5</v>
       </c>
       <c r="G400" s="18">
-        <f t="shared" si="119"/>
-        <v>2.3484093018517386E+18</v>
+        <f t="shared" si="122"/>
+        <v>7.0656524958371052E+18</v>
       </c>
       <c r="H400" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>386176.50654680986</v>
       </c>
       <c r="I400" s="16">
@@ -32132,18 +32132,18 @@
         <v>100</v>
       </c>
       <c r="E401" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>34691288.015661851</v>
       </c>
       <c r="F401" s="16">
         <v>5</v>
       </c>
       <c r="G401" s="18">
-        <f t="shared" si="119"/>
-        <v>2.3904214957622548E+18</v>
+        <f t="shared" si="122"/>
+        <v>7.1953760330579651E+18</v>
       </c>
       <c r="H401" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>388198.48462564655</v>
       </c>
       <c r="I401" s="16">
@@ -32204,18 +32204,18 @@
         <v>100</v>
       </c>
       <c r="E402" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>34943943.529819191</v>
       </c>
       <c r="F402" s="16">
         <v>5</v>
       </c>
       <c r="G402" s="18">
-        <f t="shared" si="119"/>
-        <v>2.4330772798580644E+18</v>
+        <f t="shared" si="122"/>
+        <v>7.3271475742713149E+18</v>
       </c>
       <c r="H402" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>390226.10498667031</v>
       </c>
       <c r="I402" s="16">

--- a/Assets/06.Table/EnemyTable.xlsx
+++ b/Assets/06.Table/EnemyTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D675C77-9405-48D0-81A8-88D9BE8B48D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2B3CDE-B149-4700-95BB-105F2B8FEC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2670" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTable" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="104">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,6 +645,13 @@
   </si>
   <si>
     <t>16-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-1</t>
+  </si>
+  <si>
+    <t>17-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,11 +1248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:Y402"/>
+  <dimension ref="A1:Y453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G394" sqref="G394"/>
+      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G446" sqref="G446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27827,7 +27834,7 @@
         <v>276792.94563609746</v>
       </c>
       <c r="I341" s="16">
-        <f t="shared" ref="I341:I402" si="117">A341^6.018+A341^4+1000*A341+100</f>
+        <f t="shared" ref="I341:I404" si="117">A341^6.018+A341^4+1000*A341+100</f>
         <v>1685563765539115.3</v>
       </c>
       <c r="J341" s="16">
@@ -29756,7 +29763,7 @@
         <v>98</v>
       </c>
       <c r="E368" s="16">
-        <f t="shared" ref="E368:E402" si="119">A368^2.899</f>
+        <f t="shared" ref="E368:E413" si="119">A368^2.899</f>
         <v>27010440.476236761</v>
       </c>
       <c r="F368" s="16">
@@ -31063,7 +31070,7 @@
         <v>3.0058565962156616E+18</v>
       </c>
       <c r="H386" s="16">
-        <f t="shared" ref="H386:H402" si="121">A386^2.14+50+50*A386</f>
+        <f t="shared" ref="H386:H449" si="121">A386^2.14+50+50*A386</f>
         <v>358460.13532457844</v>
       </c>
       <c r="I386" s="16">
@@ -32262,6 +32269,3678 @@
         <v>395</v>
       </c>
       <c r="W402" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="403" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="5">
+        <v>401</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E403" s="16">
+        <f t="shared" si="119"/>
+        <v>35197801.377875164</v>
+      </c>
+      <c r="F403" s="16">
+        <v>5</v>
+      </c>
+      <c r="G403" s="18">
+        <f>A403^7.255+A403^4+100*A403+100</f>
+        <v>7.687983185683158E+18</v>
+      </c>
+      <c r="H403" s="16">
+        <f t="shared" si="121"/>
+        <v>392259.36960750137</v>
+      </c>
+      <c r="I403" s="16">
+        <f t="shared" si="117"/>
+        <v>4631538292532198</v>
+      </c>
+      <c r="J403" s="16">
+        <v>1</v>
+      </c>
+      <c r="K403" s="16">
+        <v>11</v>
+      </c>
+      <c r="L403" s="16">
+        <v>5</v>
+      </c>
+      <c r="M403" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N403" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O403" s="16">
+        <v>30</v>
+      </c>
+      <c r="P403" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q403" s="16">
+        <v>0</v>
+      </c>
+      <c r="R403" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S403" s="16">
+        <v>85.250000000006295</v>
+      </c>
+      <c r="T403" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U403" s="18">
+        <v>498</v>
+      </c>
+      <c r="V403" s="16">
+        <v>397</v>
+      </c>
+      <c r="W403" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="404" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A404" s="15">
+        <v>402</v>
+      </c>
+      <c r="B404" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C404" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E404" s="16">
+        <f t="shared" si="119"/>
+        <v>35452864.261734493</v>
+      </c>
+      <c r="F404" s="16">
+        <v>5</v>
+      </c>
+      <c r="G404" s="18">
+        <f t="shared" ref="G404:G412" si="123">A404^7.255+A404^4+100*A404+100</f>
+        <v>7.8281658210316247E+18</v>
+      </c>
+      <c r="H404" s="16">
+        <f t="shared" si="121"/>
+        <v>394298.28046151088</v>
+      </c>
+      <c r="I404" s="16">
+        <f t="shared" si="117"/>
+        <v>4701482240480016</v>
+      </c>
+      <c r="J404" s="16">
+        <v>1</v>
+      </c>
+      <c r="K404" s="16">
+        <v>11</v>
+      </c>
+      <c r="L404" s="16">
+        <v>5</v>
+      </c>
+      <c r="M404" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N404" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O404" s="16">
+        <v>30</v>
+      </c>
+      <c r="P404" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q404" s="16">
+        <v>0</v>
+      </c>
+      <c r="R404" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S404" s="16">
+        <v>85.571428571434893</v>
+      </c>
+      <c r="T404" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U404" s="18">
+        <v>499</v>
+      </c>
+      <c r="V404" s="16">
+        <v>399</v>
+      </c>
+      <c r="W404" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="405" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A405" s="19">
+        <v>403</v>
+      </c>
+      <c r="B405" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C405" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E405" s="16">
+        <f t="shared" si="119"/>
+        <v>35709134.882621616</v>
+      </c>
+      <c r="F405" s="16">
+        <v>5</v>
+      </c>
+      <c r="G405" s="18">
+        <f t="shared" si="123"/>
+        <v>7.9705467092441221E+18</v>
+      </c>
+      <c r="H405" s="16">
+        <f t="shared" si="121"/>
+        <v>396342.83951784449</v>
+      </c>
+      <c r="I405" s="16">
+        <f t="shared" ref="I405:I452" si="124">A405^6.018+A405^4+1000*A405+100</f>
+        <v>4772304739060782</v>
+      </c>
+      <c r="J405" s="16">
+        <v>1</v>
+      </c>
+      <c r="K405" s="16">
+        <v>11</v>
+      </c>
+      <c r="L405" s="16">
+        <v>5</v>
+      </c>
+      <c r="M405" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N405" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O405" s="16">
+        <v>30</v>
+      </c>
+      <c r="P405" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q405" s="16">
+        <v>0</v>
+      </c>
+      <c r="R405" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S405" s="16">
+        <v>85.892857142863505</v>
+      </c>
+      <c r="T405" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U405" s="18">
+        <v>500</v>
+      </c>
+      <c r="V405" s="16">
+        <v>401</v>
+      </c>
+      <c r="W405" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="406" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A406" s="15">
+        <v>404</v>
+      </c>
+      <c r="B406" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E406" s="16">
+        <f t="shared" si="119"/>
+        <v>35966615.941082552</v>
+      </c>
+      <c r="F406" s="16">
+        <v>5</v>
+      </c>
+      <c r="G406" s="18">
+        <f t="shared" si="123"/>
+        <v>8.1151547385505065E+18</v>
+      </c>
+      <c r="H406" s="16">
+        <f t="shared" si="121"/>
+        <v>398393.0487414393</v>
+      </c>
+      <c r="I406" s="16">
+        <f t="shared" si="124"/>
+        <v>4844014602389940</v>
+      </c>
+      <c r="J406" s="16">
+        <v>1</v>
+      </c>
+      <c r="K406" s="16">
+        <v>11</v>
+      </c>
+      <c r="L406" s="16">
+        <v>5</v>
+      </c>
+      <c r="M406" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N406" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O406" s="16">
+        <v>30</v>
+      </c>
+      <c r="P406" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q406" s="16">
+        <v>0</v>
+      </c>
+      <c r="R406" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S406" s="16">
+        <v>86.214285714292103</v>
+      </c>
+      <c r="T406" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U406" s="18">
+        <v>501</v>
+      </c>
+      <c r="V406" s="16">
+        <v>403</v>
+      </c>
+      <c r="W406" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A407" s="19">
+        <v>405</v>
+      </c>
+      <c r="B407" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C407" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E407" s="16">
+        <f t="shared" si="119"/>
+        <v>36225310.136986136</v>
+      </c>
+      <c r="F407" s="16">
+        <v>5</v>
+      </c>
+      <c r="G407" s="18">
+        <f t="shared" si="123"/>
+        <v>8.2620191038061414E+18</v>
+      </c>
+      <c r="H407" s="16">
+        <f t="shared" si="121"/>
+        <v>400448.9100930416</v>
+      </c>
+      <c r="I407" s="16">
+        <f t="shared" si="124"/>
+        <v>4916620710837750</v>
+      </c>
+      <c r="J407" s="16">
+        <v>1</v>
+      </c>
+      <c r="K407" s="16">
+        <v>11</v>
+      </c>
+      <c r="L407" s="16">
+        <v>5</v>
+      </c>
+      <c r="M407" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N407" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O407" s="16">
+        <v>30</v>
+      </c>
+      <c r="P407" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q407" s="16">
+        <v>0</v>
+      </c>
+      <c r="R407" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S407" s="16">
+        <v>86.535714285720701</v>
+      </c>
+      <c r="T407" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U407" s="18">
+        <v>502</v>
+      </c>
+      <c r="V407" s="16">
+        <v>405</v>
+      </c>
+      <c r="W407" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A408" s="15">
+        <v>406</v>
+      </c>
+      <c r="B408" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C408" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E408" s="16">
+        <f t="shared" si="119"/>
+        <v>36485220.169526868</v>
+      </c>
+      <c r="F408" s="16">
+        <v>5</v>
+      </c>
+      <c r="G408" s="18">
+        <f t="shared" si="123"/>
+        <v>8.411169308975402E+18</v>
+      </c>
+      <c r="H408" s="16">
+        <f t="shared" si="121"/>
+        <v>402510.42552923085</v>
+      </c>
+      <c r="I408" s="16">
+        <f t="shared" si="124"/>
+        <v>4990132011361802</v>
+      </c>
+      <c r="J408" s="16">
+        <v>1</v>
+      </c>
+      <c r="K408" s="16">
+        <v>11</v>
+      </c>
+      <c r="L408" s="16">
+        <v>5</v>
+      </c>
+      <c r="M408" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N408" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O408" s="16">
+        <v>30</v>
+      </c>
+      <c r="P408" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q408" s="16">
+        <v>0</v>
+      </c>
+      <c r="R408" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S408" s="16">
+        <v>86.857142857149299</v>
+      </c>
+      <c r="T408" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U408" s="18">
+        <v>503</v>
+      </c>
+      <c r="V408" s="16">
+        <v>407</v>
+      </c>
+      <c r="W408" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A409" s="19">
+        <v>407</v>
+      </c>
+      <c r="B409" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C409" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E409" s="16">
+        <f t="shared" si="119"/>
+        <v>36746348.737225786</v>
+      </c>
+      <c r="F409" s="16">
+        <v>5</v>
+      </c>
+      <c r="G409" s="18">
+        <f t="shared" si="123"/>
+        <v>8.5626351696289126E+18</v>
+      </c>
+      <c r="H409" s="16">
+        <f t="shared" si="121"/>
+        <v>404577.5970024346</v>
+      </c>
+      <c r="I409" s="16">
+        <f t="shared" si="124"/>
+        <v>5064557517839788</v>
+      </c>
+      <c r="J409" s="16">
+        <v>1</v>
+      </c>
+      <c r="K409" s="16">
+        <v>11</v>
+      </c>
+      <c r="L409" s="16">
+        <v>5</v>
+      </c>
+      <c r="M409" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N409" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O409" s="16">
+        <v>30</v>
+      </c>
+      <c r="P409" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q409" s="16">
+        <v>0</v>
+      </c>
+      <c r="R409" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S409" s="16">
+        <v>87.178571428577897</v>
+      </c>
+      <c r="T409" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U409" s="18">
+        <v>504</v>
+      </c>
+      <c r="V409" s="16">
+        <v>409</v>
+      </c>
+      <c r="W409" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A410" s="15">
+        <v>408</v>
+      </c>
+      <c r="B410" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C410" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E410" s="16">
+        <f t="shared" si="119"/>
+        <v>37008698.537933037</v>
+      </c>
+      <c r="F410" s="16">
+        <v>5</v>
+      </c>
+      <c r="G410" s="18">
+        <f t="shared" si="123"/>
+        <v>8.7164468154553201E+18</v>
+      </c>
+      <c r="H410" s="16">
+        <f t="shared" si="121"/>
+        <v>406650.42646095005</v>
+      </c>
+      <c r="I410" s="16">
+        <f t="shared" si="124"/>
+        <v>5139906311403578</v>
+      </c>
+      <c r="J410" s="16">
+        <v>1</v>
+      </c>
+      <c r="K410" s="16">
+        <v>11</v>
+      </c>
+      <c r="L410" s="16">
+        <v>5</v>
+      </c>
+      <c r="M410" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N410" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O410" s="16">
+        <v>30</v>
+      </c>
+      <c r="P410" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q410" s="16">
+        <v>0</v>
+      </c>
+      <c r="R410" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S410" s="16">
+        <v>87.500000000006494</v>
+      </c>
+      <c r="T410" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U410" s="18">
+        <v>505</v>
+      </c>
+      <c r="V410" s="16">
+        <v>411</v>
+      </c>
+      <c r="W410" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="411" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A411" s="15">
+        <v>409</v>
+      </c>
+      <c r="B411" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C411" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E411" s="16">
+        <f t="shared" si="119"/>
+        <v>37272272.268828958</v>
+      </c>
+      <c r="F411" s="16">
+        <v>5</v>
+      </c>
+      <c r="G411" s="18">
+        <f t="shared" si="123"/>
+        <v>8.8726346927860992E+18</v>
+      </c>
+      <c r="H411" s="16">
+        <f t="shared" si="121"/>
+        <v>408728.91584896221</v>
+      </c>
+      <c r="I411" s="16">
+        <f t="shared" si="124"/>
+        <v>5216187540773762</v>
+      </c>
+      <c r="J411" s="16">
+        <v>1</v>
+      </c>
+      <c r="K411" s="16">
+        <v>11</v>
+      </c>
+      <c r="L411" s="16">
+        <v>5</v>
+      </c>
+      <c r="M411" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N411" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O411" s="16">
+        <v>30</v>
+      </c>
+      <c r="P411" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q411" s="16">
+        <v>0</v>
+      </c>
+      <c r="R411" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S411" s="16">
+        <v>87.821428571435106</v>
+      </c>
+      <c r="T411" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U411" s="18">
+        <v>506</v>
+      </c>
+      <c r="V411" s="16">
+        <v>413</v>
+      </c>
+      <c r="W411" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="412" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A412" s="19">
+        <v>410</v>
+      </c>
+      <c r="B412" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C412" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E412" s="16">
+        <f t="shared" si="119"/>
+        <v>37537072.626426563</v>
+      </c>
+      <c r="F412" s="16">
+        <v>5</v>
+      </c>
+      <c r="G412" s="18">
+        <f t="shared" si="123"/>
+        <v>9.0312295671353027E+18</v>
+      </c>
+      <c r="H412" s="16">
+        <f t="shared" si="121"/>
+        <v>410813.0671065604</v>
+      </c>
+      <c r="I412" s="16">
+        <f t="shared" si="124"/>
+        <v>5293410422595220</v>
+      </c>
+      <c r="J412" s="16">
+        <v>1</v>
+      </c>
+      <c r="K412" s="16">
+        <v>11</v>
+      </c>
+      <c r="L412" s="16">
+        <v>5</v>
+      </c>
+      <c r="M412" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N412" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O412" s="16">
+        <v>30</v>
+      </c>
+      <c r="P412" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q412" s="16">
+        <v>0</v>
+      </c>
+      <c r="R412" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S412" s="16">
+        <v>88.142857142863704</v>
+      </c>
+      <c r="T412" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U412" s="18">
+        <v>507</v>
+      </c>
+      <c r="V412" s="16">
+        <v>415</v>
+      </c>
+      <c r="W412" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="413" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A413" s="15">
+        <v>411</v>
+      </c>
+      <c r="B413" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C413" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E413" s="16">
+        <f t="shared" si="119"/>
+        <v>37803102.306572855</v>
+      </c>
+      <c r="F413" s="16">
+        <v>5</v>
+      </c>
+      <c r="G413" s="18">
+        <f>A413^7.26+A413^4+100*A413+100</f>
+        <v>9.4730892310461727E+18</v>
+      </c>
+      <c r="H413" s="16">
+        <f t="shared" si="121"/>
+        <v>412902.88216975977</v>
+      </c>
+      <c r="I413" s="16">
+        <f t="shared" si="124"/>
+        <v>5371584241773535</v>
+      </c>
+      <c r="J413" s="16">
+        <v>1</v>
+      </c>
+      <c r="K413" s="16">
+        <v>11</v>
+      </c>
+      <c r="L413" s="16">
+        <v>5</v>
+      </c>
+      <c r="M413" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N413" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O413" s="16">
+        <v>30</v>
+      </c>
+      <c r="P413" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q413" s="16">
+        <v>0</v>
+      </c>
+      <c r="R413" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S413" s="16">
+        <v>88.464285714292302</v>
+      </c>
+      <c r="T413" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U413" s="18">
+        <v>508</v>
+      </c>
+      <c r="V413" s="16">
+        <v>417</v>
+      </c>
+      <c r="W413" s="22">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="414" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A414" s="15">
+        <v>412</v>
+      </c>
+      <c r="B414" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C414" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E414" s="16">
+        <f>A414^2.898</f>
+        <v>37841830.148118973</v>
+      </c>
+      <c r="F414" s="16">
+        <v>5</v>
+      </c>
+      <c r="G414" s="18">
+        <f t="shared" ref="G414:G422" si="125">A414^7.26+A414^4+100*A414+100</f>
+        <v>9.6417038928421847E+18</v>
+      </c>
+      <c r="H414" s="16">
+        <f t="shared" si="121"/>
+        <v>414998.36297052063</v>
+      </c>
+      <c r="I414" s="16">
+        <f t="shared" si="124"/>
+        <v>5450718351812314</v>
+      </c>
+      <c r="J414" s="16">
+        <v>1</v>
+      </c>
+      <c r="K414" s="16">
+        <v>11</v>
+      </c>
+      <c r="L414" s="16">
+        <v>5</v>
+      </c>
+      <c r="M414" s="16">
+        <v>10000</v>
+      </c>
+      <c r="N414" s="16">
+        <v>10000</v>
+      </c>
+      <c r="O414" s="16">
+        <v>30</v>
+      </c>
+      <c r="P414" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q414" s="16">
+        <v>0</v>
+      </c>
+      <c r="R414" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S414" s="16">
+        <v>88.7857142857209</v>
+      </c>
+      <c r="T414" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U414" s="18">
+        <v>509</v>
+      </c>
+      <c r="V414" s="16">
+        <v>419</v>
+      </c>
+      <c r="W414" s="22">
+        <v>1.07<